--- a/config/nickname_song.xlsx
+++ b/config/nickname_song.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BaiduNetdiskDownload\backend\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Tsugu-Backend\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234C226E-AC8A-4422-B3DD-C93A80709FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDF879D-E4C0-4A76-97D3-CE153A02A58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="1187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="1199">
   <si>
     <t>Id</t>
   </si>
@@ -52,9 +52,6 @@
     <t>ティアドロップス</t>
   </si>
   <si>
-    <t>泪滴,死亡三连,teardrops,この手を離さない</t>
-  </si>
-  <si>
     <t>夏空 SUN! SUN! SEVEN!</t>
   </si>
   <si>
@@ -142,9 +139,6 @@
     <t>シュガーソングとビターステップ</t>
   </si>
   <si>
-    <t>糖歌,血界战线,🍬,糖,32分</t>
-  </si>
-  <si>
     <t>いーあるふぁんくらぶ</t>
   </si>
   <si>
@@ -190,9 +184,6 @@
     <t>BLACK SHOUT</t>
   </si>
   <si>
-    <t>黑吼,黑叫,nasu,BLACK SHORT</t>
-  </si>
-  <si>
     <t>Re:birth day</t>
   </si>
   <si>
@@ -328,9 +319,6 @@
     <t>great escape</t>
   </si>
   <si>
-    <t>大逃亡,进击的巨人,进巨,核桃,ge</t>
-  </si>
-  <si>
     <t>紅蓮の弓矢</t>
   </si>
   <si>
@@ -340,15 +328,9 @@
     <t>熱色スターマイン</t>
   </si>
   <si>
-    <t>热色星火,星石,热色,頂点へ 狂い咲け</t>
-  </si>
-  <si>
     <t>花園電気ギター！！！</t>
   </si>
   <si>
-    <t>花园电气吉他,otae,花园吉他,花园电吉他,角色曲</t>
-  </si>
-  <si>
     <t>チョコレイトの低音レシピ</t>
   </si>
   <si>
@@ -442,9 +424,6 @@
     <t>Time Lapse</t>
   </si>
   <si>
-    <t>延时,时间推移,tl,短绿</t>
-  </si>
-  <si>
     <t>遠い音楽～ハートビート～</t>
   </si>
   <si>
@@ -496,9 +475,6 @@
     <t>恋は渾沌の隷也</t>
   </si>
   <si>
-    <t>激萌萝莉,奈亚子,三只佩奇,恋混沌</t>
-  </si>
-  <si>
     <t>プライド革命</t>
   </si>
   <si>
@@ -580,15 +556,9 @@
     <t>ONENESS</t>
   </si>
   <si>
-    <t>onemiss,1miss,拇指党震怒</t>
-  </si>
-  <si>
     <t>Opera of the wasteland</t>
   </si>
   <si>
-    <t>歌剧,网游,废土,NFO,ootw</t>
-  </si>
-  <si>
     <t>メランコリック</t>
   </si>
   <si>
@@ -706,9 +676,6 @@
     <t>二重の虹(ダブル レインボウ)</t>
   </si>
   <si>
-    <t>二重虹,ppp2章,二重之虹</t>
-  </si>
-  <si>
     <t>ふわふわ☆ゆめいろサンドイッチ</t>
   </si>
   <si>
@@ -889,9 +856,6 @@
     <t>PASSIONATE ANTHEM</t>
   </si>
   <si>
-    <t>爬,PA</t>
-  </si>
-  <si>
     <t>Crow Song</t>
   </si>
   <si>
@@ -919,9 +883,6 @@
     <t>キズナミュージック♪</t>
   </si>
   <si>
-    <t>羁绊歌,kzn,kizuna music</t>
-  </si>
-  <si>
     <t>BRAVE JEWEL</t>
   </si>
   <si>
@@ -991,9 +952,6 @@
     <t>Jumpin'</t>
   </si>
   <si>
-    <t>跳车,跳</t>
-  </si>
-  <si>
     <t>はれやか すこやか ぴかりんりん♪</t>
   </si>
   <si>
@@ -1423,9 +1381,6 @@
     <t>[FULL] FIRE BIRD</t>
   </si>
   <si>
-    <t>烤全鸡,烤全鸟</t>
-  </si>
-  <si>
     <t>Step×Step！</t>
   </si>
   <si>
@@ -1558,9 +1513,6 @@
     <t>Avant-garde HISTORY</t>
   </si>
   <si>
-    <t>前卫派,史诗,agh,前卫派历史</t>
-  </si>
-  <si>
     <t>UNION</t>
   </si>
   <si>
@@ -1732,9 +1684,6 @@
     <t>セツナトリップ</t>
   </si>
   <si>
-    <t>各位群友上午好,刹那旅途,各位朋友早上好,刹那旅程,尾粉接十六分,bpm290</t>
-  </si>
-  <si>
     <t>おジャ魔女カーニバル!!</t>
   </si>
   <si>
@@ -1858,9 +1807,6 @@
     <t>夜に駆ける</t>
   </si>
   <si>
-    <t>夜驱,夜跑,夜奔,试图把我激怒,yoasobi,夜游</t>
-  </si>
-  <si>
     <t>イエスタデイ</t>
   </si>
   <si>
@@ -2083,9 +2029,6 @@
     <t>競宴Red×Violet</t>
   </si>
   <si>
-    <t>竞宴,喜宴,囍宴,婚后高歌曲,对山歌,山歌,美竹兰你就是个（）,美竹兰你就是个()</t>
-  </si>
-  <si>
     <t>Trouble Joyful!!</t>
   </si>
   <si>
@@ -2119,9 +2062,6 @@
     <t>KING</t>
   </si>
   <si>
-    <t>王,剔牙,拉塞,叭叭叭</t>
-  </si>
-  <si>
     <t>きらっ☆と キミフェス！</t>
   </si>
   <si>
@@ -2275,9 +2215,6 @@
     <t>曇天</t>
   </si>
   <si>
-    <t>银魂,昙天,阴天</t>
-  </si>
-  <si>
     <t>グッバイ宣言</t>
   </si>
   <si>
@@ -2518,15 +2455,9 @@
     <t>Happy! Happier! Happiest!</t>
   </si>
   <si>
-    <t>三连Happy,乐乐乐,九纵连,9纵连,hhh</t>
-  </si>
-  <si>
     <t>ヒャダインのじょーじょーゆーじょー</t>
   </si>
   <si>
-    <t>日常,上上友情</t>
-  </si>
-  <si>
     <t>Preserved Roses</t>
   </si>
   <si>
@@ -2731,9 +2662,6 @@
     <t>フォニイ</t>
   </si>
   <si>
-    <t>phony</t>
-  </si>
-  <si>
     <t>南瓜头.mp4,闪光,高达,闪光的哈萨维,BPM208,27闪光</t>
   </si>
   <si>
@@ -3001,587 +2929,766 @@
     <t>女王,皇后,queen</t>
   </si>
   <si>
+    <t>Get Wild</t>
+  </si>
+  <si>
+    <t>小室</t>
+  </si>
+  <si>
+    <t>愛のしるし</t>
+  </si>
+  <si>
+    <t>HOT LIMIT</t>
+  </si>
+  <si>
+    <t>教主,西川贵教,阳性</t>
+  </si>
+  <si>
+    <t>私色きらめき日和</t>
+  </si>
+  <si>
+    <t>popy</t>
+  </si>
+  <si>
+    <t>Ever Sky Blue</t>
+  </si>
+  <si>
+    <t>ever sky blue</t>
+  </si>
+  <si>
+    <t>極彩色</t>
+  </si>
+  <si>
+    <t>极彩色</t>
+  </si>
+  <si>
+    <t>詩超絆</t>
+  </si>
+  <si>
+    <t>诗超绊,超诗你的绊</t>
+  </si>
+  <si>
+    <t>ボクらの夏's☆ショーたいむっ！！</t>
+  </si>
+  <si>
+    <t>summer summer summer,撒嘛撒嘛撒嘛,阿吉吉,抹布洗</t>
+  </si>
+  <si>
+    <t>ふぁいぶスマイル◯オールインっ！</t>
+  </si>
+  <si>
+    <t>我超原</t>
+  </si>
+  <si>
+    <t>迷路日々</t>
+  </si>
+  <si>
+    <t>melody,迷路日日,断手日</t>
+  </si>
+  <si>
+    <t>燦々</t>
+  </si>
+  <si>
+    <t>sansan,尾杀一万级,1081combo</t>
+  </si>
+  <si>
+    <t>ほな！</t>
+  </si>
+  <si>
+    <t>flow,你邦男声,优胜</t>
+  </si>
+  <si>
+    <t>チルドレンレコード(Re:boot)</t>
+  </si>
+  <si>
+    <t>孩童记录,children record</t>
+  </si>
+  <si>
+    <t>音がえしのセレナーデ</t>
+  </si>
+  <si>
+    <t>Ave Mujica</t>
+  </si>
+  <si>
+    <t>阿贝母鸡卡</t>
+  </si>
+  <si>
+    <t>祝福</t>
+  </si>
+  <si>
+    <t>高达,水星的魔女,水魔</t>
+  </si>
+  <si>
+    <t>可愛くてごめん</t>
+  </si>
+  <si>
+    <t>这么可爱真是抱歉呢,pp缺主唱</t>
+  </si>
+  <si>
+    <t>エゴロック</t>
+  </si>
+  <si>
+    <t>egorock,自我摇滚,123FAQ</t>
+  </si>
+  <si>
+    <t>D-tecnoLife</t>
+  </si>
+  <si>
+    <t>d-tecnolife,死神</t>
+  </si>
+  <si>
+    <t>サウダージ</t>
+  </si>
+  <si>
+    <t>saudade,relife,重返17岁</t>
+  </si>
+  <si>
+    <t>ヒバナ-Reloaded-</t>
+  </si>
+  <si>
+    <t>火花,七八十,敷衍了事</t>
+  </si>
+  <si>
+    <t>トウキョウ・シャンディ・ランデヴ</t>
+  </si>
+  <si>
+    <t>东京香蒂幽会,新福星小子</t>
+  </si>
+  <si>
+    <t>Be born</t>
+  </si>
+  <si>
+    <t>bb,出生,popy</t>
+  </si>
+  <si>
+    <t>影色舞</t>
+  </si>
+  <si>
+    <t>影色舞,冰,溜大了的小曲</t>
+  </si>
+  <si>
+    <t>歌いましょう鳴らしましょう</t>
+  </si>
+  <si>
+    <t>歌鸣,一同演奏一同歌唱,歌什么什么鸣什么什么</t>
+  </si>
+  <si>
+    <t>THRONE OF ROSE</t>
+  </si>
+  <si>
+    <t>蔷薇王座</t>
+  </si>
+  <si>
+    <t>猛独が襲う</t>
+  </si>
+  <si>
+    <t>独孤猛袭,孤独猛袭,猛独孤袭,猛独侵袭,猛独</t>
+  </si>
+  <si>
+    <t>swim</t>
+  </si>
+  <si>
+    <t>游泳</t>
+  </si>
+  <si>
+    <t>ヴィラン</t>
+  </si>
+  <si>
+    <t>villain</t>
+  </si>
+  <si>
+    <t>everyday flower</t>
+  </si>
+  <si>
+    <t>每天花,每日花,日日花</t>
+  </si>
+  <si>
+    <t>BATTLE CRY</t>
+  </si>
+  <si>
+    <t>战吼</t>
+  </si>
+  <si>
+    <t>裸の勇者</t>
+  </si>
+  <si>
+    <t>国王排名</t>
+  </si>
+  <si>
+    <t>That's why I'm here</t>
+  </si>
+  <si>
+    <t>テレキャスタービーボーイ</t>
+  </si>
+  <si>
+    <t>telecaster B-boy,电吉他说唱男孩</t>
+  </si>
+  <si>
+    <t>処救生</t>
+  </si>
+  <si>
+    <t>处救生,呼吸,kokyuu</t>
+  </si>
+  <si>
+    <t>Chu Chueen!</t>
+  </si>
+  <si>
+    <t>Merry Merry Thanks!!</t>
+  </si>
+  <si>
+    <t>蝶圣诞</t>
+  </si>
+  <si>
+    <t>東京テディベア</t>
+  </si>
+  <si>
+    <t>东京泰迪熊,敷衍了事</t>
+  </si>
+  <si>
+    <t>青春 To Be Continued</t>
+  </si>
+  <si>
+    <t>青春tbc</t>
+  </si>
+  <si>
+    <t>覚悟のLiberation</t>
+  </si>
+  <si>
+    <t>觉悟,liberation</t>
+  </si>
+  <si>
+    <t>らいふ・いず・みゅーじかるっ♪♪♪</t>
+  </si>
+  <si>
+    <t>life is musical</t>
+  </si>
+  <si>
+    <t>粉雪</t>
+  </si>
+  <si>
+    <t>一升的眼泪</t>
+  </si>
+  <si>
+    <t>Overdose</t>
+  </si>
+  <si>
+    <t>魔法少女とチョコレゐト</t>
+  </si>
+  <si>
+    <t>魔法少女与巧克力,魔法少女和巧克力,魔法少女</t>
+  </si>
+  <si>
+    <t>slash</t>
+  </si>
+  <si>
+    <t>高达,水星的魔女,水魔,/,／</t>
+  </si>
+  <si>
+    <t>私は最強</t>
+  </si>
+  <si>
+    <t>我是最强,海贼王</t>
+  </si>
+  <si>
+    <t>強風オールバック</t>
+  </si>
+  <si>
+    <t>强风大背头,强风</t>
+  </si>
+  <si>
+    <t>ホワイトノイズ</t>
+  </si>
+  <si>
+    <t>White Noise,白噪声,白噪音</t>
+  </si>
+  <si>
+    <t>カオスが極まる</t>
+  </si>
+  <si>
+    <t>第ゼロ感</t>
+  </si>
+  <si>
+    <t>第零感,灌篮高手</t>
+  </si>
+  <si>
+    <t>グッド・バイ</t>
+  </si>
+  <si>
+    <t>goodbye,再见,再会,rose</t>
+  </si>
+  <si>
+    <t>Radiate Warriors</t>
+  </si>
+  <si>
+    <t>A Sunset So Bright</t>
+  </si>
+  <si>
+    <t>どりーみんチュチュ</t>
+  </si>
+  <si>
+    <t>dreamin chuchu,情人节,梦楚楚</t>
+  </si>
+  <si>
+    <t>Ray of hope</t>
+  </si>
+  <si>
+    <t>輪符雨</t>
+  </si>
+  <si>
+    <t>refrain,轮符雨</t>
+  </si>
+  <si>
+    <t>蒼穹へのトレイル</t>
+  </si>
+  <si>
+    <t>苍穹</t>
+  </si>
+  <si>
+    <t>ドラマチック！アライブ</t>
+  </si>
+  <si>
+    <t>dramatic arrive</t>
+  </si>
+  <si>
+    <t>ReReReエボリューションず☆</t>
+  </si>
+  <si>
+    <t>rerere evolutions,rerere</t>
+  </si>
+  <si>
+    <t>VIOLET LINE</t>
+  </si>
+  <si>
+    <t>紫线,VL,vl,violet line</t>
+  </si>
+  <si>
+    <t>Always recall.</t>
+  </si>
+  <si>
+    <t>アイドル</t>
+  </si>
+  <si>
+    <t>idol,偶像,推子,我推的孩子</t>
+  </si>
+  <si>
+    <t>青のすみか</t>
+  </si>
+  <si>
+    <t>苍蓝所栖,咒术回战,咒回</t>
+  </si>
+  <si>
+    <t>乙女解剖</t>
+  </si>
+  <si>
+    <t>少女解剖</t>
+  </si>
+  <si>
+    <t>ノンブレス・オブリージュ</t>
+  </si>
+  <si>
+    <t>non-breath oblige,无呼吸义务</t>
+  </si>
+  <si>
+    <t>きゅうくらりん</t>
+  </si>
+  <si>
+    <t>かくれんぼ</t>
+  </si>
+  <si>
+    <t>捉迷藏,alia</t>
+  </si>
+  <si>
+    <t>ボッカデラベリタ</t>
+  </si>
+  <si>
+    <t>真理之口</t>
+  </si>
+  <si>
+    <t>怪獣の花唄</t>
+  </si>
+  <si>
+    <t>[超高難易度 新SPECIAL] SENSENFUKOKU</t>
+  </si>
+  <si>
+    <t>トレモロアイズ</t>
+  </si>
+  <si>
+    <t>颤动的眼眸</t>
+  </si>
+  <si>
+    <t>両翼のBrilliance</t>
+  </si>
+  <si>
+    <t>两翼</t>
+  </si>
+  <si>
+    <t>トリドリ＊パレット</t>
+  </si>
+  <si>
+    <t>五彩调色盘,toridori palette,toridori,トリドリ</t>
+  </si>
+  <si>
+    <t>Wreath of Brave</t>
+  </si>
+  <si>
+    <t>wob</t>
+  </si>
+  <si>
+    <t>ココ☆ナツ</t>
+  </si>
+  <si>
+    <t>这里夏天,coconuts</t>
+  </si>
+  <si>
+    <t>礎の花冠</t>
+  </si>
+  <si>
+    <t>花冠</t>
+  </si>
+  <si>
+    <t>ちゅ、多様性。</t>
+  </si>
+  <si>
+    <t>多样性</t>
+  </si>
+  <si>
+    <t>人マニア</t>
+  </si>
+  <si>
+    <t>人狂热者,人mania</t>
+  </si>
+  <si>
+    <t>雑踏、僕らの街</t>
+  </si>
+  <si>
+    <t>過惰幻</t>
+  </si>
+  <si>
+    <t>过惰幻</t>
+  </si>
+  <si>
+    <t>ティリカモニカリラ</t>
+  </si>
+  <si>
+    <t>毛二力,モニカ</t>
+  </si>
+  <si>
+    <t>歩拾道</t>
+  </si>
+  <si>
+    <t>步拾道</t>
+  </si>
+  <si>
+    <t>“Say cheese!!!!!”</t>
+  </si>
+  <si>
+    <t>说茄子</t>
+  </si>
+  <si>
+    <t>TARINAI</t>
+  </si>
+  <si>
+    <t>还不够</t>
+  </si>
+  <si>
+    <t>愛包ダンスホール</t>
+  </si>
+  <si>
+    <t>himehina,爱包</t>
+  </si>
+  <si>
+    <t>幾億光年</t>
+  </si>
+  <si>
+    <t>几亿光年</t>
+  </si>
+  <si>
+    <t>シカ色デイズ</t>
+  </si>
+  <si>
+    <t>鹿乃子</t>
+  </si>
+  <si>
+    <t>Georgette Me, Georgette You</t>
+  </si>
+  <si>
+    <t>母鸡卡ed</t>
+  </si>
+  <si>
+    <t>春日影</t>
+  </si>
+  <si>
+    <t>为什么要演奏</t>
+  </si>
+  <si>
+    <t>はいよろこんで</t>
+  </si>
+  <si>
+    <t>乐意效劳</t>
+  </si>
+  <si>
+    <t>ひとりじゃないんだから(パラレルver.)</t>
+  </si>
+  <si>
+    <t>羽泽咖啡店</t>
+  </si>
+  <si>
+    <t>だれかの心臓になれたなら</t>
+  </si>
+  <si>
+    <t>八芒星ダンス</t>
+  </si>
+  <si>
+    <t>八芒星</t>
+  </si>
+  <si>
+    <t>顔</t>
+  </si>
+  <si>
+    <t>颜</t>
+  </si>
+  <si>
+    <t>天球(そら)のMúsica</t>
+  </si>
+  <si>
+    <t>天球</t>
+  </si>
+  <si>
+    <t>[期間限定 SPECIAL]ピコっと！パピっと！！ガルパ☆ピコ！！！</t>
+  </si>
+  <si>
+    <t>愚人节</t>
+  </si>
+  <si>
+    <t>彩虹节拍</t>
+  </si>
+  <si>
+    <t>彩虹答辩</t>
+  </si>
+  <si>
+    <t>焚音打</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌托邦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steer to Utopia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王,剔牙,拉塞,叭叭叭,king</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「僕は...」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪兽的花之歌,怪兽的花歌,怪兽的花呗,花呗,怪兽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心脏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剥裤袜,僕は,bkw,bokuwa,我心危,我里危险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌剧,网游,废土,NFO,ootw,废土歌剧,歌剧废土</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爬,PA,热忱,热枕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热色星火,星石,热色,頂点へ 狂い咲け,热色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拔牙,楚楚晕,拔牙歌,chueen,Chu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑吼,黑叫,nasu,BLACK SHORT,咆哮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花咲く未来に</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花咲未来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烤全鸡,烤全鸟,full火鸟,大火鸟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜驱,夜跑,夜奔,试图把我激怒,yoasobi,夜游,夜驅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花园电气吉他,otae,花园吉他,花园电吉他,角色曲,花园电器,花园电气,花园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phony,伪物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西游记,hona,Hona,关西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onemiss,1miss,拇指党震怒,oneless</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌至极,chaos,蓝色监狱,混乱至极,混乱之极</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞宴,喜宴,囍宴,婚后高歌曲,对山歌,山歌,美竹兰你就是个（）,美竹兰你就是个(),红紫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大逃亡,进击的巨人,进巨,核桃,ge,great,escape</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延时,时间推移,tl,短绿,timelapse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mystic Light Quest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佩佩,神秘之光,mrfz,明日方舟,舟,粥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银魂,昙天,阴天,云天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ロケットサイダー</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漂流瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前卫派,史诗,agh,前卫派历史,前位派</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳车,跳,蒋平,jump,姜萍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在,exi,扰乱op,ex,大e3,我有e育症,e,牢大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fyd,牢大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泪滴,死亡三连,teardrops,この手を離さない,泪水落下,落泪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kyu-kurarin,心跳不止,心动不止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>誓いのWingbeat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wb,誓言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂沓,杂踏,雑踏,gbcop,熙熙攘攘,gbc,糟蹋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>糖歌,血界战线,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🍬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,糖,32分,糖车</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二重虹,ppp2章,二重之虹,俩彩虹,两彩虹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各位群友上午好,刹那旅途,各位朋友早上好,刹那旅程,尾粉接十六分,bpm290,刹那</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三连Happy,乐乐乐,九纵连,9纵连,hhh,happy,Happy!Happier!Happiest!,happyhappyhappier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常,上上友情,呐呐呐,呐呐呐呐呐,nanana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激萌萝莉,奈亚子,三只佩奇,恋混沌,恋爱混沌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希腊奶,各位群友晚上好,lzn,六兆年,六兆年一夜物语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>碧天伴走</t>
-  </si>
-  <si>
-    <t>逆天伴走,爱灯</t>
-  </si>
-  <si>
-    <t>Get Wild</t>
-  </si>
-  <si>
-    <t>小室</t>
-  </si>
-  <si>
-    <t>愛のしるし</t>
-  </si>
-  <si>
-    <t>HOT LIMIT</t>
-  </si>
-  <si>
-    <t>教主,西川贵教,阳性</t>
-  </si>
-  <si>
-    <t>私色きらめき日和</t>
-  </si>
-  <si>
-    <t>popy</t>
-  </si>
-  <si>
-    <t>Ever Sky Blue</t>
-  </si>
-  <si>
-    <t>ever sky blue</t>
-  </si>
-  <si>
-    <t>極彩色</t>
-  </si>
-  <si>
-    <t>极彩色</t>
-  </si>
-  <si>
-    <t>詩超絆</t>
-  </si>
-  <si>
-    <t>诗超绊,超诗你的绊</t>
-  </si>
-  <si>
-    <t>ボクらの夏's☆ショーたいむっ！！</t>
-  </si>
-  <si>
-    <t>summer summer summer,撒嘛撒嘛撒嘛,阿吉吉,抹布洗</t>
-  </si>
-  <si>
-    <t>ふぁいぶスマイル◯オールインっ！</t>
-  </si>
-  <si>
-    <t>我超原</t>
-  </si>
-  <si>
-    <t>迷路日々</t>
-  </si>
-  <si>
-    <t>melody,迷路日日,断手日</t>
-  </si>
-  <si>
-    <t>燦々</t>
-  </si>
-  <si>
-    <t>sansan,尾杀一万级,1081combo</t>
-  </si>
-  <si>
-    <t>ほな！</t>
-  </si>
-  <si>
-    <t>西游记,hona,Hona</t>
-  </si>
-  <si>
-    <t>flow,你邦男声,优胜</t>
-  </si>
-  <si>
-    <t>チルドレンレコード(Re:boot)</t>
-  </si>
-  <si>
-    <t>孩童记录,children record</t>
-  </si>
-  <si>
-    <t>音がえしのセレナーデ</t>
-  </si>
-  <si>
-    <t>Ave Mujica</t>
-  </si>
-  <si>
-    <t>阿贝母鸡卡</t>
-  </si>
-  <si>
-    <t>祝福</t>
-  </si>
-  <si>
-    <t>高达,水星的魔女,水魔</t>
-  </si>
-  <si>
-    <t>可愛くてごめん</t>
-  </si>
-  <si>
-    <t>这么可爱真是抱歉呢,pp缺主唱</t>
-  </si>
-  <si>
-    <t>エゴロック</t>
-  </si>
-  <si>
-    <t>egorock,自我摇滚,123FAQ</t>
-  </si>
-  <si>
-    <t>D-tecnoLife</t>
-  </si>
-  <si>
-    <t>d-tecnolife,死神</t>
-  </si>
-  <si>
-    <t>サウダージ</t>
-  </si>
-  <si>
-    <t>saudade,relife,重返17岁</t>
-  </si>
-  <si>
-    <t>ヒバナ-Reloaded-</t>
-  </si>
-  <si>
-    <t>火花,七八十,敷衍了事</t>
-  </si>
-  <si>
-    <t>トウキョウ・シャンディ・ランデヴ</t>
-  </si>
-  <si>
-    <t>东京香蒂幽会,新福星小子</t>
-  </si>
-  <si>
-    <t>Be born</t>
-  </si>
-  <si>
-    <t>bb,出生,popy</t>
-  </si>
-  <si>
-    <t>影色舞</t>
-  </si>
-  <si>
-    <t>影色舞,冰,溜大了的小曲</t>
-  </si>
-  <si>
-    <t>歌いましょう鳴らしましょう</t>
-  </si>
-  <si>
-    <t>歌鸣,一同演奏一同歌唱,歌什么什么鸣什么什么</t>
-  </si>
-  <si>
-    <t>THRONE OF ROSE</t>
-  </si>
-  <si>
-    <t>蔷薇王座</t>
-  </si>
-  <si>
-    <t>猛独が襲う</t>
-  </si>
-  <si>
-    <t>独孤猛袭,孤独猛袭,猛独孤袭,猛独侵袭,猛独</t>
-  </si>
-  <si>
-    <t>swim</t>
-  </si>
-  <si>
-    <t>游泳</t>
-  </si>
-  <si>
-    <t>ヴィラン</t>
-  </si>
-  <si>
-    <t>villain</t>
-  </si>
-  <si>
-    <t>everyday flower</t>
-  </si>
-  <si>
-    <t>每天花,每日花,日日花</t>
-  </si>
-  <si>
-    <t>BATTLE CRY</t>
-  </si>
-  <si>
-    <t>战吼</t>
-  </si>
-  <si>
-    <t>裸の勇者</t>
-  </si>
-  <si>
-    <t>国王排名</t>
-  </si>
-  <si>
-    <t>That's why I'm here</t>
-  </si>
-  <si>
-    <t>テレキャスタービーボーイ</t>
-  </si>
-  <si>
-    <t>telecaster B-boy,电吉他说唱男孩</t>
-  </si>
-  <si>
-    <t>処救生</t>
-  </si>
-  <si>
-    <t>处救生,呼吸,kokyuu</t>
-  </si>
-  <si>
-    <t>Chu Chueen!</t>
-  </si>
-  <si>
-    <t>拔牙,楚楚晕</t>
-  </si>
-  <si>
-    <t>Merry Merry Thanks!!</t>
-  </si>
-  <si>
-    <t>蝶圣诞</t>
-  </si>
-  <si>
-    <t>東京テディベア</t>
-  </si>
-  <si>
-    <t>东京泰迪熊,敷衍了事</t>
-  </si>
-  <si>
-    <t>青春 To Be Continued</t>
-  </si>
-  <si>
-    <t>青春tbc</t>
-  </si>
-  <si>
-    <t>覚悟のLiberation</t>
-  </si>
-  <si>
-    <t>觉悟,liberation</t>
-  </si>
-  <si>
-    <t>らいふ・いず・みゅーじかるっ♪♪♪</t>
-  </si>
-  <si>
-    <t>life is musical</t>
-  </si>
-  <si>
-    <t>粉雪</t>
-  </si>
-  <si>
-    <t>一升的眼泪</t>
-  </si>
-  <si>
-    <t>Overdose</t>
-  </si>
-  <si>
-    <t>魔法少女とチョコレゐト</t>
-  </si>
-  <si>
-    <t>魔法少女与巧克力,魔法少女和巧克力,魔法少女</t>
-  </si>
-  <si>
-    <t>slash</t>
-  </si>
-  <si>
-    <t>高达,水星的魔女,水魔,/,／</t>
-  </si>
-  <si>
-    <t>私は最強</t>
-  </si>
-  <si>
-    <t>我是最强,海贼王</t>
-  </si>
-  <si>
-    <t>強風オールバック</t>
-  </si>
-  <si>
-    <t>强风大背头,强风</t>
-  </si>
-  <si>
-    <t>ホワイトノイズ</t>
-  </si>
-  <si>
-    <t>White Noise,白噪声,白噪音</t>
-  </si>
-  <si>
-    <t>カオスが極まる</t>
-  </si>
-  <si>
-    <t>混沌至极,chaos,蓝色监狱</t>
-  </si>
-  <si>
-    <t>第ゼロ感</t>
-  </si>
-  <si>
-    <t>第零感,灌篮高手</t>
-  </si>
-  <si>
-    <t>グッド・バイ</t>
-  </si>
-  <si>
-    <t>goodbye,再见,再会,rose</t>
-  </si>
-  <si>
-    <t>Radiate Warriors</t>
-  </si>
-  <si>
-    <t>A Sunset So Bright</t>
-  </si>
-  <si>
-    <t>どりーみんチュチュ</t>
-  </si>
-  <si>
-    <t>dreamin chuchu,情人节,梦楚楚</t>
-  </si>
-  <si>
-    <t>Ray of hope</t>
-  </si>
-  <si>
-    <t>輪符雨</t>
-  </si>
-  <si>
-    <t>refrain,轮符雨</t>
-  </si>
-  <si>
-    <t>蒼穹へのトレイル</t>
-  </si>
-  <si>
-    <t>苍穹</t>
-  </si>
-  <si>
-    <t>ドラマチック！アライブ</t>
-  </si>
-  <si>
-    <t>dramatic arrive</t>
-  </si>
-  <si>
-    <t>ReReReエボリューションず☆</t>
-  </si>
-  <si>
-    <t>rerere evolutions,rerere</t>
-  </si>
-  <si>
-    <t>VIOLET LINE</t>
-  </si>
-  <si>
-    <t>紫线,VL,vl,violet line</t>
-  </si>
-  <si>
-    <t>Always recall.</t>
-  </si>
-  <si>
-    <t>誓いのWingbeat</t>
-  </si>
-  <si>
-    <t>wb</t>
-  </si>
-  <si>
-    <t>アイドル</t>
-  </si>
-  <si>
-    <t>idol,偶像,推子,我推的孩子</t>
-  </si>
-  <si>
-    <t>青のすみか</t>
-  </si>
-  <si>
-    <t>苍蓝所栖,咒术回战,咒回</t>
-  </si>
-  <si>
-    <t>乙女解剖</t>
-  </si>
-  <si>
-    <t>少女解剖</t>
-  </si>
-  <si>
-    <t>ノンブレス・オブリージュ</t>
-  </si>
-  <si>
-    <t>non-breath oblige,无呼吸义务</t>
-  </si>
-  <si>
-    <t>きゅうくらりん</t>
-  </si>
-  <si>
-    <t>kyu-kurarin,心跳不止</t>
-  </si>
-  <si>
-    <t>かくれんぼ</t>
-  </si>
-  <si>
-    <t>捉迷藏,alia</t>
-  </si>
-  <si>
-    <t>ボッカデラベリタ</t>
-  </si>
-  <si>
-    <t>真理之口</t>
-  </si>
-  <si>
-    <t>怪獣の花唄</t>
-  </si>
-  <si>
-    <t>怪兽的花之歌,怪兽的花歌,怪兽的花呗,花呗</t>
-  </si>
-  <si>
-    <t>「僕は...」</t>
-  </si>
-  <si>
-    <t>剥裤袜,僕は</t>
-  </si>
-  <si>
-    <t>[超高難易度 新SPECIAL] SENSENFUKOKU</t>
-  </si>
-  <si>
-    <t>トレモロアイズ</t>
-  </si>
-  <si>
-    <t>颤动的眼眸</t>
-  </si>
-  <si>
-    <t>両翼のBrilliance</t>
-  </si>
-  <si>
-    <t>两翼</t>
-  </si>
-  <si>
-    <t>トリドリ＊パレット</t>
-  </si>
-  <si>
-    <t>五彩调色盘,toridori palette,toridori,トリドリ</t>
-  </si>
-  <si>
-    <t>Wreath of Brave</t>
-  </si>
-  <si>
-    <t>wob</t>
-  </si>
-  <si>
-    <t>ココ☆ナツ</t>
-  </si>
-  <si>
-    <t>这里夏天,coconuts</t>
-  </si>
-  <si>
-    <t>礎の花冠</t>
-  </si>
-  <si>
-    <t>花冠</t>
-  </si>
-  <si>
-    <t>ちゅ、多様性。</t>
-  </si>
-  <si>
-    <t>多样性</t>
-  </si>
-  <si>
-    <t>人マニア</t>
-  </si>
-  <si>
-    <t>人狂热者,人mania</t>
-  </si>
-  <si>
-    <t>雑踏、僕らの街</t>
-  </si>
-  <si>
-    <t>杂沓,杂踏,雑踏,gbcop</t>
-  </si>
-  <si>
-    <t>過惰幻</t>
-  </si>
-  <si>
-    <t>过惰幻</t>
-  </si>
-  <si>
-    <t>ティリカモニカリラ</t>
-  </si>
-  <si>
-    <t>毛二力,モニカ</t>
-  </si>
-  <si>
-    <t>歩拾道</t>
-  </si>
-  <si>
-    <t>步拾道</t>
-  </si>
-  <si>
-    <t>“Say cheese!!!!!”</t>
-  </si>
-  <si>
-    <t>说茄子</t>
-  </si>
-  <si>
-    <t>TARINAI</t>
-  </si>
-  <si>
-    <t>还不够</t>
-  </si>
-  <si>
-    <t>愛包ダンスホール</t>
-  </si>
-  <si>
-    <t>himehina,爱包</t>
-  </si>
-  <si>
-    <t>幾億光年</t>
-  </si>
-  <si>
-    <t>几亿光年</t>
-  </si>
-  <si>
-    <t>シカ色デイズ</t>
-  </si>
-  <si>
-    <t>鹿乃子</t>
-  </si>
-  <si>
-    <t>Georgette Me, Georgette You</t>
-  </si>
-  <si>
-    <t>母鸡卡ed</t>
-  </si>
-  <si>
-    <t>春日影</t>
-  </si>
-  <si>
-    <t>为什么要演奏</t>
-  </si>
-  <si>
-    <t>はいよろこんで</t>
-  </si>
-  <si>
-    <t>乐意效劳</t>
-  </si>
-  <si>
-    <t>ひとりじゃないんだから(パラレルver.)</t>
-  </si>
-  <si>
-    <t>羽泽咖啡店</t>
-  </si>
-  <si>
-    <t>だれかの心臓になれたなら</t>
-  </si>
-  <si>
-    <t>心脏</t>
-  </si>
-  <si>
-    <t>八芒星ダンス</t>
-  </si>
-  <si>
-    <t>八芒星</t>
-  </si>
-  <si>
-    <t>顔</t>
-  </si>
-  <si>
-    <t>颜</t>
-  </si>
-  <si>
-    <t>天球(そら)のMúsica</t>
-  </si>
-  <si>
-    <t>天球</t>
-  </si>
-  <si>
-    <t>[期間限定 SPECIAL]ピコっと！パピっと！！ガルパ☆ピコ！！！</t>
-  </si>
-  <si>
-    <t>愚人节</t>
-  </si>
-  <si>
-    <t>彩虹节拍</t>
-  </si>
-  <si>
-    <t>彩虹答辩</t>
-  </si>
-  <si>
-    <t>希腊奶,各位群友晚上好,lzn,六兆年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>存在,exi,扰乱op,ex,大e3,我有e育症,e</t>
+    <t>逆天伴走,爱灯,碧天绊走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羁绊歌,kzn,kizuna music,kznmusic,羁绊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3589,7 +3696,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3599,6 +3706,20 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI Emoji"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -3966,10 +4087,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C605"/>
+  <dimension ref="A1:C610"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A297" workbookViewId="0">
-      <selection activeCell="D317" sqref="D317"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C156" sqref="C156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -4032,7 +4153,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -4040,10 +4161,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -4051,10 +4172,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
         <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -4062,10 +4183,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
         <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -4073,10 +4194,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
         <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -4084,10 +4205,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
         <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -4095,10 +4216,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
         <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -4106,10 +4227,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
         <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -4117,10 +4238,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -4128,10 +4249,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
         <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -4139,10 +4260,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
         <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -4150,10 +4271,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
         <v>31</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -4161,10 +4282,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
         <v>33</v>
-      </c>
-      <c r="C17" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -4172,10 +4293,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
         <v>35</v>
-      </c>
-      <c r="C18" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -4183,21 +4304,21 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
         <v>37</v>
       </c>
-      <c r="C19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -4205,10 +4326,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -4216,10 +4337,10 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -4227,10 +4348,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -4238,10 +4359,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -4249,10 +4370,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -4260,10 +4381,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -4271,10 +4392,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -4282,10 +4403,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -4293,10 +4414,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -4304,10 +4425,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -4315,10 +4436,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -4326,10 +4447,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -4337,10 +4458,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -4348,10 +4469,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -4359,10 +4480,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -4370,10 +4491,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -4381,10 +4502,10 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -4392,10 +4513,10 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -4403,10 +4524,10 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -4414,10 +4535,10 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C40" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -4425,10 +4546,10 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -4436,10 +4557,10 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -4447,10 +4568,10 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C43" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -4458,10 +4579,10 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C44" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -4469,10 +4590,10 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C45" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -4480,10 +4601,10 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C46" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -4491,10 +4612,10 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C47" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -4502,10 +4623,10 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C48" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -4513,10 +4634,10 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C49" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -4524,10 +4645,10 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C50" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -4535,10 +4656,10 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C51" t="s">
-        <v>102</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -4546,10 +4667,10 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C52" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -4557,10 +4678,10 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C53" t="s">
-        <v>106</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -4568,10 +4689,10 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C54" t="s">
-        <v>108</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -4579,10 +4700,10 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C55" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -4590,10 +4711,10 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C56" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -4601,10 +4722,10 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C57" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -4612,10 +4733,10 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C58" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -4623,10 +4744,10 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C59" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -4634,10 +4755,10 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C60" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -4645,10 +4766,10 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C61" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -4656,10 +4777,10 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C62" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -4667,10 +4788,10 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C63" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -4678,10 +4799,10 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C64" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -4689,10 +4810,10 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C65" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -4700,10 +4821,10 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C66" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -4711,10 +4832,10 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C67" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -4722,10 +4843,10 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C68" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -4733,10 +4854,10 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C69" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -4744,10 +4865,10 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C70" t="s">
-        <v>140</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -4755,10 +4876,10 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C71" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -4766,10 +4887,10 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C72" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -4777,10 +4898,10 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C73" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -4788,10 +4909,10 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C74" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -4799,10 +4920,10 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C75" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -4810,10 +4931,10 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C76" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -4821,10 +4942,10 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C77" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -4832,10 +4953,10 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C78" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -4843,10 +4964,10 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C79" t="s">
-        <v>158</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -4854,10 +4975,10 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C80" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -4865,10 +4986,10 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C81" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -4876,10 +4997,10 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C82" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -4887,10 +5008,10 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C83" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -4898,10 +5019,10 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C84" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -4909,10 +5030,10 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C85" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -4920,10 +5041,10 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C86" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -4931,10 +5052,10 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C87" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -4942,10 +5063,10 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C88" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -4953,10 +5074,10 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C89" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -4964,10 +5085,10 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C90" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -4975,10 +5096,10 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C91" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -4986,10 +5107,10 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C92" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -4997,10 +5118,10 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C93" t="s">
-        <v>186</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -5008,10 +5129,10 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C94" t="s">
-        <v>188</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -5019,10 +5140,10 @@
         <v>100</v>
       </c>
       <c r="B95" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C95" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -5030,10 +5151,10 @@
         <v>101</v>
       </c>
       <c r="B96" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C96" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -5041,10 +5162,10 @@
         <v>104</v>
       </c>
       <c r="B97" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C97" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -5052,10 +5173,10 @@
         <v>105</v>
       </c>
       <c r="B98" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C98" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -5063,10 +5184,10 @@
         <v>106</v>
       </c>
       <c r="B99" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C99" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -5074,10 +5195,10 @@
         <v>107</v>
       </c>
       <c r="B100" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C100" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -5085,10 +5206,10 @@
         <v>108</v>
       </c>
       <c r="B101" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C101" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -5096,10 +5217,10 @@
         <v>109</v>
       </c>
       <c r="B102" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C102" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -5107,10 +5228,10 @@
         <v>110</v>
       </c>
       <c r="B103" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C103" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -5118,10 +5239,10 @@
         <v>111</v>
       </c>
       <c r="B104" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C104" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -5129,10 +5250,10 @@
         <v>112</v>
       </c>
       <c r="B105" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C105" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -5140,10 +5261,10 @@
         <v>113</v>
       </c>
       <c r="B106" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C106" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -5151,10 +5272,10 @@
         <v>115</v>
       </c>
       <c r="B107" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C107" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -5162,10 +5283,10 @@
         <v>116</v>
       </c>
       <c r="B108" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C108" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -5173,10 +5294,10 @@
         <v>117</v>
       </c>
       <c r="B109" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C109" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -5184,10 +5305,10 @@
         <v>118</v>
       </c>
       <c r="B110" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C110" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -5195,10 +5316,10 @@
         <v>119</v>
       </c>
       <c r="B111" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C111" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -5206,10 +5327,10 @@
         <v>120</v>
       </c>
       <c r="B112" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C112" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -5217,10 +5338,10 @@
         <v>121</v>
       </c>
       <c r="B113" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="C113" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -5228,10 +5349,10 @@
         <v>122</v>
       </c>
       <c r="B114" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="C114" t="s">
-        <v>228</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -5239,10 +5360,10 @@
         <v>123</v>
       </c>
       <c r="B115" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="C115" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -5250,10 +5371,10 @@
         <v>124</v>
       </c>
       <c r="B116" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="C116" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -5261,10 +5382,10 @@
         <v>125</v>
       </c>
       <c r="B117" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="C117" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -5272,10 +5393,10 @@
         <v>126</v>
       </c>
       <c r="B118" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="C118" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -5283,10 +5404,10 @@
         <v>127</v>
       </c>
       <c r="B119" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="C119" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -5294,10 +5415,10 @@
         <v>128</v>
       </c>
       <c r="B120" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="C120" t="s">
-        <v>1185</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -5305,10 +5426,10 @@
         <v>129</v>
       </c>
       <c r="B121" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="C121" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -5316,10 +5437,10 @@
         <v>130</v>
       </c>
       <c r="B122" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C122" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -5327,10 +5448,10 @@
         <v>131</v>
       </c>
       <c r="B123" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C123" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -5338,10 +5459,10 @@
         <v>132</v>
       </c>
       <c r="B124" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="C124" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -5349,10 +5470,10 @@
         <v>133</v>
       </c>
       <c r="B125" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C125" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -5360,10 +5481,10 @@
         <v>134</v>
       </c>
       <c r="B126" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C126" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -5371,10 +5492,10 @@
         <v>135</v>
       </c>
       <c r="B127" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C127" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -5382,10 +5503,10 @@
         <v>136</v>
       </c>
       <c r="B128" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C128" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -5393,10 +5514,10 @@
         <v>137</v>
       </c>
       <c r="B129" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C129" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -5404,10 +5525,10 @@
         <v>138</v>
       </c>
       <c r="B130" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C130" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -5415,10 +5536,10 @@
         <v>139</v>
       </c>
       <c r="B131" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="C131" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -5426,10 +5547,10 @@
         <v>140</v>
       </c>
       <c r="B132" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C132" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -5437,10 +5558,10 @@
         <v>141</v>
       </c>
       <c r="B133" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C133" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -5448,10 +5569,10 @@
         <v>142</v>
       </c>
       <c r="B134" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C134" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -5459,10 +5580,10 @@
         <v>143</v>
       </c>
       <c r="B135" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C135" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -5470,10 +5591,10 @@
         <v>144</v>
       </c>
       <c r="B136" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C136" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -5481,10 +5602,10 @@
         <v>145</v>
       </c>
       <c r="B137" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="C137" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -5492,10 +5613,10 @@
         <v>146</v>
       </c>
       <c r="B138" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C138" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -5503,10 +5624,10 @@
         <v>147</v>
       </c>
       <c r="B139" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="C139" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -5514,10 +5635,10 @@
         <v>148</v>
       </c>
       <c r="B140" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C140" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -5525,10 +5646,10 @@
         <v>149</v>
       </c>
       <c r="B141" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="C141" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -5536,10 +5657,10 @@
         <v>150</v>
       </c>
       <c r="B142" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="C142" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -5547,10 +5668,10 @@
         <v>151</v>
       </c>
       <c r="B143" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="C143" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -5558,10 +5679,10 @@
         <v>152</v>
       </c>
       <c r="B144" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="C144" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -5569,10 +5690,10 @@
         <v>153</v>
       </c>
       <c r="B145" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="C145" t="s">
-        <v>289</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -5580,10 +5701,10 @@
         <v>154</v>
       </c>
       <c r="B146" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C146" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -5591,10 +5712,10 @@
         <v>155</v>
       </c>
       <c r="B147" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="C147" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -5602,10 +5723,10 @@
         <v>156</v>
       </c>
       <c r="B148" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="C148" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -5613,10 +5734,10 @@
         <v>157</v>
       </c>
       <c r="B149" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="C149" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -5624,10 +5745,10 @@
         <v>158</v>
       </c>
       <c r="B150" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="C150" t="s">
-        <v>299</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -5635,10 +5756,10 @@
         <v>159</v>
       </c>
       <c r="B151" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="C151" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -5646,10 +5767,10 @@
         <v>160</v>
       </c>
       <c r="B152" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="C152" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -5657,10 +5778,10 @@
         <v>161</v>
       </c>
       <c r="B153" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="C153" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -5668,10 +5789,10 @@
         <v>162</v>
       </c>
       <c r="B154" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="C154" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -5679,10 +5800,10 @@
         <v>163</v>
       </c>
       <c r="B155" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="C155" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -5690,10 +5811,10 @@
         <v>164</v>
       </c>
       <c r="B156" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="C156" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -5701,10 +5822,10 @@
         <v>165</v>
       </c>
       <c r="B157" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="C157" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -5712,10 +5833,10 @@
         <v>166</v>
       </c>
       <c r="B158" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="C158" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -5723,10 +5844,10 @@
         <v>167</v>
       </c>
       <c r="B159" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="C159" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -5734,10 +5855,10 @@
         <v>168</v>
       </c>
       <c r="B160" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="C160" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -5745,10 +5866,10 @@
         <v>169</v>
       </c>
       <c r="B161" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="C161" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -5756,10 +5877,10 @@
         <v>170</v>
       </c>
       <c r="B162" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="C162" t="s">
-        <v>323</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -5767,10 +5888,10 @@
         <v>171</v>
       </c>
       <c r="B163" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="C163" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -5778,10 +5899,10 @@
         <v>172</v>
       </c>
       <c r="B164" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="C164" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -5789,10 +5910,10 @@
         <v>173</v>
       </c>
       <c r="B165" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="C165" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -5800,10 +5921,10 @@
         <v>174</v>
       </c>
       <c r="B166" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="C166" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -5811,10 +5932,10 @@
         <v>175</v>
       </c>
       <c r="B167" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="C167" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -5822,10 +5943,10 @@
         <v>176</v>
       </c>
       <c r="B168" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="C168" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -5833,10 +5954,10 @@
         <v>177</v>
       </c>
       <c r="B169" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="C169" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -5844,10 +5965,10 @@
         <v>178</v>
       </c>
       <c r="B170" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="C170" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -5855,10 +5976,10 @@
         <v>179</v>
       </c>
       <c r="B171" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="C171" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -5866,10 +5987,10 @@
         <v>180</v>
       </c>
       <c r="B172" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="C172" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -5877,10 +5998,10 @@
         <v>181</v>
       </c>
       <c r="B173" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="C173" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -5888,10 +6009,10 @@
         <v>182</v>
       </c>
       <c r="B174" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="C174" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -5899,10 +6020,10 @@
         <v>183</v>
       </c>
       <c r="B175" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="C175" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -5910,10 +6031,10 @@
         <v>184</v>
       </c>
       <c r="B176" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="C176" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -5921,10 +6042,10 @@
         <v>185</v>
       </c>
       <c r="B177" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="C177" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -5932,10 +6053,10 @@
         <v>186</v>
       </c>
       <c r="B178" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="C178" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -5943,10 +6064,10 @@
         <v>187</v>
       </c>
       <c r="B179" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="C179" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -5954,10 +6075,10 @@
         <v>188</v>
       </c>
       <c r="B180" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="C180" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -5965,10 +6086,10 @@
         <v>189</v>
       </c>
       <c r="B181" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="C181" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -5976,10 +6097,10 @@
         <v>190</v>
       </c>
       <c r="B182" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="C182" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -5987,10 +6108,10 @@
         <v>191</v>
       </c>
       <c r="B183" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="C183" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -5998,10 +6119,10 @@
         <v>192</v>
       </c>
       <c r="B184" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="C184" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -6009,10 +6130,10 @@
         <v>193</v>
       </c>
       <c r="B185" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="C185" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -6020,10 +6141,10 @@
         <v>194</v>
       </c>
       <c r="B186" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="C186" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -6031,10 +6152,10 @@
         <v>195</v>
       </c>
       <c r="B187" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="C187" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -6042,10 +6163,10 @@
         <v>196</v>
       </c>
       <c r="B188" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="C188" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -6053,10 +6174,10 @@
         <v>197</v>
       </c>
       <c r="B189" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="C189" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -6064,10 +6185,10 @@
         <v>198</v>
       </c>
       <c r="B190" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="C190" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -6075,10 +6196,10 @@
         <v>199</v>
       </c>
       <c r="B191" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="C191" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -6086,10 +6207,10 @@
         <v>200</v>
       </c>
       <c r="B192" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="C192" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -6097,10 +6218,10 @@
         <v>201</v>
       </c>
       <c r="B193" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="C193" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -6108,10 +6229,10 @@
         <v>202</v>
       </c>
       <c r="B194" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="C194" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -6119,10 +6240,10 @@
         <v>203</v>
       </c>
       <c r="B195" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="C195" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -6130,10 +6251,10 @@
         <v>204</v>
       </c>
       <c r="B196" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="C196" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -6141,10 +6262,10 @@
         <v>205</v>
       </c>
       <c r="B197" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="C197" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -6152,10 +6273,10 @@
         <v>206</v>
       </c>
       <c r="B198" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="C198" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -6163,10 +6284,10 @@
         <v>207</v>
       </c>
       <c r="B199" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="C199" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -6174,10 +6295,10 @@
         <v>208</v>
       </c>
       <c r="B200" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="C200" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -6185,10 +6306,10 @@
         <v>209</v>
       </c>
       <c r="B201" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="C201" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -6196,10 +6317,10 @@
         <v>210</v>
       </c>
       <c r="B202" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="C202" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -6207,10 +6328,10 @@
         <v>211</v>
       </c>
       <c r="B203" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="C203" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -6218,10 +6339,10 @@
         <v>212</v>
       </c>
       <c r="B204" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="C204" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -6229,10 +6350,10 @@
         <v>213</v>
       </c>
       <c r="B205" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="C205" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -6240,10 +6361,10 @@
         <v>214</v>
       </c>
       <c r="B206" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="C206" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -6251,10 +6372,10 @@
         <v>215</v>
       </c>
       <c r="B207" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C207" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -6262,10 +6383,10 @@
         <v>217</v>
       </c>
       <c r="B208" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="C208" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -6273,10 +6394,10 @@
         <v>218</v>
       </c>
       <c r="B209" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="C209" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -6284,10 +6405,10 @@
         <v>219</v>
       </c>
       <c r="B210" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="C210" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -6295,10 +6416,10 @@
         <v>220</v>
       </c>
       <c r="B211" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="C211" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -6306,10 +6427,10 @@
         <v>221</v>
       </c>
       <c r="B212" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="C212" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -6317,10 +6438,10 @@
         <v>222</v>
       </c>
       <c r="B213" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="C213" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -6328,10 +6449,10 @@
         <v>223</v>
       </c>
       <c r="B214" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="C214" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -6339,10 +6460,10 @@
         <v>224</v>
       </c>
       <c r="B215" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="C215" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -6350,10 +6471,10 @@
         <v>225</v>
       </c>
       <c r="B216" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="C216" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -6361,10 +6482,10 @@
         <v>226</v>
       </c>
       <c r="B217" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="C217" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -6372,10 +6493,10 @@
         <v>227</v>
       </c>
       <c r="B218" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="C218" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -6383,10 +6504,10 @@
         <v>228</v>
       </c>
       <c r="B219" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="C219" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -6394,10 +6515,10 @@
         <v>229</v>
       </c>
       <c r="B220" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="C220" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -6405,10 +6526,10 @@
         <v>230</v>
       </c>
       <c r="B221" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="C221" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -6416,10 +6537,10 @@
         <v>231</v>
       </c>
       <c r="B222" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="C222" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -6427,10 +6548,10 @@
         <v>232</v>
       </c>
       <c r="B223" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="C223" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -6438,10 +6559,10 @@
         <v>233</v>
       </c>
       <c r="B224" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="C224" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -6449,10 +6570,10 @@
         <v>234</v>
       </c>
       <c r="B225" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="C225" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -6460,10 +6581,10 @@
         <v>235</v>
       </c>
       <c r="B226" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C226" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -6471,10 +6592,10 @@
         <v>236</v>
       </c>
       <c r="B227" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="C227" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -6482,10 +6603,10 @@
         <v>237</v>
       </c>
       <c r="B228" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="C228" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -6493,10 +6614,10 @@
         <v>238</v>
       </c>
       <c r="B229" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="C229" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -6504,10 +6625,10 @@
         <v>239</v>
       </c>
       <c r="B230" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="C230" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -6515,10 +6636,10 @@
         <v>240</v>
       </c>
       <c r="B231" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="C231" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -6526,10 +6647,10 @@
         <v>241</v>
       </c>
       <c r="B232" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="C232" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -6537,10 +6658,10 @@
         <v>242</v>
       </c>
       <c r="B233" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="C233" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -6548,10 +6669,10 @@
         <v>243</v>
       </c>
       <c r="B234" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="C234" t="s">
-        <v>467</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -6559,10 +6680,10 @@
         <v>244</v>
       </c>
       <c r="B235" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="C235" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -6570,10 +6691,10 @@
         <v>245</v>
       </c>
       <c r="B236" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="C236" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -6581,10 +6702,10 @@
         <v>246</v>
       </c>
       <c r="B237" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="C237" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -6592,10 +6713,10 @@
         <v>247</v>
       </c>
       <c r="B238" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="C238" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -6603,10 +6724,10 @@
         <v>248</v>
       </c>
       <c r="B239" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="C239" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -6614,10 +6735,10 @@
         <v>249</v>
       </c>
       <c r="B240" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="C240" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -6625,10 +6746,10 @@
         <v>250</v>
       </c>
       <c r="B241" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="C241" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -6636,10 +6757,10 @@
         <v>251</v>
       </c>
       <c r="B242" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="C242" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -6647,10 +6768,10 @@
         <v>252</v>
       </c>
       <c r="B243" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="C243" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -6658,10 +6779,10 @@
         <v>253</v>
       </c>
       <c r="B244" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="C244" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -6669,10 +6790,10 @@
         <v>254</v>
       </c>
       <c r="B245" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="C245" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -6680,10 +6801,10 @@
         <v>255</v>
       </c>
       <c r="B246" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="C246" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -6691,10 +6812,10 @@
         <v>256</v>
       </c>
       <c r="B247" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="C247" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -6702,10 +6823,10 @@
         <v>257</v>
       </c>
       <c r="B248" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="C248" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -6713,10 +6834,10 @@
         <v>258</v>
       </c>
       <c r="B249" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="C249" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -6724,10 +6845,10 @@
         <v>259</v>
       </c>
       <c r="B250" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="C250" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -6735,10 +6856,10 @@
         <v>260</v>
       </c>
       <c r="B251" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="C251" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -6746,10 +6867,10 @@
         <v>261</v>
       </c>
       <c r="B252" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="C252" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -6757,10 +6878,10 @@
         <v>262</v>
       </c>
       <c r="B253" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="C253" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -6768,10 +6889,10 @@
         <v>263</v>
       </c>
       <c r="B254" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="C254" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -6779,10 +6900,10 @@
         <v>264</v>
       </c>
       <c r="B255" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="C255" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -6790,10 +6911,10 @@
         <v>265</v>
       </c>
       <c r="B256" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="C256" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -6801,10 +6922,10 @@
         <v>266</v>
       </c>
       <c r="B257" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="C257" t="s">
-        <v>512</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -6812,10 +6933,10 @@
         <v>267</v>
       </c>
       <c r="B258" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="C258" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -6823,10 +6944,10 @@
         <v>268</v>
       </c>
       <c r="B259" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="C259" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -6834,10 +6955,10 @@
         <v>269</v>
       </c>
       <c r="B260" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="C260" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -6845,10 +6966,10 @@
         <v>270</v>
       </c>
       <c r="B261" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="C261" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -6856,10 +6977,10 @@
         <v>271</v>
       </c>
       <c r="B262" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="C262" t="s">
-        <v>522</v>
+        <v>506</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -6867,10 +6988,10 @@
         <v>272</v>
       </c>
       <c r="B263" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="C263" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -6878,10 +6999,10 @@
         <v>274</v>
       </c>
       <c r="B264" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="C264" t="s">
-        <v>526</v>
+        <v>510</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -6889,10 +7010,10 @@
         <v>275</v>
       </c>
       <c r="B265" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="C265" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -6900,10 +7021,10 @@
         <v>276</v>
       </c>
       <c r="B266" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="C266" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -6911,10 +7032,10 @@
         <v>277</v>
       </c>
       <c r="B267" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="C267" t="s">
-        <v>532</v>
+        <v>516</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -6922,10 +7043,10 @@
         <v>278</v>
       </c>
       <c r="B268" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="C268" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -6933,10 +7054,10 @@
         <v>279</v>
       </c>
       <c r="B269" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="C269" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -6944,10 +7065,10 @@
         <v>280</v>
       </c>
       <c r="B270" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="C270" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -6955,10 +7076,10 @@
         <v>281</v>
       </c>
       <c r="B271" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="C271" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -6966,10 +7087,10 @@
         <v>282</v>
       </c>
       <c r="B272" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="C272" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -6977,10 +7098,10 @@
         <v>283</v>
       </c>
       <c r="B273" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="C273" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -6988,10 +7109,10 @@
         <v>284</v>
       </c>
       <c r="B274" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="C274" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -6999,10 +7120,10 @@
         <v>285</v>
       </c>
       <c r="B275" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="C275" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -7010,10 +7131,10 @@
         <v>286</v>
       </c>
       <c r="B276" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="C276" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -7021,10 +7142,10 @@
         <v>287</v>
       </c>
       <c r="B277" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="C277" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -7032,10 +7153,10 @@
         <v>288</v>
       </c>
       <c r="B278" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="C278" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -7043,10 +7164,10 @@
         <v>289</v>
       </c>
       <c r="B279" t="s">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="C279" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -7054,10 +7175,10 @@
         <v>290</v>
       </c>
       <c r="B280" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="C280" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -7065,10 +7186,10 @@
         <v>291</v>
       </c>
       <c r="B281" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="C281" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -7076,10 +7197,10 @@
         <v>292</v>
       </c>
       <c r="B282" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="C282" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -7087,10 +7208,10 @@
         <v>293</v>
       </c>
       <c r="B283" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="C283" t="s">
-        <v>564</v>
+        <v>548</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -7098,10 +7219,10 @@
         <v>294</v>
       </c>
       <c r="B284" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="C284" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -7109,10 +7230,10 @@
         <v>295</v>
       </c>
       <c r="B285" t="s">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="C285" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -7120,10 +7241,10 @@
         <v>296</v>
       </c>
       <c r="B286" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="C286" t="s">
-        <v>570</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -7131,10 +7252,10 @@
         <v>297</v>
       </c>
       <c r="B287" t="s">
-        <v>571</v>
+        <v>554</v>
       </c>
       <c r="C287" t="s">
-        <v>572</v>
+        <v>555</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -7142,10 +7263,10 @@
         <v>298</v>
       </c>
       <c r="B288" t="s">
-        <v>573</v>
+        <v>556</v>
       </c>
       <c r="C288" t="s">
-        <v>574</v>
+        <v>557</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -7153,10 +7274,10 @@
         <v>299</v>
       </c>
       <c r="B289" t="s">
-        <v>575</v>
+        <v>558</v>
       </c>
       <c r="C289" t="s">
-        <v>576</v>
+        <v>559</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -7164,10 +7285,10 @@
         <v>300</v>
       </c>
       <c r="B290" t="s">
-        <v>577</v>
+        <v>560</v>
       </c>
       <c r="C290" t="s">
-        <v>578</v>
+        <v>561</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -7175,10 +7296,10 @@
         <v>301</v>
       </c>
       <c r="B291" t="s">
-        <v>579</v>
+        <v>562</v>
       </c>
       <c r="C291" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -7186,10 +7307,10 @@
         <v>302</v>
       </c>
       <c r="B292" t="s">
-        <v>581</v>
+        <v>564</v>
       </c>
       <c r="C292" t="s">
-        <v>582</v>
+        <v>565</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -7197,10 +7318,10 @@
         <v>303</v>
       </c>
       <c r="B293" t="s">
-        <v>583</v>
+        <v>566</v>
       </c>
       <c r="C293" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -7208,10 +7329,10 @@
         <v>304</v>
       </c>
       <c r="B294" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
       <c r="C294" t="s">
-        <v>586</v>
+        <v>569</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -7219,10 +7340,10 @@
         <v>305</v>
       </c>
       <c r="B295" t="s">
-        <v>587</v>
+        <v>570</v>
       </c>
       <c r="C295" t="s">
-        <v>588</v>
+        <v>571</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -7230,10 +7351,10 @@
         <v>306</v>
       </c>
       <c r="B296" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="C296" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -7241,10 +7362,10 @@
         <v>307</v>
       </c>
       <c r="B297" t="s">
-        <v>591</v>
+        <v>574</v>
       </c>
       <c r="C297" t="s">
-        <v>592</v>
+        <v>575</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -7252,10 +7373,10 @@
         <v>308</v>
       </c>
       <c r="B298" t="s">
-        <v>593</v>
+        <v>576</v>
       </c>
       <c r="C298" t="s">
-        <v>594</v>
+        <v>577</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
@@ -7263,10 +7384,10 @@
         <v>309</v>
       </c>
       <c r="B299" t="s">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="C299" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
@@ -7274,10 +7395,10 @@
         <v>310</v>
       </c>
       <c r="B300" t="s">
-        <v>597</v>
+        <v>580</v>
       </c>
       <c r="C300" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -7285,10 +7406,10 @@
         <v>311</v>
       </c>
       <c r="B301" t="s">
-        <v>599</v>
+        <v>582</v>
       </c>
       <c r="C301" t="s">
-        <v>600</v>
+        <v>583</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -7296,10 +7417,10 @@
         <v>312</v>
       </c>
       <c r="B302" t="s">
-        <v>601</v>
+        <v>584</v>
       </c>
       <c r="C302" t="s">
-        <v>602</v>
+        <v>585</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -7307,10 +7428,10 @@
         <v>313</v>
       </c>
       <c r="B303" t="s">
-        <v>603</v>
+        <v>586</v>
       </c>
       <c r="C303" t="s">
-        <v>604</v>
+        <v>587</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -7318,10 +7439,10 @@
         <v>314</v>
       </c>
       <c r="B304" t="s">
-        <v>605</v>
+        <v>588</v>
       </c>
       <c r="C304" t="s">
-        <v>606</v>
+        <v>589</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -7329,10 +7450,10 @@
         <v>315</v>
       </c>
       <c r="B305" t="s">
-        <v>607</v>
+        <v>590</v>
       </c>
       <c r="C305" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -7340,10 +7461,10 @@
         <v>316</v>
       </c>
       <c r="B306" t="s">
-        <v>609</v>
+        <v>592</v>
       </c>
       <c r="C306" t="s">
-        <v>610</v>
+        <v>593</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -7351,10 +7472,10 @@
         <v>317</v>
       </c>
       <c r="B307" t="s">
-        <v>611</v>
+        <v>594</v>
       </c>
       <c r="C307" t="s">
-        <v>612</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -7362,10 +7483,10 @@
         <v>318</v>
       </c>
       <c r="B308" t="s">
-        <v>613</v>
+        <v>595</v>
       </c>
       <c r="C308" t="s">
-        <v>614</v>
+        <v>596</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -7373,10 +7494,10 @@
         <v>319</v>
       </c>
       <c r="B309" t="s">
-        <v>615</v>
+        <v>597</v>
       </c>
       <c r="C309" t="s">
-        <v>616</v>
+        <v>598</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -7384,10 +7505,10 @@
         <v>320</v>
       </c>
       <c r="B310" t="s">
-        <v>617</v>
+        <v>599</v>
       </c>
       <c r="C310" t="s">
-        <v>618</v>
+        <v>600</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -7395,10 +7516,10 @@
         <v>321</v>
       </c>
       <c r="B311" t="s">
-        <v>619</v>
+        <v>601</v>
       </c>
       <c r="C311" t="s">
-        <v>620</v>
+        <v>602</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -7406,10 +7527,10 @@
         <v>322</v>
       </c>
       <c r="B312" t="s">
-        <v>621</v>
+        <v>603</v>
       </c>
       <c r="C312" t="s">
-        <v>622</v>
+        <v>604</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -7417,10 +7538,10 @@
         <v>323</v>
       </c>
       <c r="B313" t="s">
-        <v>623</v>
+        <v>605</v>
       </c>
       <c r="C313" t="s">
-        <v>624</v>
+        <v>606</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -7428,10 +7549,10 @@
         <v>324</v>
       </c>
       <c r="B314" t="s">
-        <v>625</v>
+        <v>607</v>
       </c>
       <c r="C314" t="s">
-        <v>626</v>
+        <v>608</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -7439,10 +7560,10 @@
         <v>325</v>
       </c>
       <c r="B315" t="s">
-        <v>627</v>
+        <v>609</v>
       </c>
       <c r="C315" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -7450,10 +7571,10 @@
         <v>326</v>
       </c>
       <c r="B316" t="s">
-        <v>628</v>
+        <v>610</v>
       </c>
       <c r="C316" t="s">
-        <v>629</v>
+        <v>611</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -7461,10 +7582,10 @@
         <v>327</v>
       </c>
       <c r="B317" t="s">
-        <v>630</v>
+        <v>612</v>
       </c>
       <c r="C317" t="s">
-        <v>631</v>
+        <v>613</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -7472,10 +7593,10 @@
         <v>328</v>
       </c>
       <c r="B318" t="s">
-        <v>632</v>
+        <v>614</v>
       </c>
       <c r="C318" t="s">
-        <v>633</v>
+        <v>615</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -7483,10 +7604,10 @@
         <v>329</v>
       </c>
       <c r="B319" t="s">
-        <v>634</v>
+        <v>616</v>
       </c>
       <c r="C319" t="s">
-        <v>635</v>
+        <v>617</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -7494,10 +7615,10 @@
         <v>330</v>
       </c>
       <c r="B320" t="s">
-        <v>636</v>
+        <v>618</v>
       </c>
       <c r="C320" t="s">
-        <v>637</v>
+        <v>619</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -7505,10 +7626,10 @@
         <v>331</v>
       </c>
       <c r="B321" t="s">
-        <v>638</v>
+        <v>620</v>
       </c>
       <c r="C321" t="s">
-        <v>639</v>
+        <v>621</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -7516,10 +7637,10 @@
         <v>332</v>
       </c>
       <c r="B322" t="s">
-        <v>640</v>
+        <v>622</v>
       </c>
       <c r="C322" t="s">
-        <v>641</v>
+        <v>623</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -7527,10 +7648,10 @@
         <v>333</v>
       </c>
       <c r="B323" t="s">
-        <v>642</v>
+        <v>624</v>
       </c>
       <c r="C323" t="s">
-        <v>643</v>
+        <v>625</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -7538,10 +7659,10 @@
         <v>334</v>
       </c>
       <c r="B324" t="s">
-        <v>644</v>
+        <v>626</v>
       </c>
       <c r="C324" t="s">
-        <v>645</v>
+        <v>627</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -7549,10 +7670,10 @@
         <v>335</v>
       </c>
       <c r="B325" t="s">
-        <v>646</v>
+        <v>628</v>
       </c>
       <c r="C325" t="s">
-        <v>647</v>
+        <v>629</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -7560,10 +7681,10 @@
         <v>336</v>
       </c>
       <c r="B326" t="s">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="C326" t="s">
-        <v>649</v>
+        <v>631</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -7571,10 +7692,10 @@
         <v>337</v>
       </c>
       <c r="B327" t="s">
-        <v>650</v>
+        <v>632</v>
       </c>
       <c r="C327" t="s">
-        <v>651</v>
+        <v>633</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -7582,10 +7703,10 @@
         <v>338</v>
       </c>
       <c r="B328" t="s">
-        <v>652</v>
+        <v>634</v>
       </c>
       <c r="C328" t="s">
-        <v>653</v>
+        <v>635</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -7593,10 +7714,10 @@
         <v>339</v>
       </c>
       <c r="B329" t="s">
-        <v>654</v>
+        <v>636</v>
       </c>
       <c r="C329" t="s">
-        <v>655</v>
+        <v>637</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -7604,10 +7725,10 @@
         <v>340</v>
       </c>
       <c r="B330" t="s">
-        <v>656</v>
+        <v>638</v>
       </c>
       <c r="C330" t="s">
-        <v>657</v>
+        <v>639</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -7615,10 +7736,10 @@
         <v>341</v>
       </c>
       <c r="B331" t="s">
-        <v>658</v>
+        <v>640</v>
       </c>
       <c r="C331" t="s">
-        <v>659</v>
+        <v>641</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -7626,10 +7747,10 @@
         <v>342</v>
       </c>
       <c r="B332" t="s">
-        <v>660</v>
+        <v>642</v>
       </c>
       <c r="C332" t="s">
-        <v>661</v>
+        <v>643</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -7637,10 +7758,10 @@
         <v>343</v>
       </c>
       <c r="B333" t="s">
-        <v>662</v>
+        <v>644</v>
       </c>
       <c r="C333" t="s">
-        <v>663</v>
+        <v>645</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -7648,10 +7769,10 @@
         <v>344</v>
       </c>
       <c r="B334" t="s">
-        <v>664</v>
+        <v>646</v>
       </c>
       <c r="C334" t="s">
-        <v>665</v>
+        <v>647</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -7659,10 +7780,10 @@
         <v>345</v>
       </c>
       <c r="B335" t="s">
-        <v>666</v>
+        <v>648</v>
       </c>
       <c r="C335" t="s">
-        <v>667</v>
+        <v>649</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -7670,10 +7791,10 @@
         <v>346</v>
       </c>
       <c r="B336" t="s">
-        <v>668</v>
+        <v>650</v>
       </c>
       <c r="C336" t="s">
-        <v>669</v>
+        <v>651</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
@@ -7681,10 +7802,10 @@
         <v>347</v>
       </c>
       <c r="B337" t="s">
-        <v>670</v>
+        <v>652</v>
       </c>
       <c r="C337" t="s">
-        <v>671</v>
+        <v>653</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -7692,10 +7813,10 @@
         <v>348</v>
       </c>
       <c r="B338" t="s">
-        <v>672</v>
+        <v>654</v>
       </c>
       <c r="C338" t="s">
-        <v>673</v>
+        <v>655</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -7703,10 +7824,10 @@
         <v>349</v>
       </c>
       <c r="B339" t="s">
-        <v>674</v>
+        <v>656</v>
       </c>
       <c r="C339" t="s">
-        <v>675</v>
+        <v>657</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -7714,10 +7835,10 @@
         <v>350</v>
       </c>
       <c r="B340" t="s">
-        <v>676</v>
+        <v>658</v>
       </c>
       <c r="C340" t="s">
-        <v>677</v>
+        <v>659</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
@@ -7725,10 +7846,10 @@
         <v>351</v>
       </c>
       <c r="B341" t="s">
-        <v>678</v>
+        <v>660</v>
       </c>
       <c r="C341" t="s">
-        <v>679</v>
+        <v>661</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -7736,10 +7857,10 @@
         <v>352</v>
       </c>
       <c r="B342" t="s">
-        <v>680</v>
+        <v>662</v>
       </c>
       <c r="C342" t="s">
-        <v>681</v>
+        <v>663</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -7747,10 +7868,10 @@
         <v>353</v>
       </c>
       <c r="B343" t="s">
-        <v>682</v>
+        <v>664</v>
       </c>
       <c r="C343" t="s">
-        <v>683</v>
+        <v>665</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -7758,10 +7879,10 @@
         <v>354</v>
       </c>
       <c r="B344" t="s">
-        <v>684</v>
+        <v>666</v>
       </c>
       <c r="C344" t="s">
-        <v>685</v>
+        <v>667</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -7769,10 +7890,10 @@
         <v>355</v>
       </c>
       <c r="B345" t="s">
-        <v>686</v>
+        <v>668</v>
       </c>
       <c r="C345" t="s">
-        <v>687</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -7780,10 +7901,10 @@
         <v>356</v>
       </c>
       <c r="B346" t="s">
-        <v>688</v>
+        <v>669</v>
       </c>
       <c r="C346" t="s">
-        <v>689</v>
+        <v>670</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -7791,10 +7912,10 @@
         <v>357</v>
       </c>
       <c r="B347" t="s">
-        <v>690</v>
+        <v>671</v>
       </c>
       <c r="C347" t="s">
-        <v>691</v>
+        <v>672</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -7802,10 +7923,10 @@
         <v>358</v>
       </c>
       <c r="B348" t="s">
-        <v>692</v>
+        <v>673</v>
       </c>
       <c r="C348" t="s">
-        <v>693</v>
+        <v>674</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -7813,10 +7934,10 @@
         <v>359</v>
       </c>
       <c r="B349" t="s">
-        <v>694</v>
+        <v>675</v>
       </c>
       <c r="C349" t="s">
-        <v>695</v>
+        <v>676</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -7824,10 +7945,10 @@
         <v>360</v>
       </c>
       <c r="B350" t="s">
-        <v>696</v>
+        <v>677</v>
       </c>
       <c r="C350" t="s">
-        <v>697</v>
+        <v>678</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -7835,10 +7956,10 @@
         <v>361</v>
       </c>
       <c r="B351" t="s">
-        <v>698</v>
+        <v>679</v>
       </c>
       <c r="C351" t="s">
-        <v>699</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -7846,10 +7967,10 @@
         <v>362</v>
       </c>
       <c r="B352" t="s">
-        <v>700</v>
+        <v>680</v>
       </c>
       <c r="C352" t="s">
-        <v>701</v>
+        <v>681</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
@@ -7857,10 +7978,10 @@
         <v>363</v>
       </c>
       <c r="B353" t="s">
-        <v>702</v>
+        <v>682</v>
       </c>
       <c r="C353" t="s">
-        <v>703</v>
+        <v>683</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -7868,10 +7989,10 @@
         <v>364</v>
       </c>
       <c r="B354" t="s">
-        <v>704</v>
+        <v>684</v>
       </c>
       <c r="C354" t="s">
-        <v>705</v>
+        <v>685</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
@@ -7879,10 +8000,10 @@
         <v>365</v>
       </c>
       <c r="B355" t="s">
-        <v>706</v>
+        <v>686</v>
       </c>
       <c r="C355" t="s">
-        <v>707</v>
+        <v>687</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
@@ -7890,10 +8011,10 @@
         <v>366</v>
       </c>
       <c r="B356" t="s">
-        <v>708</v>
+        <v>688</v>
       </c>
       <c r="C356" t="s">
-        <v>709</v>
+        <v>689</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
@@ -7901,10 +8022,10 @@
         <v>367</v>
       </c>
       <c r="B357" t="s">
-        <v>710</v>
+        <v>690</v>
       </c>
       <c r="C357" t="s">
-        <v>711</v>
+        <v>691</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
@@ -7912,10 +8033,10 @@
         <v>368</v>
       </c>
       <c r="B358" t="s">
-        <v>712</v>
+        <v>692</v>
       </c>
       <c r="C358" t="s">
-        <v>713</v>
+        <v>693</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
@@ -7923,10 +8044,10 @@
         <v>369</v>
       </c>
       <c r="B359" t="s">
-        <v>714</v>
+        <v>694</v>
       </c>
       <c r="C359" t="s">
-        <v>715</v>
+        <v>695</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
@@ -7934,10 +8055,10 @@
         <v>370</v>
       </c>
       <c r="B360" t="s">
-        <v>716</v>
+        <v>696</v>
       </c>
       <c r="C360" t="s">
-        <v>717</v>
+        <v>697</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
@@ -7945,10 +8066,10 @@
         <v>371</v>
       </c>
       <c r="B361" t="s">
-        <v>718</v>
+        <v>698</v>
       </c>
       <c r="C361" t="s">
-        <v>719</v>
+        <v>699</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
@@ -7956,10 +8077,10 @@
         <v>372</v>
       </c>
       <c r="B362" t="s">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="C362" t="s">
-        <v>721</v>
+        <v>701</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
@@ -7967,10 +8088,10 @@
         <v>373</v>
       </c>
       <c r="B363" t="s">
-        <v>722</v>
+        <v>702</v>
       </c>
       <c r="C363" t="s">
-        <v>723</v>
+        <v>703</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
@@ -7978,10 +8099,10 @@
         <v>374</v>
       </c>
       <c r="B364" t="s">
-        <v>724</v>
+        <v>704</v>
       </c>
       <c r="C364" t="s">
-        <v>725</v>
+        <v>705</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
@@ -7989,10 +8110,10 @@
         <v>375</v>
       </c>
       <c r="B365" t="s">
-        <v>726</v>
+        <v>706</v>
       </c>
       <c r="C365" t="s">
-        <v>727</v>
+        <v>707</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
@@ -8000,10 +8121,10 @@
         <v>376</v>
       </c>
       <c r="B366" t="s">
-        <v>728</v>
+        <v>708</v>
       </c>
       <c r="C366" t="s">
-        <v>729</v>
+        <v>709</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
@@ -8011,10 +8132,10 @@
         <v>377</v>
       </c>
       <c r="B367" t="s">
-        <v>730</v>
+        <v>710</v>
       </c>
       <c r="C367" t="s">
-        <v>731</v>
+        <v>711</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
@@ -8022,10 +8143,10 @@
         <v>378</v>
       </c>
       <c r="B368" t="s">
-        <v>732</v>
+        <v>712</v>
       </c>
       <c r="C368" t="s">
-        <v>733</v>
+        <v>713</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -8033,10 +8154,10 @@
         <v>379</v>
       </c>
       <c r="B369" t="s">
-        <v>734</v>
+        <v>714</v>
       </c>
       <c r="C369" t="s">
-        <v>735</v>
+        <v>715</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
@@ -8044,10 +8165,10 @@
         <v>380</v>
       </c>
       <c r="B370" t="s">
-        <v>736</v>
+        <v>716</v>
       </c>
       <c r="C370" t="s">
-        <v>737</v>
+        <v>717</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
@@ -8055,10 +8176,10 @@
         <v>381</v>
       </c>
       <c r="B371" t="s">
-        <v>738</v>
+        <v>718</v>
       </c>
       <c r="C371" t="s">
-        <v>739</v>
+        <v>719</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -8066,10 +8187,10 @@
         <v>382</v>
       </c>
       <c r="B372" t="s">
-        <v>740</v>
+        <v>720</v>
       </c>
       <c r="C372" t="s">
-        <v>741</v>
+        <v>721</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -8077,10 +8198,10 @@
         <v>383</v>
       </c>
       <c r="B373" t="s">
-        <v>742</v>
+        <v>722</v>
       </c>
       <c r="C373" t="s">
-        <v>743</v>
+        <v>723</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
@@ -8088,10 +8209,10 @@
         <v>384</v>
       </c>
       <c r="B374" t="s">
-        <v>744</v>
+        <v>724</v>
       </c>
       <c r="C374" t="s">
-        <v>745</v>
+        <v>725</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -8099,10 +8220,10 @@
         <v>385</v>
       </c>
       <c r="B375" t="s">
-        <v>746</v>
+        <v>726</v>
       </c>
       <c r="C375" t="s">
-        <v>747</v>
+        <v>727</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -8110,10 +8231,10 @@
         <v>386</v>
       </c>
       <c r="B376" t="s">
-        <v>748</v>
+        <v>728</v>
       </c>
       <c r="C376" t="s">
-        <v>749</v>
+        <v>729</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
@@ -8121,10 +8242,10 @@
         <v>387</v>
       </c>
       <c r="B377" t="s">
-        <v>750</v>
+        <v>730</v>
       </c>
       <c r="C377" t="s">
-        <v>751</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
@@ -8132,10 +8253,10 @@
         <v>388</v>
       </c>
       <c r="B378" t="s">
-        <v>752</v>
+        <v>731</v>
       </c>
       <c r="C378" t="s">
-        <v>753</v>
+        <v>732</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
@@ -8143,10 +8264,10 @@
         <v>389</v>
       </c>
       <c r="B379" t="s">
-        <v>754</v>
+        <v>733</v>
       </c>
       <c r="C379" t="s">
-        <v>755</v>
+        <v>734</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -8154,10 +8275,10 @@
         <v>390</v>
       </c>
       <c r="B380" t="s">
-        <v>756</v>
+        <v>735</v>
       </c>
       <c r="C380" t="s">
-        <v>757</v>
+        <v>736</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -8165,10 +8286,10 @@
         <v>391</v>
       </c>
       <c r="B381" t="s">
-        <v>758</v>
+        <v>737</v>
       </c>
       <c r="C381" t="s">
-        <v>759</v>
+        <v>738</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -8176,10 +8297,10 @@
         <v>392</v>
       </c>
       <c r="B382" t="s">
-        <v>760</v>
+        <v>739</v>
       </c>
       <c r="C382" t="s">
-        <v>761</v>
+        <v>740</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
@@ -8187,10 +8308,10 @@
         <v>393</v>
       </c>
       <c r="B383" t="s">
-        <v>762</v>
+        <v>741</v>
       </c>
       <c r="C383" t="s">
-        <v>763</v>
+        <v>742</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -8198,10 +8319,10 @@
         <v>394</v>
       </c>
       <c r="B384" t="s">
-        <v>764</v>
+        <v>743</v>
       </c>
       <c r="C384" t="s">
-        <v>765</v>
+        <v>744</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
@@ -8209,10 +8330,10 @@
         <v>395</v>
       </c>
       <c r="B385" t="s">
-        <v>766</v>
+        <v>745</v>
       </c>
       <c r="C385" t="s">
-        <v>767</v>
+        <v>746</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
@@ -8220,10 +8341,10 @@
         <v>396</v>
       </c>
       <c r="B386" t="s">
-        <v>768</v>
+        <v>747</v>
       </c>
       <c r="C386" t="s">
-        <v>769</v>
+        <v>748</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
@@ -8231,10 +8352,10 @@
         <v>397</v>
       </c>
       <c r="B387" t="s">
-        <v>770</v>
+        <v>749</v>
       </c>
       <c r="C387" t="s">
-        <v>771</v>
+        <v>750</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -8242,10 +8363,10 @@
         <v>398</v>
       </c>
       <c r="B388" t="s">
-        <v>772</v>
+        <v>751</v>
       </c>
       <c r="C388" t="s">
-        <v>773</v>
+        <v>752</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -8253,10 +8374,10 @@
         <v>399</v>
       </c>
       <c r="B389" t="s">
-        <v>774</v>
+        <v>753</v>
       </c>
       <c r="C389" t="s">
-        <v>775</v>
+        <v>754</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -8264,10 +8385,10 @@
         <v>400</v>
       </c>
       <c r="B390" t="s">
-        <v>776</v>
+        <v>755</v>
       </c>
       <c r="C390" t="s">
-        <v>777</v>
+        <v>756</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
@@ -8275,10 +8396,10 @@
         <v>401</v>
       </c>
       <c r="B391" t="s">
-        <v>778</v>
+        <v>757</v>
       </c>
       <c r="C391" t="s">
-        <v>779</v>
+        <v>758</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
@@ -8286,10 +8407,10 @@
         <v>402</v>
       </c>
       <c r="B392" t="s">
-        <v>780</v>
+        <v>759</v>
       </c>
       <c r="C392" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
@@ -8297,10 +8418,10 @@
         <v>403</v>
       </c>
       <c r="B393" t="s">
-        <v>782</v>
+        <v>761</v>
       </c>
       <c r="C393" t="s">
-        <v>783</v>
+        <v>762</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -8308,10 +8429,10 @@
         <v>404</v>
       </c>
       <c r="B394" t="s">
-        <v>784</v>
+        <v>763</v>
       </c>
       <c r="C394" t="s">
-        <v>785</v>
+        <v>764</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -8319,10 +8440,10 @@
         <v>405</v>
       </c>
       <c r="B395" t="s">
-        <v>786</v>
+        <v>765</v>
       </c>
       <c r="C395" t="s">
-        <v>787</v>
+        <v>766</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
@@ -8330,10 +8451,10 @@
         <v>406</v>
       </c>
       <c r="B396" t="s">
-        <v>788</v>
+        <v>767</v>
       </c>
       <c r="C396" t="s">
-        <v>789</v>
+        <v>768</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -8341,10 +8462,10 @@
         <v>407</v>
       </c>
       <c r="B397" t="s">
-        <v>790</v>
+        <v>769</v>
       </c>
       <c r="C397" t="s">
-        <v>791</v>
+        <v>770</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -8352,10 +8473,10 @@
         <v>408</v>
       </c>
       <c r="B398" t="s">
-        <v>792</v>
+        <v>771</v>
       </c>
       <c r="C398" t="s">
-        <v>793</v>
+        <v>772</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -8363,10 +8484,10 @@
         <v>409</v>
       </c>
       <c r="B399" t="s">
-        <v>794</v>
+        <v>773</v>
       </c>
       <c r="C399" t="s">
-        <v>795</v>
+        <v>774</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -8374,10 +8495,10 @@
         <v>410</v>
       </c>
       <c r="B400" t="s">
-        <v>796</v>
+        <v>775</v>
       </c>
       <c r="C400" t="s">
-        <v>797</v>
+        <v>776</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
@@ -8385,10 +8506,10 @@
         <v>411</v>
       </c>
       <c r="B401" t="s">
-        <v>798</v>
+        <v>777</v>
       </c>
       <c r="C401" t="s">
-        <v>799</v>
+        <v>778</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
@@ -8396,10 +8517,10 @@
         <v>412</v>
       </c>
       <c r="B402" t="s">
-        <v>800</v>
+        <v>779</v>
       </c>
       <c r="C402" t="s">
-        <v>801</v>
+        <v>780</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
@@ -8407,10 +8528,10 @@
         <v>413</v>
       </c>
       <c r="B403" t="s">
-        <v>802</v>
+        <v>781</v>
       </c>
       <c r="C403" t="s">
-        <v>803</v>
+        <v>782</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
@@ -8418,10 +8539,10 @@
         <v>414</v>
       </c>
       <c r="B404" t="s">
-        <v>804</v>
+        <v>783</v>
       </c>
       <c r="C404" t="s">
-        <v>805</v>
+        <v>784</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
@@ -8429,10 +8550,10 @@
         <v>415</v>
       </c>
       <c r="B405" t="s">
-        <v>806</v>
+        <v>785</v>
       </c>
       <c r="C405" t="s">
-        <v>807</v>
+        <v>786</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
@@ -8440,10 +8561,10 @@
         <v>416</v>
       </c>
       <c r="B406" t="s">
-        <v>808</v>
+        <v>787</v>
       </c>
       <c r="C406" t="s">
-        <v>809</v>
+        <v>788</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
@@ -8451,7 +8572,7 @@
         <v>417</v>
       </c>
       <c r="B407" t="s">
-        <v>810</v>
+        <v>789</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
@@ -8459,10 +8580,10 @@
         <v>418</v>
       </c>
       <c r="B408" t="s">
-        <v>811</v>
+        <v>790</v>
       </c>
       <c r="C408" t="s">
-        <v>812</v>
+        <v>791</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
@@ -8470,10 +8591,10 @@
         <v>419</v>
       </c>
       <c r="B409" t="s">
-        <v>813</v>
+        <v>792</v>
       </c>
       <c r="C409" t="s">
-        <v>814</v>
+        <v>793</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
@@ -8481,10 +8602,10 @@
         <v>420</v>
       </c>
       <c r="B410" t="s">
-        <v>815</v>
+        <v>794</v>
       </c>
       <c r="C410" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
@@ -8492,10 +8613,10 @@
         <v>421</v>
       </c>
       <c r="B411" t="s">
-        <v>817</v>
+        <v>796</v>
       </c>
       <c r="C411" t="s">
-        <v>818</v>
+        <v>797</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
@@ -8503,10 +8624,10 @@
         <v>422</v>
       </c>
       <c r="B412" t="s">
-        <v>819</v>
+        <v>798</v>
       </c>
       <c r="C412" t="s">
-        <v>820</v>
+        <v>799</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
@@ -8514,10 +8635,10 @@
         <v>423</v>
       </c>
       <c r="B413" t="s">
-        <v>821</v>
+        <v>800</v>
       </c>
       <c r="C413" t="s">
-        <v>822</v>
+        <v>801</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
@@ -8525,10 +8646,10 @@
         <v>424</v>
       </c>
       <c r="B414" t="s">
-        <v>823</v>
+        <v>802</v>
       </c>
       <c r="C414" t="s">
-        <v>824</v>
+        <v>803</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
@@ -8536,10 +8657,10 @@
         <v>425</v>
       </c>
       <c r="B415" t="s">
-        <v>825</v>
+        <v>804</v>
       </c>
       <c r="C415" t="s">
-        <v>826</v>
+        <v>805</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
@@ -8547,10 +8668,10 @@
         <v>426</v>
       </c>
       <c r="B416" t="s">
-        <v>827</v>
+        <v>806</v>
       </c>
       <c r="C416" t="s">
-        <v>828</v>
+        <v>807</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
@@ -8558,10 +8679,10 @@
         <v>427</v>
       </c>
       <c r="B417" t="s">
-        <v>829</v>
+        <v>808</v>
       </c>
       <c r="C417" t="s">
-        <v>830</v>
+        <v>809</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
@@ -8569,10 +8690,10 @@
         <v>428</v>
       </c>
       <c r="B418" t="s">
-        <v>831</v>
+        <v>810</v>
       </c>
       <c r="C418" t="s">
-        <v>832</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
@@ -8580,10 +8701,10 @@
         <v>429</v>
       </c>
       <c r="B419" t="s">
-        <v>833</v>
+        <v>811</v>
       </c>
       <c r="C419" t="s">
-        <v>834</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
@@ -8591,10 +8712,10 @@
         <v>430</v>
       </c>
       <c r="B420" t="s">
-        <v>835</v>
+        <v>812</v>
       </c>
       <c r="C420" t="s">
-        <v>836</v>
+        <v>813</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
@@ -8602,10 +8723,10 @@
         <v>431</v>
       </c>
       <c r="B421" t="s">
-        <v>837</v>
+        <v>814</v>
       </c>
       <c r="C421" t="s">
-        <v>838</v>
+        <v>815</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
@@ -8613,10 +8734,10 @@
         <v>432</v>
       </c>
       <c r="B422" t="s">
-        <v>839</v>
+        <v>816</v>
       </c>
       <c r="C422" t="s">
-        <v>840</v>
+        <v>817</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
@@ -8624,10 +8745,10 @@
         <v>433</v>
       </c>
       <c r="B423" t="s">
-        <v>841</v>
+        <v>818</v>
       </c>
       <c r="C423" t="s">
-        <v>842</v>
+        <v>819</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
@@ -8635,10 +8756,10 @@
         <v>434</v>
       </c>
       <c r="B424" t="s">
-        <v>843</v>
+        <v>820</v>
       </c>
       <c r="C424" t="s">
-        <v>844</v>
+        <v>821</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
@@ -8646,10 +8767,10 @@
         <v>435</v>
       </c>
       <c r="B425" t="s">
-        <v>845</v>
+        <v>822</v>
       </c>
       <c r="C425" t="s">
-        <v>846</v>
+        <v>823</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
@@ -8657,10 +8778,10 @@
         <v>436</v>
       </c>
       <c r="B426" t="s">
-        <v>847</v>
+        <v>824</v>
       </c>
       <c r="C426" t="s">
-        <v>848</v>
+        <v>825</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
@@ -8668,10 +8789,10 @@
         <v>437</v>
       </c>
       <c r="B427" t="s">
-        <v>849</v>
+        <v>826</v>
       </c>
       <c r="C427" t="s">
-        <v>850</v>
+        <v>827</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
@@ -8679,10 +8800,10 @@
         <v>438</v>
       </c>
       <c r="B428" t="s">
-        <v>851</v>
+        <v>828</v>
       </c>
       <c r="C428" t="s">
-        <v>789</v>
+        <v>768</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
@@ -8690,10 +8811,10 @@
         <v>439</v>
       </c>
       <c r="B429" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="C429" t="s">
-        <v>789</v>
+        <v>768</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
@@ -8701,10 +8822,10 @@
         <v>440</v>
       </c>
       <c r="B430" t="s">
-        <v>853</v>
+        <v>830</v>
       </c>
       <c r="C430" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
@@ -8712,10 +8833,10 @@
         <v>441</v>
       </c>
       <c r="B431" t="s">
-        <v>855</v>
+        <v>832</v>
       </c>
       <c r="C431" t="s">
-        <v>856</v>
+        <v>833</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
@@ -8723,10 +8844,10 @@
         <v>442</v>
       </c>
       <c r="B432" t="s">
-        <v>857</v>
+        <v>834</v>
       </c>
       <c r="C432" t="s">
-        <v>858</v>
+        <v>835</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
@@ -8734,10 +8855,10 @@
         <v>443</v>
       </c>
       <c r="B433" t="s">
-        <v>859</v>
+        <v>836</v>
       </c>
       <c r="C433" t="s">
-        <v>860</v>
+        <v>837</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
@@ -8745,10 +8866,10 @@
         <v>444</v>
       </c>
       <c r="B434" t="s">
-        <v>861</v>
+        <v>838</v>
       </c>
       <c r="C434" t="s">
-        <v>862</v>
+        <v>839</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
@@ -8756,10 +8877,10 @@
         <v>445</v>
       </c>
       <c r="B435" t="s">
-        <v>863</v>
+        <v>840</v>
       </c>
       <c r="C435" t="s">
-        <v>864</v>
+        <v>841</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
@@ -8767,10 +8888,10 @@
         <v>446</v>
       </c>
       <c r="B436" t="s">
-        <v>865</v>
+        <v>842</v>
       </c>
       <c r="C436" t="s">
-        <v>866</v>
+        <v>843</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
@@ -8778,10 +8899,10 @@
         <v>447</v>
       </c>
       <c r="B437" t="s">
-        <v>867</v>
+        <v>844</v>
       </c>
       <c r="C437" t="s">
-        <v>868</v>
+        <v>845</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
@@ -8789,10 +8910,10 @@
         <v>448</v>
       </c>
       <c r="B438" t="s">
-        <v>869</v>
+        <v>846</v>
       </c>
       <c r="C438" t="s">
-        <v>870</v>
+        <v>847</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
@@ -8800,10 +8921,10 @@
         <v>449</v>
       </c>
       <c r="B439" t="s">
-        <v>871</v>
+        <v>848</v>
       </c>
       <c r="C439" t="s">
-        <v>872</v>
+        <v>849</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
@@ -8811,10 +8932,10 @@
         <v>450</v>
       </c>
       <c r="B440" t="s">
-        <v>873</v>
+        <v>850</v>
       </c>
       <c r="C440" t="s">
-        <v>874</v>
+        <v>851</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
@@ -8822,10 +8943,10 @@
         <v>451</v>
       </c>
       <c r="B441" t="s">
-        <v>875</v>
+        <v>852</v>
       </c>
       <c r="C441" t="s">
-        <v>876</v>
+        <v>853</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
@@ -8833,10 +8954,10 @@
         <v>452</v>
       </c>
       <c r="B442" t="s">
-        <v>877</v>
+        <v>854</v>
       </c>
       <c r="C442" t="s">
-        <v>878</v>
+        <v>855</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
@@ -8844,10 +8965,10 @@
         <v>453</v>
       </c>
       <c r="B443" t="s">
-        <v>879</v>
+        <v>856</v>
       </c>
       <c r="C443" t="s">
-        <v>880</v>
+        <v>857</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
@@ -8855,10 +8976,10 @@
         <v>455</v>
       </c>
       <c r="B444" t="s">
-        <v>881</v>
+        <v>858</v>
       </c>
       <c r="C444" t="s">
-        <v>882</v>
+        <v>859</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
@@ -8866,10 +8987,10 @@
         <v>456</v>
       </c>
       <c r="B445" t="s">
-        <v>883</v>
+        <v>860</v>
       </c>
       <c r="C445" t="s">
-        <v>884</v>
+        <v>861</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
@@ -8877,10 +8998,10 @@
         <v>457</v>
       </c>
       <c r="B446" t="s">
-        <v>885</v>
+        <v>862</v>
       </c>
       <c r="C446" t="s">
-        <v>886</v>
+        <v>863</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
@@ -8888,10 +9009,10 @@
         <v>458</v>
       </c>
       <c r="B447" t="s">
-        <v>887</v>
+        <v>864</v>
       </c>
       <c r="C447" t="s">
-        <v>888</v>
+        <v>865</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
@@ -8899,10 +9020,10 @@
         <v>459</v>
       </c>
       <c r="B448" t="s">
-        <v>889</v>
+        <v>866</v>
       </c>
       <c r="C448" t="s">
-        <v>890</v>
+        <v>867</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
@@ -8910,10 +9031,10 @@
         <v>460</v>
       </c>
       <c r="B449" t="s">
-        <v>891</v>
+        <v>868</v>
       </c>
       <c r="C449" t="s">
-        <v>892</v>
+        <v>869</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
@@ -8921,10 +9042,10 @@
         <v>461</v>
       </c>
       <c r="B450" t="s">
-        <v>893</v>
+        <v>870</v>
       </c>
       <c r="C450" t="s">
-        <v>894</v>
+        <v>871</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
@@ -8932,10 +9053,10 @@
         <v>462</v>
       </c>
       <c r="B451" t="s">
-        <v>754</v>
+        <v>733</v>
       </c>
       <c r="C451" t="s">
-        <v>895</v>
+        <v>872</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
@@ -8943,10 +9064,10 @@
         <v>463</v>
       </c>
       <c r="B452" t="s">
-        <v>896</v>
+        <v>873</v>
       </c>
       <c r="C452" t="s">
-        <v>897</v>
+        <v>874</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
@@ -8954,10 +9075,10 @@
         <v>464</v>
       </c>
       <c r="B453" t="s">
-        <v>898</v>
+        <v>875</v>
       </c>
       <c r="C453" t="s">
-        <v>899</v>
+        <v>876</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
@@ -8965,10 +9086,10 @@
         <v>465</v>
       </c>
       <c r="B454" t="s">
-        <v>900</v>
+        <v>877</v>
       </c>
       <c r="C454" t="s">
-        <v>901</v>
+        <v>878</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
@@ -8976,10 +9097,10 @@
         <v>466</v>
       </c>
       <c r="B455" t="s">
-        <v>902</v>
+        <v>879</v>
       </c>
       <c r="C455" t="s">
-        <v>903</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
@@ -8987,10 +9108,10 @@
         <v>467</v>
       </c>
       <c r="B456" t="s">
-        <v>796</v>
+        <v>775</v>
       </c>
       <c r="C456" t="s">
-        <v>904</v>
+        <v>880</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
@@ -8998,10 +9119,10 @@
         <v>468</v>
       </c>
       <c r="B457" t="s">
-        <v>905</v>
+        <v>881</v>
       </c>
       <c r="C457" t="s">
-        <v>906</v>
+        <v>882</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
@@ -9009,10 +9130,10 @@
         <v>469</v>
       </c>
       <c r="B458" t="s">
-        <v>907</v>
+        <v>883</v>
       </c>
       <c r="C458" t="s">
-        <v>908</v>
+        <v>884</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
@@ -9020,7 +9141,10 @@
         <v>470</v>
       </c>
       <c r="B459" t="s">
-        <v>909</v>
+        <v>885</v>
+      </c>
+      <c r="C459" t="s">
+        <v>1154</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
@@ -9028,7 +9152,7 @@
         <v>471</v>
       </c>
       <c r="B460" t="s">
-        <v>910</v>
+        <v>886</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
@@ -9036,10 +9160,10 @@
         <v>472</v>
       </c>
       <c r="B461" t="s">
-        <v>911</v>
+        <v>887</v>
       </c>
       <c r="C461" t="s">
-        <v>912</v>
+        <v>888</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
@@ -9047,10 +9171,10 @@
         <v>473</v>
       </c>
       <c r="B462" t="s">
-        <v>913</v>
+        <v>889</v>
       </c>
       <c r="C462" t="s">
-        <v>914</v>
+        <v>890</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
@@ -9058,10 +9182,10 @@
         <v>474</v>
       </c>
       <c r="B463" t="s">
-        <v>915</v>
+        <v>891</v>
       </c>
       <c r="C463" t="s">
-        <v>916</v>
+        <v>892</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
@@ -9069,10 +9193,10 @@
         <v>475</v>
       </c>
       <c r="B464" t="s">
-        <v>917</v>
+        <v>893</v>
       </c>
       <c r="C464" t="s">
-        <v>918</v>
+        <v>894</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
@@ -9080,10 +9204,10 @@
         <v>476</v>
       </c>
       <c r="B465" t="s">
-        <v>919</v>
+        <v>895</v>
       </c>
       <c r="C465" t="s">
-        <v>920</v>
+        <v>896</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
@@ -9091,10 +9215,10 @@
         <v>477</v>
       </c>
       <c r="B466" t="s">
-        <v>921</v>
+        <v>897</v>
       </c>
       <c r="C466" t="s">
-        <v>922</v>
+        <v>898</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
@@ -9102,10 +9226,10 @@
         <v>478</v>
       </c>
       <c r="B467" t="s">
-        <v>923</v>
+        <v>899</v>
       </c>
       <c r="C467" t="s">
-        <v>924</v>
+        <v>900</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
@@ -9113,10 +9237,10 @@
         <v>479</v>
       </c>
       <c r="B468" t="s">
-        <v>925</v>
+        <v>901</v>
       </c>
       <c r="C468" t="s">
-        <v>926</v>
+        <v>902</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
@@ -9124,10 +9248,10 @@
         <v>480</v>
       </c>
       <c r="B469" t="s">
-        <v>927</v>
+        <v>903</v>
       </c>
       <c r="C469" t="s">
-        <v>928</v>
+        <v>904</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
@@ -9135,10 +9259,10 @@
         <v>481</v>
       </c>
       <c r="B470" t="s">
-        <v>929</v>
+        <v>905</v>
       </c>
       <c r="C470" t="s">
-        <v>930</v>
+        <v>906</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
@@ -9146,10 +9270,10 @@
         <v>482</v>
       </c>
       <c r="B471" t="s">
-        <v>931</v>
+        <v>907</v>
       </c>
       <c r="C471" t="s">
-        <v>932</v>
+        <v>908</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
@@ -9157,10 +9281,10 @@
         <v>483</v>
       </c>
       <c r="B472" t="s">
-        <v>933</v>
+        <v>909</v>
       </c>
       <c r="C472" t="s">
-        <v>934</v>
+        <v>910</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
@@ -9168,10 +9292,10 @@
         <v>484</v>
       </c>
       <c r="B473" t="s">
-        <v>935</v>
+        <v>911</v>
       </c>
       <c r="C473" t="s">
-        <v>936</v>
+        <v>912</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
@@ -9179,10 +9303,10 @@
         <v>485</v>
       </c>
       <c r="B474" t="s">
-        <v>937</v>
+        <v>913</v>
       </c>
       <c r="C474" t="s">
-        <v>938</v>
+        <v>914</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
@@ -9190,10 +9314,10 @@
         <v>486</v>
       </c>
       <c r="B475" t="s">
-        <v>939</v>
+        <v>915</v>
       </c>
       <c r="C475" t="s">
-        <v>940</v>
+        <v>916</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
@@ -9201,10 +9325,10 @@
         <v>487</v>
       </c>
       <c r="B476" t="s">
-        <v>941</v>
+        <v>917</v>
       </c>
       <c r="C476" t="s">
-        <v>942</v>
+        <v>918</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
@@ -9212,10 +9336,10 @@
         <v>488</v>
       </c>
       <c r="B477" t="s">
-        <v>943</v>
+        <v>919</v>
       </c>
       <c r="C477" t="s">
-        <v>944</v>
+        <v>920</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
@@ -9223,10 +9347,10 @@
         <v>489</v>
       </c>
       <c r="B478" t="s">
-        <v>945</v>
+        <v>921</v>
       </c>
       <c r="C478" t="s">
-        <v>945</v>
+        <v>921</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
@@ -9234,10 +9358,10 @@
         <v>490</v>
       </c>
       <c r="B479" t="s">
-        <v>946</v>
+        <v>922</v>
       </c>
       <c r="C479" t="s">
-        <v>947</v>
+        <v>923</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
@@ -9245,10 +9369,10 @@
         <v>491</v>
       </c>
       <c r="B480" t="s">
-        <v>948</v>
+        <v>924</v>
       </c>
       <c r="C480" t="s">
-        <v>949</v>
+        <v>925</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
@@ -9256,10 +9380,10 @@
         <v>492</v>
       </c>
       <c r="B481" t="s">
-        <v>950</v>
+        <v>926</v>
       </c>
       <c r="C481" t="s">
-        <v>951</v>
+        <v>927</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
@@ -9267,10 +9391,10 @@
         <v>493</v>
       </c>
       <c r="B482" t="s">
-        <v>952</v>
+        <v>928</v>
       </c>
       <c r="C482" t="s">
-        <v>953</v>
+        <v>929</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
@@ -9278,10 +9402,10 @@
         <v>494</v>
       </c>
       <c r="B483" t="s">
-        <v>954</v>
+        <v>930</v>
       </c>
       <c r="C483" t="s">
-        <v>955</v>
+        <v>931</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
@@ -9289,10 +9413,10 @@
         <v>496</v>
       </c>
       <c r="B484" t="s">
-        <v>956</v>
+        <v>932</v>
       </c>
       <c r="C484" t="s">
-        <v>957</v>
+        <v>933</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
@@ -9300,10 +9424,10 @@
         <v>497</v>
       </c>
       <c r="B485" t="s">
-        <v>958</v>
+        <v>934</v>
       </c>
       <c r="C485" t="s">
-        <v>959</v>
+        <v>935</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
@@ -9311,10 +9435,10 @@
         <v>498</v>
       </c>
       <c r="B486" t="s">
-        <v>960</v>
+        <v>936</v>
       </c>
       <c r="C486" t="s">
-        <v>961</v>
+        <v>937</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
@@ -9322,10 +9446,10 @@
         <v>499</v>
       </c>
       <c r="B487" t="s">
-        <v>962</v>
+        <v>938</v>
       </c>
       <c r="C487" t="s">
-        <v>963</v>
+        <v>939</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
@@ -9333,10 +9457,10 @@
         <v>500</v>
       </c>
       <c r="B488" t="s">
-        <v>964</v>
+        <v>940</v>
       </c>
       <c r="C488" t="s">
-        <v>965</v>
+        <v>941</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
@@ -9344,10 +9468,10 @@
         <v>501</v>
       </c>
       <c r="B489" t="s">
-        <v>966</v>
+        <v>942</v>
       </c>
       <c r="C489" t="s">
-        <v>967</v>
+        <v>943</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
@@ -9355,10 +9479,10 @@
         <v>502</v>
       </c>
       <c r="B490" t="s">
-        <v>968</v>
+        <v>944</v>
       </c>
       <c r="C490" t="s">
-        <v>969</v>
+        <v>945</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
@@ -9366,10 +9490,10 @@
         <v>503</v>
       </c>
       <c r="B491" t="s">
-        <v>970</v>
+        <v>946</v>
       </c>
       <c r="C491" t="s">
-        <v>971</v>
+        <v>947</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
@@ -9377,10 +9501,10 @@
         <v>504</v>
       </c>
       <c r="B492" t="s">
-        <v>972</v>
+        <v>948</v>
       </c>
       <c r="C492" t="s">
-        <v>973</v>
+        <v>949</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
@@ -9388,10 +9512,10 @@
         <v>505</v>
       </c>
       <c r="B493" t="s">
-        <v>974</v>
+        <v>950</v>
       </c>
       <c r="C493" t="s">
-        <v>975</v>
+        <v>951</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
@@ -9399,10 +9523,10 @@
         <v>506</v>
       </c>
       <c r="B494" t="s">
-        <v>976</v>
+        <v>952</v>
       </c>
       <c r="C494" t="s">
-        <v>977</v>
+        <v>953</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
@@ -9410,10 +9534,10 @@
         <v>507</v>
       </c>
       <c r="B495" t="s">
-        <v>978</v>
+        <v>954</v>
       </c>
       <c r="C495" t="s">
-        <v>979</v>
+        <v>955</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
@@ -9421,10 +9545,10 @@
         <v>508</v>
       </c>
       <c r="B496" t="s">
-        <v>980</v>
+        <v>956</v>
       </c>
       <c r="C496" t="s">
-        <v>981</v>
+        <v>957</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
@@ -9432,10 +9556,10 @@
         <v>509</v>
       </c>
       <c r="B497" t="s">
-        <v>982</v>
+        <v>958</v>
       </c>
       <c r="C497" t="s">
-        <v>983</v>
+        <v>959</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
@@ -9443,10 +9567,10 @@
         <v>510</v>
       </c>
       <c r="B498" t="s">
-        <v>984</v>
+        <v>960</v>
       </c>
       <c r="C498" t="s">
-        <v>985</v>
+        <v>961</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
@@ -9454,7 +9578,7 @@
         <v>511</v>
       </c>
       <c r="B499" t="s">
-        <v>986</v>
+        <v>962</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
@@ -9462,10 +9586,10 @@
         <v>512</v>
       </c>
       <c r="B500" t="s">
-        <v>987</v>
+        <v>963</v>
       </c>
       <c r="C500" t="s">
-        <v>988</v>
+        <v>964</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
@@ -9473,10 +9597,10 @@
         <v>513</v>
       </c>
       <c r="B501" t="s">
-        <v>989</v>
+        <v>965</v>
       </c>
       <c r="C501" t="s">
-        <v>990</v>
+        <v>966</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
@@ -9484,10 +9608,10 @@
         <v>514</v>
       </c>
       <c r="B502" t="s">
-        <v>991</v>
+        <v>967</v>
       </c>
       <c r="C502" t="s">
-        <v>992</v>
+        <v>968</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
@@ -9495,10 +9619,10 @@
         <v>515</v>
       </c>
       <c r="B503" t="s">
-        <v>993</v>
+        <v>1196</v>
       </c>
       <c r="C503" t="s">
-        <v>994</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
@@ -9506,10 +9630,10 @@
         <v>516</v>
       </c>
       <c r="B504" t="s">
-        <v>995</v>
+        <v>969</v>
       </c>
       <c r="C504" t="s">
-        <v>996</v>
+        <v>970</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
@@ -9517,7 +9641,7 @@
         <v>517</v>
       </c>
       <c r="B505" t="s">
-        <v>997</v>
+        <v>971</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
@@ -9525,10 +9649,10 @@
         <v>518</v>
       </c>
       <c r="B506" t="s">
-        <v>998</v>
+        <v>972</v>
       </c>
       <c r="C506" t="s">
-        <v>999</v>
+        <v>973</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
@@ -9536,10 +9660,10 @@
         <v>519</v>
       </c>
       <c r="B507" t="s">
-        <v>1000</v>
+        <v>974</v>
       </c>
       <c r="C507" t="s">
-        <v>1001</v>
+        <v>975</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
@@ -9547,10 +9671,10 @@
         <v>520</v>
       </c>
       <c r="B508" t="s">
-        <v>1002</v>
+        <v>976</v>
       </c>
       <c r="C508" t="s">
-        <v>1003</v>
+        <v>977</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
@@ -9558,10 +9682,10 @@
         <v>521</v>
       </c>
       <c r="B509" t="s">
-        <v>1004</v>
+        <v>978</v>
       </c>
       <c r="C509" t="s">
-        <v>1005</v>
+        <v>979</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
@@ -9569,10 +9693,10 @@
         <v>522</v>
       </c>
       <c r="B510" t="s">
-        <v>1006</v>
+        <v>980</v>
       </c>
       <c r="C510" t="s">
-        <v>1007</v>
+        <v>981</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
@@ -9580,10 +9704,10 @@
         <v>523</v>
       </c>
       <c r="B511" t="s">
-        <v>1008</v>
+        <v>982</v>
       </c>
       <c r="C511" t="s">
-        <v>1009</v>
+        <v>983</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
@@ -9591,10 +9715,10 @@
         <v>524</v>
       </c>
       <c r="B512" t="s">
-        <v>1010</v>
+        <v>984</v>
       </c>
       <c r="C512" t="s">
-        <v>1011</v>
+        <v>985</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
@@ -9602,10 +9726,10 @@
         <v>525</v>
       </c>
       <c r="B513" t="s">
-        <v>1012</v>
+        <v>986</v>
       </c>
       <c r="C513" t="s">
-        <v>1013</v>
+        <v>987</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
@@ -9613,10 +9737,10 @@
         <v>526</v>
       </c>
       <c r="B514" t="s">
-        <v>1014</v>
+        <v>988</v>
       </c>
       <c r="C514" t="s">
-        <v>1015</v>
+        <v>989</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
@@ -9624,10 +9748,10 @@
         <v>527</v>
       </c>
       <c r="B515" t="s">
-        <v>1016</v>
+        <v>990</v>
       </c>
       <c r="C515" t="s">
-        <v>1017</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
@@ -9635,10 +9759,10 @@
         <v>528</v>
       </c>
       <c r="B516" t="s">
-        <v>730</v>
+        <v>710</v>
       </c>
       <c r="C516" t="s">
-        <v>1018</v>
+        <v>991</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
@@ -9646,10 +9770,10 @@
         <v>529</v>
       </c>
       <c r="B517" t="s">
-        <v>1019</v>
+        <v>992</v>
       </c>
       <c r="C517" t="s">
-        <v>1020</v>
+        <v>993</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
@@ -9657,7 +9781,7 @@
         <v>530</v>
       </c>
       <c r="B518" t="s">
-        <v>1021</v>
+        <v>994</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
@@ -9665,10 +9789,10 @@
         <v>531</v>
       </c>
       <c r="B519" t="s">
-        <v>1022</v>
+        <v>995</v>
       </c>
       <c r="C519" t="s">
-        <v>1023</v>
+        <v>996</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
@@ -9676,10 +9800,10 @@
         <v>532</v>
       </c>
       <c r="B520" t="s">
-        <v>1024</v>
+        <v>997</v>
       </c>
       <c r="C520" t="s">
-        <v>1025</v>
+        <v>998</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
@@ -9687,10 +9811,10 @@
         <v>533</v>
       </c>
       <c r="B521" t="s">
-        <v>1026</v>
+        <v>999</v>
       </c>
       <c r="C521" t="s">
-        <v>1027</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
@@ -9698,10 +9822,10 @@
         <v>534</v>
       </c>
       <c r="B522" t="s">
-        <v>1028</v>
+        <v>1001</v>
       </c>
       <c r="C522" t="s">
-        <v>1029</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
@@ -9709,10 +9833,10 @@
         <v>535</v>
       </c>
       <c r="B523" t="s">
-        <v>1030</v>
+        <v>1003</v>
       </c>
       <c r="C523" t="s">
-        <v>1031</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
@@ -9720,10 +9844,10 @@
         <v>536</v>
       </c>
       <c r="B524" t="s">
-        <v>1032</v>
+        <v>1005</v>
       </c>
       <c r="C524" t="s">
-        <v>1033</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
@@ -9731,10 +9855,10 @@
         <v>537</v>
       </c>
       <c r="B525" t="s">
-        <v>1034</v>
+        <v>1007</v>
       </c>
       <c r="C525" t="s">
-        <v>1035</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
@@ -9742,10 +9866,10 @@
         <v>538</v>
       </c>
       <c r="B526" t="s">
-        <v>1036</v>
+        <v>1009</v>
       </c>
       <c r="C526" t="s">
-        <v>1037</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
@@ -9753,10 +9877,10 @@
         <v>539</v>
       </c>
       <c r="B527" t="s">
-        <v>1038</v>
+        <v>1011</v>
       </c>
       <c r="C527" t="s">
-        <v>1039</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
@@ -9764,10 +9888,10 @@
         <v>540</v>
       </c>
       <c r="B528" t="s">
-        <v>1040</v>
+        <v>1013</v>
       </c>
       <c r="C528" t="s">
-        <v>1041</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
@@ -9775,10 +9899,10 @@
         <v>542</v>
       </c>
       <c r="B529" t="s">
-        <v>1042</v>
+        <v>1015</v>
       </c>
       <c r="C529" t="s">
-        <v>1043</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
@@ -9786,10 +9910,10 @@
         <v>543</v>
       </c>
       <c r="B530" t="s">
-        <v>1044</v>
+        <v>1017</v>
       </c>
       <c r="C530" t="s">
-        <v>1045</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
@@ -9797,10 +9921,10 @@
         <v>545</v>
       </c>
       <c r="B531" t="s">
-        <v>1046</v>
+        <v>1019</v>
       </c>
       <c r="C531" t="s">
-        <v>1047</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
@@ -9808,10 +9932,10 @@
         <v>546</v>
       </c>
       <c r="B532" t="s">
-        <v>1048</v>
+        <v>1021</v>
       </c>
       <c r="C532" t="s">
-        <v>1049</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.25">
@@ -9819,10 +9943,10 @@
         <v>547</v>
       </c>
       <c r="B533" t="s">
-        <v>1050</v>
+        <v>1023</v>
       </c>
       <c r="C533" t="s">
-        <v>1051</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
@@ -9830,10 +9954,10 @@
         <v>548</v>
       </c>
       <c r="B534" t="s">
-        <v>1052</v>
+        <v>1025</v>
       </c>
       <c r="C534" t="s">
-        <v>1053</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.25">
@@ -9841,10 +9965,10 @@
         <v>549</v>
       </c>
       <c r="B535" t="s">
-        <v>1054</v>
+        <v>1027</v>
       </c>
       <c r="C535" t="s">
-        <v>1055</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.25">
@@ -9852,10 +9976,10 @@
         <v>550</v>
       </c>
       <c r="B536" t="s">
-        <v>1056</v>
+        <v>1029</v>
       </c>
       <c r="C536" t="s">
-        <v>1057</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.25">
@@ -9863,7 +9987,7 @@
         <v>551</v>
       </c>
       <c r="B537" t="s">
-        <v>1058</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
@@ -9871,10 +9995,10 @@
         <v>552</v>
       </c>
       <c r="B538" t="s">
-        <v>1059</v>
+        <v>1032</v>
       </c>
       <c r="C538" t="s">
-        <v>1060</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.25">
@@ -9882,10 +10006,10 @@
         <v>553</v>
       </c>
       <c r="B539" t="s">
-        <v>1061</v>
+        <v>1034</v>
       </c>
       <c r="C539" t="s">
-        <v>1062</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.25">
@@ -9893,10 +10017,10 @@
         <v>554</v>
       </c>
       <c r="B540" t="s">
-        <v>1063</v>
+        <v>1036</v>
       </c>
       <c r="C540" t="s">
-        <v>1064</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.25">
@@ -9904,10 +10028,10 @@
         <v>555</v>
       </c>
       <c r="B541" t="s">
-        <v>1065</v>
+        <v>1037</v>
       </c>
       <c r="C541" t="s">
-        <v>1066</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.25">
@@ -9915,10 +10039,10 @@
         <v>556</v>
       </c>
       <c r="B542" t="s">
-        <v>1067</v>
+        <v>1039</v>
       </c>
       <c r="C542" t="s">
-        <v>1068</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.25">
@@ -9926,10 +10050,10 @@
         <v>557</v>
       </c>
       <c r="B543" t="s">
-        <v>1069</v>
+        <v>1041</v>
       </c>
       <c r="C543" t="s">
-        <v>1070</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.25">
@@ -9937,10 +10061,10 @@
         <v>558</v>
       </c>
       <c r="B544" t="s">
-        <v>1071</v>
+        <v>1043</v>
       </c>
       <c r="C544" t="s">
-        <v>1072</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.25">
@@ -9948,10 +10072,10 @@
         <v>559</v>
       </c>
       <c r="B545" t="s">
-        <v>1073</v>
+        <v>1045</v>
       </c>
       <c r="C545" t="s">
-        <v>1074</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.25">
@@ -9959,10 +10083,10 @@
         <v>562</v>
       </c>
       <c r="B546" t="s">
-        <v>1075</v>
+        <v>1047</v>
       </c>
       <c r="C546" t="s">
-        <v>1076</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.25">
@@ -9970,7 +10094,7 @@
         <v>563</v>
       </c>
       <c r="B547" t="s">
-        <v>1077</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.25">
@@ -9978,10 +10102,10 @@
         <v>564</v>
       </c>
       <c r="B548" t="s">
-        <v>1078</v>
+        <v>1050</v>
       </c>
       <c r="C548" t="s">
-        <v>1079</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.25">
@@ -9989,10 +10113,10 @@
         <v>565</v>
       </c>
       <c r="B549" t="s">
-        <v>1080</v>
+        <v>1052</v>
       </c>
       <c r="C549" t="s">
-        <v>1081</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.25">
@@ -10000,10 +10124,10 @@
         <v>566</v>
       </c>
       <c r="B550" t="s">
-        <v>1082</v>
+        <v>1054</v>
       </c>
       <c r="C550" t="s">
-        <v>1083</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.25">
@@ -10011,10 +10135,10 @@
         <v>567</v>
       </c>
       <c r="B551" t="s">
-        <v>1084</v>
+        <v>1056</v>
       </c>
       <c r="C551" t="s">
-        <v>1085</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.25">
@@ -10022,10 +10146,10 @@
         <v>568</v>
       </c>
       <c r="B552" t="s">
-        <v>1086</v>
+        <v>1058</v>
       </c>
       <c r="C552" t="s">
-        <v>1087</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.25">
@@ -10033,10 +10157,10 @@
         <v>569</v>
       </c>
       <c r="B553" t="s">
-        <v>1088</v>
+        <v>1060</v>
       </c>
       <c r="C553" t="s">
-        <v>1089</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.25">
@@ -10044,10 +10168,10 @@
         <v>570</v>
       </c>
       <c r="B554" t="s">
-        <v>1090</v>
+        <v>1061</v>
       </c>
       <c r="C554" t="s">
-        <v>1091</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.25">
@@ -10055,10 +10179,10 @@
         <v>571</v>
       </c>
       <c r="B555" t="s">
-        <v>1092</v>
+        <v>1063</v>
       </c>
       <c r="C555" t="s">
-        <v>1093</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.25">
@@ -10066,7 +10190,7 @@
         <v>572</v>
       </c>
       <c r="B556" t="s">
-        <v>1094</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.25">
@@ -10074,7 +10198,10 @@
         <v>577</v>
       </c>
       <c r="B557" t="s">
-        <v>1095</v>
+        <v>1066</v>
+      </c>
+      <c r="C557" t="s">
+        <v>1160</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.25">
@@ -10082,10 +10209,10 @@
         <v>578</v>
       </c>
       <c r="B558" t="s">
-        <v>1096</v>
+        <v>1067</v>
       </c>
       <c r="C558" t="s">
-        <v>1097</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.25">
@@ -10093,7 +10220,7 @@
         <v>579</v>
       </c>
       <c r="B559" t="s">
-        <v>1098</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.25">
@@ -10101,10 +10228,10 @@
         <v>580</v>
       </c>
       <c r="B560" t="s">
-        <v>1099</v>
+        <v>1070</v>
       </c>
       <c r="C560" t="s">
-        <v>1100</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.25">
@@ -10112,10 +10239,10 @@
         <v>581</v>
       </c>
       <c r="B561" t="s">
-        <v>1101</v>
+        <v>1072</v>
       </c>
       <c r="C561" t="s">
-        <v>1102</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.25">
@@ -10123,10 +10250,10 @@
         <v>582</v>
       </c>
       <c r="B562" t="s">
-        <v>1103</v>
+        <v>1074</v>
       </c>
       <c r="C562" t="s">
-        <v>1104</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.25">
@@ -10134,10 +10261,10 @@
         <v>583</v>
       </c>
       <c r="B563" t="s">
-        <v>1105</v>
+        <v>1076</v>
       </c>
       <c r="C563" t="s">
-        <v>1106</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.25">
@@ -10145,10 +10272,10 @@
         <v>584</v>
       </c>
       <c r="B564" t="s">
-        <v>1107</v>
+        <v>1078</v>
       </c>
       <c r="C564" t="s">
-        <v>1108</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.25">
@@ -10156,7 +10283,7 @@
         <v>585</v>
       </c>
       <c r="B565" t="s">
-        <v>1109</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.25">
@@ -10164,10 +10291,10 @@
         <v>586</v>
       </c>
       <c r="B566" t="s">
-        <v>1110</v>
+        <v>1186</v>
       </c>
       <c r="C566" t="s">
-        <v>1111</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.25">
@@ -10175,10 +10302,10 @@
         <v>587</v>
       </c>
       <c r="B567" t="s">
-        <v>1112</v>
+        <v>1081</v>
       </c>
       <c r="C567" t="s">
-        <v>1113</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.25">
@@ -10186,10 +10313,10 @@
         <v>588</v>
       </c>
       <c r="B568" t="s">
-        <v>1114</v>
+        <v>1083</v>
       </c>
       <c r="C568" t="s">
-        <v>1115</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.25">
@@ -10197,10 +10324,10 @@
         <v>589</v>
       </c>
       <c r="B569" t="s">
-        <v>1116</v>
+        <v>1085</v>
       </c>
       <c r="C569" t="s">
-        <v>1117</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.25">
@@ -10208,10 +10335,10 @@
         <v>590</v>
       </c>
       <c r="B570" t="s">
-        <v>1118</v>
+        <v>1087</v>
       </c>
       <c r="C570" t="s">
-        <v>1119</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.25">
@@ -10219,10 +10346,10 @@
         <v>591</v>
       </c>
       <c r="B571" t="s">
-        <v>1120</v>
+        <v>1089</v>
       </c>
       <c r="C571" t="s">
-        <v>1121</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.25">
@@ -10230,10 +10357,10 @@
         <v>592</v>
       </c>
       <c r="B572" t="s">
-        <v>1122</v>
+        <v>1090</v>
       </c>
       <c r="C572" t="s">
-        <v>1123</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.25">
@@ -10241,10 +10368,10 @@
         <v>593</v>
       </c>
       <c r="B573" t="s">
-        <v>1124</v>
+        <v>1092</v>
       </c>
       <c r="C573" t="s">
-        <v>1125</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.25">
@@ -10252,10 +10379,10 @@
         <v>594</v>
       </c>
       <c r="B574" t="s">
-        <v>1126</v>
+        <v>1094</v>
       </c>
       <c r="C574" t="s">
-        <v>1127</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.25">
@@ -10263,10 +10390,10 @@
         <v>595</v>
       </c>
       <c r="B575" t="s">
-        <v>1128</v>
+        <v>1152</v>
       </c>
       <c r="C575" t="s">
-        <v>1129</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.25">
@@ -10274,7 +10401,7 @@
         <v>596</v>
       </c>
       <c r="B576" t="s">
-        <v>1130</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.25">
@@ -10282,7 +10409,7 @@
         <v>597</v>
       </c>
       <c r="B577" t="s">
-        <v>939</v>
+        <v>915</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.25">
@@ -10290,7 +10417,7 @@
         <v>598</v>
       </c>
       <c r="B578" t="s">
-        <v>941</v>
+        <v>917</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.25">
@@ -10298,10 +10425,10 @@
         <v>599</v>
       </c>
       <c r="B579" t="s">
-        <v>1131</v>
+        <v>1096</v>
       </c>
       <c r="C579" t="s">
-        <v>1132</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.25">
@@ -10309,10 +10436,10 @@
         <v>601</v>
       </c>
       <c r="B580" t="s">
-        <v>1133</v>
+        <v>1098</v>
       </c>
       <c r="C580" t="s">
-        <v>1134</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.25">
@@ -10320,10 +10447,10 @@
         <v>604</v>
       </c>
       <c r="B581" t="s">
-        <v>1135</v>
+        <v>1100</v>
       </c>
       <c r="C581" t="s">
-        <v>1136</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.25">
@@ -10331,10 +10458,10 @@
         <v>612</v>
       </c>
       <c r="B582" t="s">
-        <v>1137</v>
+        <v>1102</v>
       </c>
       <c r="C582" t="s">
-        <v>1138</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.25">
@@ -10342,10 +10469,10 @@
         <v>617</v>
       </c>
       <c r="B583" t="s">
-        <v>1139</v>
+        <v>1104</v>
       </c>
       <c r="C583" t="s">
-        <v>1140</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.25">
@@ -10353,248 +10480,303 @@
         <v>618</v>
       </c>
       <c r="B584" t="s">
-        <v>1141</v>
+        <v>1106</v>
       </c>
       <c r="C584" t="s">
-        <v>1142</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A585">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B585" t="s">
-        <v>1143</v>
+        <v>1163</v>
       </c>
       <c r="C585" t="s">
-        <v>1144</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A586">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B586" t="s">
-        <v>1145</v>
+        <v>1108</v>
       </c>
       <c r="C586" t="s">
-        <v>1146</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A587">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B587" t="s">
-        <v>1147</v>
+        <v>1110</v>
       </c>
       <c r="C587" t="s">
-        <v>1148</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B588" t="s">
-        <v>1149</v>
+        <v>1112</v>
       </c>
       <c r="C588" t="s">
-        <v>1150</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A589">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B589" t="s">
-        <v>1151</v>
+        <v>1113</v>
       </c>
       <c r="C589" t="s">
-        <v>1152</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A590">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="B590" t="s">
-        <v>1153</v>
+        <v>1115</v>
       </c>
       <c r="C590" t="s">
-        <v>1154</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A591">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B591" t="s">
-        <v>1155</v>
+        <v>1117</v>
       </c>
       <c r="C591" t="s">
-        <v>1156</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A592">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B592" t="s">
-        <v>1157</v>
+        <v>1119</v>
       </c>
       <c r="C592" t="s">
-        <v>1158</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A593">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B593" t="s">
-        <v>1159</v>
+        <v>1121</v>
       </c>
       <c r="C593" t="s">
-        <v>1160</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A594">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B594" t="s">
-        <v>1161</v>
+        <v>1123</v>
       </c>
       <c r="C594" t="s">
-        <v>1162</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A595">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B595" t="s">
-        <v>1163</v>
+        <v>1125</v>
       </c>
       <c r="C595" t="s">
-        <v>1164</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A596">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="B596" t="s">
-        <v>1165</v>
+        <v>1127</v>
       </c>
       <c r="C596" t="s">
-        <v>1166</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A597">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="B597" t="s">
-        <v>1167</v>
+        <v>1129</v>
       </c>
       <c r="C597" t="s">
-        <v>1168</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A598">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="B598" t="s">
-        <v>1169</v>
+        <v>1150</v>
       </c>
       <c r="C598" t="s">
-        <v>1170</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A599">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="B599" t="s">
-        <v>1171</v>
+        <v>1131</v>
       </c>
       <c r="C599" t="s">
-        <v>1172</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A600">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="B600" t="s">
-        <v>1173</v>
+        <v>1133</v>
       </c>
       <c r="C600" t="s">
-        <v>1174</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A601">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="B601" t="s">
-        <v>1175</v>
+        <v>1135</v>
       </c>
       <c r="C601" t="s">
-        <v>1176</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A602">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="B602" t="s">
-        <v>1177</v>
+        <v>1137</v>
       </c>
       <c r="C602" t="s">
-        <v>1178</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A603">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B603" t="s">
-        <v>1179</v>
+        <v>1138</v>
       </c>
       <c r="C603" t="s">
-        <v>1180</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A604">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="B604" t="s">
-        <v>1181</v>
+        <v>1148</v>
       </c>
       <c r="C604" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A605">
+        <v>685</v>
+      </c>
+      <c r="B605" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C605" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A606">
+        <v>686</v>
+      </c>
+      <c r="B606" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C606" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A607">
+        <v>689</v>
+      </c>
+      <c r="B607" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C607" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A608">
+        <v>704</v>
+      </c>
+      <c r="B608" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C608" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A609">
         <v>10001</v>
       </c>
-      <c r="B605" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C605" t="s">
-        <v>1184</v>
+      <c r="B609" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C609" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A610">
+        <v>10003</v>
+      </c>
+      <c r="B610" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C610" t="s">
+        <v>1176</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C119 A121:C314 A120:B120 A316:C605 A315:B315" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C4 A121:C144 A120:B120 A609:C609 A315:B315 A599:C601 A316:C344 A352:C376 A351:B351 A586:C587 A575 A574:B574 A460:C502 A459:B459 A603:C603 A602:B602 A235:C256 A234:B234 A95:C113 A146:C149 A145:B145 A541:C552 A540:B540 A55:C69 A558:C565 A557:B557 A29:C50 A28:B28 A576:C584 A308:C314 A307:B307 A53:B54 A456:C458 A455:B455 A516:C539 A515:B515 A93:B94 A554:C556 A553:B553 A346:C350 A345:B345 A52:C52 A51:B51 A71:C78 A70:B70 A163:C233 A162:B162 A378:C417 A377:B377 A605:C607 A258:C285 A257:B257 A6:C19 A5:B5 A572:C573 A571:B571 A567:C570 A566 A589:C597 A588:B588 A21:C27 A20:B20 A420:C454 A418:B418 A115:C119 A114:B114 A287:C306 A286:B286 A419:B419 A80:C92 A79:B79 A504:C514 A503 A151:C161 A150:B150" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/config/nickname_song.xlsx
+++ b/config/nickname_song.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Tsugu-Backend\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDF879D-E4C0-4A76-97D3-CE153A02A58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D796C06-63C9-4A6D-8F7C-5A111F922707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="1199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="1202">
   <si>
     <t>Id</t>
   </si>
@@ -34,21 +34,12 @@
     <t>Yes! BanG_Dream!</t>
   </si>
   <si>
-    <t>炸梦,是的炸梦,新手村,新手教学</t>
-  </si>
-  <si>
     <t>STAR BEAT!〜ホシノコドウ〜</t>
   </si>
   <si>
-    <t>↑↓,↓↑,sb,starbeat,星之鼓动,star beat</t>
-  </si>
-  <si>
     <t>ぽっぴん’しゃっふる</t>
   </si>
   <si>
-    <t>薄饼香呼呼</t>
-  </si>
-  <si>
     <t>ティアドロップス</t>
   </si>
   <si>
@@ -97,9 +88,6 @@
     <t>1000回潤んだ空</t>
   </si>
   <si>
-    <t>千空,千回润空,千回空,千润空,湿润千回的天空</t>
-  </si>
-  <si>
     <t>カルマ</t>
   </si>
   <si>
@@ -352,9 +340,6 @@
     <t>夏のドーン！</t>
   </si>
   <si>
-    <t>夏咚</t>
-  </si>
-  <si>
     <t>ひまわりの約束</t>
   </si>
   <si>
@@ -634,9 +619,6 @@
     <t>私の心はチョココロネ</t>
   </si>
   <si>
-    <t>巧克力螺,我的心是巧克力螺</t>
-  </si>
-  <si>
     <t>気まぐれロマンティック</t>
   </si>
   <si>
@@ -1351,15 +1333,9 @@
     <t>花ハ踊レヤいろはにほ</t>
   </si>
   <si>
-    <t>花舞少女,花踊</t>
-  </si>
-  <si>
     <t>夢を撃ち抜く瞬間に！</t>
   </si>
   <si>
-    <t>梦击,梦击拔,梦撃拔,梦jb,梦击碎,击穿梦想,邦邦上河图</t>
-  </si>
-  <si>
     <t>開けたらDream!</t>
   </si>
   <si>
@@ -1474,15 +1450,9 @@
     <t>chAngE</t>
   </si>
   <si>
-    <t>嫦娥,死神,改变</t>
-  </si>
-  <si>
     <t>ルカルカ★ナイトフィーバー</t>
   </si>
   <si>
-    <t>卢卡卢卡,露卡露卡,LukaLuka,LucaLuca,lukaluka</t>
-  </si>
-  <si>
     <t>群青日和</t>
   </si>
   <si>
@@ -1528,9 +1498,6 @@
     <t>秒針を噛む</t>
   </si>
   <si>
-    <t>咬秒针,咬住秒针,真夜中</t>
-  </si>
-  <si>
     <t>RED RED RED</t>
   </si>
   <si>
@@ -1576,9 +1543,6 @@
     <t>Breakthrough!</t>
   </si>
   <si>
-    <t>突破</t>
-  </si>
-  <si>
     <t>flame of hope</t>
   </si>
   <si>
@@ -1642,9 +1606,6 @@
     <t>!NVADE SHOW!</t>
   </si>
   <si>
-    <t>invade show,NVIDIA SHOW,英伟达show</t>
-  </si>
-  <si>
     <t>Power of LOVE!!!</t>
   </si>
   <si>
@@ -2362,9 +2323,6 @@
     <t>[FULL] CiRCLE THANKS MUSiC♪</t>
   </si>
   <si>
-    <t>听我说谢谢你,谢谢full</t>
-  </si>
-  <si>
     <t>DRIVE US CRAZY</t>
   </si>
   <si>
@@ -2479,9 +2437,6 @@
     <t>大好き！</t>
   </si>
   <si>
-    <t>最喜欢了！,最喜欢了!,daisuki</t>
-  </si>
-  <si>
     <t>Swear 〜Night &amp; Day〜</t>
   </si>
   <si>
@@ -2491,9 +2446,6 @@
     <t>寄る辺のSunny, Sunny</t>
   </si>
   <si>
-    <t>morfonication,寄边日日,寄边,sunny sunny</t>
-  </si>
-  <si>
     <t>カラフルリバティー</t>
   </si>
   <si>
@@ -2527,9 +2479,6 @@
     <t>独創収差</t>
   </si>
   <si>
-    <t>独创收差,TK,带带我</t>
-  </si>
-  <si>
     <t>うちゃパ！で ぱっぴかポーんっ！</t>
   </si>
   <si>
@@ -2617,9 +2566,6 @@
     <t>ミックスナッツ</t>
   </si>
   <si>
-    <t>间谍过家家,spy family,mixed nuts</t>
-  </si>
-  <si>
     <t>VORACITY</t>
   </si>
   <si>
@@ -2629,9 +2575,6 @@
     <t>えがお、あーゆーれでぃ???</t>
   </si>
   <si>
-    <t>Are you ready?</t>
-  </si>
-  <si>
     <t>スターナイトスノウ</t>
   </si>
   <si>
@@ -2644,9 +2587,6 @@
     <t>もってけ！セーラーふく</t>
   </si>
   <si>
-    <t>拿去吧水手服,幸运星</t>
-  </si>
-  <si>
     <t>乙女はサイコパス</t>
   </si>
   <si>
@@ -2710,9 +2650,6 @@
     <t>RiNG A BELL</t>
   </si>
   <si>
-    <t>rab</t>
-  </si>
-  <si>
     <t>新時代</t>
   </si>
   <si>
@@ -2797,9 +2734,6 @@
     <t>花呼ぶ声</t>
   </si>
   <si>
-    <t>花呼声,kemu,popy</t>
-  </si>
-  <si>
     <t>Call the shots</t>
   </si>
   <si>
@@ -2914,9 +2848,6 @@
     <t>壱雫空</t>
   </si>
   <si>
-    <t>hitoshizuku,一雫空,幻想时间,一下空,一拿空</t>
-  </si>
-  <si>
     <t>栞</t>
   </si>
   <si>
@@ -2947,9 +2878,6 @@
     <t>私色きらめき日和</t>
   </si>
   <si>
-    <t>popy</t>
-  </si>
-  <si>
     <t>Ever Sky Blue</t>
   </si>
   <si>
@@ -2983,9 +2911,6 @@
     <t>迷路日々</t>
   </si>
   <si>
-    <t>melody,迷路日日,断手日</t>
-  </si>
-  <si>
     <t>燦々</t>
   </si>
   <si>
@@ -3001,18 +2926,12 @@
     <t>チルドレンレコード(Re:boot)</t>
   </si>
   <si>
-    <t>孩童记录,children record</t>
-  </si>
-  <si>
     <t>音がえしのセレナーデ</t>
   </si>
   <si>
     <t>Ave Mujica</t>
   </si>
   <si>
-    <t>阿贝母鸡卡</t>
-  </si>
-  <si>
     <t>祝福</t>
   </si>
   <si>
@@ -3082,9 +3001,6 @@
     <t>猛独が襲う</t>
   </si>
   <si>
-    <t>独孤猛袭,孤独猛袭,猛独孤袭,猛独侵袭,猛独</t>
-  </si>
-  <si>
     <t>swim</t>
   </si>
   <si>
@@ -3112,9 +3028,6 @@
     <t>裸の勇者</t>
   </si>
   <si>
-    <t>国王排名</t>
-  </si>
-  <si>
     <t>That's why I'm here</t>
   </si>
   <si>
@@ -3187,9 +3100,6 @@
     <t>私は最強</t>
   </si>
   <si>
-    <t>我是最强,海贼王</t>
-  </si>
-  <si>
     <t>強風オールバック</t>
   </si>
   <si>
@@ -3280,9 +3190,6 @@
     <t>乙女解剖</t>
   </si>
   <si>
-    <t>少女解剖</t>
-  </si>
-  <si>
     <t>ノンブレス・オブリージュ</t>
   </si>
   <si>
@@ -3319,9 +3226,6 @@
     <t>両翼のBrilliance</t>
   </si>
   <si>
-    <t>两翼</t>
-  </si>
-  <si>
     <t>トリドリ＊パレット</t>
   </si>
   <si>
@@ -3418,13 +3322,7 @@
     <t>春日影</t>
   </si>
   <si>
-    <t>为什么要演奏</t>
-  </si>
-  <si>
     <t>はいよろこんで</t>
-  </si>
-  <si>
-    <t>乐意效劳</t>
   </si>
   <si>
     <t>ひとりじゃないんだから(パラレルver.)</t>
@@ -3530,10 +3428,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>花咲未来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>烤全鸡,烤全鸟,full火鸟,大火鸟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3602,14 +3496,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>存在,exi,扰乱op,ex,大e3,我有e育症,e,牢大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fyd,牢大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>泪滴,死亡三连,teardrops,この手を離さない,泪水落下,落泪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3619,10 +3505,6 @@
   </si>
   <si>
     <t>誓いのWingbeat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wb,誓言</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3689,6 +3571,170 @@
   </si>
   <si>
     <t>羁绊歌,kzn,kizuna music,kznmusic,羁绊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花呼声,kemu,popy,花呼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿贝母鸡卡,母鸡卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独孤猛袭,孤独猛袭,猛独孤袭,猛独侵袭,猛独</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐意效劳,乐意劳效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35lzn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33hoh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35ssfk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wb,誓言,wbsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>melody,迷路日日,断手日,迷路日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hitoshizuku,一雫空,幻想时间,一下空,一拿空,ynk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿去吧水手服,幸运星,水手服,拿来吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千空,千回润空,千回空,千润空,湿润千回的天空,千润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸梦,是的炸梦,新手村,新手教学,爆炸梦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>↑↓,↓↑,sb,starbeat,星之鼓动,star beat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薄饼香呼呼,薄饼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fyd,牢大,大焚,大粪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花咲未来,花咲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两翼,雨翼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么要演奏,cry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少女解剖,解剖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are you ready?,好了吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是最强,海贼王,最强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国王排名,裸之勇者,勇者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孩童记录,children record,重启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>popy,日和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间谍过家家,spy family,mixed nuts,过家家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独创收差,TK,带带我,独创</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>morfonication,寄边日日,寄边,sunny sunny</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最喜欢了！,最喜欢了!,daisuki,最喜欢,最喜欢了,大好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听我说谢谢你,谢谢full</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在,exi,扰乱op,ex,大e3,我有e育症,e,牢大,大e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invade show,NVIDIA SHOW,英伟达show,nvidia,英伟达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>突破,break</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咬秒针,咬住秒针,真夜中,秒针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢卡卢卡,露卡露卡,LukaLuka,LucaLuca,lukaluka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嫦娥,死神,改变,change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花舞少女,花踊,花舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦击,梦击拔,梦撃拔,梦jb,梦击碎,击穿梦想,邦邦上河图,瞬间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巧克力螺,我的心是巧克力螺,我心,私心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏咚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4089,8 +4135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C610"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C156" sqref="C156"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="C126" sqref="C126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -4120,7 +4166,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4128,10 +4174,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4139,10 +4185,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4150,10 +4196,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>1184</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -4161,10 +4207,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -4172,10 +4218,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -4183,10 +4229,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -4194,10 +4240,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -4205,10 +4251,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -4216,10 +4262,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -4227,10 +4273,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -4238,10 +4284,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -4249,10 +4295,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -4260,10 +4306,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -4271,10 +4317,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -4282,10 +4328,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -4293,10 +4339,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -4304,10 +4350,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.4">
@@ -4315,10 +4361,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>1189</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -4326,10 +4372,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -4337,10 +4383,10 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -4348,10 +4394,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -4359,10 +4405,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -4370,10 +4416,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -4381,10 +4427,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -4392,10 +4438,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -4403,10 +4449,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C28" t="s">
-        <v>1162</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -4414,10 +4460,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -4425,10 +4471,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -4436,10 +4482,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -4447,10 +4493,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -4458,10 +4504,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -4469,10 +4515,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C34" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -4480,10 +4526,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C35" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -4491,10 +4537,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -4502,10 +4548,10 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -4513,10 +4559,10 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C38" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -4524,10 +4570,10 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C39" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -4535,10 +4581,10 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -4546,10 +4592,10 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C41" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -4557,10 +4603,10 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C42" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -4568,10 +4614,10 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C43" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -4579,10 +4625,10 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C44" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -4590,10 +4636,10 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C45" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -4601,10 +4647,10 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C46" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -4612,10 +4658,10 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C47" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -4623,10 +4669,10 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C48" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -4634,10 +4680,10 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C49" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -4645,10 +4691,10 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C50" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -4656,10 +4702,10 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C51" t="s">
-        <v>1173</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -4667,10 +4713,10 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C52" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -4678,10 +4724,10 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C53" t="s">
-        <v>1159</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -4689,10 +4735,10 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C54" t="s">
-        <v>1167</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -4700,10 +4746,10 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C55" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -4711,10 +4757,10 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C56" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -4722,10 +4768,10 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C57" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -4733,10 +4779,10 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C58" t="s">
-        <v>110</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -4744,10 +4790,10 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C59" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -4755,10 +4801,10 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C60" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -4766,10 +4812,10 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C61" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -4777,10 +4823,10 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C62" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -4788,10 +4834,10 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C63" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -4799,10 +4845,10 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C64" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -4810,10 +4856,10 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C65" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -4821,10 +4867,10 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C66" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -4832,10 +4878,10 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C67" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -4843,10 +4889,10 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C68" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -4854,10 +4900,10 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C69" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -4865,10 +4911,10 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C70" t="s">
-        <v>1174</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -4876,10 +4922,10 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C71" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -4887,10 +4933,10 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C72" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -4898,10 +4944,10 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C73" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -4909,10 +4955,10 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C74" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -4920,10 +4966,10 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C75" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -4931,10 +4977,10 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C76" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -4942,10 +4988,10 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C77" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -4953,10 +4999,10 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C78" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -4964,10 +5010,10 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C79" t="s">
-        <v>1194</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -4975,10 +5021,10 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C80" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -4986,10 +5032,10 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C81" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -4997,10 +5043,10 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C82" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -5008,10 +5054,10 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C83" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -5019,10 +5065,10 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C84" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -5030,10 +5076,10 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C85" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -5041,10 +5087,10 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C86" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -5052,10 +5098,10 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C87" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -5063,10 +5109,10 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C88" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -5074,10 +5120,10 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C89" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -5085,10 +5131,10 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C90" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -5096,10 +5142,10 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C91" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -5107,10 +5153,10 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C92" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -5118,10 +5164,10 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C93" t="s">
-        <v>1170</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -5129,10 +5175,10 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C94" t="s">
-        <v>1157</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -5140,10 +5186,10 @@
         <v>100</v>
       </c>
       <c r="B95" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C95" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -5151,10 +5197,10 @@
         <v>101</v>
       </c>
       <c r="B96" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C96" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -5162,10 +5208,10 @@
         <v>104</v>
       </c>
       <c r="B97" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C97" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -5173,10 +5219,10 @@
         <v>105</v>
       </c>
       <c r="B98" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C98" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -5184,10 +5230,10 @@
         <v>106</v>
       </c>
       <c r="B99" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C99" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -5195,10 +5241,10 @@
         <v>107</v>
       </c>
       <c r="B100" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C100" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -5206,10 +5252,10 @@
         <v>108</v>
       </c>
       <c r="B101" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C101" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -5217,10 +5263,10 @@
         <v>109</v>
       </c>
       <c r="B102" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C102" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -5228,10 +5274,10 @@
         <v>110</v>
       </c>
       <c r="B103" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C103" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -5239,10 +5285,10 @@
         <v>111</v>
       </c>
       <c r="B104" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C104" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -5250,10 +5296,10 @@
         <v>112</v>
       </c>
       <c r="B105" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C105" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -5261,10 +5307,10 @@
         <v>113</v>
       </c>
       <c r="B106" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C106" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -5272,10 +5318,10 @@
         <v>115</v>
       </c>
       <c r="B107" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C107" t="s">
-        <v>204</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -5283,10 +5329,10 @@
         <v>116</v>
       </c>
       <c r="B108" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C108" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -5294,10 +5340,10 @@
         <v>117</v>
       </c>
       <c r="B109" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C109" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -5305,10 +5351,10 @@
         <v>118</v>
       </c>
       <c r="B110" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C110" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -5316,10 +5362,10 @@
         <v>119</v>
       </c>
       <c r="B111" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C111" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -5327,10 +5373,10 @@
         <v>120</v>
       </c>
       <c r="B112" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C112" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -5338,10 +5384,10 @@
         <v>121</v>
       </c>
       <c r="B113" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C113" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -5349,10 +5395,10 @@
         <v>122</v>
       </c>
       <c r="B114" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C114" t="s">
-        <v>1190</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -5360,10 +5406,10 @@
         <v>123</v>
       </c>
       <c r="B115" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C115" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -5371,10 +5417,10 @@
         <v>124</v>
       </c>
       <c r="B116" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C116" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -5382,10 +5428,10 @@
         <v>125</v>
       </c>
       <c r="B117" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C117" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -5393,10 +5439,10 @@
         <v>126</v>
       </c>
       <c r="B118" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C118" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -5404,10 +5450,10 @@
         <v>127</v>
       </c>
       <c r="B119" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C119" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -5415,10 +5461,10 @@
         <v>128</v>
       </c>
       <c r="B120" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C120" t="s">
-        <v>1195</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -5426,10 +5472,10 @@
         <v>129</v>
       </c>
       <c r="B121" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C121" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -5437,10 +5483,10 @@
         <v>130</v>
       </c>
       <c r="B122" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C122" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -5448,10 +5494,10 @@
         <v>131</v>
       </c>
       <c r="B123" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C123" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -5459,10 +5505,10 @@
         <v>132</v>
       </c>
       <c r="B124" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C124" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -5470,10 +5516,10 @@
         <v>133</v>
       </c>
       <c r="B125" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C125" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -5481,10 +5527,10 @@
         <v>134</v>
       </c>
       <c r="B126" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C126" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -5492,10 +5538,10 @@
         <v>135</v>
       </c>
       <c r="B127" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C127" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -5503,10 +5549,10 @@
         <v>136</v>
       </c>
       <c r="B128" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C128" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -5514,10 +5560,10 @@
         <v>137</v>
       </c>
       <c r="B129" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C129" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -5525,10 +5571,10 @@
         <v>138</v>
       </c>
       <c r="B130" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C130" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -5536,10 +5582,10 @@
         <v>139</v>
       </c>
       <c r="B131" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C131" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -5547,10 +5593,10 @@
         <v>140</v>
       </c>
       <c r="B132" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C132" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -5558,10 +5604,10 @@
         <v>141</v>
       </c>
       <c r="B133" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C133" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -5569,10 +5615,10 @@
         <v>142</v>
       </c>
       <c r="B134" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C134" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -5580,10 +5626,10 @@
         <v>143</v>
       </c>
       <c r="B135" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C135" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -5591,10 +5637,10 @@
         <v>144</v>
       </c>
       <c r="B136" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C136" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -5602,10 +5648,10 @@
         <v>145</v>
       </c>
       <c r="B137" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C137" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -5613,10 +5659,10 @@
         <v>146</v>
       </c>
       <c r="B138" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C138" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -5624,10 +5670,10 @@
         <v>147</v>
       </c>
       <c r="B139" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C139" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -5635,10 +5681,10 @@
         <v>148</v>
       </c>
       <c r="B140" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C140" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -5646,10 +5692,10 @@
         <v>149</v>
       </c>
       <c r="B141" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C141" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -5657,10 +5703,10 @@
         <v>150</v>
       </c>
       <c r="B142" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C142" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -5668,10 +5714,10 @@
         <v>151</v>
       </c>
       <c r="B143" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C143" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -5679,10 +5725,10 @@
         <v>152</v>
       </c>
       <c r="B144" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C144" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -5690,10 +5736,10 @@
         <v>153</v>
       </c>
       <c r="B145" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C145" t="s">
-        <v>1158</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -5701,10 +5747,10 @@
         <v>154</v>
       </c>
       <c r="B146" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C146" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -5712,10 +5758,10 @@
         <v>155</v>
       </c>
       <c r="B147" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C147" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -5723,10 +5769,10 @@
         <v>156</v>
       </c>
       <c r="B148" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C148" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -5734,10 +5780,10 @@
         <v>157</v>
       </c>
       <c r="B149" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C149" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -5745,10 +5791,10 @@
         <v>158</v>
       </c>
       <c r="B150" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C150" t="s">
-        <v>1198</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -5756,10 +5802,10 @@
         <v>159</v>
       </c>
       <c r="B151" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C151" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -5767,10 +5813,10 @@
         <v>160</v>
       </c>
       <c r="B152" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C152" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -5778,10 +5824,10 @@
         <v>161</v>
       </c>
       <c r="B153" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C153" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -5789,10 +5835,10 @@
         <v>162</v>
       </c>
       <c r="B154" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C154" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -5800,10 +5846,10 @@
         <v>163</v>
       </c>
       <c r="B155" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C155" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -5811,10 +5857,10 @@
         <v>164</v>
       </c>
       <c r="B156" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C156" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -5822,10 +5868,10 @@
         <v>165</v>
       </c>
       <c r="B157" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C157" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -5833,10 +5879,10 @@
         <v>166</v>
       </c>
       <c r="B158" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C158" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -5844,10 +5890,10 @@
         <v>167</v>
       </c>
       <c r="B159" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C159" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -5855,10 +5901,10 @@
         <v>168</v>
       </c>
       <c r="B160" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C160" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -5866,10 +5912,10 @@
         <v>169</v>
       </c>
       <c r="B161" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C161" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -5877,10 +5923,10 @@
         <v>170</v>
       </c>
       <c r="B162" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C162" t="s">
-        <v>1181</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -5888,10 +5934,10 @@
         <v>171</v>
       </c>
       <c r="B163" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C163" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -5899,10 +5945,10 @@
         <v>172</v>
       </c>
       <c r="B164" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C164" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -5910,10 +5956,10 @@
         <v>173</v>
       </c>
       <c r="B165" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C165" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -5921,10 +5967,10 @@
         <v>174</v>
       </c>
       <c r="B166" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C166" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -5932,10 +5978,10 @@
         <v>175</v>
       </c>
       <c r="B167" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C167" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -5943,10 +5989,10 @@
         <v>176</v>
       </c>
       <c r="B168" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C168" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -5954,10 +6000,10 @@
         <v>177</v>
       </c>
       <c r="B169" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C169" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -5965,10 +6011,10 @@
         <v>178</v>
       </c>
       <c r="B170" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C170" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -5976,10 +6022,10 @@
         <v>179</v>
       </c>
       <c r="B171" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C171" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -5987,10 +6033,10 @@
         <v>180</v>
       </c>
       <c r="B172" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C172" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -5998,10 +6044,10 @@
         <v>181</v>
       </c>
       <c r="B173" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C173" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -6009,10 +6055,10 @@
         <v>182</v>
       </c>
       <c r="B174" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C174" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -6020,10 +6066,10 @@
         <v>183</v>
       </c>
       <c r="B175" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C175" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -6031,10 +6077,10 @@
         <v>184</v>
       </c>
       <c r="B176" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C176" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -6042,10 +6088,10 @@
         <v>185</v>
       </c>
       <c r="B177" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C177" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -6053,10 +6099,10 @@
         <v>186</v>
       </c>
       <c r="B178" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C178" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -6064,10 +6110,10 @@
         <v>187</v>
       </c>
       <c r="B179" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C179" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -6075,10 +6121,10 @@
         <v>188</v>
       </c>
       <c r="B180" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C180" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -6086,10 +6132,10 @@
         <v>189</v>
       </c>
       <c r="B181" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C181" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -6097,10 +6143,10 @@
         <v>190</v>
       </c>
       <c r="B182" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C182" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -6108,10 +6154,10 @@
         <v>191</v>
       </c>
       <c r="B183" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C183" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -6119,10 +6165,10 @@
         <v>192</v>
       </c>
       <c r="B184" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C184" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -6130,10 +6176,10 @@
         <v>193</v>
       </c>
       <c r="B185" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C185" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -6141,10 +6187,10 @@
         <v>194</v>
       </c>
       <c r="B186" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C186" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -6152,10 +6198,10 @@
         <v>195</v>
       </c>
       <c r="B187" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C187" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -6163,10 +6209,10 @@
         <v>196</v>
       </c>
       <c r="B188" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C188" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -6174,10 +6220,10 @@
         <v>197</v>
       </c>
       <c r="B189" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C189" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -6185,10 +6231,10 @@
         <v>198</v>
       </c>
       <c r="B190" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C190" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -6196,10 +6242,10 @@
         <v>199</v>
       </c>
       <c r="B191" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C191" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -6207,10 +6253,10 @@
         <v>200</v>
       </c>
       <c r="B192" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C192" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -6218,10 +6264,10 @@
         <v>201</v>
       </c>
       <c r="B193" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C193" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -6229,10 +6275,10 @@
         <v>202</v>
       </c>
       <c r="B194" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C194" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -6240,10 +6286,10 @@
         <v>203</v>
       </c>
       <c r="B195" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C195" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -6251,10 +6297,10 @@
         <v>204</v>
       </c>
       <c r="B196" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C196" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -6262,10 +6308,10 @@
         <v>205</v>
       </c>
       <c r="B197" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C197" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -6273,10 +6319,10 @@
         <v>206</v>
       </c>
       <c r="B198" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C198" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -6284,10 +6330,10 @@
         <v>207</v>
       </c>
       <c r="B199" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C199" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -6295,10 +6341,10 @@
         <v>208</v>
       </c>
       <c r="B200" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C200" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -6306,10 +6352,10 @@
         <v>209</v>
       </c>
       <c r="B201" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C201" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -6317,10 +6363,10 @@
         <v>210</v>
       </c>
       <c r="B202" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C202" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -6328,10 +6374,10 @@
         <v>211</v>
       </c>
       <c r="B203" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C203" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -6339,10 +6385,10 @@
         <v>212</v>
       </c>
       <c r="B204" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C204" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -6350,10 +6396,10 @@
         <v>213</v>
       </c>
       <c r="B205" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C205" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -6361,10 +6407,10 @@
         <v>214</v>
       </c>
       <c r="B206" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C206" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -6372,10 +6418,10 @@
         <v>215</v>
       </c>
       <c r="B207" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C207" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -6383,10 +6429,10 @@
         <v>217</v>
       </c>
       <c r="B208" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C208" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -6394,10 +6440,10 @@
         <v>218</v>
       </c>
       <c r="B209" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C209" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -6405,10 +6451,10 @@
         <v>219</v>
       </c>
       <c r="B210" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C210" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -6416,10 +6462,10 @@
         <v>220</v>
       </c>
       <c r="B211" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C211" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -6427,10 +6473,10 @@
         <v>221</v>
       </c>
       <c r="B212" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C212" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -6438,10 +6484,10 @@
         <v>222</v>
       </c>
       <c r="B213" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C213" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -6449,10 +6495,10 @@
         <v>223</v>
       </c>
       <c r="B214" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C214" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -6460,10 +6506,10 @@
         <v>224</v>
       </c>
       <c r="B215" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C215" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -6471,10 +6517,10 @@
         <v>225</v>
       </c>
       <c r="B216" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C216" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -6482,10 +6528,10 @@
         <v>226</v>
       </c>
       <c r="B217" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C217" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -6493,10 +6539,10 @@
         <v>227</v>
       </c>
       <c r="B218" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C218" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -6504,10 +6550,10 @@
         <v>228</v>
       </c>
       <c r="B219" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C219" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -6515,10 +6561,10 @@
         <v>229</v>
       </c>
       <c r="B220" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C220" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -6526,10 +6572,10 @@
         <v>230</v>
       </c>
       <c r="B221" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C221" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -6537,10 +6583,10 @@
         <v>231</v>
       </c>
       <c r="B222" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C222" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -6548,10 +6594,10 @@
         <v>232</v>
       </c>
       <c r="B223" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C223" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -6559,10 +6605,10 @@
         <v>233</v>
       </c>
       <c r="B224" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C224" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -6570,10 +6616,10 @@
         <v>234</v>
       </c>
       <c r="B225" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C225" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -6581,10 +6627,10 @@
         <v>235</v>
       </c>
       <c r="B226" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C226" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -6592,10 +6638,10 @@
         <v>236</v>
       </c>
       <c r="B227" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C227" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -6603,10 +6649,10 @@
         <v>237</v>
       </c>
       <c r="B228" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C228" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -6614,10 +6660,10 @@
         <v>238</v>
       </c>
       <c r="B229" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C229" t="s">
-        <v>443</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -6625,10 +6671,10 @@
         <v>239</v>
       </c>
       <c r="B230" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C230" t="s">
-        <v>445</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -6636,10 +6682,10 @@
         <v>240</v>
       </c>
       <c r="B231" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="C231" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -6647,10 +6693,10 @@
         <v>241</v>
       </c>
       <c r="B232" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="C232" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -6658,10 +6704,10 @@
         <v>242</v>
       </c>
       <c r="B233" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="C233" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -6669,10 +6715,10 @@
         <v>243</v>
       </c>
       <c r="B234" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="C234" t="s">
-        <v>1165</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -6680,10 +6726,10 @@
         <v>244</v>
       </c>
       <c r="B235" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="C235" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -6691,10 +6737,10 @@
         <v>245</v>
       </c>
       <c r="B236" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="C236" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -6702,10 +6748,10 @@
         <v>246</v>
       </c>
       <c r="B237" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="C237" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -6713,10 +6759,10 @@
         <v>247</v>
       </c>
       <c r="B238" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="C238" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -6724,10 +6770,10 @@
         <v>248</v>
       </c>
       <c r="B239" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="C239" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -6735,10 +6781,10 @@
         <v>249</v>
       </c>
       <c r="B240" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="C240" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -6746,10 +6792,10 @@
         <v>250</v>
       </c>
       <c r="B241" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="C241" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -6757,10 +6803,10 @@
         <v>251</v>
       </c>
       <c r="B242" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="C242" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -6768,10 +6814,10 @@
         <v>252</v>
       </c>
       <c r="B243" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="C243" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -6779,10 +6825,10 @@
         <v>253</v>
       </c>
       <c r="B244" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="C244" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -6790,10 +6836,10 @@
         <v>254</v>
       </c>
       <c r="B245" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="C245" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -6801,10 +6847,10 @@
         <v>255</v>
       </c>
       <c r="B246" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="C246" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -6812,10 +6858,10 @@
         <v>256</v>
       </c>
       <c r="B247" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="C247" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -6823,10 +6869,10 @@
         <v>257</v>
       </c>
       <c r="B248" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="C248" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -6834,10 +6880,10 @@
         <v>258</v>
       </c>
       <c r="B249" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="C249" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -6845,10 +6891,10 @@
         <v>259</v>
       </c>
       <c r="B250" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="C250" t="s">
-        <v>484</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -6856,10 +6902,10 @@
         <v>260</v>
       </c>
       <c r="B251" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="C251" t="s">
-        <v>486</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -6867,10 +6913,10 @@
         <v>261</v>
       </c>
       <c r="B252" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="C252" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -6878,10 +6924,10 @@
         <v>262</v>
       </c>
       <c r="B253" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="C253" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -6889,10 +6935,10 @@
         <v>263</v>
       </c>
       <c r="B254" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="C254" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -6900,10 +6946,10 @@
         <v>264</v>
       </c>
       <c r="B255" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="C255" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -6911,10 +6957,10 @@
         <v>265</v>
       </c>
       <c r="B256" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="C256" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -6922,10 +6968,10 @@
         <v>266</v>
       </c>
       <c r="B257" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="C257" t="s">
-        <v>1180</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -6933,10 +6979,10 @@
         <v>267</v>
       </c>
       <c r="B258" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="C258" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -6944,10 +6990,10 @@
         <v>268</v>
       </c>
       <c r="B259" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="C259" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -6955,10 +7001,10 @@
         <v>269</v>
       </c>
       <c r="B260" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="C260" t="s">
-        <v>502</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -6966,10 +7012,10 @@
         <v>270</v>
       </c>
       <c r="B261" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="C261" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -6977,10 +7023,10 @@
         <v>271</v>
       </c>
       <c r="B262" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="C262" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -6988,10 +7034,10 @@
         <v>272</v>
       </c>
       <c r="B263" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="C263" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -6999,10 +7045,10 @@
         <v>274</v>
       </c>
       <c r="B264" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="C264" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -7010,10 +7056,10 @@
         <v>275</v>
       </c>
       <c r="B265" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="C265" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -7021,10 +7067,10 @@
         <v>276</v>
       </c>
       <c r="B266" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="C266" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -7032,10 +7078,10 @@
         <v>277</v>
       </c>
       <c r="B267" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="C267" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -7043,10 +7089,10 @@
         <v>278</v>
       </c>
       <c r="B268" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="C268" t="s">
-        <v>518</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -7054,10 +7100,10 @@
         <v>279</v>
       </c>
       <c r="B269" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="C269" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -7065,10 +7111,10 @@
         <v>280</v>
       </c>
       <c r="B270" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="C270" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -7076,10 +7122,10 @@
         <v>281</v>
       </c>
       <c r="B271" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="C271" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -7087,10 +7133,10 @@
         <v>282</v>
       </c>
       <c r="B272" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="C272" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -7098,10 +7144,10 @@
         <v>283</v>
       </c>
       <c r="B273" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="C273" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -7109,10 +7155,10 @@
         <v>284</v>
       </c>
       <c r="B274" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="C274" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -7120,10 +7166,10 @@
         <v>285</v>
       </c>
       <c r="B275" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="C275" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -7131,10 +7177,10 @@
         <v>286</v>
       </c>
       <c r="B276" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="C276" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -7142,10 +7188,10 @@
         <v>287</v>
       </c>
       <c r="B277" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="C277" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -7153,10 +7199,10 @@
         <v>288</v>
       </c>
       <c r="B278" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="C278" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -7164,10 +7210,10 @@
         <v>289</v>
       </c>
       <c r="B279" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="C279" t="s">
-        <v>540</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -7175,10 +7221,10 @@
         <v>290</v>
       </c>
       <c r="B280" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="C280" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -7186,10 +7232,10 @@
         <v>291</v>
       </c>
       <c r="B281" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="C281" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -7197,10 +7243,10 @@
         <v>292</v>
       </c>
       <c r="B282" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="C282" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -7208,10 +7254,10 @@
         <v>293</v>
       </c>
       <c r="B283" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="C283" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -7219,10 +7265,10 @@
         <v>294</v>
       </c>
       <c r="B284" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="C284" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -7230,10 +7276,10 @@
         <v>295</v>
       </c>
       <c r="B285" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="C285" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -7241,10 +7287,10 @@
         <v>296</v>
       </c>
       <c r="B286" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="C286" t="s">
-        <v>1191</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -7252,10 +7298,10 @@
         <v>297</v>
       </c>
       <c r="B287" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="C287" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -7263,10 +7309,10 @@
         <v>298</v>
       </c>
       <c r="B288" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="C288" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -7274,10 +7320,10 @@
         <v>299</v>
       </c>
       <c r="B289" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="C289" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -7285,10 +7331,10 @@
         <v>300</v>
       </c>
       <c r="B290" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="C290" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -7296,10 +7342,10 @@
         <v>301</v>
       </c>
       <c r="B291" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="C291" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -7307,10 +7353,10 @@
         <v>302</v>
       </c>
       <c r="B292" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="C292" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -7318,10 +7364,10 @@
         <v>303</v>
       </c>
       <c r="B293" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="C293" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -7329,10 +7375,10 @@
         <v>304</v>
       </c>
       <c r="B294" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="C294" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -7340,10 +7386,10 @@
         <v>305</v>
       </c>
       <c r="B295" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="C295" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -7351,10 +7397,10 @@
         <v>306</v>
       </c>
       <c r="B296" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="C296" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -7362,10 +7408,10 @@
         <v>307</v>
       </c>
       <c r="B297" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="C297" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -7373,10 +7419,10 @@
         <v>308</v>
       </c>
       <c r="B298" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="C298" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
@@ -7384,10 +7430,10 @@
         <v>309</v>
       </c>
       <c r="B299" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="C299" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
@@ -7395,10 +7441,10 @@
         <v>310</v>
       </c>
       <c r="B300" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="C300" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -7406,10 +7452,10 @@
         <v>311</v>
       </c>
       <c r="B301" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="C301" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -7417,10 +7463,10 @@
         <v>312</v>
       </c>
       <c r="B302" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="C302" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -7428,10 +7474,10 @@
         <v>313</v>
       </c>
       <c r="B303" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="C303" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -7439,10 +7485,10 @@
         <v>314</v>
       </c>
       <c r="B304" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="C304" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -7450,10 +7496,10 @@
         <v>315</v>
       </c>
       <c r="B305" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="C305" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -7461,10 +7507,10 @@
         <v>316</v>
       </c>
       <c r="B306" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="C306" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -7472,10 +7518,10 @@
         <v>317</v>
       </c>
       <c r="B307" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="C307" t="s">
-        <v>1166</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -7483,10 +7529,10 @@
         <v>318</v>
       </c>
       <c r="B308" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="C308" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -7494,10 +7540,10 @@
         <v>319</v>
       </c>
       <c r="B309" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="C309" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -7505,10 +7551,10 @@
         <v>320</v>
       </c>
       <c r="B310" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="C310" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -7516,10 +7562,10 @@
         <v>321</v>
       </c>
       <c r="B311" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="C311" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -7527,10 +7573,10 @@
         <v>322</v>
       </c>
       <c r="B312" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="C312" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -7538,10 +7584,10 @@
         <v>323</v>
       </c>
       <c r="B313" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="C313" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -7549,10 +7595,10 @@
         <v>324</v>
       </c>
       <c r="B314" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="C314" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -7560,10 +7606,10 @@
         <v>325</v>
       </c>
       <c r="B315" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="C315" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -7571,10 +7617,10 @@
         <v>326</v>
       </c>
       <c r="B316" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="C316" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -7582,10 +7628,10 @@
         <v>327</v>
       </c>
       <c r="B317" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="C317" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -7593,10 +7639,10 @@
         <v>328</v>
       </c>
       <c r="B318" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="C318" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -7604,10 +7650,10 @@
         <v>329</v>
       </c>
       <c r="B319" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="C319" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -7615,10 +7661,10 @@
         <v>330</v>
       </c>
       <c r="B320" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="C320" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -7626,10 +7672,10 @@
         <v>331</v>
       </c>
       <c r="B321" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="C321" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -7637,10 +7683,10 @@
         <v>332</v>
       </c>
       <c r="B322" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="C322" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -7648,10 +7694,10 @@
         <v>333</v>
       </c>
       <c r="B323" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="C323" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -7659,10 +7705,10 @@
         <v>334</v>
       </c>
       <c r="B324" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="C324" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -7670,10 +7716,10 @@
         <v>335</v>
       </c>
       <c r="B325" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="C325" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -7681,10 +7727,10 @@
         <v>336</v>
       </c>
       <c r="B326" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="C326" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -7692,10 +7738,10 @@
         <v>337</v>
       </c>
       <c r="B327" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="C327" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -7703,10 +7749,10 @@
         <v>338</v>
       </c>
       <c r="B328" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="C328" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -7714,10 +7760,10 @@
         <v>339</v>
       </c>
       <c r="B329" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="C329" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -7725,10 +7771,10 @@
         <v>340</v>
       </c>
       <c r="B330" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="C330" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -7736,10 +7782,10 @@
         <v>341</v>
       </c>
       <c r="B331" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="C331" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -7747,10 +7793,10 @@
         <v>342</v>
       </c>
       <c r="B332" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="C332" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -7758,10 +7804,10 @@
         <v>343</v>
       </c>
       <c r="B333" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="C333" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -7769,10 +7815,10 @@
         <v>344</v>
       </c>
       <c r="B334" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="C334" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -7780,10 +7826,10 @@
         <v>345</v>
       </c>
       <c r="B335" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="C335" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -7791,10 +7837,10 @@
         <v>346</v>
       </c>
       <c r="B336" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="C336" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
@@ -7802,10 +7848,10 @@
         <v>347</v>
       </c>
       <c r="B337" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="C337" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -7813,10 +7859,10 @@
         <v>348</v>
       </c>
       <c r="B338" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="C338" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -7824,10 +7870,10 @@
         <v>349</v>
       </c>
       <c r="B339" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="C339" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -7835,10 +7881,10 @@
         <v>350</v>
       </c>
       <c r="B340" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="C340" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
@@ -7846,10 +7892,10 @@
         <v>351</v>
       </c>
       <c r="B341" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="C341" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -7857,10 +7903,10 @@
         <v>352</v>
       </c>
       <c r="B342" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="C342" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -7868,10 +7914,10 @@
         <v>353</v>
       </c>
       <c r="B343" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="C343" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -7879,10 +7925,10 @@
         <v>354</v>
       </c>
       <c r="B344" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="C344" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -7890,10 +7936,10 @@
         <v>355</v>
       </c>
       <c r="B345" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="C345" t="s">
-        <v>1172</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -7901,10 +7947,10 @@
         <v>356</v>
       </c>
       <c r="B346" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="C346" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -7912,10 +7958,10 @@
         <v>357</v>
       </c>
       <c r="B347" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="C347" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -7923,10 +7969,10 @@
         <v>358</v>
       </c>
       <c r="B348" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
       <c r="C348" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -7934,10 +7980,10 @@
         <v>359</v>
       </c>
       <c r="B349" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
       <c r="C349" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -7945,10 +7991,10 @@
         <v>360</v>
       </c>
       <c r="B350" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="C350" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -7956,10 +8002,10 @@
         <v>361</v>
       </c>
       <c r="B351" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="C351" t="s">
-        <v>1151</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -7967,10 +8013,10 @@
         <v>362</v>
       </c>
       <c r="B352" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="C352" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
@@ -7978,10 +8024,10 @@
         <v>363</v>
       </c>
       <c r="B353" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
       <c r="C353" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -7989,10 +8035,10 @@
         <v>364</v>
       </c>
       <c r="B354" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="C354" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
@@ -8000,10 +8046,10 @@
         <v>365</v>
       </c>
       <c r="B355" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="C355" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
@@ -8011,10 +8057,10 @@
         <v>366</v>
       </c>
       <c r="B356" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="C356" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
@@ -8022,10 +8068,10 @@
         <v>367</v>
       </c>
       <c r="B357" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="C357" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
@@ -8033,10 +8079,10 @@
         <v>368</v>
       </c>
       <c r="B358" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="C358" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
@@ -8044,10 +8090,10 @@
         <v>369</v>
       </c>
       <c r="B359" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="C359" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
@@ -8055,10 +8101,10 @@
         <v>370</v>
       </c>
       <c r="B360" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="C360" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
@@ -8066,10 +8112,10 @@
         <v>371</v>
       </c>
       <c r="B361" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="C361" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
@@ -8077,10 +8123,10 @@
         <v>372</v>
       </c>
       <c r="B362" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
       <c r="C362" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
@@ -8088,10 +8134,10 @@
         <v>373</v>
       </c>
       <c r="B363" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="C363" t="s">
-        <v>703</v>
+        <v>690</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
@@ -8099,10 +8145,10 @@
         <v>374</v>
       </c>
       <c r="B364" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="C364" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
@@ -8110,10 +8156,10 @@
         <v>375</v>
       </c>
       <c r="B365" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
       <c r="C365" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
@@ -8121,10 +8167,10 @@
         <v>376</v>
       </c>
       <c r="B366" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
       <c r="C366" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
@@ -8132,10 +8178,10 @@
         <v>377</v>
       </c>
       <c r="B367" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="C367" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
@@ -8143,10 +8189,10 @@
         <v>378</v>
       </c>
       <c r="B368" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
       <c r="C368" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -8154,10 +8200,10 @@
         <v>379</v>
       </c>
       <c r="B369" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="C369" t="s">
-        <v>715</v>
+        <v>702</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
@@ -8165,10 +8211,10 @@
         <v>380</v>
       </c>
       <c r="B370" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
       <c r="C370" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
@@ -8176,10 +8222,10 @@
         <v>381</v>
       </c>
       <c r="B371" t="s">
-        <v>718</v>
+        <v>705</v>
       </c>
       <c r="C371" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -8187,10 +8233,10 @@
         <v>382</v>
       </c>
       <c r="B372" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
       <c r="C372" t="s">
-        <v>721</v>
+        <v>708</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -8198,10 +8244,10 @@
         <v>383</v>
       </c>
       <c r="B373" t="s">
-        <v>722</v>
+        <v>709</v>
       </c>
       <c r="C373" t="s">
-        <v>723</v>
+        <v>710</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
@@ -8209,10 +8255,10 @@
         <v>384</v>
       </c>
       <c r="B374" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
       <c r="C374" t="s">
-        <v>725</v>
+        <v>712</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -8220,10 +8266,10 @@
         <v>385</v>
       </c>
       <c r="B375" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
       <c r="C375" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -8231,10 +8277,10 @@
         <v>386</v>
       </c>
       <c r="B376" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
       <c r="C376" t="s">
-        <v>729</v>
+        <v>716</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
@@ -8242,10 +8288,10 @@
         <v>387</v>
       </c>
       <c r="B377" t="s">
-        <v>730</v>
+        <v>717</v>
       </c>
       <c r="C377" t="s">
-        <v>1177</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
@@ -8253,10 +8299,10 @@
         <v>388</v>
       </c>
       <c r="B378" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="C378" t="s">
-        <v>732</v>
+        <v>719</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
@@ -8264,10 +8310,10 @@
         <v>389</v>
       </c>
       <c r="B379" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
       <c r="C379" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -8275,10 +8321,10 @@
         <v>390</v>
       </c>
       <c r="B380" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
       <c r="C380" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -8286,10 +8332,10 @@
         <v>391</v>
       </c>
       <c r="B381" t="s">
-        <v>737</v>
+        <v>724</v>
       </c>
       <c r="C381" t="s">
-        <v>738</v>
+        <v>725</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -8297,10 +8343,10 @@
         <v>392</v>
       </c>
       <c r="B382" t="s">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="C382" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
@@ -8308,10 +8354,10 @@
         <v>393</v>
       </c>
       <c r="B383" t="s">
-        <v>741</v>
+        <v>728</v>
       </c>
       <c r="C383" t="s">
-        <v>742</v>
+        <v>729</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -8319,10 +8365,10 @@
         <v>394</v>
       </c>
       <c r="B384" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
       <c r="C384" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
@@ -8330,10 +8376,10 @@
         <v>395</v>
       </c>
       <c r="B385" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="C385" t="s">
-        <v>746</v>
+        <v>733</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
@@ -8341,10 +8387,10 @@
         <v>396</v>
       </c>
       <c r="B386" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="C386" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
@@ -8352,10 +8398,10 @@
         <v>397</v>
       </c>
       <c r="B387" t="s">
-        <v>749</v>
+        <v>736</v>
       </c>
       <c r="C387" t="s">
-        <v>750</v>
+        <v>737</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -8363,10 +8409,10 @@
         <v>398</v>
       </c>
       <c r="B388" t="s">
-        <v>751</v>
+        <v>738</v>
       </c>
       <c r="C388" t="s">
-        <v>752</v>
+        <v>739</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -8374,10 +8420,10 @@
         <v>399</v>
       </c>
       <c r="B389" t="s">
-        <v>753</v>
+        <v>740</v>
       </c>
       <c r="C389" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -8385,10 +8431,10 @@
         <v>400</v>
       </c>
       <c r="B390" t="s">
-        <v>755</v>
+        <v>742</v>
       </c>
       <c r="C390" t="s">
-        <v>756</v>
+        <v>743</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
@@ -8396,10 +8442,10 @@
         <v>401</v>
       </c>
       <c r="B391" t="s">
-        <v>757</v>
+        <v>744</v>
       </c>
       <c r="C391" t="s">
-        <v>758</v>
+        <v>745</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
@@ -8407,10 +8453,10 @@
         <v>402</v>
       </c>
       <c r="B392" t="s">
-        <v>759</v>
+        <v>746</v>
       </c>
       <c r="C392" t="s">
-        <v>760</v>
+        <v>747</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
@@ -8418,10 +8464,10 @@
         <v>403</v>
       </c>
       <c r="B393" t="s">
-        <v>761</v>
+        <v>748</v>
       </c>
       <c r="C393" t="s">
-        <v>762</v>
+        <v>749</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -8429,10 +8475,10 @@
         <v>404</v>
       </c>
       <c r="B394" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="C394" t="s">
-        <v>764</v>
+        <v>751</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -8440,10 +8486,10 @@
         <v>405</v>
       </c>
       <c r="B395" t="s">
-        <v>765</v>
+        <v>752</v>
       </c>
       <c r="C395" t="s">
-        <v>766</v>
+        <v>753</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
@@ -8451,10 +8497,10 @@
         <v>406</v>
       </c>
       <c r="B396" t="s">
-        <v>767</v>
+        <v>754</v>
       </c>
       <c r="C396" t="s">
-        <v>768</v>
+        <v>755</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -8462,10 +8508,10 @@
         <v>407</v>
       </c>
       <c r="B397" t="s">
-        <v>769</v>
+        <v>756</v>
       </c>
       <c r="C397" t="s">
-        <v>770</v>
+        <v>757</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -8473,10 +8519,10 @@
         <v>408</v>
       </c>
       <c r="B398" t="s">
-        <v>771</v>
+        <v>758</v>
       </c>
       <c r="C398" t="s">
-        <v>772</v>
+        <v>759</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -8484,10 +8530,10 @@
         <v>409</v>
       </c>
       <c r="B399" t="s">
-        <v>773</v>
+        <v>760</v>
       </c>
       <c r="C399" t="s">
-        <v>774</v>
+        <v>761</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -8495,10 +8541,10 @@
         <v>410</v>
       </c>
       <c r="B400" t="s">
-        <v>775</v>
+        <v>762</v>
       </c>
       <c r="C400" t="s">
-        <v>776</v>
+        <v>763</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
@@ -8506,10 +8552,10 @@
         <v>411</v>
       </c>
       <c r="B401" t="s">
-        <v>777</v>
+        <v>764</v>
       </c>
       <c r="C401" t="s">
-        <v>778</v>
+        <v>765</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
@@ -8517,10 +8563,10 @@
         <v>412</v>
       </c>
       <c r="B402" t="s">
-        <v>779</v>
+        <v>766</v>
       </c>
       <c r="C402" t="s">
-        <v>780</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
@@ -8528,10 +8574,10 @@
         <v>413</v>
       </c>
       <c r="B403" t="s">
-        <v>781</v>
+        <v>767</v>
       </c>
       <c r="C403" t="s">
-        <v>782</v>
+        <v>768</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
@@ -8539,10 +8585,10 @@
         <v>414</v>
       </c>
       <c r="B404" t="s">
-        <v>783</v>
+        <v>769</v>
       </c>
       <c r="C404" t="s">
-        <v>784</v>
+        <v>770</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
@@ -8550,10 +8596,10 @@
         <v>415</v>
       </c>
       <c r="B405" t="s">
-        <v>785</v>
+        <v>771</v>
       </c>
       <c r="C405" t="s">
-        <v>786</v>
+        <v>772</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
@@ -8561,10 +8607,10 @@
         <v>416</v>
       </c>
       <c r="B406" t="s">
-        <v>787</v>
+        <v>773</v>
       </c>
       <c r="C406" t="s">
-        <v>788</v>
+        <v>774</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
@@ -8572,7 +8618,7 @@
         <v>417</v>
       </c>
       <c r="B407" t="s">
-        <v>789</v>
+        <v>775</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
@@ -8580,10 +8626,10 @@
         <v>418</v>
       </c>
       <c r="B408" t="s">
-        <v>790</v>
+        <v>776</v>
       </c>
       <c r="C408" t="s">
-        <v>791</v>
+        <v>777</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
@@ -8591,10 +8637,10 @@
         <v>419</v>
       </c>
       <c r="B409" t="s">
-        <v>792</v>
+        <v>778</v>
       </c>
       <c r="C409" t="s">
-        <v>793</v>
+        <v>779</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
@@ -8602,10 +8648,10 @@
         <v>420</v>
       </c>
       <c r="B410" t="s">
-        <v>794</v>
+        <v>780</v>
       </c>
       <c r="C410" t="s">
-        <v>795</v>
+        <v>781</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
@@ -8613,10 +8659,10 @@
         <v>421</v>
       </c>
       <c r="B411" t="s">
-        <v>796</v>
+        <v>782</v>
       </c>
       <c r="C411" t="s">
-        <v>797</v>
+        <v>783</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
@@ -8624,10 +8670,10 @@
         <v>422</v>
       </c>
       <c r="B412" t="s">
-        <v>798</v>
+        <v>784</v>
       </c>
       <c r="C412" t="s">
-        <v>799</v>
+        <v>785</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
@@ -8635,10 +8681,10 @@
         <v>423</v>
       </c>
       <c r="B413" t="s">
-        <v>800</v>
+        <v>786</v>
       </c>
       <c r="C413" t="s">
-        <v>801</v>
+        <v>787</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
@@ -8646,10 +8692,10 @@
         <v>424</v>
       </c>
       <c r="B414" t="s">
-        <v>802</v>
+        <v>788</v>
       </c>
       <c r="C414" t="s">
-        <v>803</v>
+        <v>789</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
@@ -8657,10 +8703,10 @@
         <v>425</v>
       </c>
       <c r="B415" t="s">
-        <v>804</v>
+        <v>790</v>
       </c>
       <c r="C415" t="s">
-        <v>805</v>
+        <v>791</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
@@ -8668,10 +8714,10 @@
         <v>426</v>
       </c>
       <c r="B416" t="s">
-        <v>806</v>
+        <v>792</v>
       </c>
       <c r="C416" t="s">
-        <v>807</v>
+        <v>793</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
@@ -8679,10 +8725,10 @@
         <v>427</v>
       </c>
       <c r="B417" t="s">
-        <v>808</v>
+        <v>794</v>
       </c>
       <c r="C417" t="s">
-        <v>809</v>
+        <v>795</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
@@ -8690,10 +8736,10 @@
         <v>428</v>
       </c>
       <c r="B418" t="s">
-        <v>810</v>
+        <v>796</v>
       </c>
       <c r="C418" t="s">
-        <v>1192</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
@@ -8701,10 +8747,10 @@
         <v>429</v>
       </c>
       <c r="B419" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="C419" t="s">
-        <v>1193</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
@@ -8712,10 +8758,10 @@
         <v>430</v>
       </c>
       <c r="B420" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="C420" t="s">
-        <v>813</v>
+        <v>799</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
@@ -8723,10 +8769,10 @@
         <v>431</v>
       </c>
       <c r="B421" t="s">
-        <v>814</v>
+        <v>800</v>
       </c>
       <c r="C421" t="s">
-        <v>815</v>
+        <v>801</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
@@ -8734,10 +8780,10 @@
         <v>432</v>
       </c>
       <c r="B422" t="s">
-        <v>816</v>
+        <v>802</v>
       </c>
       <c r="C422" t="s">
-        <v>817</v>
+        <v>803</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
@@ -8745,10 +8791,10 @@
         <v>433</v>
       </c>
       <c r="B423" t="s">
-        <v>818</v>
+        <v>804</v>
       </c>
       <c r="C423" t="s">
-        <v>819</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
@@ -8756,10 +8802,10 @@
         <v>434</v>
       </c>
       <c r="B424" t="s">
-        <v>820</v>
+        <v>805</v>
       </c>
       <c r="C424" t="s">
-        <v>821</v>
+        <v>806</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
@@ -8767,10 +8813,10 @@
         <v>435</v>
       </c>
       <c r="B425" t="s">
-        <v>822</v>
+        <v>807</v>
       </c>
       <c r="C425" t="s">
-        <v>823</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
@@ -8778,10 +8824,10 @@
         <v>436</v>
       </c>
       <c r="B426" t="s">
-        <v>824</v>
+        <v>808</v>
       </c>
       <c r="C426" t="s">
-        <v>825</v>
+        <v>809</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
@@ -8789,10 +8835,10 @@
         <v>437</v>
       </c>
       <c r="B427" t="s">
-        <v>826</v>
+        <v>810</v>
       </c>
       <c r="C427" t="s">
-        <v>827</v>
+        <v>811</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
@@ -8800,10 +8846,10 @@
         <v>438</v>
       </c>
       <c r="B428" t="s">
-        <v>828</v>
+        <v>812</v>
       </c>
       <c r="C428" t="s">
-        <v>768</v>
+        <v>755</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
@@ -8811,10 +8857,10 @@
         <v>439</v>
       </c>
       <c r="B429" t="s">
-        <v>829</v>
+        <v>813</v>
       </c>
       <c r="C429" t="s">
-        <v>768</v>
+        <v>755</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
@@ -8822,10 +8868,10 @@
         <v>440</v>
       </c>
       <c r="B430" t="s">
-        <v>830</v>
+        <v>814</v>
       </c>
       <c r="C430" t="s">
-        <v>831</v>
+        <v>815</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
@@ -8833,10 +8879,10 @@
         <v>441</v>
       </c>
       <c r="B431" t="s">
-        <v>832</v>
+        <v>816</v>
       </c>
       <c r="C431" t="s">
-        <v>833</v>
+        <v>817</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
@@ -8844,10 +8890,10 @@
         <v>442</v>
       </c>
       <c r="B432" t="s">
-        <v>834</v>
+        <v>818</v>
       </c>
       <c r="C432" t="s">
-        <v>835</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
@@ -8855,10 +8901,10 @@
         <v>443</v>
       </c>
       <c r="B433" t="s">
-        <v>836</v>
+        <v>819</v>
       </c>
       <c r="C433" t="s">
-        <v>837</v>
+        <v>820</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
@@ -8866,10 +8912,10 @@
         <v>444</v>
       </c>
       <c r="B434" t="s">
-        <v>838</v>
+        <v>821</v>
       </c>
       <c r="C434" t="s">
-        <v>839</v>
+        <v>822</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
@@ -8877,10 +8923,10 @@
         <v>445</v>
       </c>
       <c r="B435" t="s">
-        <v>840</v>
+        <v>823</v>
       </c>
       <c r="C435" t="s">
-        <v>841</v>
+        <v>824</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
@@ -8888,10 +8934,10 @@
         <v>446</v>
       </c>
       <c r="B436" t="s">
-        <v>842</v>
+        <v>825</v>
       </c>
       <c r="C436" t="s">
-        <v>843</v>
+        <v>826</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
@@ -8899,10 +8945,10 @@
         <v>447</v>
       </c>
       <c r="B437" t="s">
-        <v>844</v>
+        <v>827</v>
       </c>
       <c r="C437" t="s">
-        <v>845</v>
+        <v>828</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
@@ -8910,10 +8956,10 @@
         <v>448</v>
       </c>
       <c r="B438" t="s">
-        <v>846</v>
+        <v>829</v>
       </c>
       <c r="C438" t="s">
-        <v>847</v>
+        <v>830</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
@@ -8921,10 +8967,10 @@
         <v>449</v>
       </c>
       <c r="B439" t="s">
-        <v>848</v>
+        <v>831</v>
       </c>
       <c r="C439" t="s">
-        <v>849</v>
+        <v>832</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
@@ -8932,10 +8978,10 @@
         <v>450</v>
       </c>
       <c r="B440" t="s">
-        <v>850</v>
+        <v>833</v>
       </c>
       <c r="C440" t="s">
-        <v>851</v>
+        <v>834</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
@@ -8943,10 +8989,10 @@
         <v>451</v>
       </c>
       <c r="B441" t="s">
-        <v>852</v>
+        <v>835</v>
       </c>
       <c r="C441" t="s">
-        <v>853</v>
+        <v>836</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
@@ -8954,10 +9000,10 @@
         <v>452</v>
       </c>
       <c r="B442" t="s">
-        <v>854</v>
+        <v>837</v>
       </c>
       <c r="C442" t="s">
-        <v>855</v>
+        <v>838</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
@@ -8965,10 +9011,10 @@
         <v>453</v>
       </c>
       <c r="B443" t="s">
-        <v>856</v>
+        <v>839</v>
       </c>
       <c r="C443" t="s">
-        <v>857</v>
+        <v>840</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
@@ -8976,10 +9022,10 @@
         <v>455</v>
       </c>
       <c r="B444" t="s">
-        <v>858</v>
+        <v>841</v>
       </c>
       <c r="C444" t="s">
-        <v>859</v>
+        <v>842</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
@@ -8987,10 +9033,10 @@
         <v>456</v>
       </c>
       <c r="B445" t="s">
-        <v>860</v>
+        <v>843</v>
       </c>
       <c r="C445" t="s">
-        <v>861</v>
+        <v>844</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
@@ -8998,10 +9044,10 @@
         <v>457</v>
       </c>
       <c r="B446" t="s">
-        <v>862</v>
+        <v>845</v>
       </c>
       <c r="C446" t="s">
-        <v>863</v>
+        <v>846</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
@@ -9009,10 +9055,10 @@
         <v>458</v>
       </c>
       <c r="B447" t="s">
-        <v>864</v>
+        <v>847</v>
       </c>
       <c r="C447" t="s">
-        <v>865</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
@@ -9020,10 +9066,10 @@
         <v>459</v>
       </c>
       <c r="B448" t="s">
-        <v>866</v>
+        <v>848</v>
       </c>
       <c r="C448" t="s">
-        <v>867</v>
+        <v>849</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
@@ -9031,10 +9077,10 @@
         <v>460</v>
       </c>
       <c r="B449" t="s">
-        <v>868</v>
+        <v>850</v>
       </c>
       <c r="C449" t="s">
-        <v>869</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
@@ -9042,10 +9088,10 @@
         <v>461</v>
       </c>
       <c r="B450" t="s">
-        <v>870</v>
+        <v>851</v>
       </c>
       <c r="C450" t="s">
-        <v>871</v>
+        <v>852</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
@@ -9053,10 +9099,10 @@
         <v>462</v>
       </c>
       <c r="B451" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
       <c r="C451" t="s">
-        <v>872</v>
+        <v>853</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
@@ -9064,10 +9110,10 @@
         <v>463</v>
       </c>
       <c r="B452" t="s">
-        <v>873</v>
+        <v>854</v>
       </c>
       <c r="C452" t="s">
-        <v>874</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
@@ -9075,10 +9121,10 @@
         <v>464</v>
       </c>
       <c r="B453" t="s">
-        <v>875</v>
+        <v>855</v>
       </c>
       <c r="C453" t="s">
-        <v>876</v>
+        <v>856</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
@@ -9086,10 +9132,10 @@
         <v>465</v>
       </c>
       <c r="B454" t="s">
-        <v>877</v>
+        <v>857</v>
       </c>
       <c r="C454" t="s">
-        <v>878</v>
+        <v>858</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
@@ -9097,10 +9143,10 @@
         <v>466</v>
       </c>
       <c r="B455" t="s">
-        <v>879</v>
+        <v>859</v>
       </c>
       <c r="C455" t="s">
-        <v>1168</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
@@ -9108,10 +9154,10 @@
         <v>467</v>
       </c>
       <c r="B456" t="s">
-        <v>775</v>
+        <v>762</v>
       </c>
       <c r="C456" t="s">
-        <v>880</v>
+        <v>860</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
@@ -9119,10 +9165,10 @@
         <v>468</v>
       </c>
       <c r="B457" t="s">
-        <v>881</v>
+        <v>861</v>
       </c>
       <c r="C457" t="s">
-        <v>882</v>
+        <v>862</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
@@ -9130,10 +9176,10 @@
         <v>469</v>
       </c>
       <c r="B458" t="s">
-        <v>883</v>
+        <v>863</v>
       </c>
       <c r="C458" t="s">
-        <v>884</v>
+        <v>864</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
@@ -9141,10 +9187,10 @@
         <v>470</v>
       </c>
       <c r="B459" t="s">
-        <v>885</v>
+        <v>865</v>
       </c>
       <c r="C459" t="s">
-        <v>1154</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
@@ -9152,7 +9198,7 @@
         <v>471</v>
       </c>
       <c r="B460" t="s">
-        <v>886</v>
+        <v>866</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
@@ -9160,10 +9206,10 @@
         <v>472</v>
       </c>
       <c r="B461" t="s">
-        <v>887</v>
+        <v>867</v>
       </c>
       <c r="C461" t="s">
-        <v>888</v>
+        <v>868</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
@@ -9171,10 +9217,10 @@
         <v>473</v>
       </c>
       <c r="B462" t="s">
-        <v>889</v>
+        <v>869</v>
       </c>
       <c r="C462" t="s">
-        <v>890</v>
+        <v>870</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
@@ -9182,10 +9228,10 @@
         <v>474</v>
       </c>
       <c r="B463" t="s">
-        <v>891</v>
+        <v>871</v>
       </c>
       <c r="C463" t="s">
-        <v>892</v>
+        <v>872</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
@@ -9193,10 +9239,10 @@
         <v>475</v>
       </c>
       <c r="B464" t="s">
-        <v>893</v>
+        <v>873</v>
       </c>
       <c r="C464" t="s">
-        <v>894</v>
+        <v>874</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
@@ -9204,10 +9250,10 @@
         <v>476</v>
       </c>
       <c r="B465" t="s">
-        <v>895</v>
+        <v>875</v>
       </c>
       <c r="C465" t="s">
-        <v>896</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
@@ -9215,10 +9261,10 @@
         <v>477</v>
       </c>
       <c r="B466" t="s">
-        <v>897</v>
+        <v>876</v>
       </c>
       <c r="C466" t="s">
-        <v>898</v>
+        <v>877</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
@@ -9226,10 +9272,10 @@
         <v>478</v>
       </c>
       <c r="B467" t="s">
-        <v>899</v>
+        <v>878</v>
       </c>
       <c r="C467" t="s">
-        <v>900</v>
+        <v>879</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
@@ -9237,10 +9283,10 @@
         <v>479</v>
       </c>
       <c r="B468" t="s">
-        <v>901</v>
+        <v>880</v>
       </c>
       <c r="C468" t="s">
-        <v>902</v>
+        <v>881</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
@@ -9248,10 +9294,10 @@
         <v>480</v>
       </c>
       <c r="B469" t="s">
-        <v>903</v>
+        <v>882</v>
       </c>
       <c r="C469" t="s">
-        <v>904</v>
+        <v>883</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
@@ -9259,10 +9305,10 @@
         <v>481</v>
       </c>
       <c r="B470" t="s">
-        <v>905</v>
+        <v>884</v>
       </c>
       <c r="C470" t="s">
-        <v>906</v>
+        <v>885</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
@@ -9270,10 +9316,10 @@
         <v>482</v>
       </c>
       <c r="B471" t="s">
-        <v>907</v>
+        <v>886</v>
       </c>
       <c r="C471" t="s">
-        <v>908</v>
+        <v>887</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
@@ -9281,10 +9327,10 @@
         <v>483</v>
       </c>
       <c r="B472" t="s">
-        <v>909</v>
+        <v>888</v>
       </c>
       <c r="C472" t="s">
-        <v>910</v>
+        <v>889</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
@@ -9292,10 +9338,10 @@
         <v>484</v>
       </c>
       <c r="B473" t="s">
-        <v>911</v>
+        <v>890</v>
       </c>
       <c r="C473" t="s">
-        <v>912</v>
+        <v>891</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
@@ -9303,10 +9349,10 @@
         <v>485</v>
       </c>
       <c r="B474" t="s">
-        <v>913</v>
+        <v>892</v>
       </c>
       <c r="C474" t="s">
-        <v>914</v>
+        <v>893</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
@@ -9314,10 +9360,10 @@
         <v>486</v>
       </c>
       <c r="B475" t="s">
-        <v>915</v>
+        <v>894</v>
       </c>
       <c r="C475" t="s">
-        <v>916</v>
+        <v>895</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
@@ -9325,10 +9371,10 @@
         <v>487</v>
       </c>
       <c r="B476" t="s">
-        <v>917</v>
+        <v>896</v>
       </c>
       <c r="C476" t="s">
-        <v>918</v>
+        <v>897</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
@@ -9336,10 +9382,10 @@
         <v>488</v>
       </c>
       <c r="B477" t="s">
-        <v>919</v>
+        <v>898</v>
       </c>
       <c r="C477" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
@@ -9347,10 +9393,10 @@
         <v>489</v>
       </c>
       <c r="B478" t="s">
-        <v>921</v>
+        <v>900</v>
       </c>
       <c r="C478" t="s">
-        <v>921</v>
+        <v>900</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
@@ -9358,10 +9404,10 @@
         <v>490</v>
       </c>
       <c r="B479" t="s">
-        <v>922</v>
+        <v>901</v>
       </c>
       <c r="C479" t="s">
-        <v>923</v>
+        <v>902</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
@@ -9369,10 +9415,10 @@
         <v>491</v>
       </c>
       <c r="B480" t="s">
-        <v>924</v>
+        <v>903</v>
       </c>
       <c r="C480" t="s">
-        <v>925</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
@@ -9380,10 +9426,10 @@
         <v>492</v>
       </c>
       <c r="B481" t="s">
-        <v>926</v>
+        <v>904</v>
       </c>
       <c r="C481" t="s">
-        <v>927</v>
+        <v>905</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
@@ -9391,10 +9437,10 @@
         <v>493</v>
       </c>
       <c r="B482" t="s">
-        <v>928</v>
+        <v>906</v>
       </c>
       <c r="C482" t="s">
-        <v>929</v>
+        <v>907</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
@@ -9402,10 +9448,10 @@
         <v>494</v>
       </c>
       <c r="B483" t="s">
-        <v>930</v>
+        <v>908</v>
       </c>
       <c r="C483" t="s">
-        <v>931</v>
+        <v>909</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
@@ -9413,10 +9459,10 @@
         <v>496</v>
       </c>
       <c r="B484" t="s">
-        <v>932</v>
+        <v>910</v>
       </c>
       <c r="C484" t="s">
-        <v>933</v>
+        <v>911</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
@@ -9424,10 +9470,10 @@
         <v>497</v>
       </c>
       <c r="B485" t="s">
-        <v>934</v>
+        <v>912</v>
       </c>
       <c r="C485" t="s">
-        <v>935</v>
+        <v>913</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
@@ -9435,10 +9481,10 @@
         <v>498</v>
       </c>
       <c r="B486" t="s">
-        <v>936</v>
+        <v>914</v>
       </c>
       <c r="C486" t="s">
-        <v>937</v>
+        <v>915</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
@@ -9446,10 +9492,10 @@
         <v>499</v>
       </c>
       <c r="B487" t="s">
-        <v>938</v>
+        <v>916</v>
       </c>
       <c r="C487" t="s">
-        <v>939</v>
+        <v>917</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
@@ -9457,10 +9503,10 @@
         <v>500</v>
       </c>
       <c r="B488" t="s">
-        <v>940</v>
+        <v>918</v>
       </c>
       <c r="C488" t="s">
-        <v>941</v>
+        <v>919</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
@@ -9468,10 +9514,10 @@
         <v>501</v>
       </c>
       <c r="B489" t="s">
-        <v>942</v>
+        <v>920</v>
       </c>
       <c r="C489" t="s">
-        <v>943</v>
+        <v>921</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
@@ -9479,10 +9525,10 @@
         <v>502</v>
       </c>
       <c r="B490" t="s">
-        <v>944</v>
+        <v>922</v>
       </c>
       <c r="C490" t="s">
-        <v>945</v>
+        <v>923</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
@@ -9490,10 +9536,10 @@
         <v>503</v>
       </c>
       <c r="B491" t="s">
-        <v>946</v>
+        <v>924</v>
       </c>
       <c r="C491" t="s">
-        <v>947</v>
+        <v>925</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
@@ -9501,10 +9547,10 @@
         <v>504</v>
       </c>
       <c r="B492" t="s">
-        <v>948</v>
+        <v>926</v>
       </c>
       <c r="C492" t="s">
-        <v>949</v>
+        <v>927</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
@@ -9512,10 +9558,10 @@
         <v>505</v>
       </c>
       <c r="B493" t="s">
-        <v>950</v>
+        <v>928</v>
       </c>
       <c r="C493" t="s">
-        <v>951</v>
+        <v>929</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
@@ -9523,10 +9569,10 @@
         <v>506</v>
       </c>
       <c r="B494" t="s">
-        <v>952</v>
+        <v>930</v>
       </c>
       <c r="C494" t="s">
-        <v>953</v>
+        <v>931</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
@@ -9534,10 +9580,10 @@
         <v>507</v>
       </c>
       <c r="B495" t="s">
-        <v>954</v>
+        <v>932</v>
       </c>
       <c r="C495" t="s">
-        <v>955</v>
+        <v>933</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
@@ -9545,10 +9591,10 @@
         <v>508</v>
       </c>
       <c r="B496" t="s">
-        <v>956</v>
+        <v>934</v>
       </c>
       <c r="C496" t="s">
-        <v>957</v>
+        <v>935</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
@@ -9556,10 +9602,10 @@
         <v>509</v>
       </c>
       <c r="B497" t="s">
-        <v>958</v>
+        <v>936</v>
       </c>
       <c r="C497" t="s">
-        <v>959</v>
+        <v>937</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
@@ -9567,10 +9613,10 @@
         <v>510</v>
       </c>
       <c r="B498" t="s">
-        <v>960</v>
+        <v>938</v>
       </c>
       <c r="C498" t="s">
-        <v>961</v>
+        <v>939</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
@@ -9578,7 +9624,7 @@
         <v>511</v>
       </c>
       <c r="B499" t="s">
-        <v>962</v>
+        <v>940</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
@@ -9586,10 +9632,10 @@
         <v>512</v>
       </c>
       <c r="B500" t="s">
-        <v>963</v>
+        <v>941</v>
       </c>
       <c r="C500" t="s">
-        <v>964</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
@@ -9597,10 +9643,10 @@
         <v>513</v>
       </c>
       <c r="B501" t="s">
-        <v>965</v>
+        <v>942</v>
       </c>
       <c r="C501" t="s">
-        <v>966</v>
+        <v>943</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
@@ -9608,10 +9654,10 @@
         <v>514</v>
       </c>
       <c r="B502" t="s">
-        <v>967</v>
+        <v>944</v>
       </c>
       <c r="C502" t="s">
-        <v>968</v>
+        <v>945</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
@@ -9619,10 +9665,10 @@
         <v>515</v>
       </c>
       <c r="B503" t="s">
-        <v>1196</v>
+        <v>1158</v>
       </c>
       <c r="C503" t="s">
-        <v>1197</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
@@ -9630,10 +9676,10 @@
         <v>516</v>
       </c>
       <c r="B504" t="s">
-        <v>969</v>
+        <v>946</v>
       </c>
       <c r="C504" t="s">
-        <v>970</v>
+        <v>947</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
@@ -9641,7 +9687,7 @@
         <v>517</v>
       </c>
       <c r="B505" t="s">
-        <v>971</v>
+        <v>948</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
@@ -9649,10 +9695,10 @@
         <v>518</v>
       </c>
       <c r="B506" t="s">
-        <v>972</v>
+        <v>949</v>
       </c>
       <c r="C506" t="s">
-        <v>973</v>
+        <v>950</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
@@ -9660,10 +9706,10 @@
         <v>519</v>
       </c>
       <c r="B507" t="s">
-        <v>974</v>
+        <v>951</v>
       </c>
       <c r="C507" t="s">
-        <v>975</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
@@ -9671,10 +9717,10 @@
         <v>520</v>
       </c>
       <c r="B508" t="s">
-        <v>976</v>
+        <v>952</v>
       </c>
       <c r="C508" t="s">
-        <v>977</v>
+        <v>953</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
@@ -9682,10 +9728,10 @@
         <v>521</v>
       </c>
       <c r="B509" t="s">
-        <v>978</v>
+        <v>954</v>
       </c>
       <c r="C509" t="s">
-        <v>979</v>
+        <v>955</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
@@ -9693,10 +9739,10 @@
         <v>522</v>
       </c>
       <c r="B510" t="s">
-        <v>980</v>
+        <v>956</v>
       </c>
       <c r="C510" t="s">
-        <v>981</v>
+        <v>957</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
@@ -9704,10 +9750,10 @@
         <v>523</v>
       </c>
       <c r="B511" t="s">
-        <v>982</v>
+        <v>958</v>
       </c>
       <c r="C511" t="s">
-        <v>983</v>
+        <v>959</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
@@ -9715,10 +9761,10 @@
         <v>524</v>
       </c>
       <c r="B512" t="s">
-        <v>984</v>
+        <v>960</v>
       </c>
       <c r="C512" t="s">
-        <v>985</v>
+        <v>961</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
@@ -9726,10 +9772,10 @@
         <v>525</v>
       </c>
       <c r="B513" t="s">
-        <v>986</v>
+        <v>962</v>
       </c>
       <c r="C513" t="s">
-        <v>987</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
@@ -9737,10 +9783,10 @@
         <v>526</v>
       </c>
       <c r="B514" t="s">
-        <v>988</v>
+        <v>963</v>
       </c>
       <c r="C514" t="s">
-        <v>989</v>
+        <v>964</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
@@ -9748,10 +9794,10 @@
         <v>527</v>
       </c>
       <c r="B515" t="s">
-        <v>990</v>
+        <v>965</v>
       </c>
       <c r="C515" t="s">
-        <v>1169</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
@@ -9759,10 +9805,10 @@
         <v>528</v>
       </c>
       <c r="B516" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="C516" t="s">
-        <v>991</v>
+        <v>966</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
@@ -9770,10 +9816,10 @@
         <v>529</v>
       </c>
       <c r="B517" t="s">
-        <v>992</v>
+        <v>967</v>
       </c>
       <c r="C517" t="s">
-        <v>993</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
@@ -9781,7 +9827,7 @@
         <v>530</v>
       </c>
       <c r="B518" t="s">
-        <v>994</v>
+        <v>968</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
@@ -9789,10 +9835,10 @@
         <v>531</v>
       </c>
       <c r="B519" t="s">
-        <v>995</v>
+        <v>969</v>
       </c>
       <c r="C519" t="s">
-        <v>996</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
@@ -9800,10 +9846,10 @@
         <v>532</v>
       </c>
       <c r="B520" t="s">
-        <v>997</v>
+        <v>970</v>
       </c>
       <c r="C520" t="s">
-        <v>998</v>
+        <v>971</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
@@ -9811,10 +9857,10 @@
         <v>533</v>
       </c>
       <c r="B521" t="s">
-        <v>999</v>
+        <v>972</v>
       </c>
       <c r="C521" t="s">
-        <v>1000</v>
+        <v>973</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
@@ -9822,10 +9868,10 @@
         <v>534</v>
       </c>
       <c r="B522" t="s">
-        <v>1001</v>
+        <v>974</v>
       </c>
       <c r="C522" t="s">
-        <v>1002</v>
+        <v>975</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
@@ -9833,10 +9879,10 @@
         <v>535</v>
       </c>
       <c r="B523" t="s">
-        <v>1003</v>
+        <v>976</v>
       </c>
       <c r="C523" t="s">
-        <v>1004</v>
+        <v>977</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
@@ -9844,10 +9890,10 @@
         <v>536</v>
       </c>
       <c r="B524" t="s">
-        <v>1005</v>
+        <v>978</v>
       </c>
       <c r="C524" t="s">
-        <v>1006</v>
+        <v>979</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
@@ -9855,10 +9901,10 @@
         <v>537</v>
       </c>
       <c r="B525" t="s">
-        <v>1007</v>
+        <v>980</v>
       </c>
       <c r="C525" t="s">
-        <v>1008</v>
+        <v>981</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
@@ -9866,10 +9912,10 @@
         <v>538</v>
       </c>
       <c r="B526" t="s">
-        <v>1009</v>
+        <v>982</v>
       </c>
       <c r="C526" t="s">
-        <v>1010</v>
+        <v>983</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
@@ -9877,10 +9923,10 @@
         <v>539</v>
       </c>
       <c r="B527" t="s">
-        <v>1011</v>
+        <v>984</v>
       </c>
       <c r="C527" t="s">
-        <v>1012</v>
+        <v>985</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
@@ -9888,10 +9934,10 @@
         <v>540</v>
       </c>
       <c r="B528" t="s">
-        <v>1013</v>
+        <v>986</v>
       </c>
       <c r="C528" t="s">
-        <v>1014</v>
+        <v>987</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
@@ -9899,10 +9945,10 @@
         <v>542</v>
       </c>
       <c r="B529" t="s">
-        <v>1015</v>
+        <v>988</v>
       </c>
       <c r="C529" t="s">
-        <v>1016</v>
+        <v>989</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
@@ -9910,10 +9956,10 @@
         <v>543</v>
       </c>
       <c r="B530" t="s">
-        <v>1017</v>
+        <v>990</v>
       </c>
       <c r="C530" t="s">
-        <v>1018</v>
+        <v>991</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
@@ -9921,10 +9967,10 @@
         <v>545</v>
       </c>
       <c r="B531" t="s">
-        <v>1019</v>
+        <v>992</v>
       </c>
       <c r="C531" t="s">
-        <v>1020</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
@@ -9932,10 +9978,10 @@
         <v>546</v>
       </c>
       <c r="B532" t="s">
-        <v>1021</v>
+        <v>993</v>
       </c>
       <c r="C532" t="s">
-        <v>1022</v>
+        <v>994</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.25">
@@ -9943,10 +9989,10 @@
         <v>547</v>
       </c>
       <c r="B533" t="s">
-        <v>1023</v>
+        <v>995</v>
       </c>
       <c r="C533" t="s">
-        <v>1024</v>
+        <v>996</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
@@ -9954,10 +10000,10 @@
         <v>548</v>
       </c>
       <c r="B534" t="s">
-        <v>1025</v>
+        <v>997</v>
       </c>
       <c r="C534" t="s">
-        <v>1026</v>
+        <v>998</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.25">
@@ -9965,10 +10011,10 @@
         <v>549</v>
       </c>
       <c r="B535" t="s">
-        <v>1027</v>
+        <v>999</v>
       </c>
       <c r="C535" t="s">
-        <v>1028</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.25">
@@ -9976,10 +10022,10 @@
         <v>550</v>
       </c>
       <c r="B536" t="s">
-        <v>1029</v>
+        <v>1001</v>
       </c>
       <c r="C536" t="s">
-        <v>1030</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.25">
@@ -9987,7 +10033,7 @@
         <v>551</v>
       </c>
       <c r="B537" t="s">
-        <v>1031</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
@@ -9995,10 +10041,10 @@
         <v>552</v>
       </c>
       <c r="B538" t="s">
-        <v>1032</v>
+        <v>1003</v>
       </c>
       <c r="C538" t="s">
-        <v>1033</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.25">
@@ -10006,10 +10052,10 @@
         <v>553</v>
       </c>
       <c r="B539" t="s">
-        <v>1034</v>
+        <v>1005</v>
       </c>
       <c r="C539" t="s">
-        <v>1035</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.25">
@@ -10017,10 +10063,10 @@
         <v>554</v>
       </c>
       <c r="B540" t="s">
-        <v>1036</v>
+        <v>1007</v>
       </c>
       <c r="C540" t="s">
-        <v>1161</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.25">
@@ -10028,10 +10074,10 @@
         <v>555</v>
       </c>
       <c r="B541" t="s">
-        <v>1037</v>
+        <v>1008</v>
       </c>
       <c r="C541" t="s">
-        <v>1038</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.25">
@@ -10039,10 +10085,10 @@
         <v>556</v>
       </c>
       <c r="B542" t="s">
-        <v>1039</v>
+        <v>1010</v>
       </c>
       <c r="C542" t="s">
-        <v>1040</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.25">
@@ -10050,10 +10096,10 @@
         <v>557</v>
       </c>
       <c r="B543" t="s">
-        <v>1041</v>
+        <v>1012</v>
       </c>
       <c r="C543" t="s">
-        <v>1042</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.25">
@@ -10061,10 +10107,10 @@
         <v>558</v>
       </c>
       <c r="B544" t="s">
-        <v>1043</v>
+        <v>1014</v>
       </c>
       <c r="C544" t="s">
-        <v>1044</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.25">
@@ -10072,10 +10118,10 @@
         <v>559</v>
       </c>
       <c r="B545" t="s">
-        <v>1045</v>
+        <v>1016</v>
       </c>
       <c r="C545" t="s">
-        <v>1046</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.25">
@@ -10083,10 +10129,10 @@
         <v>562</v>
       </c>
       <c r="B546" t="s">
-        <v>1047</v>
+        <v>1018</v>
       </c>
       <c r="C546" t="s">
-        <v>1048</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.25">
@@ -10094,7 +10140,7 @@
         <v>563</v>
       </c>
       <c r="B547" t="s">
-        <v>1049</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.25">
@@ -10102,10 +10148,10 @@
         <v>564</v>
       </c>
       <c r="B548" t="s">
-        <v>1050</v>
+        <v>1021</v>
       </c>
       <c r="C548" t="s">
-        <v>1051</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.25">
@@ -10113,10 +10159,10 @@
         <v>565</v>
       </c>
       <c r="B549" t="s">
-        <v>1052</v>
+        <v>1023</v>
       </c>
       <c r="C549" t="s">
-        <v>1053</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.25">
@@ -10124,10 +10170,10 @@
         <v>566</v>
       </c>
       <c r="B550" t="s">
-        <v>1054</v>
+        <v>1025</v>
       </c>
       <c r="C550" t="s">
-        <v>1055</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.25">
@@ -10135,10 +10181,10 @@
         <v>567</v>
       </c>
       <c r="B551" t="s">
-        <v>1056</v>
+        <v>1026</v>
       </c>
       <c r="C551" t="s">
-        <v>1057</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.25">
@@ -10146,10 +10192,10 @@
         <v>568</v>
       </c>
       <c r="B552" t="s">
-        <v>1058</v>
+        <v>1028</v>
       </c>
       <c r="C552" t="s">
-        <v>1059</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.25">
@@ -10157,10 +10203,10 @@
         <v>569</v>
       </c>
       <c r="B553" t="s">
-        <v>1060</v>
+        <v>1030</v>
       </c>
       <c r="C553" t="s">
-        <v>1171</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.25">
@@ -10168,10 +10214,10 @@
         <v>570</v>
       </c>
       <c r="B554" t="s">
-        <v>1061</v>
+        <v>1031</v>
       </c>
       <c r="C554" t="s">
-        <v>1062</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.25">
@@ -10179,10 +10225,10 @@
         <v>571</v>
       </c>
       <c r="B555" t="s">
-        <v>1063</v>
+        <v>1033</v>
       </c>
       <c r="C555" t="s">
-        <v>1064</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.25">
@@ -10190,7 +10236,7 @@
         <v>572</v>
       </c>
       <c r="B556" t="s">
-        <v>1065</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.25">
@@ -10198,10 +10244,10 @@
         <v>577</v>
       </c>
       <c r="B557" t="s">
-        <v>1066</v>
+        <v>1036</v>
       </c>
       <c r="C557" t="s">
-        <v>1160</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.25">
@@ -10209,10 +10255,10 @@
         <v>578</v>
       </c>
       <c r="B558" t="s">
-        <v>1067</v>
+        <v>1037</v>
       </c>
       <c r="C558" t="s">
-        <v>1068</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.25">
@@ -10220,7 +10266,7 @@
         <v>579</v>
       </c>
       <c r="B559" t="s">
-        <v>1069</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.25">
@@ -10228,10 +10274,10 @@
         <v>580</v>
       </c>
       <c r="B560" t="s">
-        <v>1070</v>
+        <v>1040</v>
       </c>
       <c r="C560" t="s">
-        <v>1071</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.25">
@@ -10239,10 +10285,10 @@
         <v>581</v>
       </c>
       <c r="B561" t="s">
-        <v>1072</v>
+        <v>1042</v>
       </c>
       <c r="C561" t="s">
-        <v>1073</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.25">
@@ -10250,10 +10296,10 @@
         <v>582</v>
       </c>
       <c r="B562" t="s">
-        <v>1074</v>
+        <v>1044</v>
       </c>
       <c r="C562" t="s">
-        <v>1075</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.25">
@@ -10261,10 +10307,10 @@
         <v>583</v>
       </c>
       <c r="B563" t="s">
-        <v>1076</v>
+        <v>1046</v>
       </c>
       <c r="C563" t="s">
-        <v>1077</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.25">
@@ -10272,10 +10318,10 @@
         <v>584</v>
       </c>
       <c r="B564" t="s">
-        <v>1078</v>
+        <v>1048</v>
       </c>
       <c r="C564" t="s">
-        <v>1079</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.25">
@@ -10283,7 +10329,7 @@
         <v>585</v>
       </c>
       <c r="B565" t="s">
-        <v>1080</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.25">
@@ -10291,10 +10337,10 @@
         <v>586</v>
       </c>
       <c r="B566" t="s">
-        <v>1186</v>
+        <v>1149</v>
       </c>
       <c r="C566" t="s">
-        <v>1187</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.25">
@@ -10302,10 +10348,10 @@
         <v>587</v>
       </c>
       <c r="B567" t="s">
-        <v>1081</v>
+        <v>1051</v>
       </c>
       <c r="C567" t="s">
-        <v>1082</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.25">
@@ -10313,10 +10359,10 @@
         <v>588</v>
       </c>
       <c r="B568" t="s">
-        <v>1083</v>
+        <v>1053</v>
       </c>
       <c r="C568" t="s">
-        <v>1084</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.25">
@@ -10324,10 +10370,10 @@
         <v>589</v>
       </c>
       <c r="B569" t="s">
-        <v>1085</v>
+        <v>1055</v>
       </c>
       <c r="C569" t="s">
-        <v>1086</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.25">
@@ -10335,10 +10381,10 @@
         <v>590</v>
       </c>
       <c r="B570" t="s">
-        <v>1087</v>
+        <v>1056</v>
       </c>
       <c r="C570" t="s">
-        <v>1088</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.25">
@@ -10346,10 +10392,10 @@
         <v>591</v>
       </c>
       <c r="B571" t="s">
-        <v>1089</v>
+        <v>1058</v>
       </c>
       <c r="C571" t="s">
-        <v>1185</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.25">
@@ -10357,10 +10403,10 @@
         <v>592</v>
       </c>
       <c r="B572" t="s">
-        <v>1090</v>
+        <v>1059</v>
       </c>
       <c r="C572" t="s">
-        <v>1091</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.25">
@@ -10368,10 +10414,10 @@
         <v>593</v>
       </c>
       <c r="B573" t="s">
-        <v>1092</v>
+        <v>1061</v>
       </c>
       <c r="C573" t="s">
-        <v>1093</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.25">
@@ -10379,10 +10425,10 @@
         <v>594</v>
       </c>
       <c r="B574" t="s">
-        <v>1094</v>
+        <v>1063</v>
       </c>
       <c r="C574" t="s">
-        <v>1153</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.25">
@@ -10390,10 +10436,10 @@
         <v>595</v>
       </c>
       <c r="B575" t="s">
-        <v>1152</v>
+        <v>1118</v>
       </c>
       <c r="C575" t="s">
-        <v>1156</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.25">
@@ -10401,7 +10447,10 @@
         <v>596</v>
       </c>
       <c r="B576" t="s">
-        <v>1095</v>
+        <v>1064</v>
+      </c>
+      <c r="C576" t="s">
+        <v>1167</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.25">
@@ -10409,7 +10458,10 @@
         <v>597</v>
       </c>
       <c r="B577" t="s">
-        <v>915</v>
+        <v>894</v>
+      </c>
+      <c r="C577" t="s">
+        <v>1166</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.25">
@@ -10417,7 +10469,10 @@
         <v>598</v>
       </c>
       <c r="B578" t="s">
-        <v>917</v>
+        <v>896</v>
+      </c>
+      <c r="C578" t="s">
+        <v>1165</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.25">
@@ -10425,10 +10480,10 @@
         <v>599</v>
       </c>
       <c r="B579" t="s">
-        <v>1096</v>
+        <v>1065</v>
       </c>
       <c r="C579" t="s">
-        <v>1097</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.25">
@@ -10436,10 +10491,10 @@
         <v>601</v>
       </c>
       <c r="B580" t="s">
-        <v>1098</v>
+        <v>1067</v>
       </c>
       <c r="C580" t="s">
-        <v>1099</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.25">
@@ -10447,10 +10502,10 @@
         <v>604</v>
       </c>
       <c r="B581" t="s">
-        <v>1100</v>
+        <v>1068</v>
       </c>
       <c r="C581" t="s">
-        <v>1101</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.25">
@@ -10458,10 +10513,10 @@
         <v>612</v>
       </c>
       <c r="B582" t="s">
-        <v>1102</v>
+        <v>1070</v>
       </c>
       <c r="C582" t="s">
-        <v>1103</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.25">
@@ -10469,10 +10524,10 @@
         <v>617</v>
       </c>
       <c r="B583" t="s">
-        <v>1104</v>
+        <v>1072</v>
       </c>
       <c r="C583" t="s">
-        <v>1105</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.25">
@@ -10480,10 +10535,10 @@
         <v>618</v>
       </c>
       <c r="B584" t="s">
-        <v>1106</v>
+        <v>1074</v>
       </c>
       <c r="C584" t="s">
-        <v>1107</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.25">
@@ -10491,10 +10546,10 @@
         <v>625</v>
       </c>
       <c r="B585" t="s">
-        <v>1163</v>
+        <v>1129</v>
       </c>
       <c r="C585" t="s">
-        <v>1164</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.25">
@@ -10502,10 +10557,10 @@
         <v>626</v>
       </c>
       <c r="B586" t="s">
-        <v>1108</v>
+        <v>1076</v>
       </c>
       <c r="C586" t="s">
-        <v>1109</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.25">
@@ -10513,10 +10568,10 @@
         <v>629</v>
       </c>
       <c r="B587" t="s">
-        <v>1110</v>
+        <v>1078</v>
       </c>
       <c r="C587" t="s">
-        <v>1111</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.25">
@@ -10524,10 +10579,10 @@
         <v>633</v>
       </c>
       <c r="B588" t="s">
-        <v>1112</v>
+        <v>1080</v>
       </c>
       <c r="C588" t="s">
-        <v>1188</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.25">
@@ -10535,10 +10590,10 @@
         <v>635</v>
       </c>
       <c r="B589" t="s">
-        <v>1113</v>
+        <v>1081</v>
       </c>
       <c r="C589" t="s">
-        <v>1114</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.25">
@@ -10546,10 +10601,10 @@
         <v>636</v>
       </c>
       <c r="B590" t="s">
-        <v>1115</v>
+        <v>1083</v>
       </c>
       <c r="C590" t="s">
-        <v>1116</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.25">
@@ -10557,10 +10612,10 @@
         <v>642</v>
       </c>
       <c r="B591" t="s">
-        <v>1117</v>
+        <v>1085</v>
       </c>
       <c r="C591" t="s">
-        <v>1118</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.25">
@@ -10568,10 +10623,10 @@
         <v>646</v>
       </c>
       <c r="B592" t="s">
-        <v>1119</v>
+        <v>1087</v>
       </c>
       <c r="C592" t="s">
-        <v>1120</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.25">
@@ -10579,10 +10634,10 @@
         <v>650</v>
       </c>
       <c r="B593" t="s">
-        <v>1121</v>
+        <v>1089</v>
       </c>
       <c r="C593" t="s">
-        <v>1122</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.25">
@@ -10590,10 +10645,10 @@
         <v>651</v>
       </c>
       <c r="B594" t="s">
-        <v>1123</v>
+        <v>1091</v>
       </c>
       <c r="C594" t="s">
-        <v>1124</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.25">
@@ -10601,10 +10656,10 @@
         <v>653</v>
       </c>
       <c r="B595" t="s">
-        <v>1125</v>
+        <v>1093</v>
       </c>
       <c r="C595" t="s">
-        <v>1126</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.25">
@@ -10612,10 +10667,10 @@
         <v>655</v>
       </c>
       <c r="B596" t="s">
-        <v>1127</v>
+        <v>1095</v>
       </c>
       <c r="C596" t="s">
-        <v>1128</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.25">
@@ -10623,10 +10678,10 @@
         <v>661</v>
       </c>
       <c r="B597" t="s">
-        <v>1129</v>
+        <v>1097</v>
       </c>
       <c r="C597" t="s">
-        <v>1130</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.25">
@@ -10634,10 +10689,10 @@
         <v>663</v>
       </c>
       <c r="B598" t="s">
-        <v>1150</v>
+        <v>1116</v>
       </c>
       <c r="C598" t="s">
-        <v>1149</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.25">
@@ -10645,10 +10700,10 @@
         <v>667</v>
       </c>
       <c r="B599" t="s">
-        <v>1131</v>
+        <v>1099</v>
       </c>
       <c r="C599" t="s">
-        <v>1132</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.25">
@@ -10656,10 +10711,10 @@
         <v>673</v>
       </c>
       <c r="B600" t="s">
-        <v>1133</v>
+        <v>1100</v>
       </c>
       <c r="C600" t="s">
-        <v>1134</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.25">
@@ -10667,10 +10722,10 @@
         <v>674</v>
       </c>
       <c r="B601" t="s">
-        <v>1135</v>
+        <v>1101</v>
       </c>
       <c r="C601" t="s">
-        <v>1136</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.25">
@@ -10678,10 +10733,10 @@
         <v>680</v>
       </c>
       <c r="B602" t="s">
-        <v>1137</v>
+        <v>1103</v>
       </c>
       <c r="C602" t="s">
-        <v>1155</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.25">
@@ -10689,10 +10744,10 @@
         <v>682</v>
       </c>
       <c r="B603" t="s">
-        <v>1138</v>
+        <v>1104</v>
       </c>
       <c r="C603" t="s">
-        <v>1139</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.25">
@@ -10700,10 +10755,10 @@
         <v>684</v>
       </c>
       <c r="B604" t="s">
-        <v>1148</v>
+        <v>1114</v>
       </c>
       <c r="C604" t="s">
-        <v>1183</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.25">
@@ -10711,10 +10766,10 @@
         <v>685</v>
       </c>
       <c r="B605" t="s">
-        <v>1140</v>
+        <v>1106</v>
       </c>
       <c r="C605" t="s">
-        <v>1141</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.25">
@@ -10722,10 +10777,10 @@
         <v>686</v>
       </c>
       <c r="B606" t="s">
-        <v>1142</v>
+        <v>1108</v>
       </c>
       <c r="C606" t="s">
-        <v>1143</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.25">
@@ -10733,10 +10788,10 @@
         <v>689</v>
       </c>
       <c r="B607" t="s">
-        <v>1144</v>
+        <v>1110</v>
       </c>
       <c r="C607" t="s">
-        <v>1145</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.25">
@@ -10744,10 +10799,10 @@
         <v>704</v>
       </c>
       <c r="B608" t="s">
-        <v>1178</v>
+        <v>1143</v>
       </c>
       <c r="C608" t="s">
-        <v>1179</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.25">
@@ -10755,10 +10810,10 @@
         <v>10001</v>
       </c>
       <c r="B609" t="s">
-        <v>1146</v>
+        <v>1112</v>
       </c>
       <c r="C609" t="s">
-        <v>1147</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.25">
@@ -10766,17 +10821,17 @@
         <v>10003</v>
       </c>
       <c r="B610" t="s">
-        <v>1175</v>
+        <v>1140</v>
       </c>
       <c r="C610" t="s">
-        <v>1176</v>
+        <v>1141</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C4 A121:C144 A120:B120 A609:C609 A315:B315 A599:C601 A316:C344 A352:C376 A351:B351 A586:C587 A575 A574:B574 A460:C502 A459:B459 A603:C603 A602:B602 A235:C256 A234:B234 A95:C113 A146:C149 A145:B145 A541:C552 A540:B540 A55:C69 A558:C565 A557:B557 A29:C50 A28:B28 A576:C584 A308:C314 A307:B307 A53:B54 A456:C458 A455:B455 A516:C539 A515:B515 A93:B94 A554:C556 A553:B553 A346:C350 A345:B345 A52:C52 A51:B51 A71:C78 A70:B70 A163:C233 A162:B162 A378:C417 A377:B377 A605:C607 A258:C285 A257:B257 A6:C19 A5:B5 A572:C573 A571:B571 A567:C570 A566 A589:C597 A588:B588 A21:C27 A20:B20 A420:C454 A418:B418 A115:C119 A114:B114 A287:C306 A286:B286 A419:B419 A80:C92 A79:B79 A504:C514 A503 A151:C161 A150:B150" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C1 A121:C144 A120:B120 A609:C609 A315:B315 A599:B599 A316:C344 A352:C376 A351:B351 A586:C587 A575 A574:B574 A460:C464 A459:B459 A603:C603 A602:B602 A235:C249 A234:B234 A95:C106 A146:C149 A145:B145 A541:C549 A540:B540 A55:C57 A558:C565 A557:B557 A29:C50 A28:B28 A579:C579 A308:C314 A307:B307 A53:B54 A456:C458 A455:B455 A516:C516 A515:B515 A93:B94 A554:C556 A553:B553 A346:C350 A345:B345 A52:C52 A51:B51 A71:C78 A70:B70 A163:C228 A162:B162 A378:C401 A377:B377 A605:C607 A258:C259 A257:B257 A6:C12 A5:B5 A572:C573 A571:B571 A567:C568 A566 A589:C597 A588:B588 A21:C27 A20:B20 A420:C422 A418:B418 A115:C119 A114:B114 A287:C306 A286:B286 A419:B419 A80:C92 A79:B79 A504:C506 A503 A151:C161 A150:B150 A481:C499 A480:B480 A520:C530 A519:B519 A532:C535 A531:B531 A601:C601 A600:B600 A576:B576 A577:B577 A578:B578 A514:C514 A513:B513 A501:C502 A500:B500 A453:C454 A452:B452 A424:C424 A423:B423 A14:C19 A13:B13 A4:B4 A2:B2 A3:B3 A581:C584 A580:B580 A570:C570 A569:B569 A450:C451 A449:B449 A551:C552 A550:B550 A537:C539 A536:B536 A518:C518 A517:B517 A508:C512 A507:B507 A466:C479 A465:B465 A448:C448 A447:B447 A433:C446 A432:B432 A426:C431 A425:B425 A403:C417 A402:B402 A280:C285 A279:B279 A269:C278 A268:B268 A261:C267 A260:B260 A252:C256 A251:B251 A250:B250 A231:C233 A229:B229 A230:B230 A108:C113 A107:B107 A59:C69 A58:B58" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/config/nickname_song.xlsx
+++ b/config/nickname_song.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Tsugu-Backend\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D796C06-63C9-4A6D-8F7C-5A111F922707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E968320-D613-4094-AD8E-B18DD09E1B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="1202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="1204">
   <si>
     <t>Id</t>
   </si>
@@ -58,9 +58,6 @@
     <t>空色デイズ</t>
   </si>
   <si>
-    <t>空色days,钻头</t>
-  </si>
-  <si>
     <t>ETERNAL BLAZE</t>
   </si>
   <si>
@@ -409,12 +406,6 @@
     <t>Time Lapse</t>
   </si>
   <si>
-    <t>遠い音楽～ハートビート～</t>
-  </si>
-  <si>
-    <t>saaya,heartbeat,saya,沙绫,角色曲</t>
-  </si>
-  <si>
     <t>－HEROIC ADVENT－</t>
   </si>
   <si>
@@ -736,9 +727,6 @@
     <t>夏祭り</t>
   </si>
   <si>
-    <t>夏寄,山本ptsd曲,马自立,夏祭,太鼓入门曲,xxx xxx xxx ooo</t>
-  </si>
-  <si>
     <t>シャルル</t>
   </si>
   <si>
@@ -884,9 +872,6 @@
   </si>
   <si>
     <t>奏（かなで）</t>
-  </si>
-  <si>
-    <t>一周的朋友</t>
   </si>
   <si>
     <t>瞬間センチメンタル</t>
@@ -3735,6 +3720,34 @@
   </si>
   <si>
     <t>夏咚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高到達点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Peak,最高到达点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一周的朋友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏寄,山本ptsd曲,马自立,夏祭,太鼓入门曲,xxx xxx xxx ooo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遠い音楽～ハートビート～</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saaya,heartbeat,saya,沙绫,角色曲,远音乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空色days,钻头</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4133,10 +4146,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C610"/>
+  <dimension ref="A1:C611"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="C126" sqref="C126"/>
+    <sheetView tabSelected="1" topLeftCell="A569" workbookViewId="0">
+      <selection activeCell="C596" sqref="C596"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -4166,7 +4179,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4177,7 +4190,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4188,7 +4201,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>1175</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4199,7 +4212,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -4232,7 +4245,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -4240,10 +4253,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
         <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -4251,10 +4264,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
         <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -4262,10 +4275,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
         <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -4273,10 +4286,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
         <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -4284,10 +4297,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -4295,10 +4308,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
         <v>22</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -4306,10 +4319,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
         <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -4317,10 +4330,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
         <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -4328,10 +4341,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
         <v>28</v>
-      </c>
-      <c r="C17" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -4339,10 +4352,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
         <v>30</v>
-      </c>
-      <c r="C18" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -4350,10 +4363,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
         <v>32</v>
-      </c>
-      <c r="C19" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.4">
@@ -4361,10 +4374,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -4372,10 +4385,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
         <v>35</v>
-      </c>
-      <c r="C21" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -4383,10 +4396,10 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
         <v>37</v>
-      </c>
-      <c r="C22" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -4394,10 +4407,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s">
         <v>39</v>
-      </c>
-      <c r="C23" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -4405,10 +4418,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
         <v>41</v>
-      </c>
-      <c r="C24" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -4416,10 +4429,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s">
         <v>43</v>
-      </c>
-      <c r="C25" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -4427,10 +4440,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" t="s">
         <v>45</v>
-      </c>
-      <c r="C26" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -4438,10 +4451,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" t="s">
         <v>47</v>
-      </c>
-      <c r="C27" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -4449,10 +4462,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -4460,10 +4473,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" t="s">
         <v>50</v>
-      </c>
-      <c r="C29" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -4471,10 +4484,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" t="s">
         <v>52</v>
-      </c>
-      <c r="C30" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -4482,10 +4495,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" t="s">
         <v>54</v>
-      </c>
-      <c r="C31" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -4493,10 +4506,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" t="s">
         <v>56</v>
-      </c>
-      <c r="C32" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -4504,10 +4517,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" t="s">
         <v>58</v>
-      </c>
-      <c r="C33" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -4515,10 +4528,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" t="s">
         <v>60</v>
-      </c>
-      <c r="C34" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -4526,10 +4539,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" t="s">
         <v>62</v>
-      </c>
-      <c r="C35" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -4537,10 +4550,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" t="s">
         <v>64</v>
-      </c>
-      <c r="C36" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -4548,10 +4561,10 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" t="s">
         <v>66</v>
-      </c>
-      <c r="C37" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -4559,10 +4572,10 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" t="s">
         <v>68</v>
-      </c>
-      <c r="C38" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -4570,10 +4583,10 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" t="s">
         <v>70</v>
-      </c>
-      <c r="C39" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -4581,10 +4594,10 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" t="s">
         <v>72</v>
-      </c>
-      <c r="C40" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -4592,10 +4605,10 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" t="s">
         <v>74</v>
-      </c>
-      <c r="C41" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -4603,10 +4616,10 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" t="s">
         <v>76</v>
-      </c>
-      <c r="C42" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -4614,10 +4627,10 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" t="s">
         <v>78</v>
-      </c>
-      <c r="C43" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -4625,10 +4638,10 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" t="s">
         <v>80</v>
-      </c>
-      <c r="C44" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -4636,10 +4649,10 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" t="s">
         <v>82</v>
-      </c>
-      <c r="C45" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -4647,10 +4660,10 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" t="s">
         <v>84</v>
-      </c>
-      <c r="C46" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -4658,10 +4671,10 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" t="s">
         <v>86</v>
-      </c>
-      <c r="C47" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -4669,10 +4682,10 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" t="s">
         <v>88</v>
-      </c>
-      <c r="C48" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -4680,10 +4693,10 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" t="s">
         <v>90</v>
-      </c>
-      <c r="C49" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -4691,10 +4704,10 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" t="s">
         <v>92</v>
-      </c>
-      <c r="C50" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -4702,10 +4715,10 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C51" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -4713,10 +4726,10 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" t="s">
         <v>95</v>
-      </c>
-      <c r="C52" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -4724,10 +4737,10 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C53" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -4735,10 +4748,10 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C54" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -4746,10 +4759,10 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" t="s">
         <v>99</v>
-      </c>
-      <c r="C55" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -4757,10 +4770,10 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" t="s">
         <v>101</v>
-      </c>
-      <c r="C56" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -4768,10 +4781,10 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
+        <v>102</v>
+      </c>
+      <c r="C57" t="s">
         <v>103</v>
-      </c>
-      <c r="C57" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -4779,10 +4792,10 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C58" t="s">
-        <v>1201</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -4790,10 +4803,10 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59" t="s">
         <v>106</v>
-      </c>
-      <c r="C59" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -4801,10 +4814,10 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" t="s">
         <v>108</v>
-      </c>
-      <c r="C60" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -4812,10 +4825,10 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" t="s">
         <v>110</v>
-      </c>
-      <c r="C61" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -4823,10 +4836,10 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" t="s">
         <v>112</v>
-      </c>
-      <c r="C62" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -4834,10 +4847,10 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
+        <v>113</v>
+      </c>
+      <c r="C63" t="s">
         <v>114</v>
-      </c>
-      <c r="C63" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -4845,10 +4858,10 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
+        <v>115</v>
+      </c>
+      <c r="C64" t="s">
         <v>116</v>
-      </c>
-      <c r="C64" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -4856,10 +4869,10 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
+        <v>117</v>
+      </c>
+      <c r="C65" t="s">
         <v>118</v>
-      </c>
-      <c r="C65" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -4867,10 +4880,10 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
+        <v>119</v>
+      </c>
+      <c r="C66" t="s">
         <v>120</v>
-      </c>
-      <c r="C66" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -4878,10 +4891,10 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
+        <v>121</v>
+      </c>
+      <c r="C67" t="s">
         <v>122</v>
-      </c>
-      <c r="C67" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -4889,10 +4902,10 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
+        <v>123</v>
+      </c>
+      <c r="C68" t="s">
         <v>124</v>
-      </c>
-      <c r="C68" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -4900,10 +4913,10 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
+        <v>125</v>
+      </c>
+      <c r="C69" t="s">
         <v>126</v>
-      </c>
-      <c r="C69" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -4911,10 +4924,10 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C70" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -4922,10 +4935,10 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>129</v>
+        <v>1201</v>
       </c>
       <c r="C71" t="s">
-        <v>130</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -4933,10 +4946,10 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C72" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -4944,10 +4957,10 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C73" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -4955,10 +4968,10 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C74" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -4966,10 +4979,10 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C75" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -4977,10 +4990,10 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C76" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -4988,10 +5001,10 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C77" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -4999,10 +5012,10 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C78" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -5010,10 +5023,10 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C79" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -5021,10 +5034,10 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C80" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -5032,10 +5045,10 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C81" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -5043,10 +5056,10 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C82" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -5054,10 +5067,10 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C83" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -5065,10 +5078,10 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C84" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -5076,10 +5089,10 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C85" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -5087,10 +5100,10 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C86" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -5098,10 +5111,10 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C87" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -5109,10 +5122,10 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C88" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -5120,10 +5133,10 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C89" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -5131,10 +5144,10 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C90" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -5142,10 +5155,10 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C91" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -5153,10 +5166,10 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C92" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -5164,10 +5177,10 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C93" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -5175,10 +5188,10 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C94" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -5186,10 +5199,10 @@
         <v>100</v>
       </c>
       <c r="B95" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C95" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -5197,10 +5210,10 @@
         <v>101</v>
       </c>
       <c r="B96" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C96" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -5208,10 +5221,10 @@
         <v>104</v>
       </c>
       <c r="B97" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C97" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -5219,10 +5232,10 @@
         <v>105</v>
       </c>
       <c r="B98" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C98" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -5230,10 +5243,10 @@
         <v>106</v>
       </c>
       <c r="B99" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C99" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -5241,10 +5254,10 @@
         <v>107</v>
       </c>
       <c r="B100" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C100" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -5252,10 +5265,10 @@
         <v>108</v>
       </c>
       <c r="B101" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C101" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -5263,10 +5276,10 @@
         <v>109</v>
       </c>
       <c r="B102" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C102" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -5274,10 +5287,10 @@
         <v>110</v>
       </c>
       <c r="B103" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C103" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -5285,10 +5298,10 @@
         <v>111</v>
       </c>
       <c r="B104" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C104" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -5296,10 +5309,10 @@
         <v>112</v>
       </c>
       <c r="B105" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C105" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -5307,10 +5320,10 @@
         <v>113</v>
       </c>
       <c r="B106" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C106" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -5318,10 +5331,10 @@
         <v>115</v>
       </c>
       <c r="B107" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C107" t="s">
-        <v>1200</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -5329,10 +5342,10 @@
         <v>116</v>
       </c>
       <c r="B108" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C108" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -5340,10 +5353,10 @@
         <v>117</v>
       </c>
       <c r="B109" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C109" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -5351,10 +5364,10 @@
         <v>118</v>
       </c>
       <c r="B110" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C110" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -5362,10 +5375,10 @@
         <v>119</v>
       </c>
       <c r="B111" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C111" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -5373,10 +5386,10 @@
         <v>120</v>
       </c>
       <c r="B112" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C112" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -5384,10 +5397,10 @@
         <v>121</v>
       </c>
       <c r="B113" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C113" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -5395,10 +5408,10 @@
         <v>122</v>
       </c>
       <c r="B114" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C114" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -5406,10 +5419,10 @@
         <v>123</v>
       </c>
       <c r="B115" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C115" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -5417,10 +5430,10 @@
         <v>124</v>
       </c>
       <c r="B116" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C116" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -5428,10 +5441,10 @@
         <v>125</v>
       </c>
       <c r="B117" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C117" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -5439,10 +5452,10 @@
         <v>126</v>
       </c>
       <c r="B118" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C118" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -5450,10 +5463,10 @@
         <v>127</v>
       </c>
       <c r="B119" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C119" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -5461,10 +5474,10 @@
         <v>128</v>
       </c>
       <c r="B120" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C120" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -5472,10 +5485,10 @@
         <v>129</v>
       </c>
       <c r="B121" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C121" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -5483,10 +5496,10 @@
         <v>130</v>
       </c>
       <c r="B122" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C122" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -5494,10 +5507,10 @@
         <v>131</v>
       </c>
       <c r="B123" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C123" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -5505,10 +5518,10 @@
         <v>132</v>
       </c>
       <c r="B124" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C124" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -5516,10 +5529,10 @@
         <v>133</v>
       </c>
       <c r="B125" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C125" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -5527,10 +5540,10 @@
         <v>134</v>
       </c>
       <c r="B126" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C126" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -5538,10 +5551,10 @@
         <v>135</v>
       </c>
       <c r="B127" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C127" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -5549,10 +5562,10 @@
         <v>136</v>
       </c>
       <c r="B128" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C128" t="s">
-        <v>238</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -5560,10 +5573,10 @@
         <v>137</v>
       </c>
       <c r="B129" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C129" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -5571,10 +5584,10 @@
         <v>138</v>
       </c>
       <c r="B130" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C130" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -5582,10 +5595,10 @@
         <v>139</v>
       </c>
       <c r="B131" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C131" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -5593,10 +5606,10 @@
         <v>140</v>
       </c>
       <c r="B132" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C132" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -5604,10 +5617,10 @@
         <v>141</v>
       </c>
       <c r="B133" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C133" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -5615,10 +5628,10 @@
         <v>142</v>
       </c>
       <c r="B134" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C134" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -5626,10 +5639,10 @@
         <v>143</v>
       </c>
       <c r="B135" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C135" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -5637,10 +5650,10 @@
         <v>144</v>
       </c>
       <c r="B136" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C136" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -5648,10 +5661,10 @@
         <v>145</v>
       </c>
       <c r="B137" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C137" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -5659,10 +5672,10 @@
         <v>146</v>
       </c>
       <c r="B138" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C138" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -5670,10 +5683,10 @@
         <v>147</v>
       </c>
       <c r="B139" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C139" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -5681,10 +5694,10 @@
         <v>148</v>
       </c>
       <c r="B140" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C140" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -5692,10 +5705,10 @@
         <v>149</v>
       </c>
       <c r="B141" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C141" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -5703,10 +5716,10 @@
         <v>150</v>
       </c>
       <c r="B142" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C142" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -5714,10 +5727,10 @@
         <v>151</v>
       </c>
       <c r="B143" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C143" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -5725,10 +5738,10 @@
         <v>152</v>
       </c>
       <c r="B144" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C144" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -5736,10 +5749,10 @@
         <v>153</v>
       </c>
       <c r="B145" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C145" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -5747,10 +5760,10 @@
         <v>154</v>
       </c>
       <c r="B146" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C146" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -5758,10 +5771,10 @@
         <v>155</v>
       </c>
       <c r="B147" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C147" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -5769,10 +5782,10 @@
         <v>156</v>
       </c>
       <c r="B148" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C148" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -5780,10 +5793,10 @@
         <v>157</v>
       </c>
       <c r="B149" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C149" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -5791,10 +5804,10 @@
         <v>158</v>
       </c>
       <c r="B150" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C150" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -5802,10 +5815,10 @@
         <v>159</v>
       </c>
       <c r="B151" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C151" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -5813,10 +5826,10 @@
         <v>160</v>
       </c>
       <c r="B152" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C152" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -5824,10 +5837,10 @@
         <v>161</v>
       </c>
       <c r="B153" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C153" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -5835,10 +5848,10 @@
         <v>162</v>
       </c>
       <c r="B154" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C154" t="s">
-        <v>288</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -5846,10 +5859,10 @@
         <v>163</v>
       </c>
       <c r="B155" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C155" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -5857,10 +5870,10 @@
         <v>164</v>
       </c>
       <c r="B156" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C156" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -5868,10 +5881,10 @@
         <v>165</v>
       </c>
       <c r="B157" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C157" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -5879,10 +5892,10 @@
         <v>166</v>
       </c>
       <c r="B158" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C158" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -5890,10 +5903,10 @@
         <v>167</v>
       </c>
       <c r="B159" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C159" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -5901,10 +5914,10 @@
         <v>168</v>
       </c>
       <c r="B160" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C160" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -5912,10 +5925,10 @@
         <v>169</v>
       </c>
       <c r="B161" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C161" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -5923,10 +5936,10 @@
         <v>170</v>
       </c>
       <c r="B162" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C162" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -5934,10 +5947,10 @@
         <v>171</v>
       </c>
       <c r="B163" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C163" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -5945,10 +5958,10 @@
         <v>172</v>
       </c>
       <c r="B164" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C164" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -5956,10 +5969,10 @@
         <v>173</v>
       </c>
       <c r="B165" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C165" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -5967,10 +5980,10 @@
         <v>174</v>
       </c>
       <c r="B166" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C166" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -5978,10 +5991,10 @@
         <v>175</v>
       </c>
       <c r="B167" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C167" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -5989,10 +6002,10 @@
         <v>176</v>
       </c>
       <c r="B168" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C168" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -6000,10 +6013,10 @@
         <v>177</v>
       </c>
       <c r="B169" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C169" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -6011,10 +6024,10 @@
         <v>178</v>
       </c>
       <c r="B170" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C170" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -6022,10 +6035,10 @@
         <v>179</v>
       </c>
       <c r="B171" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C171" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -6033,10 +6046,10 @@
         <v>180</v>
       </c>
       <c r="B172" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C172" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -6044,10 +6057,10 @@
         <v>181</v>
       </c>
       <c r="B173" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C173" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -6055,10 +6068,10 @@
         <v>182</v>
       </c>
       <c r="B174" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C174" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -6066,10 +6079,10 @@
         <v>183</v>
       </c>
       <c r="B175" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C175" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -6077,10 +6090,10 @@
         <v>184</v>
       </c>
       <c r="B176" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C176" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -6088,10 +6101,10 @@
         <v>185</v>
       </c>
       <c r="B177" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C177" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -6099,10 +6112,10 @@
         <v>186</v>
       </c>
       <c r="B178" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C178" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -6110,10 +6123,10 @@
         <v>187</v>
       </c>
       <c r="B179" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C179" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -6121,10 +6134,10 @@
         <v>188</v>
       </c>
       <c r="B180" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C180" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -6132,10 +6145,10 @@
         <v>189</v>
       </c>
       <c r="B181" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C181" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -6143,10 +6156,10 @@
         <v>190</v>
       </c>
       <c r="B182" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C182" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -6154,10 +6167,10 @@
         <v>191</v>
       </c>
       <c r="B183" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C183" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -6165,10 +6178,10 @@
         <v>192</v>
       </c>
       <c r="B184" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C184" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -6176,10 +6189,10 @@
         <v>193</v>
       </c>
       <c r="B185" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C185" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -6187,10 +6200,10 @@
         <v>194</v>
       </c>
       <c r="B186" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C186" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -6198,10 +6211,10 @@
         <v>195</v>
       </c>
       <c r="B187" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C187" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -6209,10 +6222,10 @@
         <v>196</v>
       </c>
       <c r="B188" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C188" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -6220,10 +6233,10 @@
         <v>197</v>
       </c>
       <c r="B189" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C189" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -6231,10 +6244,10 @@
         <v>198</v>
       </c>
       <c r="B190" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C190" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -6242,10 +6255,10 @@
         <v>199</v>
       </c>
       <c r="B191" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C191" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -6253,10 +6266,10 @@
         <v>200</v>
       </c>
       <c r="B192" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C192" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -6264,10 +6277,10 @@
         <v>201</v>
       </c>
       <c r="B193" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C193" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -6275,10 +6288,10 @@
         <v>202</v>
       </c>
       <c r="B194" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C194" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -6286,10 +6299,10 @@
         <v>203</v>
       </c>
       <c r="B195" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C195" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -6297,10 +6310,10 @@
         <v>204</v>
       </c>
       <c r="B196" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C196" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -6308,10 +6321,10 @@
         <v>205</v>
       </c>
       <c r="B197" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C197" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -6319,10 +6332,10 @@
         <v>206</v>
       </c>
       <c r="B198" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C198" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -6330,10 +6343,10 @@
         <v>207</v>
       </c>
       <c r="B199" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C199" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -6341,10 +6354,10 @@
         <v>208</v>
       </c>
       <c r="B200" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C200" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -6352,10 +6365,10 @@
         <v>209</v>
       </c>
       <c r="B201" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C201" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -6363,10 +6376,10 @@
         <v>210</v>
       </c>
       <c r="B202" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C202" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -6374,10 +6387,10 @@
         <v>211</v>
       </c>
       <c r="B203" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C203" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -6385,10 +6398,10 @@
         <v>212</v>
       </c>
       <c r="B204" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C204" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -6396,10 +6409,10 @@
         <v>213</v>
       </c>
       <c r="B205" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C205" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -6407,10 +6420,10 @@
         <v>214</v>
       </c>
       <c r="B206" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C206" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -6418,10 +6431,10 @@
         <v>215</v>
       </c>
       <c r="B207" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C207" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -6429,10 +6442,10 @@
         <v>217</v>
       </c>
       <c r="B208" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C208" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -6440,10 +6453,10 @@
         <v>218</v>
       </c>
       <c r="B209" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C209" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -6451,10 +6464,10 @@
         <v>219</v>
       </c>
       <c r="B210" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C210" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -6462,10 +6475,10 @@
         <v>220</v>
       </c>
       <c r="B211" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C211" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -6473,10 +6486,10 @@
         <v>221</v>
       </c>
       <c r="B212" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C212" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -6484,10 +6497,10 @@
         <v>222</v>
       </c>
       <c r="B213" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C213" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -6495,10 +6508,10 @@
         <v>223</v>
       </c>
       <c r="B214" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C214" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -6506,10 +6519,10 @@
         <v>224</v>
       </c>
       <c r="B215" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C215" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -6517,10 +6530,10 @@
         <v>225</v>
       </c>
       <c r="B216" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C216" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -6528,10 +6541,10 @@
         <v>226</v>
       </c>
       <c r="B217" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C217" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -6539,10 +6552,10 @@
         <v>227</v>
       </c>
       <c r="B218" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C218" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -6550,10 +6563,10 @@
         <v>228</v>
       </c>
       <c r="B219" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C219" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -6561,10 +6574,10 @@
         <v>229</v>
       </c>
       <c r="B220" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C220" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -6572,10 +6585,10 @@
         <v>230</v>
       </c>
       <c r="B221" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C221" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -6583,10 +6596,10 @@
         <v>231</v>
       </c>
       <c r="B222" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C222" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -6594,10 +6607,10 @@
         <v>232</v>
       </c>
       <c r="B223" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C223" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -6605,10 +6618,10 @@
         <v>233</v>
       </c>
       <c r="B224" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C224" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -6616,10 +6629,10 @@
         <v>234</v>
       </c>
       <c r="B225" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C225" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -6627,10 +6640,10 @@
         <v>235</v>
       </c>
       <c r="B226" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C226" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -6638,10 +6651,10 @@
         <v>236</v>
       </c>
       <c r="B227" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C227" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -6649,10 +6662,10 @@
         <v>237</v>
       </c>
       <c r="B228" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C228" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -6660,10 +6673,10 @@
         <v>238</v>
       </c>
       <c r="B229" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C229" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -6671,10 +6684,10 @@
         <v>239</v>
       </c>
       <c r="B230" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C230" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -6682,10 +6695,10 @@
         <v>240</v>
       </c>
       <c r="B231" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C231" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -6693,10 +6706,10 @@
         <v>241</v>
       </c>
       <c r="B232" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C232" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -6704,10 +6717,10 @@
         <v>242</v>
       </c>
       <c r="B233" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C233" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -6715,10 +6728,10 @@
         <v>243</v>
       </c>
       <c r="B234" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C234" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -6726,10 +6739,10 @@
         <v>244</v>
       </c>
       <c r="B235" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C235" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -6737,10 +6750,10 @@
         <v>245</v>
       </c>
       <c r="B236" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C236" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -6748,10 +6761,10 @@
         <v>246</v>
       </c>
       <c r="B237" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C237" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -6759,10 +6772,10 @@
         <v>247</v>
       </c>
       <c r="B238" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C238" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -6770,10 +6783,10 @@
         <v>248</v>
       </c>
       <c r="B239" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C239" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -6781,10 +6794,10 @@
         <v>249</v>
       </c>
       <c r="B240" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C240" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -6792,10 +6805,10 @@
         <v>250</v>
       </c>
       <c r="B241" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C241" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -6803,10 +6816,10 @@
         <v>251</v>
       </c>
       <c r="B242" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C242" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -6814,10 +6827,10 @@
         <v>252</v>
       </c>
       <c r="B243" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C243" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -6825,10 +6838,10 @@
         <v>253</v>
       </c>
       <c r="B244" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C244" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -6836,10 +6849,10 @@
         <v>254</v>
       </c>
       <c r="B245" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C245" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -6847,10 +6860,10 @@
         <v>255</v>
       </c>
       <c r="B246" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C246" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -6858,10 +6871,10 @@
         <v>256</v>
       </c>
       <c r="B247" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C247" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -6869,10 +6882,10 @@
         <v>257</v>
       </c>
       <c r="B248" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C248" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -6880,10 +6893,10 @@
         <v>258</v>
       </c>
       <c r="B249" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C249" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -6891,10 +6904,10 @@
         <v>259</v>
       </c>
       <c r="B250" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C250" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -6902,10 +6915,10 @@
         <v>260</v>
       </c>
       <c r="B251" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="C251" t="s">
-        <v>1196</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -6913,10 +6926,10 @@
         <v>261</v>
       </c>
       <c r="B252" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C252" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -6924,10 +6937,10 @@
         <v>262</v>
       </c>
       <c r="B253" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C253" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -6935,10 +6948,10 @@
         <v>263</v>
       </c>
       <c r="B254" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C254" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -6946,10 +6959,10 @@
         <v>264</v>
       </c>
       <c r="B255" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C255" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -6957,10 +6970,10 @@
         <v>265</v>
       </c>
       <c r="B256" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C256" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -6968,10 +6981,10 @@
         <v>266</v>
       </c>
       <c r="B257" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="C257" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -6979,10 +6992,10 @@
         <v>267</v>
       </c>
       <c r="B258" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C258" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -6990,10 +7003,10 @@
         <v>268</v>
       </c>
       <c r="B259" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C259" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -7001,10 +7014,10 @@
         <v>269</v>
       </c>
       <c r="B260" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="C260" t="s">
-        <v>1195</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -7012,10 +7025,10 @@
         <v>270</v>
       </c>
       <c r="B261" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C261" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -7023,10 +7036,10 @@
         <v>271</v>
       </c>
       <c r="B262" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C262" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -7034,10 +7047,10 @@
         <v>272</v>
       </c>
       <c r="B263" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="C263" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -7045,10 +7058,10 @@
         <v>274</v>
       </c>
       <c r="B264" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C264" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -7056,10 +7069,10 @@
         <v>275</v>
       </c>
       <c r="B265" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C265" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -7067,10 +7080,10 @@
         <v>276</v>
       </c>
       <c r="B266" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C266" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -7078,10 +7091,10 @@
         <v>277</v>
       </c>
       <c r="B267" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C267" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -7089,10 +7102,10 @@
         <v>278</v>
       </c>
       <c r="B268" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C268" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -7100,10 +7113,10 @@
         <v>279</v>
       </c>
       <c r="B269" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C269" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -7111,10 +7124,10 @@
         <v>280</v>
       </c>
       <c r="B270" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C270" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -7122,10 +7135,10 @@
         <v>281</v>
       </c>
       <c r="B271" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C271" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -7133,10 +7146,10 @@
         <v>282</v>
       </c>
       <c r="B272" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C272" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -7144,10 +7157,10 @@
         <v>283</v>
       </c>
       <c r="B273" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="C273" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -7155,10 +7168,10 @@
         <v>284</v>
       </c>
       <c r="B274" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C274" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -7166,10 +7179,10 @@
         <v>285</v>
       </c>
       <c r="B275" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C275" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -7177,10 +7190,10 @@
         <v>286</v>
       </c>
       <c r="B276" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C276" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -7188,10 +7201,10 @@
         <v>287</v>
       </c>
       <c r="B277" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C277" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -7199,10 +7212,10 @@
         <v>288</v>
       </c>
       <c r="B278" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C278" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -7210,10 +7223,10 @@
         <v>289</v>
       </c>
       <c r="B279" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C279" t="s">
-        <v>1193</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -7221,10 +7234,10 @@
         <v>290</v>
       </c>
       <c r="B280" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C280" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -7232,10 +7245,10 @@
         <v>291</v>
       </c>
       <c r="B281" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="C281" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -7243,10 +7256,10 @@
         <v>292</v>
       </c>
       <c r="B282" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C282" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -7254,10 +7267,10 @@
         <v>293</v>
       </c>
       <c r="B283" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C283" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -7265,10 +7278,10 @@
         <v>294</v>
       </c>
       <c r="B284" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C284" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -7276,10 +7289,10 @@
         <v>295</v>
       </c>
       <c r="B285" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C285" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -7287,10 +7300,10 @@
         <v>296</v>
       </c>
       <c r="B286" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="C286" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -7298,10 +7311,10 @@
         <v>297</v>
       </c>
       <c r="B287" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="C287" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -7309,10 +7322,10 @@
         <v>298</v>
       </c>
       <c r="B288" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="C288" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -7320,10 +7333,10 @@
         <v>299</v>
       </c>
       <c r="B289" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C289" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -7331,10 +7344,10 @@
         <v>300</v>
       </c>
       <c r="B290" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C290" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -7342,10 +7355,10 @@
         <v>301</v>
       </c>
       <c r="B291" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C291" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -7353,10 +7366,10 @@
         <v>302</v>
       </c>
       <c r="B292" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="C292" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -7364,10 +7377,10 @@
         <v>303</v>
       </c>
       <c r="B293" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C293" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -7375,10 +7388,10 @@
         <v>304</v>
       </c>
       <c r="B294" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="C294" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -7386,10 +7399,10 @@
         <v>305</v>
       </c>
       <c r="B295" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="C295" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -7397,10 +7410,10 @@
         <v>306</v>
       </c>
       <c r="B296" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C296" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -7408,10 +7421,10 @@
         <v>307</v>
       </c>
       <c r="B297" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C297" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -7419,10 +7432,10 @@
         <v>308</v>
       </c>
       <c r="B298" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="C298" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
@@ -7430,10 +7443,10 @@
         <v>309</v>
       </c>
       <c r="B299" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="C299" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
@@ -7441,10 +7454,10 @@
         <v>310</v>
       </c>
       <c r="B300" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="C300" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -7452,10 +7465,10 @@
         <v>311</v>
       </c>
       <c r="B301" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="C301" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -7463,10 +7476,10 @@
         <v>312</v>
       </c>
       <c r="B302" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="C302" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -7474,10 +7487,10 @@
         <v>313</v>
       </c>
       <c r="B303" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="C303" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -7485,10 +7498,10 @@
         <v>314</v>
       </c>
       <c r="B304" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="C304" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -7496,10 +7509,10 @@
         <v>315</v>
       </c>
       <c r="B305" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C305" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -7507,10 +7520,10 @@
         <v>316</v>
       </c>
       <c r="B306" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="C306" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -7518,10 +7531,10 @@
         <v>317</v>
       </c>
       <c r="B307" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="C307" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -7529,10 +7542,10 @@
         <v>318</v>
       </c>
       <c r="B308" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="C308" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -7540,10 +7553,10 @@
         <v>319</v>
       </c>
       <c r="B309" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="C309" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -7551,10 +7564,10 @@
         <v>320</v>
       </c>
       <c r="B310" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C310" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -7562,10 +7575,10 @@
         <v>321</v>
       </c>
       <c r="B311" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="C311" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -7573,10 +7586,10 @@
         <v>322</v>
       </c>
       <c r="B312" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="C312" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -7584,10 +7597,10 @@
         <v>323</v>
       </c>
       <c r="B313" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="C313" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -7595,10 +7608,10 @@
         <v>324</v>
       </c>
       <c r="B314" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="C314" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -7606,10 +7619,10 @@
         <v>325</v>
       </c>
       <c r="B315" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C315" t="s">
-        <v>1192</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -7617,10 +7630,10 @@
         <v>326</v>
       </c>
       <c r="B316" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="C316" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -7628,10 +7641,10 @@
         <v>327</v>
       </c>
       <c r="B317" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="C317" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -7639,10 +7652,10 @@
         <v>328</v>
       </c>
       <c r="B318" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="C318" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -7650,10 +7663,10 @@
         <v>329</v>
       </c>
       <c r="B319" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="C319" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -7661,10 +7674,10 @@
         <v>330</v>
       </c>
       <c r="B320" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="C320" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -7672,10 +7685,10 @@
         <v>331</v>
       </c>
       <c r="B321" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="C321" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -7683,10 +7696,10 @@
         <v>332</v>
       </c>
       <c r="B322" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="C322" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -7694,10 +7707,10 @@
         <v>333</v>
       </c>
       <c r="B323" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="C323" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -7705,10 +7718,10 @@
         <v>334</v>
       </c>
       <c r="B324" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="C324" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -7716,10 +7729,10 @@
         <v>335</v>
       </c>
       <c r="B325" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="C325" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -7727,10 +7740,10 @@
         <v>336</v>
       </c>
       <c r="B326" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="C326" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -7738,10 +7751,10 @@
         <v>337</v>
       </c>
       <c r="B327" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="C327" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -7749,10 +7762,10 @@
         <v>338</v>
       </c>
       <c r="B328" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C328" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -7760,10 +7773,10 @@
         <v>339</v>
       </c>
       <c r="B329" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="C329" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -7771,10 +7784,10 @@
         <v>340</v>
       </c>
       <c r="B330" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="C330" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -7782,10 +7795,10 @@
         <v>341</v>
       </c>
       <c r="B331" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="C331" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -7793,10 +7806,10 @@
         <v>342</v>
       </c>
       <c r="B332" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="C332" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -7804,10 +7817,10 @@
         <v>343</v>
       </c>
       <c r="B333" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="C333" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -7815,10 +7828,10 @@
         <v>344</v>
       </c>
       <c r="B334" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="C334" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -7826,10 +7839,10 @@
         <v>345</v>
       </c>
       <c r="B335" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="C335" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -7837,10 +7850,10 @@
         <v>346</v>
       </c>
       <c r="B336" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="C336" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
@@ -7848,10 +7861,10 @@
         <v>347</v>
       </c>
       <c r="B337" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="C337" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -7859,10 +7872,10 @@
         <v>348</v>
       </c>
       <c r="B338" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="C338" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -7870,10 +7883,10 @@
         <v>349</v>
       </c>
       <c r="B339" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="C339" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -7881,10 +7894,10 @@
         <v>350</v>
       </c>
       <c r="B340" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="C340" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
@@ -7892,10 +7905,10 @@
         <v>351</v>
       </c>
       <c r="B341" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="C341" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -7903,10 +7916,10 @@
         <v>352</v>
       </c>
       <c r="B342" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="C342" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -7914,10 +7927,10 @@
         <v>353</v>
       </c>
       <c r="B343" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="C343" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -7925,10 +7938,10 @@
         <v>354</v>
       </c>
       <c r="B344" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="C344" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -7936,10 +7949,10 @@
         <v>355</v>
       </c>
       <c r="B345" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="C345" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -7947,10 +7960,10 @@
         <v>356</v>
       </c>
       <c r="B346" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="C346" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -7958,10 +7971,10 @@
         <v>357</v>
       </c>
       <c r="B347" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="C347" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -7969,10 +7982,10 @@
         <v>358</v>
       </c>
       <c r="B348" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="C348" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -7980,10 +7993,10 @@
         <v>359</v>
       </c>
       <c r="B349" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="C349" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -7991,10 +8004,10 @@
         <v>360</v>
       </c>
       <c r="B350" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="C350" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -8002,10 +8015,10 @@
         <v>361</v>
       </c>
       <c r="B351" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="C351" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -8013,10 +8026,10 @@
         <v>362</v>
       </c>
       <c r="B352" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="C352" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
@@ -8024,10 +8037,10 @@
         <v>363</v>
       </c>
       <c r="B353" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="C353" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -8035,10 +8048,10 @@
         <v>364</v>
       </c>
       <c r="B354" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="C354" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
@@ -8046,10 +8059,10 @@
         <v>365</v>
       </c>
       <c r="B355" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="C355" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
@@ -8057,10 +8070,10 @@
         <v>366</v>
       </c>
       <c r="B356" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="C356" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
@@ -8068,10 +8081,10 @@
         <v>367</v>
       </c>
       <c r="B357" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="C357" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
@@ -8079,10 +8092,10 @@
         <v>368</v>
       </c>
       <c r="B358" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="C358" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
@@ -8090,10 +8103,10 @@
         <v>369</v>
       </c>
       <c r="B359" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="C359" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
@@ -8101,10 +8114,10 @@
         <v>370</v>
       </c>
       <c r="B360" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="C360" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
@@ -8112,10 +8125,10 @@
         <v>371</v>
       </c>
       <c r="B361" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="C361" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
@@ -8123,10 +8136,10 @@
         <v>372</v>
       </c>
       <c r="B362" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="C362" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
@@ -8134,10 +8147,10 @@
         <v>373</v>
       </c>
       <c r="B363" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="C363" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
@@ -8145,10 +8158,10 @@
         <v>374</v>
       </c>
       <c r="B364" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="C364" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
@@ -8156,10 +8169,10 @@
         <v>375</v>
       </c>
       <c r="B365" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="C365" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
@@ -8167,10 +8180,10 @@
         <v>376</v>
       </c>
       <c r="B366" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="C366" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
@@ -8178,10 +8191,10 @@
         <v>377</v>
       </c>
       <c r="B367" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="C367" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
@@ -8189,10 +8202,10 @@
         <v>378</v>
       </c>
       <c r="B368" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="C368" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -8200,10 +8213,10 @@
         <v>379</v>
       </c>
       <c r="B369" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="C369" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
@@ -8211,10 +8224,10 @@
         <v>380</v>
       </c>
       <c r="B370" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="C370" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
@@ -8222,10 +8235,10 @@
         <v>381</v>
       </c>
       <c r="B371" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="C371" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -8233,10 +8246,10 @@
         <v>382</v>
       </c>
       <c r="B372" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="C372" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -8244,10 +8257,10 @@
         <v>383</v>
       </c>
       <c r="B373" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="C373" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
@@ -8255,10 +8268,10 @@
         <v>384</v>
       </c>
       <c r="B374" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="C374" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -8266,10 +8279,10 @@
         <v>385</v>
       </c>
       <c r="B375" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="C375" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -8277,10 +8290,10 @@
         <v>386</v>
       </c>
       <c r="B376" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="C376" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
@@ -8288,10 +8301,10 @@
         <v>387</v>
       </c>
       <c r="B377" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="C377" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
@@ -8299,10 +8312,10 @@
         <v>388</v>
       </c>
       <c r="B378" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="C378" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
@@ -8310,10 +8323,10 @@
         <v>389</v>
       </c>
       <c r="B379" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="C379" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -8321,10 +8334,10 @@
         <v>390</v>
       </c>
       <c r="B380" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="C380" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -8332,10 +8345,10 @@
         <v>391</v>
       </c>
       <c r="B381" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="C381" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -8343,10 +8356,10 @@
         <v>392</v>
       </c>
       <c r="B382" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="C382" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
@@ -8354,10 +8367,10 @@
         <v>393</v>
       </c>
       <c r="B383" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="C383" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -8365,10 +8378,10 @@
         <v>394</v>
       </c>
       <c r="B384" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="C384" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
@@ -8376,10 +8389,10 @@
         <v>395</v>
       </c>
       <c r="B385" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="C385" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
@@ -8387,10 +8400,10 @@
         <v>396</v>
       </c>
       <c r="B386" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="C386" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
@@ -8398,10 +8411,10 @@
         <v>397</v>
       </c>
       <c r="B387" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="C387" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -8409,10 +8422,10 @@
         <v>398</v>
       </c>
       <c r="B388" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C388" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -8420,10 +8433,10 @@
         <v>399</v>
       </c>
       <c r="B389" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="C389" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -8431,10 +8444,10 @@
         <v>400</v>
       </c>
       <c r="B390" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="C390" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
@@ -8442,10 +8455,10 @@
         <v>401</v>
       </c>
       <c r="B391" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="C391" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
@@ -8453,10 +8466,10 @@
         <v>402</v>
       </c>
       <c r="B392" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C392" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
@@ -8464,10 +8477,10 @@
         <v>403</v>
       </c>
       <c r="B393" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="C393" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -8475,10 +8488,10 @@
         <v>404</v>
       </c>
       <c r="B394" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="C394" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -8486,10 +8499,10 @@
         <v>405</v>
       </c>
       <c r="B395" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="C395" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
@@ -8497,10 +8510,10 @@
         <v>406</v>
       </c>
       <c r="B396" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="C396" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -8508,10 +8521,10 @@
         <v>407</v>
       </c>
       <c r="B397" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="C397" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -8519,10 +8532,10 @@
         <v>408</v>
       </c>
       <c r="B398" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="C398" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -8530,10 +8543,10 @@
         <v>409</v>
       </c>
       <c r="B399" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="C399" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -8541,10 +8554,10 @@
         <v>410</v>
       </c>
       <c r="B400" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="C400" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
@@ -8552,10 +8565,10 @@
         <v>411</v>
       </c>
       <c r="B401" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="C401" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
@@ -8563,10 +8576,10 @@
         <v>412</v>
       </c>
       <c r="B402" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="C402" t="s">
-        <v>1191</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
@@ -8574,10 +8587,10 @@
         <v>413</v>
       </c>
       <c r="B403" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="C403" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
@@ -8585,10 +8598,10 @@
         <v>414</v>
       </c>
       <c r="B404" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="C404" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
@@ -8596,10 +8609,10 @@
         <v>415</v>
       </c>
       <c r="B405" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="C405" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
@@ -8607,10 +8620,10 @@
         <v>416</v>
       </c>
       <c r="B406" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="C406" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
@@ -8618,7 +8631,7 @@
         <v>417</v>
       </c>
       <c r="B407" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
@@ -8626,10 +8639,10 @@
         <v>418</v>
       </c>
       <c r="B408" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="C408" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
@@ -8637,10 +8650,10 @@
         <v>419</v>
       </c>
       <c r="B409" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="C409" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
@@ -8648,10 +8661,10 @@
         <v>420</v>
       </c>
       <c r="B410" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="C410" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
@@ -8659,10 +8672,10 @@
         <v>421</v>
       </c>
       <c r="B411" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="C411" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
@@ -8670,10 +8683,10 @@
         <v>422</v>
       </c>
       <c r="B412" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="C412" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
@@ -8681,10 +8694,10 @@
         <v>423</v>
       </c>
       <c r="B413" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="C413" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
@@ -8692,10 +8705,10 @@
         <v>424</v>
       </c>
       <c r="B414" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="C414" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
@@ -8703,10 +8716,10 @@
         <v>425</v>
       </c>
       <c r="B415" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="C415" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
@@ -8714,10 +8727,10 @@
         <v>426</v>
       </c>
       <c r="B416" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="C416" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
@@ -8725,10 +8738,10 @@
         <v>427</v>
       </c>
       <c r="B417" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="C417" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
@@ -8736,10 +8749,10 @@
         <v>428</v>
       </c>
       <c r="B418" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="C418" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
@@ -8747,10 +8760,10 @@
         <v>429</v>
       </c>
       <c r="B419" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="C419" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
@@ -8758,10 +8771,10 @@
         <v>430</v>
       </c>
       <c r="B420" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C420" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
@@ -8769,10 +8782,10 @@
         <v>431</v>
       </c>
       <c r="B421" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="C421" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
@@ -8780,10 +8793,10 @@
         <v>432</v>
       </c>
       <c r="B422" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="C422" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
@@ -8791,10 +8804,10 @@
         <v>433</v>
       </c>
       <c r="B423" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="C423" t="s">
-        <v>1190</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
@@ -8802,10 +8815,10 @@
         <v>434</v>
       </c>
       <c r="B424" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="C424" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
@@ -8813,10 +8826,10 @@
         <v>435</v>
       </c>
       <c r="B425" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="C425" t="s">
-        <v>1189</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
@@ -8824,10 +8837,10 @@
         <v>436</v>
       </c>
       <c r="B426" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="C426" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
@@ -8835,10 +8848,10 @@
         <v>437</v>
       </c>
       <c r="B427" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="C427" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
@@ -8846,10 +8859,10 @@
         <v>438</v>
       </c>
       <c r="B428" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="C428" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
@@ -8857,10 +8870,10 @@
         <v>439</v>
       </c>
       <c r="B429" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="C429" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
@@ -8868,10 +8881,10 @@
         <v>440</v>
       </c>
       <c r="B430" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="C430" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
@@ -8879,10 +8892,10 @@
         <v>441</v>
       </c>
       <c r="B431" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="C431" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
@@ -8890,10 +8903,10 @@
         <v>442</v>
       </c>
       <c r="B432" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="C432" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
@@ -8901,10 +8914,10 @@
         <v>443</v>
       </c>
       <c r="B433" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="C433" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
@@ -8912,10 +8925,10 @@
         <v>444</v>
       </c>
       <c r="B434" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="C434" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
@@ -8923,10 +8936,10 @@
         <v>445</v>
       </c>
       <c r="B435" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="C435" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
@@ -8934,10 +8947,10 @@
         <v>446</v>
       </c>
       <c r="B436" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="C436" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
@@ -8945,10 +8958,10 @@
         <v>447</v>
       </c>
       <c r="B437" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="C437" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
@@ -8956,10 +8969,10 @@
         <v>448</v>
       </c>
       <c r="B438" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="C438" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
@@ -8967,10 +8980,10 @@
         <v>449</v>
       </c>
       <c r="B439" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="C439" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
@@ -8978,10 +8991,10 @@
         <v>450</v>
       </c>
       <c r="B440" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="C440" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
@@ -8989,10 +9002,10 @@
         <v>451</v>
       </c>
       <c r="B441" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="C441" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
@@ -9000,10 +9013,10 @@
         <v>452</v>
       </c>
       <c r="B442" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="C442" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
@@ -9011,10 +9024,10 @@
         <v>453</v>
       </c>
       <c r="B443" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="C443" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
@@ -9022,10 +9035,10 @@
         <v>455</v>
       </c>
       <c r="B444" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="C444" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
@@ -9033,10 +9046,10 @@
         <v>456</v>
       </c>
       <c r="B445" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="C445" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
@@ -9044,10 +9057,10 @@
         <v>457</v>
       </c>
       <c r="B446" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="C446" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
@@ -9055,10 +9068,10 @@
         <v>458</v>
       </c>
       <c r="B447" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="C447" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
@@ -9066,10 +9079,10 @@
         <v>459</v>
       </c>
       <c r="B448" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="C448" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
@@ -9077,10 +9090,10 @@
         <v>460</v>
       </c>
       <c r="B449" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="C449" t="s">
-        <v>1181</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
@@ -9088,10 +9101,10 @@
         <v>461</v>
       </c>
       <c r="B450" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="C450" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
@@ -9099,10 +9112,10 @@
         <v>462</v>
       </c>
       <c r="B451" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="C451" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
@@ -9110,10 +9123,10 @@
         <v>463</v>
       </c>
       <c r="B452" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="C452" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
@@ -9121,10 +9134,10 @@
         <v>464</v>
       </c>
       <c r="B453" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="C453" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
@@ -9132,10 +9145,10 @@
         <v>465</v>
       </c>
       <c r="B454" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="C454" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
@@ -9143,10 +9156,10 @@
         <v>466</v>
       </c>
       <c r="B455" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="C455" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
@@ -9154,10 +9167,10 @@
         <v>467</v>
       </c>
       <c r="B456" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="C456" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
@@ -9165,10 +9178,10 @@
         <v>468</v>
       </c>
       <c r="B457" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="C457" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
@@ -9176,10 +9189,10 @@
         <v>469</v>
       </c>
       <c r="B458" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="C458" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
@@ -9187,10 +9200,10 @@
         <v>470</v>
       </c>
       <c r="B459" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="C459" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
@@ -9198,7 +9211,7 @@
         <v>471</v>
       </c>
       <c r="B460" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
@@ -9206,10 +9219,10 @@
         <v>472</v>
       </c>
       <c r="B461" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="C461" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
@@ -9217,10 +9230,10 @@
         <v>473</v>
       </c>
       <c r="B462" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="C462" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
@@ -9228,10 +9241,10 @@
         <v>474</v>
       </c>
       <c r="B463" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="C463" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
@@ -9239,10 +9252,10 @@
         <v>475</v>
       </c>
       <c r="B464" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="C464" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
@@ -9250,10 +9263,10 @@
         <v>476</v>
       </c>
       <c r="B465" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="C465" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
@@ -9261,10 +9274,10 @@
         <v>477</v>
       </c>
       <c r="B466" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="C466" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
@@ -9272,10 +9285,10 @@
         <v>478</v>
       </c>
       <c r="B467" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="C467" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
@@ -9283,10 +9296,10 @@
         <v>479</v>
       </c>
       <c r="B468" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="C468" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
@@ -9294,10 +9307,10 @@
         <v>480</v>
       </c>
       <c r="B469" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="C469" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
@@ -9305,10 +9318,10 @@
         <v>481</v>
       </c>
       <c r="B470" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="C470" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
@@ -9316,10 +9329,10 @@
         <v>482</v>
       </c>
       <c r="B471" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="C471" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
@@ -9327,10 +9340,10 @@
         <v>483</v>
       </c>
       <c r="B472" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="C472" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
@@ -9338,10 +9351,10 @@
         <v>484</v>
       </c>
       <c r="B473" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="C473" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
@@ -9349,10 +9362,10 @@
         <v>485</v>
       </c>
       <c r="B474" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="C474" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
@@ -9360,10 +9373,10 @@
         <v>486</v>
       </c>
       <c r="B475" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="C475" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
@@ -9371,10 +9384,10 @@
         <v>487</v>
       </c>
       <c r="B476" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="C476" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
@@ -9382,10 +9395,10 @@
         <v>488</v>
       </c>
       <c r="B477" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="C477" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
@@ -9393,10 +9406,10 @@
         <v>489</v>
       </c>
       <c r="B478" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="C478" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
@@ -9404,10 +9417,10 @@
         <v>490</v>
       </c>
       <c r="B479" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="C479" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
@@ -9415,10 +9428,10 @@
         <v>491</v>
       </c>
       <c r="B480" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="C480" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
@@ -9426,10 +9439,10 @@
         <v>492</v>
       </c>
       <c r="B481" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="C481" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
@@ -9437,10 +9450,10 @@
         <v>493</v>
       </c>
       <c r="B482" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="C482" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
@@ -9448,10 +9461,10 @@
         <v>494</v>
       </c>
       <c r="B483" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="C483" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
@@ -9459,10 +9472,10 @@
         <v>496</v>
       </c>
       <c r="B484" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="C484" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
@@ -9470,10 +9483,10 @@
         <v>497</v>
       </c>
       <c r="B485" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="C485" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
@@ -9481,10 +9494,10 @@
         <v>498</v>
       </c>
       <c r="B486" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="C486" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
@@ -9492,10 +9505,10 @@
         <v>499</v>
       </c>
       <c r="B487" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="C487" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
@@ -9503,10 +9516,10 @@
         <v>500</v>
       </c>
       <c r="B488" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="C488" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
@@ -9514,10 +9527,10 @@
         <v>501</v>
       </c>
       <c r="B489" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="C489" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
@@ -9525,10 +9538,10 @@
         <v>502</v>
       </c>
       <c r="B490" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="C490" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
@@ -9536,10 +9549,10 @@
         <v>503</v>
       </c>
       <c r="B491" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="C491" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
@@ -9547,10 +9560,10 @@
         <v>504</v>
       </c>
       <c r="B492" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="C492" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
@@ -9558,10 +9571,10 @@
         <v>505</v>
       </c>
       <c r="B493" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="C493" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
@@ -9569,10 +9582,10 @@
         <v>506</v>
       </c>
       <c r="B494" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="C494" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
@@ -9580,10 +9593,10 @@
         <v>507</v>
       </c>
       <c r="B495" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="C495" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
@@ -9591,10 +9604,10 @@
         <v>508</v>
       </c>
       <c r="B496" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="C496" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
@@ -9602,10 +9615,10 @@
         <v>509</v>
       </c>
       <c r="B497" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="C497" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
@@ -9613,10 +9626,10 @@
         <v>510</v>
       </c>
       <c r="B498" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="C498" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
@@ -9624,7 +9637,7 @@
         <v>511</v>
       </c>
       <c r="B499" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
@@ -9632,10 +9645,10 @@
         <v>512</v>
       </c>
       <c r="B500" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="C500" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
@@ -9643,10 +9656,10 @@
         <v>513</v>
       </c>
       <c r="B501" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="C501" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
@@ -9654,10 +9667,10 @@
         <v>514</v>
       </c>
       <c r="B502" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="C502" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
@@ -9665,10 +9678,10 @@
         <v>515</v>
       </c>
       <c r="B503" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
       <c r="C503" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
@@ -9676,10 +9689,10 @@
         <v>516</v>
       </c>
       <c r="B504" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="C504" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
@@ -9687,7 +9700,7 @@
         <v>517</v>
       </c>
       <c r="B505" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
@@ -9695,10 +9708,10 @@
         <v>518</v>
       </c>
       <c r="B506" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="C506" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
@@ -9706,10 +9719,10 @@
         <v>519</v>
       </c>
       <c r="B507" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="C507" t="s">
-        <v>1185</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
@@ -9717,10 +9730,10 @@
         <v>520</v>
       </c>
       <c r="B508" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="C508" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
@@ -9728,10 +9741,10 @@
         <v>521</v>
       </c>
       <c r="B509" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="C509" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
@@ -9739,10 +9752,10 @@
         <v>522</v>
       </c>
       <c r="B510" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="C510" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
@@ -9750,10 +9763,10 @@
         <v>523</v>
       </c>
       <c r="B511" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="C511" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
@@ -9761,10 +9774,10 @@
         <v>524</v>
       </c>
       <c r="B512" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="C512" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
@@ -9772,10 +9785,10 @@
         <v>525</v>
       </c>
       <c r="B513" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="C513" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
@@ -9783,10 +9796,10 @@
         <v>526</v>
       </c>
       <c r="B514" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="C514" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
@@ -9794,10 +9807,10 @@
         <v>527</v>
       </c>
       <c r="B515" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="C515" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
@@ -9805,10 +9818,10 @@
         <v>528</v>
       </c>
       <c r="B516" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="C516" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
@@ -9816,10 +9829,10 @@
         <v>529</v>
       </c>
       <c r="B517" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="C517" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
@@ -9827,7 +9840,7 @@
         <v>530</v>
       </c>
       <c r="B518" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
@@ -9835,10 +9848,10 @@
         <v>531</v>
       </c>
       <c r="B519" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="C519" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
@@ -9846,10 +9859,10 @@
         <v>532</v>
       </c>
       <c r="B520" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="C520" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
@@ -9857,10 +9870,10 @@
         <v>533</v>
       </c>
       <c r="B521" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="C521" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
@@ -9868,10 +9881,10 @@
         <v>534</v>
       </c>
       <c r="B522" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="C522" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
@@ -9879,10 +9892,10 @@
         <v>535</v>
       </c>
       <c r="B523" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="C523" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
@@ -9890,10 +9903,10 @@
         <v>536</v>
       </c>
       <c r="B524" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="C524" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
@@ -9901,10 +9914,10 @@
         <v>537</v>
       </c>
       <c r="B525" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="C525" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
@@ -9912,10 +9925,10 @@
         <v>538</v>
       </c>
       <c r="B526" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="C526" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
@@ -9923,10 +9936,10 @@
         <v>539</v>
       </c>
       <c r="B527" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="C527" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
@@ -9934,10 +9947,10 @@
         <v>540</v>
       </c>
       <c r="B528" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="C528" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
@@ -9945,10 +9958,10 @@
         <v>542</v>
       </c>
       <c r="B529" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="C529" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
@@ -9956,10 +9969,10 @@
         <v>543</v>
       </c>
       <c r="B530" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="C530" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
@@ -9967,10 +9980,10 @@
         <v>545</v>
       </c>
       <c r="B531" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="C531" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
@@ -9978,10 +9991,10 @@
         <v>546</v>
       </c>
       <c r="B532" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="C532" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.25">
@@ -9989,10 +10002,10 @@
         <v>547</v>
       </c>
       <c r="B533" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="C533" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
@@ -10000,10 +10013,10 @@
         <v>548</v>
       </c>
       <c r="B534" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="C534" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.25">
@@ -10011,10 +10024,10 @@
         <v>549</v>
       </c>
       <c r="B535" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="C535" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.25">
@@ -10022,10 +10035,10 @@
         <v>550</v>
       </c>
       <c r="B536" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="C536" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.25">
@@ -10033,7 +10046,7 @@
         <v>551</v>
       </c>
       <c r="B537" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
@@ -10041,10 +10054,10 @@
         <v>552</v>
       </c>
       <c r="B538" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="C538" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.25">
@@ -10052,10 +10065,10 @@
         <v>553</v>
       </c>
       <c r="B539" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="C539" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.25">
@@ -10063,10 +10076,10 @@
         <v>554</v>
       </c>
       <c r="B540" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="C540" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.25">
@@ -10074,10 +10087,10 @@
         <v>555</v>
       </c>
       <c r="B541" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="C541" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.25">
@@ -10085,10 +10098,10 @@
         <v>556</v>
       </c>
       <c r="B542" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="C542" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.25">
@@ -10096,10 +10109,10 @@
         <v>557</v>
       </c>
       <c r="B543" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="C543" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.25">
@@ -10107,10 +10120,10 @@
         <v>558</v>
       </c>
       <c r="B544" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="C544" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.25">
@@ -10118,10 +10131,10 @@
         <v>559</v>
       </c>
       <c r="B545" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="C545" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.25">
@@ -10129,10 +10142,10 @@
         <v>562</v>
       </c>
       <c r="B546" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="C546" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.25">
@@ -10140,7 +10153,7 @@
         <v>563</v>
       </c>
       <c r="B547" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.25">
@@ -10148,10 +10161,10 @@
         <v>564</v>
       </c>
       <c r="B548" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="C548" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.25">
@@ -10159,10 +10172,10 @@
         <v>565</v>
       </c>
       <c r="B549" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="C549" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.25">
@@ -10170,10 +10183,10 @@
         <v>566</v>
       </c>
       <c r="B550" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="C550" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.25">
@@ -10181,10 +10194,10 @@
         <v>567</v>
       </c>
       <c r="B551" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="C551" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.25">
@@ -10192,10 +10205,10 @@
         <v>568</v>
       </c>
       <c r="B552" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="C552" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.25">
@@ -10203,10 +10216,10 @@
         <v>569</v>
       </c>
       <c r="B553" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="C553" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.25">
@@ -10214,10 +10227,10 @@
         <v>570</v>
       </c>
       <c r="B554" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="C554" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.25">
@@ -10225,10 +10238,10 @@
         <v>571</v>
       </c>
       <c r="B555" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="C555" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.25">
@@ -10236,7 +10249,7 @@
         <v>572</v>
       </c>
       <c r="B556" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.25">
@@ -10244,10 +10257,10 @@
         <v>577</v>
       </c>
       <c r="B557" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="C557" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.25">
@@ -10255,10 +10268,10 @@
         <v>578</v>
       </c>
       <c r="B558" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="C558" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.25">
@@ -10266,7 +10279,7 @@
         <v>579</v>
       </c>
       <c r="B559" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.25">
@@ -10274,10 +10287,10 @@
         <v>580</v>
       </c>
       <c r="B560" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="C560" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.25">
@@ -10285,10 +10298,10 @@
         <v>581</v>
       </c>
       <c r="B561" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="C561" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.25">
@@ -10296,10 +10309,10 @@
         <v>582</v>
       </c>
       <c r="B562" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="C562" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.25">
@@ -10307,10 +10320,10 @@
         <v>583</v>
       </c>
       <c r="B563" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="C563" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.25">
@@ -10318,10 +10331,10 @@
         <v>584</v>
       </c>
       <c r="B564" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="C564" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.25">
@@ -10329,7 +10342,7 @@
         <v>585</v>
       </c>
       <c r="B565" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.25">
@@ -10337,10 +10350,10 @@
         <v>586</v>
       </c>
       <c r="B566" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
       <c r="C566" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.25">
@@ -10348,10 +10361,10 @@
         <v>587</v>
       </c>
       <c r="B567" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="C567" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.25">
@@ -10359,10 +10372,10 @@
         <v>588</v>
       </c>
       <c r="B568" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="C568" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.25">
@@ -10370,10 +10383,10 @@
         <v>589</v>
       </c>
       <c r="B569" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="C569" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.25">
@@ -10381,10 +10394,10 @@
         <v>590</v>
       </c>
       <c r="B570" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="C570" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.25">
@@ -10392,10 +10405,10 @@
         <v>591</v>
       </c>
       <c r="B571" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="C571" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.25">
@@ -10403,10 +10416,10 @@
         <v>592</v>
       </c>
       <c r="B572" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="C572" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.25">
@@ -10414,10 +10427,10 @@
         <v>593</v>
       </c>
       <c r="B573" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="C573" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.25">
@@ -10425,10 +10438,10 @@
         <v>594</v>
       </c>
       <c r="B574" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="C574" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.25">
@@ -10436,10 +10449,10 @@
         <v>595</v>
       </c>
       <c r="B575" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="C575" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.25">
@@ -10447,10 +10460,10 @@
         <v>596</v>
       </c>
       <c r="B576" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="C576" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.25">
@@ -10458,10 +10471,10 @@
         <v>597</v>
       </c>
       <c r="B577" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="C577" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.25">
@@ -10469,10 +10482,10 @@
         <v>598</v>
       </c>
       <c r="B578" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="C578" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.25">
@@ -10480,10 +10493,10 @@
         <v>599</v>
       </c>
       <c r="B579" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="C579" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.25">
@@ -10491,10 +10504,10 @@
         <v>601</v>
       </c>
       <c r="B580" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="C580" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.25">
@@ -10502,10 +10515,10 @@
         <v>604</v>
       </c>
       <c r="B581" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="C581" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.25">
@@ -10513,10 +10526,10 @@
         <v>612</v>
       </c>
       <c r="B582" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="C582" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.25">
@@ -10524,10 +10537,10 @@
         <v>617</v>
       </c>
       <c r="B583" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="C583" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.25">
@@ -10535,10 +10548,10 @@
         <v>618</v>
       </c>
       <c r="B584" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="C584" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.25">
@@ -10546,10 +10559,10 @@
         <v>625</v>
       </c>
       <c r="B585" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="C585" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.25">
@@ -10557,10 +10570,10 @@
         <v>626</v>
       </c>
       <c r="B586" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="C586" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.25">
@@ -10568,10 +10581,10 @@
         <v>629</v>
       </c>
       <c r="B587" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="C587" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.25">
@@ -10579,10 +10592,10 @@
         <v>633</v>
       </c>
       <c r="B588" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="C588" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.25">
@@ -10590,10 +10603,10 @@
         <v>635</v>
       </c>
       <c r="B589" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="C589" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.25">
@@ -10601,10 +10614,10 @@
         <v>636</v>
       </c>
       <c r="B590" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="C590" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.25">
@@ -10612,10 +10625,10 @@
         <v>642</v>
       </c>
       <c r="B591" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="C591" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.25">
@@ -10623,10 +10636,10 @@
         <v>646</v>
       </c>
       <c r="B592" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="C592" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.25">
@@ -10634,10 +10647,10 @@
         <v>650</v>
       </c>
       <c r="B593" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="C593" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.25">
@@ -10645,10 +10658,10 @@
         <v>651</v>
       </c>
       <c r="B594" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="C594" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.25">
@@ -10656,10 +10669,10 @@
         <v>653</v>
       </c>
       <c r="B595" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="C595" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.25">
@@ -10667,10 +10680,10 @@
         <v>655</v>
       </c>
       <c r="B596" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="C596" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.25">
@@ -10678,10 +10691,10 @@
         <v>661</v>
       </c>
       <c r="B597" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="C597" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.25">
@@ -10689,10 +10702,10 @@
         <v>663</v>
       </c>
       <c r="B598" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
       <c r="C598" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.25">
@@ -10700,10 +10713,10 @@
         <v>667</v>
       </c>
       <c r="B599" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="C599" t="s">
-        <v>1179</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.25">
@@ -10711,10 +10724,10 @@
         <v>673</v>
       </c>
       <c r="B600" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="C600" t="s">
-        <v>1164</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.25">
@@ -10722,10 +10735,10 @@
         <v>674</v>
       </c>
       <c r="B601" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="C601" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.25">
@@ -10733,10 +10746,10 @@
         <v>680</v>
       </c>
       <c r="B602" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="C602" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.25">
@@ -10744,10 +10757,10 @@
         <v>682</v>
       </c>
       <c r="B603" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="C603" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.25">
@@ -10755,10 +10768,10 @@
         <v>684</v>
       </c>
       <c r="B604" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="C604" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.25">
@@ -10766,10 +10779,10 @@
         <v>685</v>
       </c>
       <c r="B605" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="C605" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.25">
@@ -10777,10 +10790,10 @@
         <v>686</v>
       </c>
       <c r="B606" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="C606" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.25">
@@ -10788,50 +10801,61 @@
         <v>689</v>
       </c>
       <c r="B607" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="C607" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A608">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="B608" t="s">
-        <v>1143</v>
+        <v>1197</v>
       </c>
       <c r="C608" t="s">
-        <v>1144</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A609">
-        <v>10001</v>
+        <v>704</v>
       </c>
       <c r="B609" t="s">
-        <v>1112</v>
+        <v>1138</v>
       </c>
       <c r="C609" t="s">
-        <v>1113</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A610">
+        <v>10001</v>
+      </c>
+      <c r="B610" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C610" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A611">
         <v>10003</v>
       </c>
-      <c r="B610" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C610" t="s">
-        <v>1141</v>
+      <c r="B611" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C611" t="s">
+        <v>1136</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C1 A121:C144 A120:B120 A609:C609 A315:B315 A599:B599 A316:C344 A352:C376 A351:B351 A586:C587 A575 A574:B574 A460:C464 A459:B459 A603:C603 A602:B602 A235:C249 A234:B234 A95:C106 A146:C149 A145:B145 A541:C549 A540:B540 A55:C57 A558:C565 A557:B557 A29:C50 A28:B28 A579:C579 A308:C314 A307:B307 A53:B54 A456:C458 A455:B455 A516:C516 A515:B515 A93:B94 A554:C556 A553:B553 A346:C350 A345:B345 A52:C52 A51:B51 A71:C78 A70:B70 A163:C228 A162:B162 A378:C401 A377:B377 A605:C607 A258:C259 A257:B257 A6:C12 A5:B5 A572:C573 A571:B571 A567:C568 A566 A589:C597 A588:B588 A21:C27 A20:B20 A420:C422 A418:B418 A115:C119 A114:B114 A287:C306 A286:B286 A419:B419 A80:C92 A79:B79 A504:C506 A503 A151:C161 A150:B150 A481:C499 A480:B480 A520:C530 A519:B519 A532:C535 A531:B531 A601:C601 A600:B600 A576:B576 A577:B577 A578:B578 A514:C514 A513:B513 A501:C502 A500:B500 A453:C454 A452:B452 A424:C424 A423:B423 A14:C19 A13:B13 A4:B4 A2:B2 A3:B3 A581:C584 A580:B580 A570:C570 A569:B569 A450:C451 A449:B449 A551:C552 A550:B550 A537:C539 A536:B536 A518:C518 A517:B517 A508:C512 A507:B507 A466:C479 A465:B465 A448:C448 A447:B447 A433:C446 A432:B432 A426:C431 A425:B425 A403:C417 A402:B402 A280:C285 A279:B279 A269:C278 A268:B268 A261:C267 A260:B260 A252:C256 A251:B251 A250:B250 A231:C233 A229:B229 A230:B230 A108:C113 A107:B107 A59:C69 A58:B58" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C1 A121:C127 A120:B120 A610:C610 A315:B315 A599:B599 A316:C344 A352:C376 A351:B351 A586:C587 A575 A574:B574 A460:C464 A459:B459 A603:C603 A602:B602 A235:C249 A234:B234 A95:C106 A146:C149 A145:B145 A541:C549 A540:B540 A55:C57 A558:C565 A557:B557 A29:C50 A28:B28 A579:C579 A308:C314 A307:B307 A53:B54 A456:C458 A455:B455 A516:C516 A515:B515 A93:B94 A554:C556 A553:B553 A346:C350 A345:B345 A52:C52 A51:B51 A72:C78 A70:B70 A163:C228 A162:B162 A378:C401 A377:B377 A605:C607 A258:C259 A257:B257 A6:C7 A5:B5 A572:C573 A571:B571 A567:C568 A566 A589:C597 A588:B588 A21:C27 A20:B20 A420:C422 A418:B418 A115:C119 A114:B114 A287:C306 A286:B286 A419:B419 A80:C92 A79:B79 A504:C506 A503 A151:C153 A150:B150 A481:C499 A480:B480 A520:C530 A519:B519 A532:C535 A531:B531 A601:C601 A600:B600 A576:B576 A577:B577 A578:B578 A514:C514 A513:B513 A501:C502 A500:B500 A453:C454 A452:B452 A424:C424 A423:B423 A14:C19 A13:B13 A4:B4 A2:B2 A3:B3 A581:C584 A580:B580 A570:C570 A569:B569 A450:C451 A449:B449 A551:C552 A550:B550 A537:C539 A536:B536 A518:C518 A517:B517 A508:C512 A507:B507 A466:C479 A465:B465 A448:C448 A447:B447 A433:C446 A432:B432 A426:C431 A425:B425 A403:C417 A402:B402 A280:C285 A279:B279 A269:C278 A268:B268 A261:C267 A260:B260 A252:C256 A251:B251 A250:B250 A231:C233 A229:B229 A230:B230 A108:C113 A107:B107 A59:C69 A58:B58 A155:C161 A154:B154 A129:C144 A128:B128 A71 A9:C12 A8:B8" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/config/nickname_song.xlsx
+++ b/config/nickname_song.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Tsugu-Backend\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E968320-D613-4094-AD8E-B18DD09E1B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18029FB-7DE4-4DF5-B86E-E9523BB0F0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12348" yWindow="2388" windowWidth="13152" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="1204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="1206">
   <si>
     <t>Id</t>
   </si>
@@ -3748,6 +3748,14 @@
   </si>
   <si>
     <t>空色days,钻头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tempest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴风雨,风暴,临时,最临时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4146,10 +4154,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C611"/>
+  <dimension ref="A1:C612"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A569" workbookViewId="0">
-      <selection activeCell="C596" sqref="C596"/>
+    <sheetView tabSelected="1" topLeftCell="A575" workbookViewId="0">
+      <selection activeCell="C594" sqref="C594"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -10677,177 +10685,188 @@
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A596">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B596" t="s">
-        <v>1090</v>
+        <v>1204</v>
       </c>
       <c r="C596" t="s">
-        <v>1091</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A597">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="B597" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="C597" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A598">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B598" t="s">
-        <v>1111</v>
+        <v>1092</v>
       </c>
       <c r="C598" t="s">
-        <v>1110</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A599">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B599" t="s">
-        <v>1094</v>
+        <v>1111</v>
       </c>
       <c r="C599" t="s">
-        <v>1174</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A600">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="B600" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C600" t="s">
-        <v>1159</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A601">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B601" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C601" t="s">
-        <v>1097</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A602">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="B602" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="C602" t="s">
-        <v>1116</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A603">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B603" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C603" t="s">
-        <v>1100</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A604">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B604" t="s">
-        <v>1109</v>
+        <v>1099</v>
       </c>
       <c r="C604" t="s">
-        <v>1171</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A605">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B605" t="s">
-        <v>1101</v>
+        <v>1109</v>
       </c>
       <c r="C605" t="s">
-        <v>1102</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A606">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B606" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="C606" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A607">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B607" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="C607" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A608">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="B608" t="s">
-        <v>1197</v>
+        <v>1105</v>
       </c>
       <c r="C608" t="s">
-        <v>1198</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A609">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="B609" t="s">
-        <v>1138</v>
+        <v>1197</v>
       </c>
       <c r="C609" t="s">
-        <v>1139</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A610">
-        <v>10001</v>
+        <v>704</v>
       </c>
       <c r="B610" t="s">
-        <v>1107</v>
+        <v>1138</v>
       </c>
       <c r="C610" t="s">
-        <v>1108</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A611">
+        <v>10001</v>
+      </c>
+      <c r="B611" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C611" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A612">
         <v>10003</v>
       </c>
-      <c r="B611" t="s">
+      <c r="B612" t="s">
         <v>1135</v>
       </c>
-      <c r="C611" t="s">
+      <c r="C612" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -10855,7 +10874,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C1 A121:C127 A120:B120 A610:C610 A315:B315 A599:B599 A316:C344 A352:C376 A351:B351 A586:C587 A575 A574:B574 A460:C464 A459:B459 A603:C603 A602:B602 A235:C249 A234:B234 A95:C106 A146:C149 A145:B145 A541:C549 A540:B540 A55:C57 A558:C565 A557:B557 A29:C50 A28:B28 A579:C579 A308:C314 A307:B307 A53:B54 A456:C458 A455:B455 A516:C516 A515:B515 A93:B94 A554:C556 A553:B553 A346:C350 A345:B345 A52:C52 A51:B51 A72:C78 A70:B70 A163:C228 A162:B162 A378:C401 A377:B377 A605:C607 A258:C259 A257:B257 A6:C7 A5:B5 A572:C573 A571:B571 A567:C568 A566 A589:C597 A588:B588 A21:C27 A20:B20 A420:C422 A418:B418 A115:C119 A114:B114 A287:C306 A286:B286 A419:B419 A80:C92 A79:B79 A504:C506 A503 A151:C153 A150:B150 A481:C499 A480:B480 A520:C530 A519:B519 A532:C535 A531:B531 A601:C601 A600:B600 A576:B576 A577:B577 A578:B578 A514:C514 A513:B513 A501:C502 A500:B500 A453:C454 A452:B452 A424:C424 A423:B423 A14:C19 A13:B13 A4:B4 A2:B2 A3:B3 A581:C584 A580:B580 A570:C570 A569:B569 A450:C451 A449:B449 A551:C552 A550:B550 A537:C539 A536:B536 A518:C518 A517:B517 A508:C512 A507:B507 A466:C479 A465:B465 A448:C448 A447:B447 A433:C446 A432:B432 A426:C431 A425:B425 A403:C417 A402:B402 A280:C285 A279:B279 A269:C278 A268:B268 A261:C267 A260:B260 A252:C256 A251:B251 A250:B250 A231:C233 A229:B229 A230:B230 A108:C113 A107:B107 A59:C69 A58:B58 A155:C161 A154:B154 A129:C144 A128:B128 A71 A9:C12 A8:B8" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C1 A121:C127 A120:B120 A611:C611 A315:B315 A316:C344 A352:C376 A351:B351 A586:C587 A575 A574:B574 A460:C464 A459:B459 A604:C604 A603:B603 A235:C249 A234:B234 A95:C106 A146:C149 A145:B145 A541:C549 A540:B540 A55:C57 A558:C565 A557:B557 A29:C50 A28:B28 A579:C579 A308:C314 A307:B307 A53:B54 A456:C458 A455:B455 A516:C516 A515:B515 A93:B94 A554:C556 A553:B553 A346:C350 A345:B345 A52:C52 A51:B51 A72:C78 A70:B70 A163:C228 A162:B162 A378:C401 A377:B377 A606:C608 A258:C259 A257:B257 A6:C7 A572:C573 A571:B571 A567:C568 A566 A597:C598 A588:B588 A21:C27 A20:B20 A420:C422 A115:C119 A114:B114 A287:C306 A286:B286 A418:B419 A80:C92 A79:B79 A504:C506 A503 A151:C153 A150:B150 A481:C499 A480:B480 A520:C530 A519:B519 A532:C535 A531:B531 A602:C602 A600:B601 A576:B578 A514:C514 A513:B513 A501:C502 A500:B500 A453:C454 A452:B452 A424:C424 A423:B423 A14:C19 A13:B13 A2:B5 A581:C584 A580:B580 A570:C570 A569:B569 A450:C451 A449:B449 A551:C552 A550:B550 A537:C539 A536:B536 A518:C518 A517:B517 A508:C512 A507:B507 A466:C479 A465:B465 A448:C448 A447:B447 A433:C446 A432:B432 A426:C431 A425:B425 A403:C417 A402:B402 A280:C285 A279:B279 A269:C278 A268:B268 A261:C267 A260:B260 A252:C256 A250:B251 A231:C233 A229:B230 A108:C113 A107:B107 A59:C69 A58:B58 A155:C161 A154:B154 A129:C144 A128:B128 A71 A9:C12 A8:B8 A589:C595" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/config/nickname_song.xlsx
+++ b/config/nickname_song.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Tsugu-Backend\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18029FB-7DE4-4DF5-B86E-E9523BB0F0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534D122B-67C2-4F80-B690-3010491057E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12348" yWindow="2388" windowWidth="13152" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4536" windowWidth="13152" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -3482,10 +3482,6 @@
   </si>
   <si>
     <t>泪滴,死亡三连,teardrops,この手を離さない,泪水落下,落泪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kyu-kurarin,心跳不止,心动不止</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3756,6 +3752,10 @@
   </si>
   <si>
     <t>暴风雨,风暴,临时,最临时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kyu-kurarin,心跳不止,心动不止,心动不已</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4156,8 +4156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C612"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A575" workbookViewId="0">
-      <selection activeCell="C594" sqref="C594"/>
+    <sheetView tabSelected="1" topLeftCell="C557" workbookViewId="0">
+      <selection activeCell="C568" sqref="C568"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -4187,7 +4187,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4198,7 +4198,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4209,7 +4209,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4253,7 +4253,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -4308,7 +4308,7 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -4385,7 +4385,7 @@
         <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -4803,7 +4803,7 @@
         <v>104</v>
       </c>
       <c r="C58" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -4943,10 +4943,10 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C71" t="s">
         <v>1201</v>
-      </c>
-      <c r="C71" t="s">
-        <v>1202</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -5034,7 +5034,7 @@
         <v>142</v>
       </c>
       <c r="C79" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -5342,7 +5342,7 @@
         <v>195</v>
       </c>
       <c r="C107" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -5419,7 +5419,7 @@
         <v>208</v>
       </c>
       <c r="C114" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -5485,7 +5485,7 @@
         <v>219</v>
       </c>
       <c r="C120" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -5573,7 +5573,7 @@
         <v>234</v>
       </c>
       <c r="C128" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -5815,7 +5815,7 @@
         <v>276</v>
       </c>
       <c r="C150" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -5859,7 +5859,7 @@
         <v>283</v>
       </c>
       <c r="C154" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -6684,7 +6684,7 @@
         <v>431</v>
       </c>
       <c r="C229" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -6695,7 +6695,7 @@
         <v>432</v>
       </c>
       <c r="C230" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -6915,7 +6915,7 @@
         <v>470</v>
       </c>
       <c r="C250" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -6926,7 +6926,7 @@
         <v>471</v>
       </c>
       <c r="C251" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -7025,7 +7025,7 @@
         <v>486</v>
       </c>
       <c r="C260" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -7113,7 +7113,7 @@
         <v>501</v>
       </c>
       <c r="C268" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -7234,7 +7234,7 @@
         <v>522</v>
       </c>
       <c r="C279" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -7311,7 +7311,7 @@
         <v>535</v>
       </c>
       <c r="C286" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -7630,7 +7630,7 @@
         <v>591</v>
       </c>
       <c r="C315" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -8587,7 +8587,7 @@
         <v>761</v>
       </c>
       <c r="C402" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
@@ -8760,7 +8760,7 @@
         <v>791</v>
       </c>
       <c r="C418" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
@@ -8771,7 +8771,7 @@
         <v>792</v>
       </c>
       <c r="C419" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
@@ -8815,7 +8815,7 @@
         <v>799</v>
       </c>
       <c r="C423" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
@@ -8837,7 +8837,7 @@
         <v>802</v>
       </c>
       <c r="C425" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
@@ -8914,7 +8914,7 @@
         <v>813</v>
       </c>
       <c r="C432" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
@@ -9079,7 +9079,7 @@
         <v>842</v>
       </c>
       <c r="C447" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
@@ -9101,7 +9101,7 @@
         <v>845</v>
       </c>
       <c r="C449" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
@@ -9134,7 +9134,7 @@
         <v>849</v>
       </c>
       <c r="C452" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
@@ -9274,7 +9274,7 @@
         <v>870</v>
       </c>
       <c r="C465" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
@@ -9439,7 +9439,7 @@
         <v>898</v>
       </c>
       <c r="C480" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
@@ -9656,7 +9656,7 @@
         <v>936</v>
       </c>
       <c r="C500" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
@@ -9686,10 +9686,10 @@
         <v>515</v>
       </c>
       <c r="B503" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C503" t="s">
         <v>1153</v>
-      </c>
-      <c r="C503" t="s">
-        <v>1154</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
@@ -9730,7 +9730,7 @@
         <v>946</v>
       </c>
       <c r="C507" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
@@ -9796,7 +9796,7 @@
         <v>957</v>
       </c>
       <c r="C513" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
@@ -9840,7 +9840,7 @@
         <v>962</v>
       </c>
       <c r="C517" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
@@ -9859,7 +9859,7 @@
         <v>964</v>
       </c>
       <c r="C519" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
@@ -9991,7 +9991,7 @@
         <v>987</v>
       </c>
       <c r="C531" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
@@ -10046,7 +10046,7 @@
         <v>996</v>
       </c>
       <c r="C536" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.25">
@@ -10194,7 +10194,7 @@
         <v>1020</v>
       </c>
       <c r="C550" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.25">
@@ -10358,10 +10358,10 @@
         <v>586</v>
       </c>
       <c r="B566" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C566" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.25">
@@ -10394,7 +10394,7 @@
         <v>1050</v>
       </c>
       <c r="C569" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.25">
@@ -10416,7 +10416,7 @@
         <v>1053</v>
       </c>
       <c r="C571" t="s">
-        <v>1143</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.25">
@@ -10471,7 +10471,7 @@
         <v>1059</v>
       </c>
       <c r="C576" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.25">
@@ -10482,7 +10482,7 @@
         <v>889</v>
       </c>
       <c r="C577" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.25">
@@ -10493,7 +10493,7 @@
         <v>891</v>
       </c>
       <c r="C578" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.25">
@@ -10515,7 +10515,7 @@
         <v>1062</v>
       </c>
       <c r="C580" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.25">
@@ -10570,7 +10570,7 @@
         <v>1124</v>
       </c>
       <c r="C585" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.25">
@@ -10603,7 +10603,7 @@
         <v>1075</v>
       </c>
       <c r="C588" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.25">
@@ -10688,10 +10688,10 @@
         <v>654</v>
       </c>
       <c r="B596" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C596" t="s">
         <v>1204</v>
-      </c>
-      <c r="C596" t="s">
-        <v>1205</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.25">
@@ -10735,7 +10735,7 @@
         <v>1094</v>
       </c>
       <c r="C600" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.25">
@@ -10746,7 +10746,7 @@
         <v>1095</v>
       </c>
       <c r="C601" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.25">
@@ -10790,7 +10790,7 @@
         <v>1109</v>
       </c>
       <c r="C605" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.25">
@@ -10831,10 +10831,10 @@
         <v>697</v>
       </c>
       <c r="B609" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C609" t="s">
         <v>1197</v>
-      </c>
-      <c r="C609" t="s">
-        <v>1198</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.25">

--- a/config/nickname_song.xlsx
+++ b/config/nickname_song.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Tsugu-Backend\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534D122B-67C2-4F80-B690-3010491057E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3958D8B0-C4C1-4053-8DF3-42D96548D398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4536" windowWidth="13152" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5688" yWindow="1728" windowWidth="20352" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="1206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="1213">
   <si>
     <t>Id</t>
   </si>
@@ -94,9 +94,6 @@
     <t>Don’t say “lazy”</t>
   </si>
   <si>
-    <t>轻音少女,不要开摆,dslz,主唱在打鼓,不要说懒,dsl</t>
-  </si>
-  <si>
     <t>Hacking to the Gate</t>
   </si>
   <si>
@@ -178,15 +175,9 @@
     <t>LOUDER</t>
   </si>
   <si>
-    <t>老大,大声点,鬼屋,大点声,牢大</t>
-  </si>
-  <si>
     <t>しゅわりん☆どり〜みん</t>
   </si>
   <si>
-    <t>修车,shuwa,修哇修哇</t>
-  </si>
-  <si>
     <t>パスパレボリューションず☆</t>
   </si>
   <si>
@@ -226,9 +217,6 @@
     <t>Don’t be afraid!</t>
   </si>
   <si>
-    <t>别怕,我们遇到什么困难也不要怕,别怂</t>
-  </si>
-  <si>
     <t>光るなら</t>
   </si>
   <si>
@@ -256,9 +244,6 @@
     <t>Little Busters!</t>
   </si>
   <si>
-    <t>lb</t>
-  </si>
-  <si>
     <t>キミにもらったもの</t>
   </si>
   <si>
@@ -484,9 +469,6 @@
     <t>Dragon Night</t>
   </si>
   <si>
-    <t>龙夜,313combo,313</t>
-  </si>
-  <si>
     <t>Redo</t>
   </si>
   <si>
@@ -562,9 +544,6 @@
     <t>Wonderland Girl</t>
   </si>
   <si>
-    <t>噜噜噜噜,噜1,仙境,百慕大三角,日菜进行曲,hina进行曲</t>
-  </si>
-  <si>
     <t>fantastic dreamer</t>
   </si>
   <si>
@@ -1681,9 +1660,6 @@
     <t>好き！雪！本気マジック</t>
   </si>
   <si>
-    <t>卧槽!下雪了!牛逼啊!,喜欢!雪!真实的魔法!,卧槽！下雪了！牛逼啊！,喜欢！雪！真实的魔法！,好雪本气,草！雪！牛逼！,卧槽下雪了牛逼啊</t>
-  </si>
-  <si>
     <t>SAVIOR OF SONG</t>
   </si>
   <si>
@@ -1864,12 +1840,6 @@
     <t>拉姆情歌,拉姆恋歌</t>
   </si>
   <si>
-    <t>overtuRe</t>
-  </si>
-  <si>
-    <t>序曲</t>
-  </si>
-  <si>
     <t>My Dearest</t>
   </si>
   <si>
@@ -1996,9 +1966,6 @@
     <t>HELL! or HELL?</t>
   </si>
   <si>
-    <t>hoh,新手教程,地狱,绯玛丽,请选择</t>
-  </si>
-  <si>
     <t>Sacred world</t>
   </si>
   <si>
@@ -2017,9 +1984,6 @@
     <t>TOMORROW</t>
   </si>
   <si>
-    <t>素晴,machico,明天</t>
-  </si>
-  <si>
     <t>ピコたるもの、ふぃーばー！</t>
   </si>
   <si>
@@ -2170,9 +2134,6 @@
     <t>シル・ヴ・プレジデント</t>
   </si>
   <si>
-    <t>大统领,大总统,大统领独唱</t>
-  </si>
-  <si>
     <t>ぽっぴん'どりーむ！</t>
   </si>
   <si>
@@ -2212,9 +2173,6 @@
     <t>Brand new Pastel Road！</t>
   </si>
   <si>
-    <t>ZAQ,全新路,bnpr</t>
-  </si>
-  <si>
     <t>Just Awake</t>
   </si>
   <si>
@@ -2566,9 +2524,6 @@
     <t>星夜之雪,星夜雪,雪未来2017</t>
   </si>
   <si>
-    <t>大统领合唱版,大统领</t>
-  </si>
-  <si>
     <t>もってけ！セーラーふく</t>
   </si>
   <si>
@@ -2587,9 +2542,6 @@
     <t>フォニイ</t>
   </si>
   <si>
-    <t>南瓜头.mp4,闪光,高达,闪光的哈萨维,BPM208,27闪光</t>
-  </si>
-  <si>
     <t>転生林檎</t>
   </si>
   <si>
@@ -2629,9 +2581,6 @@
     <t>See you! 〜それぞれの明日へ〜</t>
   </si>
   <si>
-    <t>毕业活原创,see you 向着明日,see you,CU</t>
-  </si>
-  <si>
     <t>RiNG A BELL</t>
   </si>
   <si>
@@ -2656,9 +2605,6 @@
     <t>＊ ～アスタリスク～</t>
   </si>
   <si>
-    <t>死神,asterisk,劲爆7轨1k,*,＊,星号</t>
-  </si>
-  <si>
     <t>ALIVE</t>
   </si>
   <si>
@@ -2677,12 +2623,6 @@
     <t>像神一样啊,嘟嘟噜嘟嘟嘟噜嘿,你游vocal最高音.god-ish</t>
   </si>
   <si>
-    <t>キズナミュージック♪（3Dライブモード対応）</t>
-  </si>
-  <si>
-    <t>3Dkzn,3D kizunamusic,kzn3d</t>
-  </si>
-  <si>
     <t>Glee! Glee! Glee!</t>
   </si>
   <si>
@@ -2704,9 +2644,6 @@
     <t>Made My Day</t>
   </si>
   <si>
-    <t>造我日,ag之春</t>
-  </si>
-  <si>
     <t>迷星叫</t>
   </si>
   <si>
@@ -2926,15 +2863,9 @@
     <t>可愛くてごめん</t>
   </si>
   <si>
-    <t>这么可爱真是抱歉呢,pp缺主唱</t>
-  </si>
-  <si>
     <t>エゴロック</t>
   </si>
   <si>
-    <t>egorock,自我摇滚,123FAQ</t>
-  </si>
-  <si>
     <t>D-tecnoLife</t>
   </si>
   <si>
@@ -3244,9 +3175,6 @@
     <t>人マニア</t>
   </si>
   <si>
-    <t>人狂热者,人mania</t>
-  </si>
-  <si>
     <t>雑踏、僕らの街</t>
   </si>
   <si>
@@ -3271,9 +3199,6 @@
     <t>“Say cheese!!!!!”</t>
   </si>
   <si>
-    <t>说茄子</t>
-  </si>
-  <si>
     <t>TARINAI</t>
   </si>
   <si>
@@ -3311,9 +3236,6 @@
   </si>
   <si>
     <t>ひとりじゃないんだから(パラレルver.)</t>
-  </si>
-  <si>
-    <t>羽泽咖啡店</t>
   </si>
   <si>
     <t>だれかの心臓になれたなら</t>
@@ -3551,10 +3473,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>羁绊歌,kzn,kizuna music,kznmusic,羁绊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>花呼声,kemu,popy,花呼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3579,10 +3497,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>35ssfk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>wb,誓言,wbsp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3615,10 +3529,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fyd,牢大,大焚,大粪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>花咲未来,花咲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3679,10 +3589,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>存在,exi,扰乱op,ex,大e3,我有e育症,e,牢大,大e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>invade show,NVIDIA SHOW,英伟达show,nvidia,英伟达</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3756,6 +3662,176 @@
   </si>
   <si>
     <t>kyu-kurarin,心跳不止,心动不止,心动不已</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大统领,大总统,大统领独唱,daidaidai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大统领合唱版,大统领,daidaidai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>egorock,自我摇滚,123FAQ,黄三角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这么可爱真是抱歉呢,pp缺主唱,可爱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱的,爱之</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死神,asterisk,劲爆7轨1k,*,＊,星号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南瓜头.mp4,闪光,高达,闪光的哈萨维,BPM208,27闪光,南瓜头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别怕,我们遇到什么困难也不要怕,别怂,别慌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修车,shuwa,修哇修哇,修瓦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻音少女,不要开摆,dslz,主唱在打鼓,不要说懒,dsl,dont</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在,exi,扰乱op,ex,大e3,我有e育症,e,大e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fyd,大焚,大粪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羽泽咖啡店,咖啡店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33ssfk,33ssfkk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一直重打,总是拨打,一直拨打,总是重打</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>レディ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么我在这里,为啥我在这里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造我日,ag之春,mmd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光火,光一火,灯火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全新路,bnpr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序曲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overtuRe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卧槽!下雪了!牛逼啊!,喜欢!雪!真实的魔法!,卧槽！下雪了！牛逼啊！,喜欢！雪！真实的魔法！,好雪本气,草！雪！牛逼！,卧槽下雪了牛逼啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>噜噜噜噜,噜1,仙境,百慕大三角,日菜进行曲,hina进行曲,噜噜噜,撸撸撸,947</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lb,小小克星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说茄子,say cheese,cheese,茄子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人狂热者,人mania</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>素晴,machico,明天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明日之门,明天的门,明日的门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tomorrow's Door</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hoh,地狱,绯玛丽,请选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3Dkzn,3D kizunamusic,kzn3d,新手教程3d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>キズナミュージック</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>♪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（3Dライブモード対応）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羁绊歌,kzn,kizuna music,kznmusic,羁绊,新手教程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙夜,313combo,313,农业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毕业活原创,see you 向着明日,see you,CU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老大,大声点,鬼屋,大点声,牢大,seeyouagain</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3763,7 +3839,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3791,6 +3867,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4154,10 +4236,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C612"/>
+  <dimension ref="A1:C613"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C557" workbookViewId="0">
-      <selection activeCell="C568" sqref="C568"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -4187,7 +4269,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>1167</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4198,7 +4280,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>1168</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4209,7 +4291,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>1169</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4220,7 +4302,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>1142</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -4253,7 +4335,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>1202</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -4308,7 +4390,7 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>1166</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -4330,7 +4412,7 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -4338,10 +4420,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
         <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -4349,10 +4431,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
         <v>27</v>
-      </c>
-      <c r="C17" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -4360,10 +4442,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
         <v>29</v>
-      </c>
-      <c r="C18" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -4371,10 +4453,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
         <v>31</v>
-      </c>
-      <c r="C19" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.4">
@@ -4382,10 +4464,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>1145</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -4393,10 +4475,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
         <v>34</v>
-      </c>
-      <c r="C21" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -4404,10 +4486,10 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
         <v>36</v>
-      </c>
-      <c r="C22" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -4415,10 +4497,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
         <v>38</v>
-      </c>
-      <c r="C23" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -4426,10 +4508,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
         <v>40</v>
-      </c>
-      <c r="C24" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -4437,10 +4519,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
         <v>42</v>
-      </c>
-      <c r="C25" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -4448,10 +4530,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" t="s">
         <v>44</v>
-      </c>
-      <c r="C26" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -4459,10 +4541,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" t="s">
         <v>46</v>
-      </c>
-      <c r="C27" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -4470,10 +4552,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>1123</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -4481,10 +4563,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" t="s">
         <v>49</v>
-      </c>
-      <c r="C29" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -4492,10 +4574,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>52</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -4503,10 +4585,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -4514,10 +4596,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C32" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -4525,10 +4607,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C33" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -4536,10 +4618,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -4547,10 +4629,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C35" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -4558,10 +4640,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C36" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -4569,10 +4651,10 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C37" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -4580,10 +4662,10 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C38" t="s">
-        <v>68</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -4591,10 +4673,10 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C39" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -4602,10 +4684,10 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C40" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -4613,10 +4695,10 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C41" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -4624,10 +4706,10 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C42" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -4635,10 +4717,10 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C43" t="s">
-        <v>78</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -4646,10 +4728,10 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C44" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -4657,10 +4739,10 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C45" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -4668,10 +4750,10 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C46" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -4679,10 +4761,10 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C47" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -4690,10 +4772,10 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C48" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -4701,10 +4783,10 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C49" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -4712,10 +4794,10 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C50" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -4723,10 +4805,10 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C51" t="s">
-        <v>1133</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -4734,10 +4816,10 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C52" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -4745,10 +4827,10 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C53" t="s">
-        <v>1120</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -4756,10 +4838,10 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C54" t="s">
-        <v>1127</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -4767,10 +4849,10 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C55" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -4778,10 +4860,10 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C56" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -4789,10 +4871,10 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C57" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -4800,10 +4882,10 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C58" t="s">
-        <v>1195</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -4811,10 +4893,10 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C59" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -4822,10 +4904,10 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C60" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -4833,10 +4915,10 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C61" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -4844,10 +4926,10 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C62" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -4855,10 +4937,10 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C63" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -4866,10 +4948,10 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C64" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -4877,10 +4959,10 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C65" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -4888,10 +4970,10 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C66" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -4899,10 +4981,10 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C67" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -4910,10 +4992,10 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C68" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -4921,10 +5003,10 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C69" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -4932,10 +5014,10 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C70" t="s">
-        <v>1134</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -4943,10 +5025,10 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>1200</v>
+        <v>1170</v>
       </c>
       <c r="C71" t="s">
-        <v>1201</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -4954,10 +5036,10 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C72" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -4965,10 +5047,10 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C73" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -4976,10 +5058,10 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C74" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -4987,10 +5069,10 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C75" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -4998,10 +5080,10 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C76" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -5009,10 +5091,10 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C77" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -5020,10 +5102,10 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C78" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -5031,10 +5113,10 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C79" t="s">
-        <v>1150</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -5042,10 +5124,10 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C80" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -5053,10 +5135,10 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C81" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -5064,10 +5146,10 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C82" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -5075,10 +5157,10 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C83" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -5086,10 +5168,10 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C84" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -5097,10 +5179,10 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C85" t="s">
-        <v>154</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -5108,10 +5190,10 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C86" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -5119,10 +5201,10 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C87" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -5130,10 +5212,10 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C88" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -5141,10 +5223,10 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C89" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -5152,10 +5234,10 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C90" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -5163,10 +5245,10 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C91" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -5174,10 +5256,10 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C92" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -5185,10 +5267,10 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C93" t="s">
-        <v>1130</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -5196,10 +5278,10 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C94" t="s">
-        <v>1118</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -5207,10 +5289,10 @@
         <v>100</v>
       </c>
       <c r="B95" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C95" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -5218,10 +5300,10 @@
         <v>101</v>
       </c>
       <c r="B96" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C96" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -5229,10 +5311,10 @@
         <v>104</v>
       </c>
       <c r="B97" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C97" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -5240,10 +5322,10 @@
         <v>105</v>
       </c>
       <c r="B98" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C98" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -5251,10 +5333,10 @@
         <v>106</v>
       </c>
       <c r="B99" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C99" t="s">
-        <v>180</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -5262,10 +5344,10 @@
         <v>107</v>
       </c>
       <c r="B100" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C100" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -5273,10 +5355,10 @@
         <v>108</v>
       </c>
       <c r="B101" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C101" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -5284,10 +5366,10 @@
         <v>109</v>
       </c>
       <c r="B102" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C102" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -5295,10 +5377,10 @@
         <v>110</v>
       </c>
       <c r="B103" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C103" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -5306,10 +5388,10 @@
         <v>111</v>
       </c>
       <c r="B104" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C104" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -5317,10 +5399,10 @@
         <v>112</v>
       </c>
       <c r="B105" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C105" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -5328,10 +5410,10 @@
         <v>113</v>
       </c>
       <c r="B106" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C106" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -5339,10 +5421,10 @@
         <v>115</v>
       </c>
       <c r="B107" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C107" t="s">
-        <v>1194</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -5350,10 +5432,10 @@
         <v>116</v>
       </c>
       <c r="B108" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C108" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -5361,10 +5443,10 @@
         <v>117</v>
       </c>
       <c r="B109" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C109" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -5372,10 +5454,10 @@
         <v>118</v>
       </c>
       <c r="B110" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C110" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -5383,10 +5465,10 @@
         <v>119</v>
       </c>
       <c r="B111" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C111" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -5394,10 +5476,10 @@
         <v>120</v>
       </c>
       <c r="B112" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C112" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -5405,10 +5487,10 @@
         <v>121</v>
       </c>
       <c r="B113" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C113" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -5416,10 +5498,10 @@
         <v>122</v>
       </c>
       <c r="B114" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C114" t="s">
-        <v>1146</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -5427,10 +5509,10 @@
         <v>123</v>
       </c>
       <c r="B115" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C115" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -5438,10 +5520,10 @@
         <v>124</v>
       </c>
       <c r="B116" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C116" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -5449,10 +5531,10 @@
         <v>125</v>
       </c>
       <c r="B117" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C117" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -5460,10 +5542,10 @@
         <v>126</v>
       </c>
       <c r="B118" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C118" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -5471,10 +5553,10 @@
         <v>127</v>
       </c>
       <c r="B119" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C119" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -5482,10 +5564,10 @@
         <v>128</v>
       </c>
       <c r="B120" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C120" t="s">
-        <v>1151</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -5493,10 +5575,10 @@
         <v>129</v>
       </c>
       <c r="B121" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C121" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -5504,10 +5586,10 @@
         <v>130</v>
       </c>
       <c r="B122" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C122" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -5515,10 +5597,10 @@
         <v>131</v>
       </c>
       <c r="B123" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C123" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -5526,10 +5608,10 @@
         <v>132</v>
       </c>
       <c r="B124" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C124" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -5537,10 +5619,10 @@
         <v>133</v>
       </c>
       <c r="B125" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C125" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -5548,10 +5630,10 @@
         <v>134</v>
       </c>
       <c r="B126" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C126" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -5559,10 +5641,10 @@
         <v>135</v>
       </c>
       <c r="B127" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C127" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -5570,10 +5652,10 @@
         <v>136</v>
       </c>
       <c r="B128" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C128" t="s">
-        <v>1199</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -5581,10 +5663,10 @@
         <v>137</v>
       </c>
       <c r="B129" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C129" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -5592,10 +5674,10 @@
         <v>138</v>
       </c>
       <c r="B130" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C130" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -5603,10 +5685,10 @@
         <v>139</v>
       </c>
       <c r="B131" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C131" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -5614,10 +5696,10 @@
         <v>140</v>
       </c>
       <c r="B132" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C132" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -5625,10 +5707,10 @@
         <v>141</v>
       </c>
       <c r="B133" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C133" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -5636,10 +5718,10 @@
         <v>142</v>
       </c>
       <c r="B134" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C134" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -5647,10 +5729,10 @@
         <v>143</v>
       </c>
       <c r="B135" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C135" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -5658,10 +5740,10 @@
         <v>144</v>
       </c>
       <c r="B136" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C136" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -5669,10 +5751,10 @@
         <v>145</v>
       </c>
       <c r="B137" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C137" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -5680,10 +5762,10 @@
         <v>146</v>
       </c>
       <c r="B138" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C138" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -5691,10 +5773,10 @@
         <v>147</v>
       </c>
       <c r="B139" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C139" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -5702,10 +5784,10 @@
         <v>148</v>
       </c>
       <c r="B140" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C140" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -5713,10 +5795,10 @@
         <v>149</v>
       </c>
       <c r="B141" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C141" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -5724,10 +5806,10 @@
         <v>150</v>
       </c>
       <c r="B142" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C142" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -5735,10 +5817,10 @@
         <v>151</v>
       </c>
       <c r="B143" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C143" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -5746,10 +5828,10 @@
         <v>152</v>
       </c>
       <c r="B144" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C144" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -5757,10 +5839,10 @@
         <v>153</v>
       </c>
       <c r="B145" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C145" t="s">
-        <v>1119</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -5768,10 +5850,10 @@
         <v>154</v>
       </c>
       <c r="B146" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C146" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -5779,10 +5861,10 @@
         <v>155</v>
       </c>
       <c r="B147" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C147" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -5790,10 +5872,10 @@
         <v>156</v>
       </c>
       <c r="B148" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C148" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -5801,10 +5883,10 @@
         <v>157</v>
       </c>
       <c r="B149" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C149" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -5812,10 +5894,10 @@
         <v>158</v>
       </c>
       <c r="B150" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C150" t="s">
-        <v>1154</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -5823,10 +5905,10 @@
         <v>159</v>
       </c>
       <c r="B151" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C151" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -5834,10 +5916,10 @@
         <v>160</v>
       </c>
       <c r="B152" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C152" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -5845,10 +5927,10 @@
         <v>161</v>
       </c>
       <c r="B153" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C153" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -5856,10 +5938,10 @@
         <v>162</v>
       </c>
       <c r="B154" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C154" t="s">
-        <v>1198</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -5867,10 +5949,10 @@
         <v>163</v>
       </c>
       <c r="B155" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C155" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -5878,10 +5960,10 @@
         <v>164</v>
       </c>
       <c r="B156" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C156" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -5889,10 +5971,10 @@
         <v>165</v>
       </c>
       <c r="B157" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C157" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -5900,10 +5982,10 @@
         <v>166</v>
       </c>
       <c r="B158" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C158" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -5911,10 +5993,10 @@
         <v>167</v>
       </c>
       <c r="B159" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C159" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -5922,10 +6004,10 @@
         <v>168</v>
       </c>
       <c r="B160" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C160" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -5933,10 +6015,10 @@
         <v>169</v>
       </c>
       <c r="B161" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C161" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -5944,10 +6026,10 @@
         <v>170</v>
       </c>
       <c r="B162" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C162" t="s">
-        <v>1141</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -5955,10 +6037,10 @@
         <v>171</v>
       </c>
       <c r="B163" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C163" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -5966,10 +6048,10 @@
         <v>172</v>
       </c>
       <c r="B164" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C164" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -5977,10 +6059,10 @@
         <v>173</v>
       </c>
       <c r="B165" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C165" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -5988,10 +6070,10 @@
         <v>174</v>
       </c>
       <c r="B166" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C166" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -5999,10 +6081,10 @@
         <v>175</v>
       </c>
       <c r="B167" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C167" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -6010,10 +6092,10 @@
         <v>176</v>
       </c>
       <c r="B168" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C168" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -6021,10 +6103,10 @@
         <v>177</v>
       </c>
       <c r="B169" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C169" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -6032,10 +6114,10 @@
         <v>178</v>
       </c>
       <c r="B170" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C170" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -6043,10 +6125,10 @@
         <v>179</v>
       </c>
       <c r="B171" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C171" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -6054,10 +6136,10 @@
         <v>180</v>
       </c>
       <c r="B172" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C172" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -6065,10 +6147,10 @@
         <v>181</v>
       </c>
       <c r="B173" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C173" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -6076,10 +6158,10 @@
         <v>182</v>
       </c>
       <c r="B174" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C174" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -6087,10 +6169,10 @@
         <v>183</v>
       </c>
       <c r="B175" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C175" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -6098,10 +6180,10 @@
         <v>184</v>
       </c>
       <c r="B176" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C176" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -6109,10 +6191,10 @@
         <v>185</v>
       </c>
       <c r="B177" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C177" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -6120,10 +6202,10 @@
         <v>186</v>
       </c>
       <c r="B178" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C178" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -6131,10 +6213,10 @@
         <v>187</v>
       </c>
       <c r="B179" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C179" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -6142,10 +6224,10 @@
         <v>188</v>
       </c>
       <c r="B180" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C180" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -6153,10 +6235,10 @@
         <v>189</v>
       </c>
       <c r="B181" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C181" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -6164,10 +6246,10 @@
         <v>190</v>
       </c>
       <c r="B182" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C182" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -6175,10 +6257,10 @@
         <v>191</v>
       </c>
       <c r="B183" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C183" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -6186,10 +6268,10 @@
         <v>192</v>
       </c>
       <c r="B184" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C184" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -6197,10 +6279,10 @@
         <v>193</v>
       </c>
       <c r="B185" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C185" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -6208,10 +6290,10 @@
         <v>194</v>
       </c>
       <c r="B186" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C186" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -6219,10 +6301,10 @@
         <v>195</v>
       </c>
       <c r="B187" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C187" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -6230,10 +6312,10 @@
         <v>196</v>
       </c>
       <c r="B188" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C188" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -6241,10 +6323,10 @@
         <v>197</v>
       </c>
       <c r="B189" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C189" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -6252,10 +6334,10 @@
         <v>198</v>
       </c>
       <c r="B190" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C190" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -6263,10 +6345,10 @@
         <v>199</v>
       </c>
       <c r="B191" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C191" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -6274,10 +6356,10 @@
         <v>200</v>
       </c>
       <c r="B192" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C192" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -6285,10 +6367,10 @@
         <v>201</v>
       </c>
       <c r="B193" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C193" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -6296,10 +6378,10 @@
         <v>202</v>
       </c>
       <c r="B194" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C194" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -6307,10 +6389,10 @@
         <v>203</v>
       </c>
       <c r="B195" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C195" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -6318,10 +6400,10 @@
         <v>204</v>
       </c>
       <c r="B196" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="C196" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -6329,10 +6411,10 @@
         <v>205</v>
       </c>
       <c r="B197" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="C197" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -6340,10 +6422,10 @@
         <v>206</v>
       </c>
       <c r="B198" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="C198" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -6351,10 +6433,10 @@
         <v>207</v>
       </c>
       <c r="B199" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="C199" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -6362,10 +6444,10 @@
         <v>208</v>
       </c>
       <c r="B200" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C200" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -6373,10 +6455,10 @@
         <v>209</v>
       </c>
       <c r="B201" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="C201" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -6384,10 +6466,10 @@
         <v>210</v>
       </c>
       <c r="B202" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C202" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -6395,10 +6477,10 @@
         <v>211</v>
       </c>
       <c r="B203" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="C203" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -6406,10 +6488,10 @@
         <v>212</v>
       </c>
       <c r="B204" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="C204" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -6417,10 +6499,10 @@
         <v>213</v>
       </c>
       <c r="B205" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C205" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -6428,10 +6510,10 @@
         <v>214</v>
       </c>
       <c r="B206" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C206" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -6439,10 +6521,10 @@
         <v>215</v>
       </c>
       <c r="B207" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C207" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -6450,10 +6532,10 @@
         <v>217</v>
       </c>
       <c r="B208" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="C208" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -6461,10 +6543,10 @@
         <v>218</v>
       </c>
       <c r="B209" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C209" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -6472,10 +6554,10 @@
         <v>219</v>
       </c>
       <c r="B210" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C210" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -6483,10 +6565,10 @@
         <v>220</v>
       </c>
       <c r="B211" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="C211" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -6494,10 +6576,10 @@
         <v>221</v>
       </c>
       <c r="B212" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C212" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -6505,10 +6587,10 @@
         <v>222</v>
       </c>
       <c r="B213" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C213" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -6516,10 +6598,10 @@
         <v>223</v>
       </c>
       <c r="B214" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C214" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -6527,10 +6609,10 @@
         <v>224</v>
       </c>
       <c r="B215" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C215" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -6538,10 +6620,10 @@
         <v>225</v>
       </c>
       <c r="B216" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C216" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -6549,10 +6631,10 @@
         <v>226</v>
       </c>
       <c r="B217" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C217" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -6560,10 +6642,10 @@
         <v>227</v>
       </c>
       <c r="B218" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C218" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -6571,10 +6653,10 @@
         <v>228</v>
       </c>
       <c r="B219" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C219" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -6582,10 +6664,10 @@
         <v>229</v>
       </c>
       <c r="B220" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C220" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -6593,10 +6675,10 @@
         <v>230</v>
       </c>
       <c r="B221" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="C221" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -6604,10 +6686,10 @@
         <v>231</v>
       </c>
       <c r="B222" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="C222" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -6615,10 +6697,10 @@
         <v>232</v>
       </c>
       <c r="B223" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C223" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -6626,10 +6708,10 @@
         <v>233</v>
       </c>
       <c r="B224" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C224" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -6637,10 +6719,10 @@
         <v>234</v>
       </c>
       <c r="B225" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="C225" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -6648,10 +6730,10 @@
         <v>235</v>
       </c>
       <c r="B226" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="C226" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -6659,10 +6741,10 @@
         <v>236</v>
       </c>
       <c r="B227" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="C227" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -6670,10 +6752,10 @@
         <v>237</v>
       </c>
       <c r="B228" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="C228" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -6681,10 +6763,10 @@
         <v>238</v>
       </c>
       <c r="B229" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="C229" t="s">
-        <v>1192</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -6692,10 +6774,10 @@
         <v>239</v>
       </c>
       <c r="B230" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C230" t="s">
-        <v>1193</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -6703,10 +6785,10 @@
         <v>240</v>
       </c>
       <c r="B231" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="C231" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -6714,10 +6796,10 @@
         <v>241</v>
       </c>
       <c r="B232" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="C232" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -6725,10 +6807,10 @@
         <v>242</v>
       </c>
       <c r="B233" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="C233" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -6736,10 +6818,10 @@
         <v>243</v>
       </c>
       <c r="B234" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="C234" t="s">
-        <v>1125</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -6747,10 +6829,10 @@
         <v>244</v>
       </c>
       <c r="B235" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="C235" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -6758,10 +6840,10 @@
         <v>245</v>
       </c>
       <c r="B236" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="C236" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -6769,10 +6851,10 @@
         <v>246</v>
       </c>
       <c r="B237" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C237" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -6780,10 +6862,10 @@
         <v>247</v>
       </c>
       <c r="B238" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="C238" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -6791,10 +6873,10 @@
         <v>248</v>
       </c>
       <c r="B239" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="C239" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -6802,10 +6884,10 @@
         <v>249</v>
       </c>
       <c r="B240" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="C240" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -6813,10 +6895,10 @@
         <v>250</v>
       </c>
       <c r="B241" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="C241" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -6824,10 +6906,10 @@
         <v>251</v>
       </c>
       <c r="B242" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="C242" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -6835,10 +6917,10 @@
         <v>252</v>
       </c>
       <c r="B243" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="C243" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -6846,10 +6928,10 @@
         <v>253</v>
       </c>
       <c r="B244" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="C244" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -6857,10 +6939,10 @@
         <v>254</v>
       </c>
       <c r="B245" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="C245" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -6868,10 +6950,10 @@
         <v>255</v>
       </c>
       <c r="B246" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C246" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -6879,10 +6961,10 @@
         <v>256</v>
       </c>
       <c r="B247" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C247" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -6890,10 +6972,10 @@
         <v>257</v>
       </c>
       <c r="B248" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C248" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -6901,10 +6983,10 @@
         <v>258</v>
       </c>
       <c r="B249" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="C249" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -6912,10 +6994,10 @@
         <v>259</v>
       </c>
       <c r="B250" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="C250" t="s">
-        <v>1191</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -6923,10 +7005,10 @@
         <v>260</v>
       </c>
       <c r="B251" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="C251" t="s">
-        <v>1190</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -6934,10 +7016,10 @@
         <v>261</v>
       </c>
       <c r="B252" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="C252" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -6945,10 +7027,10 @@
         <v>262</v>
       </c>
       <c r="B253" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="C253" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -6956,10 +7038,10 @@
         <v>263</v>
       </c>
       <c r="B254" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="C254" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -6967,10 +7049,10 @@
         <v>264</v>
       </c>
       <c r="B255" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="C255" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -6978,10 +7060,10 @@
         <v>265</v>
       </c>
       <c r="B256" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="C256" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -6989,10 +7071,10 @@
         <v>266</v>
       </c>
       <c r="B257" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="C257" t="s">
-        <v>1140</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -7000,10 +7082,10 @@
         <v>267</v>
       </c>
       <c r="B258" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="C258" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -7011,10 +7093,10 @@
         <v>268</v>
       </c>
       <c r="B259" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="C259" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -7022,10 +7104,10 @@
         <v>269</v>
       </c>
       <c r="B260" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="C260" t="s">
-        <v>1189</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -7033,10 +7115,10 @@
         <v>270</v>
       </c>
       <c r="B261" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="C261" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -7044,10 +7126,10 @@
         <v>271</v>
       </c>
       <c r="B262" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="C262" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -7055,10 +7137,10 @@
         <v>272</v>
       </c>
       <c r="B263" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="C263" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -7066,10 +7148,10 @@
         <v>274</v>
       </c>
       <c r="B264" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="C264" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -7077,10 +7159,10 @@
         <v>275</v>
       </c>
       <c r="B265" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="C265" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -7088,10 +7170,10 @@
         <v>276</v>
       </c>
       <c r="B266" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="C266" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -7099,10 +7181,10 @@
         <v>277</v>
       </c>
       <c r="B267" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="C267" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -7110,10 +7192,10 @@
         <v>278</v>
       </c>
       <c r="B268" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="C268" t="s">
-        <v>1188</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -7121,10 +7203,10 @@
         <v>279</v>
       </c>
       <c r="B269" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="C269" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -7132,10 +7214,10 @@
         <v>280</v>
       </c>
       <c r="B270" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="C270" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -7143,10 +7225,10 @@
         <v>281</v>
       </c>
       <c r="B271" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="C271" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -7154,10 +7236,10 @@
         <v>282</v>
       </c>
       <c r="B272" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="C272" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -7165,10 +7247,10 @@
         <v>283</v>
       </c>
       <c r="B273" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="C273" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -7176,10 +7258,10 @@
         <v>284</v>
       </c>
       <c r="B274" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="C274" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -7187,10 +7269,10 @@
         <v>285</v>
       </c>
       <c r="B275" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="C275" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -7198,10 +7280,10 @@
         <v>286</v>
       </c>
       <c r="B276" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="C276" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -7209,10 +7291,10 @@
         <v>287</v>
       </c>
       <c r="B277" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="C277" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -7220,10 +7302,10 @@
         <v>288</v>
       </c>
       <c r="B278" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="C278" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -7231,10 +7313,10 @@
         <v>289</v>
       </c>
       <c r="B279" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="C279" t="s">
-        <v>1187</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -7242,10 +7324,10 @@
         <v>290</v>
       </c>
       <c r="B280" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="C280" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -7253,10 +7335,10 @@
         <v>291</v>
       </c>
       <c r="B281" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="C281" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -7264,10 +7346,10 @@
         <v>292</v>
       </c>
       <c r="B282" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="C282" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -7275,10 +7357,10 @@
         <v>293</v>
       </c>
       <c r="B283" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="C283" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -7286,10 +7368,10 @@
         <v>294</v>
       </c>
       <c r="B284" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="C284" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -7297,10 +7379,10 @@
         <v>295</v>
       </c>
       <c r="B285" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="C285" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -7308,10 +7390,10 @@
         <v>296</v>
       </c>
       <c r="B286" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="C286" t="s">
-        <v>1147</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -7319,10 +7401,10 @@
         <v>297</v>
       </c>
       <c r="B287" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="C287" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -7330,10 +7412,10 @@
         <v>298</v>
       </c>
       <c r="B288" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="C288" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -7341,10 +7423,10 @@
         <v>299</v>
       </c>
       <c r="B289" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="C289" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -7352,10 +7434,10 @@
         <v>300</v>
       </c>
       <c r="B290" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="C290" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -7363,10 +7445,10 @@
         <v>301</v>
       </c>
       <c r="B291" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="C291" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -7374,10 +7456,10 @@
         <v>302</v>
       </c>
       <c r="B292" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="C292" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -7385,10 +7467,10 @@
         <v>303</v>
       </c>
       <c r="B293" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="C293" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -7396,10 +7478,10 @@
         <v>304</v>
       </c>
       <c r="B294" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="C294" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -7407,10 +7489,10 @@
         <v>305</v>
       </c>
       <c r="B295" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="C295" t="s">
-        <v>553</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -7418,10 +7500,10 @@
         <v>306</v>
       </c>
       <c r="B296" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="C296" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -7429,10 +7511,10 @@
         <v>307</v>
       </c>
       <c r="B297" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="C297" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -7440,10 +7522,10 @@
         <v>308</v>
       </c>
       <c r="B298" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="C298" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
@@ -7451,10 +7533,10 @@
         <v>309</v>
       </c>
       <c r="B299" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="C299" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
@@ -7462,10 +7544,10 @@
         <v>310</v>
       </c>
       <c r="B300" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="C300" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -7473,10 +7555,10 @@
         <v>311</v>
       </c>
       <c r="B301" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="C301" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -7484,10 +7566,10 @@
         <v>312</v>
       </c>
       <c r="B302" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="C302" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -7495,10 +7577,10 @@
         <v>313</v>
       </c>
       <c r="B303" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="C303" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -7506,10 +7588,10 @@
         <v>314</v>
       </c>
       <c r="B304" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="C304" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -7517,10 +7599,10 @@
         <v>315</v>
       </c>
       <c r="B305" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="C305" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -7528,10 +7610,10 @@
         <v>316</v>
       </c>
       <c r="B306" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C306" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -7539,10 +7621,10 @@
         <v>317</v>
       </c>
       <c r="B307" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="C307" t="s">
-        <v>1126</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -7550,10 +7632,10 @@
         <v>318</v>
       </c>
       <c r="B308" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="C308" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -7561,10 +7643,10 @@
         <v>319</v>
       </c>
       <c r="B309" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="C309" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -7572,10 +7654,10 @@
         <v>320</v>
       </c>
       <c r="B310" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="C310" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -7583,10 +7665,10 @@
         <v>321</v>
       </c>
       <c r="B311" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="C311" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -7594,10 +7676,10 @@
         <v>322</v>
       </c>
       <c r="B312" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="C312" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -7605,10 +7687,10 @@
         <v>323</v>
       </c>
       <c r="B313" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="C313" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -7616,10 +7698,10 @@
         <v>324</v>
       </c>
       <c r="B314" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="C314" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -7627,7 +7709,7 @@
         <v>325</v>
       </c>
       <c r="B315" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="C315" t="s">
         <v>1186</v>
@@ -7638,10 +7720,10 @@
         <v>326</v>
       </c>
       <c r="B316" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="C316" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -7649,10 +7731,10 @@
         <v>327</v>
       </c>
       <c r="B317" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="C317" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -7660,10 +7742,10 @@
         <v>328</v>
       </c>
       <c r="B318" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="C318" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -7671,10 +7753,10 @@
         <v>329</v>
       </c>
       <c r="B319" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="C319" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -7682,10 +7764,10 @@
         <v>330</v>
       </c>
       <c r="B320" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="C320" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -7693,10 +7775,10 @@
         <v>331</v>
       </c>
       <c r="B321" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="C321" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -7704,10 +7786,10 @@
         <v>332</v>
       </c>
       <c r="B322" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="C322" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -7715,10 +7797,10 @@
         <v>333</v>
       </c>
       <c r="B323" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="C323" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -7726,10 +7808,10 @@
         <v>334</v>
       </c>
       <c r="B324" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C324" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -7737,10 +7819,10 @@
         <v>335</v>
       </c>
       <c r="B325" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="C325" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -7748,10 +7830,10 @@
         <v>336</v>
       </c>
       <c r="B326" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="C326" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -7759,10 +7841,10 @@
         <v>337</v>
       </c>
       <c r="B327" t="s">
-        <v>614</v>
+        <v>1197</v>
       </c>
       <c r="C327" t="s">
-        <v>615</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -7770,10 +7852,10 @@
         <v>338</v>
       </c>
       <c r="B328" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="C328" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -7781,10 +7863,10 @@
         <v>339</v>
       </c>
       <c r="B329" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="C329" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -7792,10 +7874,10 @@
         <v>340</v>
       </c>
       <c r="B330" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="C330" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -7803,10 +7885,10 @@
         <v>341</v>
       </c>
       <c r="B331" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="C331" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -7814,10 +7896,10 @@
         <v>342</v>
       </c>
       <c r="B332" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="C332" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -7825,10 +7907,10 @@
         <v>343</v>
       </c>
       <c r="B333" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="C333" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -7836,10 +7918,10 @@
         <v>344</v>
       </c>
       <c r="B334" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="C334" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -7847,10 +7929,10 @@
         <v>345</v>
       </c>
       <c r="B335" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="C335" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -7858,10 +7940,10 @@
         <v>346</v>
       </c>
       <c r="B336" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="C336" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
@@ -7869,10 +7951,10 @@
         <v>347</v>
       </c>
       <c r="B337" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="C337" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -7880,10 +7962,10 @@
         <v>348</v>
       </c>
       <c r="B338" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="C338" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -7891,10 +7973,10 @@
         <v>349</v>
       </c>
       <c r="B339" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="C339" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -7902,10 +7984,10 @@
         <v>350</v>
       </c>
       <c r="B340" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="C340" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
@@ -7913,10 +7995,10 @@
         <v>351</v>
       </c>
       <c r="B341" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="C341" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -7924,10 +8006,10 @@
         <v>352</v>
       </c>
       <c r="B342" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="C342" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -7935,10 +8017,10 @@
         <v>353</v>
       </c>
       <c r="B343" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="C343" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -7946,10 +8028,10 @@
         <v>354</v>
       </c>
       <c r="B344" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="C344" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -7957,10 +8039,10 @@
         <v>355</v>
       </c>
       <c r="B345" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="C345" t="s">
-        <v>1132</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -7968,10 +8050,10 @@
         <v>356</v>
       </c>
       <c r="B346" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="C346" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -7979,10 +8061,10 @@
         <v>357</v>
       </c>
       <c r="B347" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="C347" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -7990,10 +8072,10 @@
         <v>358</v>
       </c>
       <c r="B348" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="C348" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -8001,10 +8083,10 @@
         <v>359</v>
       </c>
       <c r="B349" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="C349" t="s">
-        <v>658</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -8012,10 +8094,10 @@
         <v>360</v>
       </c>
       <c r="B350" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="C350" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -8023,10 +8105,10 @@
         <v>361</v>
       </c>
       <c r="B351" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="C351" t="s">
-        <v>1112</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -8034,10 +8116,10 @@
         <v>362</v>
       </c>
       <c r="B352" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="C352" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
@@ -8045,10 +8127,10 @@
         <v>363</v>
       </c>
       <c r="B353" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="C353" t="s">
-        <v>665</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -8056,10 +8138,10 @@
         <v>364</v>
       </c>
       <c r="B354" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="C354" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
@@ -8067,10 +8149,10 @@
         <v>365</v>
       </c>
       <c r="B355" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="C355" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
@@ -8078,10 +8160,10 @@
         <v>366</v>
       </c>
       <c r="B356" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="C356" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
@@ -8089,10 +8171,10 @@
         <v>367</v>
       </c>
       <c r="B357" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="C357" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
@@ -8100,10 +8182,10 @@
         <v>368</v>
       </c>
       <c r="B358" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="C358" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
@@ -8111,10 +8193,10 @@
         <v>369</v>
       </c>
       <c r="B359" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="C359" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
@@ -8122,10 +8204,10 @@
         <v>370</v>
       </c>
       <c r="B360" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="C360" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
@@ -8133,10 +8215,10 @@
         <v>371</v>
       </c>
       <c r="B361" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="C361" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
@@ -8144,10 +8226,10 @@
         <v>372</v>
       </c>
       <c r="B362" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="C362" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
@@ -8155,10 +8237,10 @@
         <v>373</v>
       </c>
       <c r="B363" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="C363" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
@@ -8166,10 +8248,10 @@
         <v>374</v>
       </c>
       <c r="B364" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="C364" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
@@ -8177,10 +8259,10 @@
         <v>375</v>
       </c>
       <c r="B365" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
       <c r="C365" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
@@ -8188,10 +8270,10 @@
         <v>376</v>
       </c>
       <c r="B366" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
       <c r="C366" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
@@ -8199,10 +8281,10 @@
         <v>377</v>
       </c>
       <c r="B367" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="C367" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
@@ -8210,10 +8292,10 @@
         <v>378</v>
       </c>
       <c r="B368" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="C368" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -8221,10 +8303,10 @@
         <v>379</v>
       </c>
       <c r="B369" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="C369" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
@@ -8232,10 +8314,10 @@
         <v>380</v>
       </c>
       <c r="B370" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="C370" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
@@ -8243,10 +8325,10 @@
         <v>381</v>
       </c>
       <c r="B371" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="C371" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -8254,10 +8336,10 @@
         <v>382</v>
       </c>
       <c r="B372" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="C372" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -8265,10 +8347,10 @@
         <v>383</v>
       </c>
       <c r="B373" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="C373" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
@@ -8276,10 +8358,10 @@
         <v>384</v>
       </c>
       <c r="B374" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="C374" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -8287,10 +8369,10 @@
         <v>385</v>
       </c>
       <c r="B375" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="C375" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -8298,10 +8380,10 @@
         <v>386</v>
       </c>
       <c r="B376" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="C376" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
@@ -8309,10 +8391,10 @@
         <v>387</v>
       </c>
       <c r="B377" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="C377" t="s">
-        <v>1137</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
@@ -8320,10 +8402,10 @@
         <v>388</v>
       </c>
       <c r="B378" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="C378" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
@@ -8331,10 +8413,10 @@
         <v>389</v>
       </c>
       <c r="B379" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="C379" t="s">
-        <v>716</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -8342,10 +8424,10 @@
         <v>390</v>
       </c>
       <c r="B380" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
       <c r="C380" t="s">
-        <v>718</v>
+        <v>705</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -8353,10 +8435,10 @@
         <v>391</v>
       </c>
       <c r="B381" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="C381" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -8364,10 +8446,10 @@
         <v>392</v>
       </c>
       <c r="B382" t="s">
-        <v>721</v>
+        <v>708</v>
       </c>
       <c r="C382" t="s">
-        <v>722</v>
+        <v>709</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
@@ -8375,10 +8457,10 @@
         <v>393</v>
       </c>
       <c r="B383" t="s">
-        <v>723</v>
+        <v>710</v>
       </c>
       <c r="C383" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -8386,10 +8468,10 @@
         <v>394</v>
       </c>
       <c r="B384" t="s">
-        <v>725</v>
+        <v>712</v>
       </c>
       <c r="C384" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
@@ -8397,10 +8479,10 @@
         <v>395</v>
       </c>
       <c r="B385" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
       <c r="C385" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
@@ -8408,10 +8490,10 @@
         <v>396</v>
       </c>
       <c r="B386" t="s">
-        <v>729</v>
+        <v>716</v>
       </c>
       <c r="C386" t="s">
-        <v>730</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
@@ -8419,10 +8501,10 @@
         <v>397</v>
       </c>
       <c r="B387" t="s">
-        <v>731</v>
+        <v>717</v>
       </c>
       <c r="C387" t="s">
-        <v>732</v>
+        <v>718</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -8430,10 +8512,10 @@
         <v>398</v>
       </c>
       <c r="B388" t="s">
-        <v>733</v>
+        <v>719</v>
       </c>
       <c r="C388" t="s">
-        <v>734</v>
+        <v>720</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -8441,10 +8523,10 @@
         <v>399</v>
       </c>
       <c r="B389" t="s">
-        <v>735</v>
+        <v>721</v>
       </c>
       <c r="C389" t="s">
-        <v>736</v>
+        <v>722</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -8452,10 +8534,10 @@
         <v>400</v>
       </c>
       <c r="B390" t="s">
-        <v>737</v>
+        <v>723</v>
       </c>
       <c r="C390" t="s">
-        <v>738</v>
+        <v>724</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
@@ -8463,10 +8545,10 @@
         <v>401</v>
       </c>
       <c r="B391" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
       <c r="C391" t="s">
-        <v>740</v>
+        <v>726</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
@@ -8474,10 +8556,10 @@
         <v>402</v>
       </c>
       <c r="B392" t="s">
-        <v>741</v>
+        <v>727</v>
       </c>
       <c r="C392" t="s">
-        <v>742</v>
+        <v>728</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
@@ -8485,10 +8567,10 @@
         <v>403</v>
       </c>
       <c r="B393" t="s">
-        <v>743</v>
+        <v>729</v>
       </c>
       <c r="C393" t="s">
-        <v>744</v>
+        <v>730</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -8496,10 +8578,10 @@
         <v>404</v>
       </c>
       <c r="B394" t="s">
-        <v>745</v>
+        <v>731</v>
       </c>
       <c r="C394" t="s">
-        <v>746</v>
+        <v>732</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -8507,10 +8589,10 @@
         <v>405</v>
       </c>
       <c r="B395" t="s">
-        <v>747</v>
+        <v>733</v>
       </c>
       <c r="C395" t="s">
-        <v>748</v>
+        <v>734</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
@@ -8518,10 +8600,10 @@
         <v>406</v>
       </c>
       <c r="B396" t="s">
-        <v>749</v>
+        <v>735</v>
       </c>
       <c r="C396" t="s">
-        <v>750</v>
+        <v>736</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -8529,10 +8611,10 @@
         <v>407</v>
       </c>
       <c r="B397" t="s">
-        <v>751</v>
+        <v>737</v>
       </c>
       <c r="C397" t="s">
-        <v>752</v>
+        <v>738</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -8540,10 +8622,10 @@
         <v>408</v>
       </c>
       <c r="B398" t="s">
-        <v>753</v>
+        <v>739</v>
       </c>
       <c r="C398" t="s">
-        <v>754</v>
+        <v>740</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -8551,10 +8633,10 @@
         <v>409</v>
       </c>
       <c r="B399" t="s">
-        <v>755</v>
+        <v>741</v>
       </c>
       <c r="C399" t="s">
-        <v>756</v>
+        <v>742</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -8562,10 +8644,10 @@
         <v>410</v>
       </c>
       <c r="B400" t="s">
-        <v>757</v>
+        <v>743</v>
       </c>
       <c r="C400" t="s">
-        <v>758</v>
+        <v>744</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
@@ -8573,10 +8655,10 @@
         <v>411</v>
       </c>
       <c r="B401" t="s">
-        <v>759</v>
+        <v>745</v>
       </c>
       <c r="C401" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
@@ -8584,10 +8666,10 @@
         <v>412</v>
       </c>
       <c r="B402" t="s">
-        <v>761</v>
+        <v>747</v>
       </c>
       <c r="C402" t="s">
-        <v>1185</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
@@ -8595,10 +8677,10 @@
         <v>413</v>
       </c>
       <c r="B403" t="s">
-        <v>762</v>
+        <v>748</v>
       </c>
       <c r="C403" t="s">
-        <v>763</v>
+        <v>749</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
@@ -8606,10 +8688,10 @@
         <v>414</v>
       </c>
       <c r="B404" t="s">
-        <v>764</v>
+        <v>750</v>
       </c>
       <c r="C404" t="s">
-        <v>765</v>
+        <v>751</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
@@ -8617,10 +8699,10 @@
         <v>415</v>
       </c>
       <c r="B405" t="s">
-        <v>766</v>
+        <v>752</v>
       </c>
       <c r="C405" t="s">
-        <v>767</v>
+        <v>753</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
@@ -8628,10 +8710,10 @@
         <v>416</v>
       </c>
       <c r="B406" t="s">
-        <v>768</v>
+        <v>754</v>
       </c>
       <c r="C406" t="s">
-        <v>769</v>
+        <v>755</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
@@ -8639,7 +8721,10 @@
         <v>417</v>
       </c>
       <c r="B407" t="s">
-        <v>770</v>
+        <v>756</v>
+      </c>
+      <c r="C407" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
@@ -8647,10 +8732,10 @@
         <v>418</v>
       </c>
       <c r="B408" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="C408" t="s">
-        <v>772</v>
+        <v>758</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
@@ -8658,10 +8743,10 @@
         <v>419</v>
       </c>
       <c r="B409" t="s">
-        <v>773</v>
+        <v>759</v>
       </c>
       <c r="C409" t="s">
-        <v>774</v>
+        <v>760</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
@@ -8669,10 +8754,10 @@
         <v>420</v>
       </c>
       <c r="B410" t="s">
-        <v>775</v>
+        <v>761</v>
       </c>
       <c r="C410" t="s">
-        <v>776</v>
+        <v>762</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
@@ -8680,10 +8765,10 @@
         <v>421</v>
       </c>
       <c r="B411" t="s">
-        <v>777</v>
+        <v>763</v>
       </c>
       <c r="C411" t="s">
-        <v>778</v>
+        <v>764</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
@@ -8691,10 +8776,10 @@
         <v>422</v>
       </c>
       <c r="B412" t="s">
-        <v>779</v>
+        <v>765</v>
       </c>
       <c r="C412" t="s">
-        <v>780</v>
+        <v>766</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
@@ -8702,10 +8787,10 @@
         <v>423</v>
       </c>
       <c r="B413" t="s">
-        <v>781</v>
+        <v>767</v>
       </c>
       <c r="C413" t="s">
-        <v>782</v>
+        <v>768</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
@@ -8713,10 +8798,10 @@
         <v>424</v>
       </c>
       <c r="B414" t="s">
-        <v>783</v>
+        <v>769</v>
       </c>
       <c r="C414" t="s">
-        <v>784</v>
+        <v>770</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
@@ -8724,10 +8809,10 @@
         <v>425</v>
       </c>
       <c r="B415" t="s">
-        <v>785</v>
+        <v>771</v>
       </c>
       <c r="C415" t="s">
-        <v>786</v>
+        <v>772</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
@@ -8735,10 +8820,10 @@
         <v>426</v>
       </c>
       <c r="B416" t="s">
-        <v>787</v>
+        <v>773</v>
       </c>
       <c r="C416" t="s">
-        <v>788</v>
+        <v>774</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
@@ -8746,10 +8831,10 @@
         <v>427</v>
       </c>
       <c r="B417" t="s">
-        <v>789</v>
+        <v>775</v>
       </c>
       <c r="C417" t="s">
-        <v>790</v>
+        <v>776</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
@@ -8757,10 +8842,10 @@
         <v>428</v>
       </c>
       <c r="B418" t="s">
-        <v>791</v>
+        <v>777</v>
       </c>
       <c r="C418" t="s">
-        <v>1148</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
@@ -8768,10 +8853,10 @@
         <v>429</v>
       </c>
       <c r="B419" t="s">
-        <v>792</v>
+        <v>778</v>
       </c>
       <c r="C419" t="s">
-        <v>1149</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
@@ -8779,10 +8864,10 @@
         <v>430</v>
       </c>
       <c r="B420" t="s">
-        <v>793</v>
+        <v>779</v>
       </c>
       <c r="C420" t="s">
-        <v>794</v>
+        <v>780</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
@@ -8790,10 +8875,10 @@
         <v>431</v>
       </c>
       <c r="B421" t="s">
-        <v>795</v>
+        <v>781</v>
       </c>
       <c r="C421" t="s">
-        <v>796</v>
+        <v>782</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
@@ -8801,10 +8886,10 @@
         <v>432</v>
       </c>
       <c r="B422" t="s">
-        <v>797</v>
+        <v>783</v>
       </c>
       <c r="C422" t="s">
-        <v>798</v>
+        <v>784</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
@@ -8812,10 +8897,10 @@
         <v>433</v>
       </c>
       <c r="B423" t="s">
-        <v>799</v>
+        <v>785</v>
       </c>
       <c r="C423" t="s">
-        <v>1184</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
@@ -8823,10 +8908,10 @@
         <v>434</v>
       </c>
       <c r="B424" t="s">
-        <v>800</v>
+        <v>786</v>
       </c>
       <c r="C424" t="s">
-        <v>801</v>
+        <v>787</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
@@ -8834,10 +8919,10 @@
         <v>435</v>
       </c>
       <c r="B425" t="s">
-        <v>802</v>
+        <v>788</v>
       </c>
       <c r="C425" t="s">
-        <v>1183</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
@@ -8845,10 +8930,10 @@
         <v>436</v>
       </c>
       <c r="B426" t="s">
-        <v>803</v>
+        <v>789</v>
       </c>
       <c r="C426" t="s">
-        <v>804</v>
+        <v>790</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
@@ -8856,10 +8941,10 @@
         <v>437</v>
       </c>
       <c r="B427" t="s">
-        <v>805</v>
+        <v>791</v>
       </c>
       <c r="C427" t="s">
-        <v>806</v>
+        <v>792</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
@@ -8867,10 +8952,10 @@
         <v>438</v>
       </c>
       <c r="B428" t="s">
-        <v>807</v>
+        <v>793</v>
       </c>
       <c r="C428" t="s">
-        <v>750</v>
+        <v>736</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
@@ -8878,10 +8963,10 @@
         <v>439</v>
       </c>
       <c r="B429" t="s">
-        <v>808</v>
+        <v>794</v>
       </c>
       <c r="C429" t="s">
-        <v>750</v>
+        <v>736</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
@@ -8889,10 +8974,10 @@
         <v>440</v>
       </c>
       <c r="B430" t="s">
-        <v>809</v>
+        <v>795</v>
       </c>
       <c r="C430" t="s">
-        <v>810</v>
+        <v>796</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
@@ -8900,10 +8985,10 @@
         <v>441</v>
       </c>
       <c r="B431" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="C431" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
@@ -8911,10 +8996,10 @@
         <v>442</v>
       </c>
       <c r="B432" t="s">
-        <v>813</v>
+        <v>799</v>
       </c>
       <c r="C432" t="s">
-        <v>1182</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
@@ -8922,10 +9007,10 @@
         <v>443</v>
       </c>
       <c r="B433" t="s">
-        <v>814</v>
+        <v>800</v>
       </c>
       <c r="C433" t="s">
-        <v>815</v>
+        <v>801</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
@@ -8933,10 +9018,10 @@
         <v>444</v>
       </c>
       <c r="B434" t="s">
-        <v>816</v>
+        <v>802</v>
       </c>
       <c r="C434" t="s">
-        <v>817</v>
+        <v>803</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
@@ -8944,10 +9029,10 @@
         <v>445</v>
       </c>
       <c r="B435" t="s">
-        <v>818</v>
+        <v>804</v>
       </c>
       <c r="C435" t="s">
-        <v>819</v>
+        <v>805</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
@@ -8955,10 +9040,10 @@
         <v>446</v>
       </c>
       <c r="B436" t="s">
-        <v>820</v>
+        <v>806</v>
       </c>
       <c r="C436" t="s">
-        <v>821</v>
+        <v>807</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
@@ -8966,10 +9051,10 @@
         <v>447</v>
       </c>
       <c r="B437" t="s">
-        <v>822</v>
+        <v>808</v>
       </c>
       <c r="C437" t="s">
-        <v>823</v>
+        <v>809</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
@@ -8977,10 +9062,10 @@
         <v>448</v>
       </c>
       <c r="B438" t="s">
-        <v>824</v>
+        <v>810</v>
       </c>
       <c r="C438" t="s">
-        <v>825</v>
+        <v>811</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
@@ -8988,10 +9073,10 @@
         <v>449</v>
       </c>
       <c r="B439" t="s">
-        <v>826</v>
+        <v>812</v>
       </c>
       <c r="C439" t="s">
-        <v>827</v>
+        <v>813</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
@@ -8999,10 +9084,10 @@
         <v>450</v>
       </c>
       <c r="B440" t="s">
-        <v>828</v>
+        <v>814</v>
       </c>
       <c r="C440" t="s">
-        <v>829</v>
+        <v>815</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
@@ -9010,10 +9095,10 @@
         <v>451</v>
       </c>
       <c r="B441" t="s">
-        <v>830</v>
+        <v>816</v>
       </c>
       <c r="C441" t="s">
-        <v>831</v>
+        <v>817</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
@@ -9021,10 +9106,10 @@
         <v>452</v>
       </c>
       <c r="B442" t="s">
-        <v>832</v>
+        <v>818</v>
       </c>
       <c r="C442" t="s">
-        <v>833</v>
+        <v>819</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
@@ -9032,10 +9117,10 @@
         <v>453</v>
       </c>
       <c r="B443" t="s">
-        <v>834</v>
+        <v>820</v>
       </c>
       <c r="C443" t="s">
-        <v>835</v>
+        <v>821</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
@@ -9043,10 +9128,10 @@
         <v>455</v>
       </c>
       <c r="B444" t="s">
-        <v>836</v>
+        <v>822</v>
       </c>
       <c r="C444" t="s">
-        <v>837</v>
+        <v>823</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
@@ -9054,10 +9139,10 @@
         <v>456</v>
       </c>
       <c r="B445" t="s">
-        <v>838</v>
+        <v>824</v>
       </c>
       <c r="C445" t="s">
-        <v>839</v>
+        <v>825</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
@@ -9065,10 +9150,10 @@
         <v>457</v>
       </c>
       <c r="B446" t="s">
-        <v>840</v>
+        <v>826</v>
       </c>
       <c r="C446" t="s">
-        <v>841</v>
+        <v>827</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
@@ -9076,10 +9161,10 @@
         <v>458</v>
       </c>
       <c r="B447" t="s">
-        <v>842</v>
+        <v>828</v>
       </c>
       <c r="C447" t="s">
-        <v>1181</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
@@ -9087,10 +9172,10 @@
         <v>459</v>
       </c>
       <c r="B448" t="s">
-        <v>843</v>
+        <v>829</v>
       </c>
       <c r="C448" t="s">
-        <v>844</v>
+        <v>830</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
@@ -9098,10 +9183,10 @@
         <v>460</v>
       </c>
       <c r="B449" t="s">
-        <v>845</v>
+        <v>831</v>
       </c>
       <c r="C449" t="s">
-        <v>1175</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
@@ -9109,10 +9194,10 @@
         <v>461</v>
       </c>
       <c r="B450" t="s">
-        <v>846</v>
+        <v>832</v>
       </c>
       <c r="C450" t="s">
-        <v>847</v>
+        <v>833</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
@@ -9120,10 +9205,10 @@
         <v>462</v>
       </c>
       <c r="B451" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="C451" t="s">
-        <v>848</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
@@ -9131,10 +9216,10 @@
         <v>463</v>
       </c>
       <c r="B452" t="s">
-        <v>849</v>
+        <v>834</v>
       </c>
       <c r="C452" t="s">
-        <v>1165</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
@@ -9142,10 +9227,10 @@
         <v>464</v>
       </c>
       <c r="B453" t="s">
-        <v>850</v>
+        <v>835</v>
       </c>
       <c r="C453" t="s">
-        <v>851</v>
+        <v>836</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
@@ -9153,10 +9238,10 @@
         <v>465</v>
       </c>
       <c r="B454" t="s">
-        <v>852</v>
+        <v>837</v>
       </c>
       <c r="C454" t="s">
-        <v>853</v>
+        <v>838</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
@@ -9164,10 +9249,10 @@
         <v>466</v>
       </c>
       <c r="B455" t="s">
-        <v>854</v>
+        <v>839</v>
       </c>
       <c r="C455" t="s">
-        <v>1128</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
@@ -9175,10 +9260,10 @@
         <v>467</v>
       </c>
       <c r="B456" t="s">
-        <v>757</v>
+        <v>743</v>
       </c>
       <c r="C456" t="s">
-        <v>855</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
@@ -9186,10 +9271,10 @@
         <v>468</v>
       </c>
       <c r="B457" t="s">
-        <v>856</v>
+        <v>840</v>
       </c>
       <c r="C457" t="s">
-        <v>857</v>
+        <v>841</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
@@ -9197,10 +9282,10 @@
         <v>469</v>
       </c>
       <c r="B458" t="s">
-        <v>858</v>
+        <v>842</v>
       </c>
       <c r="C458" t="s">
-        <v>859</v>
+        <v>843</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
@@ -9208,10 +9293,10 @@
         <v>470</v>
       </c>
       <c r="B459" t="s">
-        <v>860</v>
+        <v>844</v>
       </c>
       <c r="C459" t="s">
-        <v>1115</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
@@ -9219,7 +9304,7 @@
         <v>471</v>
       </c>
       <c r="B460" t="s">
-        <v>861</v>
+        <v>845</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
@@ -9227,10 +9312,10 @@
         <v>472</v>
       </c>
       <c r="B461" t="s">
-        <v>862</v>
+        <v>846</v>
       </c>
       <c r="C461" t="s">
-        <v>863</v>
+        <v>847</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
@@ -9238,10 +9323,10 @@
         <v>473</v>
       </c>
       <c r="B462" t="s">
-        <v>864</v>
+        <v>848</v>
       </c>
       <c r="C462" t="s">
-        <v>865</v>
+        <v>849</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
@@ -9249,10 +9334,10 @@
         <v>474</v>
       </c>
       <c r="B463" t="s">
-        <v>866</v>
+        <v>850</v>
       </c>
       <c r="C463" t="s">
-        <v>867</v>
+        <v>851</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
@@ -9260,10 +9345,10 @@
         <v>475</v>
       </c>
       <c r="B464" t="s">
-        <v>868</v>
+        <v>852</v>
       </c>
       <c r="C464" t="s">
-        <v>869</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
@@ -9271,10 +9356,10 @@
         <v>476</v>
       </c>
       <c r="B465" t="s">
-        <v>870</v>
+        <v>853</v>
       </c>
       <c r="C465" t="s">
-        <v>1180</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
@@ -9282,10 +9367,10 @@
         <v>477</v>
       </c>
       <c r="B466" t="s">
-        <v>871</v>
+        <v>854</v>
       </c>
       <c r="C466" t="s">
-        <v>872</v>
+        <v>855</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
@@ -9293,10 +9378,10 @@
         <v>478</v>
       </c>
       <c r="B467" t="s">
-        <v>873</v>
+        <v>856</v>
       </c>
       <c r="C467" t="s">
-        <v>874</v>
+        <v>857</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
@@ -9304,10 +9389,10 @@
         <v>479</v>
       </c>
       <c r="B468" t="s">
-        <v>875</v>
+        <v>858</v>
       </c>
       <c r="C468" t="s">
-        <v>876</v>
+        <v>859</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
@@ -9315,10 +9400,10 @@
         <v>480</v>
       </c>
       <c r="B469" t="s">
-        <v>877</v>
+        <v>860</v>
       </c>
       <c r="C469" t="s">
-        <v>878</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
@@ -9326,10 +9411,10 @@
         <v>481</v>
       </c>
       <c r="B470" t="s">
-        <v>879</v>
+        <v>861</v>
       </c>
       <c r="C470" t="s">
-        <v>880</v>
+        <v>862</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
@@ -9337,10 +9422,10 @@
         <v>482</v>
       </c>
       <c r="B471" t="s">
-        <v>881</v>
+        <v>863</v>
       </c>
       <c r="C471" t="s">
-        <v>882</v>
+        <v>864</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
@@ -9348,21 +9433,21 @@
         <v>483</v>
       </c>
       <c r="B472" t="s">
-        <v>883</v>
+        <v>865</v>
       </c>
       <c r="C472" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A473">
         <v>484</v>
       </c>
       <c r="B473" t="s">
-        <v>885</v>
+        <v>1208</v>
       </c>
       <c r="C473" t="s">
-        <v>886</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
@@ -9370,10 +9455,10 @@
         <v>485</v>
       </c>
       <c r="B474" t="s">
-        <v>887</v>
+        <v>867</v>
       </c>
       <c r="C474" t="s">
-        <v>888</v>
+        <v>868</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
@@ -9381,10 +9466,10 @@
         <v>486</v>
       </c>
       <c r="B475" t="s">
-        <v>889</v>
+        <v>869</v>
       </c>
       <c r="C475" t="s">
-        <v>890</v>
+        <v>870</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
@@ -9392,10 +9477,10 @@
         <v>487</v>
       </c>
       <c r="B476" t="s">
-        <v>891</v>
+        <v>871</v>
       </c>
       <c r="C476" t="s">
-        <v>892</v>
+        <v>872</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
@@ -9403,10 +9488,10 @@
         <v>488</v>
       </c>
       <c r="B477" t="s">
-        <v>893</v>
+        <v>873</v>
       </c>
       <c r="C477" t="s">
-        <v>894</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
@@ -9414,10 +9499,10 @@
         <v>489</v>
       </c>
       <c r="B478" t="s">
-        <v>895</v>
+        <v>874</v>
       </c>
       <c r="C478" t="s">
-        <v>895</v>
+        <v>874</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
@@ -9425,10 +9510,10 @@
         <v>490</v>
       </c>
       <c r="B479" t="s">
-        <v>896</v>
+        <v>875</v>
       </c>
       <c r="C479" t="s">
-        <v>897</v>
+        <v>876</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
@@ -9436,10 +9521,10 @@
         <v>491</v>
       </c>
       <c r="B480" t="s">
-        <v>898</v>
+        <v>877</v>
       </c>
       <c r="C480" t="s">
-        <v>1155</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
@@ -9447,10 +9532,10 @@
         <v>492</v>
       </c>
       <c r="B481" t="s">
-        <v>899</v>
+        <v>878</v>
       </c>
       <c r="C481" t="s">
-        <v>900</v>
+        <v>879</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
@@ -9458,10 +9543,10 @@
         <v>493</v>
       </c>
       <c r="B482" t="s">
-        <v>901</v>
+        <v>880</v>
       </c>
       <c r="C482" t="s">
-        <v>902</v>
+        <v>881</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
@@ -9469,10 +9554,10 @@
         <v>494</v>
       </c>
       <c r="B483" t="s">
-        <v>903</v>
+        <v>882</v>
       </c>
       <c r="C483" t="s">
-        <v>904</v>
+        <v>883</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
@@ -9480,10 +9565,10 @@
         <v>496</v>
       </c>
       <c r="B484" t="s">
-        <v>905</v>
+        <v>884</v>
       </c>
       <c r="C484" t="s">
-        <v>906</v>
+        <v>885</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
@@ -9491,10 +9576,10 @@
         <v>497</v>
       </c>
       <c r="B485" t="s">
-        <v>907</v>
+        <v>886</v>
       </c>
       <c r="C485" t="s">
-        <v>908</v>
+        <v>887</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
@@ -9502,10 +9587,10 @@
         <v>498</v>
       </c>
       <c r="B486" t="s">
-        <v>909</v>
+        <v>888</v>
       </c>
       <c r="C486" t="s">
-        <v>910</v>
+        <v>889</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
@@ -9513,10 +9598,10 @@
         <v>499</v>
       </c>
       <c r="B487" t="s">
-        <v>911</v>
+        <v>890</v>
       </c>
       <c r="C487" t="s">
-        <v>912</v>
+        <v>891</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
@@ -9524,10 +9609,10 @@
         <v>500</v>
       </c>
       <c r="B488" t="s">
-        <v>913</v>
+        <v>892</v>
       </c>
       <c r="C488" t="s">
-        <v>914</v>
+        <v>893</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
@@ -9535,10 +9620,10 @@
         <v>501</v>
       </c>
       <c r="B489" t="s">
-        <v>915</v>
+        <v>894</v>
       </c>
       <c r="C489" t="s">
-        <v>916</v>
+        <v>895</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
@@ -9546,10 +9631,10 @@
         <v>502</v>
       </c>
       <c r="B490" t="s">
-        <v>917</v>
+        <v>896</v>
       </c>
       <c r="C490" t="s">
-        <v>918</v>
+        <v>897</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
@@ -9557,10 +9642,10 @@
         <v>503</v>
       </c>
       <c r="B491" t="s">
-        <v>919</v>
+        <v>898</v>
       </c>
       <c r="C491" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
@@ -9568,10 +9653,10 @@
         <v>504</v>
       </c>
       <c r="B492" t="s">
-        <v>921</v>
+        <v>900</v>
       </c>
       <c r="C492" t="s">
-        <v>922</v>
+        <v>901</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
@@ -9579,10 +9664,10 @@
         <v>505</v>
       </c>
       <c r="B493" t="s">
-        <v>923</v>
+        <v>902</v>
       </c>
       <c r="C493" t="s">
-        <v>924</v>
+        <v>903</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
@@ -9590,10 +9675,10 @@
         <v>506</v>
       </c>
       <c r="B494" t="s">
-        <v>925</v>
+        <v>904</v>
       </c>
       <c r="C494" t="s">
-        <v>926</v>
+        <v>905</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
@@ -9601,10 +9686,10 @@
         <v>507</v>
       </c>
       <c r="B495" t="s">
-        <v>927</v>
+        <v>906</v>
       </c>
       <c r="C495" t="s">
-        <v>928</v>
+        <v>907</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
@@ -9612,10 +9697,10 @@
         <v>508</v>
       </c>
       <c r="B496" t="s">
-        <v>929</v>
+        <v>908</v>
       </c>
       <c r="C496" t="s">
-        <v>930</v>
+        <v>909</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
@@ -9623,10 +9708,10 @@
         <v>509</v>
       </c>
       <c r="B497" t="s">
-        <v>931</v>
+        <v>910</v>
       </c>
       <c r="C497" t="s">
-        <v>932</v>
+        <v>911</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
@@ -9634,10 +9719,10 @@
         <v>510</v>
       </c>
       <c r="B498" t="s">
-        <v>933</v>
+        <v>912</v>
       </c>
       <c r="C498" t="s">
-        <v>934</v>
+        <v>913</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
@@ -9645,7 +9730,7 @@
         <v>511</v>
       </c>
       <c r="B499" t="s">
-        <v>935</v>
+        <v>914</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
@@ -9653,10 +9738,10 @@
         <v>512</v>
       </c>
       <c r="B500" t="s">
-        <v>936</v>
+        <v>915</v>
       </c>
       <c r="C500" t="s">
-        <v>1164</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
@@ -9664,10 +9749,10 @@
         <v>513</v>
       </c>
       <c r="B501" t="s">
-        <v>937</v>
+        <v>916</v>
       </c>
       <c r="C501" t="s">
-        <v>938</v>
+        <v>917</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
@@ -9675,10 +9760,10 @@
         <v>514</v>
       </c>
       <c r="B502" t="s">
-        <v>939</v>
+        <v>918</v>
       </c>
       <c r="C502" t="s">
-        <v>940</v>
+        <v>919</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
@@ -9686,10 +9771,10 @@
         <v>515</v>
       </c>
       <c r="B503" t="s">
-        <v>1152</v>
+        <v>1126</v>
       </c>
       <c r="C503" t="s">
-        <v>1153</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
@@ -9697,10 +9782,10 @@
         <v>516</v>
       </c>
       <c r="B504" t="s">
-        <v>941</v>
+        <v>920</v>
       </c>
       <c r="C504" t="s">
-        <v>942</v>
+        <v>921</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
@@ -9708,7 +9793,10 @@
         <v>517</v>
       </c>
       <c r="B505" t="s">
-        <v>943</v>
+        <v>922</v>
+      </c>
+      <c r="C505" t="s">
+        <v>1180</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
@@ -9716,10 +9804,10 @@
         <v>518</v>
       </c>
       <c r="B506" t="s">
-        <v>944</v>
+        <v>923</v>
       </c>
       <c r="C506" t="s">
-        <v>945</v>
+        <v>924</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
@@ -9727,10 +9815,10 @@
         <v>519</v>
       </c>
       <c r="B507" t="s">
-        <v>946</v>
+        <v>925</v>
       </c>
       <c r="C507" t="s">
-        <v>1179</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
@@ -9738,10 +9826,10 @@
         <v>520</v>
       </c>
       <c r="B508" t="s">
-        <v>947</v>
+        <v>926</v>
       </c>
       <c r="C508" t="s">
-        <v>948</v>
+        <v>927</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
@@ -9749,10 +9837,10 @@
         <v>521</v>
       </c>
       <c r="B509" t="s">
-        <v>949</v>
+        <v>928</v>
       </c>
       <c r="C509" t="s">
-        <v>950</v>
+        <v>929</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
@@ -9760,10 +9848,10 @@
         <v>522</v>
       </c>
       <c r="B510" t="s">
-        <v>951</v>
+        <v>930</v>
       </c>
       <c r="C510" t="s">
-        <v>952</v>
+        <v>931</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
@@ -9771,10 +9859,10 @@
         <v>523</v>
       </c>
       <c r="B511" t="s">
-        <v>953</v>
+        <v>932</v>
       </c>
       <c r="C511" t="s">
-        <v>954</v>
+        <v>933</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
@@ -9782,10 +9870,10 @@
         <v>524</v>
       </c>
       <c r="B512" t="s">
-        <v>955</v>
+        <v>934</v>
       </c>
       <c r="C512" t="s">
-        <v>956</v>
+        <v>935</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
@@ -9793,10 +9881,10 @@
         <v>525</v>
       </c>
       <c r="B513" t="s">
-        <v>957</v>
+        <v>936</v>
       </c>
       <c r="C513" t="s">
-        <v>1163</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
@@ -9804,10 +9892,10 @@
         <v>526</v>
       </c>
       <c r="B514" t="s">
-        <v>958</v>
+        <v>937</v>
       </c>
       <c r="C514" t="s">
-        <v>959</v>
+        <v>938</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
@@ -9815,10 +9903,10 @@
         <v>527</v>
       </c>
       <c r="B515" t="s">
-        <v>960</v>
+        <v>939</v>
       </c>
       <c r="C515" t="s">
-        <v>1129</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
@@ -9826,10 +9914,10 @@
         <v>528</v>
       </c>
       <c r="B516" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="C516" t="s">
-        <v>961</v>
+        <v>940</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
@@ -9837,10 +9925,10 @@
         <v>529</v>
       </c>
       <c r="B517" t="s">
-        <v>962</v>
+        <v>941</v>
       </c>
       <c r="C517" t="s">
-        <v>1178</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
@@ -9848,7 +9936,7 @@
         <v>530</v>
       </c>
       <c r="B518" t="s">
-        <v>963</v>
+        <v>942</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
@@ -9856,10 +9944,10 @@
         <v>531</v>
       </c>
       <c r="B519" t="s">
-        <v>964</v>
+        <v>943</v>
       </c>
       <c r="C519" t="s">
-        <v>1156</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
@@ -9867,10 +9955,10 @@
         <v>532</v>
       </c>
       <c r="B520" t="s">
-        <v>965</v>
+        <v>944</v>
       </c>
       <c r="C520" t="s">
-        <v>966</v>
+        <v>945</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
@@ -9878,10 +9966,10 @@
         <v>533</v>
       </c>
       <c r="B521" t="s">
-        <v>967</v>
+        <v>946</v>
       </c>
       <c r="C521" t="s">
-        <v>968</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
@@ -9889,10 +9977,10 @@
         <v>534</v>
       </c>
       <c r="B522" t="s">
-        <v>969</v>
+        <v>947</v>
       </c>
       <c r="C522" t="s">
-        <v>970</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
@@ -9900,10 +9988,10 @@
         <v>535</v>
       </c>
       <c r="B523" t="s">
-        <v>971</v>
+        <v>948</v>
       </c>
       <c r="C523" t="s">
-        <v>972</v>
+        <v>949</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
@@ -9911,10 +9999,10 @@
         <v>536</v>
       </c>
       <c r="B524" t="s">
-        <v>973</v>
+        <v>950</v>
       </c>
       <c r="C524" t="s">
-        <v>974</v>
+        <v>951</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
@@ -9922,10 +10010,10 @@
         <v>537</v>
       </c>
       <c r="B525" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="C525" t="s">
-        <v>976</v>
+        <v>953</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
@@ -9933,10 +10021,10 @@
         <v>538</v>
       </c>
       <c r="B526" t="s">
-        <v>977</v>
+        <v>954</v>
       </c>
       <c r="C526" t="s">
-        <v>978</v>
+        <v>955</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
@@ -9944,10 +10032,10 @@
         <v>539</v>
       </c>
       <c r="B527" t="s">
-        <v>979</v>
+        <v>956</v>
       </c>
       <c r="C527" t="s">
-        <v>980</v>
+        <v>957</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
@@ -9955,10 +10043,10 @@
         <v>540</v>
       </c>
       <c r="B528" t="s">
-        <v>981</v>
+        <v>958</v>
       </c>
       <c r="C528" t="s">
-        <v>982</v>
+        <v>959</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
@@ -9966,10 +10054,10 @@
         <v>542</v>
       </c>
       <c r="B529" t="s">
-        <v>983</v>
+        <v>960</v>
       </c>
       <c r="C529" t="s">
-        <v>984</v>
+        <v>961</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
@@ -9977,10 +10065,10 @@
         <v>543</v>
       </c>
       <c r="B530" t="s">
-        <v>985</v>
+        <v>962</v>
       </c>
       <c r="C530" t="s">
-        <v>986</v>
+        <v>963</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
@@ -9988,10 +10076,10 @@
         <v>545</v>
       </c>
       <c r="B531" t="s">
-        <v>987</v>
+        <v>964</v>
       </c>
       <c r="C531" t="s">
-        <v>1157</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
@@ -9999,10 +10087,10 @@
         <v>546</v>
       </c>
       <c r="B532" t="s">
-        <v>988</v>
+        <v>965</v>
       </c>
       <c r="C532" t="s">
-        <v>989</v>
+        <v>966</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.25">
@@ -10010,10 +10098,10 @@
         <v>547</v>
       </c>
       <c r="B533" t="s">
-        <v>990</v>
+        <v>967</v>
       </c>
       <c r="C533" t="s">
-        <v>991</v>
+        <v>968</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
@@ -10021,10 +10109,10 @@
         <v>548</v>
       </c>
       <c r="B534" t="s">
-        <v>992</v>
+        <v>969</v>
       </c>
       <c r="C534" t="s">
-        <v>993</v>
+        <v>970</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.25">
@@ -10032,10 +10120,10 @@
         <v>549</v>
       </c>
       <c r="B535" t="s">
-        <v>994</v>
+        <v>971</v>
       </c>
       <c r="C535" t="s">
-        <v>995</v>
+        <v>972</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.25">
@@ -10043,10 +10131,10 @@
         <v>550</v>
       </c>
       <c r="B536" t="s">
-        <v>996</v>
+        <v>973</v>
       </c>
       <c r="C536" t="s">
-        <v>1177</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.25">
@@ -10054,7 +10142,10 @@
         <v>551</v>
       </c>
       <c r="B537" t="s">
-        <v>997</v>
+        <v>974</v>
+      </c>
+      <c r="C537" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
@@ -10062,10 +10153,10 @@
         <v>552</v>
       </c>
       <c r="B538" t="s">
-        <v>998</v>
+        <v>975</v>
       </c>
       <c r="C538" t="s">
-        <v>999</v>
+        <v>976</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.25">
@@ -10073,10 +10164,10 @@
         <v>553</v>
       </c>
       <c r="B539" t="s">
-        <v>1000</v>
+        <v>977</v>
       </c>
       <c r="C539" t="s">
-        <v>1001</v>
+        <v>978</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.25">
@@ -10084,10 +10175,10 @@
         <v>554</v>
       </c>
       <c r="B540" t="s">
-        <v>1002</v>
+        <v>979</v>
       </c>
       <c r="C540" t="s">
-        <v>1122</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.25">
@@ -10095,10 +10186,10 @@
         <v>555</v>
       </c>
       <c r="B541" t="s">
-        <v>1003</v>
+        <v>980</v>
       </c>
       <c r="C541" t="s">
-        <v>1004</v>
+        <v>981</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.25">
@@ -10106,10 +10197,10 @@
         <v>556</v>
       </c>
       <c r="B542" t="s">
-        <v>1005</v>
+        <v>982</v>
       </c>
       <c r="C542" t="s">
-        <v>1006</v>
+        <v>983</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.25">
@@ -10117,10 +10208,10 @@
         <v>557</v>
       </c>
       <c r="B543" t="s">
-        <v>1007</v>
+        <v>984</v>
       </c>
       <c r="C543" t="s">
-        <v>1008</v>
+        <v>985</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.25">
@@ -10128,10 +10219,10 @@
         <v>558</v>
       </c>
       <c r="B544" t="s">
-        <v>1009</v>
+        <v>986</v>
       </c>
       <c r="C544" t="s">
-        <v>1010</v>
+        <v>987</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.25">
@@ -10139,10 +10230,10 @@
         <v>559</v>
       </c>
       <c r="B545" t="s">
-        <v>1011</v>
+        <v>988</v>
       </c>
       <c r="C545" t="s">
-        <v>1012</v>
+        <v>989</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.25">
@@ -10150,10 +10241,10 @@
         <v>562</v>
       </c>
       <c r="B546" t="s">
-        <v>1013</v>
+        <v>990</v>
       </c>
       <c r="C546" t="s">
-        <v>1014</v>
+        <v>991</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.25">
@@ -10161,7 +10252,7 @@
         <v>563</v>
       </c>
       <c r="B547" t="s">
-        <v>1015</v>
+        <v>992</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.25">
@@ -10169,10 +10260,10 @@
         <v>564</v>
       </c>
       <c r="B548" t="s">
-        <v>1016</v>
+        <v>993</v>
       </c>
       <c r="C548" t="s">
-        <v>1017</v>
+        <v>994</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.25">
@@ -10180,10 +10271,10 @@
         <v>565</v>
       </c>
       <c r="B549" t="s">
-        <v>1018</v>
+        <v>995</v>
       </c>
       <c r="C549" t="s">
-        <v>1019</v>
+        <v>996</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.25">
@@ -10191,10 +10282,10 @@
         <v>566</v>
       </c>
       <c r="B550" t="s">
-        <v>1020</v>
+        <v>997</v>
       </c>
       <c r="C550" t="s">
-        <v>1176</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.25">
@@ -10202,10 +10293,10 @@
         <v>567</v>
       </c>
       <c r="B551" t="s">
-        <v>1021</v>
+        <v>998</v>
       </c>
       <c r="C551" t="s">
-        <v>1022</v>
+        <v>999</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.25">
@@ -10213,10 +10304,10 @@
         <v>568</v>
       </c>
       <c r="B552" t="s">
-        <v>1023</v>
+        <v>1000</v>
       </c>
       <c r="C552" t="s">
-        <v>1024</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.25">
@@ -10224,10 +10315,10 @@
         <v>569</v>
       </c>
       <c r="B553" t="s">
-        <v>1025</v>
+        <v>1002</v>
       </c>
       <c r="C553" t="s">
-        <v>1131</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.25">
@@ -10235,10 +10326,10 @@
         <v>570</v>
       </c>
       <c r="B554" t="s">
-        <v>1026</v>
+        <v>1003</v>
       </c>
       <c r="C554" t="s">
-        <v>1027</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.25">
@@ -10246,10 +10337,10 @@
         <v>571</v>
       </c>
       <c r="B555" t="s">
-        <v>1028</v>
+        <v>1005</v>
       </c>
       <c r="C555" t="s">
-        <v>1029</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.25">
@@ -10257,7 +10348,10 @@
         <v>572</v>
       </c>
       <c r="B556" t="s">
-        <v>1030</v>
+        <v>1007</v>
+      </c>
+      <c r="C556" t="s">
+        <v>1191</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.25">
@@ -10265,10 +10359,10 @@
         <v>577</v>
       </c>
       <c r="B557" t="s">
-        <v>1031</v>
+        <v>1008</v>
       </c>
       <c r="C557" t="s">
-        <v>1121</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.25">
@@ -10276,10 +10370,10 @@
         <v>578</v>
       </c>
       <c r="B558" t="s">
-        <v>1032</v>
+        <v>1009</v>
       </c>
       <c r="C558" t="s">
-        <v>1033</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.25">
@@ -10287,7 +10381,7 @@
         <v>579</v>
       </c>
       <c r="B559" t="s">
-        <v>1034</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.25">
@@ -10295,10 +10389,10 @@
         <v>580</v>
       </c>
       <c r="B560" t="s">
-        <v>1035</v>
+        <v>1012</v>
       </c>
       <c r="C560" t="s">
-        <v>1036</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.25">
@@ -10306,10 +10400,10 @@
         <v>581</v>
       </c>
       <c r="B561" t="s">
-        <v>1037</v>
+        <v>1014</v>
       </c>
       <c r="C561" t="s">
-        <v>1038</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.25">
@@ -10317,10 +10411,10 @@
         <v>582</v>
       </c>
       <c r="B562" t="s">
-        <v>1039</v>
+        <v>1016</v>
       </c>
       <c r="C562" t="s">
-        <v>1040</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.25">
@@ -10328,10 +10422,10 @@
         <v>583</v>
       </c>
       <c r="B563" t="s">
-        <v>1041</v>
+        <v>1018</v>
       </c>
       <c r="C563" t="s">
-        <v>1042</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.25">
@@ -10339,10 +10433,10 @@
         <v>584</v>
       </c>
       <c r="B564" t="s">
-        <v>1043</v>
+        <v>1020</v>
       </c>
       <c r="C564" t="s">
-        <v>1044</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.25">
@@ -10350,7 +10444,10 @@
         <v>585</v>
       </c>
       <c r="B565" t="s">
-        <v>1045</v>
+        <v>1022</v>
+      </c>
+      <c r="C565" t="s">
+        <v>1190</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.25">
@@ -10358,10 +10455,10 @@
         <v>586</v>
       </c>
       <c r="B566" t="s">
-        <v>1143</v>
+        <v>1117</v>
       </c>
       <c r="C566" t="s">
-        <v>1162</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.25">
@@ -10369,10 +10466,10 @@
         <v>587</v>
       </c>
       <c r="B567" t="s">
-        <v>1046</v>
+        <v>1023</v>
       </c>
       <c r="C567" t="s">
-        <v>1047</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.25">
@@ -10380,10 +10477,10 @@
         <v>588</v>
       </c>
       <c r="B568" t="s">
-        <v>1048</v>
+        <v>1025</v>
       </c>
       <c r="C568" t="s">
-        <v>1049</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.25">
@@ -10391,10 +10488,10 @@
         <v>589</v>
       </c>
       <c r="B569" t="s">
-        <v>1050</v>
+        <v>1027</v>
       </c>
       <c r="C569" t="s">
-        <v>1174</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.25">
@@ -10402,10 +10499,10 @@
         <v>590</v>
       </c>
       <c r="B570" t="s">
-        <v>1051</v>
+        <v>1028</v>
       </c>
       <c r="C570" t="s">
-        <v>1052</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.25">
@@ -10413,10 +10510,10 @@
         <v>591</v>
       </c>
       <c r="B571" t="s">
-        <v>1053</v>
+        <v>1030</v>
       </c>
       <c r="C571" t="s">
-        <v>1205</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.25">
@@ -10424,10 +10521,10 @@
         <v>592</v>
       </c>
       <c r="B572" t="s">
-        <v>1054</v>
+        <v>1031</v>
       </c>
       <c r="C572" t="s">
-        <v>1055</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.25">
@@ -10435,10 +10532,10 @@
         <v>593</v>
       </c>
       <c r="B573" t="s">
-        <v>1056</v>
+        <v>1033</v>
       </c>
       <c r="C573" t="s">
-        <v>1057</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.25">
@@ -10446,10 +10543,10 @@
         <v>594</v>
       </c>
       <c r="B574" t="s">
-        <v>1058</v>
+        <v>1035</v>
       </c>
       <c r="C574" t="s">
-        <v>1114</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.25">
@@ -10457,10 +10554,10 @@
         <v>595</v>
       </c>
       <c r="B575" t="s">
-        <v>1113</v>
+        <v>1087</v>
       </c>
       <c r="C575" t="s">
-        <v>1117</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.25">
@@ -10468,10 +10565,10 @@
         <v>596</v>
       </c>
       <c r="B576" t="s">
-        <v>1059</v>
+        <v>1036</v>
       </c>
       <c r="C576" t="s">
-        <v>1161</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.25">
@@ -10479,10 +10576,10 @@
         <v>597</v>
       </c>
       <c r="B577" t="s">
-        <v>889</v>
+        <v>869</v>
       </c>
       <c r="C577" t="s">
-        <v>1160</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.25">
@@ -10490,10 +10587,10 @@
         <v>598</v>
       </c>
       <c r="B578" t="s">
-        <v>891</v>
+        <v>871</v>
       </c>
       <c r="C578" t="s">
-        <v>1159</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.25">
@@ -10501,10 +10598,10 @@
         <v>599</v>
       </c>
       <c r="B579" t="s">
-        <v>1060</v>
+        <v>1037</v>
       </c>
       <c r="C579" t="s">
-        <v>1061</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.25">
@@ -10512,10 +10609,10 @@
         <v>601</v>
       </c>
       <c r="B580" t="s">
-        <v>1062</v>
+        <v>1039</v>
       </c>
       <c r="C580" t="s">
-        <v>1172</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.25">
@@ -10523,10 +10620,10 @@
         <v>604</v>
       </c>
       <c r="B581" t="s">
-        <v>1063</v>
+        <v>1040</v>
       </c>
       <c r="C581" t="s">
-        <v>1064</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.25">
@@ -10534,10 +10631,10 @@
         <v>612</v>
       </c>
       <c r="B582" t="s">
-        <v>1065</v>
+        <v>1042</v>
       </c>
       <c r="C582" t="s">
-        <v>1066</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.25">
@@ -10545,10 +10642,10 @@
         <v>617</v>
       </c>
       <c r="B583" t="s">
-        <v>1067</v>
+        <v>1044</v>
       </c>
       <c r="C583" t="s">
-        <v>1068</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.25">
@@ -10556,10 +10653,10 @@
         <v>618</v>
       </c>
       <c r="B584" t="s">
-        <v>1069</v>
+        <v>1046</v>
       </c>
       <c r="C584" t="s">
-        <v>1070</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.25">
@@ -10567,10 +10664,10 @@
         <v>625</v>
       </c>
       <c r="B585" t="s">
-        <v>1124</v>
+        <v>1098</v>
       </c>
       <c r="C585" t="s">
-        <v>1171</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.25">
@@ -10578,10 +10675,10 @@
         <v>626</v>
       </c>
       <c r="B586" t="s">
-        <v>1071</v>
+        <v>1048</v>
       </c>
       <c r="C586" t="s">
-        <v>1072</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.25">
@@ -10589,10 +10686,10 @@
         <v>629</v>
       </c>
       <c r="B587" t="s">
-        <v>1073</v>
+        <v>1050</v>
       </c>
       <c r="C587" t="s">
-        <v>1074</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.25">
@@ -10600,10 +10697,10 @@
         <v>633</v>
       </c>
       <c r="B588" t="s">
-        <v>1075</v>
+        <v>1051</v>
       </c>
       <c r="C588" t="s">
-        <v>1144</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.25">
@@ -10611,10 +10708,10 @@
         <v>635</v>
       </c>
       <c r="B589" t="s">
-        <v>1076</v>
+        <v>1052</v>
       </c>
       <c r="C589" t="s">
-        <v>1077</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.25">
@@ -10622,10 +10719,10 @@
         <v>636</v>
       </c>
       <c r="B590" t="s">
-        <v>1078</v>
+        <v>1054</v>
       </c>
       <c r="C590" t="s">
-        <v>1079</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.25">
@@ -10633,10 +10730,10 @@
         <v>642</v>
       </c>
       <c r="B591" t="s">
-        <v>1080</v>
+        <v>1056</v>
       </c>
       <c r="C591" t="s">
-        <v>1081</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.25">
@@ -10644,10 +10741,10 @@
         <v>646</v>
       </c>
       <c r="B592" t="s">
-        <v>1082</v>
+        <v>1058</v>
       </c>
       <c r="C592" t="s">
-        <v>1083</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.25">
@@ -10655,10 +10752,10 @@
         <v>650</v>
       </c>
       <c r="B593" t="s">
-        <v>1084</v>
+        <v>1059</v>
       </c>
       <c r="C593" t="s">
-        <v>1085</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.25">
@@ -10666,10 +10763,10 @@
         <v>651</v>
       </c>
       <c r="B594" t="s">
-        <v>1086</v>
+        <v>1061</v>
       </c>
       <c r="C594" t="s">
-        <v>1087</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.25">
@@ -10677,10 +10774,10 @@
         <v>653</v>
       </c>
       <c r="B595" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
       <c r="C595" t="s">
-        <v>1089</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.25">
@@ -10688,10 +10785,10 @@
         <v>654</v>
       </c>
       <c r="B596" t="s">
-        <v>1203</v>
+        <v>1173</v>
       </c>
       <c r="C596" t="s">
-        <v>1204</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.25">
@@ -10699,10 +10796,10 @@
         <v>655</v>
       </c>
       <c r="B597" t="s">
-        <v>1090</v>
+        <v>1065</v>
       </c>
       <c r="C597" t="s">
-        <v>1091</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.25">
@@ -10710,10 +10807,10 @@
         <v>661</v>
       </c>
       <c r="B598" t="s">
-        <v>1092</v>
+        <v>1067</v>
       </c>
       <c r="C598" t="s">
-        <v>1093</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.25">
@@ -10721,10 +10818,10 @@
         <v>663</v>
       </c>
       <c r="B599" t="s">
-        <v>1111</v>
+        <v>1085</v>
       </c>
       <c r="C599" t="s">
-        <v>1110</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.25">
@@ -10732,10 +10829,10 @@
         <v>667</v>
       </c>
       <c r="B600" t="s">
-        <v>1094</v>
+        <v>1069</v>
       </c>
       <c r="C600" t="s">
-        <v>1173</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.25">
@@ -10743,10 +10840,10 @@
         <v>673</v>
       </c>
       <c r="B601" t="s">
-        <v>1095</v>
+        <v>1070</v>
       </c>
       <c r="C601" t="s">
-        <v>1158</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.25">
@@ -10754,10 +10851,10 @@
         <v>674</v>
       </c>
       <c r="B602" t="s">
-        <v>1096</v>
+        <v>1071</v>
       </c>
       <c r="C602" t="s">
-        <v>1097</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.25">
@@ -10765,10 +10862,10 @@
         <v>680</v>
       </c>
       <c r="B603" t="s">
-        <v>1098</v>
+        <v>1072</v>
       </c>
       <c r="C603" t="s">
-        <v>1116</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.25">
@@ -10776,10 +10873,10 @@
         <v>682</v>
       </c>
       <c r="B604" t="s">
-        <v>1099</v>
+        <v>1073</v>
       </c>
       <c r="C604" t="s">
-        <v>1100</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.25">
@@ -10787,10 +10884,10 @@
         <v>684</v>
       </c>
       <c r="B605" t="s">
-        <v>1109</v>
+        <v>1083</v>
       </c>
       <c r="C605" t="s">
-        <v>1170</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.25">
@@ -10798,10 +10895,10 @@
         <v>685</v>
       </c>
       <c r="B606" t="s">
-        <v>1101</v>
+        <v>1075</v>
       </c>
       <c r="C606" t="s">
-        <v>1102</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.25">
@@ -10809,10 +10906,10 @@
         <v>686</v>
       </c>
       <c r="B607" t="s">
-        <v>1103</v>
+        <v>1077</v>
       </c>
       <c r="C607" t="s">
-        <v>1104</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.25">
@@ -10820,10 +10917,10 @@
         <v>689</v>
       </c>
       <c r="B608" t="s">
-        <v>1105</v>
+        <v>1079</v>
       </c>
       <c r="C608" t="s">
-        <v>1106</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.25">
@@ -10831,50 +10928,61 @@
         <v>697</v>
       </c>
       <c r="B609" t="s">
-        <v>1196</v>
+        <v>1166</v>
       </c>
       <c r="C609" t="s">
-        <v>1197</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A610">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B610" t="s">
-        <v>1138</v>
+        <v>1205</v>
       </c>
       <c r="C610" t="s">
-        <v>1139</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A611">
-        <v>10001</v>
+        <v>704</v>
       </c>
       <c r="B611" t="s">
-        <v>1107</v>
+        <v>1112</v>
       </c>
       <c r="C611" t="s">
-        <v>1108</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A612">
+        <v>10001</v>
+      </c>
+      <c r="B612" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C612" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A613">
         <v>10003</v>
       </c>
-      <c r="B612" t="s">
-        <v>1135</v>
-      </c>
-      <c r="C612" t="s">
-        <v>1136</v>
+      <c r="B613" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C613" t="s">
+        <v>1110</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C1 A121:C127 A120:B120 A611:C611 A315:B315 A316:C344 A352:C376 A351:B351 A586:C587 A575 A574:B574 A460:C464 A459:B459 A604:C604 A603:B603 A235:C249 A234:B234 A95:C106 A146:C149 A145:B145 A541:C549 A540:B540 A55:C57 A558:C565 A557:B557 A29:C50 A28:B28 A579:C579 A308:C314 A307:B307 A53:B54 A456:C458 A455:B455 A516:C516 A515:B515 A93:B94 A554:C556 A553:B553 A346:C350 A345:B345 A52:C52 A51:B51 A72:C78 A70:B70 A163:C228 A162:B162 A378:C401 A377:B377 A606:C608 A258:C259 A257:B257 A6:C7 A572:C573 A571:B571 A567:C568 A566 A597:C598 A588:B588 A21:C27 A20:B20 A420:C422 A115:C119 A114:B114 A287:C306 A286:B286 A418:B419 A80:C92 A79:B79 A504:C506 A503 A151:C153 A150:B150 A481:C499 A480:B480 A520:C530 A519:B519 A532:C535 A531:B531 A602:C602 A600:B601 A576:B578 A514:C514 A513:B513 A501:C502 A500:B500 A453:C454 A452:B452 A424:C424 A423:B423 A14:C19 A13:B13 A2:B5 A581:C584 A580:B580 A570:C570 A569:B569 A450:C451 A449:B449 A551:C552 A550:B550 A537:C539 A536:B536 A518:C518 A517:B517 A508:C512 A507:B507 A466:C479 A465:B465 A448:C448 A447:B447 A433:C446 A432:B432 A426:C431 A425:B425 A403:C417 A402:B402 A280:C285 A279:B279 A269:C278 A268:B268 A261:C267 A260:B260 A252:C256 A250:B251 A231:C233 A229:B230 A108:C113 A107:B107 A59:C69 A58:B58 A155:C161 A154:B154 A129:C144 A128:B128 A71 A9:C12 A8:B8 A589:C595" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C1 A121:C127 A120:B120 A612:C612 A315:B315 A316:C326 A352:C352 A351:B351 A586:C586 A575 A574:B574 A460:C463 A459:B459 A604:C604 A603:B603 A235:C249 A234:B234 A95:C98 A146:C149 A145:B145 A541:C549 A540:B540 A55:C57 A558:C564 A557:B557 A29:C29 A28:B28 A579:C579 A308:C314 A307:B307 A53:B54 A457:C458 A455:B455 A516:C516 A515:B515 A93:B94 A554:C555 A553:B553 A346:C348 A345:B345 A52:C52 A51:B51 A72:C78 A70:B70 A163:C228 A162:B162 A378:C378 A377:B377 A606:C608 A258:C259 A257:B257 A6:C7 A572:C573 A571:B571 A567:C568 A566 A597:C598 A588:B588 A21:C27 A20:B20 A420:C422 A115:C119 A114:B114 A287:C294 A286:B286 A418:B419 A80:C84 A79:B79 A504:C504 A503 A151:C153 A150:B150 A481:C499 A480:B480 A520:C520 A519:B519 A532:C535 A531:B531 A602:B602 A600:B601 A576:B578 A514:C514 A513:B513 A501:C502 A500:B500 A453:C454 A452:B452 A424:C424 A423:B423 A14:C14 A13:B13 A2:B5 A581:C584 A580:B580 A570:C570 A569:B569 A450:C450 A449:B449 A551:C552 A550:B550 A538:C539 A536:B536 A518:C518 A517:B517 A508:C512 A507:B507 A466:C468 A465:B465 A448:C448 A447:B447 A433:C446 A432:B432 A426:C431 A425:B425 A403:C406 A402:B402 A280:C285 A279:B279 A269:C278 A268:B268 A261:C267 A260:B260 A252:C256 A250:B251 A231:C233 A229:B230 A108:C113 A107:B107 A59:C69 A58:B58 A155:C161 A154:B154 A129:C144 A128:B128 A71 A9:C12 A8:B8 A589:C591 A380:C385 A379:B379 A451:B451 A523:C530 A522:B522 A521:B521 A506:C506 A505:B505 A470:C472 A469:B469 A456:B456 A100:C106 A99:B99 A39:C42 A38:B38 A32:C37 A31:B31 A16:C19 A15:B15 A565:B565 A556:B556 A537:B537 A478:C479 A477:B477 A408:C417 A407:B407 A387:C401 A386:B386 A328:C344 A327 A296:C306 A295:B295 A44:C50 A43:B43 A593:C595 A592:B592 A587:B587 A354:C376 A353:B353 A464:B464 A350:C350 A349:B349 A474:C476 A473 A86:C92 A85:B85 A30:B30" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/config/nickname_song.xlsx
+++ b/config/nickname_song.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Tsugu-Backend\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3958D8B0-C4C1-4053-8DF3-42D96548D398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C235D0A-D417-48DB-BEEF-B6BE8B84CECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5688" yWindow="1728" windowWidth="20352" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9156" yWindow="1188" windowWidth="18744" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -218,9 +218,6 @@
   </si>
   <si>
     <t>光るなら</t>
-  </si>
-  <si>
-    <t>四谎,绽放光芒</t>
   </si>
   <si>
     <t>前へススメ！</t>
@@ -3832,6 +3829,10 @@
   </si>
   <si>
     <t>老大,大声点,鬼屋,大点声,牢大,seeyouagain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四谎,绽放光芒,四月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4239,7 +4240,7 @@
   <dimension ref="A1:C613"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -4269,7 +4270,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4280,7 +4281,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4291,7 +4292,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4302,7 +4303,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -4335,7 +4336,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -4390,7 +4391,7 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -4412,7 +4413,7 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -4467,7 +4468,7 @@
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -4555,7 +4556,7 @@
         <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -4577,7 +4578,7 @@
         <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -4588,7 +4589,7 @@
         <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -4665,7 +4666,7 @@
         <v>64</v>
       </c>
       <c r="C38" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -4676,7 +4677,7 @@
         <v>65</v>
       </c>
       <c r="C39" t="s">
-        <v>66</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -4684,10 +4685,10 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" t="s">
         <v>67</v>
-      </c>
-      <c r="C40" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -4695,10 +4696,10 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" t="s">
         <v>69</v>
-      </c>
-      <c r="C41" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -4706,10 +4707,10 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" t="s">
         <v>71</v>
-      </c>
-      <c r="C42" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -4717,10 +4718,10 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C43" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -4728,10 +4729,10 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" t="s">
         <v>74</v>
-      </c>
-      <c r="C44" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -4739,10 +4740,10 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" t="s">
         <v>76</v>
-      </c>
-      <c r="C45" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -4750,10 +4751,10 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" t="s">
         <v>78</v>
-      </c>
-      <c r="C46" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -4761,10 +4762,10 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" t="s">
         <v>80</v>
-      </c>
-      <c r="C47" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -4772,10 +4773,10 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" t="s">
         <v>82</v>
-      </c>
-      <c r="C48" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -4783,10 +4784,10 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" t="s">
         <v>84</v>
-      </c>
-      <c r="C49" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -4794,10 +4795,10 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" t="s">
         <v>86</v>
-      </c>
-      <c r="C50" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -4805,10 +4806,10 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C51" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -4816,10 +4817,10 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52" t="s">
         <v>89</v>
-      </c>
-      <c r="C52" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -4827,10 +4828,10 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C53" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -4838,10 +4839,10 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -4849,10 +4850,10 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" t="s">
         <v>93</v>
-      </c>
-      <c r="C55" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -4860,10 +4861,10 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56" t="s">
         <v>95</v>
-      </c>
-      <c r="C56" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -4871,10 +4872,10 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
+        <v>96</v>
+      </c>
+      <c r="C57" t="s">
         <v>97</v>
-      </c>
-      <c r="C57" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -4882,10 +4883,10 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C58" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -4893,10 +4894,10 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
+        <v>99</v>
+      </c>
+      <c r="C59" t="s">
         <v>100</v>
-      </c>
-      <c r="C59" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -4904,10 +4905,10 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
+        <v>101</v>
+      </c>
+      <c r="C60" t="s">
         <v>102</v>
-      </c>
-      <c r="C60" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -4915,10 +4916,10 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
+        <v>103</v>
+      </c>
+      <c r="C61" t="s">
         <v>104</v>
-      </c>
-      <c r="C61" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -4926,10 +4927,10 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
+        <v>105</v>
+      </c>
+      <c r="C62" t="s">
         <v>106</v>
-      </c>
-      <c r="C62" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -4937,10 +4938,10 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
+        <v>107</v>
+      </c>
+      <c r="C63" t="s">
         <v>108</v>
-      </c>
-      <c r="C63" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -4948,10 +4949,10 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
+        <v>109</v>
+      </c>
+      <c r="C64" t="s">
         <v>110</v>
-      </c>
-      <c r="C64" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -4959,10 +4960,10 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
+        <v>111</v>
+      </c>
+      <c r="C65" t="s">
         <v>112</v>
-      </c>
-      <c r="C65" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -4970,10 +4971,10 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
+        <v>113</v>
+      </c>
+      <c r="C66" t="s">
         <v>114</v>
-      </c>
-      <c r="C66" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -4981,10 +4982,10 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
+        <v>115</v>
+      </c>
+      <c r="C67" t="s">
         <v>116</v>
-      </c>
-      <c r="C67" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -4992,10 +4993,10 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
+        <v>117</v>
+      </c>
+      <c r="C68" t="s">
         <v>118</v>
-      </c>
-      <c r="C68" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -5003,10 +5004,10 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
+        <v>119</v>
+      </c>
+      <c r="C69" t="s">
         <v>120</v>
-      </c>
-      <c r="C69" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -5014,10 +5015,10 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C70" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -5025,10 +5026,10 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C71" t="s">
         <v>1170</v>
-      </c>
-      <c r="C71" t="s">
-        <v>1171</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -5036,10 +5037,10 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" t="s">
         <v>123</v>
-      </c>
-      <c r="C72" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -5047,10 +5048,10 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
+        <v>124</v>
+      </c>
+      <c r="C73" t="s">
         <v>125</v>
-      </c>
-      <c r="C73" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -5058,10 +5059,10 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
+        <v>126</v>
+      </c>
+      <c r="C74" t="s">
         <v>127</v>
-      </c>
-      <c r="C74" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -5069,10 +5070,10 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
+        <v>128</v>
+      </c>
+      <c r="C75" t="s">
         <v>129</v>
-      </c>
-      <c r="C75" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -5080,10 +5081,10 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
+        <v>130</v>
+      </c>
+      <c r="C76" t="s">
         <v>131</v>
-      </c>
-      <c r="C76" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -5091,10 +5092,10 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
+        <v>132</v>
+      </c>
+      <c r="C77" t="s">
         <v>133</v>
-      </c>
-      <c r="C77" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -5102,10 +5103,10 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
+        <v>134</v>
+      </c>
+      <c r="C78" t="s">
         <v>135</v>
-      </c>
-      <c r="C78" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -5113,10 +5114,10 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C79" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -5124,10 +5125,10 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
+        <v>137</v>
+      </c>
+      <c r="C80" t="s">
         <v>138</v>
-      </c>
-      <c r="C80" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -5135,10 +5136,10 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
+        <v>139</v>
+      </c>
+      <c r="C81" t="s">
         <v>140</v>
-      </c>
-      <c r="C81" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -5146,10 +5147,10 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
+        <v>141</v>
+      </c>
+      <c r="C82" t="s">
         <v>142</v>
-      </c>
-      <c r="C82" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -5157,10 +5158,10 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
+        <v>143</v>
+      </c>
+      <c r="C83" t="s">
         <v>144</v>
-      </c>
-      <c r="C83" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -5168,10 +5169,10 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
+        <v>145</v>
+      </c>
+      <c r="C84" t="s">
         <v>146</v>
-      </c>
-      <c r="C84" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -5179,10 +5180,10 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C85" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -5190,10 +5191,10 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
+        <v>148</v>
+      </c>
+      <c r="C86" t="s">
         <v>149</v>
-      </c>
-      <c r="C86" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -5201,10 +5202,10 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
+        <v>150</v>
+      </c>
+      <c r="C87" t="s">
         <v>151</v>
-      </c>
-      <c r="C87" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -5212,10 +5213,10 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
+        <v>152</v>
+      </c>
+      <c r="C88" t="s">
         <v>153</v>
-      </c>
-      <c r="C88" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -5223,10 +5224,10 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
+        <v>154</v>
+      </c>
+      <c r="C89" t="s">
         <v>155</v>
-      </c>
-      <c r="C89" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -5234,10 +5235,10 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
+        <v>156</v>
+      </c>
+      <c r="C90" t="s">
         <v>157</v>
-      </c>
-      <c r="C90" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -5245,10 +5246,10 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
+        <v>158</v>
+      </c>
+      <c r="C91" t="s">
         <v>159</v>
-      </c>
-      <c r="C91" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -5256,10 +5257,10 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C92" t="s">
         <v>161</v>
-      </c>
-      <c r="C92" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -5267,10 +5268,10 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C93" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -5278,10 +5279,10 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C94" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -5289,10 +5290,10 @@
         <v>100</v>
       </c>
       <c r="B95" t="s">
+        <v>164</v>
+      </c>
+      <c r="C95" t="s">
         <v>165</v>
-      </c>
-      <c r="C95" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -5300,10 +5301,10 @@
         <v>101</v>
       </c>
       <c r="B96" t="s">
+        <v>166</v>
+      </c>
+      <c r="C96" t="s">
         <v>167</v>
-      </c>
-      <c r="C96" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -5311,10 +5312,10 @@
         <v>104</v>
       </c>
       <c r="B97" t="s">
+        <v>168</v>
+      </c>
+      <c r="C97" t="s">
         <v>169</v>
-      </c>
-      <c r="C97" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -5322,10 +5323,10 @@
         <v>105</v>
       </c>
       <c r="B98" t="s">
+        <v>170</v>
+      </c>
+      <c r="C98" t="s">
         <v>171</v>
-      </c>
-      <c r="C98" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -5333,10 +5334,10 @@
         <v>106</v>
       </c>
       <c r="B99" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C99" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -5344,10 +5345,10 @@
         <v>107</v>
       </c>
       <c r="B100" t="s">
+        <v>173</v>
+      </c>
+      <c r="C100" t="s">
         <v>174</v>
-      </c>
-      <c r="C100" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -5355,10 +5356,10 @@
         <v>108</v>
       </c>
       <c r="B101" t="s">
+        <v>175</v>
+      </c>
+      <c r="C101" t="s">
         <v>176</v>
-      </c>
-      <c r="C101" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -5366,10 +5367,10 @@
         <v>109</v>
       </c>
       <c r="B102" t="s">
+        <v>177</v>
+      </c>
+      <c r="C102" t="s">
         <v>178</v>
-      </c>
-      <c r="C102" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -5377,10 +5378,10 @@
         <v>110</v>
       </c>
       <c r="B103" t="s">
+        <v>179</v>
+      </c>
+      <c r="C103" t="s">
         <v>180</v>
-      </c>
-      <c r="C103" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -5388,10 +5389,10 @@
         <v>111</v>
       </c>
       <c r="B104" t="s">
+        <v>181</v>
+      </c>
+      <c r="C104" t="s">
         <v>182</v>
-      </c>
-      <c r="C104" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -5399,10 +5400,10 @@
         <v>112</v>
       </c>
       <c r="B105" t="s">
+        <v>183</v>
+      </c>
+      <c r="C105" t="s">
         <v>184</v>
-      </c>
-      <c r="C105" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -5410,10 +5411,10 @@
         <v>113</v>
       </c>
       <c r="B106" t="s">
+        <v>185</v>
+      </c>
+      <c r="C106" t="s">
         <v>186</v>
-      </c>
-      <c r="C106" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -5421,10 +5422,10 @@
         <v>115</v>
       </c>
       <c r="B107" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C107" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -5432,10 +5433,10 @@
         <v>116</v>
       </c>
       <c r="B108" t="s">
+        <v>188</v>
+      </c>
+      <c r="C108" t="s">
         <v>189</v>
-      </c>
-      <c r="C108" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -5443,10 +5444,10 @@
         <v>117</v>
       </c>
       <c r="B109" t="s">
+        <v>190</v>
+      </c>
+      <c r="C109" t="s">
         <v>191</v>
-      </c>
-      <c r="C109" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -5454,10 +5455,10 @@
         <v>118</v>
       </c>
       <c r="B110" t="s">
+        <v>192</v>
+      </c>
+      <c r="C110" t="s">
         <v>193</v>
-      </c>
-      <c r="C110" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -5465,10 +5466,10 @@
         <v>119</v>
       </c>
       <c r="B111" t="s">
+        <v>194</v>
+      </c>
+      <c r="C111" t="s">
         <v>195</v>
-      </c>
-      <c r="C111" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -5476,10 +5477,10 @@
         <v>120</v>
       </c>
       <c r="B112" t="s">
+        <v>196</v>
+      </c>
+      <c r="C112" t="s">
         <v>197</v>
-      </c>
-      <c r="C112" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -5487,10 +5488,10 @@
         <v>121</v>
       </c>
       <c r="B113" t="s">
+        <v>198</v>
+      </c>
+      <c r="C113" t="s">
         <v>199</v>
-      </c>
-      <c r="C113" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -5498,10 +5499,10 @@
         <v>122</v>
       </c>
       <c r="B114" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C114" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -5509,10 +5510,10 @@
         <v>123</v>
       </c>
       <c r="B115" t="s">
+        <v>201</v>
+      </c>
+      <c r="C115" t="s">
         <v>202</v>
-      </c>
-      <c r="C115" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -5520,10 +5521,10 @@
         <v>124</v>
       </c>
       <c r="B116" t="s">
+        <v>203</v>
+      </c>
+      <c r="C116" t="s">
         <v>204</v>
-      </c>
-      <c r="C116" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -5531,10 +5532,10 @@
         <v>125</v>
       </c>
       <c r="B117" t="s">
+        <v>205</v>
+      </c>
+      <c r="C117" t="s">
         <v>206</v>
-      </c>
-      <c r="C117" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -5542,10 +5543,10 @@
         <v>126</v>
       </c>
       <c r="B118" t="s">
+        <v>207</v>
+      </c>
+      <c r="C118" t="s">
         <v>208</v>
-      </c>
-      <c r="C118" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -5553,10 +5554,10 @@
         <v>127</v>
       </c>
       <c r="B119" t="s">
+        <v>209</v>
+      </c>
+      <c r="C119" t="s">
         <v>210</v>
-      </c>
-      <c r="C119" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -5564,10 +5565,10 @@
         <v>128</v>
       </c>
       <c r="B120" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C120" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -5575,10 +5576,10 @@
         <v>129</v>
       </c>
       <c r="B121" t="s">
+        <v>212</v>
+      </c>
+      <c r="C121" t="s">
         <v>213</v>
-      </c>
-      <c r="C121" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -5586,10 +5587,10 @@
         <v>130</v>
       </c>
       <c r="B122" t="s">
+        <v>214</v>
+      </c>
+      <c r="C122" t="s">
         <v>215</v>
-      </c>
-      <c r="C122" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -5597,10 +5598,10 @@
         <v>131</v>
       </c>
       <c r="B123" t="s">
+        <v>216</v>
+      </c>
+      <c r="C123" t="s">
         <v>217</v>
-      </c>
-      <c r="C123" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -5608,10 +5609,10 @@
         <v>132</v>
       </c>
       <c r="B124" t="s">
+        <v>218</v>
+      </c>
+      <c r="C124" t="s">
         <v>219</v>
-      </c>
-      <c r="C124" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -5619,10 +5620,10 @@
         <v>133</v>
       </c>
       <c r="B125" t="s">
+        <v>220</v>
+      </c>
+      <c r="C125" t="s">
         <v>221</v>
-      </c>
-      <c r="C125" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -5630,10 +5631,10 @@
         <v>134</v>
       </c>
       <c r="B126" t="s">
+        <v>222</v>
+      </c>
+      <c r="C126" t="s">
         <v>223</v>
-      </c>
-      <c r="C126" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -5641,10 +5642,10 @@
         <v>135</v>
       </c>
       <c r="B127" t="s">
+        <v>224</v>
+      </c>
+      <c r="C127" t="s">
         <v>225</v>
-      </c>
-      <c r="C127" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -5652,10 +5653,10 @@
         <v>136</v>
       </c>
       <c r="B128" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C128" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -5663,10 +5664,10 @@
         <v>137</v>
       </c>
       <c r="B129" t="s">
+        <v>227</v>
+      </c>
+      <c r="C129" t="s">
         <v>228</v>
-      </c>
-      <c r="C129" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -5674,10 +5675,10 @@
         <v>138</v>
       </c>
       <c r="B130" t="s">
+        <v>229</v>
+      </c>
+      <c r="C130" t="s">
         <v>230</v>
-      </c>
-      <c r="C130" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -5685,10 +5686,10 @@
         <v>139</v>
       </c>
       <c r="B131" t="s">
+        <v>231</v>
+      </c>
+      <c r="C131" t="s">
         <v>232</v>
-      </c>
-      <c r="C131" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -5696,10 +5697,10 @@
         <v>140</v>
       </c>
       <c r="B132" t="s">
+        <v>233</v>
+      </c>
+      <c r="C132" t="s">
         <v>234</v>
-      </c>
-      <c r="C132" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -5707,10 +5708,10 @@
         <v>141</v>
       </c>
       <c r="B133" t="s">
+        <v>235</v>
+      </c>
+      <c r="C133" t="s">
         <v>236</v>
-      </c>
-      <c r="C133" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -5718,10 +5719,10 @@
         <v>142</v>
       </c>
       <c r="B134" t="s">
+        <v>237</v>
+      </c>
+      <c r="C134" t="s">
         <v>238</v>
-      </c>
-      <c r="C134" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -5729,10 +5730,10 @@
         <v>143</v>
       </c>
       <c r="B135" t="s">
+        <v>239</v>
+      </c>
+      <c r="C135" t="s">
         <v>240</v>
-      </c>
-      <c r="C135" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -5740,10 +5741,10 @@
         <v>144</v>
       </c>
       <c r="B136" t="s">
+        <v>241</v>
+      </c>
+      <c r="C136" t="s">
         <v>242</v>
-      </c>
-      <c r="C136" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -5751,10 +5752,10 @@
         <v>145</v>
       </c>
       <c r="B137" t="s">
+        <v>243</v>
+      </c>
+      <c r="C137" t="s">
         <v>244</v>
-      </c>
-      <c r="C137" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -5762,10 +5763,10 @@
         <v>146</v>
       </c>
       <c r="B138" t="s">
+        <v>245</v>
+      </c>
+      <c r="C138" t="s">
         <v>246</v>
-      </c>
-      <c r="C138" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -5773,10 +5774,10 @@
         <v>147</v>
       </c>
       <c r="B139" t="s">
+        <v>247</v>
+      </c>
+      <c r="C139" t="s">
         <v>248</v>
-      </c>
-      <c r="C139" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -5784,10 +5785,10 @@
         <v>148</v>
       </c>
       <c r="B140" t="s">
+        <v>249</v>
+      </c>
+      <c r="C140" t="s">
         <v>250</v>
-      </c>
-      <c r="C140" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -5795,10 +5796,10 @@
         <v>149</v>
       </c>
       <c r="B141" t="s">
+        <v>251</v>
+      </c>
+      <c r="C141" t="s">
         <v>252</v>
-      </c>
-      <c r="C141" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -5806,10 +5807,10 @@
         <v>150</v>
       </c>
       <c r="B142" t="s">
+        <v>253</v>
+      </c>
+      <c r="C142" t="s">
         <v>254</v>
-      </c>
-      <c r="C142" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -5817,10 +5818,10 @@
         <v>151</v>
       </c>
       <c r="B143" t="s">
+        <v>255</v>
+      </c>
+      <c r="C143" t="s">
         <v>256</v>
-      </c>
-      <c r="C143" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -5828,10 +5829,10 @@
         <v>152</v>
       </c>
       <c r="B144" t="s">
+        <v>257</v>
+      </c>
+      <c r="C144" t="s">
         <v>258</v>
-      </c>
-      <c r="C144" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -5839,10 +5840,10 @@
         <v>153</v>
       </c>
       <c r="B145" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C145" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -5850,10 +5851,10 @@
         <v>154</v>
       </c>
       <c r="B146" t="s">
+        <v>260</v>
+      </c>
+      <c r="C146" t="s">
         <v>261</v>
-      </c>
-      <c r="C146" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -5861,10 +5862,10 @@
         <v>155</v>
       </c>
       <c r="B147" t="s">
+        <v>262</v>
+      </c>
+      <c r="C147" t="s">
         <v>263</v>
-      </c>
-      <c r="C147" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -5872,10 +5873,10 @@
         <v>156</v>
       </c>
       <c r="B148" t="s">
+        <v>264</v>
+      </c>
+      <c r="C148" t="s">
         <v>265</v>
-      </c>
-      <c r="C148" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -5883,10 +5884,10 @@
         <v>157</v>
       </c>
       <c r="B149" t="s">
+        <v>266</v>
+      </c>
+      <c r="C149" t="s">
         <v>267</v>
-      </c>
-      <c r="C149" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -5894,10 +5895,10 @@
         <v>158</v>
       </c>
       <c r="B150" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C150" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -5905,10 +5906,10 @@
         <v>159</v>
       </c>
       <c r="B151" t="s">
+        <v>269</v>
+      </c>
+      <c r="C151" t="s">
         <v>270</v>
-      </c>
-      <c r="C151" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -5916,10 +5917,10 @@
         <v>160</v>
       </c>
       <c r="B152" t="s">
+        <v>271</v>
+      </c>
+      <c r="C152" t="s">
         <v>272</v>
-      </c>
-      <c r="C152" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -5927,10 +5928,10 @@
         <v>161</v>
       </c>
       <c r="B153" t="s">
+        <v>273</v>
+      </c>
+      <c r="C153" t="s">
         <v>274</v>
-      </c>
-      <c r="C153" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -5938,10 +5939,10 @@
         <v>162</v>
       </c>
       <c r="B154" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C154" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -5949,10 +5950,10 @@
         <v>163</v>
       </c>
       <c r="B155" t="s">
+        <v>276</v>
+      </c>
+      <c r="C155" t="s">
         <v>277</v>
-      </c>
-      <c r="C155" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -5960,10 +5961,10 @@
         <v>164</v>
       </c>
       <c r="B156" t="s">
+        <v>278</v>
+      </c>
+      <c r="C156" t="s">
         <v>279</v>
-      </c>
-      <c r="C156" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -5971,10 +5972,10 @@
         <v>165</v>
       </c>
       <c r="B157" t="s">
+        <v>280</v>
+      </c>
+      <c r="C157" t="s">
         <v>281</v>
-      </c>
-      <c r="C157" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -5982,10 +5983,10 @@
         <v>166</v>
       </c>
       <c r="B158" t="s">
+        <v>282</v>
+      </c>
+      <c r="C158" t="s">
         <v>283</v>
-      </c>
-      <c r="C158" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -5993,10 +5994,10 @@
         <v>167</v>
       </c>
       <c r="B159" t="s">
+        <v>284</v>
+      </c>
+      <c r="C159" t="s">
         <v>285</v>
-      </c>
-      <c r="C159" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -6004,10 +6005,10 @@
         <v>168</v>
       </c>
       <c r="B160" t="s">
+        <v>286</v>
+      </c>
+      <c r="C160" t="s">
         <v>287</v>
-      </c>
-      <c r="C160" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -6015,10 +6016,10 @@
         <v>169</v>
       </c>
       <c r="B161" t="s">
+        <v>288</v>
+      </c>
+      <c r="C161" t="s">
         <v>289</v>
-      </c>
-      <c r="C161" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -6026,10 +6027,10 @@
         <v>170</v>
       </c>
       <c r="B162" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C162" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -6037,10 +6038,10 @@
         <v>171</v>
       </c>
       <c r="B163" t="s">
+        <v>291</v>
+      </c>
+      <c r="C163" t="s">
         <v>292</v>
-      </c>
-      <c r="C163" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -6048,10 +6049,10 @@
         <v>172</v>
       </c>
       <c r="B164" t="s">
+        <v>293</v>
+      </c>
+      <c r="C164" t="s">
         <v>294</v>
-      </c>
-      <c r="C164" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -6059,10 +6060,10 @@
         <v>173</v>
       </c>
       <c r="B165" t="s">
+        <v>295</v>
+      </c>
+      <c r="C165" t="s">
         <v>296</v>
-      </c>
-      <c r="C165" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -6070,10 +6071,10 @@
         <v>174</v>
       </c>
       <c r="B166" t="s">
+        <v>297</v>
+      </c>
+      <c r="C166" t="s">
         <v>298</v>
-      </c>
-      <c r="C166" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -6081,10 +6082,10 @@
         <v>175</v>
       </c>
       <c r="B167" t="s">
+        <v>299</v>
+      </c>
+      <c r="C167" t="s">
         <v>300</v>
-      </c>
-      <c r="C167" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -6092,10 +6093,10 @@
         <v>176</v>
       </c>
       <c r="B168" t="s">
+        <v>301</v>
+      </c>
+      <c r="C168" t="s">
         <v>302</v>
-      </c>
-      <c r="C168" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -6103,10 +6104,10 @@
         <v>177</v>
       </c>
       <c r="B169" t="s">
+        <v>303</v>
+      </c>
+      <c r="C169" t="s">
         <v>304</v>
-      </c>
-      <c r="C169" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -6114,10 +6115,10 @@
         <v>178</v>
       </c>
       <c r="B170" t="s">
+        <v>305</v>
+      </c>
+      <c r="C170" t="s">
         <v>306</v>
-      </c>
-      <c r="C170" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -6125,10 +6126,10 @@
         <v>179</v>
       </c>
       <c r="B171" t="s">
+        <v>307</v>
+      </c>
+      <c r="C171" t="s">
         <v>308</v>
-      </c>
-      <c r="C171" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -6136,10 +6137,10 @@
         <v>180</v>
       </c>
       <c r="B172" t="s">
+        <v>309</v>
+      </c>
+      <c r="C172" t="s">
         <v>310</v>
-      </c>
-      <c r="C172" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -6147,10 +6148,10 @@
         <v>181</v>
       </c>
       <c r="B173" t="s">
+        <v>311</v>
+      </c>
+      <c r="C173" t="s">
         <v>312</v>
-      </c>
-      <c r="C173" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -6158,10 +6159,10 @@
         <v>182</v>
       </c>
       <c r="B174" t="s">
+        <v>313</v>
+      </c>
+      <c r="C174" t="s">
         <v>314</v>
-      </c>
-      <c r="C174" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -6169,10 +6170,10 @@
         <v>183</v>
       </c>
       <c r="B175" t="s">
+        <v>315</v>
+      </c>
+      <c r="C175" t="s">
         <v>316</v>
-      </c>
-      <c r="C175" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -6180,10 +6181,10 @@
         <v>184</v>
       </c>
       <c r="B176" t="s">
+        <v>317</v>
+      </c>
+      <c r="C176" t="s">
         <v>318</v>
-      </c>
-      <c r="C176" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -6191,10 +6192,10 @@
         <v>185</v>
       </c>
       <c r="B177" t="s">
+        <v>319</v>
+      </c>
+      <c r="C177" t="s">
         <v>320</v>
-      </c>
-      <c r="C177" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -6202,10 +6203,10 @@
         <v>186</v>
       </c>
       <c r="B178" t="s">
+        <v>321</v>
+      </c>
+      <c r="C178" t="s">
         <v>322</v>
-      </c>
-      <c r="C178" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -6213,10 +6214,10 @@
         <v>187</v>
       </c>
       <c r="B179" t="s">
+        <v>323</v>
+      </c>
+      <c r="C179" t="s">
         <v>324</v>
-      </c>
-      <c r="C179" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -6224,10 +6225,10 @@
         <v>188</v>
       </c>
       <c r="B180" t="s">
+        <v>325</v>
+      </c>
+      <c r="C180" t="s">
         <v>326</v>
-      </c>
-      <c r="C180" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -6235,10 +6236,10 @@
         <v>189</v>
       </c>
       <c r="B181" t="s">
+        <v>327</v>
+      </c>
+      <c r="C181" t="s">
         <v>328</v>
-      </c>
-      <c r="C181" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -6246,10 +6247,10 @@
         <v>190</v>
       </c>
       <c r="B182" t="s">
+        <v>329</v>
+      </c>
+      <c r="C182" t="s">
         <v>330</v>
-      </c>
-      <c r="C182" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -6257,10 +6258,10 @@
         <v>191</v>
       </c>
       <c r="B183" t="s">
+        <v>331</v>
+      </c>
+      <c r="C183" t="s">
         <v>332</v>
-      </c>
-      <c r="C183" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -6268,10 +6269,10 @@
         <v>192</v>
       </c>
       <c r="B184" t="s">
+        <v>333</v>
+      </c>
+      <c r="C184" t="s">
         <v>334</v>
-      </c>
-      <c r="C184" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -6279,10 +6280,10 @@
         <v>193</v>
       </c>
       <c r="B185" t="s">
+        <v>335</v>
+      </c>
+      <c r="C185" t="s">
         <v>336</v>
-      </c>
-      <c r="C185" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -6290,10 +6291,10 @@
         <v>194</v>
       </c>
       <c r="B186" t="s">
+        <v>337</v>
+      </c>
+      <c r="C186" t="s">
         <v>338</v>
-      </c>
-      <c r="C186" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -6301,10 +6302,10 @@
         <v>195</v>
       </c>
       <c r="B187" t="s">
+        <v>339</v>
+      </c>
+      <c r="C187" t="s">
         <v>340</v>
-      </c>
-      <c r="C187" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -6312,10 +6313,10 @@
         <v>196</v>
       </c>
       <c r="B188" t="s">
+        <v>341</v>
+      </c>
+      <c r="C188" t="s">
         <v>342</v>
-      </c>
-      <c r="C188" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -6323,10 +6324,10 @@
         <v>197</v>
       </c>
       <c r="B189" t="s">
+        <v>343</v>
+      </c>
+      <c r="C189" t="s">
         <v>344</v>
-      </c>
-      <c r="C189" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -6334,10 +6335,10 @@
         <v>198</v>
       </c>
       <c r="B190" t="s">
+        <v>345</v>
+      </c>
+      <c r="C190" t="s">
         <v>346</v>
-      </c>
-      <c r="C190" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -6345,10 +6346,10 @@
         <v>199</v>
       </c>
       <c r="B191" t="s">
+        <v>347</v>
+      </c>
+      <c r="C191" t="s">
         <v>348</v>
-      </c>
-      <c r="C191" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -6356,10 +6357,10 @@
         <v>200</v>
       </c>
       <c r="B192" t="s">
+        <v>349</v>
+      </c>
+      <c r="C192" t="s">
         <v>350</v>
-      </c>
-      <c r="C192" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -6367,10 +6368,10 @@
         <v>201</v>
       </c>
       <c r="B193" t="s">
+        <v>351</v>
+      </c>
+      <c r="C193" t="s">
         <v>352</v>
-      </c>
-      <c r="C193" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -6378,10 +6379,10 @@
         <v>202</v>
       </c>
       <c r="B194" t="s">
+        <v>353</v>
+      </c>
+      <c r="C194" t="s">
         <v>354</v>
-      </c>
-      <c r="C194" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -6389,10 +6390,10 @@
         <v>203</v>
       </c>
       <c r="B195" t="s">
+        <v>355</v>
+      </c>
+      <c r="C195" t="s">
         <v>356</v>
-      </c>
-      <c r="C195" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -6400,10 +6401,10 @@
         <v>204</v>
       </c>
       <c r="B196" t="s">
+        <v>357</v>
+      </c>
+      <c r="C196" t="s">
         <v>358</v>
-      </c>
-      <c r="C196" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -6411,10 +6412,10 @@
         <v>205</v>
       </c>
       <c r="B197" t="s">
+        <v>359</v>
+      </c>
+      <c r="C197" t="s">
         <v>360</v>
-      </c>
-      <c r="C197" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -6422,10 +6423,10 @@
         <v>206</v>
       </c>
       <c r="B198" t="s">
+        <v>361</v>
+      </c>
+      <c r="C198" t="s">
         <v>362</v>
-      </c>
-      <c r="C198" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -6433,10 +6434,10 @@
         <v>207</v>
       </c>
       <c r="B199" t="s">
+        <v>363</v>
+      </c>
+      <c r="C199" t="s">
         <v>364</v>
-      </c>
-      <c r="C199" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -6444,10 +6445,10 @@
         <v>208</v>
       </c>
       <c r="B200" t="s">
+        <v>365</v>
+      </c>
+      <c r="C200" t="s">
         <v>366</v>
-      </c>
-      <c r="C200" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -6455,10 +6456,10 @@
         <v>209</v>
       </c>
       <c r="B201" t="s">
+        <v>367</v>
+      </c>
+      <c r="C201" t="s">
         <v>368</v>
-      </c>
-      <c r="C201" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -6466,10 +6467,10 @@
         <v>210</v>
       </c>
       <c r="B202" t="s">
+        <v>369</v>
+      </c>
+      <c r="C202" t="s">
         <v>370</v>
-      </c>
-      <c r="C202" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -6477,10 +6478,10 @@
         <v>211</v>
       </c>
       <c r="B203" t="s">
+        <v>371</v>
+      </c>
+      <c r="C203" t="s">
         <v>372</v>
-      </c>
-      <c r="C203" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -6488,10 +6489,10 @@
         <v>212</v>
       </c>
       <c r="B204" t="s">
+        <v>373</v>
+      </c>
+      <c r="C204" t="s">
         <v>374</v>
-      </c>
-      <c r="C204" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -6499,10 +6500,10 @@
         <v>213</v>
       </c>
       <c r="B205" t="s">
+        <v>375</v>
+      </c>
+      <c r="C205" t="s">
         <v>376</v>
-      </c>
-      <c r="C205" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -6510,10 +6511,10 @@
         <v>214</v>
       </c>
       <c r="B206" t="s">
+        <v>377</v>
+      </c>
+      <c r="C206" t="s">
         <v>378</v>
-      </c>
-      <c r="C206" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -6521,10 +6522,10 @@
         <v>215</v>
       </c>
       <c r="B207" t="s">
+        <v>379</v>
+      </c>
+      <c r="C207" t="s">
         <v>380</v>
-      </c>
-      <c r="C207" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -6532,10 +6533,10 @@
         <v>217</v>
       </c>
       <c r="B208" t="s">
+        <v>381</v>
+      </c>
+      <c r="C208" t="s">
         <v>382</v>
-      </c>
-      <c r="C208" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -6543,10 +6544,10 @@
         <v>218</v>
       </c>
       <c r="B209" t="s">
+        <v>383</v>
+      </c>
+      <c r="C209" t="s">
         <v>384</v>
-      </c>
-      <c r="C209" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -6554,10 +6555,10 @@
         <v>219</v>
       </c>
       <c r="B210" t="s">
+        <v>385</v>
+      </c>
+      <c r="C210" t="s">
         <v>386</v>
-      </c>
-      <c r="C210" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -6565,10 +6566,10 @@
         <v>220</v>
       </c>
       <c r="B211" t="s">
+        <v>387</v>
+      </c>
+      <c r="C211" t="s">
         <v>388</v>
-      </c>
-      <c r="C211" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -6576,10 +6577,10 @@
         <v>221</v>
       </c>
       <c r="B212" t="s">
+        <v>389</v>
+      </c>
+      <c r="C212" t="s">
         <v>390</v>
-      </c>
-      <c r="C212" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -6587,10 +6588,10 @@
         <v>222</v>
       </c>
       <c r="B213" t="s">
+        <v>391</v>
+      </c>
+      <c r="C213" t="s">
         <v>392</v>
-      </c>
-      <c r="C213" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -6598,10 +6599,10 @@
         <v>223</v>
       </c>
       <c r="B214" t="s">
+        <v>393</v>
+      </c>
+      <c r="C214" t="s">
         <v>394</v>
-      </c>
-      <c r="C214" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -6609,10 +6610,10 @@
         <v>224</v>
       </c>
       <c r="B215" t="s">
+        <v>395</v>
+      </c>
+      <c r="C215" t="s">
         <v>396</v>
-      </c>
-      <c r="C215" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -6620,10 +6621,10 @@
         <v>225</v>
       </c>
       <c r="B216" t="s">
+        <v>397</v>
+      </c>
+      <c r="C216" t="s">
         <v>398</v>
-      </c>
-      <c r="C216" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -6631,10 +6632,10 @@
         <v>226</v>
       </c>
       <c r="B217" t="s">
+        <v>399</v>
+      </c>
+      <c r="C217" t="s">
         <v>400</v>
-      </c>
-      <c r="C217" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -6642,10 +6643,10 @@
         <v>227</v>
       </c>
       <c r="B218" t="s">
+        <v>401</v>
+      </c>
+      <c r="C218" t="s">
         <v>402</v>
-      </c>
-      <c r="C218" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -6653,10 +6654,10 @@
         <v>228</v>
       </c>
       <c r="B219" t="s">
+        <v>403</v>
+      </c>
+      <c r="C219" t="s">
         <v>404</v>
-      </c>
-      <c r="C219" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -6664,10 +6665,10 @@
         <v>229</v>
       </c>
       <c r="B220" t="s">
+        <v>405</v>
+      </c>
+      <c r="C220" t="s">
         <v>406</v>
-      </c>
-      <c r="C220" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -6675,10 +6676,10 @@
         <v>230</v>
       </c>
       <c r="B221" t="s">
+        <v>407</v>
+      </c>
+      <c r="C221" t="s">
         <v>408</v>
-      </c>
-      <c r="C221" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -6686,10 +6687,10 @@
         <v>231</v>
       </c>
       <c r="B222" t="s">
+        <v>409</v>
+      </c>
+      <c r="C222" t="s">
         <v>410</v>
-      </c>
-      <c r="C222" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -6697,10 +6698,10 @@
         <v>232</v>
       </c>
       <c r="B223" t="s">
+        <v>411</v>
+      </c>
+      <c r="C223" t="s">
         <v>412</v>
-      </c>
-      <c r="C223" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -6708,10 +6709,10 @@
         <v>233</v>
       </c>
       <c r="B224" t="s">
+        <v>413</v>
+      </c>
+      <c r="C224" t="s">
         <v>414</v>
-      </c>
-      <c r="C224" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -6719,10 +6720,10 @@
         <v>234</v>
       </c>
       <c r="B225" t="s">
+        <v>415</v>
+      </c>
+      <c r="C225" t="s">
         <v>416</v>
-      </c>
-      <c r="C225" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -6730,10 +6731,10 @@
         <v>235</v>
       </c>
       <c r="B226" t="s">
+        <v>417</v>
+      </c>
+      <c r="C226" t="s">
         <v>418</v>
-      </c>
-      <c r="C226" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -6741,10 +6742,10 @@
         <v>236</v>
       </c>
       <c r="B227" t="s">
+        <v>419</v>
+      </c>
+      <c r="C227" t="s">
         <v>420</v>
-      </c>
-      <c r="C227" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -6752,10 +6753,10 @@
         <v>237</v>
       </c>
       <c r="B228" t="s">
+        <v>421</v>
+      </c>
+      <c r="C228" t="s">
         <v>422</v>
-      </c>
-      <c r="C228" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -6763,10 +6764,10 @@
         <v>238</v>
       </c>
       <c r="B229" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C229" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -6774,10 +6775,10 @@
         <v>239</v>
       </c>
       <c r="B230" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C230" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -6785,10 +6786,10 @@
         <v>240</v>
       </c>
       <c r="B231" t="s">
+        <v>425</v>
+      </c>
+      <c r="C231" t="s">
         <v>426</v>
-      </c>
-      <c r="C231" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -6796,10 +6797,10 @@
         <v>241</v>
       </c>
       <c r="B232" t="s">
+        <v>427</v>
+      </c>
+      <c r="C232" t="s">
         <v>428</v>
-      </c>
-      <c r="C232" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -6807,10 +6808,10 @@
         <v>242</v>
       </c>
       <c r="B233" t="s">
+        <v>429</v>
+      </c>
+      <c r="C233" t="s">
         <v>430</v>
-      </c>
-      <c r="C233" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -6818,10 +6819,10 @@
         <v>243</v>
       </c>
       <c r="B234" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C234" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -6829,10 +6830,10 @@
         <v>244</v>
       </c>
       <c r="B235" t="s">
+        <v>432</v>
+      </c>
+      <c r="C235" t="s">
         <v>433</v>
-      </c>
-      <c r="C235" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -6840,10 +6841,10 @@
         <v>245</v>
       </c>
       <c r="B236" t="s">
+        <v>434</v>
+      </c>
+      <c r="C236" t="s">
         <v>435</v>
-      </c>
-      <c r="C236" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -6851,10 +6852,10 @@
         <v>246</v>
       </c>
       <c r="B237" t="s">
+        <v>436</v>
+      </c>
+      <c r="C237" t="s">
         <v>437</v>
-      </c>
-      <c r="C237" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -6862,10 +6863,10 @@
         <v>247</v>
       </c>
       <c r="B238" t="s">
+        <v>438</v>
+      </c>
+      <c r="C238" t="s">
         <v>439</v>
-      </c>
-      <c r="C238" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -6873,10 +6874,10 @@
         <v>248</v>
       </c>
       <c r="B239" t="s">
+        <v>440</v>
+      </c>
+      <c r="C239" t="s">
         <v>441</v>
-      </c>
-      <c r="C239" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -6884,10 +6885,10 @@
         <v>249</v>
       </c>
       <c r="B240" t="s">
+        <v>442</v>
+      </c>
+      <c r="C240" t="s">
         <v>443</v>
-      </c>
-      <c r="C240" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -6895,10 +6896,10 @@
         <v>250</v>
       </c>
       <c r="B241" t="s">
+        <v>444</v>
+      </c>
+      <c r="C241" t="s">
         <v>445</v>
-      </c>
-      <c r="C241" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -6906,10 +6907,10 @@
         <v>251</v>
       </c>
       <c r="B242" t="s">
+        <v>446</v>
+      </c>
+      <c r="C242" t="s">
         <v>447</v>
-      </c>
-      <c r="C242" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -6917,10 +6918,10 @@
         <v>252</v>
       </c>
       <c r="B243" t="s">
+        <v>448</v>
+      </c>
+      <c r="C243" t="s">
         <v>449</v>
-      </c>
-      <c r="C243" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -6928,10 +6929,10 @@
         <v>253</v>
       </c>
       <c r="B244" t="s">
+        <v>450</v>
+      </c>
+      <c r="C244" t="s">
         <v>451</v>
-      </c>
-      <c r="C244" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -6939,10 +6940,10 @@
         <v>254</v>
       </c>
       <c r="B245" t="s">
+        <v>452</v>
+      </c>
+      <c r="C245" t="s">
         <v>453</v>
-      </c>
-      <c r="C245" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -6950,10 +6951,10 @@
         <v>255</v>
       </c>
       <c r="B246" t="s">
+        <v>454</v>
+      </c>
+      <c r="C246" t="s">
         <v>455</v>
-      </c>
-      <c r="C246" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -6961,10 +6962,10 @@
         <v>256</v>
       </c>
       <c r="B247" t="s">
+        <v>456</v>
+      </c>
+      <c r="C247" t="s">
         <v>457</v>
-      </c>
-      <c r="C247" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -6972,10 +6973,10 @@
         <v>257</v>
       </c>
       <c r="B248" t="s">
+        <v>458</v>
+      </c>
+      <c r="C248" t="s">
         <v>459</v>
-      </c>
-      <c r="C248" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -6983,10 +6984,10 @@
         <v>258</v>
       </c>
       <c r="B249" t="s">
+        <v>460</v>
+      </c>
+      <c r="C249" t="s">
         <v>461</v>
-      </c>
-      <c r="C249" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -6994,10 +6995,10 @@
         <v>259</v>
       </c>
       <c r="B250" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C250" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -7005,10 +7006,10 @@
         <v>260</v>
       </c>
       <c r="B251" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C251" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -7016,10 +7017,10 @@
         <v>261</v>
       </c>
       <c r="B252" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C252" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -7027,10 +7028,10 @@
         <v>262</v>
       </c>
       <c r="B253" t="s">
+        <v>465</v>
+      </c>
+      <c r="C253" t="s">
         <v>466</v>
-      </c>
-      <c r="C253" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -7038,10 +7039,10 @@
         <v>263</v>
       </c>
       <c r="B254" t="s">
+        <v>467</v>
+      </c>
+      <c r="C254" t="s">
         <v>468</v>
-      </c>
-      <c r="C254" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -7049,10 +7050,10 @@
         <v>264</v>
       </c>
       <c r="B255" t="s">
+        <v>469</v>
+      </c>
+      <c r="C255" t="s">
         <v>470</v>
-      </c>
-      <c r="C255" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -7060,10 +7061,10 @@
         <v>265</v>
       </c>
       <c r="B256" t="s">
+        <v>471</v>
+      </c>
+      <c r="C256" t="s">
         <v>472</v>
-      </c>
-      <c r="C256" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -7071,10 +7072,10 @@
         <v>266</v>
       </c>
       <c r="B257" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C257" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -7082,10 +7083,10 @@
         <v>267</v>
       </c>
       <c r="B258" t="s">
+        <v>474</v>
+      </c>
+      <c r="C258" t="s">
         <v>475</v>
-      </c>
-      <c r="C258" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -7093,10 +7094,10 @@
         <v>268</v>
       </c>
       <c r="B259" t="s">
+        <v>476</v>
+      </c>
+      <c r="C259" t="s">
         <v>477</v>
-      </c>
-      <c r="C259" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -7104,10 +7105,10 @@
         <v>269</v>
       </c>
       <c r="B260" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C260" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -7115,10 +7116,10 @@
         <v>270</v>
       </c>
       <c r="B261" t="s">
+        <v>479</v>
+      </c>
+      <c r="C261" t="s">
         <v>480</v>
-      </c>
-      <c r="C261" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -7126,10 +7127,10 @@
         <v>271</v>
       </c>
       <c r="B262" t="s">
+        <v>481</v>
+      </c>
+      <c r="C262" t="s">
         <v>482</v>
-      </c>
-      <c r="C262" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -7137,10 +7138,10 @@
         <v>272</v>
       </c>
       <c r="B263" t="s">
+        <v>483</v>
+      </c>
+      <c r="C263" t="s">
         <v>484</v>
-      </c>
-      <c r="C263" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -7148,10 +7149,10 @@
         <v>274</v>
       </c>
       <c r="B264" t="s">
+        <v>485</v>
+      </c>
+      <c r="C264" t="s">
         <v>486</v>
-      </c>
-      <c r="C264" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -7159,10 +7160,10 @@
         <v>275</v>
       </c>
       <c r="B265" t="s">
+        <v>487</v>
+      </c>
+      <c r="C265" t="s">
         <v>488</v>
-      </c>
-      <c r="C265" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -7170,10 +7171,10 @@
         <v>276</v>
       </c>
       <c r="B266" t="s">
+        <v>489</v>
+      </c>
+      <c r="C266" t="s">
         <v>490</v>
-      </c>
-      <c r="C266" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -7181,10 +7182,10 @@
         <v>277</v>
       </c>
       <c r="B267" t="s">
+        <v>491</v>
+      </c>
+      <c r="C267" t="s">
         <v>492</v>
-      </c>
-      <c r="C267" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -7192,10 +7193,10 @@
         <v>278</v>
       </c>
       <c r="B268" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C268" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -7203,10 +7204,10 @@
         <v>279</v>
       </c>
       <c r="B269" t="s">
+        <v>494</v>
+      </c>
+      <c r="C269" t="s">
         <v>495</v>
-      </c>
-      <c r="C269" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -7214,10 +7215,10 @@
         <v>280</v>
       </c>
       <c r="B270" t="s">
+        <v>496</v>
+      </c>
+      <c r="C270" t="s">
         <v>497</v>
-      </c>
-      <c r="C270" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -7225,10 +7226,10 @@
         <v>281</v>
       </c>
       <c r="B271" t="s">
+        <v>498</v>
+      </c>
+      <c r="C271" t="s">
         <v>499</v>
-      </c>
-      <c r="C271" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -7236,10 +7237,10 @@
         <v>282</v>
       </c>
       <c r="B272" t="s">
+        <v>500</v>
+      </c>
+      <c r="C272" t="s">
         <v>501</v>
-      </c>
-      <c r="C272" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -7247,10 +7248,10 @@
         <v>283</v>
       </c>
       <c r="B273" t="s">
+        <v>502</v>
+      </c>
+      <c r="C273" t="s">
         <v>503</v>
-      </c>
-      <c r="C273" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -7258,10 +7259,10 @@
         <v>284</v>
       </c>
       <c r="B274" t="s">
+        <v>504</v>
+      </c>
+      <c r="C274" t="s">
         <v>505</v>
-      </c>
-      <c r="C274" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -7269,10 +7270,10 @@
         <v>285</v>
       </c>
       <c r="B275" t="s">
+        <v>506</v>
+      </c>
+      <c r="C275" t="s">
         <v>507</v>
-      </c>
-      <c r="C275" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -7280,10 +7281,10 @@
         <v>286</v>
       </c>
       <c r="B276" t="s">
+        <v>508</v>
+      </c>
+      <c r="C276" t="s">
         <v>509</v>
-      </c>
-      <c r="C276" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -7291,10 +7292,10 @@
         <v>287</v>
       </c>
       <c r="B277" t="s">
+        <v>510</v>
+      </c>
+      <c r="C277" t="s">
         <v>511</v>
-      </c>
-      <c r="C277" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -7302,10 +7303,10 @@
         <v>288</v>
       </c>
       <c r="B278" t="s">
+        <v>512</v>
+      </c>
+      <c r="C278" t="s">
         <v>513</v>
-      </c>
-      <c r="C278" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -7313,10 +7314,10 @@
         <v>289</v>
       </c>
       <c r="B279" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C279" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -7324,10 +7325,10 @@
         <v>290</v>
       </c>
       <c r="B280" t="s">
+        <v>515</v>
+      </c>
+      <c r="C280" t="s">
         <v>516</v>
-      </c>
-      <c r="C280" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -7335,10 +7336,10 @@
         <v>291</v>
       </c>
       <c r="B281" t="s">
+        <v>517</v>
+      </c>
+      <c r="C281" t="s">
         <v>518</v>
-      </c>
-      <c r="C281" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -7346,10 +7347,10 @@
         <v>292</v>
       </c>
       <c r="B282" t="s">
+        <v>519</v>
+      </c>
+      <c r="C282" t="s">
         <v>520</v>
-      </c>
-      <c r="C282" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -7357,10 +7358,10 @@
         <v>293</v>
       </c>
       <c r="B283" t="s">
+        <v>521</v>
+      </c>
+      <c r="C283" t="s">
         <v>522</v>
-      </c>
-      <c r="C283" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -7368,10 +7369,10 @@
         <v>294</v>
       </c>
       <c r="B284" t="s">
+        <v>523</v>
+      </c>
+      <c r="C284" t="s">
         <v>524</v>
-      </c>
-      <c r="C284" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -7379,10 +7380,10 @@
         <v>295</v>
       </c>
       <c r="B285" t="s">
+        <v>525</v>
+      </c>
+      <c r="C285" t="s">
         <v>526</v>
-      </c>
-      <c r="C285" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -7390,10 +7391,10 @@
         <v>296</v>
       </c>
       <c r="B286" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C286" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -7401,10 +7402,10 @@
         <v>297</v>
       </c>
       <c r="B287" t="s">
+        <v>528</v>
+      </c>
+      <c r="C287" t="s">
         <v>529</v>
-      </c>
-      <c r="C287" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -7412,10 +7413,10 @@
         <v>298</v>
       </c>
       <c r="B288" t="s">
+        <v>530</v>
+      </c>
+      <c r="C288" t="s">
         <v>531</v>
-      </c>
-      <c r="C288" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -7423,10 +7424,10 @@
         <v>299</v>
       </c>
       <c r="B289" t="s">
+        <v>532</v>
+      </c>
+      <c r="C289" t="s">
         <v>533</v>
-      </c>
-      <c r="C289" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -7434,10 +7435,10 @@
         <v>300</v>
       </c>
       <c r="B290" t="s">
+        <v>534</v>
+      </c>
+      <c r="C290" t="s">
         <v>535</v>
-      </c>
-      <c r="C290" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -7445,10 +7446,10 @@
         <v>301</v>
       </c>
       <c r="B291" t="s">
+        <v>536</v>
+      </c>
+      <c r="C291" t="s">
         <v>537</v>
-      </c>
-      <c r="C291" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -7456,10 +7457,10 @@
         <v>302</v>
       </c>
       <c r="B292" t="s">
+        <v>538</v>
+      </c>
+      <c r="C292" t="s">
         <v>539</v>
-      </c>
-      <c r="C292" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -7467,10 +7468,10 @@
         <v>303</v>
       </c>
       <c r="B293" t="s">
+        <v>540</v>
+      </c>
+      <c r="C293" t="s">
         <v>541</v>
-      </c>
-      <c r="C293" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -7478,10 +7479,10 @@
         <v>304</v>
       </c>
       <c r="B294" t="s">
+        <v>542</v>
+      </c>
+      <c r="C294" t="s">
         <v>543</v>
-      </c>
-      <c r="C294" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -7489,10 +7490,10 @@
         <v>305</v>
       </c>
       <c r="B295" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C295" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -7500,10 +7501,10 @@
         <v>306</v>
       </c>
       <c r="B296" t="s">
+        <v>545</v>
+      </c>
+      <c r="C296" t="s">
         <v>546</v>
-      </c>
-      <c r="C296" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -7511,10 +7512,10 @@
         <v>307</v>
       </c>
       <c r="B297" t="s">
+        <v>547</v>
+      </c>
+      <c r="C297" t="s">
         <v>548</v>
-      </c>
-      <c r="C297" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -7522,10 +7523,10 @@
         <v>308</v>
       </c>
       <c r="B298" t="s">
+        <v>549</v>
+      </c>
+      <c r="C298" t="s">
         <v>550</v>
-      </c>
-      <c r="C298" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
@@ -7533,10 +7534,10 @@
         <v>309</v>
       </c>
       <c r="B299" t="s">
+        <v>551</v>
+      </c>
+      <c r="C299" t="s">
         <v>552</v>
-      </c>
-      <c r="C299" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
@@ -7544,10 +7545,10 @@
         <v>310</v>
       </c>
       <c r="B300" t="s">
+        <v>553</v>
+      </c>
+      <c r="C300" t="s">
         <v>554</v>
-      </c>
-      <c r="C300" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -7555,10 +7556,10 @@
         <v>311</v>
       </c>
       <c r="B301" t="s">
+        <v>555</v>
+      </c>
+      <c r="C301" t="s">
         <v>556</v>
-      </c>
-      <c r="C301" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -7566,10 +7567,10 @@
         <v>312</v>
       </c>
       <c r="B302" t="s">
+        <v>557</v>
+      </c>
+      <c r="C302" t="s">
         <v>558</v>
-      </c>
-      <c r="C302" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -7577,10 +7578,10 @@
         <v>313</v>
       </c>
       <c r="B303" t="s">
+        <v>559</v>
+      </c>
+      <c r="C303" t="s">
         <v>560</v>
-      </c>
-      <c r="C303" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -7588,10 +7589,10 @@
         <v>314</v>
       </c>
       <c r="B304" t="s">
+        <v>561</v>
+      </c>
+      <c r="C304" t="s">
         <v>562</v>
-      </c>
-      <c r="C304" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -7599,10 +7600,10 @@
         <v>315</v>
       </c>
       <c r="B305" t="s">
+        <v>563</v>
+      </c>
+      <c r="C305" t="s">
         <v>564</v>
-      </c>
-      <c r="C305" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -7610,10 +7611,10 @@
         <v>316</v>
       </c>
       <c r="B306" t="s">
+        <v>565</v>
+      </c>
+      <c r="C306" t="s">
         <v>566</v>
-      </c>
-      <c r="C306" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -7621,10 +7622,10 @@
         <v>317</v>
       </c>
       <c r="B307" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C307" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -7632,10 +7633,10 @@
         <v>318</v>
       </c>
       <c r="B308" t="s">
+        <v>568</v>
+      </c>
+      <c r="C308" t="s">
         <v>569</v>
-      </c>
-      <c r="C308" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -7643,10 +7644,10 @@
         <v>319</v>
       </c>
       <c r="B309" t="s">
+        <v>570</v>
+      </c>
+      <c r="C309" t="s">
         <v>571</v>
-      </c>
-      <c r="C309" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -7654,10 +7655,10 @@
         <v>320</v>
       </c>
       <c r="B310" t="s">
+        <v>572</v>
+      </c>
+      <c r="C310" t="s">
         <v>573</v>
-      </c>
-      <c r="C310" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -7665,10 +7666,10 @@
         <v>321</v>
       </c>
       <c r="B311" t="s">
+        <v>574</v>
+      </c>
+      <c r="C311" t="s">
         <v>575</v>
-      </c>
-      <c r="C311" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -7676,10 +7677,10 @@
         <v>322</v>
       </c>
       <c r="B312" t="s">
+        <v>576</v>
+      </c>
+      <c r="C312" t="s">
         <v>577</v>
-      </c>
-      <c r="C312" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -7687,10 +7688,10 @@
         <v>323</v>
       </c>
       <c r="B313" t="s">
+        <v>578</v>
+      </c>
+      <c r="C313" t="s">
         <v>579</v>
-      </c>
-      <c r="C313" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -7698,10 +7699,10 @@
         <v>324</v>
       </c>
       <c r="B314" t="s">
+        <v>580</v>
+      </c>
+      <c r="C314" t="s">
         <v>581</v>
-      </c>
-      <c r="C314" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -7709,10 +7710,10 @@
         <v>325</v>
       </c>
       <c r="B315" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C315" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -7720,10 +7721,10 @@
         <v>326</v>
       </c>
       <c r="B316" t="s">
+        <v>583</v>
+      </c>
+      <c r="C316" t="s">
         <v>584</v>
-      </c>
-      <c r="C316" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -7731,10 +7732,10 @@
         <v>327</v>
       </c>
       <c r="B317" t="s">
+        <v>585</v>
+      </c>
+      <c r="C317" t="s">
         <v>586</v>
-      </c>
-      <c r="C317" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -7742,10 +7743,10 @@
         <v>328</v>
       </c>
       <c r="B318" t="s">
+        <v>587</v>
+      </c>
+      <c r="C318" t="s">
         <v>588</v>
-      </c>
-      <c r="C318" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -7753,10 +7754,10 @@
         <v>329</v>
       </c>
       <c r="B319" t="s">
+        <v>589</v>
+      </c>
+      <c r="C319" t="s">
         <v>590</v>
-      </c>
-      <c r="C319" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -7764,10 +7765,10 @@
         <v>330</v>
       </c>
       <c r="B320" t="s">
+        <v>591</v>
+      </c>
+      <c r="C320" t="s">
         <v>592</v>
-      </c>
-      <c r="C320" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -7775,10 +7776,10 @@
         <v>331</v>
       </c>
       <c r="B321" t="s">
+        <v>593</v>
+      </c>
+      <c r="C321" t="s">
         <v>594</v>
-      </c>
-      <c r="C321" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -7786,10 +7787,10 @@
         <v>332</v>
       </c>
       <c r="B322" t="s">
+        <v>595</v>
+      </c>
+      <c r="C322" t="s">
         <v>596</v>
-      </c>
-      <c r="C322" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -7797,10 +7798,10 @@
         <v>333</v>
       </c>
       <c r="B323" t="s">
+        <v>597</v>
+      </c>
+      <c r="C323" t="s">
         <v>598</v>
-      </c>
-      <c r="C323" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -7808,10 +7809,10 @@
         <v>334</v>
       </c>
       <c r="B324" t="s">
+        <v>599</v>
+      </c>
+      <c r="C324" t="s">
         <v>600</v>
-      </c>
-      <c r="C324" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -7819,10 +7820,10 @@
         <v>335</v>
       </c>
       <c r="B325" t="s">
+        <v>601</v>
+      </c>
+      <c r="C325" t="s">
         <v>602</v>
-      </c>
-      <c r="C325" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -7830,10 +7831,10 @@
         <v>336</v>
       </c>
       <c r="B326" t="s">
+        <v>603</v>
+      </c>
+      <c r="C326" t="s">
         <v>604</v>
-      </c>
-      <c r="C326" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -7841,10 +7842,10 @@
         <v>337</v>
       </c>
       <c r="B327" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C327" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -7852,10 +7853,10 @@
         <v>338</v>
       </c>
       <c r="B328" t="s">
+        <v>605</v>
+      </c>
+      <c r="C328" t="s">
         <v>606</v>
-      </c>
-      <c r="C328" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -7863,10 +7864,10 @@
         <v>339</v>
       </c>
       <c r="B329" t="s">
+        <v>607</v>
+      </c>
+      <c r="C329" t="s">
         <v>608</v>
-      </c>
-      <c r="C329" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -7874,10 +7875,10 @@
         <v>340</v>
       </c>
       <c r="B330" t="s">
+        <v>609</v>
+      </c>
+      <c r="C330" t="s">
         <v>610</v>
-      </c>
-      <c r="C330" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -7885,10 +7886,10 @@
         <v>341</v>
       </c>
       <c r="B331" t="s">
+        <v>611</v>
+      </c>
+      <c r="C331" t="s">
         <v>612</v>
-      </c>
-      <c r="C331" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -7896,10 +7897,10 @@
         <v>342</v>
       </c>
       <c r="B332" t="s">
+        <v>613</v>
+      </c>
+      <c r="C332" t="s">
         <v>614</v>
-      </c>
-      <c r="C332" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -7907,10 +7908,10 @@
         <v>343</v>
       </c>
       <c r="B333" t="s">
+        <v>615</v>
+      </c>
+      <c r="C333" t="s">
         <v>616</v>
-      </c>
-      <c r="C333" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -7918,10 +7919,10 @@
         <v>344</v>
       </c>
       <c r="B334" t="s">
+        <v>617</v>
+      </c>
+      <c r="C334" t="s">
         <v>618</v>
-      </c>
-      <c r="C334" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -7929,10 +7930,10 @@
         <v>345</v>
       </c>
       <c r="B335" t="s">
+        <v>619</v>
+      </c>
+      <c r="C335" t="s">
         <v>620</v>
-      </c>
-      <c r="C335" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -7940,10 +7941,10 @@
         <v>346</v>
       </c>
       <c r="B336" t="s">
+        <v>621</v>
+      </c>
+      <c r="C336" t="s">
         <v>622</v>
-      </c>
-      <c r="C336" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
@@ -7951,10 +7952,10 @@
         <v>347</v>
       </c>
       <c r="B337" t="s">
+        <v>623</v>
+      </c>
+      <c r="C337" t="s">
         <v>624</v>
-      </c>
-      <c r="C337" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -7962,10 +7963,10 @@
         <v>348</v>
       </c>
       <c r="B338" t="s">
+        <v>625</v>
+      </c>
+      <c r="C338" t="s">
         <v>626</v>
-      </c>
-      <c r="C338" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -7973,10 +7974,10 @@
         <v>349</v>
       </c>
       <c r="B339" t="s">
+        <v>627</v>
+      </c>
+      <c r="C339" t="s">
         <v>628</v>
-      </c>
-      <c r="C339" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -7984,10 +7985,10 @@
         <v>350</v>
       </c>
       <c r="B340" t="s">
+        <v>629</v>
+      </c>
+      <c r="C340" t="s">
         <v>630</v>
-      </c>
-      <c r="C340" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
@@ -7995,10 +7996,10 @@
         <v>351</v>
       </c>
       <c r="B341" t="s">
+        <v>631</v>
+      </c>
+      <c r="C341" t="s">
         <v>632</v>
-      </c>
-      <c r="C341" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -8006,10 +8007,10 @@
         <v>352</v>
       </c>
       <c r="B342" t="s">
+        <v>633</v>
+      </c>
+      <c r="C342" t="s">
         <v>634</v>
-      </c>
-      <c r="C342" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -8017,10 +8018,10 @@
         <v>353</v>
       </c>
       <c r="B343" t="s">
+        <v>635</v>
+      </c>
+      <c r="C343" t="s">
         <v>636</v>
-      </c>
-      <c r="C343" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -8028,10 +8029,10 @@
         <v>354</v>
       </c>
       <c r="B344" t="s">
+        <v>637</v>
+      </c>
+      <c r="C344" t="s">
         <v>638</v>
-      </c>
-      <c r="C344" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -8039,10 +8040,10 @@
         <v>355</v>
       </c>
       <c r="B345" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C345" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -8050,10 +8051,10 @@
         <v>356</v>
       </c>
       <c r="B346" t="s">
+        <v>640</v>
+      </c>
+      <c r="C346" t="s">
         <v>641</v>
-      </c>
-      <c r="C346" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -8061,10 +8062,10 @@
         <v>357</v>
       </c>
       <c r="B347" t="s">
+        <v>642</v>
+      </c>
+      <c r="C347" t="s">
         <v>643</v>
-      </c>
-      <c r="C347" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -8072,10 +8073,10 @@
         <v>358</v>
       </c>
       <c r="B348" t="s">
+        <v>644</v>
+      </c>
+      <c r="C348" t="s">
         <v>645</v>
-      </c>
-      <c r="C348" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -8083,10 +8084,10 @@
         <v>359</v>
       </c>
       <c r="B349" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C349" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -8094,10 +8095,10 @@
         <v>360</v>
       </c>
       <c r="B350" t="s">
+        <v>647</v>
+      </c>
+      <c r="C350" t="s">
         <v>648</v>
-      </c>
-      <c r="C350" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -8105,10 +8106,10 @@
         <v>361</v>
       </c>
       <c r="B351" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C351" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -8116,10 +8117,10 @@
         <v>362</v>
       </c>
       <c r="B352" t="s">
+        <v>650</v>
+      </c>
+      <c r="C352" t="s">
         <v>651</v>
-      </c>
-      <c r="C352" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
@@ -8127,10 +8128,10 @@
         <v>363</v>
       </c>
       <c r="B353" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C353" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -8138,10 +8139,10 @@
         <v>364</v>
       </c>
       <c r="B354" t="s">
+        <v>653</v>
+      </c>
+      <c r="C354" t="s">
         <v>654</v>
-      </c>
-      <c r="C354" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
@@ -8149,10 +8150,10 @@
         <v>365</v>
       </c>
       <c r="B355" t="s">
+        <v>655</v>
+      </c>
+      <c r="C355" t="s">
         <v>656</v>
-      </c>
-      <c r="C355" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
@@ -8160,10 +8161,10 @@
         <v>366</v>
       </c>
       <c r="B356" t="s">
+        <v>657</v>
+      </c>
+      <c r="C356" t="s">
         <v>658</v>
-      </c>
-      <c r="C356" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
@@ -8171,10 +8172,10 @@
         <v>367</v>
       </c>
       <c r="B357" t="s">
+        <v>659</v>
+      </c>
+      <c r="C357" t="s">
         <v>660</v>
-      </c>
-      <c r="C357" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
@@ -8182,10 +8183,10 @@
         <v>368</v>
       </c>
       <c r="B358" t="s">
+        <v>661</v>
+      </c>
+      <c r="C358" t="s">
         <v>662</v>
-      </c>
-      <c r="C358" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
@@ -8193,10 +8194,10 @@
         <v>369</v>
       </c>
       <c r="B359" t="s">
+        <v>663</v>
+      </c>
+      <c r="C359" t="s">
         <v>664</v>
-      </c>
-      <c r="C359" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
@@ -8204,10 +8205,10 @@
         <v>370</v>
       </c>
       <c r="B360" t="s">
+        <v>665</v>
+      </c>
+      <c r="C360" t="s">
         <v>666</v>
-      </c>
-      <c r="C360" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
@@ -8215,10 +8216,10 @@
         <v>371</v>
       </c>
       <c r="B361" t="s">
+        <v>667</v>
+      </c>
+      <c r="C361" t="s">
         <v>668</v>
-      </c>
-      <c r="C361" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
@@ -8226,10 +8227,10 @@
         <v>372</v>
       </c>
       <c r="B362" t="s">
+        <v>669</v>
+      </c>
+      <c r="C362" t="s">
         <v>670</v>
-      </c>
-      <c r="C362" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
@@ -8237,10 +8238,10 @@
         <v>373</v>
       </c>
       <c r="B363" t="s">
+        <v>671</v>
+      </c>
+      <c r="C363" t="s">
         <v>672</v>
-      </c>
-      <c r="C363" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
@@ -8248,10 +8249,10 @@
         <v>374</v>
       </c>
       <c r="B364" t="s">
+        <v>673</v>
+      </c>
+      <c r="C364" t="s">
         <v>674</v>
-      </c>
-      <c r="C364" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
@@ -8259,10 +8260,10 @@
         <v>375</v>
       </c>
       <c r="B365" t="s">
+        <v>675</v>
+      </c>
+      <c r="C365" t="s">
         <v>676</v>
-      </c>
-      <c r="C365" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
@@ -8270,10 +8271,10 @@
         <v>376</v>
       </c>
       <c r="B366" t="s">
+        <v>677</v>
+      </c>
+      <c r="C366" t="s">
         <v>678</v>
-      </c>
-      <c r="C366" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
@@ -8281,10 +8282,10 @@
         <v>377</v>
       </c>
       <c r="B367" t="s">
+        <v>679</v>
+      </c>
+      <c r="C367" t="s">
         <v>680</v>
-      </c>
-      <c r="C367" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
@@ -8292,10 +8293,10 @@
         <v>378</v>
       </c>
       <c r="B368" t="s">
+        <v>681</v>
+      </c>
+      <c r="C368" t="s">
         <v>682</v>
-      </c>
-      <c r="C368" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -8303,10 +8304,10 @@
         <v>379</v>
       </c>
       <c r="B369" t="s">
+        <v>683</v>
+      </c>
+      <c r="C369" t="s">
         <v>684</v>
-      </c>
-      <c r="C369" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
@@ -8314,10 +8315,10 @@
         <v>380</v>
       </c>
       <c r="B370" t="s">
+        <v>685</v>
+      </c>
+      <c r="C370" t="s">
         <v>686</v>
-      </c>
-      <c r="C370" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
@@ -8325,10 +8326,10 @@
         <v>381</v>
       </c>
       <c r="B371" t="s">
+        <v>687</v>
+      </c>
+      <c r="C371" t="s">
         <v>688</v>
-      </c>
-      <c r="C371" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -8336,10 +8337,10 @@
         <v>382</v>
       </c>
       <c r="B372" t="s">
+        <v>689</v>
+      </c>
+      <c r="C372" t="s">
         <v>690</v>
-      </c>
-      <c r="C372" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -8347,10 +8348,10 @@
         <v>383</v>
       </c>
       <c r="B373" t="s">
+        <v>691</v>
+      </c>
+      <c r="C373" t="s">
         <v>692</v>
-      </c>
-      <c r="C373" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
@@ -8358,10 +8359,10 @@
         <v>384</v>
       </c>
       <c r="B374" t="s">
+        <v>693</v>
+      </c>
+      <c r="C374" t="s">
         <v>694</v>
-      </c>
-      <c r="C374" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -8369,10 +8370,10 @@
         <v>385</v>
       </c>
       <c r="B375" t="s">
+        <v>695</v>
+      </c>
+      <c r="C375" t="s">
         <v>696</v>
-      </c>
-      <c r="C375" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -8380,10 +8381,10 @@
         <v>386</v>
       </c>
       <c r="B376" t="s">
+        <v>697</v>
+      </c>
+      <c r="C376" t="s">
         <v>698</v>
-      </c>
-      <c r="C376" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
@@ -8391,10 +8392,10 @@
         <v>387</v>
       </c>
       <c r="B377" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C377" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
@@ -8402,10 +8403,10 @@
         <v>388</v>
       </c>
       <c r="B378" t="s">
+        <v>700</v>
+      </c>
+      <c r="C378" t="s">
         <v>701</v>
-      </c>
-      <c r="C378" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
@@ -8413,10 +8414,10 @@
         <v>389</v>
       </c>
       <c r="B379" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C379" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -8424,10 +8425,10 @@
         <v>390</v>
       </c>
       <c r="B380" t="s">
+        <v>703</v>
+      </c>
+      <c r="C380" t="s">
         <v>704</v>
-      </c>
-      <c r="C380" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -8435,10 +8436,10 @@
         <v>391</v>
       </c>
       <c r="B381" t="s">
+        <v>705</v>
+      </c>
+      <c r="C381" t="s">
         <v>706</v>
-      </c>
-      <c r="C381" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -8446,10 +8447,10 @@
         <v>392</v>
       </c>
       <c r="B382" t="s">
+        <v>707</v>
+      </c>
+      <c r="C382" t="s">
         <v>708</v>
-      </c>
-      <c r="C382" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
@@ -8457,10 +8458,10 @@
         <v>393</v>
       </c>
       <c r="B383" t="s">
+        <v>709</v>
+      </c>
+      <c r="C383" t="s">
         <v>710</v>
-      </c>
-      <c r="C383" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -8468,10 +8469,10 @@
         <v>394</v>
       </c>
       <c r="B384" t="s">
+        <v>711</v>
+      </c>
+      <c r="C384" t="s">
         <v>712</v>
-      </c>
-      <c r="C384" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
@@ -8479,10 +8480,10 @@
         <v>395</v>
       </c>
       <c r="B385" t="s">
+        <v>713</v>
+      </c>
+      <c r="C385" t="s">
         <v>714</v>
-      </c>
-      <c r="C385" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
@@ -8490,10 +8491,10 @@
         <v>396</v>
       </c>
       <c r="B386" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C386" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
@@ -8501,10 +8502,10 @@
         <v>397</v>
       </c>
       <c r="B387" t="s">
+        <v>716</v>
+      </c>
+      <c r="C387" t="s">
         <v>717</v>
-      </c>
-      <c r="C387" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -8512,10 +8513,10 @@
         <v>398</v>
       </c>
       <c r="B388" t="s">
+        <v>718</v>
+      </c>
+      <c r="C388" t="s">
         <v>719</v>
-      </c>
-      <c r="C388" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -8523,10 +8524,10 @@
         <v>399</v>
       </c>
       <c r="B389" t="s">
+        <v>720</v>
+      </c>
+      <c r="C389" t="s">
         <v>721</v>
-      </c>
-      <c r="C389" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -8534,10 +8535,10 @@
         <v>400</v>
       </c>
       <c r="B390" t="s">
+        <v>722</v>
+      </c>
+      <c r="C390" t="s">
         <v>723</v>
-      </c>
-      <c r="C390" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
@@ -8545,10 +8546,10 @@
         <v>401</v>
       </c>
       <c r="B391" t="s">
+        <v>724</v>
+      </c>
+      <c r="C391" t="s">
         <v>725</v>
-      </c>
-      <c r="C391" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
@@ -8556,10 +8557,10 @@
         <v>402</v>
       </c>
       <c r="B392" t="s">
+        <v>726</v>
+      </c>
+      <c r="C392" t="s">
         <v>727</v>
-      </c>
-      <c r="C392" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
@@ -8567,10 +8568,10 @@
         <v>403</v>
       </c>
       <c r="B393" t="s">
+        <v>728</v>
+      </c>
+      <c r="C393" t="s">
         <v>729</v>
-      </c>
-      <c r="C393" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -8578,10 +8579,10 @@
         <v>404</v>
       </c>
       <c r="B394" t="s">
+        <v>730</v>
+      </c>
+      <c r="C394" t="s">
         <v>731</v>
-      </c>
-      <c r="C394" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -8589,10 +8590,10 @@
         <v>405</v>
       </c>
       <c r="B395" t="s">
+        <v>732</v>
+      </c>
+      <c r="C395" t="s">
         <v>733</v>
-      </c>
-      <c r="C395" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
@@ -8600,10 +8601,10 @@
         <v>406</v>
       </c>
       <c r="B396" t="s">
+        <v>734</v>
+      </c>
+      <c r="C396" t="s">
         <v>735</v>
-      </c>
-      <c r="C396" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -8611,10 +8612,10 @@
         <v>407</v>
       </c>
       <c r="B397" t="s">
+        <v>736</v>
+      </c>
+      <c r="C397" t="s">
         <v>737</v>
-      </c>
-      <c r="C397" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -8622,10 +8623,10 @@
         <v>408</v>
       </c>
       <c r="B398" t="s">
+        <v>738</v>
+      </c>
+      <c r="C398" t="s">
         <v>739</v>
-      </c>
-      <c r="C398" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -8633,10 +8634,10 @@
         <v>409</v>
       </c>
       <c r="B399" t="s">
+        <v>740</v>
+      </c>
+      <c r="C399" t="s">
         <v>741</v>
-      </c>
-      <c r="C399" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -8644,10 +8645,10 @@
         <v>410</v>
       </c>
       <c r="B400" t="s">
+        <v>742</v>
+      </c>
+      <c r="C400" t="s">
         <v>743</v>
-      </c>
-      <c r="C400" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
@@ -8655,10 +8656,10 @@
         <v>411</v>
       </c>
       <c r="B401" t="s">
+        <v>744</v>
+      </c>
+      <c r="C401" t="s">
         <v>745</v>
-      </c>
-      <c r="C401" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
@@ -8666,10 +8667,10 @@
         <v>412</v>
       </c>
       <c r="B402" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C402" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
@@ -8677,10 +8678,10 @@
         <v>413</v>
       </c>
       <c r="B403" t="s">
+        <v>747</v>
+      </c>
+      <c r="C403" t="s">
         <v>748</v>
-      </c>
-      <c r="C403" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
@@ -8688,10 +8689,10 @@
         <v>414</v>
       </c>
       <c r="B404" t="s">
+        <v>749</v>
+      </c>
+      <c r="C404" t="s">
         <v>750</v>
-      </c>
-      <c r="C404" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
@@ -8699,10 +8700,10 @@
         <v>415</v>
       </c>
       <c r="B405" t="s">
+        <v>751</v>
+      </c>
+      <c r="C405" t="s">
         <v>752</v>
-      </c>
-      <c r="C405" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
@@ -8710,10 +8711,10 @@
         <v>416</v>
       </c>
       <c r="B406" t="s">
+        <v>753</v>
+      </c>
+      <c r="C406" t="s">
         <v>754</v>
-      </c>
-      <c r="C406" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
@@ -8721,10 +8722,10 @@
         <v>417</v>
       </c>
       <c r="B407" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C407" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
@@ -8732,10 +8733,10 @@
         <v>418</v>
       </c>
       <c r="B408" t="s">
+        <v>756</v>
+      </c>
+      <c r="C408" t="s">
         <v>757</v>
-      </c>
-      <c r="C408" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
@@ -8743,10 +8744,10 @@
         <v>419</v>
       </c>
       <c r="B409" t="s">
+        <v>758</v>
+      </c>
+      <c r="C409" t="s">
         <v>759</v>
-      </c>
-      <c r="C409" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
@@ -8754,10 +8755,10 @@
         <v>420</v>
       </c>
       <c r="B410" t="s">
+        <v>760</v>
+      </c>
+      <c r="C410" t="s">
         <v>761</v>
-      </c>
-      <c r="C410" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
@@ -8765,10 +8766,10 @@
         <v>421</v>
       </c>
       <c r="B411" t="s">
+        <v>762</v>
+      </c>
+      <c r="C411" t="s">
         <v>763</v>
-      </c>
-      <c r="C411" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
@@ -8776,10 +8777,10 @@
         <v>422</v>
       </c>
       <c r="B412" t="s">
+        <v>764</v>
+      </c>
+      <c r="C412" t="s">
         <v>765</v>
-      </c>
-      <c r="C412" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
@@ -8787,10 +8788,10 @@
         <v>423</v>
       </c>
       <c r="B413" t="s">
+        <v>766</v>
+      </c>
+      <c r="C413" t="s">
         <v>767</v>
-      </c>
-      <c r="C413" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
@@ -8798,10 +8799,10 @@
         <v>424</v>
       </c>
       <c r="B414" t="s">
+        <v>768</v>
+      </c>
+      <c r="C414" t="s">
         <v>769</v>
-      </c>
-      <c r="C414" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
@@ -8809,10 +8810,10 @@
         <v>425</v>
       </c>
       <c r="B415" t="s">
+        <v>770</v>
+      </c>
+      <c r="C415" t="s">
         <v>771</v>
-      </c>
-      <c r="C415" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
@@ -8820,10 +8821,10 @@
         <v>426</v>
       </c>
       <c r="B416" t="s">
+        <v>772</v>
+      </c>
+      <c r="C416" t="s">
         <v>773</v>
-      </c>
-      <c r="C416" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
@@ -8831,10 +8832,10 @@
         <v>427</v>
       </c>
       <c r="B417" t="s">
+        <v>774</v>
+      </c>
+      <c r="C417" t="s">
         <v>775</v>
-      </c>
-      <c r="C417" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
@@ -8842,10 +8843,10 @@
         <v>428</v>
       </c>
       <c r="B418" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C418" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
@@ -8853,10 +8854,10 @@
         <v>429</v>
       </c>
       <c r="B419" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C419" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
@@ -8864,10 +8865,10 @@
         <v>430</v>
       </c>
       <c r="B420" t="s">
+        <v>778</v>
+      </c>
+      <c r="C420" t="s">
         <v>779</v>
-      </c>
-      <c r="C420" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
@@ -8875,10 +8876,10 @@
         <v>431</v>
       </c>
       <c r="B421" t="s">
+        <v>780</v>
+      </c>
+      <c r="C421" t="s">
         <v>781</v>
-      </c>
-      <c r="C421" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
@@ -8886,10 +8887,10 @@
         <v>432</v>
       </c>
       <c r="B422" t="s">
+        <v>782</v>
+      </c>
+      <c r="C422" t="s">
         <v>783</v>
-      </c>
-      <c r="C422" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
@@ -8897,10 +8898,10 @@
         <v>433</v>
       </c>
       <c r="B423" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C423" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
@@ -8908,10 +8909,10 @@
         <v>434</v>
       </c>
       <c r="B424" t="s">
+        <v>785</v>
+      </c>
+      <c r="C424" t="s">
         <v>786</v>
-      </c>
-      <c r="C424" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
@@ -8919,10 +8920,10 @@
         <v>435</v>
       </c>
       <c r="B425" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C425" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
@@ -8930,10 +8931,10 @@
         <v>436</v>
       </c>
       <c r="B426" t="s">
+        <v>788</v>
+      </c>
+      <c r="C426" t="s">
         <v>789</v>
-      </c>
-      <c r="C426" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
@@ -8941,10 +8942,10 @@
         <v>437</v>
       </c>
       <c r="B427" t="s">
+        <v>790</v>
+      </c>
+      <c r="C427" t="s">
         <v>791</v>
-      </c>
-      <c r="C427" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
@@ -8952,10 +8953,10 @@
         <v>438</v>
       </c>
       <c r="B428" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C428" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
@@ -8963,10 +8964,10 @@
         <v>439</v>
       </c>
       <c r="B429" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C429" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
@@ -8974,10 +8975,10 @@
         <v>440</v>
       </c>
       <c r="B430" t="s">
+        <v>794</v>
+      </c>
+      <c r="C430" t="s">
         <v>795</v>
-      </c>
-      <c r="C430" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
@@ -8985,10 +8986,10 @@
         <v>441</v>
       </c>
       <c r="B431" t="s">
+        <v>796</v>
+      </c>
+      <c r="C431" t="s">
         <v>797</v>
-      </c>
-      <c r="C431" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
@@ -8996,10 +8997,10 @@
         <v>442</v>
       </c>
       <c r="B432" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C432" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
@@ -9007,10 +9008,10 @@
         <v>443</v>
       </c>
       <c r="B433" t="s">
+        <v>799</v>
+      </c>
+      <c r="C433" t="s">
         <v>800</v>
-      </c>
-      <c r="C433" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
@@ -9018,10 +9019,10 @@
         <v>444</v>
       </c>
       <c r="B434" t="s">
+        <v>801</v>
+      </c>
+      <c r="C434" t="s">
         <v>802</v>
-      </c>
-      <c r="C434" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
@@ -9029,10 +9030,10 @@
         <v>445</v>
       </c>
       <c r="B435" t="s">
+        <v>803</v>
+      </c>
+      <c r="C435" t="s">
         <v>804</v>
-      </c>
-      <c r="C435" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
@@ -9040,10 +9041,10 @@
         <v>446</v>
       </c>
       <c r="B436" t="s">
+        <v>805</v>
+      </c>
+      <c r="C436" t="s">
         <v>806</v>
-      </c>
-      <c r="C436" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
@@ -9051,10 +9052,10 @@
         <v>447</v>
       </c>
       <c r="B437" t="s">
+        <v>807</v>
+      </c>
+      <c r="C437" t="s">
         <v>808</v>
-      </c>
-      <c r="C437" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
@@ -9062,10 +9063,10 @@
         <v>448</v>
       </c>
       <c r="B438" t="s">
+        <v>809</v>
+      </c>
+      <c r="C438" t="s">
         <v>810</v>
-      </c>
-      <c r="C438" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
@@ -9073,10 +9074,10 @@
         <v>449</v>
       </c>
       <c r="B439" t="s">
+        <v>811</v>
+      </c>
+      <c r="C439" t="s">
         <v>812</v>
-      </c>
-      <c r="C439" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
@@ -9084,10 +9085,10 @@
         <v>450</v>
       </c>
       <c r="B440" t="s">
+        <v>813</v>
+      </c>
+      <c r="C440" t="s">
         <v>814</v>
-      </c>
-      <c r="C440" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
@@ -9095,10 +9096,10 @@
         <v>451</v>
       </c>
       <c r="B441" t="s">
+        <v>815</v>
+      </c>
+      <c r="C441" t="s">
         <v>816</v>
-      </c>
-      <c r="C441" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
@@ -9106,10 +9107,10 @@
         <v>452</v>
       </c>
       <c r="B442" t="s">
+        <v>817</v>
+      </c>
+      <c r="C442" t="s">
         <v>818</v>
-      </c>
-      <c r="C442" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
@@ -9117,10 +9118,10 @@
         <v>453</v>
       </c>
       <c r="B443" t="s">
+        <v>819</v>
+      </c>
+      <c r="C443" t="s">
         <v>820</v>
-      </c>
-      <c r="C443" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
@@ -9128,10 +9129,10 @@
         <v>455</v>
       </c>
       <c r="B444" t="s">
+        <v>821</v>
+      </c>
+      <c r="C444" t="s">
         <v>822</v>
-      </c>
-      <c r="C444" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
@@ -9139,10 +9140,10 @@
         <v>456</v>
       </c>
       <c r="B445" t="s">
+        <v>823</v>
+      </c>
+      <c r="C445" t="s">
         <v>824</v>
-      </c>
-      <c r="C445" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
@@ -9150,10 +9151,10 @@
         <v>457</v>
       </c>
       <c r="B446" t="s">
+        <v>825</v>
+      </c>
+      <c r="C446" t="s">
         <v>826</v>
-      </c>
-      <c r="C446" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
@@ -9161,10 +9162,10 @@
         <v>458</v>
       </c>
       <c r="B447" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C447" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
@@ -9172,10 +9173,10 @@
         <v>459</v>
       </c>
       <c r="B448" t="s">
+        <v>828</v>
+      </c>
+      <c r="C448" t="s">
         <v>829</v>
-      </c>
-      <c r="C448" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
@@ -9183,10 +9184,10 @@
         <v>460</v>
       </c>
       <c r="B449" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C449" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
@@ -9194,10 +9195,10 @@
         <v>461</v>
       </c>
       <c r="B450" t="s">
+        <v>831</v>
+      </c>
+      <c r="C450" t="s">
         <v>832</v>
-      </c>
-      <c r="C450" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
@@ -9205,10 +9206,10 @@
         <v>462</v>
       </c>
       <c r="B451" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C451" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
@@ -9216,10 +9217,10 @@
         <v>463</v>
       </c>
       <c r="B452" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C452" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
@@ -9227,10 +9228,10 @@
         <v>464</v>
       </c>
       <c r="B453" t="s">
+        <v>834</v>
+      </c>
+      <c r="C453" t="s">
         <v>835</v>
-      </c>
-      <c r="C453" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
@@ -9238,10 +9239,10 @@
         <v>465</v>
       </c>
       <c r="B454" t="s">
+        <v>836</v>
+      </c>
+      <c r="C454" t="s">
         <v>837</v>
-      </c>
-      <c r="C454" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
@@ -9249,10 +9250,10 @@
         <v>466</v>
       </c>
       <c r="B455" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C455" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
@@ -9260,10 +9261,10 @@
         <v>467</v>
       </c>
       <c r="B456" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C456" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
@@ -9271,10 +9272,10 @@
         <v>468</v>
       </c>
       <c r="B457" t="s">
+        <v>839</v>
+      </c>
+      <c r="C457" t="s">
         <v>840</v>
-      </c>
-      <c r="C457" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
@@ -9282,10 +9283,10 @@
         <v>469</v>
       </c>
       <c r="B458" t="s">
+        <v>841</v>
+      </c>
+      <c r="C458" t="s">
         <v>842</v>
-      </c>
-      <c r="C458" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
@@ -9293,10 +9294,10 @@
         <v>470</v>
       </c>
       <c r="B459" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C459" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
@@ -9304,7 +9305,7 @@
         <v>471</v>
       </c>
       <c r="B460" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
@@ -9312,10 +9313,10 @@
         <v>472</v>
       </c>
       <c r="B461" t="s">
+        <v>845</v>
+      </c>
+      <c r="C461" t="s">
         <v>846</v>
-      </c>
-      <c r="C461" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
@@ -9323,10 +9324,10 @@
         <v>473</v>
       </c>
       <c r="B462" t="s">
+        <v>847</v>
+      </c>
+      <c r="C462" t="s">
         <v>848</v>
-      </c>
-      <c r="C462" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
@@ -9334,10 +9335,10 @@
         <v>474</v>
       </c>
       <c r="B463" t="s">
+        <v>849</v>
+      </c>
+      <c r="C463" t="s">
         <v>850</v>
-      </c>
-      <c r="C463" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
@@ -9345,10 +9346,10 @@
         <v>475</v>
       </c>
       <c r="B464" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C464" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
@@ -9356,10 +9357,10 @@
         <v>476</v>
       </c>
       <c r="B465" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C465" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
@@ -9367,10 +9368,10 @@
         <v>477</v>
       </c>
       <c r="B466" t="s">
+        <v>853</v>
+      </c>
+      <c r="C466" t="s">
         <v>854</v>
-      </c>
-      <c r="C466" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
@@ -9378,10 +9379,10 @@
         <v>478</v>
       </c>
       <c r="B467" t="s">
+        <v>855</v>
+      </c>
+      <c r="C467" t="s">
         <v>856</v>
-      </c>
-      <c r="C467" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
@@ -9389,10 +9390,10 @@
         <v>479</v>
       </c>
       <c r="B468" t="s">
+        <v>857</v>
+      </c>
+      <c r="C468" t="s">
         <v>858</v>
-      </c>
-      <c r="C468" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
@@ -9400,10 +9401,10 @@
         <v>480</v>
       </c>
       <c r="B469" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C469" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
@@ -9411,10 +9412,10 @@
         <v>481</v>
       </c>
       <c r="B470" t="s">
+        <v>860</v>
+      </c>
+      <c r="C470" t="s">
         <v>861</v>
-      </c>
-      <c r="C470" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
@@ -9422,10 +9423,10 @@
         <v>482</v>
       </c>
       <c r="B471" t="s">
+        <v>862</v>
+      </c>
+      <c r="C471" t="s">
         <v>863</v>
-      </c>
-      <c r="C471" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
@@ -9433,10 +9434,10 @@
         <v>483</v>
       </c>
       <c r="B472" t="s">
+        <v>864</v>
+      </c>
+      <c r="C472" t="s">
         <v>865</v>
-      </c>
-      <c r="C472" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="473" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
@@ -9444,10 +9445,10 @@
         <v>484</v>
       </c>
       <c r="B473" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C473" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
@@ -9455,10 +9456,10 @@
         <v>485</v>
       </c>
       <c r="B474" t="s">
+        <v>866</v>
+      </c>
+      <c r="C474" t="s">
         <v>867</v>
-      </c>
-      <c r="C474" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
@@ -9466,10 +9467,10 @@
         <v>486</v>
       </c>
       <c r="B475" t="s">
+        <v>868</v>
+      </c>
+      <c r="C475" t="s">
         <v>869</v>
-      </c>
-      <c r="C475" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
@@ -9477,10 +9478,10 @@
         <v>487</v>
       </c>
       <c r="B476" t="s">
+        <v>870</v>
+      </c>
+      <c r="C476" t="s">
         <v>871</v>
-      </c>
-      <c r="C476" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
@@ -9488,10 +9489,10 @@
         <v>488</v>
       </c>
       <c r="B477" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C477" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
@@ -9499,10 +9500,10 @@
         <v>489</v>
       </c>
       <c r="B478" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C478" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
@@ -9510,10 +9511,10 @@
         <v>490</v>
       </c>
       <c r="B479" t="s">
+        <v>874</v>
+      </c>
+      <c r="C479" t="s">
         <v>875</v>
-      </c>
-      <c r="C479" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
@@ -9521,10 +9522,10 @@
         <v>491</v>
       </c>
       <c r="B480" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C480" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
@@ -9532,10 +9533,10 @@
         <v>492</v>
       </c>
       <c r="B481" t="s">
+        <v>877</v>
+      </c>
+      <c r="C481" t="s">
         <v>878</v>
-      </c>
-      <c r="C481" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
@@ -9543,10 +9544,10 @@
         <v>493</v>
       </c>
       <c r="B482" t="s">
+        <v>879</v>
+      </c>
+      <c r="C482" t="s">
         <v>880</v>
-      </c>
-      <c r="C482" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
@@ -9554,10 +9555,10 @@
         <v>494</v>
       </c>
       <c r="B483" t="s">
+        <v>881</v>
+      </c>
+      <c r="C483" t="s">
         <v>882</v>
-      </c>
-      <c r="C483" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
@@ -9565,10 +9566,10 @@
         <v>496</v>
       </c>
       <c r="B484" t="s">
+        <v>883</v>
+      </c>
+      <c r="C484" t="s">
         <v>884</v>
-      </c>
-      <c r="C484" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
@@ -9576,10 +9577,10 @@
         <v>497</v>
       </c>
       <c r="B485" t="s">
+        <v>885</v>
+      </c>
+      <c r="C485" t="s">
         <v>886</v>
-      </c>
-      <c r="C485" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
@@ -9587,10 +9588,10 @@
         <v>498</v>
       </c>
       <c r="B486" t="s">
+        <v>887</v>
+      </c>
+      <c r="C486" t="s">
         <v>888</v>
-      </c>
-      <c r="C486" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
@@ -9598,10 +9599,10 @@
         <v>499</v>
       </c>
       <c r="B487" t="s">
+        <v>889</v>
+      </c>
+      <c r="C487" t="s">
         <v>890</v>
-      </c>
-      <c r="C487" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
@@ -9609,10 +9610,10 @@
         <v>500</v>
       </c>
       <c r="B488" t="s">
+        <v>891</v>
+      </c>
+      <c r="C488" t="s">
         <v>892</v>
-      </c>
-      <c r="C488" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
@@ -9620,10 +9621,10 @@
         <v>501</v>
       </c>
       <c r="B489" t="s">
+        <v>893</v>
+      </c>
+      <c r="C489" t="s">
         <v>894</v>
-      </c>
-      <c r="C489" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
@@ -9631,10 +9632,10 @@
         <v>502</v>
       </c>
       <c r="B490" t="s">
+        <v>895</v>
+      </c>
+      <c r="C490" t="s">
         <v>896</v>
-      </c>
-      <c r="C490" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
@@ -9642,10 +9643,10 @@
         <v>503</v>
       </c>
       <c r="B491" t="s">
+        <v>897</v>
+      </c>
+      <c r="C491" t="s">
         <v>898</v>
-      </c>
-      <c r="C491" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
@@ -9653,10 +9654,10 @@
         <v>504</v>
       </c>
       <c r="B492" t="s">
+        <v>899</v>
+      </c>
+      <c r="C492" t="s">
         <v>900</v>
-      </c>
-      <c r="C492" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
@@ -9664,10 +9665,10 @@
         <v>505</v>
       </c>
       <c r="B493" t="s">
+        <v>901</v>
+      </c>
+      <c r="C493" t="s">
         <v>902</v>
-      </c>
-      <c r="C493" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
@@ -9675,10 +9676,10 @@
         <v>506</v>
       </c>
       <c r="B494" t="s">
+        <v>903</v>
+      </c>
+      <c r="C494" t="s">
         <v>904</v>
-      </c>
-      <c r="C494" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
@@ -9686,10 +9687,10 @@
         <v>507</v>
       </c>
       <c r="B495" t="s">
+        <v>905</v>
+      </c>
+      <c r="C495" t="s">
         <v>906</v>
-      </c>
-      <c r="C495" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
@@ -9697,10 +9698,10 @@
         <v>508</v>
       </c>
       <c r="B496" t="s">
+        <v>907</v>
+      </c>
+      <c r="C496" t="s">
         <v>908</v>
-      </c>
-      <c r="C496" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
@@ -9708,10 +9709,10 @@
         <v>509</v>
       </c>
       <c r="B497" t="s">
+        <v>909</v>
+      </c>
+      <c r="C497" t="s">
         <v>910</v>
-      </c>
-      <c r="C497" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
@@ -9719,10 +9720,10 @@
         <v>510</v>
       </c>
       <c r="B498" t="s">
+        <v>911</v>
+      </c>
+      <c r="C498" t="s">
         <v>912</v>
-      </c>
-      <c r="C498" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
@@ -9730,7 +9731,7 @@
         <v>511</v>
       </c>
       <c r="B499" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
@@ -9738,10 +9739,10 @@
         <v>512</v>
       </c>
       <c r="B500" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C500" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
@@ -9749,10 +9750,10 @@
         <v>513</v>
       </c>
       <c r="B501" t="s">
+        <v>915</v>
+      </c>
+      <c r="C501" t="s">
         <v>916</v>
-      </c>
-      <c r="C501" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
@@ -9760,10 +9761,10 @@
         <v>514</v>
       </c>
       <c r="B502" t="s">
+        <v>917</v>
+      </c>
+      <c r="C502" t="s">
         <v>918</v>
-      </c>
-      <c r="C502" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
@@ -9771,10 +9772,10 @@
         <v>515</v>
       </c>
       <c r="B503" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C503" t="s">
         <v>1126</v>
-      </c>
-      <c r="C503" t="s">
-        <v>1127</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
@@ -9782,10 +9783,10 @@
         <v>516</v>
       </c>
       <c r="B504" t="s">
+        <v>919</v>
+      </c>
+      <c r="C504" t="s">
         <v>920</v>
-      </c>
-      <c r="C504" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
@@ -9793,10 +9794,10 @@
         <v>517</v>
       </c>
       <c r="B505" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C505" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
@@ -9804,10 +9805,10 @@
         <v>518</v>
       </c>
       <c r="B506" t="s">
+        <v>922</v>
+      </c>
+      <c r="C506" t="s">
         <v>923</v>
-      </c>
-      <c r="C506" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
@@ -9815,10 +9816,10 @@
         <v>519</v>
       </c>
       <c r="B507" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C507" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
@@ -9826,10 +9827,10 @@
         <v>520</v>
       </c>
       <c r="B508" t="s">
+        <v>925</v>
+      </c>
+      <c r="C508" t="s">
         <v>926</v>
-      </c>
-      <c r="C508" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
@@ -9837,10 +9838,10 @@
         <v>521</v>
       </c>
       <c r="B509" t="s">
+        <v>927</v>
+      </c>
+      <c r="C509" t="s">
         <v>928</v>
-      </c>
-      <c r="C509" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
@@ -9848,10 +9849,10 @@
         <v>522</v>
       </c>
       <c r="B510" t="s">
+        <v>929</v>
+      </c>
+      <c r="C510" t="s">
         <v>930</v>
-      </c>
-      <c r="C510" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
@@ -9859,10 +9860,10 @@
         <v>523</v>
       </c>
       <c r="B511" t="s">
+        <v>931</v>
+      </c>
+      <c r="C511" t="s">
         <v>932</v>
-      </c>
-      <c r="C511" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
@@ -9870,10 +9871,10 @@
         <v>524</v>
       </c>
       <c r="B512" t="s">
+        <v>933</v>
+      </c>
+      <c r="C512" t="s">
         <v>934</v>
-      </c>
-      <c r="C512" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
@@ -9881,10 +9882,10 @@
         <v>525</v>
       </c>
       <c r="B513" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C513" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
@@ -9892,10 +9893,10 @@
         <v>526</v>
       </c>
       <c r="B514" t="s">
+        <v>936</v>
+      </c>
+      <c r="C514" t="s">
         <v>937</v>
-      </c>
-      <c r="C514" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
@@ -9903,10 +9904,10 @@
         <v>527</v>
       </c>
       <c r="B515" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C515" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
@@ -9914,10 +9915,10 @@
         <v>528</v>
       </c>
       <c r="B516" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C516" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
@@ -9925,10 +9926,10 @@
         <v>529</v>
       </c>
       <c r="B517" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C517" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
@@ -9936,7 +9937,7 @@
         <v>530</v>
       </c>
       <c r="B518" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
@@ -9944,10 +9945,10 @@
         <v>531</v>
       </c>
       <c r="B519" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C519" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
@@ -9955,10 +9956,10 @@
         <v>532</v>
       </c>
       <c r="B520" t="s">
+        <v>943</v>
+      </c>
+      <c r="C520" t="s">
         <v>944</v>
-      </c>
-      <c r="C520" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
@@ -9966,10 +9967,10 @@
         <v>533</v>
       </c>
       <c r="B521" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C521" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
@@ -9977,10 +9978,10 @@
         <v>534</v>
       </c>
       <c r="B522" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C522" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
@@ -9988,10 +9989,10 @@
         <v>535</v>
       </c>
       <c r="B523" t="s">
+        <v>947</v>
+      </c>
+      <c r="C523" t="s">
         <v>948</v>
-      </c>
-      <c r="C523" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
@@ -9999,10 +10000,10 @@
         <v>536</v>
       </c>
       <c r="B524" t="s">
+        <v>949</v>
+      </c>
+      <c r="C524" t="s">
         <v>950</v>
-      </c>
-      <c r="C524" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
@@ -10010,10 +10011,10 @@
         <v>537</v>
       </c>
       <c r="B525" t="s">
+        <v>951</v>
+      </c>
+      <c r="C525" t="s">
         <v>952</v>
-      </c>
-      <c r="C525" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
@@ -10021,10 +10022,10 @@
         <v>538</v>
       </c>
       <c r="B526" t="s">
+        <v>953</v>
+      </c>
+      <c r="C526" t="s">
         <v>954</v>
-      </c>
-      <c r="C526" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
@@ -10032,10 +10033,10 @@
         <v>539</v>
       </c>
       <c r="B527" t="s">
+        <v>955</v>
+      </c>
+      <c r="C527" t="s">
         <v>956</v>
-      </c>
-      <c r="C527" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
@@ -10043,10 +10044,10 @@
         <v>540</v>
       </c>
       <c r="B528" t="s">
+        <v>957</v>
+      </c>
+      <c r="C528" t="s">
         <v>958</v>
-      </c>
-      <c r="C528" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
@@ -10054,10 +10055,10 @@
         <v>542</v>
       </c>
       <c r="B529" t="s">
+        <v>959</v>
+      </c>
+      <c r="C529" t="s">
         <v>960</v>
-      </c>
-      <c r="C529" t="s">
-        <v>961</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
@@ -10065,10 +10066,10 @@
         <v>543</v>
       </c>
       <c r="B530" t="s">
+        <v>961</v>
+      </c>
+      <c r="C530" t="s">
         <v>962</v>
-      </c>
-      <c r="C530" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
@@ -10076,10 +10077,10 @@
         <v>545</v>
       </c>
       <c r="B531" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C531" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
@@ -10087,10 +10088,10 @@
         <v>546</v>
       </c>
       <c r="B532" t="s">
+        <v>964</v>
+      </c>
+      <c r="C532" t="s">
         <v>965</v>
-      </c>
-      <c r="C532" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.25">
@@ -10098,10 +10099,10 @@
         <v>547</v>
       </c>
       <c r="B533" t="s">
+        <v>966</v>
+      </c>
+      <c r="C533" t="s">
         <v>967</v>
-      </c>
-      <c r="C533" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
@@ -10109,10 +10110,10 @@
         <v>548</v>
       </c>
       <c r="B534" t="s">
+        <v>968</v>
+      </c>
+      <c r="C534" t="s">
         <v>969</v>
-      </c>
-      <c r="C534" t="s">
-        <v>970</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.25">
@@ -10120,10 +10121,10 @@
         <v>549</v>
       </c>
       <c r="B535" t="s">
+        <v>970</v>
+      </c>
+      <c r="C535" t="s">
         <v>971</v>
-      </c>
-      <c r="C535" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.25">
@@ -10131,10 +10132,10 @@
         <v>550</v>
       </c>
       <c r="B536" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C536" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.25">
@@ -10142,10 +10143,10 @@
         <v>551</v>
       </c>
       <c r="B537" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C537" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
@@ -10153,10 +10154,10 @@
         <v>552</v>
       </c>
       <c r="B538" t="s">
+        <v>974</v>
+      </c>
+      <c r="C538" t="s">
         <v>975</v>
-      </c>
-      <c r="C538" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.25">
@@ -10164,10 +10165,10 @@
         <v>553</v>
       </c>
       <c r="B539" t="s">
+        <v>976</v>
+      </c>
+      <c r="C539" t="s">
         <v>977</v>
-      </c>
-      <c r="C539" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.25">
@@ -10175,10 +10176,10 @@
         <v>554</v>
       </c>
       <c r="B540" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C540" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.25">
@@ -10186,10 +10187,10 @@
         <v>555</v>
       </c>
       <c r="B541" t="s">
+        <v>979</v>
+      </c>
+      <c r="C541" t="s">
         <v>980</v>
-      </c>
-      <c r="C541" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.25">
@@ -10197,10 +10198,10 @@
         <v>556</v>
       </c>
       <c r="B542" t="s">
+        <v>981</v>
+      </c>
+      <c r="C542" t="s">
         <v>982</v>
-      </c>
-      <c r="C542" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.25">
@@ -10208,10 +10209,10 @@
         <v>557</v>
       </c>
       <c r="B543" t="s">
+        <v>983</v>
+      </c>
+      <c r="C543" t="s">
         <v>984</v>
-      </c>
-      <c r="C543" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.25">
@@ -10219,10 +10220,10 @@
         <v>558</v>
       </c>
       <c r="B544" t="s">
+        <v>985</v>
+      </c>
+      <c r="C544" t="s">
         <v>986</v>
-      </c>
-      <c r="C544" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.25">
@@ -10230,10 +10231,10 @@
         <v>559</v>
       </c>
       <c r="B545" t="s">
+        <v>987</v>
+      </c>
+      <c r="C545" t="s">
         <v>988</v>
-      </c>
-      <c r="C545" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.25">
@@ -10241,10 +10242,10 @@
         <v>562</v>
       </c>
       <c r="B546" t="s">
+        <v>989</v>
+      </c>
+      <c r="C546" t="s">
         <v>990</v>
-      </c>
-      <c r="C546" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.25">
@@ -10252,7 +10253,7 @@
         <v>563</v>
       </c>
       <c r="B547" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.25">
@@ -10260,10 +10261,10 @@
         <v>564</v>
       </c>
       <c r="B548" t="s">
+        <v>992</v>
+      </c>
+      <c r="C548" t="s">
         <v>993</v>
-      </c>
-      <c r="C548" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.25">
@@ -10271,10 +10272,10 @@
         <v>565</v>
       </c>
       <c r="B549" t="s">
+        <v>994</v>
+      </c>
+      <c r="C549" t="s">
         <v>995</v>
-      </c>
-      <c r="C549" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.25">
@@ -10282,10 +10283,10 @@
         <v>566</v>
       </c>
       <c r="B550" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C550" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.25">
@@ -10293,10 +10294,10 @@
         <v>567</v>
       </c>
       <c r="B551" t="s">
+        <v>997</v>
+      </c>
+      <c r="C551" t="s">
         <v>998</v>
-      </c>
-      <c r="C551" t="s">
-        <v>999</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.25">
@@ -10304,10 +10305,10 @@
         <v>568</v>
       </c>
       <c r="B552" t="s">
+        <v>999</v>
+      </c>
+      <c r="C552" t="s">
         <v>1000</v>
-      </c>
-      <c r="C552" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.25">
@@ -10315,10 +10316,10 @@
         <v>569</v>
       </c>
       <c r="B553" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C553" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.25">
@@ -10326,10 +10327,10 @@
         <v>570</v>
       </c>
       <c r="B554" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C554" t="s">
         <v>1003</v>
-      </c>
-      <c r="C554" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.25">
@@ -10337,10 +10338,10 @@
         <v>571</v>
       </c>
       <c r="B555" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C555" t="s">
         <v>1005</v>
-      </c>
-      <c r="C555" t="s">
-        <v>1006</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.25">
@@ -10348,10 +10349,10 @@
         <v>572</v>
       </c>
       <c r="B556" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C556" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.25">
@@ -10359,10 +10360,10 @@
         <v>577</v>
       </c>
       <c r="B557" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C557" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.25">
@@ -10370,10 +10371,10 @@
         <v>578</v>
       </c>
       <c r="B558" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C558" t="s">
         <v>1009</v>
-      </c>
-      <c r="C558" t="s">
-        <v>1010</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.25">
@@ -10381,7 +10382,7 @@
         <v>579</v>
       </c>
       <c r="B559" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.25">
@@ -10389,10 +10390,10 @@
         <v>580</v>
       </c>
       <c r="B560" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C560" t="s">
         <v>1012</v>
-      </c>
-      <c r="C560" t="s">
-        <v>1013</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.25">
@@ -10400,10 +10401,10 @@
         <v>581</v>
       </c>
       <c r="B561" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C561" t="s">
         <v>1014</v>
-      </c>
-      <c r="C561" t="s">
-        <v>1015</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.25">
@@ -10411,10 +10412,10 @@
         <v>582</v>
       </c>
       <c r="B562" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C562" t="s">
         <v>1016</v>
-      </c>
-      <c r="C562" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.25">
@@ -10422,10 +10423,10 @@
         <v>583</v>
       </c>
       <c r="B563" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C563" t="s">
         <v>1018</v>
-      </c>
-      <c r="C563" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.25">
@@ -10433,10 +10434,10 @@
         <v>584</v>
       </c>
       <c r="B564" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C564" t="s">
         <v>1020</v>
-      </c>
-      <c r="C564" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.25">
@@ -10444,10 +10445,10 @@
         <v>585</v>
       </c>
       <c r="B565" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C565" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.25">
@@ -10455,10 +10456,10 @@
         <v>586</v>
       </c>
       <c r="B566" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C566" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.25">
@@ -10466,10 +10467,10 @@
         <v>587</v>
       </c>
       <c r="B567" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C567" t="s">
         <v>1023</v>
-      </c>
-      <c r="C567" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.25">
@@ -10477,10 +10478,10 @@
         <v>588</v>
       </c>
       <c r="B568" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C568" t="s">
         <v>1025</v>
-      </c>
-      <c r="C568" t="s">
-        <v>1026</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.25">
@@ -10488,10 +10489,10 @@
         <v>589</v>
       </c>
       <c r="B569" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C569" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.25">
@@ -10499,10 +10500,10 @@
         <v>590</v>
       </c>
       <c r="B570" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C570" t="s">
         <v>1028</v>
-      </c>
-      <c r="C570" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.25">
@@ -10510,10 +10511,10 @@
         <v>591</v>
       </c>
       <c r="B571" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C571" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.25">
@@ -10521,10 +10522,10 @@
         <v>592</v>
       </c>
       <c r="B572" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C572" t="s">
         <v>1031</v>
-      </c>
-      <c r="C572" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.25">
@@ -10532,10 +10533,10 @@
         <v>593</v>
       </c>
       <c r="B573" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C573" t="s">
         <v>1033</v>
-      </c>
-      <c r="C573" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.25">
@@ -10543,10 +10544,10 @@
         <v>594</v>
       </c>
       <c r="B574" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C574" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.25">
@@ -10554,10 +10555,10 @@
         <v>595</v>
       </c>
       <c r="B575" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C575" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.25">
@@ -10565,10 +10566,10 @@
         <v>596</v>
       </c>
       <c r="B576" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C576" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.25">
@@ -10576,10 +10577,10 @@
         <v>597</v>
       </c>
       <c r="B577" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C577" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.25">
@@ -10587,10 +10588,10 @@
         <v>598</v>
       </c>
       <c r="B578" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C578" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.25">
@@ -10598,10 +10599,10 @@
         <v>599</v>
       </c>
       <c r="B579" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C579" t="s">
         <v>1037</v>
-      </c>
-      <c r="C579" t="s">
-        <v>1038</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.25">
@@ -10609,10 +10610,10 @@
         <v>601</v>
       </c>
       <c r="B580" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C580" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.25">
@@ -10620,10 +10621,10 @@
         <v>604</v>
       </c>
       <c r="B581" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C581" t="s">
         <v>1040</v>
-      </c>
-      <c r="C581" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.25">
@@ -10631,10 +10632,10 @@
         <v>612</v>
       </c>
       <c r="B582" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C582" t="s">
         <v>1042</v>
-      </c>
-      <c r="C582" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.25">
@@ -10642,10 +10643,10 @@
         <v>617</v>
       </c>
       <c r="B583" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C583" t="s">
         <v>1044</v>
-      </c>
-      <c r="C583" t="s">
-        <v>1045</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.25">
@@ -10653,10 +10654,10 @@
         <v>618</v>
       </c>
       <c r="B584" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C584" t="s">
         <v>1046</v>
-      </c>
-      <c r="C584" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.25">
@@ -10664,10 +10665,10 @@
         <v>625</v>
       </c>
       <c r="B585" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C585" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.25">
@@ -10675,10 +10676,10 @@
         <v>626</v>
       </c>
       <c r="B586" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C586" t="s">
         <v>1048</v>
-      </c>
-      <c r="C586" t="s">
-        <v>1049</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.25">
@@ -10686,10 +10687,10 @@
         <v>629</v>
       </c>
       <c r="B587" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C587" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.25">
@@ -10697,10 +10698,10 @@
         <v>633</v>
       </c>
       <c r="B588" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C588" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.25">
@@ -10708,10 +10709,10 @@
         <v>635</v>
       </c>
       <c r="B589" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C589" t="s">
         <v>1052</v>
-      </c>
-      <c r="C589" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.25">
@@ -10719,10 +10720,10 @@
         <v>636</v>
       </c>
       <c r="B590" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C590" t="s">
         <v>1054</v>
-      </c>
-      <c r="C590" t="s">
-        <v>1055</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.25">
@@ -10730,10 +10731,10 @@
         <v>642</v>
       </c>
       <c r="B591" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C591" t="s">
         <v>1056</v>
-      </c>
-      <c r="C591" t="s">
-        <v>1057</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.25">
@@ -10741,10 +10742,10 @@
         <v>646</v>
       </c>
       <c r="B592" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C592" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.25">
@@ -10752,10 +10753,10 @@
         <v>650</v>
       </c>
       <c r="B593" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C593" t="s">
         <v>1059</v>
-      </c>
-      <c r="C593" t="s">
-        <v>1060</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.25">
@@ -10763,10 +10764,10 @@
         <v>651</v>
       </c>
       <c r="B594" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C594" t="s">
         <v>1061</v>
-      </c>
-      <c r="C594" t="s">
-        <v>1062</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.25">
@@ -10774,10 +10775,10 @@
         <v>653</v>
       </c>
       <c r="B595" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C595" t="s">
         <v>1063</v>
-      </c>
-      <c r="C595" t="s">
-        <v>1064</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.25">
@@ -10785,10 +10786,10 @@
         <v>654</v>
       </c>
       <c r="B596" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C596" t="s">
         <v>1173</v>
-      </c>
-      <c r="C596" t="s">
-        <v>1174</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.25">
@@ -10796,10 +10797,10 @@
         <v>655</v>
       </c>
       <c r="B597" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C597" t="s">
         <v>1065</v>
-      </c>
-      <c r="C597" t="s">
-        <v>1066</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.25">
@@ -10807,10 +10808,10 @@
         <v>661</v>
       </c>
       <c r="B598" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C598" t="s">
         <v>1067</v>
-      </c>
-      <c r="C598" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.25">
@@ -10818,10 +10819,10 @@
         <v>663</v>
       </c>
       <c r="B599" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C599" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.25">
@@ -10829,10 +10830,10 @@
         <v>667</v>
       </c>
       <c r="B600" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C600" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.25">
@@ -10840,10 +10841,10 @@
         <v>673</v>
       </c>
       <c r="B601" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C601" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.25">
@@ -10851,10 +10852,10 @@
         <v>674</v>
       </c>
       <c r="B602" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C602" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.25">
@@ -10862,10 +10863,10 @@
         <v>680</v>
       </c>
       <c r="B603" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C603" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.25">
@@ -10873,10 +10874,10 @@
         <v>682</v>
       </c>
       <c r="B604" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C604" t="s">
         <v>1073</v>
-      </c>
-      <c r="C604" t="s">
-        <v>1074</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.25">
@@ -10884,10 +10885,10 @@
         <v>684</v>
       </c>
       <c r="B605" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C605" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.25">
@@ -10895,10 +10896,10 @@
         <v>685</v>
       </c>
       <c r="B606" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C606" t="s">
         <v>1075</v>
-      </c>
-      <c r="C606" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.25">
@@ -10906,10 +10907,10 @@
         <v>686</v>
       </c>
       <c r="B607" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C607" t="s">
         <v>1077</v>
-      </c>
-      <c r="C607" t="s">
-        <v>1078</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.25">
@@ -10917,10 +10918,10 @@
         <v>689</v>
       </c>
       <c r="B608" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C608" t="s">
         <v>1079</v>
-      </c>
-      <c r="C608" t="s">
-        <v>1080</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.25">
@@ -10928,10 +10929,10 @@
         <v>697</v>
       </c>
       <c r="B609" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C609" t="s">
         <v>1166</v>
-      </c>
-      <c r="C609" t="s">
-        <v>1167</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.25">
@@ -10939,10 +10940,10 @@
         <v>701</v>
       </c>
       <c r="B610" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C610" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.25">
@@ -10950,10 +10951,10 @@
         <v>704</v>
       </c>
       <c r="B611" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C611" t="s">
         <v>1112</v>
-      </c>
-      <c r="C611" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.25">
@@ -10961,10 +10962,10 @@
         <v>10001</v>
       </c>
       <c r="B612" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C612" t="s">
         <v>1081</v>
-      </c>
-      <c r="C612" t="s">
-        <v>1082</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.25">
@@ -10972,17 +10973,17 @@
         <v>10003</v>
       </c>
       <c r="B613" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C613" t="s">
         <v>1109</v>
-      </c>
-      <c r="C613" t="s">
-        <v>1110</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C1 A121:C127 A120:B120 A612:C612 A315:B315 A316:C326 A352:C352 A351:B351 A586:C586 A575 A574:B574 A460:C463 A459:B459 A604:C604 A603:B603 A235:C249 A234:B234 A95:C98 A146:C149 A145:B145 A541:C549 A540:B540 A55:C57 A558:C564 A557:B557 A29:C29 A28:B28 A579:C579 A308:C314 A307:B307 A53:B54 A457:C458 A455:B455 A516:C516 A515:B515 A93:B94 A554:C555 A553:B553 A346:C348 A345:B345 A52:C52 A51:B51 A72:C78 A70:B70 A163:C228 A162:B162 A378:C378 A377:B377 A606:C608 A258:C259 A257:B257 A6:C7 A572:C573 A571:B571 A567:C568 A566 A597:C598 A588:B588 A21:C27 A20:B20 A420:C422 A115:C119 A114:B114 A287:C294 A286:B286 A418:B419 A80:C84 A79:B79 A504:C504 A503 A151:C153 A150:B150 A481:C499 A480:B480 A520:C520 A519:B519 A532:C535 A531:B531 A602:B602 A600:B601 A576:B578 A514:C514 A513:B513 A501:C502 A500:B500 A453:C454 A452:B452 A424:C424 A423:B423 A14:C14 A13:B13 A2:B5 A581:C584 A580:B580 A570:C570 A569:B569 A450:C450 A449:B449 A551:C552 A550:B550 A538:C539 A536:B536 A518:C518 A517:B517 A508:C512 A507:B507 A466:C468 A465:B465 A448:C448 A447:B447 A433:C446 A432:B432 A426:C431 A425:B425 A403:C406 A402:B402 A280:C285 A279:B279 A269:C278 A268:B268 A261:C267 A260:B260 A252:C256 A250:B251 A231:C233 A229:B230 A108:C113 A107:B107 A59:C69 A58:B58 A155:C161 A154:B154 A129:C144 A128:B128 A71 A9:C12 A8:B8 A589:C591 A380:C385 A379:B379 A451:B451 A523:C530 A522:B522 A521:B521 A506:C506 A505:B505 A470:C472 A469:B469 A456:B456 A100:C106 A99:B99 A39:C42 A38:B38 A32:C37 A31:B31 A16:C19 A15:B15 A565:B565 A556:B556 A537:B537 A478:C479 A477:B477 A408:C417 A407:B407 A387:C401 A386:B386 A328:C344 A327 A296:C306 A295:B295 A44:C50 A43:B43 A593:C595 A592:B592 A587:B587 A354:C376 A353:B353 A464:B464 A350:C350 A349:B349 A474:C476 A473 A86:C92 A85:B85 A30:B30" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C1 A121:C127 A120:B120 A612:C612 A315:B315 A316:C326 A352:C352 A351:B351 A586:C586 A575 A574:B574 A460:C463 A459:B459 A604:C604 A603:B603 A235:C249 A234:B234 A95:C98 A146:C149 A145:B145 A541:C549 A540:B540 A55:C57 A558:C564 A557:B557 A29:C29 A28:B28 A579:C579 A308:C314 A307:B307 A53:B54 A457:C458 A455:B455 A516:C516 A515:B515 A93:B94 A554:C555 A553:B553 A346:C348 A345:B345 A52:C52 A51:B51 A72:C78 A70:B70 A163:C228 A162:B162 A378:C378 A377:B377 A606:C608 A258:C259 A257:B257 A6:C7 A572:C573 A571:B571 A567:C568 A566 A597:C598 A588:B588 A21:C27 A20:B20 A420:C422 A115:C119 A114:B114 A287:C294 A286:B286 A418:B419 A80:C84 A79:B79 A504:C504 A503 A151:C153 A150:B150 A481:C499 A480:B480 A520:C520 A519:B519 A532:C535 A531:B531 A602:B602 A600:B601 A576:B578 A514:C514 A513:B513 A501:C502 A500:B500 A453:C454 A452:B452 A424:C424 A423:B423 A14:C14 A13:B13 A2:B5 A581:C584 A580:B580 A570:C570 A569:B569 A450:C450 A449:B449 A551:C552 A550:B550 A538:C539 A536:B536 A518:C518 A517:B517 A508:C512 A507:B507 A466:C468 A465:B465 A448:C448 A447:B447 A433:C446 A432:B432 A426:C431 A425:B425 A403:C406 A402:B402 A280:C285 A279:B279 A269:C278 A268:B268 A261:C267 A260:B260 A252:C256 A250:B251 A231:C233 A229:B230 A108:C113 A107:B107 A59:C69 A58:B58 A155:C161 A154:B154 A129:C144 A128:B128 A71 A9:C12 A8:B8 A589:C591 A380:C385 A379:B379 A451:B451 A523:C530 A522:B522 A521:B521 A506:C506 A505:B505 A470:C472 A469:B469 A456:B456 A100:C106 A99:B99 A40:C42 A38:B38 A32:C37 A31:B31 A16:C19 A15:B15 A565:B565 A556:B556 A537:B537 A478:C479 A477:B477 A408:C417 A407:B407 A387:C401 A386:B386 A328:C344 A327 A296:C306 A295:B295 A44:C50 A43:B43 A593:C595 A592:B592 A587:B587 A354:C376 A353:B353 A464:B464 A350:C350 A349:B349 A474:C476 A473 A86:C92 A85:B85 A30:B30 A39:B39" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/config/nickname_song.xlsx
+++ b/config/nickname_song.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Tsugu-Backend\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C235D0A-D417-48DB-BEEF-B6BE8B84CECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C73AC2-F3C5-47A8-9EF2-62979A115E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9156" yWindow="1188" windowWidth="18744" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5676" yWindow="2316" windowWidth="18744" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="1213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="1223">
   <si>
     <t>Id</t>
   </si>
@@ -938,9 +938,6 @@
   </si>
   <si>
     <t>革命デュアリズム</t>
-  </si>
-  <si>
-    <t>革命机,情歌对唱,革命二元论,革命</t>
   </si>
   <si>
     <t>檄！帝国華撃団</t>
@@ -3710,10 +3707,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>羽泽咖啡店,咖啡店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>33ssfk,33ssfkk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3832,7 +3825,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>四谎,绽放光芒,四月</t>
+    <t>四谎,绽放光芒,四月,若能绽放光芒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Life on the Lotus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸飞机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>革命机,情歌对唱,革命二元论,革命,Roselia×兰,RoseliaX兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走り始めたばかりのキミに(パラレルver.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぽわぽわ,ぽわ,平行,走始平行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>えがおのオーケストラっ！(パラレルver.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羽泽咖啡店,咖啡店,平行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管弦乐团平行,笑容管弦乐平行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blessing Chord(パラレルver.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古龙平行,nfo平行,婚纱平行,结婚平行,bc平行,平行,宅家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷星叫(パラレルver.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷星叫平行,平行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4237,10 +4278,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C613"/>
+  <dimension ref="A1:C618"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A562" workbookViewId="0">
+      <selection activeCell="D567" sqref="D567"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -4270,7 +4311,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4281,7 +4322,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4292,7 +4333,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4303,7 +4344,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -4336,7 +4377,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -4391,7 +4432,7 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -4413,7 +4454,7 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -4468,7 +4509,7 @@
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -4556,7 +4597,7 @@
         <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -4578,7 +4619,7 @@
         <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -4589,7 +4630,7 @@
         <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -4666,7 +4707,7 @@
         <v>64</v>
       </c>
       <c r="C38" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -4677,7 +4718,7 @@
         <v>65</v>
       </c>
       <c r="C39" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -4721,7 +4762,7 @@
         <v>72</v>
       </c>
       <c r="C43" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -4809,7 +4850,7 @@
         <v>87</v>
       </c>
       <c r="C51" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -4831,7 +4872,7 @@
         <v>90</v>
       </c>
       <c r="C53" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -4842,7 +4883,7 @@
         <v>91</v>
       </c>
       <c r="C54" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -4886,7 +4927,7 @@
         <v>98</v>
       </c>
       <c r="C58" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -5018,7 +5059,7 @@
         <v>121</v>
       </c>
       <c r="C70" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -5026,10 +5067,10 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C71" t="s">
         <v>1169</v>
-      </c>
-      <c r="C71" t="s">
-        <v>1170</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -5117,7 +5158,7 @@
         <v>136</v>
       </c>
       <c r="C79" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -5183,7 +5224,7 @@
         <v>147</v>
       </c>
       <c r="C85" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -5271,7 +5312,7 @@
         <v>162</v>
       </c>
       <c r="C93" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -5282,7 +5323,7 @@
         <v>163</v>
       </c>
       <c r="C94" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -5337,7 +5378,7 @@
         <v>172</v>
       </c>
       <c r="C99" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -5425,7 +5466,7 @@
         <v>187</v>
       </c>
       <c r="C107" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -5502,7 +5543,7 @@
         <v>200</v>
       </c>
       <c r="C114" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -5568,7 +5609,7 @@
         <v>211</v>
       </c>
       <c r="C120" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -5656,7 +5697,7 @@
         <v>226</v>
       </c>
       <c r="C128" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -5843,7 +5884,7 @@
         <v>259</v>
       </c>
       <c r="C145" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -5898,7 +5939,7 @@
         <v>268</v>
       </c>
       <c r="C150" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -5942,7 +5983,7 @@
         <v>275</v>
       </c>
       <c r="C154" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -6030,7 +6071,7 @@
         <v>290</v>
       </c>
       <c r="C162" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -6118,7 +6159,7 @@
         <v>305</v>
       </c>
       <c r="C170" t="s">
-        <v>306</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -6126,10 +6167,10 @@
         <v>179</v>
       </c>
       <c r="B171" t="s">
+        <v>306</v>
+      </c>
+      <c r="C171" t="s">
         <v>307</v>
-      </c>
-      <c r="C171" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -6137,10 +6178,10 @@
         <v>180</v>
       </c>
       <c r="B172" t="s">
+        <v>308</v>
+      </c>
+      <c r="C172" t="s">
         <v>309</v>
-      </c>
-      <c r="C172" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -6148,10 +6189,10 @@
         <v>181</v>
       </c>
       <c r="B173" t="s">
+        <v>310</v>
+      </c>
+      <c r="C173" t="s">
         <v>311</v>
-      </c>
-      <c r="C173" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -6159,10 +6200,10 @@
         <v>182</v>
       </c>
       <c r="B174" t="s">
+        <v>312</v>
+      </c>
+      <c r="C174" t="s">
         <v>313</v>
-      </c>
-      <c r="C174" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -6170,10 +6211,10 @@
         <v>183</v>
       </c>
       <c r="B175" t="s">
+        <v>314</v>
+      </c>
+      <c r="C175" t="s">
         <v>315</v>
-      </c>
-      <c r="C175" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -6181,10 +6222,10 @@
         <v>184</v>
       </c>
       <c r="B176" t="s">
+        <v>316</v>
+      </c>
+      <c r="C176" t="s">
         <v>317</v>
-      </c>
-      <c r="C176" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -6192,10 +6233,10 @@
         <v>185</v>
       </c>
       <c r="B177" t="s">
+        <v>318</v>
+      </c>
+      <c r="C177" t="s">
         <v>319</v>
-      </c>
-      <c r="C177" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -6203,10 +6244,10 @@
         <v>186</v>
       </c>
       <c r="B178" t="s">
+        <v>320</v>
+      </c>
+      <c r="C178" t="s">
         <v>321</v>
-      </c>
-      <c r="C178" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -6214,10 +6255,10 @@
         <v>187</v>
       </c>
       <c r="B179" t="s">
+        <v>322</v>
+      </c>
+      <c r="C179" t="s">
         <v>323</v>
-      </c>
-      <c r="C179" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -6225,10 +6266,10 @@
         <v>188</v>
       </c>
       <c r="B180" t="s">
+        <v>324</v>
+      </c>
+      <c r="C180" t="s">
         <v>325</v>
-      </c>
-      <c r="C180" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -6236,10 +6277,10 @@
         <v>189</v>
       </c>
       <c r="B181" t="s">
+        <v>326</v>
+      </c>
+      <c r="C181" t="s">
         <v>327</v>
-      </c>
-      <c r="C181" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -6247,10 +6288,10 @@
         <v>190</v>
       </c>
       <c r="B182" t="s">
+        <v>328</v>
+      </c>
+      <c r="C182" t="s">
         <v>329</v>
-      </c>
-      <c r="C182" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -6258,10 +6299,10 @@
         <v>191</v>
       </c>
       <c r="B183" t="s">
+        <v>330</v>
+      </c>
+      <c r="C183" t="s">
         <v>331</v>
-      </c>
-      <c r="C183" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -6269,10 +6310,10 @@
         <v>192</v>
       </c>
       <c r="B184" t="s">
+        <v>332</v>
+      </c>
+      <c r="C184" t="s">
         <v>333</v>
-      </c>
-      <c r="C184" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -6280,10 +6321,10 @@
         <v>193</v>
       </c>
       <c r="B185" t="s">
+        <v>334</v>
+      </c>
+      <c r="C185" t="s">
         <v>335</v>
-      </c>
-      <c r="C185" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -6291,10 +6332,10 @@
         <v>194</v>
       </c>
       <c r="B186" t="s">
+        <v>336</v>
+      </c>
+      <c r="C186" t="s">
         <v>337</v>
-      </c>
-      <c r="C186" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -6302,10 +6343,10 @@
         <v>195</v>
       </c>
       <c r="B187" t="s">
+        <v>338</v>
+      </c>
+      <c r="C187" t="s">
         <v>339</v>
-      </c>
-      <c r="C187" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -6313,10 +6354,10 @@
         <v>196</v>
       </c>
       <c r="B188" t="s">
+        <v>340</v>
+      </c>
+      <c r="C188" t="s">
         <v>341</v>
-      </c>
-      <c r="C188" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -6324,10 +6365,10 @@
         <v>197</v>
       </c>
       <c r="B189" t="s">
+        <v>342</v>
+      </c>
+      <c r="C189" t="s">
         <v>343</v>
-      </c>
-      <c r="C189" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -6335,10 +6376,10 @@
         <v>198</v>
       </c>
       <c r="B190" t="s">
+        <v>344</v>
+      </c>
+      <c r="C190" t="s">
         <v>345</v>
-      </c>
-      <c r="C190" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -6346,10 +6387,10 @@
         <v>199</v>
       </c>
       <c r="B191" t="s">
+        <v>346</v>
+      </c>
+      <c r="C191" t="s">
         <v>347</v>
-      </c>
-      <c r="C191" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -6357,10 +6398,10 @@
         <v>200</v>
       </c>
       <c r="B192" t="s">
+        <v>348</v>
+      </c>
+      <c r="C192" t="s">
         <v>349</v>
-      </c>
-      <c r="C192" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -6368,10 +6409,10 @@
         <v>201</v>
       </c>
       <c r="B193" t="s">
+        <v>350</v>
+      </c>
+      <c r="C193" t="s">
         <v>351</v>
-      </c>
-      <c r="C193" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -6379,10 +6420,10 @@
         <v>202</v>
       </c>
       <c r="B194" t="s">
+        <v>352</v>
+      </c>
+      <c r="C194" t="s">
         <v>353</v>
-      </c>
-      <c r="C194" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -6390,10 +6431,10 @@
         <v>203</v>
       </c>
       <c r="B195" t="s">
+        <v>354</v>
+      </c>
+      <c r="C195" t="s">
         <v>355</v>
-      </c>
-      <c r="C195" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -6401,10 +6442,10 @@
         <v>204</v>
       </c>
       <c r="B196" t="s">
+        <v>356</v>
+      </c>
+      <c r="C196" t="s">
         <v>357</v>
-      </c>
-      <c r="C196" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -6412,10 +6453,10 @@
         <v>205</v>
       </c>
       <c r="B197" t="s">
+        <v>358</v>
+      </c>
+      <c r="C197" t="s">
         <v>359</v>
-      </c>
-      <c r="C197" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -6423,10 +6464,10 @@
         <v>206</v>
       </c>
       <c r="B198" t="s">
+        <v>360</v>
+      </c>
+      <c r="C198" t="s">
         <v>361</v>
-      </c>
-      <c r="C198" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -6434,10 +6475,10 @@
         <v>207</v>
       </c>
       <c r="B199" t="s">
+        <v>362</v>
+      </c>
+      <c r="C199" t="s">
         <v>363</v>
-      </c>
-      <c r="C199" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -6445,10 +6486,10 @@
         <v>208</v>
       </c>
       <c r="B200" t="s">
+        <v>364</v>
+      </c>
+      <c r="C200" t="s">
         <v>365</v>
-      </c>
-      <c r="C200" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -6456,10 +6497,10 @@
         <v>209</v>
       </c>
       <c r="B201" t="s">
+        <v>366</v>
+      </c>
+      <c r="C201" t="s">
         <v>367</v>
-      </c>
-      <c r="C201" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -6467,10 +6508,10 @@
         <v>210</v>
       </c>
       <c r="B202" t="s">
+        <v>368</v>
+      </c>
+      <c r="C202" t="s">
         <v>369</v>
-      </c>
-      <c r="C202" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -6478,10 +6519,10 @@
         <v>211</v>
       </c>
       <c r="B203" t="s">
+        <v>370</v>
+      </c>
+      <c r="C203" t="s">
         <v>371</v>
-      </c>
-      <c r="C203" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -6489,10 +6530,10 @@
         <v>212</v>
       </c>
       <c r="B204" t="s">
+        <v>372</v>
+      </c>
+      <c r="C204" t="s">
         <v>373</v>
-      </c>
-      <c r="C204" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -6500,10 +6541,10 @@
         <v>213</v>
       </c>
       <c r="B205" t="s">
+        <v>374</v>
+      </c>
+      <c r="C205" t="s">
         <v>375</v>
-      </c>
-      <c r="C205" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -6511,10 +6552,10 @@
         <v>214</v>
       </c>
       <c r="B206" t="s">
+        <v>376</v>
+      </c>
+      <c r="C206" t="s">
         <v>377</v>
-      </c>
-      <c r="C206" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -6522,10 +6563,10 @@
         <v>215</v>
       </c>
       <c r="B207" t="s">
+        <v>378</v>
+      </c>
+      <c r="C207" t="s">
         <v>379</v>
-      </c>
-      <c r="C207" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -6533,10 +6574,10 @@
         <v>217</v>
       </c>
       <c r="B208" t="s">
+        <v>380</v>
+      </c>
+      <c r="C208" t="s">
         <v>381</v>
-      </c>
-      <c r="C208" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -6544,10 +6585,10 @@
         <v>218</v>
       </c>
       <c r="B209" t="s">
+        <v>382</v>
+      </c>
+      <c r="C209" t="s">
         <v>383</v>
-      </c>
-      <c r="C209" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -6555,10 +6596,10 @@
         <v>219</v>
       </c>
       <c r="B210" t="s">
+        <v>384</v>
+      </c>
+      <c r="C210" t="s">
         <v>385</v>
-      </c>
-      <c r="C210" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -6566,10 +6607,10 @@
         <v>220</v>
       </c>
       <c r="B211" t="s">
+        <v>386</v>
+      </c>
+      <c r="C211" t="s">
         <v>387</v>
-      </c>
-      <c r="C211" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -6577,10 +6618,10 @@
         <v>221</v>
       </c>
       <c r="B212" t="s">
+        <v>388</v>
+      </c>
+      <c r="C212" t="s">
         <v>389</v>
-      </c>
-      <c r="C212" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -6588,10 +6629,10 @@
         <v>222</v>
       </c>
       <c r="B213" t="s">
+        <v>390</v>
+      </c>
+      <c r="C213" t="s">
         <v>391</v>
-      </c>
-      <c r="C213" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -6599,10 +6640,10 @@
         <v>223</v>
       </c>
       <c r="B214" t="s">
+        <v>392</v>
+      </c>
+      <c r="C214" t="s">
         <v>393</v>
-      </c>
-      <c r="C214" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -6610,10 +6651,10 @@
         <v>224</v>
       </c>
       <c r="B215" t="s">
+        <v>394</v>
+      </c>
+      <c r="C215" t="s">
         <v>395</v>
-      </c>
-      <c r="C215" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -6621,10 +6662,10 @@
         <v>225</v>
       </c>
       <c r="B216" t="s">
+        <v>396</v>
+      </c>
+      <c r="C216" t="s">
         <v>397</v>
-      </c>
-      <c r="C216" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -6632,10 +6673,10 @@
         <v>226</v>
       </c>
       <c r="B217" t="s">
+        <v>398</v>
+      </c>
+      <c r="C217" t="s">
         <v>399</v>
-      </c>
-      <c r="C217" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -6643,10 +6684,10 @@
         <v>227</v>
       </c>
       <c r="B218" t="s">
+        <v>400</v>
+      </c>
+      <c r="C218" t="s">
         <v>401</v>
-      </c>
-      <c r="C218" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -6654,10 +6695,10 @@
         <v>228</v>
       </c>
       <c r="B219" t="s">
+        <v>402</v>
+      </c>
+      <c r="C219" t="s">
         <v>403</v>
-      </c>
-      <c r="C219" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -6665,10 +6706,10 @@
         <v>229</v>
       </c>
       <c r="B220" t="s">
+        <v>404</v>
+      </c>
+      <c r="C220" t="s">
         <v>405</v>
-      </c>
-      <c r="C220" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -6676,10 +6717,10 @@
         <v>230</v>
       </c>
       <c r="B221" t="s">
+        <v>406</v>
+      </c>
+      <c r="C221" t="s">
         <v>407</v>
-      </c>
-      <c r="C221" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -6687,10 +6728,10 @@
         <v>231</v>
       </c>
       <c r="B222" t="s">
+        <v>408</v>
+      </c>
+      <c r="C222" t="s">
         <v>409</v>
-      </c>
-      <c r="C222" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -6698,10 +6739,10 @@
         <v>232</v>
       </c>
       <c r="B223" t="s">
+        <v>410</v>
+      </c>
+      <c r="C223" t="s">
         <v>411</v>
-      </c>
-      <c r="C223" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -6709,10 +6750,10 @@
         <v>233</v>
       </c>
       <c r="B224" t="s">
+        <v>412</v>
+      </c>
+      <c r="C224" t="s">
         <v>413</v>
-      </c>
-      <c r="C224" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -6720,10 +6761,10 @@
         <v>234</v>
       </c>
       <c r="B225" t="s">
+        <v>414</v>
+      </c>
+      <c r="C225" t="s">
         <v>415</v>
-      </c>
-      <c r="C225" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -6731,10 +6772,10 @@
         <v>235</v>
       </c>
       <c r="B226" t="s">
+        <v>416</v>
+      </c>
+      <c r="C226" t="s">
         <v>417</v>
-      </c>
-      <c r="C226" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -6742,10 +6783,10 @@
         <v>236</v>
       </c>
       <c r="B227" t="s">
+        <v>418</v>
+      </c>
+      <c r="C227" t="s">
         <v>419</v>
-      </c>
-      <c r="C227" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -6753,10 +6794,10 @@
         <v>237</v>
       </c>
       <c r="B228" t="s">
+        <v>420</v>
+      </c>
+      <c r="C228" t="s">
         <v>421</v>
-      </c>
-      <c r="C228" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -6764,10 +6805,10 @@
         <v>238</v>
       </c>
       <c r="B229" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C229" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -6775,10 +6816,10 @@
         <v>239</v>
       </c>
       <c r="B230" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C230" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -6786,10 +6827,10 @@
         <v>240</v>
       </c>
       <c r="B231" t="s">
+        <v>424</v>
+      </c>
+      <c r="C231" t="s">
         <v>425</v>
-      </c>
-      <c r="C231" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -6797,10 +6838,10 @@
         <v>241</v>
       </c>
       <c r="B232" t="s">
+        <v>426</v>
+      </c>
+      <c r="C232" t="s">
         <v>427</v>
-      </c>
-      <c r="C232" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -6808,10 +6849,10 @@
         <v>242</v>
       </c>
       <c r="B233" t="s">
+        <v>428</v>
+      </c>
+      <c r="C233" t="s">
         <v>429</v>
-      </c>
-      <c r="C233" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -6819,10 +6860,10 @@
         <v>243</v>
       </c>
       <c r="B234" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C234" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -6830,10 +6871,10 @@
         <v>244</v>
       </c>
       <c r="B235" t="s">
+        <v>431</v>
+      </c>
+      <c r="C235" t="s">
         <v>432</v>
-      </c>
-      <c r="C235" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -6841,10 +6882,10 @@
         <v>245</v>
       </c>
       <c r="B236" t="s">
+        <v>433</v>
+      </c>
+      <c r="C236" t="s">
         <v>434</v>
-      </c>
-      <c r="C236" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -6852,10 +6893,10 @@
         <v>246</v>
       </c>
       <c r="B237" t="s">
+        <v>435</v>
+      </c>
+      <c r="C237" t="s">
         <v>436</v>
-      </c>
-      <c r="C237" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -6863,10 +6904,10 @@
         <v>247</v>
       </c>
       <c r="B238" t="s">
+        <v>437</v>
+      </c>
+      <c r="C238" t="s">
         <v>438</v>
-      </c>
-      <c r="C238" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -6874,10 +6915,10 @@
         <v>248</v>
       </c>
       <c r="B239" t="s">
+        <v>439</v>
+      </c>
+      <c r="C239" t="s">
         <v>440</v>
-      </c>
-      <c r="C239" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -6885,10 +6926,10 @@
         <v>249</v>
       </c>
       <c r="B240" t="s">
+        <v>441</v>
+      </c>
+      <c r="C240" t="s">
         <v>442</v>
-      </c>
-      <c r="C240" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -6896,10 +6937,10 @@
         <v>250</v>
       </c>
       <c r="B241" t="s">
+        <v>443</v>
+      </c>
+      <c r="C241" t="s">
         <v>444</v>
-      </c>
-      <c r="C241" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -6907,10 +6948,10 @@
         <v>251</v>
       </c>
       <c r="B242" t="s">
+        <v>445</v>
+      </c>
+      <c r="C242" t="s">
         <v>446</v>
-      </c>
-      <c r="C242" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -6918,10 +6959,10 @@
         <v>252</v>
       </c>
       <c r="B243" t="s">
+        <v>447</v>
+      </c>
+      <c r="C243" t="s">
         <v>448</v>
-      </c>
-      <c r="C243" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -6929,10 +6970,10 @@
         <v>253</v>
       </c>
       <c r="B244" t="s">
+        <v>449</v>
+      </c>
+      <c r="C244" t="s">
         <v>450</v>
-      </c>
-      <c r="C244" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -6940,10 +6981,10 @@
         <v>254</v>
       </c>
       <c r="B245" t="s">
+        <v>451</v>
+      </c>
+      <c r="C245" t="s">
         <v>452</v>
-      </c>
-      <c r="C245" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -6951,10 +6992,10 @@
         <v>255</v>
       </c>
       <c r="B246" t="s">
+        <v>453</v>
+      </c>
+      <c r="C246" t="s">
         <v>454</v>
-      </c>
-      <c r="C246" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -6962,10 +7003,10 @@
         <v>256</v>
       </c>
       <c r="B247" t="s">
+        <v>455</v>
+      </c>
+      <c r="C247" t="s">
         <v>456</v>
-      </c>
-      <c r="C247" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -6973,10 +7014,10 @@
         <v>257</v>
       </c>
       <c r="B248" t="s">
+        <v>457</v>
+      </c>
+      <c r="C248" t="s">
         <v>458</v>
-      </c>
-      <c r="C248" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -6984,10 +7025,10 @@
         <v>258</v>
       </c>
       <c r="B249" t="s">
+        <v>459</v>
+      </c>
+      <c r="C249" t="s">
         <v>460</v>
-      </c>
-      <c r="C249" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -6995,10 +7036,10 @@
         <v>259</v>
       </c>
       <c r="B250" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C250" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -7006,10 +7047,10 @@
         <v>260</v>
       </c>
       <c r="B251" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C251" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -7017,10 +7058,10 @@
         <v>261</v>
       </c>
       <c r="B252" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C252" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -7028,10 +7069,10 @@
         <v>262</v>
       </c>
       <c r="B253" t="s">
+        <v>464</v>
+      </c>
+      <c r="C253" t="s">
         <v>465</v>
-      </c>
-      <c r="C253" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -7039,10 +7080,10 @@
         <v>263</v>
       </c>
       <c r="B254" t="s">
+        <v>466</v>
+      </c>
+      <c r="C254" t="s">
         <v>467</v>
-      </c>
-      <c r="C254" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -7050,10 +7091,10 @@
         <v>264</v>
       </c>
       <c r="B255" t="s">
+        <v>468</v>
+      </c>
+      <c r="C255" t="s">
         <v>469</v>
-      </c>
-      <c r="C255" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -7061,10 +7102,10 @@
         <v>265</v>
       </c>
       <c r="B256" t="s">
+        <v>470</v>
+      </c>
+      <c r="C256" t="s">
         <v>471</v>
-      </c>
-      <c r="C256" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -7072,10 +7113,10 @@
         <v>266</v>
       </c>
       <c r="B257" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C257" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -7083,10 +7124,10 @@
         <v>267</v>
       </c>
       <c r="B258" t="s">
+        <v>473</v>
+      </c>
+      <c r="C258" t="s">
         <v>474</v>
-      </c>
-      <c r="C258" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -7094,10 +7135,10 @@
         <v>268</v>
       </c>
       <c r="B259" t="s">
+        <v>475</v>
+      </c>
+      <c r="C259" t="s">
         <v>476</v>
-      </c>
-      <c r="C259" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -7105,10 +7146,10 @@
         <v>269</v>
       </c>
       <c r="B260" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C260" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -7116,10 +7157,10 @@
         <v>270</v>
       </c>
       <c r="B261" t="s">
+        <v>478</v>
+      </c>
+      <c r="C261" t="s">
         <v>479</v>
-      </c>
-      <c r="C261" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -7127,10 +7168,10 @@
         <v>271</v>
       </c>
       <c r="B262" t="s">
+        <v>480</v>
+      </c>
+      <c r="C262" t="s">
         <v>481</v>
-      </c>
-      <c r="C262" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -7138,10 +7179,10 @@
         <v>272</v>
       </c>
       <c r="B263" t="s">
+        <v>482</v>
+      </c>
+      <c r="C263" t="s">
         <v>483</v>
-      </c>
-      <c r="C263" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -7149,10 +7190,10 @@
         <v>274</v>
       </c>
       <c r="B264" t="s">
+        <v>484</v>
+      </c>
+      <c r="C264" t="s">
         <v>485</v>
-      </c>
-      <c r="C264" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -7160,10 +7201,10 @@
         <v>275</v>
       </c>
       <c r="B265" t="s">
+        <v>486</v>
+      </c>
+      <c r="C265" t="s">
         <v>487</v>
-      </c>
-      <c r="C265" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -7171,10 +7212,10 @@
         <v>276</v>
       </c>
       <c r="B266" t="s">
+        <v>488</v>
+      </c>
+      <c r="C266" t="s">
         <v>489</v>
-      </c>
-      <c r="C266" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -7182,10 +7223,10 @@
         <v>277</v>
       </c>
       <c r="B267" t="s">
+        <v>490</v>
+      </c>
+      <c r="C267" t="s">
         <v>491</v>
-      </c>
-      <c r="C267" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -7193,10 +7234,10 @@
         <v>278</v>
       </c>
       <c r="B268" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C268" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -7204,10 +7245,10 @@
         <v>279</v>
       </c>
       <c r="B269" t="s">
+        <v>493</v>
+      </c>
+      <c r="C269" t="s">
         <v>494</v>
-      </c>
-      <c r="C269" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -7215,10 +7256,10 @@
         <v>280</v>
       </c>
       <c r="B270" t="s">
+        <v>495</v>
+      </c>
+      <c r="C270" t="s">
         <v>496</v>
-      </c>
-      <c r="C270" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -7226,10 +7267,10 @@
         <v>281</v>
       </c>
       <c r="B271" t="s">
+        <v>497</v>
+      </c>
+      <c r="C271" t="s">
         <v>498</v>
-      </c>
-      <c r="C271" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -7237,10 +7278,10 @@
         <v>282</v>
       </c>
       <c r="B272" t="s">
+        <v>499</v>
+      </c>
+      <c r="C272" t="s">
         <v>500</v>
-      </c>
-      <c r="C272" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -7248,10 +7289,10 @@
         <v>283</v>
       </c>
       <c r="B273" t="s">
+        <v>501</v>
+      </c>
+      <c r="C273" t="s">
         <v>502</v>
-      </c>
-      <c r="C273" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -7259,10 +7300,10 @@
         <v>284</v>
       </c>
       <c r="B274" t="s">
+        <v>503</v>
+      </c>
+      <c r="C274" t="s">
         <v>504</v>
-      </c>
-      <c r="C274" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -7270,10 +7311,10 @@
         <v>285</v>
       </c>
       <c r="B275" t="s">
+        <v>505</v>
+      </c>
+      <c r="C275" t="s">
         <v>506</v>
-      </c>
-      <c r="C275" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -7281,10 +7322,10 @@
         <v>286</v>
       </c>
       <c r="B276" t="s">
+        <v>507</v>
+      </c>
+      <c r="C276" t="s">
         <v>508</v>
-      </c>
-      <c r="C276" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -7292,10 +7333,10 @@
         <v>287</v>
       </c>
       <c r="B277" t="s">
+        <v>509</v>
+      </c>
+      <c r="C277" t="s">
         <v>510</v>
-      </c>
-      <c r="C277" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -7303,10 +7344,10 @@
         <v>288</v>
       </c>
       <c r="B278" t="s">
+        <v>511</v>
+      </c>
+      <c r="C278" t="s">
         <v>512</v>
-      </c>
-      <c r="C278" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -7314,10 +7355,10 @@
         <v>289</v>
       </c>
       <c r="B279" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C279" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -7325,10 +7366,10 @@
         <v>290</v>
       </c>
       <c r="B280" t="s">
+        <v>514</v>
+      </c>
+      <c r="C280" t="s">
         <v>515</v>
-      </c>
-      <c r="C280" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -7336,10 +7377,10 @@
         <v>291</v>
       </c>
       <c r="B281" t="s">
+        <v>516</v>
+      </c>
+      <c r="C281" t="s">
         <v>517</v>
-      </c>
-      <c r="C281" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -7347,10 +7388,10 @@
         <v>292</v>
       </c>
       <c r="B282" t="s">
+        <v>518</v>
+      </c>
+      <c r="C282" t="s">
         <v>519</v>
-      </c>
-      <c r="C282" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -7358,10 +7399,10 @@
         <v>293</v>
       </c>
       <c r="B283" t="s">
+        <v>520</v>
+      </c>
+      <c r="C283" t="s">
         <v>521</v>
-      </c>
-      <c r="C283" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -7369,10 +7410,10 @@
         <v>294</v>
       </c>
       <c r="B284" t="s">
+        <v>522</v>
+      </c>
+      <c r="C284" t="s">
         <v>523</v>
-      </c>
-      <c r="C284" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -7380,10 +7421,10 @@
         <v>295</v>
       </c>
       <c r="B285" t="s">
+        <v>524</v>
+      </c>
+      <c r="C285" t="s">
         <v>525</v>
-      </c>
-      <c r="C285" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -7391,10 +7432,10 @@
         <v>296</v>
       </c>
       <c r="B286" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C286" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -7402,10 +7443,10 @@
         <v>297</v>
       </c>
       <c r="B287" t="s">
+        <v>527</v>
+      </c>
+      <c r="C287" t="s">
         <v>528</v>
-      </c>
-      <c r="C287" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -7413,10 +7454,10 @@
         <v>298</v>
       </c>
       <c r="B288" t="s">
+        <v>529</v>
+      </c>
+      <c r="C288" t="s">
         <v>530</v>
-      </c>
-      <c r="C288" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -7424,10 +7465,10 @@
         <v>299</v>
       </c>
       <c r="B289" t="s">
+        <v>531</v>
+      </c>
+      <c r="C289" t="s">
         <v>532</v>
-      </c>
-      <c r="C289" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -7435,10 +7476,10 @@
         <v>300</v>
       </c>
       <c r="B290" t="s">
+        <v>533</v>
+      </c>
+      <c r="C290" t="s">
         <v>534</v>
-      </c>
-      <c r="C290" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -7446,10 +7487,10 @@
         <v>301</v>
       </c>
       <c r="B291" t="s">
+        <v>535</v>
+      </c>
+      <c r="C291" t="s">
         <v>536</v>
-      </c>
-      <c r="C291" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -7457,10 +7498,10 @@
         <v>302</v>
       </c>
       <c r="B292" t="s">
+        <v>537</v>
+      </c>
+      <c r="C292" t="s">
         <v>538</v>
-      </c>
-      <c r="C292" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -7468,10 +7509,10 @@
         <v>303</v>
       </c>
       <c r="B293" t="s">
+        <v>539</v>
+      </c>
+      <c r="C293" t="s">
         <v>540</v>
-      </c>
-      <c r="C293" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -7479,10 +7520,10 @@
         <v>304</v>
       </c>
       <c r="B294" t="s">
+        <v>541</v>
+      </c>
+      <c r="C294" t="s">
         <v>542</v>
-      </c>
-      <c r="C294" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -7490,10 +7531,10 @@
         <v>305</v>
       </c>
       <c r="B295" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C295" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -7501,10 +7542,10 @@
         <v>306</v>
       </c>
       <c r="B296" t="s">
+        <v>544</v>
+      </c>
+      <c r="C296" t="s">
         <v>545</v>
-      </c>
-      <c r="C296" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -7512,10 +7553,10 @@
         <v>307</v>
       </c>
       <c r="B297" t="s">
+        <v>546</v>
+      </c>
+      <c r="C297" t="s">
         <v>547</v>
-      </c>
-      <c r="C297" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -7523,10 +7564,10 @@
         <v>308</v>
       </c>
       <c r="B298" t="s">
+        <v>548</v>
+      </c>
+      <c r="C298" t="s">
         <v>549</v>
-      </c>
-      <c r="C298" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
@@ -7534,10 +7575,10 @@
         <v>309</v>
       </c>
       <c r="B299" t="s">
+        <v>550</v>
+      </c>
+      <c r="C299" t="s">
         <v>551</v>
-      </c>
-      <c r="C299" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
@@ -7545,10 +7586,10 @@
         <v>310</v>
       </c>
       <c r="B300" t="s">
+        <v>552</v>
+      </c>
+      <c r="C300" t="s">
         <v>553</v>
-      </c>
-      <c r="C300" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -7556,10 +7597,10 @@
         <v>311</v>
       </c>
       <c r="B301" t="s">
+        <v>554</v>
+      </c>
+      <c r="C301" t="s">
         <v>555</v>
-      </c>
-      <c r="C301" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -7567,10 +7608,10 @@
         <v>312</v>
       </c>
       <c r="B302" t="s">
+        <v>556</v>
+      </c>
+      <c r="C302" t="s">
         <v>557</v>
-      </c>
-      <c r="C302" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -7578,10 +7619,10 @@
         <v>313</v>
       </c>
       <c r="B303" t="s">
+        <v>558</v>
+      </c>
+      <c r="C303" t="s">
         <v>559</v>
-      </c>
-      <c r="C303" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -7589,10 +7630,10 @@
         <v>314</v>
       </c>
       <c r="B304" t="s">
+        <v>560</v>
+      </c>
+      <c r="C304" t="s">
         <v>561</v>
-      </c>
-      <c r="C304" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -7600,10 +7641,10 @@
         <v>315</v>
       </c>
       <c r="B305" t="s">
+        <v>562</v>
+      </c>
+      <c r="C305" t="s">
         <v>563</v>
-      </c>
-      <c r="C305" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -7611,10 +7652,10 @@
         <v>316</v>
       </c>
       <c r="B306" t="s">
+        <v>564</v>
+      </c>
+      <c r="C306" t="s">
         <v>565</v>
-      </c>
-      <c r="C306" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -7622,10 +7663,10 @@
         <v>317</v>
       </c>
       <c r="B307" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C307" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -7633,10 +7674,10 @@
         <v>318</v>
       </c>
       <c r="B308" t="s">
+        <v>567</v>
+      </c>
+      <c r="C308" t="s">
         <v>568</v>
-      </c>
-      <c r="C308" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -7644,10 +7685,10 @@
         <v>319</v>
       </c>
       <c r="B309" t="s">
+        <v>569</v>
+      </c>
+      <c r="C309" t="s">
         <v>570</v>
-      </c>
-      <c r="C309" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -7655,10 +7696,10 @@
         <v>320</v>
       </c>
       <c r="B310" t="s">
+        <v>571</v>
+      </c>
+      <c r="C310" t="s">
         <v>572</v>
-      </c>
-      <c r="C310" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -7666,10 +7707,10 @@
         <v>321</v>
       </c>
       <c r="B311" t="s">
+        <v>573</v>
+      </c>
+      <c r="C311" t="s">
         <v>574</v>
-      </c>
-      <c r="C311" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -7677,10 +7718,10 @@
         <v>322</v>
       </c>
       <c r="B312" t="s">
+        <v>575</v>
+      </c>
+      <c r="C312" t="s">
         <v>576</v>
-      </c>
-      <c r="C312" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -7688,10 +7729,10 @@
         <v>323</v>
       </c>
       <c r="B313" t="s">
+        <v>577</v>
+      </c>
+      <c r="C313" t="s">
         <v>578</v>
-      </c>
-      <c r="C313" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -7699,10 +7740,10 @@
         <v>324</v>
       </c>
       <c r="B314" t="s">
+        <v>579</v>
+      </c>
+      <c r="C314" t="s">
         <v>580</v>
-      </c>
-      <c r="C314" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -7710,10 +7751,10 @@
         <v>325</v>
       </c>
       <c r="B315" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C315" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -7721,10 +7762,10 @@
         <v>326</v>
       </c>
       <c r="B316" t="s">
+        <v>582</v>
+      </c>
+      <c r="C316" t="s">
         <v>583</v>
-      </c>
-      <c r="C316" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -7732,10 +7773,10 @@
         <v>327</v>
       </c>
       <c r="B317" t="s">
+        <v>584</v>
+      </c>
+      <c r="C317" t="s">
         <v>585</v>
-      </c>
-      <c r="C317" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -7743,10 +7784,10 @@
         <v>328</v>
       </c>
       <c r="B318" t="s">
+        <v>586</v>
+      </c>
+      <c r="C318" t="s">
         <v>587</v>
-      </c>
-      <c r="C318" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -7754,10 +7795,10 @@
         <v>329</v>
       </c>
       <c r="B319" t="s">
+        <v>588</v>
+      </c>
+      <c r="C319" t="s">
         <v>589</v>
-      </c>
-      <c r="C319" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -7765,10 +7806,10 @@
         <v>330</v>
       </c>
       <c r="B320" t="s">
+        <v>590</v>
+      </c>
+      <c r="C320" t="s">
         <v>591</v>
-      </c>
-      <c r="C320" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -7776,10 +7817,10 @@
         <v>331</v>
       </c>
       <c r="B321" t="s">
+        <v>592</v>
+      </c>
+      <c r="C321" t="s">
         <v>593</v>
-      </c>
-      <c r="C321" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -7787,10 +7828,10 @@
         <v>332</v>
       </c>
       <c r="B322" t="s">
+        <v>594</v>
+      </c>
+      <c r="C322" t="s">
         <v>595</v>
-      </c>
-      <c r="C322" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -7798,10 +7839,10 @@
         <v>333</v>
       </c>
       <c r="B323" t="s">
+        <v>596</v>
+      </c>
+      <c r="C323" t="s">
         <v>597</v>
-      </c>
-      <c r="C323" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -7809,10 +7850,10 @@
         <v>334</v>
       </c>
       <c r="B324" t="s">
+        <v>598</v>
+      </c>
+      <c r="C324" t="s">
         <v>599</v>
-      </c>
-      <c r="C324" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -7820,10 +7861,10 @@
         <v>335</v>
       </c>
       <c r="B325" t="s">
+        <v>600</v>
+      </c>
+      <c r="C325" t="s">
         <v>601</v>
-      </c>
-      <c r="C325" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -7831,10 +7872,10 @@
         <v>336</v>
       </c>
       <c r="B326" t="s">
+        <v>602</v>
+      </c>
+      <c r="C326" t="s">
         <v>603</v>
-      </c>
-      <c r="C326" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -7842,10 +7883,10 @@
         <v>337</v>
       </c>
       <c r="B327" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="C327" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -7853,10 +7894,10 @@
         <v>338</v>
       </c>
       <c r="B328" t="s">
+        <v>604</v>
+      </c>
+      <c r="C328" t="s">
         <v>605</v>
-      </c>
-      <c r="C328" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -7864,10 +7905,10 @@
         <v>339</v>
       </c>
       <c r="B329" t="s">
+        <v>606</v>
+      </c>
+      <c r="C329" t="s">
         <v>607</v>
-      </c>
-      <c r="C329" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -7875,10 +7916,10 @@
         <v>340</v>
       </c>
       <c r="B330" t="s">
+        <v>608</v>
+      </c>
+      <c r="C330" t="s">
         <v>609</v>
-      </c>
-      <c r="C330" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -7886,10 +7927,10 @@
         <v>341</v>
       </c>
       <c r="B331" t="s">
+        <v>610</v>
+      </c>
+      <c r="C331" t="s">
         <v>611</v>
-      </c>
-      <c r="C331" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -7897,10 +7938,10 @@
         <v>342</v>
       </c>
       <c r="B332" t="s">
+        <v>612</v>
+      </c>
+      <c r="C332" t="s">
         <v>613</v>
-      </c>
-      <c r="C332" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -7908,10 +7949,10 @@
         <v>343</v>
       </c>
       <c r="B333" t="s">
+        <v>614</v>
+      </c>
+      <c r="C333" t="s">
         <v>615</v>
-      </c>
-      <c r="C333" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -7919,10 +7960,10 @@
         <v>344</v>
       </c>
       <c r="B334" t="s">
+        <v>616</v>
+      </c>
+      <c r="C334" t="s">
         <v>617</v>
-      </c>
-      <c r="C334" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -7930,10 +7971,10 @@
         <v>345</v>
       </c>
       <c r="B335" t="s">
+        <v>618</v>
+      </c>
+      <c r="C335" t="s">
         <v>619</v>
-      </c>
-      <c r="C335" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -7941,10 +7982,10 @@
         <v>346</v>
       </c>
       <c r="B336" t="s">
+        <v>620</v>
+      </c>
+      <c r="C336" t="s">
         <v>621</v>
-      </c>
-      <c r="C336" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
@@ -7952,10 +7993,10 @@
         <v>347</v>
       </c>
       <c r="B337" t="s">
+        <v>622</v>
+      </c>
+      <c r="C337" t="s">
         <v>623</v>
-      </c>
-      <c r="C337" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -7963,10 +8004,10 @@
         <v>348</v>
       </c>
       <c r="B338" t="s">
+        <v>624</v>
+      </c>
+      <c r="C338" t="s">
         <v>625</v>
-      </c>
-      <c r="C338" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -7974,10 +8015,10 @@
         <v>349</v>
       </c>
       <c r="B339" t="s">
+        <v>626</v>
+      </c>
+      <c r="C339" t="s">
         <v>627</v>
-      </c>
-      <c r="C339" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -7985,10 +8026,10 @@
         <v>350</v>
       </c>
       <c r="B340" t="s">
+        <v>628</v>
+      </c>
+      <c r="C340" t="s">
         <v>629</v>
-      </c>
-      <c r="C340" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
@@ -7996,10 +8037,10 @@
         <v>351</v>
       </c>
       <c r="B341" t="s">
+        <v>630</v>
+      </c>
+      <c r="C341" t="s">
         <v>631</v>
-      </c>
-      <c r="C341" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -8007,10 +8048,10 @@
         <v>352</v>
       </c>
       <c r="B342" t="s">
+        <v>632</v>
+      </c>
+      <c r="C342" t="s">
         <v>633</v>
-      </c>
-      <c r="C342" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -8018,10 +8059,10 @@
         <v>353</v>
       </c>
       <c r="B343" t="s">
+        <v>634</v>
+      </c>
+      <c r="C343" t="s">
         <v>635</v>
-      </c>
-      <c r="C343" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -8029,10 +8070,10 @@
         <v>354</v>
       </c>
       <c r="B344" t="s">
+        <v>636</v>
+      </c>
+      <c r="C344" t="s">
         <v>637</v>
-      </c>
-      <c r="C344" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -8040,10 +8081,10 @@
         <v>355</v>
       </c>
       <c r="B345" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C345" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -8051,10 +8092,10 @@
         <v>356</v>
       </c>
       <c r="B346" t="s">
+        <v>639</v>
+      </c>
+      <c r="C346" t="s">
         <v>640</v>
-      </c>
-      <c r="C346" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -8062,10 +8103,10 @@
         <v>357</v>
       </c>
       <c r="B347" t="s">
+        <v>641</v>
+      </c>
+      <c r="C347" t="s">
         <v>642</v>
-      </c>
-      <c r="C347" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -8073,10 +8114,10 @@
         <v>358</v>
       </c>
       <c r="B348" t="s">
+        <v>643</v>
+      </c>
+      <c r="C348" t="s">
         <v>644</v>
-      </c>
-      <c r="C348" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -8084,10 +8125,10 @@
         <v>359</v>
       </c>
       <c r="B349" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C349" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -8095,10 +8136,10 @@
         <v>360</v>
       </c>
       <c r="B350" t="s">
+        <v>646</v>
+      </c>
+      <c r="C350" t="s">
         <v>647</v>
-      </c>
-      <c r="C350" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -8106,10 +8147,10 @@
         <v>361</v>
       </c>
       <c r="B351" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C351" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -8117,10 +8158,10 @@
         <v>362</v>
       </c>
       <c r="B352" t="s">
+        <v>649</v>
+      </c>
+      <c r="C352" t="s">
         <v>650</v>
-      </c>
-      <c r="C352" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
@@ -8128,10 +8169,10 @@
         <v>363</v>
       </c>
       <c r="B353" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C353" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -8139,10 +8180,10 @@
         <v>364</v>
       </c>
       <c r="B354" t="s">
+        <v>652</v>
+      </c>
+      <c r="C354" t="s">
         <v>653</v>
-      </c>
-      <c r="C354" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
@@ -8150,10 +8191,10 @@
         <v>365</v>
       </c>
       <c r="B355" t="s">
+        <v>654</v>
+      </c>
+      <c r="C355" t="s">
         <v>655</v>
-      </c>
-      <c r="C355" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
@@ -8161,10 +8202,10 @@
         <v>366</v>
       </c>
       <c r="B356" t="s">
+        <v>656</v>
+      </c>
+      <c r="C356" t="s">
         <v>657</v>
-      </c>
-      <c r="C356" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
@@ -8172,10 +8213,10 @@
         <v>367</v>
       </c>
       <c r="B357" t="s">
+        <v>658</v>
+      </c>
+      <c r="C357" t="s">
         <v>659</v>
-      </c>
-      <c r="C357" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
@@ -8183,10 +8224,10 @@
         <v>368</v>
       </c>
       <c r="B358" t="s">
+        <v>660</v>
+      </c>
+      <c r="C358" t="s">
         <v>661</v>
-      </c>
-      <c r="C358" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
@@ -8194,10 +8235,10 @@
         <v>369</v>
       </c>
       <c r="B359" t="s">
+        <v>662</v>
+      </c>
+      <c r="C359" t="s">
         <v>663</v>
-      </c>
-      <c r="C359" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
@@ -8205,10 +8246,10 @@
         <v>370</v>
       </c>
       <c r="B360" t="s">
+        <v>664</v>
+      </c>
+      <c r="C360" t="s">
         <v>665</v>
-      </c>
-      <c r="C360" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
@@ -8216,10 +8257,10 @@
         <v>371</v>
       </c>
       <c r="B361" t="s">
+        <v>666</v>
+      </c>
+      <c r="C361" t="s">
         <v>667</v>
-      </c>
-      <c r="C361" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
@@ -8227,10 +8268,10 @@
         <v>372</v>
       </c>
       <c r="B362" t="s">
+        <v>668</v>
+      </c>
+      <c r="C362" t="s">
         <v>669</v>
-      </c>
-      <c r="C362" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
@@ -8238,10 +8279,10 @@
         <v>373</v>
       </c>
       <c r="B363" t="s">
+        <v>670</v>
+      </c>
+      <c r="C363" t="s">
         <v>671</v>
-      </c>
-      <c r="C363" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
@@ -8249,10 +8290,10 @@
         <v>374</v>
       </c>
       <c r="B364" t="s">
+        <v>672</v>
+      </c>
+      <c r="C364" t="s">
         <v>673</v>
-      </c>
-      <c r="C364" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
@@ -8260,10 +8301,10 @@
         <v>375</v>
       </c>
       <c r="B365" t="s">
+        <v>674</v>
+      </c>
+      <c r="C365" t="s">
         <v>675</v>
-      </c>
-      <c r="C365" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
@@ -8271,10 +8312,10 @@
         <v>376</v>
       </c>
       <c r="B366" t="s">
+        <v>676</v>
+      </c>
+      <c r="C366" t="s">
         <v>677</v>
-      </c>
-      <c r="C366" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
@@ -8282,10 +8323,10 @@
         <v>377</v>
       </c>
       <c r="B367" t="s">
+        <v>678</v>
+      </c>
+      <c r="C367" t="s">
         <v>679</v>
-      </c>
-      <c r="C367" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
@@ -8293,10 +8334,10 @@
         <v>378</v>
       </c>
       <c r="B368" t="s">
+        <v>680</v>
+      </c>
+      <c r="C368" t="s">
         <v>681</v>
-      </c>
-      <c r="C368" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -8304,10 +8345,10 @@
         <v>379</v>
       </c>
       <c r="B369" t="s">
+        <v>682</v>
+      </c>
+      <c r="C369" t="s">
         <v>683</v>
-      </c>
-      <c r="C369" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
@@ -8315,10 +8356,10 @@
         <v>380</v>
       </c>
       <c r="B370" t="s">
+        <v>684</v>
+      </c>
+      <c r="C370" t="s">
         <v>685</v>
-      </c>
-      <c r="C370" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
@@ -8326,10 +8367,10 @@
         <v>381</v>
       </c>
       <c r="B371" t="s">
+        <v>686</v>
+      </c>
+      <c r="C371" t="s">
         <v>687</v>
-      </c>
-      <c r="C371" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -8337,10 +8378,10 @@
         <v>382</v>
       </c>
       <c r="B372" t="s">
+        <v>688</v>
+      </c>
+      <c r="C372" t="s">
         <v>689</v>
-      </c>
-      <c r="C372" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -8348,10 +8389,10 @@
         <v>383</v>
       </c>
       <c r="B373" t="s">
+        <v>690</v>
+      </c>
+      <c r="C373" t="s">
         <v>691</v>
-      </c>
-      <c r="C373" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
@@ -8359,10 +8400,10 @@
         <v>384</v>
       </c>
       <c r="B374" t="s">
+        <v>692</v>
+      </c>
+      <c r="C374" t="s">
         <v>693</v>
-      </c>
-      <c r="C374" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -8370,10 +8411,10 @@
         <v>385</v>
       </c>
       <c r="B375" t="s">
+        <v>694</v>
+      </c>
+      <c r="C375" t="s">
         <v>695</v>
-      </c>
-      <c r="C375" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -8381,10 +8422,10 @@
         <v>386</v>
       </c>
       <c r="B376" t="s">
+        <v>696</v>
+      </c>
+      <c r="C376" t="s">
         <v>697</v>
-      </c>
-      <c r="C376" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
@@ -8392,10 +8433,10 @@
         <v>387</v>
       </c>
       <c r="B377" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C377" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
@@ -8403,10 +8444,10 @@
         <v>388</v>
       </c>
       <c r="B378" t="s">
+        <v>699</v>
+      </c>
+      <c r="C378" t="s">
         <v>700</v>
-      </c>
-      <c r="C378" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
@@ -8414,10 +8455,10 @@
         <v>389</v>
       </c>
       <c r="B379" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C379" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -8425,10 +8466,10 @@
         <v>390</v>
       </c>
       <c r="B380" t="s">
+        <v>702</v>
+      </c>
+      <c r="C380" t="s">
         <v>703</v>
-      </c>
-      <c r="C380" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -8436,10 +8477,10 @@
         <v>391</v>
       </c>
       <c r="B381" t="s">
+        <v>704</v>
+      </c>
+      <c r="C381" t="s">
         <v>705</v>
-      </c>
-      <c r="C381" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -8447,10 +8488,10 @@
         <v>392</v>
       </c>
       <c r="B382" t="s">
+        <v>706</v>
+      </c>
+      <c r="C382" t="s">
         <v>707</v>
-      </c>
-      <c r="C382" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
@@ -8458,10 +8499,10 @@
         <v>393</v>
       </c>
       <c r="B383" t="s">
+        <v>708</v>
+      </c>
+      <c r="C383" t="s">
         <v>709</v>
-      </c>
-      <c r="C383" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -8469,10 +8510,10 @@
         <v>394</v>
       </c>
       <c r="B384" t="s">
+        <v>710</v>
+      </c>
+      <c r="C384" t="s">
         <v>711</v>
-      </c>
-      <c r="C384" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
@@ -8480,10 +8521,10 @@
         <v>395</v>
       </c>
       <c r="B385" t="s">
+        <v>712</v>
+      </c>
+      <c r="C385" t="s">
         <v>713</v>
-      </c>
-      <c r="C385" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
@@ -8491,10 +8532,10 @@
         <v>396</v>
       </c>
       <c r="B386" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C386" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
@@ -8502,10 +8543,10 @@
         <v>397</v>
       </c>
       <c r="B387" t="s">
+        <v>715</v>
+      </c>
+      <c r="C387" t="s">
         <v>716</v>
-      </c>
-      <c r="C387" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -8513,10 +8554,10 @@
         <v>398</v>
       </c>
       <c r="B388" t="s">
+        <v>717</v>
+      </c>
+      <c r="C388" t="s">
         <v>718</v>
-      </c>
-      <c r="C388" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -8524,10 +8565,10 @@
         <v>399</v>
       </c>
       <c r="B389" t="s">
+        <v>719</v>
+      </c>
+      <c r="C389" t="s">
         <v>720</v>
-      </c>
-      <c r="C389" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -8535,10 +8576,10 @@
         <v>400</v>
       </c>
       <c r="B390" t="s">
+        <v>721</v>
+      </c>
+      <c r="C390" t="s">
         <v>722</v>
-      </c>
-      <c r="C390" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
@@ -8546,10 +8587,10 @@
         <v>401</v>
       </c>
       <c r="B391" t="s">
+        <v>723</v>
+      </c>
+      <c r="C391" t="s">
         <v>724</v>
-      </c>
-      <c r="C391" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
@@ -8557,10 +8598,10 @@
         <v>402</v>
       </c>
       <c r="B392" t="s">
+        <v>725</v>
+      </c>
+      <c r="C392" t="s">
         <v>726</v>
-      </c>
-      <c r="C392" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
@@ -8568,10 +8609,10 @@
         <v>403</v>
       </c>
       <c r="B393" t="s">
+        <v>727</v>
+      </c>
+      <c r="C393" t="s">
         <v>728</v>
-      </c>
-      <c r="C393" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -8579,10 +8620,10 @@
         <v>404</v>
       </c>
       <c r="B394" t="s">
+        <v>729</v>
+      </c>
+      <c r="C394" t="s">
         <v>730</v>
-      </c>
-      <c r="C394" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -8590,10 +8631,10 @@
         <v>405</v>
       </c>
       <c r="B395" t="s">
+        <v>731</v>
+      </c>
+      <c r="C395" t="s">
         <v>732</v>
-      </c>
-      <c r="C395" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
@@ -8601,10 +8642,10 @@
         <v>406</v>
       </c>
       <c r="B396" t="s">
+        <v>733</v>
+      </c>
+      <c r="C396" t="s">
         <v>734</v>
-      </c>
-      <c r="C396" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -8612,10 +8653,10 @@
         <v>407</v>
       </c>
       <c r="B397" t="s">
+        <v>735</v>
+      </c>
+      <c r="C397" t="s">
         <v>736</v>
-      </c>
-      <c r="C397" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -8623,10 +8664,10 @@
         <v>408</v>
       </c>
       <c r="B398" t="s">
+        <v>737</v>
+      </c>
+      <c r="C398" t="s">
         <v>738</v>
-      </c>
-      <c r="C398" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -8634,10 +8675,10 @@
         <v>409</v>
       </c>
       <c r="B399" t="s">
+        <v>739</v>
+      </c>
+      <c r="C399" t="s">
         <v>740</v>
-      </c>
-      <c r="C399" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -8645,10 +8686,10 @@
         <v>410</v>
       </c>
       <c r="B400" t="s">
+        <v>741</v>
+      </c>
+      <c r="C400" t="s">
         <v>742</v>
-      </c>
-      <c r="C400" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
@@ -8656,10 +8697,10 @@
         <v>411</v>
       </c>
       <c r="B401" t="s">
+        <v>743</v>
+      </c>
+      <c r="C401" t="s">
         <v>744</v>
-      </c>
-      <c r="C401" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
@@ -8667,10 +8708,10 @@
         <v>412</v>
       </c>
       <c r="B402" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C402" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
@@ -8678,10 +8719,10 @@
         <v>413</v>
       </c>
       <c r="B403" t="s">
+        <v>746</v>
+      </c>
+      <c r="C403" t="s">
         <v>747</v>
-      </c>
-      <c r="C403" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
@@ -8689,10 +8730,10 @@
         <v>414</v>
       </c>
       <c r="B404" t="s">
+        <v>748</v>
+      </c>
+      <c r="C404" t="s">
         <v>749</v>
-      </c>
-      <c r="C404" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
@@ -8700,10 +8741,10 @@
         <v>415</v>
       </c>
       <c r="B405" t="s">
+        <v>750</v>
+      </c>
+      <c r="C405" t="s">
         <v>751</v>
-      </c>
-      <c r="C405" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
@@ -8711,10 +8752,10 @@
         <v>416</v>
       </c>
       <c r="B406" t="s">
+        <v>752</v>
+      </c>
+      <c r="C406" t="s">
         <v>753</v>
-      </c>
-      <c r="C406" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
@@ -8722,10 +8763,10 @@
         <v>417</v>
       </c>
       <c r="B407" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C407" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
@@ -8733,10 +8774,10 @@
         <v>418</v>
       </c>
       <c r="B408" t="s">
+        <v>755</v>
+      </c>
+      <c r="C408" t="s">
         <v>756</v>
-      </c>
-      <c r="C408" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
@@ -8744,10 +8785,10 @@
         <v>419</v>
       </c>
       <c r="B409" t="s">
+        <v>757</v>
+      </c>
+      <c r="C409" t="s">
         <v>758</v>
-      </c>
-      <c r="C409" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
@@ -8755,10 +8796,10 @@
         <v>420</v>
       </c>
       <c r="B410" t="s">
+        <v>759</v>
+      </c>
+      <c r="C410" t="s">
         <v>760</v>
-      </c>
-      <c r="C410" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
@@ -8766,10 +8807,10 @@
         <v>421</v>
       </c>
       <c r="B411" t="s">
+        <v>761</v>
+      </c>
+      <c r="C411" t="s">
         <v>762</v>
-      </c>
-      <c r="C411" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
@@ -8777,10 +8818,10 @@
         <v>422</v>
       </c>
       <c r="B412" t="s">
+        <v>763</v>
+      </c>
+      <c r="C412" t="s">
         <v>764</v>
-      </c>
-      <c r="C412" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
@@ -8788,10 +8829,10 @@
         <v>423</v>
       </c>
       <c r="B413" t="s">
+        <v>765</v>
+      </c>
+      <c r="C413" t="s">
         <v>766</v>
-      </c>
-      <c r="C413" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
@@ -8799,10 +8840,10 @@
         <v>424</v>
       </c>
       <c r="B414" t="s">
+        <v>767</v>
+      </c>
+      <c r="C414" t="s">
         <v>768</v>
-      </c>
-      <c r="C414" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
@@ -8810,10 +8851,10 @@
         <v>425</v>
       </c>
       <c r="B415" t="s">
+        <v>769</v>
+      </c>
+      <c r="C415" t="s">
         <v>770</v>
-      </c>
-      <c r="C415" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
@@ -8821,10 +8862,10 @@
         <v>426</v>
       </c>
       <c r="B416" t="s">
+        <v>771</v>
+      </c>
+      <c r="C416" t="s">
         <v>772</v>
-      </c>
-      <c r="C416" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
@@ -8832,10 +8873,10 @@
         <v>427</v>
       </c>
       <c r="B417" t="s">
+        <v>773</v>
+      </c>
+      <c r="C417" t="s">
         <v>774</v>
-      </c>
-      <c r="C417" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
@@ -8843,10 +8884,10 @@
         <v>428</v>
       </c>
       <c r="B418" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C418" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
@@ -8854,10 +8895,10 @@
         <v>429</v>
       </c>
       <c r="B419" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C419" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
@@ -8865,10 +8906,10 @@
         <v>430</v>
       </c>
       <c r="B420" t="s">
+        <v>777</v>
+      </c>
+      <c r="C420" t="s">
         <v>778</v>
-      </c>
-      <c r="C420" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
@@ -8876,10 +8917,10 @@
         <v>431</v>
       </c>
       <c r="B421" t="s">
+        <v>779</v>
+      </c>
+      <c r="C421" t="s">
         <v>780</v>
-      </c>
-      <c r="C421" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
@@ -8887,10 +8928,10 @@
         <v>432</v>
       </c>
       <c r="B422" t="s">
+        <v>781</v>
+      </c>
+      <c r="C422" t="s">
         <v>782</v>
-      </c>
-      <c r="C422" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
@@ -8898,10 +8939,10 @@
         <v>433</v>
       </c>
       <c r="B423" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C423" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
@@ -8909,10 +8950,10 @@
         <v>434</v>
       </c>
       <c r="B424" t="s">
+        <v>784</v>
+      </c>
+      <c r="C424" t="s">
         <v>785</v>
-      </c>
-      <c r="C424" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
@@ -8920,10 +8961,10 @@
         <v>435</v>
       </c>
       <c r="B425" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C425" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
@@ -8931,10 +8972,10 @@
         <v>436</v>
       </c>
       <c r="B426" t="s">
+        <v>787</v>
+      </c>
+      <c r="C426" t="s">
         <v>788</v>
-      </c>
-      <c r="C426" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
@@ -8942,10 +8983,10 @@
         <v>437</v>
       </c>
       <c r="B427" t="s">
+        <v>789</v>
+      </c>
+      <c r="C427" t="s">
         <v>790</v>
-      </c>
-      <c r="C427" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
@@ -8953,10 +8994,10 @@
         <v>438</v>
       </c>
       <c r="B428" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C428" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
@@ -8964,10 +9005,10 @@
         <v>439</v>
       </c>
       <c r="B429" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C429" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
@@ -8975,10 +9016,10 @@
         <v>440</v>
       </c>
       <c r="B430" t="s">
+        <v>793</v>
+      </c>
+      <c r="C430" t="s">
         <v>794</v>
-      </c>
-      <c r="C430" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
@@ -8986,10 +9027,10 @@
         <v>441</v>
       </c>
       <c r="B431" t="s">
+        <v>795</v>
+      </c>
+      <c r="C431" t="s">
         <v>796</v>
-      </c>
-      <c r="C431" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
@@ -8997,10 +9038,10 @@
         <v>442</v>
       </c>
       <c r="B432" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C432" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
@@ -9008,10 +9049,10 @@
         <v>443</v>
       </c>
       <c r="B433" t="s">
+        <v>798</v>
+      </c>
+      <c r="C433" t="s">
         <v>799</v>
-      </c>
-      <c r="C433" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
@@ -9019,10 +9060,10 @@
         <v>444</v>
       </c>
       <c r="B434" t="s">
+        <v>800</v>
+      </c>
+      <c r="C434" t="s">
         <v>801</v>
-      </c>
-      <c r="C434" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
@@ -9030,10 +9071,10 @@
         <v>445</v>
       </c>
       <c r="B435" t="s">
+        <v>802</v>
+      </c>
+      <c r="C435" t="s">
         <v>803</v>
-      </c>
-      <c r="C435" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
@@ -9041,10 +9082,10 @@
         <v>446</v>
       </c>
       <c r="B436" t="s">
+        <v>804</v>
+      </c>
+      <c r="C436" t="s">
         <v>805</v>
-      </c>
-      <c r="C436" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
@@ -9052,10 +9093,10 @@
         <v>447</v>
       </c>
       <c r="B437" t="s">
+        <v>806</v>
+      </c>
+      <c r="C437" t="s">
         <v>807</v>
-      </c>
-      <c r="C437" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
@@ -9063,10 +9104,10 @@
         <v>448</v>
       </c>
       <c r="B438" t="s">
+        <v>808</v>
+      </c>
+      <c r="C438" t="s">
         <v>809</v>
-      </c>
-      <c r="C438" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
@@ -9074,10 +9115,10 @@
         <v>449</v>
       </c>
       <c r="B439" t="s">
+        <v>810</v>
+      </c>
+      <c r="C439" t="s">
         <v>811</v>
-      </c>
-      <c r="C439" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
@@ -9085,10 +9126,10 @@
         <v>450</v>
       </c>
       <c r="B440" t="s">
+        <v>812</v>
+      </c>
+      <c r="C440" t="s">
         <v>813</v>
-      </c>
-      <c r="C440" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
@@ -9096,10 +9137,10 @@
         <v>451</v>
       </c>
       <c r="B441" t="s">
+        <v>814</v>
+      </c>
+      <c r="C441" t="s">
         <v>815</v>
-      </c>
-      <c r="C441" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
@@ -9107,10 +9148,10 @@
         <v>452</v>
       </c>
       <c r="B442" t="s">
+        <v>816</v>
+      </c>
+      <c r="C442" t="s">
         <v>817</v>
-      </c>
-      <c r="C442" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
@@ -9118,10 +9159,10 @@
         <v>453</v>
       </c>
       <c r="B443" t="s">
+        <v>818</v>
+      </c>
+      <c r="C443" t="s">
         <v>819</v>
-      </c>
-      <c r="C443" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
@@ -9129,10 +9170,10 @@
         <v>455</v>
       </c>
       <c r="B444" t="s">
+        <v>820</v>
+      </c>
+      <c r="C444" t="s">
         <v>821</v>
-      </c>
-      <c r="C444" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
@@ -9140,10 +9181,10 @@
         <v>456</v>
       </c>
       <c r="B445" t="s">
+        <v>822</v>
+      </c>
+      <c r="C445" t="s">
         <v>823</v>
-      </c>
-      <c r="C445" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
@@ -9151,10 +9192,10 @@
         <v>457</v>
       </c>
       <c r="B446" t="s">
+        <v>824</v>
+      </c>
+      <c r="C446" t="s">
         <v>825</v>
-      </c>
-      <c r="C446" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
@@ -9162,10 +9203,10 @@
         <v>458</v>
       </c>
       <c r="B447" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C447" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
@@ -9173,10 +9214,10 @@
         <v>459</v>
       </c>
       <c r="B448" t="s">
+        <v>827</v>
+      </c>
+      <c r="C448" t="s">
         <v>828</v>
-      </c>
-      <c r="C448" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
@@ -9184,10 +9225,10 @@
         <v>460</v>
       </c>
       <c r="B449" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C449" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
@@ -9195,10 +9236,10 @@
         <v>461</v>
       </c>
       <c r="B450" t="s">
+        <v>830</v>
+      </c>
+      <c r="C450" t="s">
         <v>831</v>
-      </c>
-      <c r="C450" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
@@ -9206,10 +9247,10 @@
         <v>462</v>
       </c>
       <c r="B451" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C451" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
@@ -9217,10 +9258,10 @@
         <v>463</v>
       </c>
       <c r="B452" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C452" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
@@ -9228,10 +9269,10 @@
         <v>464</v>
       </c>
       <c r="B453" t="s">
+        <v>833</v>
+      </c>
+      <c r="C453" t="s">
         <v>834</v>
-      </c>
-      <c r="C453" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
@@ -9239,10 +9280,10 @@
         <v>465</v>
       </c>
       <c r="B454" t="s">
+        <v>835</v>
+      </c>
+      <c r="C454" t="s">
         <v>836</v>
-      </c>
-      <c r="C454" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
@@ -9250,10 +9291,10 @@
         <v>466</v>
       </c>
       <c r="B455" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C455" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
@@ -9261,10 +9302,10 @@
         <v>467</v>
       </c>
       <c r="B456" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C456" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
@@ -9272,10 +9313,10 @@
         <v>468</v>
       </c>
       <c r="B457" t="s">
+        <v>838</v>
+      </c>
+      <c r="C457" t="s">
         <v>839</v>
-      </c>
-      <c r="C457" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
@@ -9283,10 +9324,10 @@
         <v>469</v>
       </c>
       <c r="B458" t="s">
+        <v>840</v>
+      </c>
+      <c r="C458" t="s">
         <v>841</v>
-      </c>
-      <c r="C458" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
@@ -9294,10 +9335,10 @@
         <v>470</v>
       </c>
       <c r="B459" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C459" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
@@ -9305,7 +9346,7 @@
         <v>471</v>
       </c>
       <c r="B460" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
@@ -9313,10 +9354,10 @@
         <v>472</v>
       </c>
       <c r="B461" t="s">
+        <v>844</v>
+      </c>
+      <c r="C461" t="s">
         <v>845</v>
-      </c>
-      <c r="C461" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
@@ -9324,10 +9365,10 @@
         <v>473</v>
       </c>
       <c r="B462" t="s">
+        <v>846</v>
+      </c>
+      <c r="C462" t="s">
         <v>847</v>
-      </c>
-      <c r="C462" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
@@ -9335,10 +9376,10 @@
         <v>474</v>
       </c>
       <c r="B463" t="s">
+        <v>848</v>
+      </c>
+      <c r="C463" t="s">
         <v>849</v>
-      </c>
-      <c r="C463" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
@@ -9346,10 +9387,10 @@
         <v>475</v>
       </c>
       <c r="B464" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C464" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
@@ -9357,10 +9398,10 @@
         <v>476</v>
       </c>
       <c r="B465" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C465" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
@@ -9368,10 +9409,10 @@
         <v>477</v>
       </c>
       <c r="B466" t="s">
+        <v>852</v>
+      </c>
+      <c r="C466" t="s">
         <v>853</v>
-      </c>
-      <c r="C466" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
@@ -9379,10 +9420,10 @@
         <v>478</v>
       </c>
       <c r="B467" t="s">
+        <v>854</v>
+      </c>
+      <c r="C467" t="s">
         <v>855</v>
-      </c>
-      <c r="C467" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
@@ -9390,10 +9431,10 @@
         <v>479</v>
       </c>
       <c r="B468" t="s">
+        <v>856</v>
+      </c>
+      <c r="C468" t="s">
         <v>857</v>
-      </c>
-      <c r="C468" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
@@ -9401,10 +9442,10 @@
         <v>480</v>
       </c>
       <c r="B469" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C469" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
@@ -9412,10 +9453,10 @@
         <v>481</v>
       </c>
       <c r="B470" t="s">
+        <v>859</v>
+      </c>
+      <c r="C470" t="s">
         <v>860</v>
-      </c>
-      <c r="C470" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
@@ -9423,10 +9464,10 @@
         <v>482</v>
       </c>
       <c r="B471" t="s">
+        <v>861</v>
+      </c>
+      <c r="C471" t="s">
         <v>862</v>
-      </c>
-      <c r="C471" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
@@ -9434,10 +9475,10 @@
         <v>483</v>
       </c>
       <c r="B472" t="s">
+        <v>863</v>
+      </c>
+      <c r="C472" t="s">
         <v>864</v>
-      </c>
-      <c r="C472" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="473" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
@@ -9445,10 +9486,10 @@
         <v>484</v>
       </c>
       <c r="B473" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="C473" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
@@ -9456,10 +9497,10 @@
         <v>485</v>
       </c>
       <c r="B474" t="s">
+        <v>865</v>
+      </c>
+      <c r="C474" t="s">
         <v>866</v>
-      </c>
-      <c r="C474" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
@@ -9467,10 +9508,10 @@
         <v>486</v>
       </c>
       <c r="B475" t="s">
+        <v>867</v>
+      </c>
+      <c r="C475" t="s">
         <v>868</v>
-      </c>
-      <c r="C475" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
@@ -9478,10 +9519,10 @@
         <v>487</v>
       </c>
       <c r="B476" t="s">
+        <v>869</v>
+      </c>
+      <c r="C476" t="s">
         <v>870</v>
-      </c>
-      <c r="C476" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
@@ -9489,10 +9530,10 @@
         <v>488</v>
       </c>
       <c r="B477" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C477" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
@@ -9500,10 +9541,10 @@
         <v>489</v>
       </c>
       <c r="B478" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C478" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
@@ -9511,10 +9552,10 @@
         <v>490</v>
       </c>
       <c r="B479" t="s">
+        <v>873</v>
+      </c>
+      <c r="C479" t="s">
         <v>874</v>
-      </c>
-      <c r="C479" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
@@ -9522,10 +9563,10 @@
         <v>491</v>
       </c>
       <c r="B480" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C480" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
@@ -9533,10 +9574,10 @@
         <v>492</v>
       </c>
       <c r="B481" t="s">
+        <v>876</v>
+      </c>
+      <c r="C481" t="s">
         <v>877</v>
-      </c>
-      <c r="C481" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
@@ -9544,10 +9585,10 @@
         <v>493</v>
       </c>
       <c r="B482" t="s">
+        <v>878</v>
+      </c>
+      <c r="C482" t="s">
         <v>879</v>
-      </c>
-      <c r="C482" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
@@ -9555,10 +9596,10 @@
         <v>494</v>
       </c>
       <c r="B483" t="s">
+        <v>880</v>
+      </c>
+      <c r="C483" t="s">
         <v>881</v>
-      </c>
-      <c r="C483" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
@@ -9566,10 +9607,10 @@
         <v>496</v>
       </c>
       <c r="B484" t="s">
+        <v>882</v>
+      </c>
+      <c r="C484" t="s">
         <v>883</v>
-      </c>
-      <c r="C484" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
@@ -9577,10 +9618,10 @@
         <v>497</v>
       </c>
       <c r="B485" t="s">
+        <v>884</v>
+      </c>
+      <c r="C485" t="s">
         <v>885</v>
-      </c>
-      <c r="C485" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
@@ -9588,10 +9629,10 @@
         <v>498</v>
       </c>
       <c r="B486" t="s">
+        <v>886</v>
+      </c>
+      <c r="C486" t="s">
         <v>887</v>
-      </c>
-      <c r="C486" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
@@ -9599,10 +9640,10 @@
         <v>499</v>
       </c>
       <c r="B487" t="s">
+        <v>888</v>
+      </c>
+      <c r="C487" t="s">
         <v>889</v>
-      </c>
-      <c r="C487" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
@@ -9610,10 +9651,10 @@
         <v>500</v>
       </c>
       <c r="B488" t="s">
+        <v>890</v>
+      </c>
+      <c r="C488" t="s">
         <v>891</v>
-      </c>
-      <c r="C488" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
@@ -9621,10 +9662,10 @@
         <v>501</v>
       </c>
       <c r="B489" t="s">
+        <v>892</v>
+      </c>
+      <c r="C489" t="s">
         <v>893</v>
-      </c>
-      <c r="C489" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
@@ -9632,10 +9673,10 @@
         <v>502</v>
       </c>
       <c r="B490" t="s">
+        <v>894</v>
+      </c>
+      <c r="C490" t="s">
         <v>895</v>
-      </c>
-      <c r="C490" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
@@ -9643,10 +9684,10 @@
         <v>503</v>
       </c>
       <c r="B491" t="s">
+        <v>896</v>
+      </c>
+      <c r="C491" t="s">
         <v>897</v>
-      </c>
-      <c r="C491" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
@@ -9654,10 +9695,10 @@
         <v>504</v>
       </c>
       <c r="B492" t="s">
+        <v>898</v>
+      </c>
+      <c r="C492" t="s">
         <v>899</v>
-      </c>
-      <c r="C492" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
@@ -9665,10 +9706,10 @@
         <v>505</v>
       </c>
       <c r="B493" t="s">
+        <v>900</v>
+      </c>
+      <c r="C493" t="s">
         <v>901</v>
-      </c>
-      <c r="C493" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
@@ -9676,10 +9717,10 @@
         <v>506</v>
       </c>
       <c r="B494" t="s">
+        <v>902</v>
+      </c>
+      <c r="C494" t="s">
         <v>903</v>
-      </c>
-      <c r="C494" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
@@ -9687,10 +9728,10 @@
         <v>507</v>
       </c>
       <c r="B495" t="s">
+        <v>904</v>
+      </c>
+      <c r="C495" t="s">
         <v>905</v>
-      </c>
-      <c r="C495" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
@@ -9698,10 +9739,10 @@
         <v>508</v>
       </c>
       <c r="B496" t="s">
+        <v>906</v>
+      </c>
+      <c r="C496" t="s">
         <v>907</v>
-      </c>
-      <c r="C496" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
@@ -9709,10 +9750,10 @@
         <v>509</v>
       </c>
       <c r="B497" t="s">
+        <v>908</v>
+      </c>
+      <c r="C497" t="s">
         <v>909</v>
-      </c>
-      <c r="C497" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
@@ -9720,10 +9761,10 @@
         <v>510</v>
       </c>
       <c r="B498" t="s">
+        <v>910</v>
+      </c>
+      <c r="C498" t="s">
         <v>911</v>
-      </c>
-      <c r="C498" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
@@ -9731,7 +9772,7 @@
         <v>511</v>
       </c>
       <c r="B499" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
@@ -9739,10 +9780,10 @@
         <v>512</v>
       </c>
       <c r="B500" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C500" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
@@ -9750,10 +9791,10 @@
         <v>513</v>
       </c>
       <c r="B501" t="s">
+        <v>914</v>
+      </c>
+      <c r="C501" t="s">
         <v>915</v>
-      </c>
-      <c r="C501" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
@@ -9761,10 +9802,10 @@
         <v>514</v>
       </c>
       <c r="B502" t="s">
+        <v>916</v>
+      </c>
+      <c r="C502" t="s">
         <v>917</v>
-      </c>
-      <c r="C502" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
@@ -9772,10 +9813,10 @@
         <v>515</v>
       </c>
       <c r="B503" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C503" t="s">
         <v>1125</v>
-      </c>
-      <c r="C503" t="s">
-        <v>1126</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
@@ -9783,10 +9824,10 @@
         <v>516</v>
       </c>
       <c r="B504" t="s">
+        <v>918</v>
+      </c>
+      <c r="C504" t="s">
         <v>919</v>
-      </c>
-      <c r="C504" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
@@ -9794,10 +9835,10 @@
         <v>517</v>
       </c>
       <c r="B505" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C505" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
@@ -9805,10 +9846,10 @@
         <v>518</v>
       </c>
       <c r="B506" t="s">
+        <v>921</v>
+      </c>
+      <c r="C506" t="s">
         <v>922</v>
-      </c>
-      <c r="C506" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
@@ -9816,10 +9857,10 @@
         <v>519</v>
       </c>
       <c r="B507" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C507" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
@@ -9827,10 +9868,10 @@
         <v>520</v>
       </c>
       <c r="B508" t="s">
+        <v>924</v>
+      </c>
+      <c r="C508" t="s">
         <v>925</v>
-      </c>
-      <c r="C508" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
@@ -9838,10 +9879,10 @@
         <v>521</v>
       </c>
       <c r="B509" t="s">
+        <v>926</v>
+      </c>
+      <c r="C509" t="s">
         <v>927</v>
-      </c>
-      <c r="C509" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
@@ -9849,10 +9890,10 @@
         <v>522</v>
       </c>
       <c r="B510" t="s">
+        <v>928</v>
+      </c>
+      <c r="C510" t="s">
         <v>929</v>
-      </c>
-      <c r="C510" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
@@ -9860,10 +9901,10 @@
         <v>523</v>
       </c>
       <c r="B511" t="s">
+        <v>930</v>
+      </c>
+      <c r="C511" t="s">
         <v>931</v>
-      </c>
-      <c r="C511" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
@@ -9871,10 +9912,10 @@
         <v>524</v>
       </c>
       <c r="B512" t="s">
+        <v>932</v>
+      </c>
+      <c r="C512" t="s">
         <v>933</v>
-      </c>
-      <c r="C512" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
@@ -9882,10 +9923,10 @@
         <v>525</v>
       </c>
       <c r="B513" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C513" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
@@ -9893,10 +9934,10 @@
         <v>526</v>
       </c>
       <c r="B514" t="s">
+        <v>935</v>
+      </c>
+      <c r="C514" t="s">
         <v>936</v>
-      </c>
-      <c r="C514" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
@@ -9904,10 +9945,10 @@
         <v>527</v>
       </c>
       <c r="B515" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C515" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
@@ -9915,10 +9956,10 @@
         <v>528</v>
       </c>
       <c r="B516" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C516" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
@@ -9926,10 +9967,10 @@
         <v>529</v>
       </c>
       <c r="B517" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C517" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
@@ -9937,7 +9978,7 @@
         <v>530</v>
       </c>
       <c r="B518" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
@@ -9945,10 +9986,10 @@
         <v>531</v>
       </c>
       <c r="B519" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C519" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
@@ -9956,10 +9997,10 @@
         <v>532</v>
       </c>
       <c r="B520" t="s">
+        <v>942</v>
+      </c>
+      <c r="C520" t="s">
         <v>943</v>
-      </c>
-      <c r="C520" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
@@ -9967,10 +10008,10 @@
         <v>533</v>
       </c>
       <c r="B521" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C521" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
@@ -9978,10 +10019,10 @@
         <v>534</v>
       </c>
       <c r="B522" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C522" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
@@ -9989,10 +10030,10 @@
         <v>535</v>
       </c>
       <c r="B523" t="s">
+        <v>946</v>
+      </c>
+      <c r="C523" t="s">
         <v>947</v>
-      </c>
-      <c r="C523" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
@@ -10000,10 +10041,10 @@
         <v>536</v>
       </c>
       <c r="B524" t="s">
+        <v>948</v>
+      </c>
+      <c r="C524" t="s">
         <v>949</v>
-      </c>
-      <c r="C524" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
@@ -10011,10 +10052,10 @@
         <v>537</v>
       </c>
       <c r="B525" t="s">
+        <v>950</v>
+      </c>
+      <c r="C525" t="s">
         <v>951</v>
-      </c>
-      <c r="C525" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
@@ -10022,10 +10063,10 @@
         <v>538</v>
       </c>
       <c r="B526" t="s">
+        <v>952</v>
+      </c>
+      <c r="C526" t="s">
         <v>953</v>
-      </c>
-      <c r="C526" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
@@ -10033,10 +10074,10 @@
         <v>539</v>
       </c>
       <c r="B527" t="s">
+        <v>954</v>
+      </c>
+      <c r="C527" t="s">
         <v>955</v>
-      </c>
-      <c r="C527" t="s">
-        <v>956</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
@@ -10044,10 +10085,10 @@
         <v>540</v>
       </c>
       <c r="B528" t="s">
+        <v>956</v>
+      </c>
+      <c r="C528" t="s">
         <v>957</v>
-      </c>
-      <c r="C528" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
@@ -10055,10 +10096,10 @@
         <v>542</v>
       </c>
       <c r="B529" t="s">
+        <v>958</v>
+      </c>
+      <c r="C529" t="s">
         <v>959</v>
-      </c>
-      <c r="C529" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
@@ -10066,10 +10107,10 @@
         <v>543</v>
       </c>
       <c r="B530" t="s">
+        <v>960</v>
+      </c>
+      <c r="C530" t="s">
         <v>961</v>
-      </c>
-      <c r="C530" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
@@ -10077,10 +10118,10 @@
         <v>545</v>
       </c>
       <c r="B531" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C531" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
@@ -10088,10 +10129,10 @@
         <v>546</v>
       </c>
       <c r="B532" t="s">
+        <v>963</v>
+      </c>
+      <c r="C532" t="s">
         <v>964</v>
-      </c>
-      <c r="C532" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.25">
@@ -10099,10 +10140,10 @@
         <v>547</v>
       </c>
       <c r="B533" t="s">
+        <v>965</v>
+      </c>
+      <c r="C533" t="s">
         <v>966</v>
-      </c>
-      <c r="C533" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
@@ -10110,10 +10151,10 @@
         <v>548</v>
       </c>
       <c r="B534" t="s">
+        <v>967</v>
+      </c>
+      <c r="C534" t="s">
         <v>968</v>
-      </c>
-      <c r="C534" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.25">
@@ -10121,10 +10162,10 @@
         <v>549</v>
       </c>
       <c r="B535" t="s">
+        <v>969</v>
+      </c>
+      <c r="C535" t="s">
         <v>970</v>
-      </c>
-      <c r="C535" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.25">
@@ -10132,10 +10173,10 @@
         <v>550</v>
       </c>
       <c r="B536" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C536" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.25">
@@ -10143,10 +10184,10 @@
         <v>551</v>
       </c>
       <c r="B537" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C537" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
@@ -10154,10 +10195,10 @@
         <v>552</v>
       </c>
       <c r="B538" t="s">
+        <v>973</v>
+      </c>
+      <c r="C538" t="s">
         <v>974</v>
-      </c>
-      <c r="C538" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.25">
@@ -10165,10 +10206,10 @@
         <v>553</v>
       </c>
       <c r="B539" t="s">
+        <v>975</v>
+      </c>
+      <c r="C539" t="s">
         <v>976</v>
-      </c>
-      <c r="C539" t="s">
-        <v>977</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.25">
@@ -10176,10 +10217,10 @@
         <v>554</v>
       </c>
       <c r="B540" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C540" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.25">
@@ -10187,10 +10228,10 @@
         <v>555</v>
       </c>
       <c r="B541" t="s">
+        <v>978</v>
+      </c>
+      <c r="C541" t="s">
         <v>979</v>
-      </c>
-      <c r="C541" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.25">
@@ -10198,10 +10239,10 @@
         <v>556</v>
       </c>
       <c r="B542" t="s">
+        <v>980</v>
+      </c>
+      <c r="C542" t="s">
         <v>981</v>
-      </c>
-      <c r="C542" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.25">
@@ -10209,10 +10250,10 @@
         <v>557</v>
       </c>
       <c r="B543" t="s">
+        <v>982</v>
+      </c>
+      <c r="C543" t="s">
         <v>983</v>
-      </c>
-      <c r="C543" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.25">
@@ -10220,10 +10261,10 @@
         <v>558</v>
       </c>
       <c r="B544" t="s">
+        <v>984</v>
+      </c>
+      <c r="C544" t="s">
         <v>985</v>
-      </c>
-      <c r="C544" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.25">
@@ -10231,10 +10272,10 @@
         <v>559</v>
       </c>
       <c r="B545" t="s">
+        <v>986</v>
+      </c>
+      <c r="C545" t="s">
         <v>987</v>
-      </c>
-      <c r="C545" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.25">
@@ -10242,10 +10283,10 @@
         <v>562</v>
       </c>
       <c r="B546" t="s">
+        <v>988</v>
+      </c>
+      <c r="C546" t="s">
         <v>989</v>
-      </c>
-      <c r="C546" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.25">
@@ -10253,7 +10294,7 @@
         <v>563</v>
       </c>
       <c r="B547" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.25">
@@ -10261,10 +10302,10 @@
         <v>564</v>
       </c>
       <c r="B548" t="s">
+        <v>991</v>
+      </c>
+      <c r="C548" t="s">
         <v>992</v>
-      </c>
-      <c r="C548" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.25">
@@ -10272,10 +10313,10 @@
         <v>565</v>
       </c>
       <c r="B549" t="s">
+        <v>993</v>
+      </c>
+      <c r="C549" t="s">
         <v>994</v>
-      </c>
-      <c r="C549" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.25">
@@ -10283,10 +10324,10 @@
         <v>566</v>
       </c>
       <c r="B550" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C550" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.25">
@@ -10294,10 +10335,10 @@
         <v>567</v>
       </c>
       <c r="B551" t="s">
+        <v>996</v>
+      </c>
+      <c r="C551" t="s">
         <v>997</v>
-      </c>
-      <c r="C551" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.25">
@@ -10305,10 +10346,10 @@
         <v>568</v>
       </c>
       <c r="B552" t="s">
+        <v>998</v>
+      </c>
+      <c r="C552" t="s">
         <v>999</v>
-      </c>
-      <c r="C552" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.25">
@@ -10316,10 +10357,10 @@
         <v>569</v>
       </c>
       <c r="B553" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C553" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.25">
@@ -10327,10 +10368,10 @@
         <v>570</v>
       </c>
       <c r="B554" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C554" t="s">
         <v>1002</v>
-      </c>
-      <c r="C554" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.25">
@@ -10338,10 +10379,10 @@
         <v>571</v>
       </c>
       <c r="B555" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C555" t="s">
         <v>1004</v>
-      </c>
-      <c r="C555" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.25">
@@ -10349,10 +10390,10 @@
         <v>572</v>
       </c>
       <c r="B556" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C556" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.25">
@@ -10360,10 +10401,10 @@
         <v>577</v>
       </c>
       <c r="B557" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C557" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.25">
@@ -10371,10 +10412,10 @@
         <v>578</v>
       </c>
       <c r="B558" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C558" t="s">
         <v>1008</v>
-      </c>
-      <c r="C558" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.25">
@@ -10382,7 +10423,7 @@
         <v>579</v>
       </c>
       <c r="B559" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.25">
@@ -10390,10 +10431,10 @@
         <v>580</v>
       </c>
       <c r="B560" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C560" t="s">
         <v>1011</v>
-      </c>
-      <c r="C560" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.25">
@@ -10401,10 +10442,10 @@
         <v>581</v>
       </c>
       <c r="B561" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C561" t="s">
         <v>1013</v>
-      </c>
-      <c r="C561" t="s">
-        <v>1014</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.25">
@@ -10412,10 +10453,10 @@
         <v>582</v>
       </c>
       <c r="B562" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C562" t="s">
         <v>1015</v>
-      </c>
-      <c r="C562" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.25">
@@ -10423,10 +10464,10 @@
         <v>583</v>
       </c>
       <c r="B563" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C563" t="s">
         <v>1017</v>
-      </c>
-      <c r="C563" t="s">
-        <v>1018</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.25">
@@ -10434,10 +10475,10 @@
         <v>584</v>
       </c>
       <c r="B564" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C564" t="s">
         <v>1019</v>
-      </c>
-      <c r="C564" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.25">
@@ -10445,10 +10486,10 @@
         <v>585</v>
       </c>
       <c r="B565" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C565" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.25">
@@ -10456,10 +10497,10 @@
         <v>586</v>
       </c>
       <c r="B566" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C566" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.25">
@@ -10467,10 +10508,10 @@
         <v>587</v>
       </c>
       <c r="B567" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C567" t="s">
         <v>1022</v>
-      </c>
-      <c r="C567" t="s">
-        <v>1023</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.25">
@@ -10478,10 +10519,10 @@
         <v>588</v>
       </c>
       <c r="B568" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C568" t="s">
         <v>1024</v>
-      </c>
-      <c r="C568" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.25">
@@ -10489,10 +10530,10 @@
         <v>589</v>
       </c>
       <c r="B569" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C569" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.25">
@@ -10500,10 +10541,10 @@
         <v>590</v>
       </c>
       <c r="B570" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C570" t="s">
         <v>1027</v>
-      </c>
-      <c r="C570" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.25">
@@ -10511,10 +10552,10 @@
         <v>591</v>
       </c>
       <c r="B571" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C571" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.25">
@@ -10522,10 +10563,10 @@
         <v>592</v>
       </c>
       <c r="B572" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C572" t="s">
         <v>1030</v>
-      </c>
-      <c r="C572" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.25">
@@ -10533,10 +10574,10 @@
         <v>593</v>
       </c>
       <c r="B573" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C573" t="s">
         <v>1032</v>
-      </c>
-      <c r="C573" t="s">
-        <v>1033</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.25">
@@ -10544,10 +10585,10 @@
         <v>594</v>
       </c>
       <c r="B574" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C574" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.25">
@@ -10555,10 +10596,10 @@
         <v>595</v>
       </c>
       <c r="B575" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C575" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.25">
@@ -10566,10 +10607,10 @@
         <v>596</v>
       </c>
       <c r="B576" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C576" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.25">
@@ -10577,10 +10618,10 @@
         <v>597</v>
       </c>
       <c r="B577" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C577" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.25">
@@ -10588,10 +10629,10 @@
         <v>598</v>
       </c>
       <c r="B578" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C578" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.25">
@@ -10599,10 +10640,10 @@
         <v>599</v>
       </c>
       <c r="B579" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C579" t="s">
         <v>1036</v>
-      </c>
-      <c r="C579" t="s">
-        <v>1037</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.25">
@@ -10610,380 +10651,435 @@
         <v>601</v>
       </c>
       <c r="B580" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C580" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B581" t="s">
-        <v>1039</v>
+        <v>1211</v>
       </c>
       <c r="C581" t="s">
-        <v>1040</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A582">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="B582" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="C582" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A583">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="B583" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="C583" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A584">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B584" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="C584" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A585">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="B585" t="s">
-        <v>1097</v>
+        <v>1044</v>
       </c>
       <c r="C585" t="s">
-        <v>1141</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A586">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B586" t="s">
-        <v>1047</v>
+        <v>1096</v>
       </c>
       <c r="C586" t="s">
-        <v>1048</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A587">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B587" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="C587" t="s">
-        <v>1201</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B588" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="C588" t="s">
-        <v>1117</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A589">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B589" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="C589" t="s">
-        <v>1052</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A590">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B590" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="C590" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A591">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="B591" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="C591" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A592">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B592" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="C592" t="s">
-        <v>1200</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A593">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B593" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C593" t="s">
-        <v>1059</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A594">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B594" t="s">
-        <v>1060</v>
+        <v>1221</v>
       </c>
       <c r="C594" t="s">
-        <v>1061</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A595">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B595" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="C595" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A596">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B596" t="s">
-        <v>1172</v>
+        <v>1059</v>
       </c>
       <c r="C596" t="s">
-        <v>1173</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A597">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B597" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="C597" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A598">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="B598" t="s">
-        <v>1066</v>
+        <v>1171</v>
       </c>
       <c r="C598" t="s">
-        <v>1067</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A599">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="B599" t="s">
-        <v>1084</v>
+        <v>1063</v>
       </c>
       <c r="C599" t="s">
-        <v>1083</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A600">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="B600" t="s">
-        <v>1068</v>
+        <v>1219</v>
       </c>
       <c r="C600" t="s">
-        <v>1143</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A601">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="B601" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="C601" t="s">
-        <v>1130</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A602">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="B602" t="s">
-        <v>1070</v>
+        <v>1083</v>
       </c>
       <c r="C602" t="s">
-        <v>1187</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A603">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="B603" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="C603" t="s">
-        <v>1089</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A604">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="B604" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="C604" t="s">
-        <v>1073</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A605">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="B605" t="s">
-        <v>1082</v>
+        <v>1069</v>
       </c>
       <c r="C605" t="s">
-        <v>1186</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A606">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="B606" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="C606" t="s">
-        <v>1075</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A607">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="B607" t="s">
-        <v>1076</v>
+        <v>1216</v>
       </c>
       <c r="C607" t="s">
-        <v>1077</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A608">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="B608" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="C608" t="s">
-        <v>1079</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A609">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="B609" t="s">
-        <v>1165</v>
+        <v>1081</v>
       </c>
       <c r="C609" t="s">
-        <v>1166</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A610">
-        <v>701</v>
+        <v>685</v>
       </c>
       <c r="B610" t="s">
-        <v>1204</v>
+        <v>1073</v>
       </c>
       <c r="C610" t="s">
-        <v>1203</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A611">
-        <v>704</v>
+        <v>686</v>
       </c>
       <c r="B611" t="s">
-        <v>1111</v>
+        <v>1075</v>
       </c>
       <c r="C611" t="s">
-        <v>1112</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A612">
-        <v>10001</v>
+        <v>689</v>
       </c>
       <c r="B612" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="C612" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A613">
+        <v>697</v>
+      </c>
+      <c r="B613" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C613" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A614">
+        <v>701</v>
+      </c>
+      <c r="B614" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C614" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A615">
+        <v>704</v>
+      </c>
+      <c r="B615" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C615" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A616">
+        <v>710</v>
+      </c>
+      <c r="B616" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C616" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A617">
+        <v>10001</v>
+      </c>
+      <c r="B617" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C617" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A618">
         <v>10003</v>
       </c>
-      <c r="B613" t="s">
+      <c r="B618" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C618" t="s">
         <v>1108</v>
-      </c>
-      <c r="C613" t="s">
-        <v>1109</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C1 A121:C127 A120:B120 A612:C612 A315:B315 A316:C326 A352:C352 A351:B351 A586:C586 A575 A574:B574 A460:C463 A459:B459 A604:C604 A603:B603 A235:C249 A234:B234 A95:C98 A146:C149 A145:B145 A541:C549 A540:B540 A55:C57 A558:C564 A557:B557 A29:C29 A28:B28 A579:C579 A308:C314 A307:B307 A53:B54 A457:C458 A455:B455 A516:C516 A515:B515 A93:B94 A554:C555 A553:B553 A346:C348 A345:B345 A52:C52 A51:B51 A72:C78 A70:B70 A163:C228 A162:B162 A378:C378 A377:B377 A606:C608 A258:C259 A257:B257 A6:C7 A572:C573 A571:B571 A567:C568 A566 A597:C598 A588:B588 A21:C27 A20:B20 A420:C422 A115:C119 A114:B114 A287:C294 A286:B286 A418:B419 A80:C84 A79:B79 A504:C504 A503 A151:C153 A150:B150 A481:C499 A480:B480 A520:C520 A519:B519 A532:C535 A531:B531 A602:B602 A600:B601 A576:B578 A514:C514 A513:B513 A501:C502 A500:B500 A453:C454 A452:B452 A424:C424 A423:B423 A14:C14 A13:B13 A2:B5 A581:C584 A580:B580 A570:C570 A569:B569 A450:C450 A449:B449 A551:C552 A550:B550 A538:C539 A536:B536 A518:C518 A517:B517 A508:C512 A507:B507 A466:C468 A465:B465 A448:C448 A447:B447 A433:C446 A432:B432 A426:C431 A425:B425 A403:C406 A402:B402 A280:C285 A279:B279 A269:C278 A268:B268 A261:C267 A260:B260 A252:C256 A250:B251 A231:C233 A229:B230 A108:C113 A107:B107 A59:C69 A58:B58 A155:C161 A154:B154 A129:C144 A128:B128 A71 A9:C12 A8:B8 A589:C591 A380:C385 A379:B379 A451:B451 A523:C530 A522:B522 A521:B521 A506:C506 A505:B505 A470:C472 A469:B469 A456:B456 A100:C106 A99:B99 A40:C42 A38:B38 A32:C37 A31:B31 A16:C19 A15:B15 A565:B565 A556:B556 A537:B537 A478:C479 A477:B477 A408:C417 A407:B407 A387:C401 A386:B386 A328:C344 A327 A296:C306 A295:B295 A44:C50 A43:B43 A593:C595 A592:B592 A587:B587 A354:C376 A353:B353 A464:B464 A350:C350 A349:B349 A474:C476 A473 A86:C92 A85:B85 A30:B30 A39:B39" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C1 A121:C127 A120:B120 A617:C617 A315:B315 A316:C326 A352:C352 A351:B351 A587:C587 A575 A574:B574 A460:C463 A459:B459 A608:C608 A235:C249 A234:B234 A95:C98 A146:C149 A145:B145 A541:C549 A540:B540 A55:C57 A558:C564 A29:C29 A28:B28 A579:C579 A308:C314 A307:B307 A53:B54 A457:C458 A516:C516 A515:B515 A93:B94 A554:C555 A553:B553 A346:C348 A345:B345 A52:C52 A51:B51 A72:C78 A70:B70 A163:C169 A162:B162 A378:C378 A377:B377 A610:C612 A258:C259 A257:B257 A6:C7 A572:C573 A571:B571 A567:C568 A566 A601:C601 A21:C27 A20:B20 A420:C422 A115:C119 A114:B114 A287:C294 A286:B286 A418:B419 A80:C84 A79:B79 A504:C504 A503 A151:C153 A150:B150 A481:C499 A480:B480 A520:C520 A519:B519 A532:C535 A531:B531 A603:B606 A576:B578 A514:C514 A513:B513 A501:C502 A500:B500 A453:C454 A424:C424 A423:B423 A14:C14 A13:B13 A2:B5 A582:C585 A580:B580 A570:C570 A569:B569 A450:C450 A449:B449 A551:C552 A550:B550 A538:C539 A518:C518 A517:B517 A508:C512 A507:B507 A466:C468 A448:C448 A447:B447 A433:C446 A432:B432 A426:C431 A425:B425 A403:C406 A402:B402 A280:C285 A279:B279 A269:C278 A268:B268 A261:C267 A260:B260 A252:C256 A250:B251 A231:C233 A229:B230 A108:C113 A107:B107 A59:C69 A58:B58 A155:C161 A154:B154 A129:C144 A128:B128 A71 A9:C12 A8:B8 A590:C592 A380:C385 A379:B379 A451:B452 A523:C530 A521:B522 A506:C506 A505:B505 A470:C472 A469:B469 A455:B456 A100:C106 A99:B99 A40:C42 A32:C37 A16:C19 A15:B15 A565:B565 A556:B557 A536:B537 A478:C479 A477:B477 A408:C417 A407:B407 A387:C401 A386:B386 A328:C344 A327 A296:C306 A295:B295 A44:C50 A43:B43 A595:C597 A593:B593 A588:B589 A354:C376 A353:B353 A464:B465 A350:C350 A349:B349 A474:C476 A473 A86:C92 A85:B85 A30:B31 A38:B39 A171:C228 A170:B170 A599:C599" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/config/nickname_song.xlsx
+++ b/config/nickname_song.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Tsugu-Backend\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C73AC2-F3C5-47A8-9EF2-62979A115E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE2E9E4-D367-403B-967C-99E386079EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5676" yWindow="2316" windowWidth="18744" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8376" yWindow="4308" windowWidth="18744" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -136,9 +136,6 @@
     <t>ときめきエクスペリエンス！</t>
   </si>
   <si>
-    <t>op1,心跳体验,op,第一首歌</t>
-  </si>
-  <si>
     <t>キラキラだとか夢だとか ～Sing Girls～</t>
   </si>
   <si>
@@ -3112,9 +3109,6 @@
     <t>かくれんぼ</t>
   </si>
   <si>
-    <t>捉迷藏,alia</t>
-  </si>
-  <si>
     <t>ボッカデラベリタ</t>
   </si>
   <si>
@@ -3143,9 +3137,6 @@
   </si>
   <si>
     <t>Wreath of Brave</t>
-  </si>
-  <si>
-    <t>wob</t>
   </si>
   <si>
     <t>ココ☆ナツ</t>
@@ -3511,10 +3502,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>炸梦,是的炸梦,新手村,新手教学,爆炸梦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>↑↓,↓↑,sb,starbeat,星之鼓动,star beat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3809,10 +3796,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>羁绊歌,kzn,kizuna music,kznmusic,羁绊,新手教程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>龙夜,313combo,313,农业</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3874,6 +3857,26 @@
   </si>
   <si>
     <t>迷星叫平行,平行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wob,勇气花环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捉迷藏,alia,抓迷藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>op1,心跳体验,op,第一首歌,新手村,新手教学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羁绊歌,kzn,kizuna music,kznmusic,羁绊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸梦,是的炸梦,爆炸梦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4280,8 +4283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C618"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A562" workbookViewId="0">
-      <selection activeCell="D567" sqref="D567"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -4311,7 +4314,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>1137</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4322,7 +4325,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4333,7 +4336,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4344,7 +4347,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -4377,7 +4380,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -4432,7 +4435,7 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -4454,7 +4457,7 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -4509,7 +4512,7 @@
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -4542,7 +4545,7 @@
         <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -4550,10 +4553,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s">
         <v>39</v>
-      </c>
-      <c r="C24" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -4561,10 +4564,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
         <v>41</v>
-      </c>
-      <c r="C25" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -4572,10 +4575,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" t="s">
         <v>43</v>
-      </c>
-      <c r="C26" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -4583,10 +4586,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" t="s">
         <v>45</v>
-      </c>
-      <c r="C27" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -4594,10 +4597,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -4605,10 +4608,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" t="s">
         <v>48</v>
-      </c>
-      <c r="C29" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -4616,10 +4619,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -4627,10 +4630,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -4638,10 +4641,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" t="s">
         <v>52</v>
-      </c>
-      <c r="C32" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -4649,10 +4652,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" t="s">
         <v>54</v>
-      </c>
-      <c r="C33" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -4660,10 +4663,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" t="s">
         <v>56</v>
-      </c>
-      <c r="C34" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -4671,10 +4674,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" t="s">
         <v>58</v>
-      </c>
-      <c r="C35" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -4682,10 +4685,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" t="s">
         <v>60</v>
-      </c>
-      <c r="C36" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -4693,10 +4696,10 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" t="s">
         <v>62</v>
-      </c>
-      <c r="C37" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -4704,10 +4707,10 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C38" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -4715,10 +4718,10 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C39" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -4726,10 +4729,10 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" t="s">
         <v>66</v>
-      </c>
-      <c r="C40" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -4737,10 +4740,10 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" t="s">
         <v>68</v>
-      </c>
-      <c r="C41" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -4748,10 +4751,10 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" t="s">
         <v>70</v>
-      </c>
-      <c r="C42" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -4759,10 +4762,10 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C43" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -4770,10 +4773,10 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" t="s">
         <v>73</v>
-      </c>
-      <c r="C44" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -4781,10 +4784,10 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" t="s">
         <v>75</v>
-      </c>
-      <c r="C45" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -4792,10 +4795,10 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" t="s">
         <v>77</v>
-      </c>
-      <c r="C46" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -4803,10 +4806,10 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" t="s">
         <v>79</v>
-      </c>
-      <c r="C47" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -4814,10 +4817,10 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" t="s">
         <v>81</v>
-      </c>
-      <c r="C48" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -4825,10 +4828,10 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C49" t="s">
         <v>83</v>
-      </c>
-      <c r="C49" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -4836,10 +4839,10 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" t="s">
         <v>85</v>
-      </c>
-      <c r="C50" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -4847,10 +4850,10 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C51" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -4858,10 +4861,10 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52" t="s">
         <v>88</v>
-      </c>
-      <c r="C52" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -4869,10 +4872,10 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C53" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -4880,10 +4883,10 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C54" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -4891,10 +4894,10 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
+        <v>91</v>
+      </c>
+      <c r="C55" t="s">
         <v>92</v>
-      </c>
-      <c r="C55" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -4902,10 +4905,10 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
+        <v>93</v>
+      </c>
+      <c r="C56" t="s">
         <v>94</v>
-      </c>
-      <c r="C56" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -4913,10 +4916,10 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
+        <v>95</v>
+      </c>
+      <c r="C57" t="s">
         <v>96</v>
-      </c>
-      <c r="C57" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -4924,10 +4927,10 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C58" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -4935,10 +4938,10 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
+        <v>98</v>
+      </c>
+      <c r="C59" t="s">
         <v>99</v>
-      </c>
-      <c r="C59" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -4946,10 +4949,10 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60" t="s">
         <v>101</v>
-      </c>
-      <c r="C60" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -4957,10 +4960,10 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
+        <v>102</v>
+      </c>
+      <c r="C61" t="s">
         <v>103</v>
-      </c>
-      <c r="C61" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -4968,10 +4971,10 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
+        <v>104</v>
+      </c>
+      <c r="C62" t="s">
         <v>105</v>
-      </c>
-      <c r="C62" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -4979,10 +4982,10 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
+        <v>106</v>
+      </c>
+      <c r="C63" t="s">
         <v>107</v>
-      </c>
-      <c r="C63" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -4990,10 +4993,10 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
+        <v>108</v>
+      </c>
+      <c r="C64" t="s">
         <v>109</v>
-      </c>
-      <c r="C64" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -5001,10 +5004,10 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
+        <v>110</v>
+      </c>
+      <c r="C65" t="s">
         <v>111</v>
-      </c>
-      <c r="C65" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -5012,10 +5015,10 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
+        <v>112</v>
+      </c>
+      <c r="C66" t="s">
         <v>113</v>
-      </c>
-      <c r="C66" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -5023,10 +5026,10 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
+        <v>114</v>
+      </c>
+      <c r="C67" t="s">
         <v>115</v>
-      </c>
-      <c r="C67" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -5034,10 +5037,10 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
+        <v>116</v>
+      </c>
+      <c r="C68" t="s">
         <v>117</v>
-      </c>
-      <c r="C68" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -5045,10 +5048,10 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
+        <v>118</v>
+      </c>
+      <c r="C69" t="s">
         <v>119</v>
-      </c>
-      <c r="C69" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -5056,10 +5059,10 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C70" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -5067,10 +5070,10 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="C71" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -5078,10 +5081,10 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" t="s">
         <v>122</v>
-      </c>
-      <c r="C72" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -5089,10 +5092,10 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
+        <v>123</v>
+      </c>
+      <c r="C73" t="s">
         <v>124</v>
-      </c>
-      <c r="C73" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -5100,10 +5103,10 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
+        <v>125</v>
+      </c>
+      <c r="C74" t="s">
         <v>126</v>
-      </c>
-      <c r="C74" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -5111,10 +5114,10 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
+        <v>127</v>
+      </c>
+      <c r="C75" t="s">
         <v>128</v>
-      </c>
-      <c r="C75" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -5122,10 +5125,10 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
+        <v>129</v>
+      </c>
+      <c r="C76" t="s">
         <v>130</v>
-      </c>
-      <c r="C76" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -5133,10 +5136,10 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
+        <v>131</v>
+      </c>
+      <c r="C77" t="s">
         <v>132</v>
-      </c>
-      <c r="C77" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -5144,10 +5147,10 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
+        <v>133</v>
+      </c>
+      <c r="C78" t="s">
         <v>134</v>
-      </c>
-      <c r="C78" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -5155,10 +5158,10 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C79" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -5166,10 +5169,10 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
+        <v>136</v>
+      </c>
+      <c r="C80" t="s">
         <v>137</v>
-      </c>
-      <c r="C80" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -5177,10 +5180,10 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
+        <v>138</v>
+      </c>
+      <c r="C81" t="s">
         <v>139</v>
-      </c>
-      <c r="C81" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -5188,10 +5191,10 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
+        <v>140</v>
+      </c>
+      <c r="C82" t="s">
         <v>141</v>
-      </c>
-      <c r="C82" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -5199,10 +5202,10 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
+        <v>142</v>
+      </c>
+      <c r="C83" t="s">
         <v>143</v>
-      </c>
-      <c r="C83" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -5210,10 +5213,10 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
+        <v>144</v>
+      </c>
+      <c r="C84" t="s">
         <v>145</v>
-      </c>
-      <c r="C84" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -5221,10 +5224,10 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C85" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -5232,10 +5235,10 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
+        <v>147</v>
+      </c>
+      <c r="C86" t="s">
         <v>148</v>
-      </c>
-      <c r="C86" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -5243,10 +5246,10 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
+        <v>149</v>
+      </c>
+      <c r="C87" t="s">
         <v>150</v>
-      </c>
-      <c r="C87" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -5254,10 +5257,10 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
+        <v>151</v>
+      </c>
+      <c r="C88" t="s">
         <v>152</v>
-      </c>
-      <c r="C88" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -5265,10 +5268,10 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
+        <v>153</v>
+      </c>
+      <c r="C89" t="s">
         <v>154</v>
-      </c>
-      <c r="C89" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -5276,10 +5279,10 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
+        <v>155</v>
+      </c>
+      <c r="C90" t="s">
         <v>156</v>
-      </c>
-      <c r="C90" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -5287,10 +5290,10 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
+        <v>157</v>
+      </c>
+      <c r="C91" t="s">
         <v>158</v>
-      </c>
-      <c r="C91" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -5298,10 +5301,10 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
+        <v>159</v>
+      </c>
+      <c r="C92" t="s">
         <v>160</v>
-      </c>
-      <c r="C92" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -5309,10 +5312,10 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C93" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -5320,10 +5323,10 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C94" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -5331,10 +5334,10 @@
         <v>100</v>
       </c>
       <c r="B95" t="s">
+        <v>163</v>
+      </c>
+      <c r="C95" t="s">
         <v>164</v>
-      </c>
-      <c r="C95" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -5342,10 +5345,10 @@
         <v>101</v>
       </c>
       <c r="B96" t="s">
+        <v>165</v>
+      </c>
+      <c r="C96" t="s">
         <v>166</v>
-      </c>
-      <c r="C96" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -5353,10 +5356,10 @@
         <v>104</v>
       </c>
       <c r="B97" t="s">
+        <v>167</v>
+      </c>
+      <c r="C97" t="s">
         <v>168</v>
-      </c>
-      <c r="C97" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -5364,10 +5367,10 @@
         <v>105</v>
       </c>
       <c r="B98" t="s">
+        <v>169</v>
+      </c>
+      <c r="C98" t="s">
         <v>170</v>
-      </c>
-      <c r="C98" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -5375,10 +5378,10 @@
         <v>106</v>
       </c>
       <c r="B99" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C99" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -5386,10 +5389,10 @@
         <v>107</v>
       </c>
       <c r="B100" t="s">
+        <v>172</v>
+      </c>
+      <c r="C100" t="s">
         <v>173</v>
-      </c>
-      <c r="C100" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -5397,10 +5400,10 @@
         <v>108</v>
       </c>
       <c r="B101" t="s">
+        <v>174</v>
+      </c>
+      <c r="C101" t="s">
         <v>175</v>
-      </c>
-      <c r="C101" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -5408,10 +5411,10 @@
         <v>109</v>
       </c>
       <c r="B102" t="s">
+        <v>176</v>
+      </c>
+      <c r="C102" t="s">
         <v>177</v>
-      </c>
-      <c r="C102" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -5419,10 +5422,10 @@
         <v>110</v>
       </c>
       <c r="B103" t="s">
+        <v>178</v>
+      </c>
+      <c r="C103" t="s">
         <v>179</v>
-      </c>
-      <c r="C103" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -5430,10 +5433,10 @@
         <v>111</v>
       </c>
       <c r="B104" t="s">
+        <v>180</v>
+      </c>
+      <c r="C104" t="s">
         <v>181</v>
-      </c>
-      <c r="C104" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -5441,10 +5444,10 @@
         <v>112</v>
       </c>
       <c r="B105" t="s">
+        <v>182</v>
+      </c>
+      <c r="C105" t="s">
         <v>183</v>
-      </c>
-      <c r="C105" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -5452,10 +5455,10 @@
         <v>113</v>
       </c>
       <c r="B106" t="s">
+        <v>184</v>
+      </c>
+      <c r="C106" t="s">
         <v>185</v>
-      </c>
-      <c r="C106" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -5463,10 +5466,10 @@
         <v>115</v>
       </c>
       <c r="B107" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C107" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -5474,10 +5477,10 @@
         <v>116</v>
       </c>
       <c r="B108" t="s">
+        <v>187</v>
+      </c>
+      <c r="C108" t="s">
         <v>188</v>
-      </c>
-      <c r="C108" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -5485,10 +5488,10 @@
         <v>117</v>
       </c>
       <c r="B109" t="s">
+        <v>189</v>
+      </c>
+      <c r="C109" t="s">
         <v>190</v>
-      </c>
-      <c r="C109" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -5496,10 +5499,10 @@
         <v>118</v>
       </c>
       <c r="B110" t="s">
+        <v>191</v>
+      </c>
+      <c r="C110" t="s">
         <v>192</v>
-      </c>
-      <c r="C110" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -5507,10 +5510,10 @@
         <v>119</v>
       </c>
       <c r="B111" t="s">
+        <v>193</v>
+      </c>
+      <c r="C111" t="s">
         <v>194</v>
-      </c>
-      <c r="C111" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -5518,10 +5521,10 @@
         <v>120</v>
       </c>
       <c r="B112" t="s">
+        <v>195</v>
+      </c>
+      <c r="C112" t="s">
         <v>196</v>
-      </c>
-      <c r="C112" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -5529,10 +5532,10 @@
         <v>121</v>
       </c>
       <c r="B113" t="s">
+        <v>197</v>
+      </c>
+      <c r="C113" t="s">
         <v>198</v>
-      </c>
-      <c r="C113" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -5540,10 +5543,10 @@
         <v>122</v>
       </c>
       <c r="B114" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C114" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -5551,10 +5554,10 @@
         <v>123</v>
       </c>
       <c r="B115" t="s">
+        <v>200</v>
+      </c>
+      <c r="C115" t="s">
         <v>201</v>
-      </c>
-      <c r="C115" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -5562,10 +5565,10 @@
         <v>124</v>
       </c>
       <c r="B116" t="s">
+        <v>202</v>
+      </c>
+      <c r="C116" t="s">
         <v>203</v>
-      </c>
-      <c r="C116" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -5573,10 +5576,10 @@
         <v>125</v>
       </c>
       <c r="B117" t="s">
+        <v>204</v>
+      </c>
+      <c r="C117" t="s">
         <v>205</v>
-      </c>
-      <c r="C117" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -5584,10 +5587,10 @@
         <v>126</v>
       </c>
       <c r="B118" t="s">
+        <v>206</v>
+      </c>
+      <c r="C118" t="s">
         <v>207</v>
-      </c>
-      <c r="C118" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -5595,10 +5598,10 @@
         <v>127</v>
       </c>
       <c r="B119" t="s">
+        <v>208</v>
+      </c>
+      <c r="C119" t="s">
         <v>209</v>
-      </c>
-      <c r="C119" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -5606,10 +5609,10 @@
         <v>128</v>
       </c>
       <c r="B120" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C120" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -5617,10 +5620,10 @@
         <v>129</v>
       </c>
       <c r="B121" t="s">
+        <v>211</v>
+      </c>
+      <c r="C121" t="s">
         <v>212</v>
-      </c>
-      <c r="C121" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -5628,10 +5631,10 @@
         <v>130</v>
       </c>
       <c r="B122" t="s">
+        <v>213</v>
+      </c>
+      <c r="C122" t="s">
         <v>214</v>
-      </c>
-      <c r="C122" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -5639,10 +5642,10 @@
         <v>131</v>
       </c>
       <c r="B123" t="s">
+        <v>215</v>
+      </c>
+      <c r="C123" t="s">
         <v>216</v>
-      </c>
-      <c r="C123" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -5650,10 +5653,10 @@
         <v>132</v>
       </c>
       <c r="B124" t="s">
+        <v>217</v>
+      </c>
+      <c r="C124" t="s">
         <v>218</v>
-      </c>
-      <c r="C124" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -5661,10 +5664,10 @@
         <v>133</v>
       </c>
       <c r="B125" t="s">
+        <v>219</v>
+      </c>
+      <c r="C125" t="s">
         <v>220</v>
-      </c>
-      <c r="C125" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -5672,10 +5675,10 @@
         <v>134</v>
       </c>
       <c r="B126" t="s">
+        <v>221</v>
+      </c>
+      <c r="C126" t="s">
         <v>222</v>
-      </c>
-      <c r="C126" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -5683,10 +5686,10 @@
         <v>135</v>
       </c>
       <c r="B127" t="s">
+        <v>223</v>
+      </c>
+      <c r="C127" t="s">
         <v>224</v>
-      </c>
-      <c r="C127" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -5694,10 +5697,10 @@
         <v>136</v>
       </c>
       <c r="B128" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C128" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -5705,10 +5708,10 @@
         <v>137</v>
       </c>
       <c r="B129" t="s">
+        <v>226</v>
+      </c>
+      <c r="C129" t="s">
         <v>227</v>
-      </c>
-      <c r="C129" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -5716,10 +5719,10 @@
         <v>138</v>
       </c>
       <c r="B130" t="s">
+        <v>228</v>
+      </c>
+      <c r="C130" t="s">
         <v>229</v>
-      </c>
-      <c r="C130" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -5727,10 +5730,10 @@
         <v>139</v>
       </c>
       <c r="B131" t="s">
+        <v>230</v>
+      </c>
+      <c r="C131" t="s">
         <v>231</v>
-      </c>
-      <c r="C131" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -5738,10 +5741,10 @@
         <v>140</v>
       </c>
       <c r="B132" t="s">
+        <v>232</v>
+      </c>
+      <c r="C132" t="s">
         <v>233</v>
-      </c>
-      <c r="C132" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -5749,10 +5752,10 @@
         <v>141</v>
       </c>
       <c r="B133" t="s">
+        <v>234</v>
+      </c>
+      <c r="C133" t="s">
         <v>235</v>
-      </c>
-      <c r="C133" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -5760,10 +5763,10 @@
         <v>142</v>
       </c>
       <c r="B134" t="s">
+        <v>236</v>
+      </c>
+      <c r="C134" t="s">
         <v>237</v>
-      </c>
-      <c r="C134" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -5771,10 +5774,10 @@
         <v>143</v>
       </c>
       <c r="B135" t="s">
+        <v>238</v>
+      </c>
+      <c r="C135" t="s">
         <v>239</v>
-      </c>
-      <c r="C135" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -5782,10 +5785,10 @@
         <v>144</v>
       </c>
       <c r="B136" t="s">
+        <v>240</v>
+      </c>
+      <c r="C136" t="s">
         <v>241</v>
-      </c>
-      <c r="C136" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -5793,10 +5796,10 @@
         <v>145</v>
       </c>
       <c r="B137" t="s">
+        <v>242</v>
+      </c>
+      <c r="C137" t="s">
         <v>243</v>
-      </c>
-      <c r="C137" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -5804,10 +5807,10 @@
         <v>146</v>
       </c>
       <c r="B138" t="s">
+        <v>244</v>
+      </c>
+      <c r="C138" t="s">
         <v>245</v>
-      </c>
-      <c r="C138" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -5815,10 +5818,10 @@
         <v>147</v>
       </c>
       <c r="B139" t="s">
+        <v>246</v>
+      </c>
+      <c r="C139" t="s">
         <v>247</v>
-      </c>
-      <c r="C139" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -5826,10 +5829,10 @@
         <v>148</v>
       </c>
       <c r="B140" t="s">
+        <v>248</v>
+      </c>
+      <c r="C140" t="s">
         <v>249</v>
-      </c>
-      <c r="C140" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -5837,10 +5840,10 @@
         <v>149</v>
       </c>
       <c r="B141" t="s">
+        <v>250</v>
+      </c>
+      <c r="C141" t="s">
         <v>251</v>
-      </c>
-      <c r="C141" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -5848,10 +5851,10 @@
         <v>150</v>
       </c>
       <c r="B142" t="s">
+        <v>252</v>
+      </c>
+      <c r="C142" t="s">
         <v>253</v>
-      </c>
-      <c r="C142" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -5859,10 +5862,10 @@
         <v>151</v>
       </c>
       <c r="B143" t="s">
+        <v>254</v>
+      </c>
+      <c r="C143" t="s">
         <v>255</v>
-      </c>
-      <c r="C143" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -5870,10 +5873,10 @@
         <v>152</v>
       </c>
       <c r="B144" t="s">
+        <v>256</v>
+      </c>
+      <c r="C144" t="s">
         <v>257</v>
-      </c>
-      <c r="C144" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -5881,10 +5884,10 @@
         <v>153</v>
       </c>
       <c r="B145" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C145" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -5892,10 +5895,10 @@
         <v>154</v>
       </c>
       <c r="B146" t="s">
+        <v>259</v>
+      </c>
+      <c r="C146" t="s">
         <v>260</v>
-      </c>
-      <c r="C146" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -5903,10 +5906,10 @@
         <v>155</v>
       </c>
       <c r="B147" t="s">
+        <v>261</v>
+      </c>
+      <c r="C147" t="s">
         <v>262</v>
-      </c>
-      <c r="C147" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -5914,10 +5917,10 @@
         <v>156</v>
       </c>
       <c r="B148" t="s">
+        <v>263</v>
+      </c>
+      <c r="C148" t="s">
         <v>264</v>
-      </c>
-      <c r="C148" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -5925,10 +5928,10 @@
         <v>157</v>
       </c>
       <c r="B149" t="s">
+        <v>265</v>
+      </c>
+      <c r="C149" t="s">
         <v>266</v>
-      </c>
-      <c r="C149" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -5936,10 +5939,10 @@
         <v>158</v>
       </c>
       <c r="B150" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C150" t="s">
-        <v>1206</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -5947,10 +5950,10 @@
         <v>159</v>
       </c>
       <c r="B151" t="s">
+        <v>268</v>
+      </c>
+      <c r="C151" t="s">
         <v>269</v>
-      </c>
-      <c r="C151" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -5958,10 +5961,10 @@
         <v>160</v>
       </c>
       <c r="B152" t="s">
+        <v>270</v>
+      </c>
+      <c r="C152" t="s">
         <v>271</v>
-      </c>
-      <c r="C152" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -5969,10 +5972,10 @@
         <v>161</v>
       </c>
       <c r="B153" t="s">
+        <v>272</v>
+      </c>
+      <c r="C153" t="s">
         <v>273</v>
-      </c>
-      <c r="C153" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -5980,10 +5983,10 @@
         <v>162</v>
       </c>
       <c r="B154" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C154" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -5991,10 +5994,10 @@
         <v>163</v>
       </c>
       <c r="B155" t="s">
+        <v>275</v>
+      </c>
+      <c r="C155" t="s">
         <v>276</v>
-      </c>
-      <c r="C155" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -6002,10 +6005,10 @@
         <v>164</v>
       </c>
       <c r="B156" t="s">
+        <v>277</v>
+      </c>
+      <c r="C156" t="s">
         <v>278</v>
-      </c>
-      <c r="C156" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -6013,10 +6016,10 @@
         <v>165</v>
       </c>
       <c r="B157" t="s">
+        <v>279</v>
+      </c>
+      <c r="C157" t="s">
         <v>280</v>
-      </c>
-      <c r="C157" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -6024,10 +6027,10 @@
         <v>166</v>
       </c>
       <c r="B158" t="s">
+        <v>281</v>
+      </c>
+      <c r="C158" t="s">
         <v>282</v>
-      </c>
-      <c r="C158" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -6035,10 +6038,10 @@
         <v>167</v>
       </c>
       <c r="B159" t="s">
+        <v>283</v>
+      </c>
+      <c r="C159" t="s">
         <v>284</v>
-      </c>
-      <c r="C159" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -6046,10 +6049,10 @@
         <v>168</v>
       </c>
       <c r="B160" t="s">
+        <v>285</v>
+      </c>
+      <c r="C160" t="s">
         <v>286</v>
-      </c>
-      <c r="C160" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -6057,10 +6060,10 @@
         <v>169</v>
       </c>
       <c r="B161" t="s">
+        <v>287</v>
+      </c>
+      <c r="C161" t="s">
         <v>288</v>
-      </c>
-      <c r="C161" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -6068,10 +6071,10 @@
         <v>170</v>
       </c>
       <c r="B162" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C162" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -6079,10 +6082,10 @@
         <v>171</v>
       </c>
       <c r="B163" t="s">
+        <v>290</v>
+      </c>
+      <c r="C163" t="s">
         <v>291</v>
-      </c>
-      <c r="C163" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -6090,10 +6093,10 @@
         <v>172</v>
       </c>
       <c r="B164" t="s">
+        <v>292</v>
+      </c>
+      <c r="C164" t="s">
         <v>293</v>
-      </c>
-      <c r="C164" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -6101,10 +6104,10 @@
         <v>173</v>
       </c>
       <c r="B165" t="s">
+        <v>294</v>
+      </c>
+      <c r="C165" t="s">
         <v>295</v>
-      </c>
-      <c r="C165" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -6112,10 +6115,10 @@
         <v>174</v>
       </c>
       <c r="B166" t="s">
+        <v>296</v>
+      </c>
+      <c r="C166" t="s">
         <v>297</v>
-      </c>
-      <c r="C166" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -6123,10 +6126,10 @@
         <v>175</v>
       </c>
       <c r="B167" t="s">
+        <v>298</v>
+      </c>
+      <c r="C167" t="s">
         <v>299</v>
-      </c>
-      <c r="C167" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -6134,10 +6137,10 @@
         <v>176</v>
       </c>
       <c r="B168" t="s">
+        <v>300</v>
+      </c>
+      <c r="C168" t="s">
         <v>301</v>
-      </c>
-      <c r="C168" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -6145,10 +6148,10 @@
         <v>177</v>
       </c>
       <c r="B169" t="s">
+        <v>302</v>
+      </c>
+      <c r="C169" t="s">
         <v>303</v>
-      </c>
-      <c r="C169" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -6156,10 +6159,10 @@
         <v>178</v>
       </c>
       <c r="B170" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C170" t="s">
-        <v>1213</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -6167,10 +6170,10 @@
         <v>179</v>
       </c>
       <c r="B171" t="s">
+        <v>305</v>
+      </c>
+      <c r="C171" t="s">
         <v>306</v>
-      </c>
-      <c r="C171" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -6178,10 +6181,10 @@
         <v>180</v>
       </c>
       <c r="B172" t="s">
+        <v>307</v>
+      </c>
+      <c r="C172" t="s">
         <v>308</v>
-      </c>
-      <c r="C172" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -6189,10 +6192,10 @@
         <v>181</v>
       </c>
       <c r="B173" t="s">
+        <v>309</v>
+      </c>
+      <c r="C173" t="s">
         <v>310</v>
-      </c>
-      <c r="C173" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -6200,10 +6203,10 @@
         <v>182</v>
       </c>
       <c r="B174" t="s">
+        <v>311</v>
+      </c>
+      <c r="C174" t="s">
         <v>312</v>
-      </c>
-      <c r="C174" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -6211,10 +6214,10 @@
         <v>183</v>
       </c>
       <c r="B175" t="s">
+        <v>313</v>
+      </c>
+      <c r="C175" t="s">
         <v>314</v>
-      </c>
-      <c r="C175" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -6222,10 +6225,10 @@
         <v>184</v>
       </c>
       <c r="B176" t="s">
+        <v>315</v>
+      </c>
+      <c r="C176" t="s">
         <v>316</v>
-      </c>
-      <c r="C176" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -6233,10 +6236,10 @@
         <v>185</v>
       </c>
       <c r="B177" t="s">
+        <v>317</v>
+      </c>
+      <c r="C177" t="s">
         <v>318</v>
-      </c>
-      <c r="C177" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -6244,10 +6247,10 @@
         <v>186</v>
       </c>
       <c r="B178" t="s">
+        <v>319</v>
+      </c>
+      <c r="C178" t="s">
         <v>320</v>
-      </c>
-      <c r="C178" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -6255,10 +6258,10 @@
         <v>187</v>
       </c>
       <c r="B179" t="s">
+        <v>321</v>
+      </c>
+      <c r="C179" t="s">
         <v>322</v>
-      </c>
-      <c r="C179" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -6266,10 +6269,10 @@
         <v>188</v>
       </c>
       <c r="B180" t="s">
+        <v>323</v>
+      </c>
+      <c r="C180" t="s">
         <v>324</v>
-      </c>
-      <c r="C180" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -6277,10 +6280,10 @@
         <v>189</v>
       </c>
       <c r="B181" t="s">
+        <v>325</v>
+      </c>
+      <c r="C181" t="s">
         <v>326</v>
-      </c>
-      <c r="C181" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -6288,10 +6291,10 @@
         <v>190</v>
       </c>
       <c r="B182" t="s">
+        <v>327</v>
+      </c>
+      <c r="C182" t="s">
         <v>328</v>
-      </c>
-      <c r="C182" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -6299,10 +6302,10 @@
         <v>191</v>
       </c>
       <c r="B183" t="s">
+        <v>329</v>
+      </c>
+      <c r="C183" t="s">
         <v>330</v>
-      </c>
-      <c r="C183" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -6310,10 +6313,10 @@
         <v>192</v>
       </c>
       <c r="B184" t="s">
+        <v>331</v>
+      </c>
+      <c r="C184" t="s">
         <v>332</v>
-      </c>
-      <c r="C184" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -6321,10 +6324,10 @@
         <v>193</v>
       </c>
       <c r="B185" t="s">
+        <v>333</v>
+      </c>
+      <c r="C185" t="s">
         <v>334</v>
-      </c>
-      <c r="C185" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -6332,10 +6335,10 @@
         <v>194</v>
       </c>
       <c r="B186" t="s">
+        <v>335</v>
+      </c>
+      <c r="C186" t="s">
         <v>336</v>
-      </c>
-      <c r="C186" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -6343,10 +6346,10 @@
         <v>195</v>
       </c>
       <c r="B187" t="s">
+        <v>337</v>
+      </c>
+      <c r="C187" t="s">
         <v>338</v>
-      </c>
-      <c r="C187" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -6354,10 +6357,10 @@
         <v>196</v>
       </c>
       <c r="B188" t="s">
+        <v>339</v>
+      </c>
+      <c r="C188" t="s">
         <v>340</v>
-      </c>
-      <c r="C188" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -6365,10 +6368,10 @@
         <v>197</v>
       </c>
       <c r="B189" t="s">
+        <v>341</v>
+      </c>
+      <c r="C189" t="s">
         <v>342</v>
-      </c>
-      <c r="C189" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -6376,10 +6379,10 @@
         <v>198</v>
       </c>
       <c r="B190" t="s">
+        <v>343</v>
+      </c>
+      <c r="C190" t="s">
         <v>344</v>
-      </c>
-      <c r="C190" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -6387,10 +6390,10 @@
         <v>199</v>
       </c>
       <c r="B191" t="s">
+        <v>345</v>
+      </c>
+      <c r="C191" t="s">
         <v>346</v>
-      </c>
-      <c r="C191" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -6398,10 +6401,10 @@
         <v>200</v>
       </c>
       <c r="B192" t="s">
+        <v>347</v>
+      </c>
+      <c r="C192" t="s">
         <v>348</v>
-      </c>
-      <c r="C192" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -6409,10 +6412,10 @@
         <v>201</v>
       </c>
       <c r="B193" t="s">
+        <v>349</v>
+      </c>
+      <c r="C193" t="s">
         <v>350</v>
-      </c>
-      <c r="C193" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -6420,10 +6423,10 @@
         <v>202</v>
       </c>
       <c r="B194" t="s">
+        <v>351</v>
+      </c>
+      <c r="C194" t="s">
         <v>352</v>
-      </c>
-      <c r="C194" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -6431,10 +6434,10 @@
         <v>203</v>
       </c>
       <c r="B195" t="s">
+        <v>353</v>
+      </c>
+      <c r="C195" t="s">
         <v>354</v>
-      </c>
-      <c r="C195" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -6442,10 +6445,10 @@
         <v>204</v>
       </c>
       <c r="B196" t="s">
+        <v>355</v>
+      </c>
+      <c r="C196" t="s">
         <v>356</v>
-      </c>
-      <c r="C196" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -6453,10 +6456,10 @@
         <v>205</v>
       </c>
       <c r="B197" t="s">
+        <v>357</v>
+      </c>
+      <c r="C197" t="s">
         <v>358</v>
-      </c>
-      <c r="C197" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -6464,10 +6467,10 @@
         <v>206</v>
       </c>
       <c r="B198" t="s">
+        <v>359</v>
+      </c>
+      <c r="C198" t="s">
         <v>360</v>
-      </c>
-      <c r="C198" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -6475,10 +6478,10 @@
         <v>207</v>
       </c>
       <c r="B199" t="s">
+        <v>361</v>
+      </c>
+      <c r="C199" t="s">
         <v>362</v>
-      </c>
-      <c r="C199" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -6486,10 +6489,10 @@
         <v>208</v>
       </c>
       <c r="B200" t="s">
+        <v>363</v>
+      </c>
+      <c r="C200" t="s">
         <v>364</v>
-      </c>
-      <c r="C200" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -6497,10 +6500,10 @@
         <v>209</v>
       </c>
       <c r="B201" t="s">
+        <v>365</v>
+      </c>
+      <c r="C201" t="s">
         <v>366</v>
-      </c>
-      <c r="C201" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -6508,10 +6511,10 @@
         <v>210</v>
       </c>
       <c r="B202" t="s">
+        <v>367</v>
+      </c>
+      <c r="C202" t="s">
         <v>368</v>
-      </c>
-      <c r="C202" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -6519,10 +6522,10 @@
         <v>211</v>
       </c>
       <c r="B203" t="s">
+        <v>369</v>
+      </c>
+      <c r="C203" t="s">
         <v>370</v>
-      </c>
-      <c r="C203" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -6530,10 +6533,10 @@
         <v>212</v>
       </c>
       <c r="B204" t="s">
+        <v>371</v>
+      </c>
+      <c r="C204" t="s">
         <v>372</v>
-      </c>
-      <c r="C204" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -6541,10 +6544,10 @@
         <v>213</v>
       </c>
       <c r="B205" t="s">
+        <v>373</v>
+      </c>
+      <c r="C205" t="s">
         <v>374</v>
-      </c>
-      <c r="C205" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -6552,10 +6555,10 @@
         <v>214</v>
       </c>
       <c r="B206" t="s">
+        <v>375</v>
+      </c>
+      <c r="C206" t="s">
         <v>376</v>
-      </c>
-      <c r="C206" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -6563,10 +6566,10 @@
         <v>215</v>
       </c>
       <c r="B207" t="s">
+        <v>377</v>
+      </c>
+      <c r="C207" t="s">
         <v>378</v>
-      </c>
-      <c r="C207" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -6574,10 +6577,10 @@
         <v>217</v>
       </c>
       <c r="B208" t="s">
+        <v>379</v>
+      </c>
+      <c r="C208" t="s">
         <v>380</v>
-      </c>
-      <c r="C208" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -6585,10 +6588,10 @@
         <v>218</v>
       </c>
       <c r="B209" t="s">
+        <v>381</v>
+      </c>
+      <c r="C209" t="s">
         <v>382</v>
-      </c>
-      <c r="C209" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -6596,10 +6599,10 @@
         <v>219</v>
       </c>
       <c r="B210" t="s">
+        <v>383</v>
+      </c>
+      <c r="C210" t="s">
         <v>384</v>
-      </c>
-      <c r="C210" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -6607,10 +6610,10 @@
         <v>220</v>
       </c>
       <c r="B211" t="s">
+        <v>385</v>
+      </c>
+      <c r="C211" t="s">
         <v>386</v>
-      </c>
-      <c r="C211" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -6618,10 +6621,10 @@
         <v>221</v>
       </c>
       <c r="B212" t="s">
+        <v>387</v>
+      </c>
+      <c r="C212" t="s">
         <v>388</v>
-      </c>
-      <c r="C212" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -6629,10 +6632,10 @@
         <v>222</v>
       </c>
       <c r="B213" t="s">
+        <v>389</v>
+      </c>
+      <c r="C213" t="s">
         <v>390</v>
-      </c>
-      <c r="C213" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -6640,10 +6643,10 @@
         <v>223</v>
       </c>
       <c r="B214" t="s">
+        <v>391</v>
+      </c>
+      <c r="C214" t="s">
         <v>392</v>
-      </c>
-      <c r="C214" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -6651,10 +6654,10 @@
         <v>224</v>
       </c>
       <c r="B215" t="s">
+        <v>393</v>
+      </c>
+      <c r="C215" t="s">
         <v>394</v>
-      </c>
-      <c r="C215" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -6662,10 +6665,10 @@
         <v>225</v>
       </c>
       <c r="B216" t="s">
+        <v>395</v>
+      </c>
+      <c r="C216" t="s">
         <v>396</v>
-      </c>
-      <c r="C216" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -6673,10 +6676,10 @@
         <v>226</v>
       </c>
       <c r="B217" t="s">
+        <v>397</v>
+      </c>
+      <c r="C217" t="s">
         <v>398</v>
-      </c>
-      <c r="C217" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -6684,10 +6687,10 @@
         <v>227</v>
       </c>
       <c r="B218" t="s">
+        <v>399</v>
+      </c>
+      <c r="C218" t="s">
         <v>400</v>
-      </c>
-      <c r="C218" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -6695,10 +6698,10 @@
         <v>228</v>
       </c>
       <c r="B219" t="s">
+        <v>401</v>
+      </c>
+      <c r="C219" t="s">
         <v>402</v>
-      </c>
-      <c r="C219" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -6706,10 +6709,10 @@
         <v>229</v>
       </c>
       <c r="B220" t="s">
+        <v>403</v>
+      </c>
+      <c r="C220" t="s">
         <v>404</v>
-      </c>
-      <c r="C220" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -6717,10 +6720,10 @@
         <v>230</v>
       </c>
       <c r="B221" t="s">
+        <v>405</v>
+      </c>
+      <c r="C221" t="s">
         <v>406</v>
-      </c>
-      <c r="C221" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -6728,10 +6731,10 @@
         <v>231</v>
       </c>
       <c r="B222" t="s">
+        <v>407</v>
+      </c>
+      <c r="C222" t="s">
         <v>408</v>
-      </c>
-      <c r="C222" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -6739,10 +6742,10 @@
         <v>232</v>
       </c>
       <c r="B223" t="s">
+        <v>409</v>
+      </c>
+      <c r="C223" t="s">
         <v>410</v>
-      </c>
-      <c r="C223" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -6750,10 +6753,10 @@
         <v>233</v>
       </c>
       <c r="B224" t="s">
+        <v>411</v>
+      </c>
+      <c r="C224" t="s">
         <v>412</v>
-      </c>
-      <c r="C224" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -6761,10 +6764,10 @@
         <v>234</v>
       </c>
       <c r="B225" t="s">
+        <v>413</v>
+      </c>
+      <c r="C225" t="s">
         <v>414</v>
-      </c>
-      <c r="C225" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -6772,10 +6775,10 @@
         <v>235</v>
       </c>
       <c r="B226" t="s">
+        <v>415</v>
+      </c>
+      <c r="C226" t="s">
         <v>416</v>
-      </c>
-      <c r="C226" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -6783,10 +6786,10 @@
         <v>236</v>
       </c>
       <c r="B227" t="s">
+        <v>417</v>
+      </c>
+      <c r="C227" t="s">
         <v>418</v>
-      </c>
-      <c r="C227" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -6794,10 +6797,10 @@
         <v>237</v>
       </c>
       <c r="B228" t="s">
+        <v>419</v>
+      </c>
+      <c r="C228" t="s">
         <v>420</v>
-      </c>
-      <c r="C228" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -6805,10 +6808,10 @@
         <v>238</v>
       </c>
       <c r="B229" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C229" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -6816,10 +6819,10 @@
         <v>239</v>
       </c>
       <c r="B230" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C230" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -6827,10 +6830,10 @@
         <v>240</v>
       </c>
       <c r="B231" t="s">
+        <v>423</v>
+      </c>
+      <c r="C231" t="s">
         <v>424</v>
-      </c>
-      <c r="C231" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -6838,10 +6841,10 @@
         <v>241</v>
       </c>
       <c r="B232" t="s">
+        <v>425</v>
+      </c>
+      <c r="C232" t="s">
         <v>426</v>
-      </c>
-      <c r="C232" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -6849,10 +6852,10 @@
         <v>242</v>
       </c>
       <c r="B233" t="s">
+        <v>427</v>
+      </c>
+      <c r="C233" t="s">
         <v>428</v>
-      </c>
-      <c r="C233" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -6860,10 +6863,10 @@
         <v>243</v>
       </c>
       <c r="B234" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C234" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -6871,10 +6874,10 @@
         <v>244</v>
       </c>
       <c r="B235" t="s">
+        <v>430</v>
+      </c>
+      <c r="C235" t="s">
         <v>431</v>
-      </c>
-      <c r="C235" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -6882,10 +6885,10 @@
         <v>245</v>
       </c>
       <c r="B236" t="s">
+        <v>432</v>
+      </c>
+      <c r="C236" t="s">
         <v>433</v>
-      </c>
-      <c r="C236" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -6893,10 +6896,10 @@
         <v>246</v>
       </c>
       <c r="B237" t="s">
+        <v>434</v>
+      </c>
+      <c r="C237" t="s">
         <v>435</v>
-      </c>
-      <c r="C237" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -6904,10 +6907,10 @@
         <v>247</v>
       </c>
       <c r="B238" t="s">
+        <v>436</v>
+      </c>
+      <c r="C238" t="s">
         <v>437</v>
-      </c>
-      <c r="C238" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -6915,10 +6918,10 @@
         <v>248</v>
       </c>
       <c r="B239" t="s">
+        <v>438</v>
+      </c>
+      <c r="C239" t="s">
         <v>439</v>
-      </c>
-      <c r="C239" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -6926,10 +6929,10 @@
         <v>249</v>
       </c>
       <c r="B240" t="s">
+        <v>440</v>
+      </c>
+      <c r="C240" t="s">
         <v>441</v>
-      </c>
-      <c r="C240" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -6937,10 +6940,10 @@
         <v>250</v>
       </c>
       <c r="B241" t="s">
+        <v>442</v>
+      </c>
+      <c r="C241" t="s">
         <v>443</v>
-      </c>
-      <c r="C241" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -6948,10 +6951,10 @@
         <v>251</v>
       </c>
       <c r="B242" t="s">
+        <v>444</v>
+      </c>
+      <c r="C242" t="s">
         <v>445</v>
-      </c>
-      <c r="C242" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -6959,10 +6962,10 @@
         <v>252</v>
       </c>
       <c r="B243" t="s">
+        <v>446</v>
+      </c>
+      <c r="C243" t="s">
         <v>447</v>
-      </c>
-      <c r="C243" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -6970,10 +6973,10 @@
         <v>253</v>
       </c>
       <c r="B244" t="s">
+        <v>448</v>
+      </c>
+      <c r="C244" t="s">
         <v>449</v>
-      </c>
-      <c r="C244" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -6981,10 +6984,10 @@
         <v>254</v>
       </c>
       <c r="B245" t="s">
+        <v>450</v>
+      </c>
+      <c r="C245" t="s">
         <v>451</v>
-      </c>
-      <c r="C245" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -6992,10 +6995,10 @@
         <v>255</v>
       </c>
       <c r="B246" t="s">
+        <v>452</v>
+      </c>
+      <c r="C246" t="s">
         <v>453</v>
-      </c>
-      <c r="C246" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -7003,10 +7006,10 @@
         <v>256</v>
       </c>
       <c r="B247" t="s">
+        <v>454</v>
+      </c>
+      <c r="C247" t="s">
         <v>455</v>
-      </c>
-      <c r="C247" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -7014,10 +7017,10 @@
         <v>257</v>
       </c>
       <c r="B248" t="s">
+        <v>456</v>
+      </c>
+      <c r="C248" t="s">
         <v>457</v>
-      </c>
-      <c r="C248" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -7025,10 +7028,10 @@
         <v>258</v>
       </c>
       <c r="B249" t="s">
+        <v>458</v>
+      </c>
+      <c r="C249" t="s">
         <v>459</v>
-      </c>
-      <c r="C249" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -7036,10 +7039,10 @@
         <v>259</v>
       </c>
       <c r="B250" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C250" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -7047,10 +7050,10 @@
         <v>260</v>
       </c>
       <c r="B251" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C251" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -7058,10 +7061,10 @@
         <v>261</v>
       </c>
       <c r="B252" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C252" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -7069,10 +7072,10 @@
         <v>262</v>
       </c>
       <c r="B253" t="s">
+        <v>463</v>
+      </c>
+      <c r="C253" t="s">
         <v>464</v>
-      </c>
-      <c r="C253" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -7080,10 +7083,10 @@
         <v>263</v>
       </c>
       <c r="B254" t="s">
+        <v>465</v>
+      </c>
+      <c r="C254" t="s">
         <v>466</v>
-      </c>
-      <c r="C254" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -7091,10 +7094,10 @@
         <v>264</v>
       </c>
       <c r="B255" t="s">
+        <v>467</v>
+      </c>
+      <c r="C255" t="s">
         <v>468</v>
-      </c>
-      <c r="C255" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -7102,10 +7105,10 @@
         <v>265</v>
       </c>
       <c r="B256" t="s">
+        <v>469</v>
+      </c>
+      <c r="C256" t="s">
         <v>470</v>
-      </c>
-      <c r="C256" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -7113,10 +7116,10 @@
         <v>266</v>
       </c>
       <c r="B257" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C257" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -7124,10 +7127,10 @@
         <v>267</v>
       </c>
       <c r="B258" t="s">
+        <v>472</v>
+      </c>
+      <c r="C258" t="s">
         <v>473</v>
-      </c>
-      <c r="C258" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -7135,10 +7138,10 @@
         <v>268</v>
       </c>
       <c r="B259" t="s">
+        <v>474</v>
+      </c>
+      <c r="C259" t="s">
         <v>475</v>
-      </c>
-      <c r="C259" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -7146,10 +7149,10 @@
         <v>269</v>
       </c>
       <c r="B260" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C260" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -7157,10 +7160,10 @@
         <v>270</v>
       </c>
       <c r="B261" t="s">
+        <v>477</v>
+      </c>
+      <c r="C261" t="s">
         <v>478</v>
-      </c>
-      <c r="C261" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -7168,10 +7171,10 @@
         <v>271</v>
       </c>
       <c r="B262" t="s">
+        <v>479</v>
+      </c>
+      <c r="C262" t="s">
         <v>480</v>
-      </c>
-      <c r="C262" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -7179,10 +7182,10 @@
         <v>272</v>
       </c>
       <c r="B263" t="s">
+        <v>481</v>
+      </c>
+      <c r="C263" t="s">
         <v>482</v>
-      </c>
-      <c r="C263" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -7190,10 +7193,10 @@
         <v>274</v>
       </c>
       <c r="B264" t="s">
+        <v>483</v>
+      </c>
+      <c r="C264" t="s">
         <v>484</v>
-      </c>
-      <c r="C264" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -7201,10 +7204,10 @@
         <v>275</v>
       </c>
       <c r="B265" t="s">
+        <v>485</v>
+      </c>
+      <c r="C265" t="s">
         <v>486</v>
-      </c>
-      <c r="C265" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -7212,10 +7215,10 @@
         <v>276</v>
       </c>
       <c r="B266" t="s">
+        <v>487</v>
+      </c>
+      <c r="C266" t="s">
         <v>488</v>
-      </c>
-      <c r="C266" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -7223,10 +7226,10 @@
         <v>277</v>
       </c>
       <c r="B267" t="s">
+        <v>489</v>
+      </c>
+      <c r="C267" t="s">
         <v>490</v>
-      </c>
-      <c r="C267" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -7234,10 +7237,10 @@
         <v>278</v>
       </c>
       <c r="B268" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C268" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -7245,10 +7248,10 @@
         <v>279</v>
       </c>
       <c r="B269" t="s">
+        <v>492</v>
+      </c>
+      <c r="C269" t="s">
         <v>493</v>
-      </c>
-      <c r="C269" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -7256,10 +7259,10 @@
         <v>280</v>
       </c>
       <c r="B270" t="s">
+        <v>494</v>
+      </c>
+      <c r="C270" t="s">
         <v>495</v>
-      </c>
-      <c r="C270" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -7267,10 +7270,10 @@
         <v>281</v>
       </c>
       <c r="B271" t="s">
+        <v>496</v>
+      </c>
+      <c r="C271" t="s">
         <v>497</v>
-      </c>
-      <c r="C271" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -7278,10 +7281,10 @@
         <v>282</v>
       </c>
       <c r="B272" t="s">
+        <v>498</v>
+      </c>
+      <c r="C272" t="s">
         <v>499</v>
-      </c>
-      <c r="C272" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -7289,10 +7292,10 @@
         <v>283</v>
       </c>
       <c r="B273" t="s">
+        <v>500</v>
+      </c>
+      <c r="C273" t="s">
         <v>501</v>
-      </c>
-      <c r="C273" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -7300,10 +7303,10 @@
         <v>284</v>
       </c>
       <c r="B274" t="s">
+        <v>502</v>
+      </c>
+      <c r="C274" t="s">
         <v>503</v>
-      </c>
-      <c r="C274" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -7311,10 +7314,10 @@
         <v>285</v>
       </c>
       <c r="B275" t="s">
+        <v>504</v>
+      </c>
+      <c r="C275" t="s">
         <v>505</v>
-      </c>
-      <c r="C275" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -7322,10 +7325,10 @@
         <v>286</v>
       </c>
       <c r="B276" t="s">
+        <v>506</v>
+      </c>
+      <c r="C276" t="s">
         <v>507</v>
-      </c>
-      <c r="C276" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -7333,10 +7336,10 @@
         <v>287</v>
       </c>
       <c r="B277" t="s">
+        <v>508</v>
+      </c>
+      <c r="C277" t="s">
         <v>509</v>
-      </c>
-      <c r="C277" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -7344,10 +7347,10 @@
         <v>288</v>
       </c>
       <c r="B278" t="s">
+        <v>510</v>
+      </c>
+      <c r="C278" t="s">
         <v>511</v>
-      </c>
-      <c r="C278" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -7355,10 +7358,10 @@
         <v>289</v>
       </c>
       <c r="B279" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C279" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -7366,10 +7369,10 @@
         <v>290</v>
       </c>
       <c r="B280" t="s">
+        <v>513</v>
+      </c>
+      <c r="C280" t="s">
         <v>514</v>
-      </c>
-      <c r="C280" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -7377,10 +7380,10 @@
         <v>291</v>
       </c>
       <c r="B281" t="s">
+        <v>515</v>
+      </c>
+      <c r="C281" t="s">
         <v>516</v>
-      </c>
-      <c r="C281" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -7388,10 +7391,10 @@
         <v>292</v>
       </c>
       <c r="B282" t="s">
+        <v>517</v>
+      </c>
+      <c r="C282" t="s">
         <v>518</v>
-      </c>
-      <c r="C282" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -7399,10 +7402,10 @@
         <v>293</v>
       </c>
       <c r="B283" t="s">
+        <v>519</v>
+      </c>
+      <c r="C283" t="s">
         <v>520</v>
-      </c>
-      <c r="C283" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -7410,10 +7413,10 @@
         <v>294</v>
       </c>
       <c r="B284" t="s">
+        <v>521</v>
+      </c>
+      <c r="C284" t="s">
         <v>522</v>
-      </c>
-      <c r="C284" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -7421,10 +7424,10 @@
         <v>295</v>
       </c>
       <c r="B285" t="s">
+        <v>523</v>
+      </c>
+      <c r="C285" t="s">
         <v>524</v>
-      </c>
-      <c r="C285" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -7432,10 +7435,10 @@
         <v>296</v>
       </c>
       <c r="B286" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C286" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -7443,10 +7446,10 @@
         <v>297</v>
       </c>
       <c r="B287" t="s">
+        <v>526</v>
+      </c>
+      <c r="C287" t="s">
         <v>527</v>
-      </c>
-      <c r="C287" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -7454,10 +7457,10 @@
         <v>298</v>
       </c>
       <c r="B288" t="s">
+        <v>528</v>
+      </c>
+      <c r="C288" t="s">
         <v>529</v>
-      </c>
-      <c r="C288" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -7465,10 +7468,10 @@
         <v>299</v>
       </c>
       <c r="B289" t="s">
+        <v>530</v>
+      </c>
+      <c r="C289" t="s">
         <v>531</v>
-      </c>
-      <c r="C289" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -7476,10 +7479,10 @@
         <v>300</v>
       </c>
       <c r="B290" t="s">
+        <v>532</v>
+      </c>
+      <c r="C290" t="s">
         <v>533</v>
-      </c>
-      <c r="C290" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -7487,10 +7490,10 @@
         <v>301</v>
       </c>
       <c r="B291" t="s">
+        <v>534</v>
+      </c>
+      <c r="C291" t="s">
         <v>535</v>
-      </c>
-      <c r="C291" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -7498,10 +7501,10 @@
         <v>302</v>
       </c>
       <c r="B292" t="s">
+        <v>536</v>
+      </c>
+      <c r="C292" t="s">
         <v>537</v>
-      </c>
-      <c r="C292" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -7509,10 +7512,10 @@
         <v>303</v>
       </c>
       <c r="B293" t="s">
+        <v>538</v>
+      </c>
+      <c r="C293" t="s">
         <v>539</v>
-      </c>
-      <c r="C293" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -7520,10 +7523,10 @@
         <v>304</v>
       </c>
       <c r="B294" t="s">
+        <v>540</v>
+      </c>
+      <c r="C294" t="s">
         <v>541</v>
-      </c>
-      <c r="C294" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -7531,10 +7534,10 @@
         <v>305</v>
       </c>
       <c r="B295" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C295" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -7542,10 +7545,10 @@
         <v>306</v>
       </c>
       <c r="B296" t="s">
+        <v>543</v>
+      </c>
+      <c r="C296" t="s">
         <v>544</v>
-      </c>
-      <c r="C296" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -7553,10 +7556,10 @@
         <v>307</v>
       </c>
       <c r="B297" t="s">
+        <v>545</v>
+      </c>
+      <c r="C297" t="s">
         <v>546</v>
-      </c>
-      <c r="C297" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -7564,10 +7567,10 @@
         <v>308</v>
       </c>
       <c r="B298" t="s">
+        <v>547</v>
+      </c>
+      <c r="C298" t="s">
         <v>548</v>
-      </c>
-      <c r="C298" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
@@ -7575,10 +7578,10 @@
         <v>309</v>
       </c>
       <c r="B299" t="s">
+        <v>549</v>
+      </c>
+      <c r="C299" t="s">
         <v>550</v>
-      </c>
-      <c r="C299" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
@@ -7586,10 +7589,10 @@
         <v>310</v>
       </c>
       <c r="B300" t="s">
+        <v>551</v>
+      </c>
+      <c r="C300" t="s">
         <v>552</v>
-      </c>
-      <c r="C300" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -7597,10 +7600,10 @@
         <v>311</v>
       </c>
       <c r="B301" t="s">
+        <v>553</v>
+      </c>
+      <c r="C301" t="s">
         <v>554</v>
-      </c>
-      <c r="C301" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -7608,10 +7611,10 @@
         <v>312</v>
       </c>
       <c r="B302" t="s">
+        <v>555</v>
+      </c>
+      <c r="C302" t="s">
         <v>556</v>
-      </c>
-      <c r="C302" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -7619,10 +7622,10 @@
         <v>313</v>
       </c>
       <c r="B303" t="s">
+        <v>557</v>
+      </c>
+      <c r="C303" t="s">
         <v>558</v>
-      </c>
-      <c r="C303" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -7630,10 +7633,10 @@
         <v>314</v>
       </c>
       <c r="B304" t="s">
+        <v>559</v>
+      </c>
+      <c r="C304" t="s">
         <v>560</v>
-      </c>
-      <c r="C304" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -7641,10 +7644,10 @@
         <v>315</v>
       </c>
       <c r="B305" t="s">
+        <v>561</v>
+      </c>
+      <c r="C305" t="s">
         <v>562</v>
-      </c>
-      <c r="C305" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -7652,10 +7655,10 @@
         <v>316</v>
       </c>
       <c r="B306" t="s">
+        <v>563</v>
+      </c>
+      <c r="C306" t="s">
         <v>564</v>
-      </c>
-      <c r="C306" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -7663,10 +7666,10 @@
         <v>317</v>
       </c>
       <c r="B307" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C307" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -7674,10 +7677,10 @@
         <v>318</v>
       </c>
       <c r="B308" t="s">
+        <v>566</v>
+      </c>
+      <c r="C308" t="s">
         <v>567</v>
-      </c>
-      <c r="C308" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -7685,10 +7688,10 @@
         <v>319</v>
       </c>
       <c r="B309" t="s">
+        <v>568</v>
+      </c>
+      <c r="C309" t="s">
         <v>569</v>
-      </c>
-      <c r="C309" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -7696,10 +7699,10 @@
         <v>320</v>
       </c>
       <c r="B310" t="s">
+        <v>570</v>
+      </c>
+      <c r="C310" t="s">
         <v>571</v>
-      </c>
-      <c r="C310" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -7707,10 +7710,10 @@
         <v>321</v>
       </c>
       <c r="B311" t="s">
+        <v>572</v>
+      </c>
+      <c r="C311" t="s">
         <v>573</v>
-      </c>
-      <c r="C311" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -7718,10 +7721,10 @@
         <v>322</v>
       </c>
       <c r="B312" t="s">
+        <v>574</v>
+      </c>
+      <c r="C312" t="s">
         <v>575</v>
-      </c>
-      <c r="C312" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -7729,10 +7732,10 @@
         <v>323</v>
       </c>
       <c r="B313" t="s">
+        <v>576</v>
+      </c>
+      <c r="C313" t="s">
         <v>577</v>
-      </c>
-      <c r="C313" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -7740,10 +7743,10 @@
         <v>324</v>
       </c>
       <c r="B314" t="s">
+        <v>578</v>
+      </c>
+      <c r="C314" t="s">
         <v>579</v>
-      </c>
-      <c r="C314" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -7751,10 +7754,10 @@
         <v>325</v>
       </c>
       <c r="B315" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C315" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -7762,10 +7765,10 @@
         <v>326</v>
       </c>
       <c r="B316" t="s">
+        <v>581</v>
+      </c>
+      <c r="C316" t="s">
         <v>582</v>
-      </c>
-      <c r="C316" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -7773,10 +7776,10 @@
         <v>327</v>
       </c>
       <c r="B317" t="s">
+        <v>583</v>
+      </c>
+      <c r="C317" t="s">
         <v>584</v>
-      </c>
-      <c r="C317" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -7784,10 +7787,10 @@
         <v>328</v>
       </c>
       <c r="B318" t="s">
+        <v>585</v>
+      </c>
+      <c r="C318" t="s">
         <v>586</v>
-      </c>
-      <c r="C318" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -7795,10 +7798,10 @@
         <v>329</v>
       </c>
       <c r="B319" t="s">
+        <v>587</v>
+      </c>
+      <c r="C319" t="s">
         <v>588</v>
-      </c>
-      <c r="C319" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -7806,10 +7809,10 @@
         <v>330</v>
       </c>
       <c r="B320" t="s">
+        <v>589</v>
+      </c>
+      <c r="C320" t="s">
         <v>590</v>
-      </c>
-      <c r="C320" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -7817,10 +7820,10 @@
         <v>331</v>
       </c>
       <c r="B321" t="s">
+        <v>591</v>
+      </c>
+      <c r="C321" t="s">
         <v>592</v>
-      </c>
-      <c r="C321" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -7828,10 +7831,10 @@
         <v>332</v>
       </c>
       <c r="B322" t="s">
+        <v>593</v>
+      </c>
+      <c r="C322" t="s">
         <v>594</v>
-      </c>
-      <c r="C322" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -7839,10 +7842,10 @@
         <v>333</v>
       </c>
       <c r="B323" t="s">
+        <v>595</v>
+      </c>
+      <c r="C323" t="s">
         <v>596</v>
-      </c>
-      <c r="C323" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -7850,10 +7853,10 @@
         <v>334</v>
       </c>
       <c r="B324" t="s">
+        <v>597</v>
+      </c>
+      <c r="C324" t="s">
         <v>598</v>
-      </c>
-      <c r="C324" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -7861,10 +7864,10 @@
         <v>335</v>
       </c>
       <c r="B325" t="s">
+        <v>599</v>
+      </c>
+      <c r="C325" t="s">
         <v>600</v>
-      </c>
-      <c r="C325" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -7872,10 +7875,10 @@
         <v>336</v>
       </c>
       <c r="B326" t="s">
+        <v>601</v>
+      </c>
+      <c r="C326" t="s">
         <v>602</v>
-      </c>
-      <c r="C326" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -7883,10 +7886,10 @@
         <v>337</v>
       </c>
       <c r="B327" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="C327" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -7894,10 +7897,10 @@
         <v>338</v>
       </c>
       <c r="B328" t="s">
+        <v>603</v>
+      </c>
+      <c r="C328" t="s">
         <v>604</v>
-      </c>
-      <c r="C328" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -7905,10 +7908,10 @@
         <v>339</v>
       </c>
       <c r="B329" t="s">
+        <v>605</v>
+      </c>
+      <c r="C329" t="s">
         <v>606</v>
-      </c>
-      <c r="C329" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -7916,10 +7919,10 @@
         <v>340</v>
       </c>
       <c r="B330" t="s">
+        <v>607</v>
+      </c>
+      <c r="C330" t="s">
         <v>608</v>
-      </c>
-      <c r="C330" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -7927,10 +7930,10 @@
         <v>341</v>
       </c>
       <c r="B331" t="s">
+        <v>609</v>
+      </c>
+      <c r="C331" t="s">
         <v>610</v>
-      </c>
-      <c r="C331" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -7938,10 +7941,10 @@
         <v>342</v>
       </c>
       <c r="B332" t="s">
+        <v>611</v>
+      </c>
+      <c r="C332" t="s">
         <v>612</v>
-      </c>
-      <c r="C332" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -7949,10 +7952,10 @@
         <v>343</v>
       </c>
       <c r="B333" t="s">
+        <v>613</v>
+      </c>
+      <c r="C333" t="s">
         <v>614</v>
-      </c>
-      <c r="C333" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -7960,10 +7963,10 @@
         <v>344</v>
       </c>
       <c r="B334" t="s">
+        <v>615</v>
+      </c>
+      <c r="C334" t="s">
         <v>616</v>
-      </c>
-      <c r="C334" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -7971,10 +7974,10 @@
         <v>345</v>
       </c>
       <c r="B335" t="s">
+        <v>617</v>
+      </c>
+      <c r="C335" t="s">
         <v>618</v>
-      </c>
-      <c r="C335" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -7982,10 +7985,10 @@
         <v>346</v>
       </c>
       <c r="B336" t="s">
+        <v>619</v>
+      </c>
+      <c r="C336" t="s">
         <v>620</v>
-      </c>
-      <c r="C336" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
@@ -7993,10 +7996,10 @@
         <v>347</v>
       </c>
       <c r="B337" t="s">
+        <v>621</v>
+      </c>
+      <c r="C337" t="s">
         <v>622</v>
-      </c>
-      <c r="C337" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -8004,10 +8007,10 @@
         <v>348</v>
       </c>
       <c r="B338" t="s">
+        <v>623</v>
+      </c>
+      <c r="C338" t="s">
         <v>624</v>
-      </c>
-      <c r="C338" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -8015,10 +8018,10 @@
         <v>349</v>
       </c>
       <c r="B339" t="s">
+        <v>625</v>
+      </c>
+      <c r="C339" t="s">
         <v>626</v>
-      </c>
-      <c r="C339" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -8026,10 +8029,10 @@
         <v>350</v>
       </c>
       <c r="B340" t="s">
+        <v>627</v>
+      </c>
+      <c r="C340" t="s">
         <v>628</v>
-      </c>
-      <c r="C340" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
@@ -8037,10 +8040,10 @@
         <v>351</v>
       </c>
       <c r="B341" t="s">
+        <v>629</v>
+      </c>
+      <c r="C341" t="s">
         <v>630</v>
-      </c>
-      <c r="C341" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -8048,10 +8051,10 @@
         <v>352</v>
       </c>
       <c r="B342" t="s">
+        <v>631</v>
+      </c>
+      <c r="C342" t="s">
         <v>632</v>
-      </c>
-      <c r="C342" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -8059,10 +8062,10 @@
         <v>353</v>
       </c>
       <c r="B343" t="s">
+        <v>633</v>
+      </c>
+      <c r="C343" t="s">
         <v>634</v>
-      </c>
-      <c r="C343" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -8070,10 +8073,10 @@
         <v>354</v>
       </c>
       <c r="B344" t="s">
+        <v>635</v>
+      </c>
+      <c r="C344" t="s">
         <v>636</v>
-      </c>
-      <c r="C344" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -8081,10 +8084,10 @@
         <v>355</v>
       </c>
       <c r="B345" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C345" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -8092,10 +8095,10 @@
         <v>356</v>
       </c>
       <c r="B346" t="s">
+        <v>638</v>
+      </c>
+      <c r="C346" t="s">
         <v>639</v>
-      </c>
-      <c r="C346" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -8103,10 +8106,10 @@
         <v>357</v>
       </c>
       <c r="B347" t="s">
+        <v>640</v>
+      </c>
+      <c r="C347" t="s">
         <v>641</v>
-      </c>
-      <c r="C347" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -8114,10 +8117,10 @@
         <v>358</v>
       </c>
       <c r="B348" t="s">
+        <v>642</v>
+      </c>
+      <c r="C348" t="s">
         <v>643</v>
-      </c>
-      <c r="C348" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -8125,10 +8128,10 @@
         <v>359</v>
       </c>
       <c r="B349" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C349" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -8136,10 +8139,10 @@
         <v>360</v>
       </c>
       <c r="B350" t="s">
+        <v>645</v>
+      </c>
+      <c r="C350" t="s">
         <v>646</v>
-      </c>
-      <c r="C350" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -8147,10 +8150,10 @@
         <v>361</v>
       </c>
       <c r="B351" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C351" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -8158,10 +8161,10 @@
         <v>362</v>
       </c>
       <c r="B352" t="s">
+        <v>648</v>
+      </c>
+      <c r="C352" t="s">
         <v>649</v>
-      </c>
-      <c r="C352" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
@@ -8169,10 +8172,10 @@
         <v>363</v>
       </c>
       <c r="B353" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C353" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -8180,10 +8183,10 @@
         <v>364</v>
       </c>
       <c r="B354" t="s">
+        <v>651</v>
+      </c>
+      <c r="C354" t="s">
         <v>652</v>
-      </c>
-      <c r="C354" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
@@ -8191,10 +8194,10 @@
         <v>365</v>
       </c>
       <c r="B355" t="s">
+        <v>653</v>
+      </c>
+      <c r="C355" t="s">
         <v>654</v>
-      </c>
-      <c r="C355" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
@@ -8202,10 +8205,10 @@
         <v>366</v>
       </c>
       <c r="B356" t="s">
+        <v>655</v>
+      </c>
+      <c r="C356" t="s">
         <v>656</v>
-      </c>
-      <c r="C356" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
@@ -8213,10 +8216,10 @@
         <v>367</v>
       </c>
       <c r="B357" t="s">
+        <v>657</v>
+      </c>
+      <c r="C357" t="s">
         <v>658</v>
-      </c>
-      <c r="C357" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
@@ -8224,10 +8227,10 @@
         <v>368</v>
       </c>
       <c r="B358" t="s">
+        <v>659</v>
+      </c>
+      <c r="C358" t="s">
         <v>660</v>
-      </c>
-      <c r="C358" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
@@ -8235,10 +8238,10 @@
         <v>369</v>
       </c>
       <c r="B359" t="s">
+        <v>661</v>
+      </c>
+      <c r="C359" t="s">
         <v>662</v>
-      </c>
-      <c r="C359" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
@@ -8246,10 +8249,10 @@
         <v>370</v>
       </c>
       <c r="B360" t="s">
+        <v>663</v>
+      </c>
+      <c r="C360" t="s">
         <v>664</v>
-      </c>
-      <c r="C360" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
@@ -8257,10 +8260,10 @@
         <v>371</v>
       </c>
       <c r="B361" t="s">
+        <v>665</v>
+      </c>
+      <c r="C361" t="s">
         <v>666</v>
-      </c>
-      <c r="C361" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
@@ -8268,10 +8271,10 @@
         <v>372</v>
       </c>
       <c r="B362" t="s">
+        <v>667</v>
+      </c>
+      <c r="C362" t="s">
         <v>668</v>
-      </c>
-      <c r="C362" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
@@ -8279,10 +8282,10 @@
         <v>373</v>
       </c>
       <c r="B363" t="s">
+        <v>669</v>
+      </c>
+      <c r="C363" t="s">
         <v>670</v>
-      </c>
-      <c r="C363" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
@@ -8290,10 +8293,10 @@
         <v>374</v>
       </c>
       <c r="B364" t="s">
+        <v>671</v>
+      </c>
+      <c r="C364" t="s">
         <v>672</v>
-      </c>
-      <c r="C364" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
@@ -8301,10 +8304,10 @@
         <v>375</v>
       </c>
       <c r="B365" t="s">
+        <v>673</v>
+      </c>
+      <c r="C365" t="s">
         <v>674</v>
-      </c>
-      <c r="C365" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
@@ -8312,10 +8315,10 @@
         <v>376</v>
       </c>
       <c r="B366" t="s">
+        <v>675</v>
+      </c>
+      <c r="C366" t="s">
         <v>676</v>
-      </c>
-      <c r="C366" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
@@ -8323,10 +8326,10 @@
         <v>377</v>
       </c>
       <c r="B367" t="s">
+        <v>677</v>
+      </c>
+      <c r="C367" t="s">
         <v>678</v>
-      </c>
-      <c r="C367" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
@@ -8334,10 +8337,10 @@
         <v>378</v>
       </c>
       <c r="B368" t="s">
+        <v>679</v>
+      </c>
+      <c r="C368" t="s">
         <v>680</v>
-      </c>
-      <c r="C368" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -8345,10 +8348,10 @@
         <v>379</v>
       </c>
       <c r="B369" t="s">
+        <v>681</v>
+      </c>
+      <c r="C369" t="s">
         <v>682</v>
-      </c>
-      <c r="C369" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
@@ -8356,10 +8359,10 @@
         <v>380</v>
       </c>
       <c r="B370" t="s">
+        <v>683</v>
+      </c>
+      <c r="C370" t="s">
         <v>684</v>
-      </c>
-      <c r="C370" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
@@ -8367,10 +8370,10 @@
         <v>381</v>
       </c>
       <c r="B371" t="s">
+        <v>685</v>
+      </c>
+      <c r="C371" t="s">
         <v>686</v>
-      </c>
-      <c r="C371" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -8378,10 +8381,10 @@
         <v>382</v>
       </c>
       <c r="B372" t="s">
+        <v>687</v>
+      </c>
+      <c r="C372" t="s">
         <v>688</v>
-      </c>
-      <c r="C372" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -8389,10 +8392,10 @@
         <v>383</v>
       </c>
       <c r="B373" t="s">
+        <v>689</v>
+      </c>
+      <c r="C373" t="s">
         <v>690</v>
-      </c>
-      <c r="C373" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
@@ -8400,10 +8403,10 @@
         <v>384</v>
       </c>
       <c r="B374" t="s">
+        <v>691</v>
+      </c>
+      <c r="C374" t="s">
         <v>692</v>
-      </c>
-      <c r="C374" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -8411,10 +8414,10 @@
         <v>385</v>
       </c>
       <c r="B375" t="s">
+        <v>693</v>
+      </c>
+      <c r="C375" t="s">
         <v>694</v>
-      </c>
-      <c r="C375" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -8422,10 +8425,10 @@
         <v>386</v>
       </c>
       <c r="B376" t="s">
+        <v>695</v>
+      </c>
+      <c r="C376" t="s">
         <v>696</v>
-      </c>
-      <c r="C376" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
@@ -8433,10 +8436,10 @@
         <v>387</v>
       </c>
       <c r="B377" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C377" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
@@ -8444,10 +8447,10 @@
         <v>388</v>
       </c>
       <c r="B378" t="s">
+        <v>698</v>
+      </c>
+      <c r="C378" t="s">
         <v>699</v>
-      </c>
-      <c r="C378" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
@@ -8455,10 +8458,10 @@
         <v>389</v>
       </c>
       <c r="B379" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C379" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -8466,10 +8469,10 @@
         <v>390</v>
       </c>
       <c r="B380" t="s">
+        <v>701</v>
+      </c>
+      <c r="C380" t="s">
         <v>702</v>
-      </c>
-      <c r="C380" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -8477,10 +8480,10 @@
         <v>391</v>
       </c>
       <c r="B381" t="s">
+        <v>703</v>
+      </c>
+      <c r="C381" t="s">
         <v>704</v>
-      </c>
-      <c r="C381" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -8488,10 +8491,10 @@
         <v>392</v>
       </c>
       <c r="B382" t="s">
+        <v>705</v>
+      </c>
+      <c r="C382" t="s">
         <v>706</v>
-      </c>
-      <c r="C382" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
@@ -8499,10 +8502,10 @@
         <v>393</v>
       </c>
       <c r="B383" t="s">
+        <v>707</v>
+      </c>
+      <c r="C383" t="s">
         <v>708</v>
-      </c>
-      <c r="C383" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -8510,10 +8513,10 @@
         <v>394</v>
       </c>
       <c r="B384" t="s">
+        <v>709</v>
+      </c>
+      <c r="C384" t="s">
         <v>710</v>
-      </c>
-      <c r="C384" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
@@ -8521,10 +8524,10 @@
         <v>395</v>
       </c>
       <c r="B385" t="s">
+        <v>711</v>
+      </c>
+      <c r="C385" t="s">
         <v>712</v>
-      </c>
-      <c r="C385" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
@@ -8532,10 +8535,10 @@
         <v>396</v>
       </c>
       <c r="B386" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C386" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
@@ -8543,10 +8546,10 @@
         <v>397</v>
       </c>
       <c r="B387" t="s">
+        <v>714</v>
+      </c>
+      <c r="C387" t="s">
         <v>715</v>
-      </c>
-      <c r="C387" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -8554,10 +8557,10 @@
         <v>398</v>
       </c>
       <c r="B388" t="s">
+        <v>716</v>
+      </c>
+      <c r="C388" t="s">
         <v>717</v>
-      </c>
-      <c r="C388" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -8565,10 +8568,10 @@
         <v>399</v>
       </c>
       <c r="B389" t="s">
+        <v>718</v>
+      </c>
+      <c r="C389" t="s">
         <v>719</v>
-      </c>
-      <c r="C389" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -8576,10 +8579,10 @@
         <v>400</v>
       </c>
       <c r="B390" t="s">
+        <v>720</v>
+      </c>
+      <c r="C390" t="s">
         <v>721</v>
-      </c>
-      <c r="C390" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
@@ -8587,10 +8590,10 @@
         <v>401</v>
       </c>
       <c r="B391" t="s">
+        <v>722</v>
+      </c>
+      <c r="C391" t="s">
         <v>723</v>
-      </c>
-      <c r="C391" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
@@ -8598,10 +8601,10 @@
         <v>402</v>
       </c>
       <c r="B392" t="s">
+        <v>724</v>
+      </c>
+      <c r="C392" t="s">
         <v>725</v>
-      </c>
-      <c r="C392" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
@@ -8609,10 +8612,10 @@
         <v>403</v>
       </c>
       <c r="B393" t="s">
+        <v>726</v>
+      </c>
+      <c r="C393" t="s">
         <v>727</v>
-      </c>
-      <c r="C393" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -8620,10 +8623,10 @@
         <v>404</v>
       </c>
       <c r="B394" t="s">
+        <v>728</v>
+      </c>
+      <c r="C394" t="s">
         <v>729</v>
-      </c>
-      <c r="C394" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -8631,10 +8634,10 @@
         <v>405</v>
       </c>
       <c r="B395" t="s">
+        <v>730</v>
+      </c>
+      <c r="C395" t="s">
         <v>731</v>
-      </c>
-      <c r="C395" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
@@ -8642,10 +8645,10 @@
         <v>406</v>
       </c>
       <c r="B396" t="s">
+        <v>732</v>
+      </c>
+      <c r="C396" t="s">
         <v>733</v>
-      </c>
-      <c r="C396" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -8653,10 +8656,10 @@
         <v>407</v>
       </c>
       <c r="B397" t="s">
+        <v>734</v>
+      </c>
+      <c r="C397" t="s">
         <v>735</v>
-      </c>
-      <c r="C397" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -8664,10 +8667,10 @@
         <v>408</v>
       </c>
       <c r="B398" t="s">
+        <v>736</v>
+      </c>
+      <c r="C398" t="s">
         <v>737</v>
-      </c>
-      <c r="C398" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -8675,10 +8678,10 @@
         <v>409</v>
       </c>
       <c r="B399" t="s">
+        <v>738</v>
+      </c>
+      <c r="C399" t="s">
         <v>739</v>
-      </c>
-      <c r="C399" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -8686,10 +8689,10 @@
         <v>410</v>
       </c>
       <c r="B400" t="s">
+        <v>740</v>
+      </c>
+      <c r="C400" t="s">
         <v>741</v>
-      </c>
-      <c r="C400" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
@@ -8697,10 +8700,10 @@
         <v>411</v>
       </c>
       <c r="B401" t="s">
+        <v>742</v>
+      </c>
+      <c r="C401" t="s">
         <v>743</v>
-      </c>
-      <c r="C401" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
@@ -8708,10 +8711,10 @@
         <v>412</v>
       </c>
       <c r="B402" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C402" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
@@ -8719,10 +8722,10 @@
         <v>413</v>
       </c>
       <c r="B403" t="s">
+        <v>745</v>
+      </c>
+      <c r="C403" t="s">
         <v>746</v>
-      </c>
-      <c r="C403" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
@@ -8730,10 +8733,10 @@
         <v>414</v>
       </c>
       <c r="B404" t="s">
+        <v>747</v>
+      </c>
+      <c r="C404" t="s">
         <v>748</v>
-      </c>
-      <c r="C404" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
@@ -8741,10 +8744,10 @@
         <v>415</v>
       </c>
       <c r="B405" t="s">
+        <v>749</v>
+      </c>
+      <c r="C405" t="s">
         <v>750</v>
-      </c>
-      <c r="C405" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
@@ -8752,10 +8755,10 @@
         <v>416</v>
       </c>
       <c r="B406" t="s">
+        <v>751</v>
+      </c>
+      <c r="C406" t="s">
         <v>752</v>
-      </c>
-      <c r="C406" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
@@ -8763,10 +8766,10 @@
         <v>417</v>
       </c>
       <c r="B407" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C407" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
@@ -8774,10 +8777,10 @@
         <v>418</v>
       </c>
       <c r="B408" t="s">
+        <v>754</v>
+      </c>
+      <c r="C408" t="s">
         <v>755</v>
-      </c>
-      <c r="C408" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
@@ -8785,10 +8788,10 @@
         <v>419</v>
       </c>
       <c r="B409" t="s">
+        <v>756</v>
+      </c>
+      <c r="C409" t="s">
         <v>757</v>
-      </c>
-      <c r="C409" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
@@ -8796,10 +8799,10 @@
         <v>420</v>
       </c>
       <c r="B410" t="s">
+        <v>758</v>
+      </c>
+      <c r="C410" t="s">
         <v>759</v>
-      </c>
-      <c r="C410" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
@@ -8807,10 +8810,10 @@
         <v>421</v>
       </c>
       <c r="B411" t="s">
+        <v>760</v>
+      </c>
+      <c r="C411" t="s">
         <v>761</v>
-      </c>
-      <c r="C411" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
@@ -8818,10 +8821,10 @@
         <v>422</v>
       </c>
       <c r="B412" t="s">
+        <v>762</v>
+      </c>
+      <c r="C412" t="s">
         <v>763</v>
-      </c>
-      <c r="C412" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
@@ -8829,10 +8832,10 @@
         <v>423</v>
       </c>
       <c r="B413" t="s">
+        <v>764</v>
+      </c>
+      <c r="C413" t="s">
         <v>765</v>
-      </c>
-      <c r="C413" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
@@ -8840,10 +8843,10 @@
         <v>424</v>
       </c>
       <c r="B414" t="s">
+        <v>766</v>
+      </c>
+      <c r="C414" t="s">
         <v>767</v>
-      </c>
-      <c r="C414" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
@@ -8851,10 +8854,10 @@
         <v>425</v>
       </c>
       <c r="B415" t="s">
+        <v>768</v>
+      </c>
+      <c r="C415" t="s">
         <v>769</v>
-      </c>
-      <c r="C415" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
@@ -8862,10 +8865,10 @@
         <v>426</v>
       </c>
       <c r="B416" t="s">
+        <v>770</v>
+      </c>
+      <c r="C416" t="s">
         <v>771</v>
-      </c>
-      <c r="C416" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
@@ -8873,10 +8876,10 @@
         <v>427</v>
       </c>
       <c r="B417" t="s">
+        <v>772</v>
+      </c>
+      <c r="C417" t="s">
         <v>773</v>
-      </c>
-      <c r="C417" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
@@ -8884,10 +8887,10 @@
         <v>428</v>
       </c>
       <c r="B418" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C418" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
@@ -8895,10 +8898,10 @@
         <v>429</v>
       </c>
       <c r="B419" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C419" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
@@ -8906,10 +8909,10 @@
         <v>430</v>
       </c>
       <c r="B420" t="s">
+        <v>776</v>
+      </c>
+      <c r="C420" t="s">
         <v>777</v>
-      </c>
-      <c r="C420" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
@@ -8917,10 +8920,10 @@
         <v>431</v>
       </c>
       <c r="B421" t="s">
+        <v>778</v>
+      </c>
+      <c r="C421" t="s">
         <v>779</v>
-      </c>
-      <c r="C421" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
@@ -8928,10 +8931,10 @@
         <v>432</v>
       </c>
       <c r="B422" t="s">
+        <v>780</v>
+      </c>
+      <c r="C422" t="s">
         <v>781</v>
-      </c>
-      <c r="C422" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
@@ -8939,10 +8942,10 @@
         <v>433</v>
       </c>
       <c r="B423" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C423" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
@@ -8950,10 +8953,10 @@
         <v>434</v>
       </c>
       <c r="B424" t="s">
+        <v>783</v>
+      </c>
+      <c r="C424" t="s">
         <v>784</v>
-      </c>
-      <c r="C424" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
@@ -8961,10 +8964,10 @@
         <v>435</v>
       </c>
       <c r="B425" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C425" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
@@ -8972,10 +8975,10 @@
         <v>436</v>
       </c>
       <c r="B426" t="s">
+        <v>786</v>
+      </c>
+      <c r="C426" t="s">
         <v>787</v>
-      </c>
-      <c r="C426" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
@@ -8983,10 +8986,10 @@
         <v>437</v>
       </c>
       <c r="B427" t="s">
+        <v>788</v>
+      </c>
+      <c r="C427" t="s">
         <v>789</v>
-      </c>
-      <c r="C427" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
@@ -8994,10 +8997,10 @@
         <v>438</v>
       </c>
       <c r="B428" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C428" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
@@ -9005,10 +9008,10 @@
         <v>439</v>
       </c>
       <c r="B429" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C429" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
@@ -9016,10 +9019,10 @@
         <v>440</v>
       </c>
       <c r="B430" t="s">
+        <v>792</v>
+      </c>
+      <c r="C430" t="s">
         <v>793</v>
-      </c>
-      <c r="C430" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
@@ -9027,10 +9030,10 @@
         <v>441</v>
       </c>
       <c r="B431" t="s">
+        <v>794</v>
+      </c>
+      <c r="C431" t="s">
         <v>795</v>
-      </c>
-      <c r="C431" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
@@ -9038,10 +9041,10 @@
         <v>442</v>
       </c>
       <c r="B432" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C432" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
@@ -9049,10 +9052,10 @@
         <v>443</v>
       </c>
       <c r="B433" t="s">
+        <v>797</v>
+      </c>
+      <c r="C433" t="s">
         <v>798</v>
-      </c>
-      <c r="C433" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
@@ -9060,10 +9063,10 @@
         <v>444</v>
       </c>
       <c r="B434" t="s">
+        <v>799</v>
+      </c>
+      <c r="C434" t="s">
         <v>800</v>
-      </c>
-      <c r="C434" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
@@ -9071,10 +9074,10 @@
         <v>445</v>
       </c>
       <c r="B435" t="s">
+        <v>801</v>
+      </c>
+      <c r="C435" t="s">
         <v>802</v>
-      </c>
-      <c r="C435" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
@@ -9082,10 +9085,10 @@
         <v>446</v>
       </c>
       <c r="B436" t="s">
+        <v>803</v>
+      </c>
+      <c r="C436" t="s">
         <v>804</v>
-      </c>
-      <c r="C436" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
@@ -9093,10 +9096,10 @@
         <v>447</v>
       </c>
       <c r="B437" t="s">
+        <v>805</v>
+      </c>
+      <c r="C437" t="s">
         <v>806</v>
-      </c>
-      <c r="C437" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
@@ -9104,10 +9107,10 @@
         <v>448</v>
       </c>
       <c r="B438" t="s">
+        <v>807</v>
+      </c>
+      <c r="C438" t="s">
         <v>808</v>
-      </c>
-      <c r="C438" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
@@ -9115,10 +9118,10 @@
         <v>449</v>
       </c>
       <c r="B439" t="s">
+        <v>809</v>
+      </c>
+      <c r="C439" t="s">
         <v>810</v>
-      </c>
-      <c r="C439" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
@@ -9126,10 +9129,10 @@
         <v>450</v>
       </c>
       <c r="B440" t="s">
+        <v>811</v>
+      </c>
+      <c r="C440" t="s">
         <v>812</v>
-      </c>
-      <c r="C440" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
@@ -9137,10 +9140,10 @@
         <v>451</v>
       </c>
       <c r="B441" t="s">
+        <v>813</v>
+      </c>
+      <c r="C441" t="s">
         <v>814</v>
-      </c>
-      <c r="C441" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
@@ -9148,10 +9151,10 @@
         <v>452</v>
       </c>
       <c r="B442" t="s">
+        <v>815</v>
+      </c>
+      <c r="C442" t="s">
         <v>816</v>
-      </c>
-      <c r="C442" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
@@ -9159,10 +9162,10 @@
         <v>453</v>
       </c>
       <c r="B443" t="s">
+        <v>817</v>
+      </c>
+      <c r="C443" t="s">
         <v>818</v>
-      </c>
-      <c r="C443" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
@@ -9170,10 +9173,10 @@
         <v>455</v>
       </c>
       <c r="B444" t="s">
+        <v>819</v>
+      </c>
+      <c r="C444" t="s">
         <v>820</v>
-      </c>
-      <c r="C444" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
@@ -9181,10 +9184,10 @@
         <v>456</v>
       </c>
       <c r="B445" t="s">
+        <v>821</v>
+      </c>
+      <c r="C445" t="s">
         <v>822</v>
-      </c>
-      <c r="C445" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
@@ -9192,10 +9195,10 @@
         <v>457</v>
       </c>
       <c r="B446" t="s">
+        <v>823</v>
+      </c>
+      <c r="C446" t="s">
         <v>824</v>
-      </c>
-      <c r="C446" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
@@ -9203,10 +9206,10 @@
         <v>458</v>
       </c>
       <c r="B447" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C447" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
@@ -9214,10 +9217,10 @@
         <v>459</v>
       </c>
       <c r="B448" t="s">
+        <v>826</v>
+      </c>
+      <c r="C448" t="s">
         <v>827</v>
-      </c>
-      <c r="C448" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
@@ -9225,10 +9228,10 @@
         <v>460</v>
       </c>
       <c r="B449" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C449" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
@@ -9236,10 +9239,10 @@
         <v>461</v>
       </c>
       <c r="B450" t="s">
+        <v>829</v>
+      </c>
+      <c r="C450" t="s">
         <v>830</v>
-      </c>
-      <c r="C450" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
@@ -9247,10 +9250,10 @@
         <v>462</v>
       </c>
       <c r="B451" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C451" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
@@ -9258,10 +9261,10 @@
         <v>463</v>
       </c>
       <c r="B452" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C452" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
@@ -9269,10 +9272,10 @@
         <v>464</v>
       </c>
       <c r="B453" t="s">
+        <v>832</v>
+      </c>
+      <c r="C453" t="s">
         <v>833</v>
-      </c>
-      <c r="C453" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
@@ -9280,10 +9283,10 @@
         <v>465</v>
       </c>
       <c r="B454" t="s">
+        <v>834</v>
+      </c>
+      <c r="C454" t="s">
         <v>835</v>
-      </c>
-      <c r="C454" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
@@ -9291,10 +9294,10 @@
         <v>466</v>
       </c>
       <c r="B455" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C455" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
@@ -9302,10 +9305,10 @@
         <v>467</v>
       </c>
       <c r="B456" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C456" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
@@ -9313,10 +9316,10 @@
         <v>468</v>
       </c>
       <c r="B457" t="s">
+        <v>837</v>
+      </c>
+      <c r="C457" t="s">
         <v>838</v>
-      </c>
-      <c r="C457" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
@@ -9324,10 +9327,10 @@
         <v>469</v>
       </c>
       <c r="B458" t="s">
+        <v>839</v>
+      </c>
+      <c r="C458" t="s">
         <v>840</v>
-      </c>
-      <c r="C458" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
@@ -9335,10 +9338,10 @@
         <v>470</v>
       </c>
       <c r="B459" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C459" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
@@ -9346,7 +9349,7 @@
         <v>471</v>
       </c>
       <c r="B460" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
@@ -9354,10 +9357,10 @@
         <v>472</v>
       </c>
       <c r="B461" t="s">
+        <v>843</v>
+      </c>
+      <c r="C461" t="s">
         <v>844</v>
-      </c>
-      <c r="C461" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
@@ -9365,10 +9368,10 @@
         <v>473</v>
       </c>
       <c r="B462" t="s">
+        <v>845</v>
+      </c>
+      <c r="C462" t="s">
         <v>846</v>
-      </c>
-      <c r="C462" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
@@ -9376,10 +9379,10 @@
         <v>474</v>
       </c>
       <c r="B463" t="s">
+        <v>847</v>
+      </c>
+      <c r="C463" t="s">
         <v>848</v>
-      </c>
-      <c r="C463" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
@@ -9387,10 +9390,10 @@
         <v>475</v>
       </c>
       <c r="B464" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C464" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
@@ -9398,10 +9401,10 @@
         <v>476</v>
       </c>
       <c r="B465" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C465" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
@@ -9409,10 +9412,10 @@
         <v>477</v>
       </c>
       <c r="B466" t="s">
+        <v>851</v>
+      </c>
+      <c r="C466" t="s">
         <v>852</v>
-      </c>
-      <c r="C466" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
@@ -9420,10 +9423,10 @@
         <v>478</v>
       </c>
       <c r="B467" t="s">
+        <v>853</v>
+      </c>
+      <c r="C467" t="s">
         <v>854</v>
-      </c>
-      <c r="C467" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
@@ -9431,10 +9434,10 @@
         <v>479</v>
       </c>
       <c r="B468" t="s">
+        <v>855</v>
+      </c>
+      <c r="C468" t="s">
         <v>856</v>
-      </c>
-      <c r="C468" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
@@ -9442,10 +9445,10 @@
         <v>480</v>
       </c>
       <c r="B469" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C469" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
@@ -9453,10 +9456,10 @@
         <v>481</v>
       </c>
       <c r="B470" t="s">
+        <v>858</v>
+      </c>
+      <c r="C470" t="s">
         <v>859</v>
-      </c>
-      <c r="C470" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
@@ -9464,10 +9467,10 @@
         <v>482</v>
       </c>
       <c r="B471" t="s">
+        <v>860</v>
+      </c>
+      <c r="C471" t="s">
         <v>861</v>
-      </c>
-      <c r="C471" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
@@ -9475,10 +9478,10 @@
         <v>483</v>
       </c>
       <c r="B472" t="s">
+        <v>862</v>
+      </c>
+      <c r="C472" t="s">
         <v>863</v>
-      </c>
-      <c r="C472" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="473" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
@@ -9486,10 +9489,10 @@
         <v>484</v>
       </c>
       <c r="B473" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="C473" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
@@ -9497,10 +9500,10 @@
         <v>485</v>
       </c>
       <c r="B474" t="s">
+        <v>864</v>
+      </c>
+      <c r="C474" t="s">
         <v>865</v>
-      </c>
-      <c r="C474" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
@@ -9508,10 +9511,10 @@
         <v>486</v>
       </c>
       <c r="B475" t="s">
+        <v>866</v>
+      </c>
+      <c r="C475" t="s">
         <v>867</v>
-      </c>
-      <c r="C475" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
@@ -9519,10 +9522,10 @@
         <v>487</v>
       </c>
       <c r="B476" t="s">
+        <v>868</v>
+      </c>
+      <c r="C476" t="s">
         <v>869</v>
-      </c>
-      <c r="C476" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
@@ -9530,10 +9533,10 @@
         <v>488</v>
       </c>
       <c r="B477" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C477" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
@@ -9541,10 +9544,10 @@
         <v>489</v>
       </c>
       <c r="B478" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C478" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
@@ -9552,10 +9555,10 @@
         <v>490</v>
       </c>
       <c r="B479" t="s">
+        <v>872</v>
+      </c>
+      <c r="C479" t="s">
         <v>873</v>
-      </c>
-      <c r="C479" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
@@ -9563,10 +9566,10 @@
         <v>491</v>
       </c>
       <c r="B480" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C480" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
@@ -9574,10 +9577,10 @@
         <v>492</v>
       </c>
       <c r="B481" t="s">
+        <v>875</v>
+      </c>
+      <c r="C481" t="s">
         <v>876</v>
-      </c>
-      <c r="C481" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
@@ -9585,10 +9588,10 @@
         <v>493</v>
       </c>
       <c r="B482" t="s">
+        <v>877</v>
+      </c>
+      <c r="C482" t="s">
         <v>878</v>
-      </c>
-      <c r="C482" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
@@ -9596,10 +9599,10 @@
         <v>494</v>
       </c>
       <c r="B483" t="s">
+        <v>879</v>
+      </c>
+      <c r="C483" t="s">
         <v>880</v>
-      </c>
-      <c r="C483" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
@@ -9607,10 +9610,10 @@
         <v>496</v>
       </c>
       <c r="B484" t="s">
+        <v>881</v>
+      </c>
+      <c r="C484" t="s">
         <v>882</v>
-      </c>
-      <c r="C484" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
@@ -9618,10 +9621,10 @@
         <v>497</v>
       </c>
       <c r="B485" t="s">
+        <v>883</v>
+      </c>
+      <c r="C485" t="s">
         <v>884</v>
-      </c>
-      <c r="C485" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
@@ -9629,10 +9632,10 @@
         <v>498</v>
       </c>
       <c r="B486" t="s">
+        <v>885</v>
+      </c>
+      <c r="C486" t="s">
         <v>886</v>
-      </c>
-      <c r="C486" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
@@ -9640,10 +9643,10 @@
         <v>499</v>
       </c>
       <c r="B487" t="s">
+        <v>887</v>
+      </c>
+      <c r="C487" t="s">
         <v>888</v>
-      </c>
-      <c r="C487" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
@@ -9651,10 +9654,10 @@
         <v>500</v>
       </c>
       <c r="B488" t="s">
+        <v>889</v>
+      </c>
+      <c r="C488" t="s">
         <v>890</v>
-      </c>
-      <c r="C488" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
@@ -9662,10 +9665,10 @@
         <v>501</v>
       </c>
       <c r="B489" t="s">
+        <v>891</v>
+      </c>
+      <c r="C489" t="s">
         <v>892</v>
-      </c>
-      <c r="C489" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
@@ -9673,10 +9676,10 @@
         <v>502</v>
       </c>
       <c r="B490" t="s">
+        <v>893</v>
+      </c>
+      <c r="C490" t="s">
         <v>894</v>
-      </c>
-      <c r="C490" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
@@ -9684,10 +9687,10 @@
         <v>503</v>
       </c>
       <c r="B491" t="s">
+        <v>895</v>
+      </c>
+      <c r="C491" t="s">
         <v>896</v>
-      </c>
-      <c r="C491" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
@@ -9695,10 +9698,10 @@
         <v>504</v>
       </c>
       <c r="B492" t="s">
+        <v>897</v>
+      </c>
+      <c r="C492" t="s">
         <v>898</v>
-      </c>
-      <c r="C492" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
@@ -9706,10 +9709,10 @@
         <v>505</v>
       </c>
       <c r="B493" t="s">
+        <v>899</v>
+      </c>
+      <c r="C493" t="s">
         <v>900</v>
-      </c>
-      <c r="C493" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
@@ -9717,10 +9720,10 @@
         <v>506</v>
       </c>
       <c r="B494" t="s">
+        <v>901</v>
+      </c>
+      <c r="C494" t="s">
         <v>902</v>
-      </c>
-      <c r="C494" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
@@ -9728,10 +9731,10 @@
         <v>507</v>
       </c>
       <c r="B495" t="s">
+        <v>903</v>
+      </c>
+      <c r="C495" t="s">
         <v>904</v>
-      </c>
-      <c r="C495" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
@@ -9739,10 +9742,10 @@
         <v>508</v>
       </c>
       <c r="B496" t="s">
+        <v>905</v>
+      </c>
+      <c r="C496" t="s">
         <v>906</v>
-      </c>
-      <c r="C496" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
@@ -9750,10 +9753,10 @@
         <v>509</v>
       </c>
       <c r="B497" t="s">
+        <v>907</v>
+      </c>
+      <c r="C497" t="s">
         <v>908</v>
-      </c>
-      <c r="C497" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
@@ -9761,10 +9764,10 @@
         <v>510</v>
       </c>
       <c r="B498" t="s">
+        <v>909</v>
+      </c>
+      <c r="C498" t="s">
         <v>910</v>
-      </c>
-      <c r="C498" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
@@ -9772,7 +9775,7 @@
         <v>511</v>
       </c>
       <c r="B499" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
@@ -9780,10 +9783,10 @@
         <v>512</v>
       </c>
       <c r="B500" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C500" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
@@ -9791,10 +9794,10 @@
         <v>513</v>
       </c>
       <c r="B501" t="s">
+        <v>913</v>
+      </c>
+      <c r="C501" t="s">
         <v>914</v>
-      </c>
-      <c r="C501" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
@@ -9802,10 +9805,10 @@
         <v>514</v>
       </c>
       <c r="B502" t="s">
+        <v>915</v>
+      </c>
+      <c r="C502" t="s">
         <v>916</v>
-      </c>
-      <c r="C502" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
@@ -9813,10 +9816,10 @@
         <v>515</v>
       </c>
       <c r="B503" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="C503" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
@@ -9824,10 +9827,10 @@
         <v>516</v>
       </c>
       <c r="B504" t="s">
+        <v>917</v>
+      </c>
+      <c r="C504" t="s">
         <v>918</v>
-      </c>
-      <c r="C504" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
@@ -9835,10 +9838,10 @@
         <v>517</v>
       </c>
       <c r="B505" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C505" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
@@ -9846,10 +9849,10 @@
         <v>518</v>
       </c>
       <c r="B506" t="s">
+        <v>920</v>
+      </c>
+      <c r="C506" t="s">
         <v>921</v>
-      </c>
-      <c r="C506" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
@@ -9857,10 +9860,10 @@
         <v>519</v>
       </c>
       <c r="B507" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C507" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
@@ -9868,10 +9871,10 @@
         <v>520</v>
       </c>
       <c r="B508" t="s">
+        <v>923</v>
+      </c>
+      <c r="C508" t="s">
         <v>924</v>
-      </c>
-      <c r="C508" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
@@ -9879,10 +9882,10 @@
         <v>521</v>
       </c>
       <c r="B509" t="s">
+        <v>925</v>
+      </c>
+      <c r="C509" t="s">
         <v>926</v>
-      </c>
-      <c r="C509" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
@@ -9890,10 +9893,10 @@
         <v>522</v>
       </c>
       <c r="B510" t="s">
+        <v>927</v>
+      </c>
+      <c r="C510" t="s">
         <v>928</v>
-      </c>
-      <c r="C510" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
@@ -9901,10 +9904,10 @@
         <v>523</v>
       </c>
       <c r="B511" t="s">
+        <v>929</v>
+      </c>
+      <c r="C511" t="s">
         <v>930</v>
-      </c>
-      <c r="C511" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
@@ -9912,10 +9915,10 @@
         <v>524</v>
       </c>
       <c r="B512" t="s">
+        <v>931</v>
+      </c>
+      <c r="C512" t="s">
         <v>932</v>
-      </c>
-      <c r="C512" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
@@ -9923,10 +9926,10 @@
         <v>525</v>
       </c>
       <c r="B513" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C513" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
@@ -9934,10 +9937,10 @@
         <v>526</v>
       </c>
       <c r="B514" t="s">
+        <v>934</v>
+      </c>
+      <c r="C514" t="s">
         <v>935</v>
-      </c>
-      <c r="C514" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
@@ -9945,10 +9948,10 @@
         <v>527</v>
       </c>
       <c r="B515" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C515" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
@@ -9956,10 +9959,10 @@
         <v>528</v>
       </c>
       <c r="B516" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C516" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
@@ -9967,10 +9970,10 @@
         <v>529</v>
       </c>
       <c r="B517" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C517" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
@@ -9978,7 +9981,7 @@
         <v>530</v>
       </c>
       <c r="B518" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
@@ -9986,10 +9989,10 @@
         <v>531</v>
       </c>
       <c r="B519" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C519" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
@@ -9997,10 +10000,10 @@
         <v>532</v>
       </c>
       <c r="B520" t="s">
+        <v>941</v>
+      </c>
+      <c r="C520" t="s">
         <v>942</v>
-      </c>
-      <c r="C520" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
@@ -10008,10 +10011,10 @@
         <v>533</v>
       </c>
       <c r="B521" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C521" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
@@ -10019,10 +10022,10 @@
         <v>534</v>
       </c>
       <c r="B522" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C522" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
@@ -10030,10 +10033,10 @@
         <v>535</v>
       </c>
       <c r="B523" t="s">
+        <v>945</v>
+      </c>
+      <c r="C523" t="s">
         <v>946</v>
-      </c>
-      <c r="C523" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
@@ -10041,10 +10044,10 @@
         <v>536</v>
       </c>
       <c r="B524" t="s">
+        <v>947</v>
+      </c>
+      <c r="C524" t="s">
         <v>948</v>
-      </c>
-      <c r="C524" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
@@ -10052,10 +10055,10 @@
         <v>537</v>
       </c>
       <c r="B525" t="s">
+        <v>949</v>
+      </c>
+      <c r="C525" t="s">
         <v>950</v>
-      </c>
-      <c r="C525" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
@@ -10063,10 +10066,10 @@
         <v>538</v>
       </c>
       <c r="B526" t="s">
+        <v>951</v>
+      </c>
+      <c r="C526" t="s">
         <v>952</v>
-      </c>
-      <c r="C526" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
@@ -10074,10 +10077,10 @@
         <v>539</v>
       </c>
       <c r="B527" t="s">
+        <v>953</v>
+      </c>
+      <c r="C527" t="s">
         <v>954</v>
-      </c>
-      <c r="C527" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
@@ -10085,10 +10088,10 @@
         <v>540</v>
       </c>
       <c r="B528" t="s">
+        <v>955</v>
+      </c>
+      <c r="C528" t="s">
         <v>956</v>
-      </c>
-      <c r="C528" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
@@ -10096,10 +10099,10 @@
         <v>542</v>
       </c>
       <c r="B529" t="s">
+        <v>957</v>
+      </c>
+      <c r="C529" t="s">
         <v>958</v>
-      </c>
-      <c r="C529" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
@@ -10107,10 +10110,10 @@
         <v>543</v>
       </c>
       <c r="B530" t="s">
+        <v>959</v>
+      </c>
+      <c r="C530" t="s">
         <v>960</v>
-      </c>
-      <c r="C530" t="s">
-        <v>961</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
@@ -10118,10 +10121,10 @@
         <v>545</v>
       </c>
       <c r="B531" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C531" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
@@ -10129,10 +10132,10 @@
         <v>546</v>
       </c>
       <c r="B532" t="s">
+        <v>962</v>
+      </c>
+      <c r="C532" t="s">
         <v>963</v>
-      </c>
-      <c r="C532" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.25">
@@ -10140,10 +10143,10 @@
         <v>547</v>
       </c>
       <c r="B533" t="s">
+        <v>964</v>
+      </c>
+      <c r="C533" t="s">
         <v>965</v>
-      </c>
-      <c r="C533" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
@@ -10151,10 +10154,10 @@
         <v>548</v>
       </c>
       <c r="B534" t="s">
+        <v>966</v>
+      </c>
+      <c r="C534" t="s">
         <v>967</v>
-      </c>
-      <c r="C534" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.25">
@@ -10162,10 +10165,10 @@
         <v>549</v>
       </c>
       <c r="B535" t="s">
+        <v>968</v>
+      </c>
+      <c r="C535" t="s">
         <v>969</v>
-      </c>
-      <c r="C535" t="s">
-        <v>970</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.25">
@@ -10173,10 +10176,10 @@
         <v>550</v>
       </c>
       <c r="B536" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C536" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.25">
@@ -10184,10 +10187,10 @@
         <v>551</v>
       </c>
       <c r="B537" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C537" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
@@ -10195,10 +10198,10 @@
         <v>552</v>
       </c>
       <c r="B538" t="s">
+        <v>972</v>
+      </c>
+      <c r="C538" t="s">
         <v>973</v>
-      </c>
-      <c r="C538" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.25">
@@ -10206,10 +10209,10 @@
         <v>553</v>
       </c>
       <c r="B539" t="s">
+        <v>974</v>
+      </c>
+      <c r="C539" t="s">
         <v>975</v>
-      </c>
-      <c r="C539" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.25">
@@ -10217,10 +10220,10 @@
         <v>554</v>
       </c>
       <c r="B540" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C540" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.25">
@@ -10228,10 +10231,10 @@
         <v>555</v>
       </c>
       <c r="B541" t="s">
+        <v>977</v>
+      </c>
+      <c r="C541" t="s">
         <v>978</v>
-      </c>
-      <c r="C541" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.25">
@@ -10239,10 +10242,10 @@
         <v>556</v>
       </c>
       <c r="B542" t="s">
+        <v>979</v>
+      </c>
+      <c r="C542" t="s">
         <v>980</v>
-      </c>
-      <c r="C542" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.25">
@@ -10250,10 +10253,10 @@
         <v>557</v>
       </c>
       <c r="B543" t="s">
+        <v>981</v>
+      </c>
+      <c r="C543" t="s">
         <v>982</v>
-      </c>
-      <c r="C543" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.25">
@@ -10261,10 +10264,10 @@
         <v>558</v>
       </c>
       <c r="B544" t="s">
+        <v>983</v>
+      </c>
+      <c r="C544" t="s">
         <v>984</v>
-      </c>
-      <c r="C544" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.25">
@@ -10272,10 +10275,10 @@
         <v>559</v>
       </c>
       <c r="B545" t="s">
+        <v>985</v>
+      </c>
+      <c r="C545" t="s">
         <v>986</v>
-      </c>
-      <c r="C545" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.25">
@@ -10283,10 +10286,10 @@
         <v>562</v>
       </c>
       <c r="B546" t="s">
+        <v>987</v>
+      </c>
+      <c r="C546" t="s">
         <v>988</v>
-      </c>
-      <c r="C546" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.25">
@@ -10294,7 +10297,7 @@
         <v>563</v>
       </c>
       <c r="B547" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.25">
@@ -10302,10 +10305,10 @@
         <v>564</v>
       </c>
       <c r="B548" t="s">
+        <v>990</v>
+      </c>
+      <c r="C548" t="s">
         <v>991</v>
-      </c>
-      <c r="C548" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.25">
@@ -10313,10 +10316,10 @@
         <v>565</v>
       </c>
       <c r="B549" t="s">
+        <v>992</v>
+      </c>
+      <c r="C549" t="s">
         <v>993</v>
-      </c>
-      <c r="C549" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.25">
@@ -10324,10 +10327,10 @@
         <v>566</v>
       </c>
       <c r="B550" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C550" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.25">
@@ -10335,10 +10338,10 @@
         <v>567</v>
       </c>
       <c r="B551" t="s">
+        <v>995</v>
+      </c>
+      <c r="C551" t="s">
         <v>996</v>
-      </c>
-      <c r="C551" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.25">
@@ -10346,10 +10349,10 @@
         <v>568</v>
       </c>
       <c r="B552" t="s">
+        <v>997</v>
+      </c>
+      <c r="C552" t="s">
         <v>998</v>
-      </c>
-      <c r="C552" t="s">
-        <v>999</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.25">
@@ -10357,10 +10360,10 @@
         <v>569</v>
       </c>
       <c r="B553" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C553" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.25">
@@ -10368,10 +10371,10 @@
         <v>570</v>
       </c>
       <c r="B554" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C554" t="s">
         <v>1001</v>
-      </c>
-      <c r="C554" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.25">
@@ -10379,10 +10382,10 @@
         <v>571</v>
       </c>
       <c r="B555" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C555" t="s">
         <v>1003</v>
-      </c>
-      <c r="C555" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.25">
@@ -10390,10 +10393,10 @@
         <v>572</v>
       </c>
       <c r="B556" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C556" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.25">
@@ -10401,10 +10404,10 @@
         <v>577</v>
       </c>
       <c r="B557" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C557" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.25">
@@ -10412,10 +10415,10 @@
         <v>578</v>
       </c>
       <c r="B558" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C558" t="s">
         <v>1007</v>
-      </c>
-      <c r="C558" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.25">
@@ -10423,7 +10426,7 @@
         <v>579</v>
       </c>
       <c r="B559" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.25">
@@ -10431,10 +10434,10 @@
         <v>580</v>
       </c>
       <c r="B560" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C560" t="s">
         <v>1010</v>
-      </c>
-      <c r="C560" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.25">
@@ -10442,10 +10445,10 @@
         <v>581</v>
       </c>
       <c r="B561" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C561" t="s">
         <v>1012</v>
-      </c>
-      <c r="C561" t="s">
-        <v>1013</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.25">
@@ -10453,10 +10456,10 @@
         <v>582</v>
       </c>
       <c r="B562" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C562" t="s">
         <v>1014</v>
-      </c>
-      <c r="C562" t="s">
-        <v>1015</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.25">
@@ -10464,10 +10467,10 @@
         <v>583</v>
       </c>
       <c r="B563" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C563" t="s">
         <v>1016</v>
-      </c>
-      <c r="C563" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.25">
@@ -10475,10 +10478,10 @@
         <v>584</v>
       </c>
       <c r="B564" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C564" t="s">
         <v>1018</v>
-      </c>
-      <c r="C564" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.25">
@@ -10486,10 +10489,10 @@
         <v>585</v>
       </c>
       <c r="B565" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C565" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.25">
@@ -10497,10 +10500,10 @@
         <v>586</v>
       </c>
       <c r="B566" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="C566" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.25">
@@ -10508,10 +10511,10 @@
         <v>587</v>
       </c>
       <c r="B567" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C567" t="s">
         <v>1021</v>
-      </c>
-      <c r="C567" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.25">
@@ -10519,10 +10522,10 @@
         <v>588</v>
       </c>
       <c r="B568" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C568" t="s">
         <v>1023</v>
-      </c>
-      <c r="C568" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.25">
@@ -10530,10 +10533,10 @@
         <v>589</v>
       </c>
       <c r="B569" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C569" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.25">
@@ -10541,10 +10544,10 @@
         <v>590</v>
       </c>
       <c r="B570" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C570" t="s">
         <v>1026</v>
-      </c>
-      <c r="C570" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.25">
@@ -10552,10 +10555,10 @@
         <v>591</v>
       </c>
       <c r="B571" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C571" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.25">
@@ -10563,10 +10566,10 @@
         <v>592</v>
       </c>
       <c r="B572" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C572" t="s">
-        <v>1030</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.25">
@@ -10574,10 +10577,10 @@
         <v>593</v>
       </c>
       <c r="B573" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="C573" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.25">
@@ -10585,10 +10588,10 @@
         <v>594</v>
       </c>
       <c r="B574" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="C574" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.25">
@@ -10596,10 +10599,10 @@
         <v>595</v>
       </c>
       <c r="B575" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="C575" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.25">
@@ -10607,10 +10610,10 @@
         <v>596</v>
       </c>
       <c r="B576" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="C576" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.25">
@@ -10618,10 +10621,10 @@
         <v>597</v>
       </c>
       <c r="B577" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C577" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.25">
@@ -10629,10 +10632,10 @@
         <v>598</v>
       </c>
       <c r="B578" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C578" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.25">
@@ -10640,10 +10643,10 @@
         <v>599</v>
       </c>
       <c r="B579" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="C579" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.25">
@@ -10651,10 +10654,10 @@
         <v>601</v>
       </c>
       <c r="B580" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="C580" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.25">
@@ -10662,10 +10665,10 @@
         <v>602</v>
       </c>
       <c r="B581" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
       <c r="C581" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.25">
@@ -10673,10 +10676,10 @@
         <v>604</v>
       </c>
       <c r="B582" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="C582" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.25">
@@ -10684,10 +10687,10 @@
         <v>612</v>
       </c>
       <c r="B583" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="C583" t="s">
-        <v>1041</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.25">
@@ -10695,10 +10698,10 @@
         <v>617</v>
       </c>
       <c r="B584" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="C584" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.25">
@@ -10706,10 +10709,10 @@
         <v>618</v>
       </c>
       <c r="B585" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="C585" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.25">
@@ -10717,10 +10720,10 @@
         <v>625</v>
       </c>
       <c r="B586" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="C586" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.25">
@@ -10728,10 +10731,10 @@
         <v>626</v>
       </c>
       <c r="B587" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="C587" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.25">
@@ -10739,10 +10742,10 @@
         <v>629</v>
       </c>
       <c r="B588" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="C588" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.25">
@@ -10750,10 +10753,10 @@
         <v>633</v>
       </c>
       <c r="B589" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="C589" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.25">
@@ -10761,10 +10764,10 @@
         <v>635</v>
       </c>
       <c r="B590" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="C590" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.25">
@@ -10772,10 +10775,10 @@
         <v>636</v>
       </c>
       <c r="B591" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C591" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.25">
@@ -10783,10 +10786,10 @@
         <v>642</v>
       </c>
       <c r="B592" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="C592" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.25">
@@ -10794,10 +10797,10 @@
         <v>646</v>
       </c>
       <c r="B593" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="C593" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.25">
@@ -10805,10 +10808,10 @@
         <v>649</v>
       </c>
       <c r="B594" t="s">
-        <v>1221</v>
+        <v>1216</v>
       </c>
       <c r="C594" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.25">
@@ -10816,10 +10819,10 @@
         <v>650</v>
       </c>
       <c r="B595" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="C595" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.25">
@@ -10827,10 +10830,10 @@
         <v>651</v>
       </c>
       <c r="B596" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="C596" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.25">
@@ -10838,10 +10841,10 @@
         <v>653</v>
       </c>
       <c r="B597" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="C597" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.25">
@@ -10849,10 +10852,10 @@
         <v>654</v>
       </c>
       <c r="B598" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="C598" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.25">
@@ -10860,10 +10863,10 @@
         <v>655</v>
       </c>
       <c r="B599" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="C599" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.25">
@@ -10871,10 +10874,10 @@
         <v>660</v>
       </c>
       <c r="B600" t="s">
-        <v>1219</v>
+        <v>1214</v>
       </c>
       <c r="C600" t="s">
-        <v>1220</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.25">
@@ -10882,10 +10885,10 @@
         <v>661</v>
       </c>
       <c r="B601" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="C601" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.25">
@@ -10893,10 +10896,10 @@
         <v>663</v>
       </c>
       <c r="B602" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="C602" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.25">
@@ -10904,10 +10907,10 @@
         <v>667</v>
       </c>
       <c r="B603" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="C603" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.25">
@@ -10915,10 +10918,10 @@
         <v>673</v>
       </c>
       <c r="B604" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="C604" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.25">
@@ -10926,10 +10929,10 @@
         <v>674</v>
       </c>
       <c r="B605" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="C605" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.25">
@@ -10937,10 +10940,10 @@
         <v>680</v>
       </c>
       <c r="B606" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C606" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.25">
@@ -10948,10 +10951,10 @@
         <v>681</v>
       </c>
       <c r="B607" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
       <c r="C607" t="s">
-        <v>1218</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.25">
@@ -10959,10 +10962,10 @@
         <v>682</v>
       </c>
       <c r="B608" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C608" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.25">
@@ -10970,10 +10973,10 @@
         <v>684</v>
       </c>
       <c r="B609" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="C609" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.25">
@@ -10981,10 +10984,10 @@
         <v>685</v>
       </c>
       <c r="B610" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="C610" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.25">
@@ -10992,10 +10995,10 @@
         <v>686</v>
       </c>
       <c r="B611" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="C611" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.25">
@@ -11003,10 +11006,10 @@
         <v>689</v>
       </c>
       <c r="B612" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="C612" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.25">
@@ -11014,10 +11017,10 @@
         <v>697</v>
       </c>
       <c r="B613" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="C613" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.25">
@@ -11025,10 +11028,10 @@
         <v>701</v>
       </c>
       <c r="B614" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="C614" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.25">
@@ -11036,10 +11039,10 @@
         <v>704</v>
       </c>
       <c r="B615" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="C615" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.25">
@@ -11047,10 +11050,10 @@
         <v>710</v>
       </c>
       <c r="B616" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="C616" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.25">
@@ -11058,10 +11061,10 @@
         <v>10001</v>
       </c>
       <c r="B617" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="C617" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.25">
@@ -11069,17 +11072,18 @@
         <v>10003</v>
       </c>
       <c r="B618" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="C618" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C1 A121:C127 A120:B120 A617:C617 A315:B315 A316:C326 A352:C352 A351:B351 A587:C587 A575 A574:B574 A460:C463 A459:B459 A608:C608 A235:C249 A234:B234 A95:C98 A146:C149 A145:B145 A541:C549 A540:B540 A55:C57 A558:C564 A29:C29 A28:B28 A579:C579 A308:C314 A307:B307 A53:B54 A457:C458 A516:C516 A515:B515 A93:B94 A554:C555 A553:B553 A346:C348 A345:B345 A52:C52 A51:B51 A72:C78 A70:B70 A163:C169 A162:B162 A378:C378 A377:B377 A610:C612 A258:C259 A257:B257 A6:C7 A572:C573 A571:B571 A567:C568 A566 A601:C601 A21:C27 A20:B20 A420:C422 A115:C119 A114:B114 A287:C294 A286:B286 A418:B419 A80:C84 A79:B79 A504:C504 A503 A151:C153 A150:B150 A481:C499 A480:B480 A520:C520 A519:B519 A532:C535 A531:B531 A603:B606 A576:B578 A514:C514 A513:B513 A501:C502 A500:B500 A453:C454 A424:C424 A423:B423 A14:C14 A13:B13 A2:B5 A582:C585 A580:B580 A570:C570 A569:B569 A450:C450 A449:B449 A551:C552 A550:B550 A538:C539 A518:C518 A517:B517 A508:C512 A507:B507 A466:C468 A448:C448 A447:B447 A433:C446 A432:B432 A426:C431 A425:B425 A403:C406 A402:B402 A280:C285 A279:B279 A269:C278 A268:B268 A261:C267 A260:B260 A252:C256 A250:B251 A231:C233 A229:B230 A108:C113 A107:B107 A59:C69 A58:B58 A155:C161 A154:B154 A129:C144 A128:B128 A71 A9:C12 A8:B8 A590:C592 A380:C385 A379:B379 A451:B452 A523:C530 A521:B522 A506:C506 A505:B505 A470:C472 A469:B469 A455:B456 A100:C106 A99:B99 A40:C42 A32:C37 A16:C19 A15:B15 A565:B565 A556:B557 A536:B537 A478:C479 A477:B477 A408:C417 A407:B407 A387:C401 A386:B386 A328:C344 A327 A296:C306 A295:B295 A44:C50 A43:B43 A595:C597 A593:B593 A588:B589 A354:C376 A353:B353 A464:B465 A350:C350 A349:B349 A474:C476 A473 A86:C92 A85:B85 A30:B31 A38:B39 A171:C228 A170:B170 A599:C599" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C1 A121:C127 A120:B120 A617:C617 A315:B315 A316:C326 A352:C352 A351:B351 A587:C587 A575 A574:B574 A460:C463 A459:B459 A608:C608 A235:C249 A234:B234 A95:C98 A146:C149 A145:B145 A541:C549 A540:B540 A55:C57 A558:C564 A29:C29 A28:B28 A579:C579 A308:C314 A307:B307 A53:B54 A457:C458 A516:C516 A515:B515 A93:B94 A554:C555 A553:B553 A346:C348 A345:B345 A52:C52 A51:B51 A72:C78 A70:B70 A163:C169 A162:B162 A378:C378 A377:B377 A610:C612 A258:C259 A257:B257 A6:C7 A573:C573 A571:B571 A567:C568 A566 A601:C601 A21:C22 A20:B20 A420:C422 A115:C119 A114:B114 A287:C294 A286:B286 A418:B419 A80:C84 A79:B79 A504:C504 A503 A151:C153 A150:B150 A481:C499 A480:B480 A520:C520 A519:B519 A532:C535 A531:B531 A603:B606 A576:B578 A514:C514 A513:B513 A501:C502 A500:B500 A453:C454 A424:C424 A423:B423 A14:C14 A13:B13 A2:B5 A582:C582 A580:B580 A570:C570 A569:B569 A450:C450 A449:B449 A551:C552 A550:B550 A538:C539 A518:C518 A517:B517 A508:C512 A507:B507 A466:C468 A448:C448 A447:B447 A433:C446 A432:B432 A426:C431 A425:B425 A403:C406 A402:B402 A280:C285 A279:B279 A269:C278 A268:B268 A261:C267 A260:B260 A252:C256 A250:B251 A231:C233 A229:B230 A108:C113 A107:B107 A59:C69 A58:B58 A155:C161 A154:B154 A129:C144 A128:B128 A71 A9:C12 A8:B8 A590:C592 A380:C385 A379:B379 A451:B452 A523:C530 A521:B522 A506:C506 A505:B505 A470:C472 A469:B469 A455:B456 A100:C106 A99:B99 A40:C42 A32:C37 A16:C19 A15:B15 A565:B565 A556:B557 A536:B537 A478:C479 A477:B477 A408:C417 A407:B407 A387:C401 A386:B386 A328:C344 A327 A296:C306 A295:B295 A44:C50 A43:B43 A595:C597 A593:B593 A588:B589 A354:C376 A353:B353 A464:B465 A350:C350 A349:B349 A474:C476 A473 A86:C92 A85:B85 A30:B31 A38:B39 A171:C228 A170:B170 A599:C599 A584:C585 A583:B583 A572:B572 A24:C27 A23:B23" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/config/nickname_song.xlsx
+++ b/config/nickname_song.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Tsugu-Backend\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE2E9E4-D367-403B-967C-99E386079EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5E2204-6754-4436-95B0-E822AEAC2158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8376" yWindow="4308" windowWidth="18744" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -3610,10 +3610,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The Peak,最高到达点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一周的朋友</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3877,6 +3873,10 @@
   </si>
   <si>
     <t>炸梦,是的炸梦,爆炸梦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Peak,最高到达点,最高达到点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4283,8 +4283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C618"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A577" workbookViewId="0">
+      <selection activeCell="C613" sqref="C613"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -4314,7 +4314,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4380,7 +4380,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -4457,7 +4457,7 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -4545,7 +4545,7 @@
         <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -4622,7 +4622,7 @@
         <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -4633,7 +4633,7 @@
         <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -4710,7 +4710,7 @@
         <v>63</v>
       </c>
       <c r="C38" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -4721,7 +4721,7 @@
         <v>64</v>
       </c>
       <c r="C39" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -4765,7 +4765,7 @@
         <v>71</v>
       </c>
       <c r="C43" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -5070,10 +5070,10 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C71" t="s">
         <v>1164</v>
-      </c>
-      <c r="C71" t="s">
-        <v>1165</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -5227,7 +5227,7 @@
         <v>146</v>
       </c>
       <c r="C85" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -5381,7 +5381,7 @@
         <v>171</v>
       </c>
       <c r="C99" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -5700,7 +5700,7 @@
         <v>225</v>
       </c>
       <c r="C128" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -5942,7 +5942,7 @@
         <v>267</v>
       </c>
       <c r="C150" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -5986,7 +5986,7 @@
         <v>274</v>
       </c>
       <c r="C154" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -6162,7 +6162,7 @@
         <v>304</v>
       </c>
       <c r="C170" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -7537,7 +7537,7 @@
         <v>542</v>
       </c>
       <c r="C295" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -7757,7 +7757,7 @@
         <v>580</v>
       </c>
       <c r="C315" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -7886,10 +7886,10 @@
         <v>337</v>
       </c>
       <c r="B327" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C327" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -8131,7 +8131,7 @@
         <v>644</v>
       </c>
       <c r="C349" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -8175,7 +8175,7 @@
         <v>650</v>
       </c>
       <c r="C353" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -8461,7 +8461,7 @@
         <v>700</v>
       </c>
       <c r="C379" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -8538,7 +8538,7 @@
         <v>713</v>
       </c>
       <c r="C386" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
@@ -8769,7 +8769,7 @@
         <v>753</v>
       </c>
       <c r="C407" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
@@ -9253,7 +9253,7 @@
         <v>700</v>
       </c>
       <c r="C451" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
@@ -9308,7 +9308,7 @@
         <v>740</v>
       </c>
       <c r="C456" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
@@ -9393,7 +9393,7 @@
         <v>849</v>
       </c>
       <c r="C464" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
@@ -9448,7 +9448,7 @@
         <v>857</v>
       </c>
       <c r="C469" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
@@ -9489,10 +9489,10 @@
         <v>484</v>
       </c>
       <c r="B473" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C473" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
@@ -9536,7 +9536,7 @@
         <v>870</v>
       </c>
       <c r="C477" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
@@ -9841,7 +9841,7 @@
         <v>919</v>
       </c>
       <c r="C505" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
@@ -10014,7 +10014,7 @@
         <v>943</v>
       </c>
       <c r="C521" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
@@ -10025,7 +10025,7 @@
         <v>944</v>
       </c>
       <c r="C522" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
@@ -10190,7 +10190,7 @@
         <v>971</v>
       </c>
       <c r="C537" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
@@ -10396,7 +10396,7 @@
         <v>1004</v>
       </c>
       <c r="C556" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.25">
@@ -10492,7 +10492,7 @@
         <v>1019</v>
       </c>
       <c r="C565" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.25">
@@ -10558,7 +10558,7 @@
         <v>1027</v>
       </c>
       <c r="C571" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.25">
@@ -10569,7 +10569,7 @@
         <v>1028</v>
       </c>
       <c r="C572" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.25">
@@ -10613,7 +10613,7 @@
         <v>1032</v>
       </c>
       <c r="C576" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.25">
@@ -10665,10 +10665,10 @@
         <v>602</v>
       </c>
       <c r="B581" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C581" t="s">
         <v>1206</v>
-      </c>
-      <c r="C581" t="s">
-        <v>1207</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.25">
@@ -10690,7 +10690,7 @@
         <v>1038</v>
       </c>
       <c r="C583" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.25">
@@ -10745,7 +10745,7 @@
         <v>1045</v>
       </c>
       <c r="C588" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.25">
@@ -10800,7 +10800,7 @@
         <v>1053</v>
       </c>
       <c r="C593" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.25">
@@ -10808,10 +10808,10 @@
         <v>649</v>
       </c>
       <c r="B594" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C594" t="s">
         <v>1216</v>
-      </c>
-      <c r="C594" t="s">
-        <v>1217</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.25">
@@ -10852,10 +10852,10 @@
         <v>654</v>
       </c>
       <c r="B598" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C598" t="s">
         <v>1167</v>
-      </c>
-      <c r="C598" t="s">
-        <v>1168</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.25">
@@ -10874,10 +10874,10 @@
         <v>660</v>
       </c>
       <c r="B600" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C600" t="s">
         <v>1214</v>
-      </c>
-      <c r="C600" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.25">
@@ -10932,7 +10932,7 @@
         <v>1066</v>
       </c>
       <c r="C605" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.25">
@@ -10951,10 +10951,10 @@
         <v>681</v>
       </c>
       <c r="B607" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C607" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.25">
@@ -10976,7 +10976,7 @@
         <v>1078</v>
       </c>
       <c r="C609" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.25">
@@ -11020,7 +11020,7 @@
         <v>1160</v>
       </c>
       <c r="C613" t="s">
-        <v>1161</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.25">
@@ -11028,10 +11028,10 @@
         <v>701</v>
       </c>
       <c r="B614" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C614" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.25">
@@ -11050,10 +11050,10 @@
         <v>710</v>
       </c>
       <c r="B616" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C616" t="s">
         <v>1209</v>
-      </c>
-      <c r="C616" t="s">
-        <v>1210</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.25">

--- a/config/nickname_song.xlsx
+++ b/config/nickname_song.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Tsugu-Backend\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5E2204-6754-4436-95B0-E822AEAC2158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E706C019-044D-488F-AC2A-4DEF3A7E06B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1564,9 +1564,6 @@
     <t>Power of LOVE!!!</t>
   </si>
   <si>
-    <t>爱的力量!,爱的力量！,pol</t>
-  </si>
-  <si>
     <t>ZEAL of proud</t>
   </si>
   <si>
@@ -2098,9 +2095,6 @@
     <t>ヒトリゴト</t>
   </si>
   <si>
-    <t>埃罗芒阿老师,黄漫老师,情色漫画,工口,自言自语,意大利空投弹药</t>
-  </si>
-  <si>
     <t>もういちど ルミナス（コラボver）</t>
   </si>
   <si>
@@ -2275,12 +2269,6 @@
     <t>自由,免费</t>
   </si>
   <si>
-    <t>THE HISTORIC...</t>
-  </si>
-  <si>
-    <t>ruready,gdbw,184p</t>
-  </si>
-  <si>
     <t>Light a fire</t>
   </si>
   <si>
@@ -2308,13 +2296,7 @@
     <t>脱下</t>
   </si>
   <si>
-    <t>Cry Baby</t>
-  </si>
-  <si>
     <t>东京复仇者,胡子男,东万</t>
-  </si>
-  <si>
-    <t>トーキョーワンダー。</t>
   </si>
   <si>
     <t>东京复仇者,东万</t>
@@ -3877,6 +3859,30 @@
   </si>
   <si>
     <t>The Peak,最高到达点,最高达到点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>トーキョーワンダー。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cry Baby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>THE HISTORIC...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruready,gdbw,184p,历史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>埃罗芒阿老师,黄漫老师,情色漫画,工口,自言自语,意大利空投弹药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱的力量!,爱的力量！,pol,爱的力量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4283,8 +4289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C618"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A577" workbookViewId="0">
-      <selection activeCell="C613" sqref="C613"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -4314,7 +4320,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4325,7 +4331,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4336,7 +4342,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4347,7 +4353,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -4380,7 +4386,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -4435,7 +4441,7 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -4457,7 +4463,7 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -4512,7 +4518,7 @@
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -4545,7 +4551,7 @@
         <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -4600,7 +4606,7 @@
         <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -4622,7 +4628,7 @@
         <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -4633,7 +4639,7 @@
         <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -4710,7 +4716,7 @@
         <v>63</v>
       </c>
       <c r="C38" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -4721,7 +4727,7 @@
         <v>64</v>
       </c>
       <c r="C39" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -4765,7 +4771,7 @@
         <v>71</v>
       </c>
       <c r="C43" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -4853,7 +4859,7 @@
         <v>86</v>
       </c>
       <c r="C51" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -4875,7 +4881,7 @@
         <v>89</v>
       </c>
       <c r="C53" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -4886,7 +4892,7 @@
         <v>90</v>
       </c>
       <c r="C54" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -4930,7 +4936,7 @@
         <v>97</v>
       </c>
       <c r="C58" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -5062,7 +5068,7 @@
         <v>120</v>
       </c>
       <c r="C70" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -5070,10 +5076,10 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="C71" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -5161,7 +5167,7 @@
         <v>135</v>
       </c>
       <c r="C79" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -5227,7 +5233,7 @@
         <v>146</v>
       </c>
       <c r="C85" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -5315,7 +5321,7 @@
         <v>161</v>
       </c>
       <c r="C93" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -5326,7 +5332,7 @@
         <v>162</v>
       </c>
       <c r="C94" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -5381,7 +5387,7 @@
         <v>171</v>
       </c>
       <c r="C99" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -5469,7 +5475,7 @@
         <v>186</v>
       </c>
       <c r="C107" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -5546,7 +5552,7 @@
         <v>199</v>
       </c>
       <c r="C114" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -5612,7 +5618,7 @@
         <v>210</v>
       </c>
       <c r="C120" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -5700,7 +5706,7 @@
         <v>225</v>
       </c>
       <c r="C128" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -5887,7 +5893,7 @@
         <v>258</v>
       </c>
       <c r="C145" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -5942,7 +5948,7 @@
         <v>267</v>
       </c>
       <c r="C150" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -5986,7 +5992,7 @@
         <v>274</v>
       </c>
       <c r="C154" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -6074,7 +6080,7 @@
         <v>289</v>
       </c>
       <c r="C162" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -6162,7 +6168,7 @@
         <v>304</v>
       </c>
       <c r="C170" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -6811,7 +6817,7 @@
         <v>421</v>
       </c>
       <c r="C229" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -6822,7 +6828,7 @@
         <v>422</v>
       </c>
       <c r="C230" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -6866,7 +6872,7 @@
         <v>429</v>
       </c>
       <c r="C234" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -7042,7 +7048,7 @@
         <v>460</v>
       </c>
       <c r="C250" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -7053,7 +7059,7 @@
         <v>461</v>
       </c>
       <c r="C251" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -7119,7 +7125,7 @@
         <v>471</v>
       </c>
       <c r="C257" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -7152,7 +7158,7 @@
         <v>476</v>
       </c>
       <c r="C260" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -7240,7 +7246,7 @@
         <v>491</v>
       </c>
       <c r="C268" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -7361,7 +7367,7 @@
         <v>512</v>
       </c>
       <c r="C279" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -7372,7 +7378,7 @@
         <v>513</v>
       </c>
       <c r="C280" t="s">
-        <v>514</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -7380,10 +7386,10 @@
         <v>291</v>
       </c>
       <c r="B281" t="s">
+        <v>514</v>
+      </c>
+      <c r="C281" t="s">
         <v>515</v>
-      </c>
-      <c r="C281" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -7391,10 +7397,10 @@
         <v>292</v>
       </c>
       <c r="B282" t="s">
+        <v>516</v>
+      </c>
+      <c r="C282" t="s">
         <v>517</v>
-      </c>
-      <c r="C282" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -7402,10 +7408,10 @@
         <v>293</v>
       </c>
       <c r="B283" t="s">
+        <v>518</v>
+      </c>
+      <c r="C283" t="s">
         <v>519</v>
-      </c>
-      <c r="C283" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -7413,10 +7419,10 @@
         <v>294</v>
       </c>
       <c r="B284" t="s">
+        <v>520</v>
+      </c>
+      <c r="C284" t="s">
         <v>521</v>
-      </c>
-      <c r="C284" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -7424,10 +7430,10 @@
         <v>295</v>
       </c>
       <c r="B285" t="s">
+        <v>522</v>
+      </c>
+      <c r="C285" t="s">
         <v>523</v>
-      </c>
-      <c r="C285" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -7435,10 +7441,10 @@
         <v>296</v>
       </c>
       <c r="B286" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C286" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -7446,10 +7452,10 @@
         <v>297</v>
       </c>
       <c r="B287" t="s">
+        <v>525</v>
+      </c>
+      <c r="C287" t="s">
         <v>526</v>
-      </c>
-      <c r="C287" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -7457,10 +7463,10 @@
         <v>298</v>
       </c>
       <c r="B288" t="s">
+        <v>527</v>
+      </c>
+      <c r="C288" t="s">
         <v>528</v>
-      </c>
-      <c r="C288" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -7468,10 +7474,10 @@
         <v>299</v>
       </c>
       <c r="B289" t="s">
+        <v>529</v>
+      </c>
+      <c r="C289" t="s">
         <v>530</v>
-      </c>
-      <c r="C289" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -7479,10 +7485,10 @@
         <v>300</v>
       </c>
       <c r="B290" t="s">
+        <v>531</v>
+      </c>
+      <c r="C290" t="s">
         <v>532</v>
-      </c>
-      <c r="C290" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -7490,10 +7496,10 @@
         <v>301</v>
       </c>
       <c r="B291" t="s">
+        <v>533</v>
+      </c>
+      <c r="C291" t="s">
         <v>534</v>
-      </c>
-      <c r="C291" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -7501,10 +7507,10 @@
         <v>302</v>
       </c>
       <c r="B292" t="s">
+        <v>535</v>
+      </c>
+      <c r="C292" t="s">
         <v>536</v>
-      </c>
-      <c r="C292" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -7512,10 +7518,10 @@
         <v>303</v>
       </c>
       <c r="B293" t="s">
+        <v>537</v>
+      </c>
+      <c r="C293" t="s">
         <v>538</v>
-      </c>
-      <c r="C293" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -7523,10 +7529,10 @@
         <v>304</v>
       </c>
       <c r="B294" t="s">
+        <v>539</v>
+      </c>
+      <c r="C294" t="s">
         <v>540</v>
-      </c>
-      <c r="C294" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -7534,10 +7540,10 @@
         <v>305</v>
       </c>
       <c r="B295" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C295" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -7545,10 +7551,10 @@
         <v>306</v>
       </c>
       <c r="B296" t="s">
+        <v>542</v>
+      </c>
+      <c r="C296" t="s">
         <v>543</v>
-      </c>
-      <c r="C296" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -7556,10 +7562,10 @@
         <v>307</v>
       </c>
       <c r="B297" t="s">
+        <v>544</v>
+      </c>
+      <c r="C297" t="s">
         <v>545</v>
-      </c>
-      <c r="C297" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -7567,10 +7573,10 @@
         <v>308</v>
       </c>
       <c r="B298" t="s">
+        <v>546</v>
+      </c>
+      <c r="C298" t="s">
         <v>547</v>
-      </c>
-      <c r="C298" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
@@ -7578,10 +7584,10 @@
         <v>309</v>
       </c>
       <c r="B299" t="s">
+        <v>548</v>
+      </c>
+      <c r="C299" t="s">
         <v>549</v>
-      </c>
-      <c r="C299" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
@@ -7589,10 +7595,10 @@
         <v>310</v>
       </c>
       <c r="B300" t="s">
+        <v>550</v>
+      </c>
+      <c r="C300" t="s">
         <v>551</v>
-      </c>
-      <c r="C300" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -7600,10 +7606,10 @@
         <v>311</v>
       </c>
       <c r="B301" t="s">
+        <v>552</v>
+      </c>
+      <c r="C301" t="s">
         <v>553</v>
-      </c>
-      <c r="C301" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -7611,10 +7617,10 @@
         <v>312</v>
       </c>
       <c r="B302" t="s">
+        <v>554</v>
+      </c>
+      <c r="C302" t="s">
         <v>555</v>
-      </c>
-      <c r="C302" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -7622,10 +7628,10 @@
         <v>313</v>
       </c>
       <c r="B303" t="s">
+        <v>556</v>
+      </c>
+      <c r="C303" t="s">
         <v>557</v>
-      </c>
-      <c r="C303" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -7633,10 +7639,10 @@
         <v>314</v>
       </c>
       <c r="B304" t="s">
+        <v>558</v>
+      </c>
+      <c r="C304" t="s">
         <v>559</v>
-      </c>
-      <c r="C304" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -7644,10 +7650,10 @@
         <v>315</v>
       </c>
       <c r="B305" t="s">
+        <v>560</v>
+      </c>
+      <c r="C305" t="s">
         <v>561</v>
-      </c>
-      <c r="C305" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -7655,10 +7661,10 @@
         <v>316</v>
       </c>
       <c r="B306" t="s">
+        <v>562</v>
+      </c>
+      <c r="C306" t="s">
         <v>563</v>
-      </c>
-      <c r="C306" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -7666,10 +7672,10 @@
         <v>317</v>
       </c>
       <c r="B307" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C307" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -7677,10 +7683,10 @@
         <v>318</v>
       </c>
       <c r="B308" t="s">
+        <v>565</v>
+      </c>
+      <c r="C308" t="s">
         <v>566</v>
-      </c>
-      <c r="C308" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -7688,10 +7694,10 @@
         <v>319</v>
       </c>
       <c r="B309" t="s">
+        <v>567</v>
+      </c>
+      <c r="C309" t="s">
         <v>568</v>
-      </c>
-      <c r="C309" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -7699,10 +7705,10 @@
         <v>320</v>
       </c>
       <c r="B310" t="s">
+        <v>569</v>
+      </c>
+      <c r="C310" t="s">
         <v>570</v>
-      </c>
-      <c r="C310" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -7710,10 +7716,10 @@
         <v>321</v>
       </c>
       <c r="B311" t="s">
+        <v>571</v>
+      </c>
+      <c r="C311" t="s">
         <v>572</v>
-      </c>
-      <c r="C311" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -7721,10 +7727,10 @@
         <v>322</v>
       </c>
       <c r="B312" t="s">
+        <v>573</v>
+      </c>
+      <c r="C312" t="s">
         <v>574</v>
-      </c>
-      <c r="C312" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -7732,10 +7738,10 @@
         <v>323</v>
       </c>
       <c r="B313" t="s">
+        <v>575</v>
+      </c>
+      <c r="C313" t="s">
         <v>576</v>
-      </c>
-      <c r="C313" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -7743,10 +7749,10 @@
         <v>324</v>
       </c>
       <c r="B314" t="s">
+        <v>577</v>
+      </c>
+      <c r="C314" t="s">
         <v>578</v>
-      </c>
-      <c r="C314" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -7754,10 +7760,10 @@
         <v>325</v>
       </c>
       <c r="B315" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C315" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -7765,10 +7771,10 @@
         <v>326</v>
       </c>
       <c r="B316" t="s">
+        <v>580</v>
+      </c>
+      <c r="C316" t="s">
         <v>581</v>
-      </c>
-      <c r="C316" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -7776,10 +7782,10 @@
         <v>327</v>
       </c>
       <c r="B317" t="s">
+        <v>582</v>
+      </c>
+      <c r="C317" t="s">
         <v>583</v>
-      </c>
-      <c r="C317" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -7787,10 +7793,10 @@
         <v>328</v>
       </c>
       <c r="B318" t="s">
+        <v>584</v>
+      </c>
+      <c r="C318" t="s">
         <v>585</v>
-      </c>
-      <c r="C318" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -7798,10 +7804,10 @@
         <v>329</v>
       </c>
       <c r="B319" t="s">
+        <v>586</v>
+      </c>
+      <c r="C319" t="s">
         <v>587</v>
-      </c>
-      <c r="C319" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -7809,10 +7815,10 @@
         <v>330</v>
       </c>
       <c r="B320" t="s">
+        <v>588</v>
+      </c>
+      <c r="C320" t="s">
         <v>589</v>
-      </c>
-      <c r="C320" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -7820,10 +7826,10 @@
         <v>331</v>
       </c>
       <c r="B321" t="s">
+        <v>590</v>
+      </c>
+      <c r="C321" t="s">
         <v>591</v>
-      </c>
-      <c r="C321" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -7831,10 +7837,10 @@
         <v>332</v>
       </c>
       <c r="B322" t="s">
+        <v>592</v>
+      </c>
+      <c r="C322" t="s">
         <v>593</v>
-      </c>
-      <c r="C322" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -7842,10 +7848,10 @@
         <v>333</v>
       </c>
       <c r="B323" t="s">
+        <v>594</v>
+      </c>
+      <c r="C323" t="s">
         <v>595</v>
-      </c>
-      <c r="C323" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -7853,10 +7859,10 @@
         <v>334</v>
       </c>
       <c r="B324" t="s">
+        <v>596</v>
+      </c>
+      <c r="C324" t="s">
         <v>597</v>
-      </c>
-      <c r="C324" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -7864,10 +7870,10 @@
         <v>335</v>
       </c>
       <c r="B325" t="s">
+        <v>598</v>
+      </c>
+      <c r="C325" t="s">
         <v>599</v>
-      </c>
-      <c r="C325" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -7875,10 +7881,10 @@
         <v>336</v>
       </c>
       <c r="B326" t="s">
+        <v>600</v>
+      </c>
+      <c r="C326" t="s">
         <v>601</v>
-      </c>
-      <c r="C326" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -7886,10 +7892,10 @@
         <v>337</v>
       </c>
       <c r="B327" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="C327" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -7897,10 +7903,10 @@
         <v>338</v>
       </c>
       <c r="B328" t="s">
+        <v>602</v>
+      </c>
+      <c r="C328" t="s">
         <v>603</v>
-      </c>
-      <c r="C328" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -7908,10 +7914,10 @@
         <v>339</v>
       </c>
       <c r="B329" t="s">
+        <v>604</v>
+      </c>
+      <c r="C329" t="s">
         <v>605</v>
-      </c>
-      <c r="C329" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -7919,10 +7925,10 @@
         <v>340</v>
       </c>
       <c r="B330" t="s">
+        <v>606</v>
+      </c>
+      <c r="C330" t="s">
         <v>607</v>
-      </c>
-      <c r="C330" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -7930,10 +7936,10 @@
         <v>341</v>
       </c>
       <c r="B331" t="s">
+        <v>608</v>
+      </c>
+      <c r="C331" t="s">
         <v>609</v>
-      </c>
-      <c r="C331" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -7941,10 +7947,10 @@
         <v>342</v>
       </c>
       <c r="B332" t="s">
+        <v>610</v>
+      </c>
+      <c r="C332" t="s">
         <v>611</v>
-      </c>
-      <c r="C332" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -7952,10 +7958,10 @@
         <v>343</v>
       </c>
       <c r="B333" t="s">
+        <v>612</v>
+      </c>
+      <c r="C333" t="s">
         <v>613</v>
-      </c>
-      <c r="C333" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -7963,10 +7969,10 @@
         <v>344</v>
       </c>
       <c r="B334" t="s">
+        <v>614</v>
+      </c>
+      <c r="C334" t="s">
         <v>615</v>
-      </c>
-      <c r="C334" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -7974,10 +7980,10 @@
         <v>345</v>
       </c>
       <c r="B335" t="s">
+        <v>616</v>
+      </c>
+      <c r="C335" t="s">
         <v>617</v>
-      </c>
-      <c r="C335" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -7985,10 +7991,10 @@
         <v>346</v>
       </c>
       <c r="B336" t="s">
+        <v>618</v>
+      </c>
+      <c r="C336" t="s">
         <v>619</v>
-      </c>
-      <c r="C336" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
@@ -7996,10 +8002,10 @@
         <v>347</v>
       </c>
       <c r="B337" t="s">
+        <v>620</v>
+      </c>
+      <c r="C337" t="s">
         <v>621</v>
-      </c>
-      <c r="C337" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -8007,10 +8013,10 @@
         <v>348</v>
       </c>
       <c r="B338" t="s">
+        <v>622</v>
+      </c>
+      <c r="C338" t="s">
         <v>623</v>
-      </c>
-      <c r="C338" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -8018,10 +8024,10 @@
         <v>349</v>
       </c>
       <c r="B339" t="s">
+        <v>624</v>
+      </c>
+      <c r="C339" t="s">
         <v>625</v>
-      </c>
-      <c r="C339" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -8029,10 +8035,10 @@
         <v>350</v>
       </c>
       <c r="B340" t="s">
+        <v>626</v>
+      </c>
+      <c r="C340" t="s">
         <v>627</v>
-      </c>
-      <c r="C340" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
@@ -8040,10 +8046,10 @@
         <v>351</v>
       </c>
       <c r="B341" t="s">
+        <v>628</v>
+      </c>
+      <c r="C341" t="s">
         <v>629</v>
-      </c>
-      <c r="C341" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -8051,10 +8057,10 @@
         <v>352</v>
       </c>
       <c r="B342" t="s">
+        <v>630</v>
+      </c>
+      <c r="C342" t="s">
         <v>631</v>
-      </c>
-      <c r="C342" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -8062,10 +8068,10 @@
         <v>353</v>
       </c>
       <c r="B343" t="s">
+        <v>632</v>
+      </c>
+      <c r="C343" t="s">
         <v>633</v>
-      </c>
-      <c r="C343" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -8073,10 +8079,10 @@
         <v>354</v>
       </c>
       <c r="B344" t="s">
+        <v>634</v>
+      </c>
+      <c r="C344" t="s">
         <v>635</v>
-      </c>
-      <c r="C344" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -8084,10 +8090,10 @@
         <v>355</v>
       </c>
       <c r="B345" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C345" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -8095,10 +8101,10 @@
         <v>356</v>
       </c>
       <c r="B346" t="s">
+        <v>637</v>
+      </c>
+      <c r="C346" t="s">
         <v>638</v>
-      </c>
-      <c r="C346" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -8106,10 +8112,10 @@
         <v>357</v>
       </c>
       <c r="B347" t="s">
+        <v>639</v>
+      </c>
+      <c r="C347" t="s">
         <v>640</v>
-      </c>
-      <c r="C347" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -8117,10 +8123,10 @@
         <v>358</v>
       </c>
       <c r="B348" t="s">
+        <v>641</v>
+      </c>
+      <c r="C348" t="s">
         <v>642</v>
-      </c>
-      <c r="C348" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -8128,10 +8134,10 @@
         <v>359</v>
       </c>
       <c r="B349" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C349" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -8139,10 +8145,10 @@
         <v>360</v>
       </c>
       <c r="B350" t="s">
+        <v>644</v>
+      </c>
+      <c r="C350" t="s">
         <v>645</v>
-      </c>
-      <c r="C350" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -8150,10 +8156,10 @@
         <v>361</v>
       </c>
       <c r="B351" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C351" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -8161,10 +8167,10 @@
         <v>362</v>
       </c>
       <c r="B352" t="s">
+        <v>647</v>
+      </c>
+      <c r="C352" t="s">
         <v>648</v>
-      </c>
-      <c r="C352" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
@@ -8172,10 +8178,10 @@
         <v>363</v>
       </c>
       <c r="B353" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C353" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -8183,10 +8189,10 @@
         <v>364</v>
       </c>
       <c r="B354" t="s">
+        <v>650</v>
+      </c>
+      <c r="C354" t="s">
         <v>651</v>
-      </c>
-      <c r="C354" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
@@ -8194,10 +8200,10 @@
         <v>365</v>
       </c>
       <c r="B355" t="s">
+        <v>652</v>
+      </c>
+      <c r="C355" t="s">
         <v>653</v>
-      </c>
-      <c r="C355" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
@@ -8205,10 +8211,10 @@
         <v>366</v>
       </c>
       <c r="B356" t="s">
+        <v>654</v>
+      </c>
+      <c r="C356" t="s">
         <v>655</v>
-      </c>
-      <c r="C356" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
@@ -8216,10 +8222,10 @@
         <v>367</v>
       </c>
       <c r="B357" t="s">
+        <v>656</v>
+      </c>
+      <c r="C357" t="s">
         <v>657</v>
-      </c>
-      <c r="C357" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
@@ -8227,10 +8233,10 @@
         <v>368</v>
       </c>
       <c r="B358" t="s">
+        <v>658</v>
+      </c>
+      <c r="C358" t="s">
         <v>659</v>
-      </c>
-      <c r="C358" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
@@ -8238,10 +8244,10 @@
         <v>369</v>
       </c>
       <c r="B359" t="s">
+        <v>660</v>
+      </c>
+      <c r="C359" t="s">
         <v>661</v>
-      </c>
-      <c r="C359" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
@@ -8249,10 +8255,10 @@
         <v>370</v>
       </c>
       <c r="B360" t="s">
+        <v>662</v>
+      </c>
+      <c r="C360" t="s">
         <v>663</v>
-      </c>
-      <c r="C360" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
@@ -8260,10 +8266,10 @@
         <v>371</v>
       </c>
       <c r="B361" t="s">
+        <v>664</v>
+      </c>
+      <c r="C361" t="s">
         <v>665</v>
-      </c>
-      <c r="C361" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
@@ -8271,10 +8277,10 @@
         <v>372</v>
       </c>
       <c r="B362" t="s">
+        <v>666</v>
+      </c>
+      <c r="C362" t="s">
         <v>667</v>
-      </c>
-      <c r="C362" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
@@ -8282,10 +8288,10 @@
         <v>373</v>
       </c>
       <c r="B363" t="s">
+        <v>668</v>
+      </c>
+      <c r="C363" t="s">
         <v>669</v>
-      </c>
-      <c r="C363" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
@@ -8293,10 +8299,10 @@
         <v>374</v>
       </c>
       <c r="B364" t="s">
+        <v>670</v>
+      </c>
+      <c r="C364" t="s">
         <v>671</v>
-      </c>
-      <c r="C364" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
@@ -8304,10 +8310,10 @@
         <v>375</v>
       </c>
       <c r="B365" t="s">
+        <v>672</v>
+      </c>
+      <c r="C365" t="s">
         <v>673</v>
-      </c>
-      <c r="C365" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
@@ -8315,10 +8321,10 @@
         <v>376</v>
       </c>
       <c r="B366" t="s">
+        <v>674</v>
+      </c>
+      <c r="C366" t="s">
         <v>675</v>
-      </c>
-      <c r="C366" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
@@ -8326,10 +8332,10 @@
         <v>377</v>
       </c>
       <c r="B367" t="s">
+        <v>676</v>
+      </c>
+      <c r="C367" t="s">
         <v>677</v>
-      </c>
-      <c r="C367" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
@@ -8337,10 +8343,10 @@
         <v>378</v>
       </c>
       <c r="B368" t="s">
+        <v>678</v>
+      </c>
+      <c r="C368" t="s">
         <v>679</v>
-      </c>
-      <c r="C368" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -8348,10 +8354,10 @@
         <v>379</v>
       </c>
       <c r="B369" t="s">
+        <v>680</v>
+      </c>
+      <c r="C369" t="s">
         <v>681</v>
-      </c>
-      <c r="C369" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
@@ -8359,10 +8365,10 @@
         <v>380</v>
       </c>
       <c r="B370" t="s">
+        <v>682</v>
+      </c>
+      <c r="C370" t="s">
         <v>683</v>
-      </c>
-      <c r="C370" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
@@ -8370,10 +8376,10 @@
         <v>381</v>
       </c>
       <c r="B371" t="s">
+        <v>684</v>
+      </c>
+      <c r="C371" t="s">
         <v>685</v>
-      </c>
-      <c r="C371" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -8381,10 +8387,10 @@
         <v>382</v>
       </c>
       <c r="B372" t="s">
+        <v>686</v>
+      </c>
+      <c r="C372" t="s">
         <v>687</v>
-      </c>
-      <c r="C372" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -8392,10 +8398,10 @@
         <v>383</v>
       </c>
       <c r="B373" t="s">
+        <v>688</v>
+      </c>
+      <c r="C373" t="s">
         <v>689</v>
-      </c>
-      <c r="C373" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
@@ -8403,10 +8409,10 @@
         <v>384</v>
       </c>
       <c r="B374" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C374" t="s">
-        <v>692</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -8414,10 +8420,10 @@
         <v>385</v>
       </c>
       <c r="B375" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C375" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -8425,10 +8431,10 @@
         <v>386</v>
       </c>
       <c r="B376" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C376" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
@@ -8436,10 +8442,10 @@
         <v>387</v>
       </c>
       <c r="B377" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C377" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
@@ -8447,10 +8453,10 @@
         <v>388</v>
       </c>
       <c r="B378" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C378" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
@@ -8458,10 +8464,10 @@
         <v>389</v>
       </c>
       <c r="B379" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C379" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -8469,10 +8475,10 @@
         <v>390</v>
       </c>
       <c r="B380" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C380" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -8480,10 +8486,10 @@
         <v>391</v>
       </c>
       <c r="B381" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C381" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -8491,10 +8497,10 @@
         <v>392</v>
       </c>
       <c r="B382" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C382" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
@@ -8502,10 +8508,10 @@
         <v>393</v>
       </c>
       <c r="B383" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C383" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -8513,10 +8519,10 @@
         <v>394</v>
       </c>
       <c r="B384" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C384" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
@@ -8524,10 +8530,10 @@
         <v>395</v>
       </c>
       <c r="B385" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C385" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
@@ -8535,10 +8541,10 @@
         <v>396</v>
       </c>
       <c r="B386" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C386" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
@@ -8546,10 +8552,10 @@
         <v>397</v>
       </c>
       <c r="B387" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C387" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -8557,10 +8563,10 @@
         <v>398</v>
       </c>
       <c r="B388" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C388" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -8568,10 +8574,10 @@
         <v>399</v>
       </c>
       <c r="B389" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C389" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -8579,10 +8585,10 @@
         <v>400</v>
       </c>
       <c r="B390" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C390" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
@@ -8590,10 +8596,10 @@
         <v>401</v>
       </c>
       <c r="B391" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C391" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
@@ -8601,10 +8607,10 @@
         <v>402</v>
       </c>
       <c r="B392" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C392" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
@@ -8612,10 +8618,10 @@
         <v>403</v>
       </c>
       <c r="B393" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C393" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -8623,10 +8629,10 @@
         <v>404</v>
       </c>
       <c r="B394" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C394" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -8634,10 +8640,10 @@
         <v>405</v>
       </c>
       <c r="B395" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C395" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
@@ -8645,10 +8651,10 @@
         <v>406</v>
       </c>
       <c r="B396" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C396" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -8656,10 +8662,10 @@
         <v>407</v>
       </c>
       <c r="B397" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C397" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -8667,10 +8673,10 @@
         <v>408</v>
       </c>
       <c r="B398" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C398" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -8678,10 +8684,10 @@
         <v>409</v>
       </c>
       <c r="B399" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C399" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -8689,10 +8695,10 @@
         <v>410</v>
       </c>
       <c r="B400" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C400" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
@@ -8700,10 +8706,10 @@
         <v>411</v>
       </c>
       <c r="B401" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C401" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
@@ -8711,10 +8717,10 @@
         <v>412</v>
       </c>
       <c r="B402" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C402" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
@@ -8722,10 +8728,10 @@
         <v>413</v>
       </c>
       <c r="B403" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C403" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
@@ -8733,10 +8739,10 @@
         <v>414</v>
       </c>
       <c r="B404" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C404" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
@@ -8744,10 +8750,10 @@
         <v>415</v>
       </c>
       <c r="B405" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C405" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
@@ -8755,10 +8761,10 @@
         <v>416</v>
       </c>
       <c r="B406" t="s">
-        <v>751</v>
+        <v>1219</v>
       </c>
       <c r="C406" t="s">
-        <v>752</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
@@ -8766,10 +8772,10 @@
         <v>417</v>
       </c>
       <c r="B407" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="C407" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
@@ -8777,10 +8783,10 @@
         <v>418</v>
       </c>
       <c r="B408" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="C408" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
@@ -8788,10 +8794,10 @@
         <v>419</v>
       </c>
       <c r="B409" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="C409" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
@@ -8799,10 +8805,10 @@
         <v>420</v>
       </c>
       <c r="B410" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="C410" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
@@ -8810,10 +8816,10 @@
         <v>421</v>
       </c>
       <c r="B411" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="C411" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
@@ -8821,10 +8827,10 @@
         <v>422</v>
       </c>
       <c r="B412" t="s">
-        <v>762</v>
+        <v>1218</v>
       </c>
       <c r="C412" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
@@ -8832,10 +8838,10 @@
         <v>423</v>
       </c>
       <c r="B413" t="s">
-        <v>764</v>
+        <v>1217</v>
       </c>
       <c r="C413" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
@@ -8843,10 +8849,10 @@
         <v>424</v>
       </c>
       <c r="B414" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="C414" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
@@ -8854,10 +8860,10 @@
         <v>425</v>
       </c>
       <c r="B415" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="C415" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
@@ -8865,10 +8871,10 @@
         <v>426</v>
       </c>
       <c r="B416" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="C416" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
@@ -8876,10 +8882,10 @@
         <v>427</v>
       </c>
       <c r="B417" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="C417" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
@@ -8887,10 +8893,10 @@
         <v>428</v>
       </c>
       <c r="B418" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="C418" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
@@ -8898,10 +8904,10 @@
         <v>429</v>
       </c>
       <c r="B419" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="C419" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
@@ -8909,10 +8915,10 @@
         <v>430</v>
       </c>
       <c r="B420" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="C420" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
@@ -8920,10 +8926,10 @@
         <v>431</v>
       </c>
       <c r="B421" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="C421" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
@@ -8931,10 +8937,10 @@
         <v>432</v>
       </c>
       <c r="B422" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="C422" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
@@ -8942,10 +8948,10 @@
         <v>433</v>
       </c>
       <c r="B423" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="C423" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
@@ -8953,10 +8959,10 @@
         <v>434</v>
       </c>
       <c r="B424" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="C424" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
@@ -8964,10 +8970,10 @@
         <v>435</v>
       </c>
       <c r="B425" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="C425" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
@@ -8975,10 +8981,10 @@
         <v>436</v>
       </c>
       <c r="B426" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="C426" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
@@ -8986,10 +8992,10 @@
         <v>437</v>
       </c>
       <c r="B427" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C427" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
@@ -8997,10 +9003,10 @@
         <v>438</v>
       </c>
       <c r="B428" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="C428" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
@@ -9008,10 +9014,10 @@
         <v>439</v>
       </c>
       <c r="B429" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="C429" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
@@ -9019,10 +9025,10 @@
         <v>440</v>
       </c>
       <c r="B430" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="C430" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
@@ -9030,10 +9036,10 @@
         <v>441</v>
       </c>
       <c r="B431" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="C431" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
@@ -9041,10 +9047,10 @@
         <v>442</v>
       </c>
       <c r="B432" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="C432" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
@@ -9052,10 +9058,10 @@
         <v>443</v>
       </c>
       <c r="B433" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="C433" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
@@ -9063,10 +9069,10 @@
         <v>444</v>
       </c>
       <c r="B434" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="C434" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
@@ -9074,10 +9080,10 @@
         <v>445</v>
       </c>
       <c r="B435" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="C435" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
@@ -9085,10 +9091,10 @@
         <v>446</v>
       </c>
       <c r="B436" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="C436" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
@@ -9096,10 +9102,10 @@
         <v>447</v>
       </c>
       <c r="B437" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="C437" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
@@ -9107,10 +9113,10 @@
         <v>448</v>
       </c>
       <c r="B438" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="C438" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
@@ -9118,10 +9124,10 @@
         <v>449</v>
       </c>
       <c r="B439" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="C439" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
@@ -9129,10 +9135,10 @@
         <v>450</v>
       </c>
       <c r="B440" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="C440" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
@@ -9140,10 +9146,10 @@
         <v>451</v>
       </c>
       <c r="B441" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="C441" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
@@ -9151,10 +9157,10 @@
         <v>452</v>
       </c>
       <c r="B442" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="C442" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
@@ -9162,10 +9168,10 @@
         <v>453</v>
       </c>
       <c r="B443" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="C443" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
@@ -9173,10 +9179,10 @@
         <v>455</v>
       </c>
       <c r="B444" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="C444" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
@@ -9184,10 +9190,10 @@
         <v>456</v>
       </c>
       <c r="B445" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="C445" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
@@ -9195,10 +9201,10 @@
         <v>457</v>
       </c>
       <c r="B446" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="C446" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
@@ -9206,10 +9212,10 @@
         <v>458</v>
       </c>
       <c r="B447" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="C447" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
@@ -9217,10 +9223,10 @@
         <v>459</v>
       </c>
       <c r="B448" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="C448" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
@@ -9228,10 +9234,10 @@
         <v>460</v>
       </c>
       <c r="B449" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="C449" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
@@ -9239,10 +9245,10 @@
         <v>461</v>
       </c>
       <c r="B450" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="C450" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
@@ -9250,10 +9256,10 @@
         <v>462</v>
       </c>
       <c r="B451" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C451" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
@@ -9261,10 +9267,10 @@
         <v>463</v>
       </c>
       <c r="B452" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="C452" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
@@ -9272,10 +9278,10 @@
         <v>464</v>
       </c>
       <c r="B453" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="C453" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
@@ -9283,10 +9289,10 @@
         <v>465</v>
       </c>
       <c r="B454" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="C454" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
@@ -9294,10 +9300,10 @@
         <v>466</v>
       </c>
       <c r="B455" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="C455" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
@@ -9305,10 +9311,10 @@
         <v>467</v>
       </c>
       <c r="B456" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C456" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
@@ -9316,10 +9322,10 @@
         <v>468</v>
       </c>
       <c r="B457" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="C457" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
@@ -9327,10 +9333,10 @@
         <v>469</v>
       </c>
       <c r="B458" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="C458" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
@@ -9338,10 +9344,10 @@
         <v>470</v>
       </c>
       <c r="B459" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="C459" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
@@ -9349,7 +9355,7 @@
         <v>471</v>
       </c>
       <c r="B460" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
@@ -9357,10 +9363,10 @@
         <v>472</v>
       </c>
       <c r="B461" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="C461" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
@@ -9368,10 +9374,10 @@
         <v>473</v>
       </c>
       <c r="B462" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="C462" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
@@ -9379,10 +9385,10 @@
         <v>474</v>
       </c>
       <c r="B463" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="C463" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
@@ -9390,10 +9396,10 @@
         <v>475</v>
       </c>
       <c r="B464" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="C464" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
@@ -9401,10 +9407,10 @@
         <v>476</v>
       </c>
       <c r="B465" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="C465" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
@@ -9412,10 +9418,10 @@
         <v>477</v>
       </c>
       <c r="B466" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="C466" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
@@ -9423,10 +9429,10 @@
         <v>478</v>
       </c>
       <c r="B467" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C467" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
@@ -9434,10 +9440,10 @@
         <v>479</v>
       </c>
       <c r="B468" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="C468" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
@@ -9445,10 +9451,10 @@
         <v>480</v>
       </c>
       <c r="B469" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="C469" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
@@ -9456,10 +9462,10 @@
         <v>481</v>
       </c>
       <c r="B470" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C470" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
@@ -9467,10 +9473,10 @@
         <v>482</v>
       </c>
       <c r="B471" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C471" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
@@ -9478,10 +9484,10 @@
         <v>483</v>
       </c>
       <c r="B472" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="C472" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
     </row>
     <row r="473" spans="1:3" ht="19.2" x14ac:dyDescent="0.45">
@@ -9489,10 +9495,10 @@
         <v>484</v>
       </c>
       <c r="B473" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="C473" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
@@ -9500,10 +9506,10 @@
         <v>485</v>
       </c>
       <c r="B474" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="C474" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
@@ -9511,10 +9517,10 @@
         <v>486</v>
       </c>
       <c r="B475" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="C475" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
@@ -9522,10 +9528,10 @@
         <v>487</v>
       </c>
       <c r="B476" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="C476" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
@@ -9533,10 +9539,10 @@
         <v>488</v>
       </c>
       <c r="B477" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="C477" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
@@ -9544,10 +9550,10 @@
         <v>489</v>
       </c>
       <c r="B478" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="C478" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
@@ -9555,10 +9561,10 @@
         <v>490</v>
       </c>
       <c r="B479" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="C479" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
@@ -9566,10 +9572,10 @@
         <v>491</v>
       </c>
       <c r="B480" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="C480" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
@@ -9577,10 +9583,10 @@
         <v>492</v>
       </c>
       <c r="B481" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="C481" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
@@ -9588,10 +9594,10 @@
         <v>493</v>
       </c>
       <c r="B482" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="C482" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
@@ -9599,10 +9605,10 @@
         <v>494</v>
       </c>
       <c r="B483" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="C483" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
@@ -9610,10 +9616,10 @@
         <v>496</v>
       </c>
       <c r="B484" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="C484" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
@@ -9621,10 +9627,10 @@
         <v>497</v>
       </c>
       <c r="B485" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="C485" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
@@ -9632,10 +9638,10 @@
         <v>498</v>
       </c>
       <c r="B486" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="C486" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
@@ -9643,10 +9649,10 @@
         <v>499</v>
       </c>
       <c r="B487" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="C487" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
@@ -9654,10 +9660,10 @@
         <v>500</v>
       </c>
       <c r="B488" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="C488" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
@@ -9665,10 +9671,10 @@
         <v>501</v>
       </c>
       <c r="B489" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="C489" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
@@ -9676,10 +9682,10 @@
         <v>502</v>
       </c>
       <c r="B490" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="C490" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
@@ -9687,10 +9693,10 @@
         <v>503</v>
       </c>
       <c r="B491" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="C491" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
@@ -9698,10 +9704,10 @@
         <v>504</v>
       </c>
       <c r="B492" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="C492" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
@@ -9709,10 +9715,10 @@
         <v>505</v>
       </c>
       <c r="B493" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="C493" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
@@ -9720,10 +9726,10 @@
         <v>506</v>
       </c>
       <c r="B494" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="C494" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
@@ -9731,10 +9737,10 @@
         <v>507</v>
       </c>
       <c r="B495" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="C495" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
@@ -9742,10 +9748,10 @@
         <v>508</v>
       </c>
       <c r="B496" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="C496" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
@@ -9753,10 +9759,10 @@
         <v>509</v>
       </c>
       <c r="B497" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="C497" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
@@ -9764,10 +9770,10 @@
         <v>510</v>
       </c>
       <c r="B498" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="C498" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
@@ -9775,7 +9781,7 @@
         <v>511</v>
       </c>
       <c r="B499" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
@@ -9783,10 +9789,10 @@
         <v>512</v>
       </c>
       <c r="B500" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="C500" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
@@ -9794,10 +9800,10 @@
         <v>513</v>
       </c>
       <c r="B501" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="C501" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
@@ -9805,10 +9811,10 @@
         <v>514</v>
       </c>
       <c r="B502" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="C502" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
@@ -9816,10 +9822,10 @@
         <v>515</v>
       </c>
       <c r="B503" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="C503" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
@@ -9827,10 +9833,10 @@
         <v>516</v>
       </c>
       <c r="B504" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="C504" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
@@ -9838,10 +9844,10 @@
         <v>517</v>
       </c>
       <c r="B505" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="C505" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
@@ -9849,10 +9855,10 @@
         <v>518</v>
       </c>
       <c r="B506" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="C506" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
@@ -9860,10 +9866,10 @@
         <v>519</v>
       </c>
       <c r="B507" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="C507" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
@@ -9871,10 +9877,10 @@
         <v>520</v>
       </c>
       <c r="B508" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="C508" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
@@ -9882,10 +9888,10 @@
         <v>521</v>
       </c>
       <c r="B509" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="C509" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
@@ -9893,10 +9899,10 @@
         <v>522</v>
       </c>
       <c r="B510" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="C510" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
@@ -9904,10 +9910,10 @@
         <v>523</v>
       </c>
       <c r="B511" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="C511" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
@@ -9915,10 +9921,10 @@
         <v>524</v>
       </c>
       <c r="B512" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="C512" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
@@ -9926,10 +9932,10 @@
         <v>525</v>
       </c>
       <c r="B513" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="C513" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
@@ -9937,10 +9943,10 @@
         <v>526</v>
       </c>
       <c r="B514" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="C514" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
@@ -9948,10 +9954,10 @@
         <v>527</v>
       </c>
       <c r="B515" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="C515" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
@@ -9959,10 +9965,10 @@
         <v>528</v>
       </c>
       <c r="B516" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C516" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
@@ -9970,10 +9976,10 @@
         <v>529</v>
       </c>
       <c r="B517" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="C517" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
@@ -9981,7 +9987,7 @@
         <v>530</v>
       </c>
       <c r="B518" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
@@ -9989,10 +9995,10 @@
         <v>531</v>
       </c>
       <c r="B519" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="C519" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
@@ -10000,10 +10006,10 @@
         <v>532</v>
       </c>
       <c r="B520" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="C520" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
@@ -10011,10 +10017,10 @@
         <v>533</v>
       </c>
       <c r="B521" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="C521" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
@@ -10022,10 +10028,10 @@
         <v>534</v>
       </c>
       <c r="B522" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="C522" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
@@ -10033,10 +10039,10 @@
         <v>535</v>
       </c>
       <c r="B523" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="C523" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
@@ -10044,10 +10050,10 @@
         <v>536</v>
       </c>
       <c r="B524" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="C524" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
@@ -10055,10 +10061,10 @@
         <v>537</v>
       </c>
       <c r="B525" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="C525" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
@@ -10066,10 +10072,10 @@
         <v>538</v>
       </c>
       <c r="B526" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="C526" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
@@ -10077,10 +10083,10 @@
         <v>539</v>
       </c>
       <c r="B527" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="C527" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
@@ -10088,10 +10094,10 @@
         <v>540</v>
       </c>
       <c r="B528" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="C528" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
@@ -10099,10 +10105,10 @@
         <v>542</v>
       </c>
       <c r="B529" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="C529" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
@@ -10110,10 +10116,10 @@
         <v>543</v>
       </c>
       <c r="B530" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="C530" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
@@ -10121,10 +10127,10 @@
         <v>545</v>
       </c>
       <c r="B531" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="C531" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
@@ -10132,10 +10138,10 @@
         <v>546</v>
       </c>
       <c r="B532" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="C532" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.25">
@@ -10143,10 +10149,10 @@
         <v>547</v>
       </c>
       <c r="B533" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="C533" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
@@ -10154,10 +10160,10 @@
         <v>548</v>
       </c>
       <c r="B534" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="C534" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.25">
@@ -10165,10 +10171,10 @@
         <v>549</v>
       </c>
       <c r="B535" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="C535" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.25">
@@ -10176,10 +10182,10 @@
         <v>550</v>
       </c>
       <c r="B536" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="C536" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.25">
@@ -10187,10 +10193,10 @@
         <v>551</v>
       </c>
       <c r="B537" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="C537" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
@@ -10198,10 +10204,10 @@
         <v>552</v>
       </c>
       <c r="B538" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="C538" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.25">
@@ -10209,10 +10215,10 @@
         <v>553</v>
       </c>
       <c r="B539" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="C539" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.25">
@@ -10220,10 +10226,10 @@
         <v>554</v>
       </c>
       <c r="B540" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="C540" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.25">
@@ -10231,10 +10237,10 @@
         <v>555</v>
       </c>
       <c r="B541" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="C541" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.25">
@@ -10242,10 +10248,10 @@
         <v>556</v>
       </c>
       <c r="B542" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="C542" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.25">
@@ -10253,10 +10259,10 @@
         <v>557</v>
       </c>
       <c r="B543" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="C543" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.25">
@@ -10264,10 +10270,10 @@
         <v>558</v>
       </c>
       <c r="B544" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="C544" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.25">
@@ -10275,10 +10281,10 @@
         <v>559</v>
       </c>
       <c r="B545" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="C545" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.25">
@@ -10286,10 +10292,10 @@
         <v>562</v>
       </c>
       <c r="B546" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="C546" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.25">
@@ -10297,7 +10303,7 @@
         <v>563</v>
       </c>
       <c r="B547" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.25">
@@ -10305,10 +10311,10 @@
         <v>564</v>
       </c>
       <c r="B548" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="C548" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.25">
@@ -10316,10 +10322,10 @@
         <v>565</v>
       </c>
       <c r="B549" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="C549" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.25">
@@ -10327,10 +10333,10 @@
         <v>566</v>
       </c>
       <c r="B550" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="C550" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.25">
@@ -10338,10 +10344,10 @@
         <v>567</v>
       </c>
       <c r="B551" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="C551" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.25">
@@ -10349,10 +10355,10 @@
         <v>568</v>
       </c>
       <c r="B552" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="C552" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.25">
@@ -10360,10 +10366,10 @@
         <v>569</v>
       </c>
       <c r="B553" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="C553" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.25">
@@ -10371,10 +10377,10 @@
         <v>570</v>
       </c>
       <c r="B554" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="C554" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.25">
@@ -10382,10 +10388,10 @@
         <v>571</v>
       </c>
       <c r="B555" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="C555" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.25">
@@ -10393,10 +10399,10 @@
         <v>572</v>
       </c>
       <c r="B556" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="C556" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.25">
@@ -10404,10 +10410,10 @@
         <v>577</v>
       </c>
       <c r="B557" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="C557" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.25">
@@ -10415,10 +10421,10 @@
         <v>578</v>
       </c>
       <c r="B558" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="C558" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.25">
@@ -10426,7 +10432,7 @@
         <v>579</v>
       </c>
       <c r="B559" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.25">
@@ -10434,10 +10440,10 @@
         <v>580</v>
       </c>
       <c r="B560" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="C560" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.25">
@@ -10445,10 +10451,10 @@
         <v>581</v>
       </c>
       <c r="B561" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="C561" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.25">
@@ -10456,10 +10462,10 @@
         <v>582</v>
       </c>
       <c r="B562" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="C562" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.25">
@@ -10467,10 +10473,10 @@
         <v>583</v>
       </c>
       <c r="B563" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="C563" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.25">
@@ -10478,10 +10484,10 @@
         <v>584</v>
       </c>
       <c r="B564" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="C564" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.25">
@@ -10489,10 +10495,10 @@
         <v>585</v>
       </c>
       <c r="B565" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="C565" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.25">
@@ -10500,10 +10506,10 @@
         <v>586</v>
       </c>
       <c r="B566" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="C566" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.25">
@@ -10511,10 +10517,10 @@
         <v>587</v>
       </c>
       <c r="B567" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="C567" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.25">
@@ -10522,10 +10528,10 @@
         <v>588</v>
       </c>
       <c r="B568" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="C568" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.25">
@@ -10533,10 +10539,10 @@
         <v>589</v>
       </c>
       <c r="B569" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="C569" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.25">
@@ -10544,10 +10550,10 @@
         <v>590</v>
       </c>
       <c r="B570" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="C570" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.25">
@@ -10555,10 +10561,10 @@
         <v>591</v>
       </c>
       <c r="B571" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="C571" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.25">
@@ -10566,10 +10572,10 @@
         <v>592</v>
       </c>
       <c r="B572" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="C572" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.25">
@@ -10577,10 +10583,10 @@
         <v>593</v>
       </c>
       <c r="B573" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="C573" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.25">
@@ -10588,10 +10594,10 @@
         <v>594</v>
       </c>
       <c r="B574" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="C574" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.25">
@@ -10599,10 +10605,10 @@
         <v>595</v>
       </c>
       <c r="B575" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="C575" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.25">
@@ -10610,10 +10616,10 @@
         <v>596</v>
       </c>
       <c r="B576" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="C576" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.25">
@@ -10621,10 +10627,10 @@
         <v>597</v>
       </c>
       <c r="B577" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="C577" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.25">
@@ -10632,10 +10638,10 @@
         <v>598</v>
       </c>
       <c r="B578" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="C578" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.25">
@@ -10643,10 +10649,10 @@
         <v>599</v>
       </c>
       <c r="B579" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="C579" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.25">
@@ -10654,10 +10660,10 @@
         <v>601</v>
       </c>
       <c r="B580" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="C580" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.25">
@@ -10665,10 +10671,10 @@
         <v>602</v>
       </c>
       <c r="B581" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="C581" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.25">
@@ -10676,10 +10682,10 @@
         <v>604</v>
       </c>
       <c r="B582" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="C582" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.25">
@@ -10687,10 +10693,10 @@
         <v>612</v>
       </c>
       <c r="B583" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="C583" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.25">
@@ -10698,10 +10704,10 @@
         <v>617</v>
       </c>
       <c r="B584" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="C584" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.25">
@@ -10709,10 +10715,10 @@
         <v>618</v>
       </c>
       <c r="B585" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="C585" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.25">
@@ -10720,10 +10726,10 @@
         <v>625</v>
       </c>
       <c r="B586" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="C586" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.25">
@@ -10731,10 +10737,10 @@
         <v>626</v>
       </c>
       <c r="B587" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="C587" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.25">
@@ -10742,10 +10748,10 @@
         <v>629</v>
       </c>
       <c r="B588" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="C588" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.25">
@@ -10753,10 +10759,10 @@
         <v>633</v>
       </c>
       <c r="B589" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="C589" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.25">
@@ -10764,10 +10770,10 @@
         <v>635</v>
       </c>
       <c r="B590" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="C590" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.25">
@@ -10775,10 +10781,10 @@
         <v>636</v>
       </c>
       <c r="B591" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="C591" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.25">
@@ -10786,10 +10792,10 @@
         <v>642</v>
       </c>
       <c r="B592" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="C592" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.25">
@@ -10797,10 +10803,10 @@
         <v>646</v>
       </c>
       <c r="B593" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="C593" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.25">
@@ -10808,10 +10814,10 @@
         <v>649</v>
       </c>
       <c r="B594" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="C594" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.25">
@@ -10819,10 +10825,10 @@
         <v>650</v>
       </c>
       <c r="B595" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="C595" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.25">
@@ -10830,10 +10836,10 @@
         <v>651</v>
       </c>
       <c r="B596" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="C596" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.25">
@@ -10841,10 +10847,10 @@
         <v>653</v>
       </c>
       <c r="B597" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="C597" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.25">
@@ -10852,10 +10858,10 @@
         <v>654</v>
       </c>
       <c r="B598" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
       <c r="C598" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.25">
@@ -10863,10 +10869,10 @@
         <v>655</v>
       </c>
       <c r="B599" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="C599" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.25">
@@ -10874,10 +10880,10 @@
         <v>660</v>
       </c>
       <c r="B600" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="C600" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.25">
@@ -10885,10 +10891,10 @@
         <v>661</v>
       </c>
       <c r="B601" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="C601" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.25">
@@ -10896,10 +10902,10 @@
         <v>663</v>
       </c>
       <c r="B602" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="C602" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.25">
@@ -10907,10 +10913,10 @@
         <v>667</v>
       </c>
       <c r="B603" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="C603" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.25">
@@ -10918,10 +10924,10 @@
         <v>673</v>
       </c>
       <c r="B604" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="C604" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.25">
@@ -10929,10 +10935,10 @@
         <v>674</v>
       </c>
       <c r="B605" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="C605" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.25">
@@ -10940,10 +10946,10 @@
         <v>680</v>
       </c>
       <c r="B606" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="C606" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.25">
@@ -10951,10 +10957,10 @@
         <v>681</v>
       </c>
       <c r="B607" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="C607" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.25">
@@ -10962,10 +10968,10 @@
         <v>682</v>
       </c>
       <c r="B608" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="C608" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.25">
@@ -10973,10 +10979,10 @@
         <v>684</v>
       </c>
       <c r="B609" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="C609" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.25">
@@ -10984,10 +10990,10 @@
         <v>685</v>
       </c>
       <c r="B610" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="C610" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.25">
@@ -10995,10 +11001,10 @@
         <v>686</v>
       </c>
       <c r="B611" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="C611" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.25">
@@ -11006,10 +11012,10 @@
         <v>689</v>
       </c>
       <c r="B612" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="C612" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.25">
@@ -11017,10 +11023,10 @@
         <v>697</v>
       </c>
       <c r="B613" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
       <c r="C613" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.25">
@@ -11028,10 +11034,10 @@
         <v>701</v>
       </c>
       <c r="B614" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="C614" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.25">
@@ -11039,10 +11045,10 @@
         <v>704</v>
       </c>
       <c r="B615" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="C615" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.25">
@@ -11050,10 +11056,10 @@
         <v>710</v>
       </c>
       <c r="B616" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
       <c r="C616" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.25">
@@ -11061,10 +11067,10 @@
         <v>10001</v>
       </c>
       <c r="B617" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="C617" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.25">
@@ -11072,10 +11078,10 @@
         <v>10003</v>
       </c>
       <c r="B618" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="C618" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
     </row>
   </sheetData>
@@ -11083,7 +11089,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C1 A121:C127 A120:B120 A617:C617 A315:B315 A316:C326 A352:C352 A351:B351 A587:C587 A575 A574:B574 A460:C463 A459:B459 A608:C608 A235:C249 A234:B234 A95:C98 A146:C149 A145:B145 A541:C549 A540:B540 A55:C57 A558:C564 A29:C29 A28:B28 A579:C579 A308:C314 A307:B307 A53:B54 A457:C458 A516:C516 A515:B515 A93:B94 A554:C555 A553:B553 A346:C348 A345:B345 A52:C52 A51:B51 A72:C78 A70:B70 A163:C169 A162:B162 A378:C378 A377:B377 A610:C612 A258:C259 A257:B257 A6:C7 A573:C573 A571:B571 A567:C568 A566 A601:C601 A21:C22 A20:B20 A420:C422 A115:C119 A114:B114 A287:C294 A286:B286 A418:B419 A80:C84 A79:B79 A504:C504 A503 A151:C153 A150:B150 A481:C499 A480:B480 A520:C520 A519:B519 A532:C535 A531:B531 A603:B606 A576:B578 A514:C514 A513:B513 A501:C502 A500:B500 A453:C454 A424:C424 A423:B423 A14:C14 A13:B13 A2:B5 A582:C582 A580:B580 A570:C570 A569:B569 A450:C450 A449:B449 A551:C552 A550:B550 A538:C539 A518:C518 A517:B517 A508:C512 A507:B507 A466:C468 A448:C448 A447:B447 A433:C446 A432:B432 A426:C431 A425:B425 A403:C406 A402:B402 A280:C285 A279:B279 A269:C278 A268:B268 A261:C267 A260:B260 A252:C256 A250:B251 A231:C233 A229:B230 A108:C113 A107:B107 A59:C69 A58:B58 A155:C161 A154:B154 A129:C144 A128:B128 A71 A9:C12 A8:B8 A590:C592 A380:C385 A379:B379 A451:B452 A523:C530 A521:B522 A506:C506 A505:B505 A470:C472 A469:B469 A455:B456 A100:C106 A99:B99 A40:C42 A32:C37 A16:C19 A15:B15 A565:B565 A556:B557 A536:B537 A478:C479 A477:B477 A408:C417 A407:B407 A387:C401 A386:B386 A328:C344 A327 A296:C306 A295:B295 A44:C50 A43:B43 A595:C597 A593:B593 A588:B589 A354:C376 A353:B353 A464:B465 A350:C350 A349:B349 A474:C476 A473 A86:C92 A85:B85 A30:B31 A38:B39 A171:C228 A170:B170 A599:C599 A584:C585 A583:B583 A572:B572 A24:C27 A23:B23" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C1 A121:C127 A120:B120 A617:C617 A315:B315 A316:C326 A352:C352 A351:B351 A587:C587 A575 A574:B574 A460:C463 A459:B459 A608:C608 A235:C249 A234:B234 A95:C98 A146:C149 A145:B145 A541:C549 A540:B540 A55:C57 A558:C564 A29:C29 A28:B28 A579:C579 A308:C314 A307:B307 A53:B54 A457:C458 A516:C516 A515:B515 A93:B94 A554:C555 A553:B553 A346:C348 A345:B345 A52:C52 A51:B51 A72:C78 A70:B70 A163:C169 A162:B162 A378:C378 A377:B377 A610:C612 A258:C259 A257:B257 A6:C7 A573:C573 A571:B571 A567:C568 A566 A601:C601 A21:C22 A20:B20 A420:C422 A115:C119 A114:B114 A287:C294 A286:B286 A418:B419 A80:C84 A79:B79 A504:C504 A503 A151:C153 A150:B150 A481:C498 A480:B480 A520:C520 A519:B519 A532:C535 A531:B531 A603:B606 A576:B578 A514:C514 A513:B513 A501:C502 A500:B500 A453:C454 A424:C424 A423:B423 A14:C14 A13:B13 A2:B5 A582:C582 A580:B580 A570:C570 A569:B569 A450:C450 A449:B449 A551:C552 A550:B550 A538:C539 A518:C518 A517:B517 A508:C512 A507:B507 A466:C468 A448:C448 A447:B447 A433:C446 A432:B432 A426:C431 A425:B425 A403:C405 A402:B402 A281:C285 A279:B279 A269:C278 A268:B268 A261:C267 A260:B260 A252:C256 A250:B251 A231:C233 A229:B230 A108:C113 A107:B107 A59:C69 A58:B58 A155:C161 A154:B154 A129:C144 A128:B128 A71 A9:C12 A8:B8 A590:C592 A380:C385 A379:B379 A451:B452 A523:C530 A521:B522 A506:C506 A505:B505 A470:C472 A469:B469 A455:B456 A100:C106 A99:B99 A40:C42 A32:C37 A16:C19 A15:B15 A565:B565 A556:B557 A536:B537 A478:C479 A477:B477 A408:C411 A407:B407 A387:C401 A386:B386 A328:C344 A327 A296:C306 A295:B295 A44:C50 A43:B43 A595:C597 A593:B593 A588:B589 A354:C373 A353:B353 A464:B465 A350:C350 A349:B349 A474:C476 A473 A86:C92 A85:B85 A30:B31 A38:B39 A171:C228 A170:B170 A599:C599 A584:C585 A583:B583 A572:B572 A24:C27 A23:B23 A499:B499 A414:C417 A413 C413 A412 C412 A406 A375:C376 A374:B374 A280:B280" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/config/nickname_song.xlsx
+++ b/config/nickname_song.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Tsugu-Backend\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E706C019-044D-488F-AC2A-4DEF3A7E06B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61682128-D5F9-4E9A-AEA4-625E85B96B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10188" yWindow="468" windowWidth="18744" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="1223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="1271">
   <si>
     <t>Id</t>
   </si>
@@ -3885,12 +3885,240 @@
     <t>爱的力量!,爱的力量！,pol,爱的力量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>世界中の青空をあつめて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界中的青空,世界中青空,世界中的清空,世界清空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元祖！バンドリちゃんのテーマ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元组,元祖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIBIBABI BRAVER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇敢者,bbbb,bbbbb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Part of the Life</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活中的一部分,生活中的部分,生活部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Velonica</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维罗妮卡,nica</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>エガクミライ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mirai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪獣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪兽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恋愛サーキュレーション</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恋爱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BROKEN GAMES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破坏游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>オン</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・ザ・フロントライン</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前线,在前线,千线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ビューティ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・フォー</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>季節は次々死んでいく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>季节,季节次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feel so good!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感觉良好,感觉真好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"FIGHT" ADDICT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成瘾斗争,斗争成瘾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>スキ×すき×カラフリィ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>色彩自由,彩色自由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百花繚乱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百花缭乱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>とーくとぅみー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・とーくとぅゆー</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>告诉我,跟我说,跟我讲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往欄印</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往栏印</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Color of Us</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们的颜色,颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Requiem for Fate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命运安魂,命运</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steadfast Spirits</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚忍不拔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drive Your Heart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驱动,驾驶你的心,嫁娶你的心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flame of hope(パラレルver.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foh平行,平行,foh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美丽,beauty,beauty for,beautyfor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>愛唄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱呗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3925,6 +4153,13 @@
       <name val="Segoe UI Symbol"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3946,8 +4181,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4287,10 +4523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C618"/>
+  <dimension ref="A1:C642"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A594" workbookViewId="0">
+      <selection activeCell="B612" sqref="B612"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -11042,45 +11278,309 @@
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A615">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B615" t="s">
-        <v>1101</v>
+        <v>1269</v>
       </c>
       <c r="C615" t="s">
-        <v>1102</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A616">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="B616" t="s">
-        <v>1202</v>
+        <v>1101</v>
       </c>
       <c r="C616" t="s">
-        <v>1203</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A617">
-        <v>10001</v>
+        <v>710</v>
       </c>
       <c r="B617" t="s">
-        <v>1070</v>
+        <v>1202</v>
       </c>
       <c r="C617" t="s">
-        <v>1071</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A618">
+        <v>711</v>
+      </c>
+      <c r="B618" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C618" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A619">
+        <v>713</v>
+      </c>
+      <c r="B619" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C619" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A620">
+        <v>714</v>
+      </c>
+      <c r="B620" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C620" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A621">
+        <v>717</v>
+      </c>
+      <c r="B621" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C621" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A622">
+        <v>718</v>
+      </c>
+      <c r="B622" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C622" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A623">
+        <v>719</v>
+      </c>
+      <c r="B623" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C623" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" ht="19.8" x14ac:dyDescent="0.5">
+      <c r="A624">
+        <v>721</v>
+      </c>
+      <c r="B624" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C624" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A625">
+        <v>722</v>
+      </c>
+      <c r="B625" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C625" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A626">
+        <v>723</v>
+      </c>
+      <c r="B626" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C626" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A627">
+        <v>725</v>
+      </c>
+      <c r="B627" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C627" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A628">
+        <v>726</v>
+      </c>
+      <c r="B628" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C628" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A629">
+        <v>727</v>
+      </c>
+      <c r="B629" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C629" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" ht="19.8" x14ac:dyDescent="0.5">
+      <c r="A630">
+        <v>728</v>
+      </c>
+      <c r="B630" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C630" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" ht="19.8" x14ac:dyDescent="0.5">
+      <c r="A631">
+        <v>729</v>
+      </c>
+      <c r="B631" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C631" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A632">
+        <v>730</v>
+      </c>
+      <c r="B632" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C632" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A633">
+        <v>731</v>
+      </c>
+      <c r="B633" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C633" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A634">
+        <v>733</v>
+      </c>
+      <c r="B634" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C634" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A635">
+        <v>735</v>
+      </c>
+      <c r="B635" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C635" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A636">
+        <v>736</v>
+      </c>
+      <c r="B636" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C636" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A637">
+        <v>738</v>
+      </c>
+      <c r="B637" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C637" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A638">
+        <v>739</v>
+      </c>
+      <c r="B638" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C638" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A639">
+        <v>740</v>
+      </c>
+      <c r="B639" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C639" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A640">
+        <v>741</v>
+      </c>
+      <c r="B640" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C640" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A641">
+        <v>10001</v>
+      </c>
+      <c r="B641" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C641" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A642">
         <v>10003</v>
       </c>
-      <c r="B618" t="s">
+      <c r="B642" t="s">
         <v>1098</v>
       </c>
-      <c r="C618" t="s">
+      <c r="C642" t="s">
         <v>1099</v>
       </c>
     </row>
@@ -11089,7 +11589,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C1 A121:C127 A120:B120 A617:C617 A315:B315 A316:C326 A352:C352 A351:B351 A587:C587 A575 A574:B574 A460:C463 A459:B459 A608:C608 A235:C249 A234:B234 A95:C98 A146:C149 A145:B145 A541:C549 A540:B540 A55:C57 A558:C564 A29:C29 A28:B28 A579:C579 A308:C314 A307:B307 A53:B54 A457:C458 A516:C516 A515:B515 A93:B94 A554:C555 A553:B553 A346:C348 A345:B345 A52:C52 A51:B51 A72:C78 A70:B70 A163:C169 A162:B162 A378:C378 A377:B377 A610:C612 A258:C259 A257:B257 A6:C7 A573:C573 A571:B571 A567:C568 A566 A601:C601 A21:C22 A20:B20 A420:C422 A115:C119 A114:B114 A287:C294 A286:B286 A418:B419 A80:C84 A79:B79 A504:C504 A503 A151:C153 A150:B150 A481:C498 A480:B480 A520:C520 A519:B519 A532:C535 A531:B531 A603:B606 A576:B578 A514:C514 A513:B513 A501:C502 A500:B500 A453:C454 A424:C424 A423:B423 A14:C14 A13:B13 A2:B5 A582:C582 A580:B580 A570:C570 A569:B569 A450:C450 A449:B449 A551:C552 A550:B550 A538:C539 A518:C518 A517:B517 A508:C512 A507:B507 A466:C468 A448:C448 A447:B447 A433:C446 A432:B432 A426:C431 A425:B425 A403:C405 A402:B402 A281:C285 A279:B279 A269:C278 A268:B268 A261:C267 A260:B260 A252:C256 A250:B251 A231:C233 A229:B230 A108:C113 A107:B107 A59:C69 A58:B58 A155:C161 A154:B154 A129:C144 A128:B128 A71 A9:C12 A8:B8 A590:C592 A380:C385 A379:B379 A451:B452 A523:C530 A521:B522 A506:C506 A505:B505 A470:C472 A469:B469 A455:B456 A100:C106 A99:B99 A40:C42 A32:C37 A16:C19 A15:B15 A565:B565 A556:B557 A536:B537 A478:C479 A477:B477 A408:C411 A407:B407 A387:C401 A386:B386 A328:C344 A327 A296:C306 A295:B295 A44:C50 A43:B43 A595:C597 A593:B593 A588:B589 A354:C373 A353:B353 A464:B465 A350:C350 A349:B349 A474:C476 A473 A86:C92 A85:B85 A30:B31 A38:B39 A171:C228 A170:B170 A599:C599 A584:C585 A583:B583 A572:B572 A24:C27 A23:B23 A499:B499 A414:C417 A413 C413 A412 C412 A406 A375:C376 A374:B374 A280:B280" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C1 A121:C127 A120:B120 A641:C641 A315:B315 A316:C326 A352:C352 A351:B351 A587:C587 A575 A574:B574 A460:C463 A459:B459 A608:C608 A235:C249 A234:B234 A95:C98 A146:C149 A145:B145 A541:C549 A540:B540 A55:C57 A558:C564 A29:C29 A28:B28 A579:C579 A308:C314 A307:B307 A53:B54 A457:C458 A516:C516 A515:B515 A93:B94 A554:C555 A553:B553 A346:C348 A345:B345 A52:C52 A51:B51 A72:C78 A70:B70 A163:C169 A162:B162 A378:C378 A377:B377 A610:C612 A258:C259 A257:B257 A6:C7 A573:C573 A571:B571 A567:C568 A566 A601:C601 A21:C22 A20:B20 A420:C422 A115:C119 A114:B114 A287:C294 A286:B286 A418:B419 A80:C84 A79:B79 A504:C504 A503 A151:C153 A150:B150 A481:C498 A480:B480 A520:C520 A519:B519 A532:C535 A531:B531 A603:B606 A576:B578 A514:C514 A513:B513 A501:C502 A500:B500 A453:C454 A424:C424 A423:B423 A14:C14 A13:B13 A2:B5 A582:C582 A580:B580 A570:C570 A569:B569 A450:C450 A449:B449 A551:C552 A550:B550 A538:C539 A518:C518 A517:B517 A508:C512 A507:B507 A466:C468 A448:C448 A447:B447 A433:C446 A432:B432 A426:C431 A425:B425 A403:C405 A402:B402 A281:C285 A279:B279 A269:C278 A268:B268 A261:C267 A260:B260 A252:C256 A250:B251 A231:C233 A229:B230 A108:C113 A107:B107 A59:C69 A58:B58 A155:C161 A154:B154 A129:C144 A128:B128 A71 A9:C12 A8:B8 A590:C592 A380:C385 A379:B379 A451:B452 A523:C530 A521:B522 A506:C506 A505:B505 A470:C472 A469:B469 A455:B456 A100:C106 A99:B99 A40:C42 A32:C37 A16:C19 A15:B15 A565:B565 A556:B557 A536:B537 A478:C479 A477:B477 A408:C411 A407:B407 A387:C401 A386:B386 A328:C344 A327 A296:C306 A295:B295 A44:C50 A43:B43 A595:C597 A593:B593 A588:B589 A354:C373 A353:B353 A464:B465 A350:C350 A349:B349 A474:C476 A473 A86:C92 A85:B85 A30:B31 A38:B39 A171:C228 A170:B170 A599:C599 A584:C585 A583:B583 A572:B572 A24:C27 A23:B23 A499:B499 A414:C417 A413 C413 A412 C412 A406 A375:C376 A374:B374 A280:B280" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/config/nickname_song.xlsx
+++ b/config/nickname_song.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Tsugu-Backend\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61682128-D5F9-4E9A-AEA4-625E85B96B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E01E649-23BA-47E8-A246-82617B29FEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10188" yWindow="468" windowWidth="18744" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -3239,10 +3239,6 @@
   </si>
   <si>
     <t>焚音打</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乌托邦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4111,6 +4107,10 @@
   </si>
   <si>
     <t>爱呗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌托邦,stu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4526,7 +4526,7 @@
   <dimension ref="A1:C642"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A594" workbookViewId="0">
-      <selection activeCell="B612" sqref="B612"/>
+      <selection activeCell="C602" sqref="C602"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -4556,7 +4556,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4567,7 +4567,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4578,7 +4578,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4589,7 +4589,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -4622,7 +4622,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -4677,7 +4677,7 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -4699,7 +4699,7 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -4754,7 +4754,7 @@
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -4787,7 +4787,7 @@
         <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -4842,7 +4842,7 @@
         <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -4864,7 +4864,7 @@
         <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -4875,7 +4875,7 @@
         <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -4952,7 +4952,7 @@
         <v>63</v>
       </c>
       <c r="C38" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -4963,7 +4963,7 @@
         <v>64</v>
       </c>
       <c r="C39" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -5007,7 +5007,7 @@
         <v>71</v>
       </c>
       <c r="C43" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -5095,7 +5095,7 @@
         <v>86</v>
       </c>
       <c r="C51" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -5117,7 +5117,7 @@
         <v>89</v>
       </c>
       <c r="C53" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -5128,7 +5128,7 @@
         <v>90</v>
       </c>
       <c r="C54" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -5172,7 +5172,7 @@
         <v>97</v>
       </c>
       <c r="C58" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -5304,7 +5304,7 @@
         <v>120</v>
       </c>
       <c r="C70" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -5312,10 +5312,10 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C71" t="s">
         <v>1157</v>
-      </c>
-      <c r="C71" t="s">
-        <v>1158</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -5403,7 +5403,7 @@
         <v>135</v>
       </c>
       <c r="C79" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -5469,7 +5469,7 @@
         <v>146</v>
       </c>
       <c r="C85" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -5557,7 +5557,7 @@
         <v>161</v>
       </c>
       <c r="C93" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -5568,7 +5568,7 @@
         <v>162</v>
       </c>
       <c r="C94" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -5623,7 +5623,7 @@
         <v>171</v>
       </c>
       <c r="C99" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -5711,7 +5711,7 @@
         <v>186</v>
       </c>
       <c r="C107" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -5788,7 +5788,7 @@
         <v>199</v>
       </c>
       <c r="C114" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -5854,7 +5854,7 @@
         <v>210</v>
       </c>
       <c r="C120" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -5942,7 +5942,7 @@
         <v>225</v>
       </c>
       <c r="C128" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -6129,7 +6129,7 @@
         <v>258</v>
       </c>
       <c r="C145" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -6184,7 +6184,7 @@
         <v>267</v>
       </c>
       <c r="C150" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -6228,7 +6228,7 @@
         <v>274</v>
       </c>
       <c r="C154" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -6316,7 +6316,7 @@
         <v>289</v>
       </c>
       <c r="C162" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -6404,7 +6404,7 @@
         <v>304</v>
       </c>
       <c r="C170" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -7053,7 +7053,7 @@
         <v>421</v>
       </c>
       <c r="C229" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -7064,7 +7064,7 @@
         <v>422</v>
       </c>
       <c r="C230" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -7108,7 +7108,7 @@
         <v>429</v>
       </c>
       <c r="C234" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -7284,7 +7284,7 @@
         <v>460</v>
       </c>
       <c r="C250" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -7295,7 +7295,7 @@
         <v>461</v>
       </c>
       <c r="C251" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -7361,7 +7361,7 @@
         <v>471</v>
       </c>
       <c r="C257" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -7394,7 +7394,7 @@
         <v>476</v>
       </c>
       <c r="C260" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -7482,7 +7482,7 @@
         <v>491</v>
       </c>
       <c r="C268" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -7603,7 +7603,7 @@
         <v>512</v>
       </c>
       <c r="C279" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -7614,7 +7614,7 @@
         <v>513</v>
       </c>
       <c r="C280" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -7680,7 +7680,7 @@
         <v>524</v>
       </c>
       <c r="C286" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -7779,7 +7779,7 @@
         <v>541</v>
       </c>
       <c r="C295" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -7911,7 +7911,7 @@
         <v>564</v>
       </c>
       <c r="C307" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -7999,7 +7999,7 @@
         <v>579</v>
       </c>
       <c r="C315" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -8128,10 +8128,10 @@
         <v>337</v>
       </c>
       <c r="B327" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C327" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -8329,7 +8329,7 @@
         <v>636</v>
       </c>
       <c r="C345" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -8373,7 +8373,7 @@
         <v>643</v>
       </c>
       <c r="C349" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -8395,7 +8395,7 @@
         <v>646</v>
       </c>
       <c r="C351" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -8417,7 +8417,7 @@
         <v>649</v>
       </c>
       <c r="C353" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -8648,7 +8648,7 @@
         <v>690</v>
       </c>
       <c r="C374" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -8681,7 +8681,7 @@
         <v>695</v>
       </c>
       <c r="C377" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
@@ -8703,7 +8703,7 @@
         <v>698</v>
       </c>
       <c r="C379" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -8780,7 +8780,7 @@
         <v>711</v>
       </c>
       <c r="C386" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
@@ -8956,7 +8956,7 @@
         <v>742</v>
       </c>
       <c r="C402" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
@@ -8997,10 +8997,10 @@
         <v>416</v>
       </c>
       <c r="B406" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C406" t="s">
         <v>1219</v>
-      </c>
-      <c r="C406" t="s">
-        <v>1220</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
@@ -9011,7 +9011,7 @@
         <v>749</v>
       </c>
       <c r="C407" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
@@ -9063,7 +9063,7 @@
         <v>422</v>
       </c>
       <c r="B412" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C412" t="s">
         <v>758</v>
@@ -9074,7 +9074,7 @@
         <v>423</v>
       </c>
       <c r="B413" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C413" t="s">
         <v>759</v>
@@ -9132,7 +9132,7 @@
         <v>768</v>
       </c>
       <c r="C418" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
@@ -9143,7 +9143,7 @@
         <v>769</v>
       </c>
       <c r="C419" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
@@ -9187,7 +9187,7 @@
         <v>776</v>
       </c>
       <c r="C423" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
@@ -9209,7 +9209,7 @@
         <v>779</v>
       </c>
       <c r="C425" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
@@ -9286,7 +9286,7 @@
         <v>790</v>
       </c>
       <c r="C432" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
@@ -9451,7 +9451,7 @@
         <v>819</v>
       </c>
       <c r="C447" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
@@ -9473,7 +9473,7 @@
         <v>822</v>
       </c>
       <c r="C449" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
@@ -9495,7 +9495,7 @@
         <v>698</v>
       </c>
       <c r="C451" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
@@ -9506,7 +9506,7 @@
         <v>825</v>
       </c>
       <c r="C452" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
@@ -9539,7 +9539,7 @@
         <v>830</v>
       </c>
       <c r="C455" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
@@ -9550,7 +9550,7 @@
         <v>738</v>
       </c>
       <c r="C456" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
@@ -9583,7 +9583,7 @@
         <v>835</v>
       </c>
       <c r="C459" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
@@ -9635,7 +9635,7 @@
         <v>843</v>
       </c>
       <c r="C464" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
@@ -9646,7 +9646,7 @@
         <v>844</v>
       </c>
       <c r="C465" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
@@ -9690,7 +9690,7 @@
         <v>851</v>
       </c>
       <c r="C469" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
@@ -9731,10 +9731,10 @@
         <v>484</v>
       </c>
       <c r="B473" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C473" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
@@ -9778,7 +9778,7 @@
         <v>864</v>
       </c>
       <c r="C477" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
@@ -9811,7 +9811,7 @@
         <v>868</v>
       </c>
       <c r="C480" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
@@ -10028,7 +10028,7 @@
         <v>906</v>
       </c>
       <c r="C500" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
@@ -10058,10 +10058,10 @@
         <v>515</v>
       </c>
       <c r="B503" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C503" t="s">
         <v>1115</v>
-      </c>
-      <c r="C503" t="s">
-        <v>1116</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
@@ -10083,7 +10083,7 @@
         <v>913</v>
       </c>
       <c r="C505" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
@@ -10105,7 +10105,7 @@
         <v>916</v>
       </c>
       <c r="C507" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
@@ -10171,7 +10171,7 @@
         <v>927</v>
       </c>
       <c r="C513" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
@@ -10193,7 +10193,7 @@
         <v>930</v>
       </c>
       <c r="C515" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
@@ -10215,7 +10215,7 @@
         <v>932</v>
       </c>
       <c r="C517" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
@@ -10234,7 +10234,7 @@
         <v>934</v>
       </c>
       <c r="C519" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
@@ -10256,7 +10256,7 @@
         <v>937</v>
       </c>
       <c r="C521" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
@@ -10267,7 +10267,7 @@
         <v>938</v>
       </c>
       <c r="C522" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
@@ -10366,7 +10366,7 @@
         <v>955</v>
       </c>
       <c r="C531" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
@@ -10421,7 +10421,7 @@
         <v>964</v>
       </c>
       <c r="C536" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.25">
@@ -10432,7 +10432,7 @@
         <v>965</v>
       </c>
       <c r="C537" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
@@ -10465,7 +10465,7 @@
         <v>970</v>
       </c>
       <c r="C540" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.25">
@@ -10572,7 +10572,7 @@
         <v>988</v>
       </c>
       <c r="C550" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.25">
@@ -10605,7 +10605,7 @@
         <v>993</v>
       </c>
       <c r="C553" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.25">
@@ -10638,7 +10638,7 @@
         <v>998</v>
       </c>
       <c r="C556" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.25">
@@ -10649,7 +10649,7 @@
         <v>999</v>
       </c>
       <c r="C557" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.25">
@@ -10734,7 +10734,7 @@
         <v>1013</v>
       </c>
       <c r="C565" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.25">
@@ -10742,10 +10742,10 @@
         <v>586</v>
       </c>
       <c r="B566" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C566" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.25">
@@ -10778,7 +10778,7 @@
         <v>1018</v>
       </c>
       <c r="C569" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.25">
@@ -10800,7 +10800,7 @@
         <v>1021</v>
       </c>
       <c r="C571" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.25">
@@ -10811,7 +10811,7 @@
         <v>1022</v>
       </c>
       <c r="C572" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.25">
@@ -10833,7 +10833,7 @@
         <v>1025</v>
       </c>
       <c r="C574" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.25">
@@ -10841,10 +10841,10 @@
         <v>595</v>
       </c>
       <c r="B575" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C575" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.25">
@@ -10855,7 +10855,7 @@
         <v>1026</v>
       </c>
       <c r="C576" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.25">
@@ -10866,7 +10866,7 @@
         <v>860</v>
       </c>
       <c r="C577" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.25">
@@ -10877,7 +10877,7 @@
         <v>862</v>
       </c>
       <c r="C578" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.25">
@@ -10899,7 +10899,7 @@
         <v>1029</v>
       </c>
       <c r="C580" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.25">
@@ -10907,10 +10907,10 @@
         <v>602</v>
       </c>
       <c r="B581" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C581" t="s">
         <v>1199</v>
-      </c>
-      <c r="C581" t="s">
-        <v>1200</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.25">
@@ -10932,7 +10932,7 @@
         <v>1032</v>
       </c>
       <c r="C583" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.25">
@@ -10962,10 +10962,10 @@
         <v>625</v>
       </c>
       <c r="B586" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C586" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.25">
@@ -10987,7 +10987,7 @@
         <v>1039</v>
       </c>
       <c r="C588" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.25">
@@ -10998,7 +10998,7 @@
         <v>1040</v>
       </c>
       <c r="C589" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.25">
@@ -11042,7 +11042,7 @@
         <v>1047</v>
       </c>
       <c r="C593" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.25">
@@ -11050,10 +11050,10 @@
         <v>649</v>
       </c>
       <c r="B594" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C594" t="s">
         <v>1209</v>
-      </c>
-      <c r="C594" t="s">
-        <v>1210</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.25">
@@ -11094,10 +11094,10 @@
         <v>654</v>
       </c>
       <c r="B598" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C598" t="s">
         <v>1160</v>
-      </c>
-      <c r="C598" t="s">
-        <v>1161</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.25">
@@ -11116,10 +11116,10 @@
         <v>660</v>
       </c>
       <c r="B600" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C600" t="s">
         <v>1207</v>
-      </c>
-      <c r="C600" t="s">
-        <v>1208</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.25">
@@ -11138,10 +11138,10 @@
         <v>663</v>
       </c>
       <c r="B602" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C602" t="s">
-        <v>1073</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.25">
@@ -11152,7 +11152,7 @@
         <v>1058</v>
       </c>
       <c r="C603" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.25">
@@ -11163,7 +11163,7 @@
         <v>1059</v>
       </c>
       <c r="C604" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.25">
@@ -11174,7 +11174,7 @@
         <v>1060</v>
       </c>
       <c r="C605" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.25">
@@ -11185,7 +11185,7 @@
         <v>1061</v>
       </c>
       <c r="C606" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.25">
@@ -11193,10 +11193,10 @@
         <v>681</v>
       </c>
       <c r="B607" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C607" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.25">
@@ -11218,7 +11218,7 @@
         <v>1072</v>
       </c>
       <c r="C609" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.25">
@@ -11259,10 +11259,10 @@
         <v>697</v>
       </c>
       <c r="B613" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C613" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.25">
@@ -11270,10 +11270,10 @@
         <v>701</v>
       </c>
       <c r="B614" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C614" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.25">
@@ -11281,10 +11281,10 @@
         <v>702</v>
       </c>
       <c r="B615" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C615" t="s">
         <v>1269</v>
-      </c>
-      <c r="C615" t="s">
-        <v>1270</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.25">
@@ -11292,10 +11292,10 @@
         <v>704</v>
       </c>
       <c r="B616" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C616" t="s">
         <v>1101</v>
-      </c>
-      <c r="C616" t="s">
-        <v>1102</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.25">
@@ -11303,10 +11303,10 @@
         <v>710</v>
       </c>
       <c r="B617" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C617" t="s">
         <v>1202</v>
-      </c>
-      <c r="C617" t="s">
-        <v>1203</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.25">
@@ -11314,10 +11314,10 @@
         <v>711</v>
       </c>
       <c r="B618" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C618" t="s">
         <v>1266</v>
-      </c>
-      <c r="C618" t="s">
-        <v>1267</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.25">
@@ -11325,10 +11325,10 @@
         <v>713</v>
       </c>
       <c r="B619" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C619" t="s">
         <v>1264</v>
-      </c>
-      <c r="C619" t="s">
-        <v>1265</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.25">
@@ -11336,10 +11336,10 @@
         <v>714</v>
       </c>
       <c r="B620" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C620" t="s">
         <v>1262</v>
-      </c>
-      <c r="C620" t="s">
-        <v>1263</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.25">
@@ -11347,10 +11347,10 @@
         <v>717</v>
       </c>
       <c r="B621" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C621" t="s">
         <v>1260</v>
-      </c>
-      <c r="C621" t="s">
-        <v>1261</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.25">
@@ -11358,10 +11358,10 @@
         <v>718</v>
       </c>
       <c r="B622" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C622" t="s">
         <v>1258</v>
-      </c>
-      <c r="C622" t="s">
-        <v>1259</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.25">
@@ -11369,10 +11369,10 @@
         <v>719</v>
       </c>
       <c r="B623" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C623" t="s">
         <v>1256</v>
-      </c>
-      <c r="C623" t="s">
-        <v>1257</v>
       </c>
     </row>
     <row r="624" spans="1:3" ht="19.8" x14ac:dyDescent="0.5">
@@ -11380,10 +11380,10 @@
         <v>721</v>
       </c>
       <c r="B624" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C624" t="s">
         <v>1254</v>
-      </c>
-      <c r="C624" t="s">
-        <v>1255</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.25">
@@ -11391,10 +11391,10 @@
         <v>722</v>
       </c>
       <c r="B625" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C625" t="s">
         <v>1252</v>
-      </c>
-      <c r="C625" t="s">
-        <v>1253</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.25">
@@ -11402,10 +11402,10 @@
         <v>723</v>
       </c>
       <c r="B626" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C626" t="s">
         <v>1250</v>
-      </c>
-      <c r="C626" t="s">
-        <v>1251</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.25">
@@ -11413,10 +11413,10 @@
         <v>725</v>
       </c>
       <c r="B627" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C627" t="s">
         <v>1248</v>
-      </c>
-      <c r="C627" t="s">
-        <v>1249</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.25">
@@ -11424,10 +11424,10 @@
         <v>726</v>
       </c>
       <c r="B628" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C628" t="s">
         <v>1246</v>
-      </c>
-      <c r="C628" t="s">
-        <v>1247</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.25">
@@ -11435,10 +11435,10 @@
         <v>727</v>
       </c>
       <c r="B629" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C629" t="s">
         <v>1244</v>
-      </c>
-      <c r="C629" t="s">
-        <v>1245</v>
       </c>
     </row>
     <row r="630" spans="1:3" ht="19.8" x14ac:dyDescent="0.5">
@@ -11446,10 +11446,10 @@
         <v>728</v>
       </c>
       <c r="B630" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C630" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="631" spans="1:3" ht="19.8" x14ac:dyDescent="0.5">
@@ -11457,10 +11457,10 @@
         <v>729</v>
       </c>
       <c r="B631" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C631" t="s">
         <v>1241</v>
-      </c>
-      <c r="C631" t="s">
-        <v>1242</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.25">
@@ -11468,10 +11468,10 @@
         <v>730</v>
       </c>
       <c r="B632" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C632" t="s">
         <v>1239</v>
-      </c>
-      <c r="C632" t="s">
-        <v>1240</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.25">
@@ -11479,10 +11479,10 @@
         <v>731</v>
       </c>
       <c r="B633" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C633" t="s">
         <v>1237</v>
-      </c>
-      <c r="C633" t="s">
-        <v>1238</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.25">
@@ -11490,10 +11490,10 @@
         <v>733</v>
       </c>
       <c r="B634" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C634" t="s">
         <v>1235</v>
-      </c>
-      <c r="C634" t="s">
-        <v>1236</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.25">
@@ -11501,10 +11501,10 @@
         <v>735</v>
       </c>
       <c r="B635" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C635" t="s">
         <v>1233</v>
-      </c>
-      <c r="C635" t="s">
-        <v>1234</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.25">
@@ -11512,10 +11512,10 @@
         <v>736</v>
       </c>
       <c r="B636" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C636" t="s">
         <v>1231</v>
-      </c>
-      <c r="C636" t="s">
-        <v>1232</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.25">
@@ -11523,10 +11523,10 @@
         <v>738</v>
       </c>
       <c r="B637" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C637" t="s">
         <v>1229</v>
-      </c>
-      <c r="C637" t="s">
-        <v>1230</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.25">
@@ -11534,10 +11534,10 @@
         <v>739</v>
       </c>
       <c r="B638" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C638" t="s">
         <v>1227</v>
-      </c>
-      <c r="C638" t="s">
-        <v>1228</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.25">
@@ -11545,10 +11545,10 @@
         <v>740</v>
       </c>
       <c r="B639" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C639" t="s">
         <v>1225</v>
-      </c>
-      <c r="C639" t="s">
-        <v>1226</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.25">
@@ -11556,10 +11556,10 @@
         <v>741</v>
       </c>
       <c r="B640" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C640" t="s">
         <v>1223</v>
-      </c>
-      <c r="C640" t="s">
-        <v>1224</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.25">
@@ -11578,10 +11578,10 @@
         <v>10003</v>
       </c>
       <c r="B642" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C642" t="s">
         <v>1098</v>
-      </c>
-      <c r="C642" t="s">
-        <v>1099</v>
       </c>
     </row>
   </sheetData>

--- a/config/nickname_song.xlsx
+++ b/config/nickname_song.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Tsugu-Backend\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E01E649-23BA-47E8-A246-82617B29FEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92706CC0-C564-43F7-B39D-B3DB3F96A283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10668" yWindow="2388" windowWidth="18744" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="1271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="1273">
   <si>
     <t>Id</t>
   </si>
@@ -2921,9 +2921,6 @@
   </si>
   <si>
     <t>テレキャスタービーボーイ</t>
-  </si>
-  <si>
-    <t>telecaster B-boy,电吉他说唱男孩</t>
   </si>
   <si>
     <t>処救生</t>
@@ -4111,6 +4108,18 @@
   </si>
   <si>
     <t>乌托邦,stu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mas?uerade Rhapsody Re?uest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12兆年,十二兆年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>telecaster B-boy,电吉他说唱男孩,电吉他男孩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4523,10 +4532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C642"/>
+  <dimension ref="A1:C643"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A594" workbookViewId="0">
-      <selection activeCell="C602" sqref="C602"/>
+    <sheetView tabSelected="1" topLeftCell="A512" workbookViewId="0">
+      <selection activeCell="B519" sqref="B519"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -4556,7 +4565,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4567,7 +4576,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4578,7 +4587,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4589,7 +4598,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -4622,7 +4631,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -4677,7 +4686,7 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -4699,7 +4708,7 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -4754,7 +4763,7 @@
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -4787,7 +4796,7 @@
         <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -4842,7 +4851,7 @@
         <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -4864,7 +4873,7 @@
         <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -4875,7 +4884,7 @@
         <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -4952,7 +4961,7 @@
         <v>63</v>
       </c>
       <c r="C38" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -4963,7 +4972,7 @@
         <v>64</v>
       </c>
       <c r="C39" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -5007,7 +5016,7 @@
         <v>71</v>
       </c>
       <c r="C43" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -5095,7 +5104,7 @@
         <v>86</v>
       </c>
       <c r="C51" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -5117,7 +5126,7 @@
         <v>89</v>
       </c>
       <c r="C53" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -5128,7 +5137,7 @@
         <v>90</v>
       </c>
       <c r="C54" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -5172,7 +5181,7 @@
         <v>97</v>
       </c>
       <c r="C58" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -5304,7 +5313,7 @@
         <v>120</v>
       </c>
       <c r="C70" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -5312,10 +5321,10 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C71" t="s">
         <v>1156</v>
-      </c>
-      <c r="C71" t="s">
-        <v>1157</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -5403,7 +5412,7 @@
         <v>135</v>
       </c>
       <c r="C79" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -5469,7 +5478,7 @@
         <v>146</v>
       </c>
       <c r="C85" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -5557,7 +5566,7 @@
         <v>161</v>
       </c>
       <c r="C93" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -5568,7 +5577,7 @@
         <v>162</v>
       </c>
       <c r="C94" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -5623,7 +5632,7 @@
         <v>171</v>
       </c>
       <c r="C99" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -5711,7 +5720,7 @@
         <v>186</v>
       </c>
       <c r="C107" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -5788,7 +5797,7 @@
         <v>199</v>
       </c>
       <c r="C114" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -5854,7 +5863,7 @@
         <v>210</v>
       </c>
       <c r="C120" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -5942,7 +5951,7 @@
         <v>225</v>
       </c>
       <c r="C128" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -6129,7 +6138,7 @@
         <v>258</v>
       </c>
       <c r="C145" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -6184,7 +6193,7 @@
         <v>267</v>
       </c>
       <c r="C150" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -6228,7 +6237,7 @@
         <v>274</v>
       </c>
       <c r="C154" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -6316,7 +6325,7 @@
         <v>289</v>
       </c>
       <c r="C162" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -6404,7 +6413,7 @@
         <v>304</v>
       </c>
       <c r="C170" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -7053,7 +7062,7 @@
         <v>421</v>
       </c>
       <c r="C229" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -7064,7 +7073,7 @@
         <v>422</v>
       </c>
       <c r="C230" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -7108,7 +7117,7 @@
         <v>429</v>
       </c>
       <c r="C234" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -7284,7 +7293,7 @@
         <v>460</v>
       </c>
       <c r="C250" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -7295,7 +7304,7 @@
         <v>461</v>
       </c>
       <c r="C251" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -7361,7 +7370,7 @@
         <v>471</v>
       </c>
       <c r="C257" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -7394,7 +7403,7 @@
         <v>476</v>
       </c>
       <c r="C260" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -7482,7 +7491,7 @@
         <v>491</v>
       </c>
       <c r="C268" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -7603,7 +7612,7 @@
         <v>512</v>
       </c>
       <c r="C279" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -7614,7 +7623,7 @@
         <v>513</v>
       </c>
       <c r="C280" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -7680,7 +7689,7 @@
         <v>524</v>
       </c>
       <c r="C286" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -7779,7 +7788,7 @@
         <v>541</v>
       </c>
       <c r="C295" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -7911,7 +7920,7 @@
         <v>564</v>
       </c>
       <c r="C307" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -7999,7 +8008,7 @@
         <v>579</v>
       </c>
       <c r="C315" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -8128,10 +8137,10 @@
         <v>337</v>
       </c>
       <c r="B327" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C327" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -8329,7 +8338,7 @@
         <v>636</v>
       </c>
       <c r="C345" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -8373,7 +8382,7 @@
         <v>643</v>
       </c>
       <c r="C349" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -8395,7 +8404,7 @@
         <v>646</v>
       </c>
       <c r="C351" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -8417,7 +8426,7 @@
         <v>649</v>
       </c>
       <c r="C353" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -8648,7 +8657,7 @@
         <v>690</v>
       </c>
       <c r="C374" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -8681,7 +8690,7 @@
         <v>695</v>
       </c>
       <c r="C377" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
@@ -8703,7 +8712,7 @@
         <v>698</v>
       </c>
       <c r="C379" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -8780,7 +8789,7 @@
         <v>711</v>
       </c>
       <c r="C386" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
@@ -8956,7 +8965,7 @@
         <v>742</v>
       </c>
       <c r="C402" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
@@ -8997,10 +9006,10 @@
         <v>416</v>
       </c>
       <c r="B406" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C406" t="s">
         <v>1218</v>
-      </c>
-      <c r="C406" t="s">
-        <v>1219</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
@@ -9011,7 +9020,7 @@
         <v>749</v>
       </c>
       <c r="C407" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
@@ -9063,7 +9072,7 @@
         <v>422</v>
       </c>
       <c r="B412" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C412" t="s">
         <v>758</v>
@@ -9074,7 +9083,7 @@
         <v>423</v>
       </c>
       <c r="B413" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C413" t="s">
         <v>759</v>
@@ -9132,7 +9141,7 @@
         <v>768</v>
       </c>
       <c r="C418" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
@@ -9143,7 +9152,7 @@
         <v>769</v>
       </c>
       <c r="C419" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
@@ -9187,7 +9196,7 @@
         <v>776</v>
       </c>
       <c r="C423" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
@@ -9209,7 +9218,7 @@
         <v>779</v>
       </c>
       <c r="C425" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
@@ -9286,7 +9295,7 @@
         <v>790</v>
       </c>
       <c r="C432" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
@@ -9451,7 +9460,7 @@
         <v>819</v>
       </c>
       <c r="C447" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
@@ -9473,7 +9482,7 @@
         <v>822</v>
       </c>
       <c r="C449" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
@@ -9495,7 +9504,7 @@
         <v>698</v>
       </c>
       <c r="C451" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
@@ -9506,7 +9515,7 @@
         <v>825</v>
       </c>
       <c r="C452" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
@@ -9539,7 +9548,7 @@
         <v>830</v>
       </c>
       <c r="C455" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
@@ -9550,7 +9559,7 @@
         <v>738</v>
       </c>
       <c r="C456" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
@@ -9583,7 +9592,7 @@
         <v>835</v>
       </c>
       <c r="C459" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
@@ -9635,7 +9644,7 @@
         <v>843</v>
       </c>
       <c r="C464" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
@@ -9646,7 +9655,7 @@
         <v>844</v>
       </c>
       <c r="C465" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
@@ -9690,7 +9699,7 @@
         <v>851</v>
       </c>
       <c r="C469" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
@@ -9731,10 +9740,10 @@
         <v>484</v>
       </c>
       <c r="B473" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C473" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
@@ -9778,7 +9787,7 @@
         <v>864</v>
       </c>
       <c r="C477" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
@@ -9811,7 +9820,7 @@
         <v>868</v>
       </c>
       <c r="C480" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
@@ -10028,7 +10037,7 @@
         <v>906</v>
       </c>
       <c r="C500" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
@@ -10058,10 +10067,10 @@
         <v>515</v>
       </c>
       <c r="B503" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C503" t="s">
         <v>1114</v>
-      </c>
-      <c r="C503" t="s">
-        <v>1115</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
@@ -10083,7 +10092,7 @@
         <v>913</v>
       </c>
       <c r="C505" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
@@ -10105,7 +10114,7 @@
         <v>916</v>
       </c>
       <c r="C507" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
@@ -10171,7 +10180,7 @@
         <v>927</v>
       </c>
       <c r="C513" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
@@ -10193,7 +10202,7 @@
         <v>930</v>
       </c>
       <c r="C515" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
@@ -10215,7 +10224,7 @@
         <v>932</v>
       </c>
       <c r="C517" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
@@ -10234,7 +10243,7 @@
         <v>934</v>
       </c>
       <c r="C519" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
@@ -10256,7 +10265,7 @@
         <v>937</v>
       </c>
       <c r="C521" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
@@ -10267,7 +10276,7 @@
         <v>938</v>
       </c>
       <c r="C522" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
@@ -10366,7 +10375,7 @@
         <v>955</v>
       </c>
       <c r="C531" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
@@ -10421,7 +10430,7 @@
         <v>964</v>
       </c>
       <c r="C536" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.25">
@@ -10432,7 +10441,7 @@
         <v>965</v>
       </c>
       <c r="C537" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
@@ -10443,7 +10452,7 @@
         <v>966</v>
       </c>
       <c r="C538" t="s">
-        <v>967</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.25">
@@ -10451,10 +10460,10 @@
         <v>553</v>
       </c>
       <c r="B539" t="s">
+        <v>967</v>
+      </c>
+      <c r="C539" t="s">
         <v>968</v>
-      </c>
-      <c r="C539" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.25">
@@ -10462,10 +10471,10 @@
         <v>554</v>
       </c>
       <c r="B540" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C540" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.25">
@@ -10473,10 +10482,10 @@
         <v>555</v>
       </c>
       <c r="B541" t="s">
+        <v>970</v>
+      </c>
+      <c r="C541" t="s">
         <v>971</v>
-      </c>
-      <c r="C541" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.25">
@@ -10484,10 +10493,10 @@
         <v>556</v>
       </c>
       <c r="B542" t="s">
+        <v>972</v>
+      </c>
+      <c r="C542" t="s">
         <v>973</v>
-      </c>
-      <c r="C542" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.25">
@@ -10495,10 +10504,10 @@
         <v>557</v>
       </c>
       <c r="B543" t="s">
+        <v>974</v>
+      </c>
+      <c r="C543" t="s">
         <v>975</v>
-      </c>
-      <c r="C543" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.25">
@@ -10506,10 +10515,10 @@
         <v>558</v>
       </c>
       <c r="B544" t="s">
+        <v>976</v>
+      </c>
+      <c r="C544" t="s">
         <v>977</v>
-      </c>
-      <c r="C544" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.25">
@@ -10517,10 +10526,10 @@
         <v>559</v>
       </c>
       <c r="B545" t="s">
+        <v>978</v>
+      </c>
+      <c r="C545" t="s">
         <v>979</v>
-      </c>
-      <c r="C545" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.25">
@@ -10528,10 +10537,10 @@
         <v>562</v>
       </c>
       <c r="B546" t="s">
+        <v>980</v>
+      </c>
+      <c r="C546" t="s">
         <v>981</v>
-      </c>
-      <c r="C546" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.25">
@@ -10539,7 +10548,7 @@
         <v>563</v>
       </c>
       <c r="B547" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.25">
@@ -10547,10 +10556,10 @@
         <v>564</v>
       </c>
       <c r="B548" t="s">
+        <v>983</v>
+      </c>
+      <c r="C548" t="s">
         <v>984</v>
-      </c>
-      <c r="C548" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.25">
@@ -10558,10 +10567,10 @@
         <v>565</v>
       </c>
       <c r="B549" t="s">
+        <v>985</v>
+      </c>
+      <c r="C549" t="s">
         <v>986</v>
-      </c>
-      <c r="C549" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.25">
@@ -10569,10 +10578,10 @@
         <v>566</v>
       </c>
       <c r="B550" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C550" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.25">
@@ -10580,10 +10589,10 @@
         <v>567</v>
       </c>
       <c r="B551" t="s">
+        <v>988</v>
+      </c>
+      <c r="C551" t="s">
         <v>989</v>
-      </c>
-      <c r="C551" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.25">
@@ -10591,10 +10600,10 @@
         <v>568</v>
       </c>
       <c r="B552" t="s">
+        <v>990</v>
+      </c>
+      <c r="C552" t="s">
         <v>991</v>
-      </c>
-      <c r="C552" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.25">
@@ -10602,10 +10611,10 @@
         <v>569</v>
       </c>
       <c r="B553" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C553" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.25">
@@ -10613,10 +10622,10 @@
         <v>570</v>
       </c>
       <c r="B554" t="s">
+        <v>993</v>
+      </c>
+      <c r="C554" t="s">
         <v>994</v>
-      </c>
-      <c r="C554" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.25">
@@ -10624,10 +10633,10 @@
         <v>571</v>
       </c>
       <c r="B555" t="s">
+        <v>995</v>
+      </c>
+      <c r="C555" t="s">
         <v>996</v>
-      </c>
-      <c r="C555" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.25">
@@ -10635,10 +10644,10 @@
         <v>572</v>
       </c>
       <c r="B556" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C556" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.25">
@@ -10646,10 +10655,10 @@
         <v>577</v>
       </c>
       <c r="B557" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C557" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.25">
@@ -10657,10 +10666,10 @@
         <v>578</v>
       </c>
       <c r="B558" t="s">
+        <v>999</v>
+      </c>
+      <c r="C558" t="s">
         <v>1000</v>
-      </c>
-      <c r="C558" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.25">
@@ -10668,7 +10677,7 @@
         <v>579</v>
       </c>
       <c r="B559" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.25">
@@ -10676,10 +10685,10 @@
         <v>580</v>
       </c>
       <c r="B560" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C560" t="s">
         <v>1003</v>
-      </c>
-      <c r="C560" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.25">
@@ -10687,10 +10696,10 @@
         <v>581</v>
       </c>
       <c r="B561" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C561" t="s">
         <v>1005</v>
-      </c>
-      <c r="C561" t="s">
-        <v>1006</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.25">
@@ -10698,10 +10707,10 @@
         <v>582</v>
       </c>
       <c r="B562" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C562" t="s">
         <v>1007</v>
-      </c>
-      <c r="C562" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.25">
@@ -10709,10 +10718,10 @@
         <v>583</v>
       </c>
       <c r="B563" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C563" t="s">
         <v>1009</v>
-      </c>
-      <c r="C563" t="s">
-        <v>1010</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.25">
@@ -10720,10 +10729,10 @@
         <v>584</v>
       </c>
       <c r="B564" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C564" t="s">
         <v>1011</v>
-      </c>
-      <c r="C564" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.25">
@@ -10731,10 +10740,10 @@
         <v>585</v>
       </c>
       <c r="B565" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C565" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.25">
@@ -10742,10 +10751,10 @@
         <v>586</v>
       </c>
       <c r="B566" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C566" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.25">
@@ -10753,10 +10762,10 @@
         <v>587</v>
       </c>
       <c r="B567" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C567" t="s">
         <v>1014</v>
-      </c>
-      <c r="C567" t="s">
-        <v>1015</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.25">
@@ -10764,10 +10773,10 @@
         <v>588</v>
       </c>
       <c r="B568" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C568" t="s">
         <v>1016</v>
-      </c>
-      <c r="C568" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.25">
@@ -10775,10 +10784,10 @@
         <v>589</v>
       </c>
       <c r="B569" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C569" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.25">
@@ -10786,10 +10795,10 @@
         <v>590</v>
       </c>
       <c r="B570" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C570" t="s">
         <v>1019</v>
-      </c>
-      <c r="C570" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.25">
@@ -10797,10 +10806,10 @@
         <v>591</v>
       </c>
       <c r="B571" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C571" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.25">
@@ -10808,10 +10817,10 @@
         <v>592</v>
       </c>
       <c r="B572" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C572" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.25">
@@ -10819,10 +10828,10 @@
         <v>593</v>
       </c>
       <c r="B573" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C573" t="s">
         <v>1023</v>
-      </c>
-      <c r="C573" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.25">
@@ -10830,10 +10839,10 @@
         <v>594</v>
       </c>
       <c r="B574" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C574" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.25">
@@ -10841,10 +10850,10 @@
         <v>595</v>
       </c>
       <c r="B575" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C575" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.25">
@@ -10852,10 +10861,10 @@
         <v>596</v>
       </c>
       <c r="B576" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C576" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.25">
@@ -10866,7 +10875,7 @@
         <v>860</v>
       </c>
       <c r="C577" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.25">
@@ -10877,7 +10886,7 @@
         <v>862</v>
       </c>
       <c r="C578" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.25">
@@ -10885,10 +10894,10 @@
         <v>599</v>
       </c>
       <c r="B579" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C579" t="s">
         <v>1027</v>
-      </c>
-      <c r="C579" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.25">
@@ -10896,10 +10905,10 @@
         <v>601</v>
       </c>
       <c r="B580" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C580" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.25">
@@ -10907,10 +10916,10 @@
         <v>602</v>
       </c>
       <c r="B581" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C581" t="s">
         <v>1198</v>
-      </c>
-      <c r="C581" t="s">
-        <v>1199</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.25">
@@ -10918,10 +10927,10 @@
         <v>604</v>
       </c>
       <c r="B582" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C582" t="s">
         <v>1030</v>
-      </c>
-      <c r="C582" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.25">
@@ -10929,10 +10938,10 @@
         <v>612</v>
       </c>
       <c r="B583" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C583" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.25">
@@ -10940,10 +10949,10 @@
         <v>617</v>
       </c>
       <c r="B584" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C584" t="s">
         <v>1033</v>
-      </c>
-      <c r="C584" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.25">
@@ -10951,10 +10960,10 @@
         <v>618</v>
       </c>
       <c r="B585" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C585" t="s">
         <v>1035</v>
-      </c>
-      <c r="C585" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.25">
@@ -10962,10 +10971,10 @@
         <v>625</v>
       </c>
       <c r="B586" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C586" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.25">
@@ -10973,10 +10982,10 @@
         <v>626</v>
       </c>
       <c r="B587" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C587" t="s">
         <v>1037</v>
-      </c>
-      <c r="C587" t="s">
-        <v>1038</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.25">
@@ -10984,10 +10993,10 @@
         <v>629</v>
       </c>
       <c r="B588" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C588" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.25">
@@ -10995,10 +11004,10 @@
         <v>633</v>
       </c>
       <c r="B589" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C589" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.25">
@@ -11006,10 +11015,10 @@
         <v>635</v>
       </c>
       <c r="B590" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C590" t="s">
         <v>1041</v>
-      </c>
-      <c r="C590" t="s">
-        <v>1042</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.25">
@@ -11017,10 +11026,10 @@
         <v>636</v>
       </c>
       <c r="B591" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C591" t="s">
         <v>1043</v>
-      </c>
-      <c r="C591" t="s">
-        <v>1044</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.25">
@@ -11028,10 +11037,10 @@
         <v>642</v>
       </c>
       <c r="B592" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C592" t="s">
         <v>1045</v>
-      </c>
-      <c r="C592" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.25">
@@ -11039,10 +11048,10 @@
         <v>646</v>
       </c>
       <c r="B593" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C593" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.25">
@@ -11050,10 +11059,10 @@
         <v>649</v>
       </c>
       <c r="B594" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C594" t="s">
         <v>1208</v>
-      </c>
-      <c r="C594" t="s">
-        <v>1209</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.25">
@@ -11061,10 +11070,10 @@
         <v>650</v>
       </c>
       <c r="B595" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C595" t="s">
         <v>1048</v>
-      </c>
-      <c r="C595" t="s">
-        <v>1049</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.25">
@@ -11072,10 +11081,10 @@
         <v>651</v>
       </c>
       <c r="B596" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C596" t="s">
         <v>1050</v>
-      </c>
-      <c r="C596" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.25">
@@ -11083,10 +11092,10 @@
         <v>653</v>
       </c>
       <c r="B597" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C597" t="s">
         <v>1052</v>
-      </c>
-      <c r="C597" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.25">
@@ -11094,10 +11103,10 @@
         <v>654</v>
       </c>
       <c r="B598" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C598" t="s">
         <v>1159</v>
-      </c>
-      <c r="C598" t="s">
-        <v>1160</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.25">
@@ -11105,10 +11114,10 @@
         <v>655</v>
       </c>
       <c r="B599" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C599" t="s">
         <v>1054</v>
-      </c>
-      <c r="C599" t="s">
-        <v>1055</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.25">
@@ -11116,10 +11125,10 @@
         <v>660</v>
       </c>
       <c r="B600" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C600" t="s">
         <v>1206</v>
-      </c>
-      <c r="C600" t="s">
-        <v>1207</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.25">
@@ -11127,10 +11136,10 @@
         <v>661</v>
       </c>
       <c r="B601" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C601" t="s">
         <v>1056</v>
-      </c>
-      <c r="C601" t="s">
-        <v>1057</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.25">
@@ -11138,10 +11147,10 @@
         <v>663</v>
       </c>
       <c r="B602" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C602" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.25">
@@ -11149,10 +11158,10 @@
         <v>667</v>
       </c>
       <c r="B603" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C603" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.25">
@@ -11160,10 +11169,10 @@
         <v>673</v>
       </c>
       <c r="B604" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C604" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.25">
@@ -11171,10 +11180,10 @@
         <v>674</v>
       </c>
       <c r="B605" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C605" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.25">
@@ -11182,10 +11191,10 @@
         <v>680</v>
       </c>
       <c r="B606" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C606" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.25">
@@ -11193,10 +11202,10 @@
         <v>681</v>
       </c>
       <c r="B607" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C607" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.25">
@@ -11204,10 +11213,10 @@
         <v>682</v>
       </c>
       <c r="B608" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C608" t="s">
         <v>1062</v>
-      </c>
-      <c r="C608" t="s">
-        <v>1063</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.25">
@@ -11215,10 +11224,10 @@
         <v>684</v>
       </c>
       <c r="B609" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C609" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.25">
@@ -11226,10 +11235,10 @@
         <v>685</v>
       </c>
       <c r="B610" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C610" t="s">
         <v>1064</v>
-      </c>
-      <c r="C610" t="s">
-        <v>1065</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.25">
@@ -11237,10 +11246,10 @@
         <v>686</v>
       </c>
       <c r="B611" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C611" t="s">
         <v>1066</v>
-      </c>
-      <c r="C611" t="s">
-        <v>1067</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.25">
@@ -11248,10 +11257,10 @@
         <v>689</v>
       </c>
       <c r="B612" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C612" t="s">
         <v>1068</v>
-      </c>
-      <c r="C612" t="s">
-        <v>1069</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.25">
@@ -11259,10 +11268,10 @@
         <v>697</v>
       </c>
       <c r="B613" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C613" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.25">
@@ -11270,10 +11279,10 @@
         <v>701</v>
       </c>
       <c r="B614" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C614" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.25">
@@ -11281,10 +11290,10 @@
         <v>702</v>
       </c>
       <c r="B615" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C615" t="s">
         <v>1268</v>
-      </c>
-      <c r="C615" t="s">
-        <v>1269</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.25">
@@ -11292,10 +11301,10 @@
         <v>704</v>
       </c>
       <c r="B616" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C616" t="s">
         <v>1100</v>
-      </c>
-      <c r="C616" t="s">
-        <v>1101</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.25">
@@ -11303,10 +11312,10 @@
         <v>710</v>
       </c>
       <c r="B617" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C617" t="s">
         <v>1201</v>
-      </c>
-      <c r="C617" t="s">
-        <v>1202</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.25">
@@ -11314,10 +11323,10 @@
         <v>711</v>
       </c>
       <c r="B618" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C618" t="s">
         <v>1265</v>
-      </c>
-      <c r="C618" t="s">
-        <v>1266</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.25">
@@ -11325,10 +11334,10 @@
         <v>713</v>
       </c>
       <c r="B619" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C619" t="s">
         <v>1263</v>
-      </c>
-      <c r="C619" t="s">
-        <v>1264</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.25">
@@ -11336,10 +11345,10 @@
         <v>714</v>
       </c>
       <c r="B620" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C620" t="s">
         <v>1261</v>
-      </c>
-      <c r="C620" t="s">
-        <v>1262</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.25">
@@ -11347,10 +11356,10 @@
         <v>717</v>
       </c>
       <c r="B621" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C621" t="s">
         <v>1259</v>
-      </c>
-      <c r="C621" t="s">
-        <v>1260</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.25">
@@ -11358,10 +11367,10 @@
         <v>718</v>
       </c>
       <c r="B622" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C622" t="s">
         <v>1257</v>
-      </c>
-      <c r="C622" t="s">
-        <v>1258</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.25">
@@ -11369,10 +11378,10 @@
         <v>719</v>
       </c>
       <c r="B623" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C623" t="s">
         <v>1255</v>
-      </c>
-      <c r="C623" t="s">
-        <v>1256</v>
       </c>
     </row>
     <row r="624" spans="1:3" ht="19.8" x14ac:dyDescent="0.5">
@@ -11380,10 +11389,10 @@
         <v>721</v>
       </c>
       <c r="B624" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C624" t="s">
         <v>1253</v>
-      </c>
-      <c r="C624" t="s">
-        <v>1254</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.25">
@@ -11391,10 +11400,10 @@
         <v>722</v>
       </c>
       <c r="B625" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C625" t="s">
         <v>1251</v>
-      </c>
-      <c r="C625" t="s">
-        <v>1252</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.25">
@@ -11402,10 +11411,10 @@
         <v>723</v>
       </c>
       <c r="B626" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C626" t="s">
         <v>1249</v>
-      </c>
-      <c r="C626" t="s">
-        <v>1250</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.25">
@@ -11413,10 +11422,10 @@
         <v>725</v>
       </c>
       <c r="B627" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C627" t="s">
         <v>1247</v>
-      </c>
-      <c r="C627" t="s">
-        <v>1248</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.25">
@@ -11424,10 +11433,10 @@
         <v>726</v>
       </c>
       <c r="B628" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C628" t="s">
         <v>1245</v>
-      </c>
-      <c r="C628" t="s">
-        <v>1246</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.25">
@@ -11435,10 +11444,10 @@
         <v>727</v>
       </c>
       <c r="B629" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C629" t="s">
         <v>1243</v>
-      </c>
-      <c r="C629" t="s">
-        <v>1244</v>
       </c>
     </row>
     <row r="630" spans="1:3" ht="19.8" x14ac:dyDescent="0.5">
@@ -11446,10 +11455,10 @@
         <v>728</v>
       </c>
       <c r="B630" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C630" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="631" spans="1:3" ht="19.8" x14ac:dyDescent="0.5">
@@ -11457,10 +11466,10 @@
         <v>729</v>
       </c>
       <c r="B631" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C631" t="s">
         <v>1240</v>
-      </c>
-      <c r="C631" t="s">
-        <v>1241</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.25">
@@ -11468,10 +11477,10 @@
         <v>730</v>
       </c>
       <c r="B632" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C632" t="s">
         <v>1238</v>
-      </c>
-      <c r="C632" t="s">
-        <v>1239</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.25">
@@ -11479,10 +11488,10 @@
         <v>731</v>
       </c>
       <c r="B633" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C633" t="s">
         <v>1236</v>
-      </c>
-      <c r="C633" t="s">
-        <v>1237</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.25">
@@ -11490,10 +11499,10 @@
         <v>733</v>
       </c>
       <c r="B634" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C634" t="s">
         <v>1234</v>
-      </c>
-      <c r="C634" t="s">
-        <v>1235</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.25">
@@ -11501,10 +11510,10 @@
         <v>735</v>
       </c>
       <c r="B635" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C635" t="s">
         <v>1232</v>
-      </c>
-      <c r="C635" t="s">
-        <v>1233</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.25">
@@ -11512,76 +11521,87 @@
         <v>736</v>
       </c>
       <c r="B636" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C636" t="s">
         <v>1230</v>
-      </c>
-      <c r="C636" t="s">
-        <v>1231</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B637" t="s">
-        <v>1228</v>
+        <v>1270</v>
       </c>
       <c r="C637" t="s">
-        <v>1229</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B638" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="C638" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B639" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="C639" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B640" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="C640" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641">
-        <v>10001</v>
+        <v>741</v>
       </c>
       <c r="B641" t="s">
-        <v>1070</v>
+        <v>1221</v>
       </c>
       <c r="C641" t="s">
-        <v>1071</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642">
+        <v>10001</v>
+      </c>
+      <c r="B642" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C642" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A643">
         <v>10003</v>
       </c>
-      <c r="B642" t="s">
+      <c r="B643" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C643" t="s">
         <v>1097</v>
-      </c>
-      <c r="C642" t="s">
-        <v>1098</v>
       </c>
     </row>
   </sheetData>
@@ -11589,7 +11609,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C1 A121:C127 A120:B120 A641:C641 A315:B315 A316:C326 A352:C352 A351:B351 A587:C587 A575 A574:B574 A460:C463 A459:B459 A608:C608 A235:C249 A234:B234 A95:C98 A146:C149 A145:B145 A541:C549 A540:B540 A55:C57 A558:C564 A29:C29 A28:B28 A579:C579 A308:C314 A307:B307 A53:B54 A457:C458 A516:C516 A515:B515 A93:B94 A554:C555 A553:B553 A346:C348 A345:B345 A52:C52 A51:B51 A72:C78 A70:B70 A163:C169 A162:B162 A378:C378 A377:B377 A610:C612 A258:C259 A257:B257 A6:C7 A573:C573 A571:B571 A567:C568 A566 A601:C601 A21:C22 A20:B20 A420:C422 A115:C119 A114:B114 A287:C294 A286:B286 A418:B419 A80:C84 A79:B79 A504:C504 A503 A151:C153 A150:B150 A481:C498 A480:B480 A520:C520 A519:B519 A532:C535 A531:B531 A603:B606 A576:B578 A514:C514 A513:B513 A501:C502 A500:B500 A453:C454 A424:C424 A423:B423 A14:C14 A13:B13 A2:B5 A582:C582 A580:B580 A570:C570 A569:B569 A450:C450 A449:B449 A551:C552 A550:B550 A538:C539 A518:C518 A517:B517 A508:C512 A507:B507 A466:C468 A448:C448 A447:B447 A433:C446 A432:B432 A426:C431 A425:B425 A403:C405 A402:B402 A281:C285 A279:B279 A269:C278 A268:B268 A261:C267 A260:B260 A252:C256 A250:B251 A231:C233 A229:B230 A108:C113 A107:B107 A59:C69 A58:B58 A155:C161 A154:B154 A129:C144 A128:B128 A71 A9:C12 A8:B8 A590:C592 A380:C385 A379:B379 A451:B452 A523:C530 A521:B522 A506:C506 A505:B505 A470:C472 A469:B469 A455:B456 A100:C106 A99:B99 A40:C42 A32:C37 A16:C19 A15:B15 A565:B565 A556:B557 A536:B537 A478:C479 A477:B477 A408:C411 A407:B407 A387:C401 A386:B386 A328:C344 A327 A296:C306 A295:B295 A44:C50 A43:B43 A595:C597 A593:B593 A588:B589 A354:C373 A353:B353 A464:B465 A350:C350 A349:B349 A474:C476 A473 A86:C92 A85:B85 A30:B31 A38:B39 A171:C228 A170:B170 A599:C599 A584:C585 A583:B583 A572:B572 A24:C27 A23:B23 A499:B499 A414:C417 A413 C413 A412 C412 A406 A375:C376 A374:B374 A280:B280" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C1 A121:C127 A120:B120 A642:C642 A315:B315 A316:C326 A352:C352 A351:B351 A587:C587 A575 A574:B574 A460:C463 A459:B459 A608:C608 A235:C249 A234:B234 A95:C98 A146:C149 A145:B145 A541:C549 A540:B540 A55:C57 A558:C564 A29:C29 A28:B28 A579:C579 A308:C314 A307:B307 A53:B54 A457:C458 A516:C516 A515:B515 A93:B94 A554:C555 A553:B553 A346:C348 A345:B345 A52:C52 A51:B51 A72:C78 A70:B70 A163:C169 A162:B162 A378:C378 A377:B377 A610:C612 A258:C259 A257:B257 A6:C7 A573:C573 A571:B571 A567:C568 A566 A601:C601 A21:C22 A20:B20 A420:C422 A115:C119 A114:B114 A287:C294 A286:B286 A418:B419 A80:C84 A79:B79 A504:C504 A503 A151:C153 A150:B150 A481:C498 A480:B480 A520:C520 A519:B519 A532:C535 A531:B531 A603:B606 A576:B578 A514:C514 A513:B513 A501:C502 A500:B500 A453:C454 A424:C424 A423:B423 A14:C14 A13:B13 A2:B5 A582:C582 A580:B580 A570:C570 A569:B569 A450:C450 A449:B449 A551:C552 A550:B550 A539:C539 A518:C518 A517:B517 A508:C512 A507:B507 A466:C468 A448:C448 A447:B447 A433:C446 A432:B432 A426:C431 A425:B425 A403:C405 A402:B402 A281:C285 A279:B279 A269:C278 A268:B268 A261:C267 A260:B260 A252:C256 A250:B251 A231:C233 A229:B230 A108:C113 A107:B107 A59:C69 A58:B58 A155:C161 A154:B154 A129:C144 A128:B128 A71 A9:C12 A8:B8 A590:C592 A380:C385 A379:B379 A451:B452 A523:C530 A521:B522 A506:C506 A505:B505 A470:C472 A469:B469 A455:B456 A100:C106 A99:B99 A40:C42 A32:C37 A16:C19 A15:B15 A565:B565 A556:B557 A536:B537 A478:C479 A477:B477 A408:C411 A407:B407 A387:C401 A386:B386 A328:C344 A327 A296:C306 A295:B295 A44:C50 A43:B43 A595:C597 A593:B593 A588:B589 A354:C373 A353:B353 A464:B465 A350:C350 A349:B349 A474:C476 A473 A86:C92 A85:B85 A30:B31 A38:B39 A171:C228 A170:B170 A599:C599 A584:C585 A583:B583 A572:B572 A24:C27 A23:B23 A499:B499 A414:C417 A413 C413 A412 C412 A406 A375:C376 A374:B374 A280:B280 A538:B538" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/config/nickname_song.xlsx
+++ b/config/nickname_song.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Tsugu-Backend\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92706CC0-C564-43F7-B39D-B3DB3F96A283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66029AB-FD94-4180-9727-E712FF916A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10668" yWindow="2388" windowWidth="18744" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="1273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="1275">
   <si>
     <t>Id</t>
   </si>
@@ -4120,6 +4120,14 @@
   </si>
   <si>
     <t>telecaster B-boy,电吉他说唱男孩,电吉他男孩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遥か彼方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遥之彼方,遥彼方</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4532,10 +4540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C643"/>
+  <dimension ref="A1:C644"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A512" workbookViewId="0">
-      <selection activeCell="B519" sqref="B519"/>
+    <sheetView tabSelected="1" topLeftCell="A581" workbookViewId="0">
+      <selection activeCell="C599" sqref="C599"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -11045,562 +11053,573 @@
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A593">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B593" t="s">
-        <v>1046</v>
+        <v>1273</v>
       </c>
       <c r="C593" t="s">
-        <v>1185</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A594">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B594" t="s">
-        <v>1207</v>
+        <v>1046</v>
       </c>
       <c r="C594" t="s">
-        <v>1208</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A595">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B595" t="s">
-        <v>1047</v>
+        <v>1207</v>
       </c>
       <c r="C595" t="s">
-        <v>1048</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A596">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B596" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="C596" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A597">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B597" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="C597" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A598">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B598" t="s">
-        <v>1158</v>
+        <v>1051</v>
       </c>
       <c r="C598" t="s">
-        <v>1159</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A599">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B599" t="s">
-        <v>1053</v>
+        <v>1158</v>
       </c>
       <c r="C599" t="s">
-        <v>1054</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A600">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="B600" t="s">
-        <v>1205</v>
+        <v>1053</v>
       </c>
       <c r="C600" t="s">
-        <v>1206</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A601">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B601" t="s">
-        <v>1055</v>
+        <v>1205</v>
       </c>
       <c r="C601" t="s">
-        <v>1056</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A602">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B602" t="s">
-        <v>1072</v>
+        <v>1055</v>
       </c>
       <c r="C602" t="s">
-        <v>1269</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A603">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B603" t="s">
-        <v>1057</v>
+        <v>1072</v>
       </c>
       <c r="C603" t="s">
-        <v>1130</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A604">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="B604" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C604" t="s">
-        <v>1118</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A605">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B605" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C605" t="s">
-        <v>1203</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A606">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="B606" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C606" t="s">
-        <v>1077</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A607">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B607" t="s">
-        <v>1202</v>
+        <v>1060</v>
       </c>
       <c r="C607" t="s">
-        <v>1204</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A608">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B608" t="s">
-        <v>1061</v>
+        <v>1202</v>
       </c>
       <c r="C608" t="s">
-        <v>1062</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A609">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B609" t="s">
-        <v>1071</v>
+        <v>1061</v>
       </c>
       <c r="C609" t="s">
-        <v>1172</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A610">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B610" t="s">
-        <v>1063</v>
+        <v>1071</v>
       </c>
       <c r="C610" t="s">
-        <v>1064</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A611">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B611" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="C611" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A612">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B612" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="C612" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A613">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="B613" t="s">
-        <v>1152</v>
+        <v>1067</v>
       </c>
       <c r="C613" t="s">
-        <v>1214</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A614">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="B614" t="s">
-        <v>1189</v>
+        <v>1152</v>
       </c>
       <c r="C614" t="s">
-        <v>1188</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A615">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B615" t="s">
-        <v>1267</v>
+        <v>1189</v>
       </c>
       <c r="C615" t="s">
-        <v>1268</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A616">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B616" t="s">
-        <v>1099</v>
+        <v>1267</v>
       </c>
       <c r="C616" t="s">
-        <v>1100</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A617">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="B617" t="s">
-        <v>1200</v>
+        <v>1099</v>
       </c>
       <c r="C617" t="s">
-        <v>1201</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A618">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B618" t="s">
-        <v>1264</v>
+        <v>1200</v>
       </c>
       <c r="C618" t="s">
-        <v>1265</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A619">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B619" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="C619" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A620">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B620" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="C620" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A621">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B621" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="C621" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A622">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B622" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="C622" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A623">
+        <v>718</v>
+      </c>
+      <c r="B623" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C623" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A624">
         <v>719</v>
       </c>
-      <c r="B623" t="s">
+      <c r="B624" t="s">
         <v>1254</v>
       </c>
-      <c r="C623" t="s">
+      <c r="C624" t="s">
         <v>1255</v>
       </c>
     </row>
-    <row r="624" spans="1:3" ht="19.8" x14ac:dyDescent="0.5">
-      <c r="A624">
+    <row r="625" spans="1:3" ht="19.8" x14ac:dyDescent="0.5">
+      <c r="A625">
         <v>721</v>
       </c>
-      <c r="B624" t="s">
+      <c r="B625" t="s">
         <v>1252</v>
       </c>
-      <c r="C624" t="s">
+      <c r="C625" t="s">
         <v>1253</v>
-      </c>
-    </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A625">
-        <v>722</v>
-      </c>
-      <c r="B625" t="s">
-        <v>1250</v>
-      </c>
-      <c r="C625" t="s">
-        <v>1251</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B626" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="C626" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627">
-        <v>725</v>
-      </c>
-      <c r="B627" s="1" t="s">
-        <v>1246</v>
+        <v>723</v>
+      </c>
+      <c r="B627" t="s">
+        <v>1248</v>
       </c>
       <c r="C627" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628">
-        <v>726</v>
-      </c>
-      <c r="B628" t="s">
-        <v>1244</v>
+        <v>725</v>
+      </c>
+      <c r="B628" s="1" t="s">
+        <v>1246</v>
       </c>
       <c r="C628" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629">
+        <v>726</v>
+      </c>
+      <c r="B629" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C629" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A630">
         <v>727</v>
       </c>
-      <c r="B629" t="s">
+      <c r="B630" t="s">
         <v>1242</v>
       </c>
-      <c r="C629" t="s">
+      <c r="C630" t="s">
         <v>1243</v>
-      </c>
-    </row>
-    <row r="630" spans="1:3" ht="19.8" x14ac:dyDescent="0.5">
-      <c r="A630">
-        <v>728</v>
-      </c>
-      <c r="B630" t="s">
-        <v>1241</v>
-      </c>
-      <c r="C630" t="s">
-        <v>1266</v>
       </c>
     </row>
     <row r="631" spans="1:3" ht="19.8" x14ac:dyDescent="0.5">
       <c r="A631">
+        <v>728</v>
+      </c>
+      <c r="B631" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C631" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" ht="19.8" x14ac:dyDescent="0.5">
+      <c r="A632">
         <v>729</v>
       </c>
-      <c r="B631" t="s">
+      <c r="B632" t="s">
         <v>1239</v>
       </c>
-      <c r="C631" t="s">
+      <c r="C632" t="s">
         <v>1240</v>
-      </c>
-    </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A632">
-        <v>730</v>
-      </c>
-      <c r="B632" t="s">
-        <v>1237</v>
-      </c>
-      <c r="C632" t="s">
-        <v>1238</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B633" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="C633" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B634" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="C634" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A635">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B635" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="C635" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B636" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="C636" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B637" t="s">
-        <v>1270</v>
+        <v>1229</v>
       </c>
       <c r="C637" t="s">
-        <v>1271</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B638" t="s">
-        <v>1227</v>
+        <v>1270</v>
       </c>
       <c r="C638" t="s">
-        <v>1228</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B639" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="C639" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B640" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="C640" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B641" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="C641" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642">
-        <v>10001</v>
+        <v>741</v>
       </c>
       <c r="B642" t="s">
-        <v>1069</v>
+        <v>1221</v>
       </c>
       <c r="C642" t="s">
-        <v>1070</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A643">
+        <v>10001</v>
+      </c>
+      <c r="B643" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C643" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A644">
         <v>10003</v>
       </c>
-      <c r="B643" t="s">
+      <c r="B644" t="s">
         <v>1096</v>
       </c>
-      <c r="C643" t="s">
+      <c r="C644" t="s">
         <v>1097</v>
       </c>
     </row>
@@ -11609,7 +11628,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C1 A121:C127 A120:B120 A642:C642 A315:B315 A316:C326 A352:C352 A351:B351 A587:C587 A575 A574:B574 A460:C463 A459:B459 A608:C608 A235:C249 A234:B234 A95:C98 A146:C149 A145:B145 A541:C549 A540:B540 A55:C57 A558:C564 A29:C29 A28:B28 A579:C579 A308:C314 A307:B307 A53:B54 A457:C458 A516:C516 A515:B515 A93:B94 A554:C555 A553:B553 A346:C348 A345:B345 A52:C52 A51:B51 A72:C78 A70:B70 A163:C169 A162:B162 A378:C378 A377:B377 A610:C612 A258:C259 A257:B257 A6:C7 A573:C573 A571:B571 A567:C568 A566 A601:C601 A21:C22 A20:B20 A420:C422 A115:C119 A114:B114 A287:C294 A286:B286 A418:B419 A80:C84 A79:B79 A504:C504 A503 A151:C153 A150:B150 A481:C498 A480:B480 A520:C520 A519:B519 A532:C535 A531:B531 A603:B606 A576:B578 A514:C514 A513:B513 A501:C502 A500:B500 A453:C454 A424:C424 A423:B423 A14:C14 A13:B13 A2:B5 A582:C582 A580:B580 A570:C570 A569:B569 A450:C450 A449:B449 A551:C552 A550:B550 A539:C539 A518:C518 A517:B517 A508:C512 A507:B507 A466:C468 A448:C448 A447:B447 A433:C446 A432:B432 A426:C431 A425:B425 A403:C405 A402:B402 A281:C285 A279:B279 A269:C278 A268:B268 A261:C267 A260:B260 A252:C256 A250:B251 A231:C233 A229:B230 A108:C113 A107:B107 A59:C69 A58:B58 A155:C161 A154:B154 A129:C144 A128:B128 A71 A9:C12 A8:B8 A590:C592 A380:C385 A379:B379 A451:B452 A523:C530 A521:B522 A506:C506 A505:B505 A470:C472 A469:B469 A455:B456 A100:C106 A99:B99 A40:C42 A32:C37 A16:C19 A15:B15 A565:B565 A556:B557 A536:B537 A478:C479 A477:B477 A408:C411 A407:B407 A387:C401 A386:B386 A328:C344 A327 A296:C306 A295:B295 A44:C50 A43:B43 A595:C597 A593:B593 A588:B589 A354:C373 A353:B353 A464:B465 A350:C350 A349:B349 A474:C476 A473 A86:C92 A85:B85 A30:B31 A38:B39 A171:C228 A170:B170 A599:C599 A584:C585 A583:B583 A572:B572 A24:C27 A23:B23 A499:B499 A414:C417 A413 C413 A412 C412 A406 A375:C376 A374:B374 A280:B280 A538:B538" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C1 A121:C127 A120:B120 A643:C643 A315:B315 A316:C326 A352:C352 A351:B351 A587:C587 A575 A574:B574 A460:C463 A459:B459 A609:C609 A235:C249 A234:B234 A95:C98 A146:C149 A145:B145 A541:C549 A540:B540 A55:C57 A558:C564 A29:C29 A28:B28 A579:C579 A308:C314 A307:B307 A53:B54 A457:C458 A516:C516 A515:B515 A93:B94 A554:C555 A553:B553 A346:C348 A345:B345 A52:C52 A51:B51 A72:C78 A70:B70 A163:C169 A162:B162 A378:C378 A377:B377 A611:C613 A258:C259 A257:B257 A6:C7 A573:C573 A571:B571 A567:C568 A566 A602:C602 A21:C22 A20:B20 A420:C422 A115:C119 A114:B114 A287:C294 A286:B286 A418:B419 A80:C84 A79:B79 A504:C504 A503 A151:C153 A150:B150 A481:C498 A480:B480 A520:C520 A519:B519 A532:C535 A531:B531 A604:B607 A576:B578 A514:C514 A513:B513 A501:C502 A500:B500 A453:C454 A424:C424 A423:B423 A14:C14 A13:B13 A2:B5 A582:C582 A580:B580 A570:C570 A569:B569 A450:C450 A449:B449 A551:C552 A550:B550 A539:C539 A518:C518 A517:B517 A508:C512 A507:B507 A466:C468 A448:C448 A447:B447 A433:C446 A432:B432 A426:C431 A425:B425 A403:C405 A402:B402 A281:C285 A279:B279 A269:C278 A268:B268 A261:C267 A260:B260 A252:C256 A250:B251 A231:C233 A229:B230 A108:C113 A107:B107 A59:C69 A58:B58 A155:C161 A154:B154 A129:C144 A128:B128 A71 A9:C12 A8:B8 A590:C592 A380:C385 A379:B379 A451:B452 A523:C530 A521:B522 A506:C506 A505:B505 A470:C472 A469:B469 A455:B456 A100:C106 A99:B99 A40:C42 A32:C37 A16:C19 A15:B15 A565:B565 A556:B557 A536:B537 A478:C479 A477:B477 A408:C411 A407:B407 A387:C401 A386:B386 A328:C344 A327 A296:C306 A295:B295 A44:C50 A43:B43 A596:C598 A594:B594 A588:B589 A354:C373 A353:B353 A464:B465 A350:C350 A349:B349 A474:C476 A473 A86:C92 A85:B85 A30:B31 A38:B39 A171:C228 A170:B170 A600:C600 A584:C585 A583:B583 A572:B572 A24:C27 A23:B23 A499:B499 A414:C417 A413 C413 A412 C412 A406 A375:C376 A374:B374 A280:B280 A538:B538" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/config/nickname_song.xlsx
+++ b/config/nickname_song.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Tsugu-Backend\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66029AB-FD94-4180-9727-E712FF916A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9951E6DA-8C90-4729-AAAA-327CCE4DD007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10668" yWindow="2388" windowWidth="18744" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -3449,14 +3449,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>35lzn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>33hoh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>wb,誓言,wbsp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3662,10 +3654,6 @@
   </si>
   <si>
     <t>fyd,大焚,大粪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>33ssfk,33ssfkk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4128,6 +4116,18 @@
   </si>
   <si>
     <t>遥之彼方,遥彼方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35lzn,超高难易度六兆年,超高难度六兆年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33hoh,超高难易度hoh,超高难度hoh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33ssfk,33ssfkk,超高难易度ssfkk,超高难度ssfkk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4542,8 +4542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C644"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A581" workbookViewId="0">
-      <selection activeCell="C599" sqref="C599"/>
+    <sheetView tabSelected="1" topLeftCell="A566" workbookViewId="0">
+      <selection activeCell="D589" sqref="D589"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -4573,7 +4573,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4584,7 +4584,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4595,7 +4595,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4639,7 +4639,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -4694,7 +4694,7 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -4716,7 +4716,7 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -4804,7 +4804,7 @@
         <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -4881,7 +4881,7 @@
         <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -4892,7 +4892,7 @@
         <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -4969,7 +4969,7 @@
         <v>63</v>
       </c>
       <c r="C38" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -4980,7 +4980,7 @@
         <v>64</v>
       </c>
       <c r="C39" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -5024,7 +5024,7 @@
         <v>71</v>
       </c>
       <c r="C43" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -5189,7 +5189,7 @@
         <v>97</v>
       </c>
       <c r="C58" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -5329,10 +5329,10 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="C71" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -5486,7 +5486,7 @@
         <v>146</v>
       </c>
       <c r="C85" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -5640,7 +5640,7 @@
         <v>171</v>
       </c>
       <c r="C99" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -5728,7 +5728,7 @@
         <v>186</v>
       </c>
       <c r="C107" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -5959,7 +5959,7 @@
         <v>225</v>
       </c>
       <c r="C128" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -6201,7 +6201,7 @@
         <v>267</v>
       </c>
       <c r="C150" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -6245,7 +6245,7 @@
         <v>274</v>
       </c>
       <c r="C154" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -6421,7 +6421,7 @@
         <v>304</v>
       </c>
       <c r="C170" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -7070,7 +7070,7 @@
         <v>421</v>
       </c>
       <c r="C229" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -7081,7 +7081,7 @@
         <v>422</v>
       </c>
       <c r="C230" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -7301,7 +7301,7 @@
         <v>460</v>
       </c>
       <c r="C250" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -7312,7 +7312,7 @@
         <v>461</v>
       </c>
       <c r="C251" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -7411,7 +7411,7 @@
         <v>476</v>
       </c>
       <c r="C260" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -7499,7 +7499,7 @@
         <v>491</v>
       </c>
       <c r="C268" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -7620,7 +7620,7 @@
         <v>512</v>
       </c>
       <c r="C279" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -7631,7 +7631,7 @@
         <v>513</v>
       </c>
       <c r="C280" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -7796,7 +7796,7 @@
         <v>541</v>
       </c>
       <c r="C295" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -8016,7 +8016,7 @@
         <v>579</v>
       </c>
       <c r="C315" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -8145,10 +8145,10 @@
         <v>337</v>
       </c>
       <c r="B327" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="C327" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -8390,7 +8390,7 @@
         <v>643</v>
       </c>
       <c r="C349" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -8434,7 +8434,7 @@
         <v>649</v>
       </c>
       <c r="C353" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -8665,7 +8665,7 @@
         <v>690</v>
       </c>
       <c r="C374" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -8720,7 +8720,7 @@
         <v>698</v>
       </c>
       <c r="C379" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -8797,7 +8797,7 @@
         <v>711</v>
       </c>
       <c r="C386" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
@@ -8973,7 +8973,7 @@
         <v>742</v>
       </c>
       <c r="C402" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
@@ -9014,10 +9014,10 @@
         <v>416</v>
       </c>
       <c r="B406" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="C406" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
@@ -9028,7 +9028,7 @@
         <v>749</v>
       </c>
       <c r="C407" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
@@ -9080,7 +9080,7 @@
         <v>422</v>
       </c>
       <c r="B412" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="C412" t="s">
         <v>758</v>
@@ -9091,7 +9091,7 @@
         <v>423</v>
       </c>
       <c r="B413" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="C413" t="s">
         <v>759</v>
@@ -9204,7 +9204,7 @@
         <v>776</v>
       </c>
       <c r="C423" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
@@ -9226,7 +9226,7 @@
         <v>779</v>
       </c>
       <c r="C425" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
@@ -9303,7 +9303,7 @@
         <v>790</v>
       </c>
       <c r="C432" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
@@ -9468,7 +9468,7 @@
         <v>819</v>
       </c>
       <c r="C447" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
@@ -9490,7 +9490,7 @@
         <v>822</v>
       </c>
       <c r="C449" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
@@ -9512,7 +9512,7 @@
         <v>698</v>
       </c>
       <c r="C451" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
@@ -9523,7 +9523,7 @@
         <v>825</v>
       </c>
       <c r="C452" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
@@ -9567,7 +9567,7 @@
         <v>738</v>
       </c>
       <c r="C456" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
@@ -9652,7 +9652,7 @@
         <v>843</v>
       </c>
       <c r="C464" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
@@ -9663,7 +9663,7 @@
         <v>844</v>
       </c>
       <c r="C465" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
@@ -9707,7 +9707,7 @@
         <v>851</v>
       </c>
       <c r="C469" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
@@ -9748,10 +9748,10 @@
         <v>484</v>
       </c>
       <c r="B473" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="C473" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
@@ -9795,7 +9795,7 @@
         <v>864</v>
       </c>
       <c r="C477" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
@@ -10045,7 +10045,7 @@
         <v>906</v>
       </c>
       <c r="C500" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
@@ -10100,7 +10100,7 @@
         <v>913</v>
       </c>
       <c r="C505" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
@@ -10122,7 +10122,7 @@
         <v>916</v>
       </c>
       <c r="C507" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
@@ -10188,7 +10188,7 @@
         <v>927</v>
       </c>
       <c r="C513" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
@@ -10232,7 +10232,7 @@
         <v>932</v>
       </c>
       <c r="C517" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
@@ -10273,7 +10273,7 @@
         <v>937</v>
       </c>
       <c r="C521" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
@@ -10284,7 +10284,7 @@
         <v>938</v>
       </c>
       <c r="C522" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
@@ -10438,7 +10438,7 @@
         <v>964</v>
       </c>
       <c r="C536" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.25">
@@ -10449,7 +10449,7 @@
         <v>965</v>
       </c>
       <c r="C537" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
@@ -10460,7 +10460,7 @@
         <v>966</v>
       </c>
       <c r="C538" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.25">
@@ -10589,7 +10589,7 @@
         <v>987</v>
       </c>
       <c r="C550" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.25">
@@ -10655,7 +10655,7 @@
         <v>997</v>
       </c>
       <c r="C556" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.25">
@@ -10751,7 +10751,7 @@
         <v>1012</v>
       </c>
       <c r="C565" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.25">
@@ -10762,7 +10762,7 @@
         <v>1104</v>
       </c>
       <c r="C566" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.25">
@@ -10795,7 +10795,7 @@
         <v>1017</v>
       </c>
       <c r="C569" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.25">
@@ -10817,7 +10817,7 @@
         <v>1020</v>
       </c>
       <c r="C571" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.25">
@@ -10828,7 +10828,7 @@
         <v>1021</v>
       </c>
       <c r="C572" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.25">
@@ -10872,7 +10872,7 @@
         <v>1025</v>
       </c>
       <c r="C576" t="s">
-        <v>1173</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.25">
@@ -10883,7 +10883,7 @@
         <v>860</v>
       </c>
       <c r="C577" t="s">
-        <v>1120</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.25">
@@ -10894,7 +10894,7 @@
         <v>862</v>
       </c>
       <c r="C578" t="s">
-        <v>1119</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.25">
@@ -10916,7 +10916,7 @@
         <v>1028</v>
       </c>
       <c r="C580" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.25">
@@ -10924,10 +10924,10 @@
         <v>602</v>
       </c>
       <c r="B581" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="C581" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.25">
@@ -10949,7 +10949,7 @@
         <v>1031</v>
       </c>
       <c r="C583" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.25">
@@ -10982,7 +10982,7 @@
         <v>1085</v>
       </c>
       <c r="C586" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.25">
@@ -11004,7 +11004,7 @@
         <v>1038</v>
       </c>
       <c r="C588" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.25">
@@ -11056,10 +11056,10 @@
         <v>644</v>
       </c>
       <c r="B593" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="C593" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.25">
@@ -11070,7 +11070,7 @@
         <v>1046</v>
       </c>
       <c r="C594" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.25">
@@ -11078,10 +11078,10 @@
         <v>649</v>
       </c>
       <c r="B595" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="C595" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.25">
@@ -11122,10 +11122,10 @@
         <v>654</v>
       </c>
       <c r="B599" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="C599" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.25">
@@ -11144,10 +11144,10 @@
         <v>660</v>
       </c>
       <c r="B601" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="C601" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.25">
@@ -11169,7 +11169,7 @@
         <v>1072</v>
       </c>
       <c r="C603" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.25">
@@ -11180,7 +11180,7 @@
         <v>1057</v>
       </c>
       <c r="C604" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.25">
@@ -11202,7 +11202,7 @@
         <v>1059</v>
       </c>
       <c r="C606" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.25">
@@ -11221,10 +11221,10 @@
         <v>681</v>
       </c>
       <c r="B608" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="C608" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.25">
@@ -11246,7 +11246,7 @@
         <v>1071</v>
       </c>
       <c r="C610" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.25">
@@ -11287,10 +11287,10 @@
         <v>697</v>
       </c>
       <c r="B614" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="C614" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.25">
@@ -11298,10 +11298,10 @@
         <v>701</v>
       </c>
       <c r="B615" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="C615" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.25">
@@ -11309,10 +11309,10 @@
         <v>702</v>
       </c>
       <c r="B616" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="C616" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.25">
@@ -11331,10 +11331,10 @@
         <v>710</v>
       </c>
       <c r="B618" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="C618" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.25">
@@ -11342,10 +11342,10 @@
         <v>711</v>
       </c>
       <c r="B619" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="C619" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.25">
@@ -11353,10 +11353,10 @@
         <v>713</v>
       </c>
       <c r="B620" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="C620" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.25">
@@ -11364,10 +11364,10 @@
         <v>714</v>
       </c>
       <c r="B621" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="C621" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.25">
@@ -11375,10 +11375,10 @@
         <v>717</v>
       </c>
       <c r="B622" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="C622" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.25">
@@ -11386,10 +11386,10 @@
         <v>718</v>
       </c>
       <c r="B623" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="C623" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.25">
@@ -11397,10 +11397,10 @@
         <v>719</v>
       </c>
       <c r="B624" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="C624" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="625" spans="1:3" ht="19.8" x14ac:dyDescent="0.5">
@@ -11408,10 +11408,10 @@
         <v>721</v>
       </c>
       <c r="B625" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="C625" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.25">
@@ -11419,10 +11419,10 @@
         <v>722</v>
       </c>
       <c r="B626" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="C626" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.25">
@@ -11430,10 +11430,10 @@
         <v>723</v>
       </c>
       <c r="B627" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="C627" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.25">
@@ -11441,10 +11441,10 @@
         <v>725</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="C628" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.25">
@@ -11452,10 +11452,10 @@
         <v>726</v>
       </c>
       <c r="B629" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="C629" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.25">
@@ -11463,10 +11463,10 @@
         <v>727</v>
       </c>
       <c r="B630" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="C630" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="631" spans="1:3" ht="19.8" x14ac:dyDescent="0.5">
@@ -11474,10 +11474,10 @@
         <v>728</v>
       </c>
       <c r="B631" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="C631" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="632" spans="1:3" ht="19.8" x14ac:dyDescent="0.5">
@@ -11485,10 +11485,10 @@
         <v>729</v>
       </c>
       <c r="B632" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="C632" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.25">
@@ -11496,10 +11496,10 @@
         <v>730</v>
       </c>
       <c r="B633" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="C633" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.25">
@@ -11507,10 +11507,10 @@
         <v>731</v>
       </c>
       <c r="B634" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="C634" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.25">
@@ -11518,10 +11518,10 @@
         <v>733</v>
       </c>
       <c r="B635" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="C635" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.25">
@@ -11529,10 +11529,10 @@
         <v>735</v>
       </c>
       <c r="B636" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="C636" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.25">
@@ -11540,10 +11540,10 @@
         <v>736</v>
       </c>
       <c r="B637" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="C637" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.25">
@@ -11551,10 +11551,10 @@
         <v>737</v>
       </c>
       <c r="B638" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="C638" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.25">
@@ -11562,10 +11562,10 @@
         <v>738</v>
       </c>
       <c r="B639" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="C639" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.25">
@@ -11573,10 +11573,10 @@
         <v>739</v>
       </c>
       <c r="B640" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="C640" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.25">
@@ -11584,10 +11584,10 @@
         <v>740</v>
       </c>
       <c r="B641" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="C641" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.25">
@@ -11595,10 +11595,10 @@
         <v>741</v>
       </c>
       <c r="B642" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="C642" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.25">

--- a/config/nickname_song.xlsx
+++ b/config/nickname_song.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Tsugu-Backend\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9951E6DA-8C90-4729-AAAA-327CCE4DD007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69FE0B0-A974-4C28-8B3C-4DC60FA460BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1956" yWindow="1248" windowWidth="23484" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -2597,9 +2597,6 @@
   </si>
   <si>
     <t>Glee! Glee! Glee!</t>
-  </si>
-  <si>
-    <t>格里,格力,格立,格利,ggg</t>
   </si>
   <si>
     <t>[超高難易度 新SPECIAL] HELL! or HELL?</t>
@@ -3637,10 +3634,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>别怕,我们遇到什么困难也不要怕,别怂,别慌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>修车,shuwa,修哇修哇,修瓦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3839,10 +3832,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The Peak,最高到达点,最高达到点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>トーキョーワンダー。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4128,6 +4117,18 @@
   </si>
   <si>
     <t>33ssfk,33ssfkk,超高难易度ssfkk,超高难度ssfkk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Peak,最高到达点,最高达到点,到达最高点,达到最高点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格里,格力,格立,格利,ggg,gg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别怕,我们遇到什么困难也不要怕,别怂,别慌,dont be afraid,dba,afraid,gg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4542,8 +4543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C644"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A566" workbookViewId="0">
-      <selection activeCell="D589" sqref="D589"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -4573,7 +4574,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4584,7 +4585,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4595,7 +4596,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4606,7 +4607,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -4639,7 +4640,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -4694,7 +4695,7 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -4716,7 +4717,7 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -4771,7 +4772,7 @@
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -4804,7 +4805,7 @@
         <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -4859,7 +4860,7 @@
         <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -4881,7 +4882,7 @@
         <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -4892,7 +4893,7 @@
         <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -4969,7 +4970,7 @@
         <v>63</v>
       </c>
       <c r="C38" t="s">
-        <v>1166</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -4980,7 +4981,7 @@
         <v>64</v>
       </c>
       <c r="C39" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -5024,7 +5025,7 @@
         <v>71</v>
       </c>
       <c r="C43" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -5112,7 +5113,7 @@
         <v>86</v>
       </c>
       <c r="C51" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -5134,7 +5135,7 @@
         <v>89</v>
       </c>
       <c r="C53" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -5145,7 +5146,7 @@
         <v>90</v>
       </c>
       <c r="C54" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -5189,7 +5190,7 @@
         <v>97</v>
       </c>
       <c r="C58" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -5321,7 +5322,7 @@
         <v>120</v>
       </c>
       <c r="C70" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -5329,10 +5330,10 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C71" t="s">
         <v>1153</v>
-      </c>
-      <c r="C71" t="s">
-        <v>1154</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -5420,7 +5421,7 @@
         <v>135</v>
       </c>
       <c r="C79" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -5486,7 +5487,7 @@
         <v>146</v>
       </c>
       <c r="C85" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -5574,7 +5575,7 @@
         <v>161</v>
       </c>
       <c r="C93" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -5585,7 +5586,7 @@
         <v>162</v>
       </c>
       <c r="C94" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -5640,7 +5641,7 @@
         <v>171</v>
       </c>
       <c r="C99" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -5728,7 +5729,7 @@
         <v>186</v>
       </c>
       <c r="C107" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -5805,7 +5806,7 @@
         <v>199</v>
       </c>
       <c r="C114" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -5871,7 +5872,7 @@
         <v>210</v>
       </c>
       <c r="C120" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -5959,7 +5960,7 @@
         <v>225</v>
       </c>
       <c r="C128" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -6146,7 +6147,7 @@
         <v>258</v>
       </c>
       <c r="C145" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -6201,7 +6202,7 @@
         <v>267</v>
       </c>
       <c r="C150" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -6245,7 +6246,7 @@
         <v>274</v>
       </c>
       <c r="C154" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -6333,7 +6334,7 @@
         <v>289</v>
       </c>
       <c r="C162" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -6421,7 +6422,7 @@
         <v>304</v>
       </c>
       <c r="C170" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -7070,7 +7071,7 @@
         <v>421</v>
       </c>
       <c r="C229" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -7081,7 +7082,7 @@
         <v>422</v>
       </c>
       <c r="C230" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -7125,7 +7126,7 @@
         <v>429</v>
       </c>
       <c r="C234" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -7301,7 +7302,7 @@
         <v>460</v>
       </c>
       <c r="C250" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -7312,7 +7313,7 @@
         <v>461</v>
       </c>
       <c r="C251" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -7378,7 +7379,7 @@
         <v>471</v>
       </c>
       <c r="C257" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -7411,7 +7412,7 @@
         <v>476</v>
       </c>
       <c r="C260" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -7499,7 +7500,7 @@
         <v>491</v>
       </c>
       <c r="C268" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -7620,7 +7621,7 @@
         <v>512</v>
       </c>
       <c r="C279" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -7631,7 +7632,7 @@
         <v>513</v>
       </c>
       <c r="C280" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -7697,7 +7698,7 @@
         <v>524</v>
       </c>
       <c r="C286" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -7796,7 +7797,7 @@
         <v>541</v>
       </c>
       <c r="C295" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -7928,7 +7929,7 @@
         <v>564</v>
       </c>
       <c r="C307" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -8016,7 +8017,7 @@
         <v>579</v>
       </c>
       <c r="C315" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -8145,10 +8146,10 @@
         <v>337</v>
       </c>
       <c r="B327" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="C327" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -8346,7 +8347,7 @@
         <v>636</v>
       </c>
       <c r="C345" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -8390,7 +8391,7 @@
         <v>643</v>
       </c>
       <c r="C349" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -8412,7 +8413,7 @@
         <v>646</v>
       </c>
       <c r="C351" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -8434,7 +8435,7 @@
         <v>649</v>
       </c>
       <c r="C353" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -8665,7 +8666,7 @@
         <v>690</v>
       </c>
       <c r="C374" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -8698,7 +8699,7 @@
         <v>695</v>
       </c>
       <c r="C377" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
@@ -8720,7 +8721,7 @@
         <v>698</v>
       </c>
       <c r="C379" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -8797,7 +8798,7 @@
         <v>711</v>
       </c>
       <c r="C386" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
@@ -8973,7 +8974,7 @@
         <v>742</v>
       </c>
       <c r="C402" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
@@ -9014,10 +9015,10 @@
         <v>416</v>
       </c>
       <c r="B406" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="C406" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
@@ -9028,7 +9029,7 @@
         <v>749</v>
       </c>
       <c r="C407" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
@@ -9080,7 +9081,7 @@
         <v>422</v>
       </c>
       <c r="B412" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="C412" t="s">
         <v>758</v>
@@ -9091,7 +9092,7 @@
         <v>423</v>
       </c>
       <c r="B413" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="C413" t="s">
         <v>759</v>
@@ -9149,7 +9150,7 @@
         <v>768</v>
       </c>
       <c r="C418" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
@@ -9160,7 +9161,7 @@
         <v>769</v>
       </c>
       <c r="C419" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
@@ -9204,7 +9205,7 @@
         <v>776</v>
       </c>
       <c r="C423" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
@@ -9226,7 +9227,7 @@
         <v>779</v>
       </c>
       <c r="C425" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
@@ -9303,7 +9304,7 @@
         <v>790</v>
       </c>
       <c r="C432" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
@@ -9468,7 +9469,7 @@
         <v>819</v>
       </c>
       <c r="C447" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
@@ -9490,7 +9491,7 @@
         <v>822</v>
       </c>
       <c r="C449" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
@@ -9512,7 +9513,7 @@
         <v>698</v>
       </c>
       <c r="C451" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
@@ -9523,7 +9524,7 @@
         <v>825</v>
       </c>
       <c r="C452" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
@@ -9556,7 +9557,7 @@
         <v>830</v>
       </c>
       <c r="C455" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
@@ -9567,7 +9568,7 @@
         <v>738</v>
       </c>
       <c r="C456" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
@@ -9600,7 +9601,7 @@
         <v>835</v>
       </c>
       <c r="C459" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
@@ -9652,7 +9653,7 @@
         <v>843</v>
       </c>
       <c r="C464" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
@@ -9663,7 +9664,7 @@
         <v>844</v>
       </c>
       <c r="C465" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
@@ -9707,7 +9708,7 @@
         <v>851</v>
       </c>
       <c r="C469" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
@@ -9748,10 +9749,10 @@
         <v>484</v>
       </c>
       <c r="B473" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="C473" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
@@ -9762,7 +9763,7 @@
         <v>858</v>
       </c>
       <c r="C474" t="s">
-        <v>859</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
@@ -9770,10 +9771,10 @@
         <v>486</v>
       </c>
       <c r="B475" t="s">
+        <v>859</v>
+      </c>
+      <c r="C475" t="s">
         <v>860</v>
-      </c>
-      <c r="C475" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
@@ -9781,10 +9782,10 @@
         <v>487</v>
       </c>
       <c r="B476" t="s">
+        <v>861</v>
+      </c>
+      <c r="C476" t="s">
         <v>862</v>
-      </c>
-      <c r="C476" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
@@ -9792,10 +9793,10 @@
         <v>488</v>
       </c>
       <c r="B477" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C477" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
@@ -9803,10 +9804,10 @@
         <v>489</v>
       </c>
       <c r="B478" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C478" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
@@ -9814,10 +9815,10 @@
         <v>490</v>
       </c>
       <c r="B479" t="s">
+        <v>865</v>
+      </c>
+      <c r="C479" t="s">
         <v>866</v>
-      </c>
-      <c r="C479" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
@@ -9825,10 +9826,10 @@
         <v>491</v>
       </c>
       <c r="B480" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C480" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
@@ -9836,10 +9837,10 @@
         <v>492</v>
       </c>
       <c r="B481" t="s">
+        <v>868</v>
+      </c>
+      <c r="C481" t="s">
         <v>869</v>
-      </c>
-      <c r="C481" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
@@ -9847,10 +9848,10 @@
         <v>493</v>
       </c>
       <c r="B482" t="s">
+        <v>870</v>
+      </c>
+      <c r="C482" t="s">
         <v>871</v>
-      </c>
-      <c r="C482" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
@@ -9858,10 +9859,10 @@
         <v>494</v>
       </c>
       <c r="B483" t="s">
+        <v>872</v>
+      </c>
+      <c r="C483" t="s">
         <v>873</v>
-      </c>
-      <c r="C483" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
@@ -9869,10 +9870,10 @@
         <v>496</v>
       </c>
       <c r="B484" t="s">
+        <v>874</v>
+      </c>
+      <c r="C484" t="s">
         <v>875</v>
-      </c>
-      <c r="C484" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
@@ -9880,10 +9881,10 @@
         <v>497</v>
       </c>
       <c r="B485" t="s">
+        <v>876</v>
+      </c>
+      <c r="C485" t="s">
         <v>877</v>
-      </c>
-      <c r="C485" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
@@ -9891,10 +9892,10 @@
         <v>498</v>
       </c>
       <c r="B486" t="s">
+        <v>878</v>
+      </c>
+      <c r="C486" t="s">
         <v>879</v>
-      </c>
-      <c r="C486" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
@@ -9902,10 +9903,10 @@
         <v>499</v>
       </c>
       <c r="B487" t="s">
+        <v>880</v>
+      </c>
+      <c r="C487" t="s">
         <v>881</v>
-      </c>
-      <c r="C487" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
@@ -9913,10 +9914,10 @@
         <v>500</v>
       </c>
       <c r="B488" t="s">
+        <v>882</v>
+      </c>
+      <c r="C488" t="s">
         <v>883</v>
-      </c>
-      <c r="C488" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
@@ -9924,10 +9925,10 @@
         <v>501</v>
       </c>
       <c r="B489" t="s">
+        <v>884</v>
+      </c>
+      <c r="C489" t="s">
         <v>885</v>
-      </c>
-      <c r="C489" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
@@ -9935,10 +9936,10 @@
         <v>502</v>
       </c>
       <c r="B490" t="s">
+        <v>886</v>
+      </c>
+      <c r="C490" t="s">
         <v>887</v>
-      </c>
-      <c r="C490" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
@@ -9946,10 +9947,10 @@
         <v>503</v>
       </c>
       <c r="B491" t="s">
+        <v>888</v>
+      </c>
+      <c r="C491" t="s">
         <v>889</v>
-      </c>
-      <c r="C491" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
@@ -9957,10 +9958,10 @@
         <v>504</v>
       </c>
       <c r="B492" t="s">
+        <v>890</v>
+      </c>
+      <c r="C492" t="s">
         <v>891</v>
-      </c>
-      <c r="C492" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
@@ -9968,10 +9969,10 @@
         <v>505</v>
       </c>
       <c r="B493" t="s">
+        <v>892</v>
+      </c>
+      <c r="C493" t="s">
         <v>893</v>
-      </c>
-      <c r="C493" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
@@ -9979,10 +9980,10 @@
         <v>506</v>
       </c>
       <c r="B494" t="s">
+        <v>894</v>
+      </c>
+      <c r="C494" t="s">
         <v>895</v>
-      </c>
-      <c r="C494" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
@@ -9990,10 +9991,10 @@
         <v>507</v>
       </c>
       <c r="B495" t="s">
+        <v>896</v>
+      </c>
+      <c r="C495" t="s">
         <v>897</v>
-      </c>
-      <c r="C495" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
@@ -10001,10 +10002,10 @@
         <v>508</v>
       </c>
       <c r="B496" t="s">
+        <v>898</v>
+      </c>
+      <c r="C496" t="s">
         <v>899</v>
-      </c>
-      <c r="C496" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
@@ -10012,10 +10013,10 @@
         <v>509</v>
       </c>
       <c r="B497" t="s">
+        <v>900</v>
+      </c>
+      <c r="C497" t="s">
         <v>901</v>
-      </c>
-      <c r="C497" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
@@ -10023,10 +10024,10 @@
         <v>510</v>
       </c>
       <c r="B498" t="s">
+        <v>902</v>
+      </c>
+      <c r="C498" t="s">
         <v>903</v>
-      </c>
-      <c r="C498" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
@@ -10034,7 +10035,7 @@
         <v>511</v>
       </c>
       <c r="B499" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
@@ -10042,10 +10043,10 @@
         <v>512</v>
       </c>
       <c r="B500" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C500" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
@@ -10053,10 +10054,10 @@
         <v>513</v>
       </c>
       <c r="B501" t="s">
+        <v>906</v>
+      </c>
+      <c r="C501" t="s">
         <v>907</v>
-      </c>
-      <c r="C501" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
@@ -10064,10 +10065,10 @@
         <v>514</v>
       </c>
       <c r="B502" t="s">
+        <v>908</v>
+      </c>
+      <c r="C502" t="s">
         <v>909</v>
-      </c>
-      <c r="C502" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
@@ -10075,10 +10076,10 @@
         <v>515</v>
       </c>
       <c r="B503" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C503" t="s">
         <v>1113</v>
-      </c>
-      <c r="C503" t="s">
-        <v>1114</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
@@ -10086,10 +10087,10 @@
         <v>516</v>
       </c>
       <c r="B504" t="s">
+        <v>910</v>
+      </c>
+      <c r="C504" t="s">
         <v>911</v>
-      </c>
-      <c r="C504" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
@@ -10097,10 +10098,10 @@
         <v>517</v>
       </c>
       <c r="B505" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C505" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
@@ -10108,10 +10109,10 @@
         <v>518</v>
       </c>
       <c r="B506" t="s">
+        <v>913</v>
+      </c>
+      <c r="C506" t="s">
         <v>914</v>
-      </c>
-      <c r="C506" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
@@ -10119,10 +10120,10 @@
         <v>519</v>
       </c>
       <c r="B507" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C507" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
@@ -10130,10 +10131,10 @@
         <v>520</v>
       </c>
       <c r="B508" t="s">
+        <v>916</v>
+      </c>
+      <c r="C508" t="s">
         <v>917</v>
-      </c>
-      <c r="C508" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
@@ -10141,10 +10142,10 @@
         <v>521</v>
       </c>
       <c r="B509" t="s">
+        <v>918</v>
+      </c>
+      <c r="C509" t="s">
         <v>919</v>
-      </c>
-      <c r="C509" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
@@ -10152,10 +10153,10 @@
         <v>522</v>
       </c>
       <c r="B510" t="s">
+        <v>920</v>
+      </c>
+      <c r="C510" t="s">
         <v>921</v>
-      </c>
-      <c r="C510" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
@@ -10163,10 +10164,10 @@
         <v>523</v>
       </c>
       <c r="B511" t="s">
+        <v>922</v>
+      </c>
+      <c r="C511" t="s">
         <v>923</v>
-      </c>
-      <c r="C511" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
@@ -10174,10 +10175,10 @@
         <v>524</v>
       </c>
       <c r="B512" t="s">
+        <v>924</v>
+      </c>
+      <c r="C512" t="s">
         <v>925</v>
-      </c>
-      <c r="C512" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
@@ -10185,10 +10186,10 @@
         <v>525</v>
       </c>
       <c r="B513" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C513" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
@@ -10196,10 +10197,10 @@
         <v>526</v>
       </c>
       <c r="B514" t="s">
+        <v>927</v>
+      </c>
+      <c r="C514" t="s">
         <v>928</v>
-      </c>
-      <c r="C514" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
@@ -10207,10 +10208,10 @@
         <v>527</v>
       </c>
       <c r="B515" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C515" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
@@ -10221,7 +10222,7 @@
         <v>676</v>
       </c>
       <c r="C516" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
@@ -10229,10 +10230,10 @@
         <v>529</v>
       </c>
       <c r="B517" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C517" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
@@ -10240,7 +10241,7 @@
         <v>530</v>
       </c>
       <c r="B518" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
@@ -10248,10 +10249,10 @@
         <v>531</v>
       </c>
       <c r="B519" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C519" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
@@ -10259,10 +10260,10 @@
         <v>532</v>
       </c>
       <c r="B520" t="s">
+        <v>934</v>
+      </c>
+      <c r="C520" t="s">
         <v>935</v>
-      </c>
-      <c r="C520" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
@@ -10270,10 +10271,10 @@
         <v>533</v>
       </c>
       <c r="B521" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C521" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
@@ -10281,10 +10282,10 @@
         <v>534</v>
       </c>
       <c r="B522" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C522" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
@@ -10292,10 +10293,10 @@
         <v>535</v>
       </c>
       <c r="B523" t="s">
+        <v>938</v>
+      </c>
+      <c r="C523" t="s">
         <v>939</v>
-      </c>
-      <c r="C523" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
@@ -10303,10 +10304,10 @@
         <v>536</v>
       </c>
       <c r="B524" t="s">
+        <v>940</v>
+      </c>
+      <c r="C524" t="s">
         <v>941</v>
-      </c>
-      <c r="C524" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
@@ -10314,10 +10315,10 @@
         <v>537</v>
       </c>
       <c r="B525" t="s">
+        <v>942</v>
+      </c>
+      <c r="C525" t="s">
         <v>943</v>
-      </c>
-      <c r="C525" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
@@ -10325,10 +10326,10 @@
         <v>538</v>
       </c>
       <c r="B526" t="s">
+        <v>944</v>
+      </c>
+      <c r="C526" t="s">
         <v>945</v>
-      </c>
-      <c r="C526" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
@@ -10336,10 +10337,10 @@
         <v>539</v>
       </c>
       <c r="B527" t="s">
+        <v>946</v>
+      </c>
+      <c r="C527" t="s">
         <v>947</v>
-      </c>
-      <c r="C527" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
@@ -10347,10 +10348,10 @@
         <v>540</v>
       </c>
       <c r="B528" t="s">
+        <v>948</v>
+      </c>
+      <c r="C528" t="s">
         <v>949</v>
-      </c>
-      <c r="C528" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
@@ -10358,10 +10359,10 @@
         <v>542</v>
       </c>
       <c r="B529" t="s">
+        <v>950</v>
+      </c>
+      <c r="C529" t="s">
         <v>951</v>
-      </c>
-      <c r="C529" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
@@ -10369,10 +10370,10 @@
         <v>543</v>
       </c>
       <c r="B530" t="s">
+        <v>952</v>
+      </c>
+      <c r="C530" t="s">
         <v>953</v>
-      </c>
-      <c r="C530" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
@@ -10380,10 +10381,10 @@
         <v>545</v>
       </c>
       <c r="B531" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C531" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
@@ -10391,10 +10392,10 @@
         <v>546</v>
       </c>
       <c r="B532" t="s">
+        <v>955</v>
+      </c>
+      <c r="C532" t="s">
         <v>956</v>
-      </c>
-      <c r="C532" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.25">
@@ -10402,10 +10403,10 @@
         <v>547</v>
       </c>
       <c r="B533" t="s">
+        <v>957</v>
+      </c>
+      <c r="C533" t="s">
         <v>958</v>
-      </c>
-      <c r="C533" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
@@ -10413,10 +10414,10 @@
         <v>548</v>
       </c>
       <c r="B534" t="s">
+        <v>959</v>
+      </c>
+      <c r="C534" t="s">
         <v>960</v>
-      </c>
-      <c r="C534" t="s">
-        <v>961</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.25">
@@ -10424,10 +10425,10 @@
         <v>549</v>
       </c>
       <c r="B535" t="s">
+        <v>961</v>
+      </c>
+      <c r="C535" t="s">
         <v>962</v>
-      </c>
-      <c r="C535" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.25">
@@ -10435,10 +10436,10 @@
         <v>550</v>
       </c>
       <c r="B536" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C536" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.25">
@@ -10446,10 +10447,10 @@
         <v>551</v>
       </c>
       <c r="B537" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C537" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
@@ -10457,10 +10458,10 @@
         <v>552</v>
       </c>
       <c r="B538" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C538" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.25">
@@ -10468,10 +10469,10 @@
         <v>553</v>
       </c>
       <c r="B539" t="s">
+        <v>966</v>
+      </c>
+      <c r="C539" t="s">
         <v>967</v>
-      </c>
-      <c r="C539" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.25">
@@ -10479,10 +10480,10 @@
         <v>554</v>
       </c>
       <c r="B540" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C540" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.25">
@@ -10490,10 +10491,10 @@
         <v>555</v>
       </c>
       <c r="B541" t="s">
+        <v>969</v>
+      </c>
+      <c r="C541" t="s">
         <v>970</v>
-      </c>
-      <c r="C541" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.25">
@@ -10501,10 +10502,10 @@
         <v>556</v>
       </c>
       <c r="B542" t="s">
+        <v>971</v>
+      </c>
+      <c r="C542" t="s">
         <v>972</v>
-      </c>
-      <c r="C542" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.25">
@@ -10512,10 +10513,10 @@
         <v>557</v>
       </c>
       <c r="B543" t="s">
+        <v>973</v>
+      </c>
+      <c r="C543" t="s">
         <v>974</v>
-      </c>
-      <c r="C543" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.25">
@@ -10523,10 +10524,10 @@
         <v>558</v>
       </c>
       <c r="B544" t="s">
+        <v>975</v>
+      </c>
+      <c r="C544" t="s">
         <v>976</v>
-      </c>
-      <c r="C544" t="s">
-        <v>977</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.25">
@@ -10534,10 +10535,10 @@
         <v>559</v>
       </c>
       <c r="B545" t="s">
+        <v>977</v>
+      </c>
+      <c r="C545" t="s">
         <v>978</v>
-      </c>
-      <c r="C545" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.25">
@@ -10545,10 +10546,10 @@
         <v>562</v>
       </c>
       <c r="B546" t="s">
+        <v>979</v>
+      </c>
+      <c r="C546" t="s">
         <v>980</v>
-      </c>
-      <c r="C546" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.25">
@@ -10556,7 +10557,7 @@
         <v>563</v>
       </c>
       <c r="B547" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.25">
@@ -10564,10 +10565,10 @@
         <v>564</v>
       </c>
       <c r="B548" t="s">
+        <v>982</v>
+      </c>
+      <c r="C548" t="s">
         <v>983</v>
-      </c>
-      <c r="C548" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.25">
@@ -10575,10 +10576,10 @@
         <v>565</v>
       </c>
       <c r="B549" t="s">
+        <v>984</v>
+      </c>
+      <c r="C549" t="s">
         <v>985</v>
-      </c>
-      <c r="C549" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.25">
@@ -10586,10 +10587,10 @@
         <v>566</v>
       </c>
       <c r="B550" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C550" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.25">
@@ -10597,10 +10598,10 @@
         <v>567</v>
       </c>
       <c r="B551" t="s">
+        <v>987</v>
+      </c>
+      <c r="C551" t="s">
         <v>988</v>
-      </c>
-      <c r="C551" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.25">
@@ -10608,10 +10609,10 @@
         <v>568</v>
       </c>
       <c r="B552" t="s">
+        <v>989</v>
+      </c>
+      <c r="C552" t="s">
         <v>990</v>
-      </c>
-      <c r="C552" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.25">
@@ -10619,10 +10620,10 @@
         <v>569</v>
       </c>
       <c r="B553" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C553" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.25">
@@ -10630,10 +10631,10 @@
         <v>570</v>
       </c>
       <c r="B554" t="s">
+        <v>992</v>
+      </c>
+      <c r="C554" t="s">
         <v>993</v>
-      </c>
-      <c r="C554" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.25">
@@ -10641,10 +10642,10 @@
         <v>571</v>
       </c>
       <c r="B555" t="s">
+        <v>994</v>
+      </c>
+      <c r="C555" t="s">
         <v>995</v>
-      </c>
-      <c r="C555" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.25">
@@ -10652,10 +10653,10 @@
         <v>572</v>
       </c>
       <c r="B556" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C556" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.25">
@@ -10663,10 +10664,10 @@
         <v>577</v>
       </c>
       <c r="B557" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C557" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.25">
@@ -10674,10 +10675,10 @@
         <v>578</v>
       </c>
       <c r="B558" t="s">
+        <v>998</v>
+      </c>
+      <c r="C558" t="s">
         <v>999</v>
-      </c>
-      <c r="C558" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.25">
@@ -10685,7 +10686,7 @@
         <v>579</v>
       </c>
       <c r="B559" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.25">
@@ -10693,10 +10694,10 @@
         <v>580</v>
       </c>
       <c r="B560" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C560" t="s">
         <v>1002</v>
-      </c>
-      <c r="C560" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.25">
@@ -10704,10 +10705,10 @@
         <v>581</v>
       </c>
       <c r="B561" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C561" t="s">
         <v>1004</v>
-      </c>
-      <c r="C561" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.25">
@@ -10715,10 +10716,10 @@
         <v>582</v>
       </c>
       <c r="B562" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C562" t="s">
         <v>1006</v>
-      </c>
-      <c r="C562" t="s">
-        <v>1007</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.25">
@@ -10726,10 +10727,10 @@
         <v>583</v>
       </c>
       <c r="B563" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C563" t="s">
         <v>1008</v>
-      </c>
-      <c r="C563" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.25">
@@ -10737,10 +10738,10 @@
         <v>584</v>
       </c>
       <c r="B564" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C564" t="s">
         <v>1010</v>
-      </c>
-      <c r="C564" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.25">
@@ -10748,10 +10749,10 @@
         <v>585</v>
       </c>
       <c r="B565" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C565" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.25">
@@ -10759,10 +10760,10 @@
         <v>586</v>
       </c>
       <c r="B566" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C566" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.25">
@@ -10770,10 +10771,10 @@
         <v>587</v>
       </c>
       <c r="B567" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C567" t="s">
         <v>1013</v>
-      </c>
-      <c r="C567" t="s">
-        <v>1014</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.25">
@@ -10781,10 +10782,10 @@
         <v>588</v>
       </c>
       <c r="B568" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C568" t="s">
         <v>1015</v>
-      </c>
-      <c r="C568" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.25">
@@ -10792,10 +10793,10 @@
         <v>589</v>
       </c>
       <c r="B569" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C569" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.25">
@@ -10803,10 +10804,10 @@
         <v>590</v>
       </c>
       <c r="B570" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C570" t="s">
         <v>1018</v>
-      </c>
-      <c r="C570" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.25">
@@ -10814,10 +10815,10 @@
         <v>591</v>
       </c>
       <c r="B571" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C571" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.25">
@@ -10825,10 +10826,10 @@
         <v>592</v>
       </c>
       <c r="B572" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C572" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.25">
@@ -10836,10 +10837,10 @@
         <v>593</v>
       </c>
       <c r="B573" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C573" t="s">
         <v>1022</v>
-      </c>
-      <c r="C573" t="s">
-        <v>1023</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.25">
@@ -10847,10 +10848,10 @@
         <v>594</v>
       </c>
       <c r="B574" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C574" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.25">
@@ -10858,10 +10859,10 @@
         <v>595</v>
       </c>
       <c r="B575" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C575" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.25">
@@ -10869,10 +10870,10 @@
         <v>596</v>
       </c>
       <c r="B576" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C576" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.25">
@@ -10880,10 +10881,10 @@
         <v>597</v>
       </c>
       <c r="B577" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C577" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.25">
@@ -10891,10 +10892,10 @@
         <v>598</v>
       </c>
       <c r="B578" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C578" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.25">
@@ -10902,10 +10903,10 @@
         <v>599</v>
       </c>
       <c r="B579" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C579" t="s">
         <v>1026</v>
-      </c>
-      <c r="C579" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.25">
@@ -10913,10 +10914,10 @@
         <v>601</v>
       </c>
       <c r="B580" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C580" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.25">
@@ -10924,10 +10925,10 @@
         <v>602</v>
       </c>
       <c r="B581" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="C581" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.25">
@@ -10935,10 +10936,10 @@
         <v>604</v>
       </c>
       <c r="B582" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C582" t="s">
         <v>1029</v>
-      </c>
-      <c r="C582" t="s">
-        <v>1030</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.25">
@@ -10946,10 +10947,10 @@
         <v>612</v>
       </c>
       <c r="B583" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C583" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.25">
@@ -10957,10 +10958,10 @@
         <v>617</v>
       </c>
       <c r="B584" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C584" t="s">
         <v>1032</v>
-      </c>
-      <c r="C584" t="s">
-        <v>1033</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.25">
@@ -10968,10 +10969,10 @@
         <v>618</v>
       </c>
       <c r="B585" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C585" t="s">
         <v>1034</v>
-      </c>
-      <c r="C585" t="s">
-        <v>1035</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.25">
@@ -10979,10 +10980,10 @@
         <v>625</v>
       </c>
       <c r="B586" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C586" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.25">
@@ -10990,10 +10991,10 @@
         <v>626</v>
       </c>
       <c r="B587" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C587" t="s">
         <v>1036</v>
-      </c>
-      <c r="C587" t="s">
-        <v>1037</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.25">
@@ -11001,10 +11002,10 @@
         <v>629</v>
       </c>
       <c r="B588" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C588" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.25">
@@ -11012,10 +11013,10 @@
         <v>633</v>
       </c>
       <c r="B589" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C589" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.25">
@@ -11023,10 +11024,10 @@
         <v>635</v>
       </c>
       <c r="B590" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C590" t="s">
         <v>1040</v>
-      </c>
-      <c r="C590" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.25">
@@ -11034,10 +11035,10 @@
         <v>636</v>
       </c>
       <c r="B591" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C591" t="s">
         <v>1042</v>
-      </c>
-      <c r="C591" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.25">
@@ -11045,10 +11046,10 @@
         <v>642</v>
       </c>
       <c r="B592" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C592" t="s">
         <v>1044</v>
-      </c>
-      <c r="C592" t="s">
-        <v>1045</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.25">
@@ -11056,10 +11057,10 @@
         <v>644</v>
       </c>
       <c r="B593" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="C593" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.25">
@@ -11067,10 +11068,10 @@
         <v>646</v>
       </c>
       <c r="B594" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C594" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.25">
@@ -11078,10 +11079,10 @@
         <v>649</v>
       </c>
       <c r="B595" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="C595" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.25">
@@ -11089,10 +11090,10 @@
         <v>650</v>
       </c>
       <c r="B596" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C596" t="s">
         <v>1047</v>
-      </c>
-      <c r="C596" t="s">
-        <v>1048</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.25">
@@ -11100,10 +11101,10 @@
         <v>651</v>
       </c>
       <c r="B597" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C597" t="s">
         <v>1049</v>
-      </c>
-      <c r="C597" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.25">
@@ -11111,10 +11112,10 @@
         <v>653</v>
       </c>
       <c r="B598" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C598" t="s">
         <v>1051</v>
-      </c>
-      <c r="C598" t="s">
-        <v>1052</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.25">
@@ -11122,10 +11123,10 @@
         <v>654</v>
       </c>
       <c r="B599" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C599" t="s">
         <v>1156</v>
-      </c>
-      <c r="C599" t="s">
-        <v>1157</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.25">
@@ -11133,10 +11134,10 @@
         <v>655</v>
       </c>
       <c r="B600" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C600" t="s">
         <v>1053</v>
-      </c>
-      <c r="C600" t="s">
-        <v>1054</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.25">
@@ -11144,10 +11145,10 @@
         <v>660</v>
       </c>
       <c r="B601" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="C601" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.25">
@@ -11155,10 +11156,10 @@
         <v>661</v>
       </c>
       <c r="B602" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C602" t="s">
         <v>1055</v>
-      </c>
-      <c r="C602" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.25">
@@ -11166,10 +11167,10 @@
         <v>663</v>
       </c>
       <c r="B603" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C603" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.25">
@@ -11177,10 +11178,10 @@
         <v>667</v>
       </c>
       <c r="B604" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C604" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.25">
@@ -11188,10 +11189,10 @@
         <v>673</v>
       </c>
       <c r="B605" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C605" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.25">
@@ -11199,10 +11200,10 @@
         <v>674</v>
       </c>
       <c r="B606" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C606" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.25">
@@ -11210,10 +11211,10 @@
         <v>680</v>
       </c>
       <c r="B607" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C607" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.25">
@@ -11221,10 +11222,10 @@
         <v>681</v>
       </c>
       <c r="B608" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C608" t="s">
         <v>1199</v>
-      </c>
-      <c r="C608" t="s">
-        <v>1201</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.25">
@@ -11232,10 +11233,10 @@
         <v>682</v>
       </c>
       <c r="B609" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C609" t="s">
         <v>1061</v>
-      </c>
-      <c r="C609" t="s">
-        <v>1062</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.25">
@@ -11243,10 +11244,10 @@
         <v>684</v>
       </c>
       <c r="B610" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C610" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.25">
@@ -11254,10 +11255,10 @@
         <v>685</v>
       </c>
       <c r="B611" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C611" t="s">
         <v>1063</v>
-      </c>
-      <c r="C611" t="s">
-        <v>1064</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.25">
@@ -11265,10 +11266,10 @@
         <v>686</v>
       </c>
       <c r="B612" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C612" t="s">
         <v>1065</v>
-      </c>
-      <c r="C612" t="s">
-        <v>1066</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.25">
@@ -11276,10 +11277,10 @@
         <v>689</v>
       </c>
       <c r="B613" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C613" t="s">
         <v>1067</v>
-      </c>
-      <c r="C613" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.25">
@@ -11287,10 +11288,10 @@
         <v>697</v>
       </c>
       <c r="B614" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C614" t="s">
-        <v>1211</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.25">
@@ -11298,10 +11299,10 @@
         <v>701</v>
       </c>
       <c r="B615" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="C615" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.25">
@@ -11309,10 +11310,10 @@
         <v>702</v>
       </c>
       <c r="B616" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="C616" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.25">
@@ -11320,10 +11321,10 @@
         <v>704</v>
       </c>
       <c r="B617" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C617" t="s">
         <v>1099</v>
-      </c>
-      <c r="C617" t="s">
-        <v>1100</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.25">
@@ -11331,10 +11332,10 @@
         <v>710</v>
       </c>
       <c r="B618" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="C618" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.25">
@@ -11342,10 +11343,10 @@
         <v>711</v>
       </c>
       <c r="B619" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="C619" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.25">
@@ -11353,10 +11354,10 @@
         <v>713</v>
       </c>
       <c r="B620" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="C620" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.25">
@@ -11364,10 +11365,10 @@
         <v>714</v>
       </c>
       <c r="B621" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="C621" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.25">
@@ -11375,10 +11376,10 @@
         <v>717</v>
       </c>
       <c r="B622" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="C622" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.25">
@@ -11386,10 +11387,10 @@
         <v>718</v>
       </c>
       <c r="B623" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="C623" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.25">
@@ -11397,10 +11398,10 @@
         <v>719</v>
       </c>
       <c r="B624" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="C624" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="625" spans="1:3" ht="19.8" x14ac:dyDescent="0.5">
@@ -11408,10 +11409,10 @@
         <v>721</v>
       </c>
       <c r="B625" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="C625" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.25">
@@ -11419,10 +11420,10 @@
         <v>722</v>
       </c>
       <c r="B626" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="C626" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.25">
@@ -11430,10 +11431,10 @@
         <v>723</v>
       </c>
       <c r="B627" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="C627" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.25">
@@ -11441,10 +11442,10 @@
         <v>725</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="C628" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.25">
@@ -11452,10 +11453,10 @@
         <v>726</v>
       </c>
       <c r="B629" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="C629" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.25">
@@ -11463,10 +11464,10 @@
         <v>727</v>
       </c>
       <c r="B630" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="C630" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="631" spans="1:3" ht="19.8" x14ac:dyDescent="0.5">
@@ -11474,10 +11475,10 @@
         <v>728</v>
       </c>
       <c r="B631" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="C631" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="632" spans="1:3" ht="19.8" x14ac:dyDescent="0.5">
@@ -11485,10 +11486,10 @@
         <v>729</v>
       </c>
       <c r="B632" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="C632" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.25">
@@ -11496,10 +11497,10 @@
         <v>730</v>
       </c>
       <c r="B633" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="C633" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.25">
@@ -11507,10 +11508,10 @@
         <v>731</v>
       </c>
       <c r="B634" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="C634" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.25">
@@ -11518,10 +11519,10 @@
         <v>733</v>
       </c>
       <c r="B635" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="C635" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.25">
@@ -11529,10 +11530,10 @@
         <v>735</v>
       </c>
       <c r="B636" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="C636" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.25">
@@ -11540,10 +11541,10 @@
         <v>736</v>
       </c>
       <c r="B637" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="C637" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.25">
@@ -11551,10 +11552,10 @@
         <v>737</v>
       </c>
       <c r="B638" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="C638" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.25">
@@ -11562,10 +11563,10 @@
         <v>738</v>
       </c>
       <c r="B639" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="C639" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.25">
@@ -11573,10 +11574,10 @@
         <v>739</v>
       </c>
       <c r="B640" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="C640" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.25">
@@ -11584,10 +11585,10 @@
         <v>740</v>
       </c>
       <c r="B641" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="C641" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.25">
@@ -11595,10 +11596,10 @@
         <v>741</v>
       </c>
       <c r="B642" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="C642" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.25">
@@ -11606,10 +11607,10 @@
         <v>10001</v>
       </c>
       <c r="B643" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C643" t="s">
         <v>1069</v>
-      </c>
-      <c r="C643" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.25">
@@ -11617,10 +11618,10 @@
         <v>10003</v>
       </c>
       <c r="B644" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C644" t="s">
         <v>1096</v>
-      </c>
-      <c r="C644" t="s">
-        <v>1097</v>
       </c>
     </row>
   </sheetData>
@@ -11628,7 +11629,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C1 A121:C127 A120:B120 A643:C643 A315:B315 A316:C326 A352:C352 A351:B351 A587:C587 A575 A574:B574 A460:C463 A459:B459 A609:C609 A235:C249 A234:B234 A95:C98 A146:C149 A145:B145 A541:C549 A540:B540 A55:C57 A558:C564 A29:C29 A28:B28 A579:C579 A308:C314 A307:B307 A53:B54 A457:C458 A516:C516 A515:B515 A93:B94 A554:C555 A553:B553 A346:C348 A345:B345 A52:C52 A51:B51 A72:C78 A70:B70 A163:C169 A162:B162 A378:C378 A377:B377 A611:C613 A258:C259 A257:B257 A6:C7 A573:C573 A571:B571 A567:C568 A566 A602:C602 A21:C22 A20:B20 A420:C422 A115:C119 A114:B114 A287:C294 A286:B286 A418:B419 A80:C84 A79:B79 A504:C504 A503 A151:C153 A150:B150 A481:C498 A480:B480 A520:C520 A519:B519 A532:C535 A531:B531 A604:B607 A576:B578 A514:C514 A513:B513 A501:C502 A500:B500 A453:C454 A424:C424 A423:B423 A14:C14 A13:B13 A2:B5 A582:C582 A580:B580 A570:C570 A569:B569 A450:C450 A449:B449 A551:C552 A550:B550 A539:C539 A518:C518 A517:B517 A508:C512 A507:B507 A466:C468 A448:C448 A447:B447 A433:C446 A432:B432 A426:C431 A425:B425 A403:C405 A402:B402 A281:C285 A279:B279 A269:C278 A268:B268 A261:C267 A260:B260 A252:C256 A250:B251 A231:C233 A229:B230 A108:C113 A107:B107 A59:C69 A58:B58 A155:C161 A154:B154 A129:C144 A128:B128 A71 A9:C12 A8:B8 A590:C592 A380:C385 A379:B379 A451:B452 A523:C530 A521:B522 A506:C506 A505:B505 A470:C472 A469:B469 A455:B456 A100:C106 A99:B99 A40:C42 A32:C37 A16:C19 A15:B15 A565:B565 A556:B557 A536:B537 A478:C479 A477:B477 A408:C411 A407:B407 A387:C401 A386:B386 A328:C344 A327 A296:C306 A295:B295 A44:C50 A43:B43 A596:C598 A594:B594 A588:B589 A354:C373 A353:B353 A464:B465 A350:C350 A349:B349 A474:C476 A473 A86:C92 A85:B85 A30:B31 A38:B39 A171:C228 A170:B170 A600:C600 A584:C585 A583:B583 A572:B572 A24:C27 A23:B23 A499:B499 A414:C417 A413 C413 A412 C412 A406 A375:C376 A374:B374 A280:B280 A538:B538" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C1 A121:C127 A120:B120 A643:C643 A315:B315 A316:C326 A352:C352 A351:B351 A587:C587 A575 A574:B574 A460:C463 A459:B459 A609:C609 A235:C249 A234:B234 A95:C98 A146:C149 A145:B145 A541:C549 A540:B540 A55:C57 A558:C564 A29:C29 A28:B28 A579:C579 A308:C314 A307:B307 A53:B54 A457:C458 A516:C516 A515:B515 A93:B94 A554:C555 A553:B553 A346:C348 A345:B345 A52:C52 A51:B51 A72:C78 A70:B70 A163:C169 A162:B162 A378:C378 A377:B377 A611:C613 A258:C259 A257:B257 A6:C7 A573:C573 A571:B571 A567:C568 A566 A602:C602 A21:C22 A20:B20 A420:C422 A115:C119 A114:B114 A287:C294 A286:B286 A418:B419 A80:C84 A79:B79 A504:C504 A503 A151:C153 A150:B150 A481:C498 A480:B480 A520:C520 A519:B519 A532:C535 A531:B531 A604:B607 A576:B578 A514:C514 A513:B513 A501:C502 A500:B500 A453:C454 A424:C424 A423:B423 A14:C14 A13:B13 A2:B5 A582:C582 A580:B580 A570:C570 A569:B569 A450:C450 A449:B449 A551:C552 A550:B550 A539:C539 A518:C518 A517:B517 A508:C512 A507:B507 A466:C468 A448:C448 A447:B447 A433:C446 A432:B432 A426:C431 A425:B425 A403:C405 A402:B402 A281:C285 A279:B279 A269:C278 A268:B268 A261:C267 A260:B260 A252:C256 A250:B251 A231:C233 A229:B230 A108:C113 A107:B107 A59:C69 A58:B58 A155:C161 A154:B154 A129:C144 A128:B128 A71 A9:C12 A8:B8 A590:C592 A380:C385 A379:B379 A451:B452 A523:C530 A521:B522 A506:C506 A505:B505 A470:C472 A469:B469 A455:B456 A100:C106 A99:B99 A40:C42 A32:C37 A16:C19 A15:B15 A565:B565 A556:B557 A536:B537 A478:C479 A477:B477 A408:C411 A407:B407 A387:C401 A386:B386 A328:C344 A327 A296:C306 A295:B295 A44:C50 A43:B43 A596:C598 A594:B594 A588:B589 A354:C373 A353:B353 A464:B465 A350:C350 A349:B349 A475:C476 A473 A86:C92 A85:B85 A30:B31 A38:B39 A171:C228 A170:B170 A600:C600 A584:C585 A583:B583 A572:B572 A24:C27 A23:B23 A499:B499 A414:C417 A413 C413 A412 C412 A406 A375:C376 A374:B374 A280:B280 A538:B538 A474:B474" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/config/nickname_song.xlsx
+++ b/config/nickname_song.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Tsugu-Backend\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69FE0B0-A974-4C28-8B3C-4DC60FA460BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BDD53D-F402-4235-A9DC-025CE0918D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1956" yWindow="1248" windowWidth="23484" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7980" yWindow="1764" windowWidth="23484" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="1275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="1277">
   <si>
     <t>Id</t>
   </si>
@@ -4129,6 +4129,14 @@
   </si>
   <si>
     <t>别怕,我们遇到什么困难也不要怕,别怂,别慌,dont be afraid,dba,afraid,gg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黒のバースデイ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑生,黑色生日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4541,10 +4549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C644"/>
+  <dimension ref="A1:C645"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A597" workbookViewId="0">
+      <selection activeCell="C618" sqref="C618"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -11329,298 +11337,309 @@
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A618">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="B618" t="s">
-        <v>1195</v>
+        <v>1275</v>
       </c>
       <c r="C618" t="s">
-        <v>1196</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A619">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B619" t="s">
-        <v>1258</v>
+        <v>1195</v>
       </c>
       <c r="C619" t="s">
-        <v>1259</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A620">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B620" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="C620" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A621">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B621" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="C621" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A622">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B622" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="C622" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A623">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B623" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="C623" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A624">
+        <v>718</v>
+      </c>
+      <c r="B624" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C624" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A625">
         <v>719</v>
       </c>
-      <c r="B624" t="s">
+      <c r="B625" t="s">
         <v>1248</v>
       </c>
-      <c r="C624" t="s">
+      <c r="C625" t="s">
         <v>1249</v>
       </c>
     </row>
-    <row r="625" spans="1:3" ht="19.8" x14ac:dyDescent="0.5">
-      <c r="A625">
+    <row r="626" spans="1:3" ht="19.8" x14ac:dyDescent="0.5">
+      <c r="A626">
         <v>721</v>
       </c>
-      <c r="B625" t="s">
+      <c r="B626" t="s">
         <v>1246</v>
       </c>
-      <c r="C625" t="s">
+      <c r="C626" t="s">
         <v>1247</v>
-      </c>
-    </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A626">
-        <v>722</v>
-      </c>
-      <c r="B626" t="s">
-        <v>1244</v>
-      </c>
-      <c r="C626" t="s">
-        <v>1245</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B627" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="C627" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628">
-        <v>725</v>
-      </c>
-      <c r="B628" s="1" t="s">
-        <v>1240</v>
+        <v>723</v>
+      </c>
+      <c r="B628" t="s">
+        <v>1242</v>
       </c>
       <c r="C628" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629">
-        <v>726</v>
-      </c>
-      <c r="B629" t="s">
-        <v>1238</v>
+        <v>725</v>
+      </c>
+      <c r="B629" s="1" t="s">
+        <v>1240</v>
       </c>
       <c r="C629" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630">
+        <v>726</v>
+      </c>
+      <c r="B630" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C630" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A631">
         <v>727</v>
       </c>
-      <c r="B630" t="s">
+      <c r="B631" t="s">
         <v>1236</v>
       </c>
-      <c r="C630" t="s">
+      <c r="C631" t="s">
         <v>1237</v>
-      </c>
-    </row>
-    <row r="631" spans="1:3" ht="19.8" x14ac:dyDescent="0.5">
-      <c r="A631">
-        <v>728</v>
-      </c>
-      <c r="B631" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C631" t="s">
-        <v>1260</v>
       </c>
     </row>
     <row r="632" spans="1:3" ht="19.8" x14ac:dyDescent="0.5">
       <c r="A632">
+        <v>728</v>
+      </c>
+      <c r="B632" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C632" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" ht="19.8" x14ac:dyDescent="0.5">
+      <c r="A633">
         <v>729</v>
       </c>
-      <c r="B632" t="s">
+      <c r="B633" t="s">
         <v>1233</v>
       </c>
-      <c r="C632" t="s">
+      <c r="C633" t="s">
         <v>1234</v>
-      </c>
-    </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A633">
-        <v>730</v>
-      </c>
-      <c r="B633" t="s">
-        <v>1231</v>
-      </c>
-      <c r="C633" t="s">
-        <v>1232</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B634" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="C634" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A635">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B635" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="C635" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B636" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="C636" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B637" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="C637" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B638" t="s">
-        <v>1264</v>
+        <v>1223</v>
       </c>
       <c r="C638" t="s">
-        <v>1265</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B639" t="s">
-        <v>1221</v>
+        <v>1264</v>
       </c>
       <c r="C639" t="s">
-        <v>1222</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B640" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="C640" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B641" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="C641" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B642" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="C642" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A643">
-        <v>10001</v>
+        <v>741</v>
       </c>
       <c r="B643" t="s">
-        <v>1068</v>
+        <v>1215</v>
       </c>
       <c r="C643" t="s">
-        <v>1069</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A644">
+        <v>10001</v>
+      </c>
+      <c r="B644" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C644" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A645">
         <v>10003</v>
       </c>
-      <c r="B644" t="s">
+      <c r="B645" t="s">
         <v>1095</v>
       </c>
-      <c r="C644" t="s">
+      <c r="C645" t="s">
         <v>1096</v>
       </c>
     </row>
@@ -11629,7 +11648,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C1 A121:C127 A120:B120 A643:C643 A315:B315 A316:C326 A352:C352 A351:B351 A587:C587 A575 A574:B574 A460:C463 A459:B459 A609:C609 A235:C249 A234:B234 A95:C98 A146:C149 A145:B145 A541:C549 A540:B540 A55:C57 A558:C564 A29:C29 A28:B28 A579:C579 A308:C314 A307:B307 A53:B54 A457:C458 A516:C516 A515:B515 A93:B94 A554:C555 A553:B553 A346:C348 A345:B345 A52:C52 A51:B51 A72:C78 A70:B70 A163:C169 A162:B162 A378:C378 A377:B377 A611:C613 A258:C259 A257:B257 A6:C7 A573:C573 A571:B571 A567:C568 A566 A602:C602 A21:C22 A20:B20 A420:C422 A115:C119 A114:B114 A287:C294 A286:B286 A418:B419 A80:C84 A79:B79 A504:C504 A503 A151:C153 A150:B150 A481:C498 A480:B480 A520:C520 A519:B519 A532:C535 A531:B531 A604:B607 A576:B578 A514:C514 A513:B513 A501:C502 A500:B500 A453:C454 A424:C424 A423:B423 A14:C14 A13:B13 A2:B5 A582:C582 A580:B580 A570:C570 A569:B569 A450:C450 A449:B449 A551:C552 A550:B550 A539:C539 A518:C518 A517:B517 A508:C512 A507:B507 A466:C468 A448:C448 A447:B447 A433:C446 A432:B432 A426:C431 A425:B425 A403:C405 A402:B402 A281:C285 A279:B279 A269:C278 A268:B268 A261:C267 A260:B260 A252:C256 A250:B251 A231:C233 A229:B230 A108:C113 A107:B107 A59:C69 A58:B58 A155:C161 A154:B154 A129:C144 A128:B128 A71 A9:C12 A8:B8 A590:C592 A380:C385 A379:B379 A451:B452 A523:C530 A521:B522 A506:C506 A505:B505 A470:C472 A469:B469 A455:B456 A100:C106 A99:B99 A40:C42 A32:C37 A16:C19 A15:B15 A565:B565 A556:B557 A536:B537 A478:C479 A477:B477 A408:C411 A407:B407 A387:C401 A386:B386 A328:C344 A327 A296:C306 A295:B295 A44:C50 A43:B43 A596:C598 A594:B594 A588:B589 A354:C373 A353:B353 A464:B465 A350:C350 A349:B349 A475:C476 A473 A86:C92 A85:B85 A30:B31 A38:B39 A171:C228 A170:B170 A600:C600 A584:C585 A583:B583 A572:B572 A24:C27 A23:B23 A499:B499 A414:C417 A413 C413 A412 C412 A406 A375:C376 A374:B374 A280:B280 A538:B538 A474:B474" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C1 A121:C127 A120:B120 A644:C644 A315:B315 A316:C326 A352:C352 A351:B351 A587:C587 A575 A574:B574 A460:C463 A459:B459 A609:C609 A235:C249 A234:B234 A95:C98 A146:C149 A145:B145 A541:C549 A540:B540 A55:C57 A558:C564 A29:C29 A28:B28 A579:C579 A308:C314 A307:B307 A53:B54 A457:C458 A516:C516 A515:B515 A93:B94 A554:C555 A553:B553 A346:C348 A345:B345 A52:C52 A51:B51 A72:C78 A70:B70 A163:C169 A162:B162 A378:C378 A377:B377 A611:C613 A258:C259 A257:B257 A6:C7 A573:C573 A571:B571 A567:C568 A566 A602:C602 A21:C22 A20:B20 A420:C422 A115:C119 A114:B114 A287:C294 A286:B286 A418:B419 A80:C84 A79:B79 A504:C504 A503 A151:C153 A150:B150 A481:C498 A480:B480 A520:C520 A519:B519 A532:C535 A531:B531 A604:B607 A576:B578 A514:C514 A513:B513 A501:C502 A500:B500 A453:C454 A424:C424 A423:B423 A14:C14 A13:B13 A2:B5 A582:C582 A580:B580 A570:C570 A569:B569 A450:C450 A449:B449 A551:C552 A550:B550 A539:C539 A518:C518 A517:B517 A508:C512 A507:B507 A466:C468 A448:C448 A447:B447 A433:C446 A432:B432 A426:C431 A425:B425 A403:C405 A402:B402 A281:C285 A279:B279 A269:C278 A268:B268 A261:C267 A260:B260 A252:C256 A250:B251 A231:C233 A229:B230 A108:C113 A107:B107 A59:C69 A58:B58 A155:C161 A154:B154 A129:C144 A128:B128 A71 A9:C12 A8:B8 A590:C592 A380:C385 A379:B379 A451:B452 A523:C530 A521:B522 A506:C506 A505:B505 A470:C472 A469:B469 A455:B456 A100:C106 A99:B99 A40:C42 A32:C37 A16:C19 A15:B15 A565:B565 A556:B557 A536:B537 A478:C479 A477:B477 A408:C411 A407:B407 A387:C401 A386:B386 A328:C344 A327 A296:C306 A295:B295 A44:C50 A43:B43 A596:C598 A594:B594 A588:B589 A354:C373 A353:B353 A464:B465 A350:C350 A349:B349 A475:C476 A473 A86:C92 A85:B85 A30:B31 A38:B39 A171:C228 A170:B170 A600:C600 A584:C585 A583:B583 A572:B572 A24:C27 A23:B23 A499:B499 A414:C417 A413 C413 A412 C412 A406 A375:C376 A374:B374 A280:B280 A538:B538 A474:B474" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/config/nickname_song.xlsx
+++ b/config/nickname_song.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Tsugu-Backend\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BDD53D-F402-4235-A9DC-025CE0918D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC75027-9905-440C-A586-E1AE04ADFBB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7980" yWindow="1764" windowWidth="23484" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7404" yWindow="3900" windowWidth="23484" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="1277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="1289">
   <si>
     <t>Id</t>
   </si>
@@ -3768,10 +3768,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>纸飞机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>革命机,情歌对唱,革命二元论,革命,Roselia×兰,RoseliaX兰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4139,12 +4135,91 @@
     <t>黑生,黑色生日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>きみCharmin'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kimi,Charmin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sincerely</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真挚,真诚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じょいふる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三丽鸥,kitty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>♡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>桃色片想い</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>♡</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃色片想,三丽鸥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fear Nothing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无所畏惧,不怕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白い雪のプリンセスは</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白雪,白雪公主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸飞机,一莲托生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4186,6 +4261,12 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4207,9 +4288,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4549,10 +4631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C645"/>
+  <dimension ref="A1:C651"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A597" workbookViewId="0">
-      <selection activeCell="C618" sqref="C618"/>
+    <sheetView tabSelected="1" topLeftCell="A559" workbookViewId="0">
+      <selection activeCell="C581" sqref="C581"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -4582,7 +4664,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4813,7 +4895,7 @@
         <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -4978,7 +5060,7 @@
         <v>63</v>
       </c>
       <c r="C38" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -6210,7 +6292,7 @@
         <v>267</v>
       </c>
       <c r="C150" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -6430,7 +6512,7 @@
         <v>304</v>
       </c>
       <c r="C170" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -7640,7 +7722,7 @@
         <v>513</v>
       </c>
       <c r="C280" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -8674,7 +8756,7 @@
         <v>690</v>
       </c>
       <c r="C374" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -9023,10 +9105,10 @@
         <v>416</v>
       </c>
       <c r="B406" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C406" t="s">
         <v>1211</v>
-      </c>
-      <c r="C406" t="s">
-        <v>1212</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
@@ -9089,7 +9171,7 @@
         <v>422</v>
       </c>
       <c r="B412" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C412" t="s">
         <v>758</v>
@@ -9100,7 +9182,7 @@
         <v>423</v>
       </c>
       <c r="B413" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C413" t="s">
         <v>759</v>
@@ -9771,7 +9853,7 @@
         <v>858</v>
       </c>
       <c r="C474" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
@@ -10469,7 +10551,7 @@
         <v>965</v>
       </c>
       <c r="C538" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.25">
@@ -10837,7 +10919,7 @@
         <v>1020</v>
       </c>
       <c r="C572" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.25">
@@ -10881,7 +10963,7 @@
         <v>1024</v>
       </c>
       <c r="C576" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.25">
@@ -10892,7 +10974,7 @@
         <v>859</v>
       </c>
       <c r="C577" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.25">
@@ -10903,7 +10985,7 @@
         <v>861</v>
       </c>
       <c r="C578" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.25">
@@ -10936,7 +11018,7 @@
         <v>1192</v>
       </c>
       <c r="C581" t="s">
-        <v>1193</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.25">
@@ -10958,7 +11040,7 @@
         <v>1030</v>
       </c>
       <c r="C583" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.25">
@@ -11065,10 +11147,10 @@
         <v>644</v>
       </c>
       <c r="B593" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C593" t="s">
         <v>1267</v>
-      </c>
-      <c r="C593" t="s">
-        <v>1268</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.25">
@@ -11087,10 +11169,10 @@
         <v>649</v>
       </c>
       <c r="B595" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C595" t="s">
         <v>1202</v>
-      </c>
-      <c r="C595" t="s">
-        <v>1203</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.25">
@@ -11153,10 +11235,10 @@
         <v>660</v>
       </c>
       <c r="B601" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C601" t="s">
         <v>1200</v>
-      </c>
-      <c r="C601" t="s">
-        <v>1201</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.25">
@@ -11178,7 +11260,7 @@
         <v>1071</v>
       </c>
       <c r="C603" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.25">
@@ -11211,7 +11293,7 @@
         <v>1058</v>
       </c>
       <c r="C606" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.25">
@@ -11230,10 +11312,10 @@
         <v>681</v>
       </c>
       <c r="B608" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C608" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.25">
@@ -11299,7 +11381,7 @@
         <v>1149</v>
       </c>
       <c r="C614" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.25">
@@ -11318,10 +11400,10 @@
         <v>702</v>
       </c>
       <c r="B616" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C616" t="s">
         <v>1261</v>
-      </c>
-      <c r="C616" t="s">
-        <v>1262</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.25">
@@ -11340,10 +11422,10 @@
         <v>705</v>
       </c>
       <c r="B618" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C618" t="s">
         <v>1275</v>
-      </c>
-      <c r="C618" t="s">
-        <v>1276</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.25">
@@ -11351,10 +11433,10 @@
         <v>710</v>
       </c>
       <c r="B619" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C619" t="s">
         <v>1195</v>
-      </c>
-      <c r="C619" t="s">
-        <v>1196</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.25">
@@ -11362,10 +11444,10 @@
         <v>711</v>
       </c>
       <c r="B620" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C620" t="s">
         <v>1258</v>
-      </c>
-      <c r="C620" t="s">
-        <v>1259</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.25">
@@ -11373,10 +11455,10 @@
         <v>713</v>
       </c>
       <c r="B621" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C621" t="s">
         <v>1256</v>
-      </c>
-      <c r="C621" t="s">
-        <v>1257</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.25">
@@ -11384,10 +11466,10 @@
         <v>714</v>
       </c>
       <c r="B622" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C622" t="s">
         <v>1254</v>
-      </c>
-      <c r="C622" t="s">
-        <v>1255</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.25">
@@ -11395,10 +11477,10 @@
         <v>717</v>
       </c>
       <c r="B623" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C623" t="s">
         <v>1252</v>
-      </c>
-      <c r="C623" t="s">
-        <v>1253</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.25">
@@ -11406,10 +11488,10 @@
         <v>718</v>
       </c>
       <c r="B624" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C624" t="s">
         <v>1250</v>
-      </c>
-      <c r="C624" t="s">
-        <v>1251</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.25">
@@ -11417,10 +11499,10 @@
         <v>719</v>
       </c>
       <c r="B625" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C625" t="s">
         <v>1248</v>
-      </c>
-      <c r="C625" t="s">
-        <v>1249</v>
       </c>
     </row>
     <row r="626" spans="1:3" ht="19.8" x14ac:dyDescent="0.5">
@@ -11428,10 +11510,10 @@
         <v>721</v>
       </c>
       <c r="B626" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C626" t="s">
         <v>1246</v>
-      </c>
-      <c r="C626" t="s">
-        <v>1247</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.25">
@@ -11439,10 +11521,10 @@
         <v>722</v>
       </c>
       <c r="B627" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C627" t="s">
         <v>1244</v>
-      </c>
-      <c r="C627" t="s">
-        <v>1245</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.25">
@@ -11450,10 +11532,10 @@
         <v>723</v>
       </c>
       <c r="B628" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C628" t="s">
         <v>1242</v>
-      </c>
-      <c r="C628" t="s">
-        <v>1243</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.25">
@@ -11461,10 +11543,10 @@
         <v>725</v>
       </c>
       <c r="B629" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C629" t="s">
         <v>1240</v>
-      </c>
-      <c r="C629" t="s">
-        <v>1241</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.25">
@@ -11472,10 +11554,10 @@
         <v>726</v>
       </c>
       <c r="B630" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C630" t="s">
         <v>1238</v>
-      </c>
-      <c r="C630" t="s">
-        <v>1239</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.25">
@@ -11483,10 +11565,10 @@
         <v>727</v>
       </c>
       <c r="B631" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C631" t="s">
         <v>1236</v>
-      </c>
-      <c r="C631" t="s">
-        <v>1237</v>
       </c>
     </row>
     <row r="632" spans="1:3" ht="19.8" x14ac:dyDescent="0.5">
@@ -11494,10 +11576,10 @@
         <v>728</v>
       </c>
       <c r="B632" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C632" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="633" spans="1:3" ht="19.8" x14ac:dyDescent="0.5">
@@ -11505,10 +11587,10 @@
         <v>729</v>
       </c>
       <c r="B633" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C633" t="s">
         <v>1233</v>
-      </c>
-      <c r="C633" t="s">
-        <v>1234</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.25">
@@ -11516,10 +11598,10 @@
         <v>730</v>
       </c>
       <c r="B634" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C634" t="s">
         <v>1231</v>
-      </c>
-      <c r="C634" t="s">
-        <v>1232</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.25">
@@ -11527,10 +11609,10 @@
         <v>731</v>
       </c>
       <c r="B635" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C635" t="s">
         <v>1229</v>
-      </c>
-      <c r="C635" t="s">
-        <v>1230</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.25">
@@ -11538,10 +11620,10 @@
         <v>733</v>
       </c>
       <c r="B636" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C636" t="s">
         <v>1227</v>
-      </c>
-      <c r="C636" t="s">
-        <v>1228</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.25">
@@ -11549,10 +11631,10 @@
         <v>735</v>
       </c>
       <c r="B637" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C637" t="s">
         <v>1225</v>
-      </c>
-      <c r="C637" t="s">
-        <v>1226</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.25">
@@ -11560,10 +11642,10 @@
         <v>736</v>
       </c>
       <c r="B638" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C638" t="s">
         <v>1223</v>
-      </c>
-      <c r="C638" t="s">
-        <v>1224</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.25">
@@ -11571,10 +11653,10 @@
         <v>737</v>
       </c>
       <c r="B639" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C639" t="s">
         <v>1264</v>
-      </c>
-      <c r="C639" t="s">
-        <v>1265</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.25">
@@ -11582,10 +11664,10 @@
         <v>738</v>
       </c>
       <c r="B640" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C640" t="s">
         <v>1221</v>
-      </c>
-      <c r="C640" t="s">
-        <v>1222</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.25">
@@ -11593,10 +11675,10 @@
         <v>739</v>
       </c>
       <c r="B641" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C641" t="s">
         <v>1219</v>
-      </c>
-      <c r="C641" t="s">
-        <v>1220</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.25">
@@ -11604,10 +11686,10 @@
         <v>740</v>
       </c>
       <c r="B642" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C642" t="s">
         <v>1217</v>
-      </c>
-      <c r="C642" t="s">
-        <v>1218</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.25">
@@ -11615,31 +11697,97 @@
         <v>741</v>
       </c>
       <c r="B643" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C643" t="s">
         <v>1215</v>
-      </c>
-      <c r="C643" t="s">
-        <v>1216</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A644">
-        <v>10001</v>
+        <v>742</v>
       </c>
       <c r="B644" t="s">
-        <v>1068</v>
+        <v>1276</v>
       </c>
       <c r="C644" t="s">
-        <v>1069</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645">
+        <v>743</v>
+      </c>
+      <c r="B645" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C645" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A646">
+        <v>744</v>
+      </c>
+      <c r="B646" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C646" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" ht="19.8" x14ac:dyDescent="0.5">
+      <c r="A647">
+        <v>745</v>
+      </c>
+      <c r="B647" s="2" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C647" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A648">
+        <v>746</v>
+      </c>
+      <c r="B648" s="2" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C648" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A649">
+        <v>747</v>
+      </c>
+      <c r="B649" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C649" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A650">
+        <v>10001</v>
+      </c>
+      <c r="B650" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C650" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A651">
         <v>10003</v>
       </c>
-      <c r="B645" t="s">
+      <c r="B651" t="s">
         <v>1095</v>
       </c>
-      <c r="C645" t="s">
+      <c r="C651" t="s">
         <v>1096</v>
       </c>
     </row>
@@ -11648,7 +11796,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C1 A121:C127 A120:B120 A644:C644 A315:B315 A316:C326 A352:C352 A351:B351 A587:C587 A575 A574:B574 A460:C463 A459:B459 A609:C609 A235:C249 A234:B234 A95:C98 A146:C149 A145:B145 A541:C549 A540:B540 A55:C57 A558:C564 A29:C29 A28:B28 A579:C579 A308:C314 A307:B307 A53:B54 A457:C458 A516:C516 A515:B515 A93:B94 A554:C555 A553:B553 A346:C348 A345:B345 A52:C52 A51:B51 A72:C78 A70:B70 A163:C169 A162:B162 A378:C378 A377:B377 A611:C613 A258:C259 A257:B257 A6:C7 A573:C573 A571:B571 A567:C568 A566 A602:C602 A21:C22 A20:B20 A420:C422 A115:C119 A114:B114 A287:C294 A286:B286 A418:B419 A80:C84 A79:B79 A504:C504 A503 A151:C153 A150:B150 A481:C498 A480:B480 A520:C520 A519:B519 A532:C535 A531:B531 A604:B607 A576:B578 A514:C514 A513:B513 A501:C502 A500:B500 A453:C454 A424:C424 A423:B423 A14:C14 A13:B13 A2:B5 A582:C582 A580:B580 A570:C570 A569:B569 A450:C450 A449:B449 A551:C552 A550:B550 A539:C539 A518:C518 A517:B517 A508:C512 A507:B507 A466:C468 A448:C448 A447:B447 A433:C446 A432:B432 A426:C431 A425:B425 A403:C405 A402:B402 A281:C285 A279:B279 A269:C278 A268:B268 A261:C267 A260:B260 A252:C256 A250:B251 A231:C233 A229:B230 A108:C113 A107:B107 A59:C69 A58:B58 A155:C161 A154:B154 A129:C144 A128:B128 A71 A9:C12 A8:B8 A590:C592 A380:C385 A379:B379 A451:B452 A523:C530 A521:B522 A506:C506 A505:B505 A470:C472 A469:B469 A455:B456 A100:C106 A99:B99 A40:C42 A32:C37 A16:C19 A15:B15 A565:B565 A556:B557 A536:B537 A478:C479 A477:B477 A408:C411 A407:B407 A387:C401 A386:B386 A328:C344 A327 A296:C306 A295:B295 A44:C50 A43:B43 A596:C598 A594:B594 A588:B589 A354:C373 A353:B353 A464:B465 A350:C350 A349:B349 A475:C476 A473 A86:C92 A85:B85 A30:B31 A38:B39 A171:C228 A170:B170 A600:C600 A584:C585 A583:B583 A572:B572 A24:C27 A23:B23 A499:B499 A414:C417 A413 C413 A412 C412 A406 A375:C376 A374:B374 A280:B280 A538:B538 A474:B474" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C1 A121:C127 A120:B120 A650:C650 A315:B315 A316:C326 A352:C352 A351:B351 A587:C587 A575 A574:B574 A460:C463 A459:B459 A609:C609 A235:C249 A234:B234 A95:C98 A146:C149 A145:B145 A541:C549 A540:B540 A55:C57 A558:C564 A29:C29 A28:B28 A579:C579 A308:C314 A307:B307 A53:B54 A457:C458 A516:C516 A515:B515 A93:B94 A554:C555 A553:B553 A346:C348 A345:B345 A52:C52 A51:B51 A72:C78 A70:B70 A163:C169 A162:B162 A378:C378 A377:B377 A611:C613 A258:C259 A257:B257 A6:C7 A573:C573 A571:B571 A567:C568 A566 A602:C602 A21:C22 A20:B20 A420:C422 A115:C119 A114:B114 A287:C294 A286:B286 A418:B419 A80:C84 A79:B79 A504:C504 A503 A151:C153 A150:B150 A481:C498 A480:B480 A520:C520 A519:B519 A532:C535 A531:B531 A604:B607 A576:B578 A514:C514 A513:B513 A501:C502 A500:B500 A453:C454 A424:C424 A423:B423 A14:C14 A13:B13 A2:B5 A582:C582 A580:B580 A570:C570 A569:B569 A450:C450 A449:B449 A551:C552 A550:B550 A539:C539 A518:C518 A517:B517 A508:C512 A507:B507 A466:C468 A448:C448 A447:B447 A433:C446 A432:B432 A426:C431 A425:B425 A403:C405 A402:B402 A281:C285 A279:B279 A269:C278 A268:B268 A261:C267 A260:B260 A252:C256 A250:B251 A231:C233 A229:B230 A108:C113 A107:B107 A59:C69 A58:B58 A155:C161 A154:B154 A129:C144 A128:B128 A71 A9:C12 A8:B8 A590:C592 A380:C385 A379:B379 A451:B452 A523:C530 A521:B522 A506:C506 A505:B505 A470:C472 A469:B469 A455:B456 A100:C106 A99:B99 A40:C42 A32:C37 A16:C19 A15:B15 A565:B565 A556:B557 A536:B537 A478:C479 A477:B477 A408:C411 A407:B407 A387:C401 A386:B386 A328:C344 A327 A296:C306 A295:B295 A44:C50 A43:B43 A596:C598 A594:B594 A588:B589 A354:C373 A353:B353 A464:B465 A350:C350 A349:B349 A475:C476 A473 A86:C92 A85:B85 A30:B31 A38:B39 A171:C228 A170:B170 A600:C600 A584:C585 A583:B583 A572:B572 A24:C27 A23:B23 A499:B499 A414:C417 A413 C413 A412 C412 A406 A375:C376 A374:B374 A280:B280 A538:B538 A474:B474" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>